--- a/output/Total_time_range_data/吉林省/白山市_学习考察.xlsx
+++ b/output/Total_time_range_data/吉林省/白山市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F216"/>
+  <dimension ref="A1:G216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,6910 +436,7560 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>53</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>抚松县松江河镇召开发展壮大村级集体经济增收研讨会</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-09-13</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.fusong.gov.cn/zwgk/xncjs/202209/t20220913_741080.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['为进一步发展壮大村级集体经济，按照县委组织部统一安排部署，9月6日，松江河镇召开发展壮大村级集体经济增收研讨会，分析我镇集体经济发展现状，研究工作推进思路，全面推动各村集体经济持续增收。会议由镇党委副书记、镇长崔洪玉主持召开。', '会上，全镇6个村及党建、农业农村办公室依次汇报了村级集体经济发展情况，畅谈了发展思路和举措以及在发展过程中遇到的制约因素。参会镇领导梳理各村汇报情况，逐一研究分析，从克服发展瓶颈、破解增收乏力等问题中积极探索方法，集中探讨了总体发展思路，指明了发展方向。', '会议指出，各村要坚持高位发启，多元投入、统筹推进的工作思路，集中力量狠抓严推，发展壮大新型村级集体经济，促进乡村振兴，切实提高村级组织自我保障、服务群众、推动发展的能力。', '会议要求，各村书记要切实担负起主体责任，带领班子成员逐一谋划产业项目、破解发展难题、增加收入，确保年底各村集体经济收入全部达到10万元以上。', '下一步，松江河镇党委将多措并举，集中全力促进村级集体经济增收。一是吸引选拔有能力、敢创业、懂经济、善管理的“能人”“贤人”进入村干部队伍中，积极引导党员群众发展壮大村级集体经济；二是采取召开村级集体经济座谈会、观摩会、培训会、外出考察学习等方式，组织镇内村干部学习先进适用技术、工商管理、市场营销、电子商务等方面知识，优化村干部工作理念，提升经营管理能力；三是通过争取上级集体经济发展扶持资金、协调金融部门资金支持、盘活村闲置资金、引入社会资本、吸纳群众入股等方式，扩大资金注入渠道，扩大项目规模及影响力；四是按照科学合理的原则，对发展村级集体经济较好的村给予适当奖励，将村干部的报酬与集体经济的发展效益有机挂钩，调动村级班子和村干部的积极性，增强发展村集体经济的主动性和自觉性。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>53</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>拓展培育新型职业农民造就乡村振兴生力军</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2021-09-06</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.fusong.gov.cn/zwgk/xncjs/202109/t20210906_691889.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['近年来，吉林省白山市抚松县农业农村局农民科技教育中心紧紧围绕帮助农民、提高农民、富裕农民这一根本，坚持以培育有文化、懂技术、善经营、会管理的高素质农民为目标，积极创新培养模式，不断加大培养力度，着力提升培养质量，为全县乡村振兴战略实施、“三农”更高质量发展和率先实现农业农村现代化提供了坚强有力的人才支撑。', '在全县优选130个村的书记、种养殖大户、农民专业合作社、退役军人等作为新型职业农民培养对象，根据农民需求设立培训内容，采取“听、看、跟”相结合的形式，加速先进技术和成果在当地的推广应用。组织2020级的学员参观考察学习吉林市丰满区绿兴蔬菜种植合作社，在金色秋天生态园里，学员们品尝着瓜果、蔬菜并系统学习管理模式经营理念、栽培新技术、改良新品种、防病新方法。实现理论教学和实践教学对接，使新型职业农民较好地掌握相关技术。', '乡村振兴靠产业，产业兴旺靠人才。抚松县聚焦产业振兴、农业结构调整和乡村特色主导产业，精准实施新型职业农民培训民生工程。抚松县农业农村局农民科技教育中心2021年6月组织学员前往安图县明月镇养殖场参观学习养殖技术，现场给学员讲解蜂王的识别、生活习性、繁殖、分蜂等技术，还为学员交流和合作搭建平台，聘请专家和经验丰富专家点对点跟踪服务，把新型职业农民“扶上马”、“送一程”。通过专家授课、外出考察等多种方式，累计完成新型职业农民培训1000余人次。', '为了改变现有的农村种植模式，组织学员率先到新品种、新肥料、新技术基地培训考察学习。学员李叶秋经教育中心推荐参加了吉林大学青年农场培训，通过专家、教授的培养，开阔视野，创业理念得到了提升。新型职业农民服务三农、支持乡村振兴，一直是抚松的“主战场”。经过培训、外出考察学习的新兴职业农民，不仅技术好、接受能力强，而且富有激情与干劲。', '下一步，抚松县农业农村局农民科技教育中心将坚持目标导向，在提高新型职业农民培育数量的同时，做好后续技术指导和跟踪服务，帮助新型职业农民快速成长为会经营、懂技术、善管理的行家能手，造就更多的乡村产业发展带头人，为乡村培养出了一批有乡愁、有技术的农业人才，更为乡村振兴提供源源不断人才支撑。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>53</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>长白县十四道沟镇外出考察学习助力中药材产业发展</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-01-07</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.changbai.gov.cn/zwgk/zwdt/zwdt/202201/t20220107_707323.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['1月6日，长白县十四道沟镇党委、政府组织考察组赴吉林省北药集团考察学习中医药产业发展情况。', '在吉林省北药集团，考察组成员详细了解中药材种植、加工、交易情况，学习北药集团中药材产业发展中的创新举措和先进经验。在考察过程中，考察组负责人表示，十四道沟镇富硒土壤面积广，生态资源丰富，我们将始终秉持全域旅游发展理念，深入推动药旅融合，要结合安乐村虎眼万年青种植基地和“中国虎眼万年青之乡”申报工作，扩大栽种规模，建设长白山虎眼万年青生态体验园区，开发更多药品，最大程度发挥珍珠草的药用价值。同时镇党委、政府也将积极协助招商引资来的明城农业开发有限责任公司扩大灵芝、猴头菌等多种菌类的种植规模，谋划建立中药饮片厂，为企业做好帮扶引领工作，促进全镇整个中药产业链的发展，全面带动地方群众就业、经济发展，真正以“两山”理论为指引，切实走好绿色转型、跨越发展之路。', '党的十九大报告中指出，坚持中西医并重，传承发展中医药事业，支持社会办医，发展健康产业。国务院《中医药发展战略规划纲要》与《中医药法》的颁布实施，更是标志着中医药发展成为国家战略，中医药产业进入全面发展的新时代。十四道沟镇将因势利导，加快推进中草药事业的传承、创新和发展，努力完善中草药种植、加工、销售、应用、服务全产业链，助推“健康十四”建设。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>53</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>长白县寻真经谋发展助力乡村振兴</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2021-07-19</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.changbai.gov.cn/zwgk/zwdt/zwdt/202107/t20210719_686389.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['7月16日-18日， 长白县 十二道沟镇和金华乡 班子成员、镇（乡）乡村振兴工作队、村支部书记10人，赴集安市太王镇钱湾村、大荒沟村、麻线乡下活龙村、凉水朝鲜族乡二参场社区、花甸镇观摩学习， 借鉴学习发展特色农业、美丽乡村建设、乡村旅游的先进经验，助力乡村振兴 。', '在太王镇 钱湾村，学习组实地参观了解 钱湾村乡村旅游产业带、乡村休闲农业、村容村貌整治工作开展情况 。 据了解，钱湾村乡村旅游发展产业围绕“民宿、农家乐、采摘”主线，打造采摘园，采取“党支部+企业+农户”，整合集体资金、资产、资源，成立专业合作社的模式很值得我们学习借鉴。', '在麻线乡下活龙村 ，学习组实地考察下活龙村村容村貌建设、乡里农创园、村集体经济发展情况。并就乡村旅游规划思路、改善人居环境、壮大村集体经济与学习组成员分享了经验。', '在凉水朝鲜族乡二参场社区，学习组实地参观了解二参场社区的建设及水果基地，据了解，二参场社区目前种植北京红梨和寒富苹果等果树760亩，已发展寒富苹果、北京红、尖巴酸梨等优质水果基地5100亩，年产水果1500万斤。把光秃秃的参地开发成了又青又绿的花果山，打造了以赏花游、水果采摘游、休闲生态游为主基调的旅游体验区值得我们学习借鉴。', '在花甸镇，学习组实地了解当地水稻种植+养鸭模式。对照 乡镇实际情况，提出问题，寻找答案，寻求可借鉴的经验做法，还就发展乡村旅游、美丽乡村建设向花甸镇有关同志学习取经。', '每到一处，大家都认真看、仔细听，用心学习集安市各乡镇在乡村振兴建设、乡村旅游产业、环境卫生整治、现代生态农业和新农村建设等方面取得的成就和先进经验。', '此次考察学习旨在促进 “走出去”，将先进经验、理念“带回来”，进一步拓宽视野，大家纷纷表示，将以此次考察学习为契机，进一步坚定信心、鼓足干劲，结合实际，找方向、补短板，积极探索，主动作为，努力在乡村振兴发展道路上取得新成就，实现新提升，将全镇（乡）乡村振兴工作推出新局面。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>53</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>白山市教育局全面推进素质提升工程</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2021-12-03</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://xxgk.cbs.gov.cn/jsly/jyly/202112/t20211203_701953.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['一是举办第10期“名师大讲堂”，邀请著名教育改革家魏书生、《德育报》社长张国宏、科大讯飞公司杨博老师作专题讲座，全市近800人参加活动。二是派', '期考察团赴盘锦考察学习，全市教育行政部门及中小学(幼儿园)领导和教师近100人。开展国培，省培，县区骨干教师后续跟踪培训，党员骨干培训，幼儿园教师培训，信息技术2.0提升工程培训等，参加培训5000人。三是召开“学党史、转作风、促改革，全面提升区域教育质量”动员大会。四是做好白山市教学名师候选人及乡村优秀教师评选、推荐工作。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>53</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>白山市教育局切实抓好德育工作</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2021-12-03</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://xxgk.cbs.gov.cn/jsly/jyly/202112/t20211203_701941.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['成立建设吉林·长白山青少年“上冰雪”“进森林”“树信念”综合研学实践教育基地。印发《关于进一步加强白山市中小学研学实践教育工作的实施意见》。在鲁能胜地召开吉林·长白山青少年综合实践教育基地揭牌仪式，组织100名教师、360名学生参加全市首批集中研学教师培训和学生研学实践活动。', '邀请魏书生老师到白山就良好习惯养成做专题报告；召开全市良好习惯启动大会；先后派市直学校教师100余人赴盘锦学习考察。', '邀请魏书生老师到白山就良好习惯养成做专题报告；召开全市良好习惯启动大会；先后派市直学校教师']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>53</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>临江市法院智能办案辅助中心减负提效引兄弟法院竞相学习</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2019-04-24</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.linjiang.gov.cn/zwgk/jcxxgk/bmdt/201904/t20190424_403188.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['近年来，临江市人民法院在智慧法院建设方面进行了积极探索尝试，并于2017年成立了智能办案辅助中心，是白山地区首家开展卷宗集中扫描装订和无纸化办案的基层法院。经过两年的努力，该院在电子卷宗随案生成方面积累了一定的经验，相关工作作法得到了上级法院的认可与肯定。', '为学习借鉴该院相关工作经验，长白县人民法院和靖宇县人民法院分别于4月22日、4月23日到该院考察学习。考察学习期间，各考察组重点了解了电子卷宗随案同步生成和无纸化办案情况，并参观了智能办案辅助中心。审判管理办公室工作人员对卷宗流转和云柜使用做了详细讲解并同步演示。参观智能办案辅助中心的同时，该院和各考察组就电子卷宗随案生产和深度应用方面的经验做法进行了交流和互相学习。兄弟法院对该院电子卷宗随案同步生成和无纸化办案情况给予了高度评价，希望把智能办案辅助中心的优秀的做法和工作经验运用到以后的工作中，切实通过智能办案辅助中心的有效作法为法官办案减负提效。', '为学习借鉴该院相关工作经验，长白县人民法院和靖宇县人民法院分别于4月22日、4月23日到该院考察学习。考察学习期间，各考察组重点了解了电子卷宗随案同步生成和无纸化办案情况，并参观了智能办案辅助中心。审判管理办公室', '参观智能办案辅助中心的同时，该院和各考察组就电子卷宗随案生产和深度应用方面的经验做法进行了交流和互相学习。兄弟法院对该院电子卷宗随案同步生成和无纸化办案情况给予了高度评价，希望把智能办案辅助中心的优秀的做法和工作经验运用到以后的工作中，切实通过智能办案辅助中心的有效作法为法官办案减负提效。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>53</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>白山市江源区编办赴辽源市学习只跑一次改革工作</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2018-10-17</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://jy.cbs.gov.cn/zwgk/jyxw/201810/t20181017_366472.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['近日，区政府办赵明刚主任带领区编办等相关部门，参加市政府组织赴辽源市就“只跑一次”改革向基层延伸工作进行深入考察交流学习。', '首先前往辽源市不动产登记中心和政务服务中心进行考察学习，听取相关负责人介绍大厅建设采用一个综合窗口，统一由综合窗口出件，实现“进一个门、到一个窗、办多家事”，让百姓感到办事更便捷高效。', '随后就“只跑一次”改革工作进行座谈，辽源市编办负责同志介绍事项梳理的先进做法和取得阶段性成绩及下一步对已梳理办事事项进行简化、细化和优化再升级；介绍了辽源市以电子政务网络技术为支撑，提高服务效率，为落实“只跑一次”改革做了重要保障。下午，到龙山区东艺社区、东辽县金州乡和朝阳村基层便民服务中心考察，学习向基层推动权力下沉和便民服务网点建设工作。', '此次学习考察期间，大家是一边看，一边记，收获满满。充分学习到辽源市“只跑一次”改革先进经验，转变了观念，找到了差距，为我区“只跑一次”改革向基层延伸事项梳理指明方向。（陈俊名）']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>53</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>全市赴梅集学习考察交流会议要求打造宜居宜业宜游生态白山让人民群众更有获得感幸福感安全感</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2020-11-09</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/jcxxgk/zyhy/202011/t20201109_642913.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['全市赴梅集学习考察交流会议要求 打造宜居宜业宜游生态白山 让人民群众更有获得感幸福感安全感', '11月6日，全市赴梅集学习考察交流会在市政务大厅视频会议室召开。市委书记王冰在会上强调，全市上下要学习借鉴梅河口、集安两地发展经验，紧盯目标，齐心协力，苦干实干，努力打造宜居宜业宜游的生态白山，让白山更有品位、更有魅力、更有底蕴，让生活在这里的人民有更多、更直接、更实在的获得感、幸福感、安全感。', '王冰强调，要总结经验、正视差距，进一步增强改善城乡环境的责任感紧迫感。梅河口、集安两地与白山都是我省东部长白山区域的重要城市，三地地缘相近、经济相连、文化相通、人文相亲，梅河口发展建设大手笔、大气魄，集安城乡环境干净整洁、生态宜居，先进经验非常值得我市学习借鉴。广大党员干部要结合实际，深入学习思考，既要学观念学思路，又要学机制学办法，把两地的真经学到手、用得好，转化为建设“一谷一城”、实现高质量发展的强大动力。', '王冰要求，要补齐短板、精益求精，进一步提升城乡人居环境建设水平，全力打好新一轮城乡建设攻坚战。', '要完善城市功能，提高城市品位。更加注重城市的空间布局、产业布局、生态布局，更加注重城市内涵和功能，在做强功能、做优形象、做美环境上实现新提升。高起点精致规划。结合“十四五”规划，突出规划的前瞻性、科学性，体现规划的特色性、鲜明性，多留精品、不留败笔、少留遗憾，把城市建设这篇大文章做精做细做好。高质量精心建设。坚持高标准、严要求，全力推进“森林入城”,加快重点项目建设,做好地下管网建设,改造提升老旧小区,严格管理房地产市场,干一个成型一个，打造高品质的民心工程、过硬工程。高标准精细管理。加强市政管理，有计划分步实施市政工程，避免打补丁式维修。整治重点环节，打造开放共享、环境舒适、体验丰富的街区内部公共空间。建设智慧城市，全面提升城市经济社会信息化水平。高效率精准服务。完善基础功能配套，构建满足城乡居民需求的物流集散、生鲜配送、文化娱乐等生活服务设施。强化公共服务功能，保证城乡居民就近就地享受均等化的公共服务。突出地域文化特色，实现城市发展特色化、品牌名牌化、价值最大化，打造差异化城市品牌形象。', '要突出地域特色，建设美丽乡村。改善农村人居环境是实施乡村振兴战略的一场硬仗，是加快发展乡村旅游、推进一二三产深度融合发展的重要举措。抓好垃圾治理，改善卫生环境。突出“精细”和“长效”两个关键，聚焦重点部位，突出重点、攻克难点，做好农村非正规垃圾堆放点整治，探索更加高效的垃圾治理模式，大力引导农民逐步改掉陋习，努力让农村真正干净起来。推进厕所革命，提升生活品质。按照“宜水则水、宜旱则旱”原则，因地制宜，分类指导，进一步提高改造质量，加快完成今年目标任务。开展污水治理，修复水体生态。结合落实“河长制”和环保督察要求，持续开展河湖“清四乱”行动，持续推动问题整改，让生态更美、环境更优。注重绿化美化，提高乡村颜值。以全域旅游视野整治农村人居环境，大力开展各具特色的绿化美化，打造景观、增添亮色，改善和提升农民的生产生活环境，建设一批独具特色的民俗村、生态新村、旅游节点村、原乡村落，夯实全域旅游发展基础。', '要建立长效机制，巩固工作成效。持续深化改革。探索新的城市开发模式，最大限度地盘活存量，实现城市资源配置容量和效益的最大化、最优化。实施“网格化”管理。坚持属地管理原则，全面推行“路长制”，做到层层有人抓，事事有人管，件件有着落。实行市场化运营，积极探索采取政府购买服务的方式，提高城市管理效能。推动多元化共治。充分发挥社区作用，加强对市民文明行为的引导和规范，建立城市管理联席会议制度，最大限度推动综合治理。', '王冰要求，要压实责任、狠抓落实，进一步强化组织保障。各地各部门要集中力量、合力攻坚，确保城乡环境建设扎实推进、取得实效。坚持实干导向，发扬钉钉子精神，敢于直面困难、突破瓶颈，真正用实干担当书写出城乡建设的新篇章。形成工作合力，心往一处想，劲儿往一处使，通力合作，确保各项任务按时序推进。营造良好氛围，把城乡管理建设工作宣传到每家每户，实现支持配合成为社会自觉，努力营造全民关心支持城乡发展的浓厚氛围。强化督导检查，将督查结果纳入年终绩效考核内容。', '市委副书记、市长马坚在讲话中强调，要把这次学到的好经验、好做法切实加以理解、消化、吸收，真正内化于心、外化于行，更好地指导推动实际工作。要学习先进、见贤思齐，找准差距、补齐短板，把这次赴梅集两地考察之旅的所见、所闻、所学、所思落到实处，为建设“一谷一城”、推进绿色转型全面振兴高质量发展作出新的更大的贡献。', '会议以视频形式召开。市领导裘会文、李永杰、张习庆、费洪海、刘晓刚、崔学武，市政府秘书长孔祥锋，市委、市政府副秘书长及各相关市直单位主要负责同志在主会场参加会议。各县（市、区）党委常委，县（市、区）人大常委会、政协主要负责同志，县（市、区）政府副职领导，以及各相关县直单位、乡（镇）主要负责同志在分会场参加会议。', '前不久，我市组织全市120余名党政干部考察团，到梅河口、集安考察城市建设和农村人居环境整治工作，学习两地先进经验，全面提高我市城市建设和农村人居环境水平。学习考察、收获颇丰。交流会上，浑江区、江源区、临江市、抚松县、靖宇县、长白县、市住建局、市农业农村局、市自然资源局主要负责同志就梅河口、集安考察学习情况进行交流发言。大家纷纷表示，通过学习考察，进一步提高了眼界、开阔了视野、看到了差距、找到了目标，更增强了加快建设“一谷一城”的信心和动力。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>53</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>县全域旅游公司开展深化旅游发展对接交流工作</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2021-08-10</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.changbai.gov.cn/zwgk/zwdt/zwdt/202108/t20210810_688624.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['为全面加强交流与合作，共同推动两地旅游业互利共赢发展，8月9日，县全域旅游公司到长白山天池南坡风景区开展深化旅游发展对接交流工作。', '我县与天池南坡风景区同为旅游客源地、目的地，旅游资源互补，有着十分广阔的合作发展空间，双方希望通过加强旅游合作，能够促进旅游各要素流动，进一步发挥旅游资源优势，共同实现旅游业加速发展。', '双方将建立互访机制，每年开展学习、考察、交流活动，以此保持密切联系和沟通，保证合作工作的协调和畅通。双方也将积极搭建旅游互动平台，促进两地旅游开展长效合作，支持双方互为旅游目的地和客源地建设，借助各自宣传媒介定期发布对方的旅游信息，进行旅游资源信息共享、产品信息互推，积极促进资源互补、客源互送，共同促进全域旅游事业融合发展。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>53</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>长春新区组织人武干部开展迎八一练本领学先进军事日活动</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://ccxq.gov.cn/xqyw/xqdt/202307/t20230725_2450848.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['新区全体人武干部首先来到朝阳区人武部进行学习考察，了解朝阳区人武部发展历程及阵地建设情况，朝阳区人武部部长于洋、政委崔明军介绍了相关做法。随后，来到位于欧亚汇集六楼的木仓实弹射击俱乐部集合，进行射击训练。训练现场，教练人员向全体参训干部详细讲解枪支使用的相关常识、射击动作要领及注意事项，并在每个射击靶位安排一名教练员，及时矫正射击姿势，确保射击活动安全进行。训练过程中，参训干部情绪高昂，动作标准规范，充分展现了新时期基层专武干部的良好素质。', '当日下午，长春新区人武干部集体前往宽城区欣园街道，实地察看了战备物资器材库、青年民兵之家、图书室等阵地，工作人员详细介绍了欣园街道基层武装部标准化建设等情况。欣园街道武装部作为长春警备区“五星级基层武装部”，在思想建设、队伍建设、阵地建设等方面，按照上级标准化要求，不断加大工作力度，强化工作措施。特别是在物资保障方面，进一步完善保障机制，取得显著成效。宽城区人武部部长张希友、副部长何恩群，欣园街道书记于占海、人武部长张海韬出席此次活动。', '长春新区党群办、社会事业局分管领导及工作人员，各开发区党政办分管副主任及工作人员、所属乡街人武部长等20余人参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>53</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>宋刚率队赴赣州成都和重庆等地考察调研</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://ccxq.gov.cn/xqyw/gkfqdt/202307/t20230726_2452099.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['为支撑长春新区“311X”产业体系建设，全面建设现代物流产业园，7月17日—7月20日，北湖科技开发区党工委书记、管委会主任宋刚率队赴赣州、成都和重庆等地学习考察。', '重庆等地国际陆港建设和运营的先进经验做法，助力新区陆港建设。宋刚一行首先来到赣州国际陆港，详细了解赣州国际陆港发展历程、建设规模、功能定位、服务的主要区域及产业规模，国际陆港要素保障及政策支持等，并就陆港规划设计、建设、运营管理、体制机制、海关及行政审批等做法与赣州国际陆港管委会副主任陈怀德召开座谈会进行深入交流。', '宋刚一行还与入驻赣州国际陆港的江西龙泰安食品链有限公司负责人、赣州进出口贸易商鸿枫木业负责人进行深入沟通，了解企业冷链食品、进出口木材主营业务、发展模式和入驻政策，并邀请企业近期到长春北湖科技开发区和长春国际陆港进行考察调研。', '作为全国唯一依托铁路港而设立的自贸区，成都青白江区在全国首创了集拼集运模式、平行进口汽车海铁联运监管模式，组建成都国际铁路港投资发展有限公司的创新路地合作机制。', '7月19日，宋刚一行在成都与四川自贸区青白江片区管理局专职副局长、成都国际铁路港管委会主任雷庭举行了工作座谈，并实地考察了成都国际铁路港综合保税区、成都铁路口岸仓储设施和成都国际铁路港国家馆等项目。座谈会上，宋刚一行详细了解中欧班列通道建设、成都铁路口岸功能发挥、产业集聚以及外向型经济发展等情况。宋刚指出，成都国际铁路港在物流网络、对外贸易、制度创新和管理体制等方面有着成熟的创建和运营经验，值得长春新区国际陆港学习借鉴。', '7月20日，宋刚一行在重庆市口岸物流办和陆海新通道运营有限公司相关负责同志的陪同下参观了重庆内陆国际物流枢纽展示中心，通过图文、实体仿真模型、数字模拟等展示方式深入了解到重庆内陆开放高地建设历程，包括重庆市开放经济、开放通道、口岸物流、物流枢纽等建设和运营情况。随后宋刚一行实地考察了陆海新通道重庆无水港项目，详细了解陆海新通道运营有限公司在西部陆海新通道跨区域综合运营模式。宋刚指出，相关部门要对标重庆内陆国际物流枢纽发展，进一步加强交流合作，建立沟通对接机制。', '考察中，宋刚强调，随着“一带一路”建设和长吉图开发等国家战略的实施，尤其是站在中俄新一轮合作历史机遇期，使长春新区前所未有地站在了开放前沿，也前所未有地赋予了长春新区争当开放发展排头兵的历史使命。我们要紧紧抓住这一战略机遇，全力打造对外开放重要城市，积极抢占未来发展制高点，推动老工业城市转型发展、创新发展、跨越发展。要推进跨区域合作，着力加强与南向开放通道节点城市、重要港口城市协同合作，在口岸建设、园区互动、产业协同和人文交流等方面深度合作，实现互补互利、共建共享。', '长春新区物流办、北湖科技开发区党政办、国有平台运营公司、中庆集团相关负责人陪同调研。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>53</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>吉川高频互动共谋法务区发展大计</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-03-28</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://ccxq.gov.cn/xqyw/xqdt/202303/t20230329_2306925.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['为推动吉林省、四川省在法务区方面的高质量发展和建设，加强交流互动。日前，由四川省司法厅副厅长王飙带队的四川省法务区建设工作学习考察组到长春智慧法务区开展调研交流活动。', '考察组一行先后到长春知识产权运营服务平台、长春知识产权法庭、长春互联网法庭参观考察，详细了解知识产权运营服务平台在知识产权创造体系、知识产权保护体系及知识产权运营生态等方面的业务开展情况，对两个专业法庭的运行机制、人员架构及创新业务情况进行了详细了解。随后，到长春智慧法务区法务大厦，对法务区展示中心、长春国际仲裁院和省司法厅、市司法局公共法律联合运行管理中心及入驻法务区的律所进行了参观。详细了解长春智慧法务区建设背景、建设基础、资源优势、发展现状及入区项目等情况。', '在法务大厦召开两省间的法务区发展建设业务交流会，会议由吉林省司法厅副厅长邓健主持。长春智慧法务区管理办公室主任韩庆福就法务区贯彻“立足吉林、服务东北、面向全国、影响东北亚”的战略方向，践行“强功能、兴产业、聚资源、引人才”的发展路径，结合长春智慧法务区的近期、中期、远期发展目标，围绕“强功能”，完善法律服务，聚焦“兴产业”，优化产业生态，锚定“聚资源”，构建法治体系，突出“引人才”，塑造品牌形象及下一步推进智能化、专业化、集约化、标准化的发展建设进行了细致阐述。交流环节，双方就法务区运行管理机制、法律服务业务的拓展、法商融合发展路径、法务服务特色数字化功能等问题进行了细致研讨。', '王飙表示，感谢长春智慧法务区的热情接待，对长春智慧法务区短时间内在法务区的发展定位、机制创新、业务协同及智慧法务等方面取得的发展成果深感震撼，希望双方加强交流互动，共谋产业发展。', '邓健表示，非常欢迎四川省法务区建设工作学习考察组一行莅临指导，对四川省各政法部门一直以来的支持表示感谢。她强调，法务区是打造法治化营商环境、助推区域经济发展的重要载体，希望双方加强交流互动，共促两省在法务区方面的高质量发展建设。', '长春市司法局副局长王云飞，吉林省委政法委、吉林省司法厅、长春市司法局、法务区管理办公室及入驻法务区专业法庭的相关负责人参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>53</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>推动企业合作人才交流取得更大成效共同把吉浙对口合作落实落细落到位</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-10-19</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://swj.cbs.gov.cn/gzdt/gnmy/202310/t20231019_787802.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['本报10月18日讯（记者黄鹭）今天上午，吉林省党政代表团继续在浙江学习考察，吉林省—浙江省招商引智座谈会在杭州召开。省委书记景俊海出席会议，与浙江知名企业家和优秀吉林籍人才代表共叙友情乡情，共谋合作发展。省委副书记、省长胡玉亭主持会议。', '会上，26个合作项目集中签约，引资额268.65亿元。正泰集团股份有限公司董事长南存辉，金田阳光投资集团有限公司党委书记、董事局主席金位海，颐高集团有限公司董事长翁南道，传化物流集团有限公司总裁周升学，绿城中国控股有限公司执行总裁、党委书记李森，认养一头牛控股集团股份有限公司董事长徐晓波等知名企业家代表，以及浙吉金控董事长、浙江省吉林商会执行会长刘士龙，浙江贝塔股权投资基金管理有限公司总经理、浙江省金融人才协会副会长兼秘书长郭涛，浙江星奥农业科技有限公司董事长佟春光等吉林籍人才代表发言。与会人员共同观看吉林省情宣传片。', '景俊海强调，吉浙对口合作开展以来，一批知名浙企踊跃赴吉洽谈合作、投资兴业，带来一系列浙江好经验好做法，为推动吉林振兴发展作出了积极贡献。当前，我们正在深入学习贯彻习近平总书记在新时代推动东北全面振兴座谈会上的重要讲话精神，紧跟转型数字化、服务智能化、社会共享化、产业高级化趋势，瞄准发展“六新产业”、建设“四新设施”主攻方向，纵深推进“一主六双”高质量发展战略，着力打造三个万亿级大产业和若干千亿级产业集群，奋力推动吉林在新征程上重振雄风、再创佳绩。吉林稳中有进的发展势头、坚实雄厚的发展基础、持续优化的发展环境，为广大浙江企业加强在吉投资合作提供了良好机遇，为广大吉林籍人才返乡创业就业提供了广阔舞台。希望各位企业家深入吉林觅商机、兴产业、扩投资、落项目，共同把吉浙对口合作落实落细落到位。我们将在市场准入、产权保护、要素配置、审批监管等方面，为广大企业提供“妈妈式”服务保障，让大家投资更放心、创业更安心、发展更顺心。希望各位吉林籍人才积极返乡创新创业、合作发展，为家乡振兴发展贡献力量。我们将持续打造竞争力强的政策环境、开放包容的制度环境、待遇优厚的生活环境、敬贤礼才的社会环境，让大家在吉林安心、安身、安居、安业。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>53</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>抢抓吉林全面振兴新机遇携手开辟事业发展新天地</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-10-19</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://swj.cbs.gov.cn/gzdt/zsyz/202310/t20231019_787805.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['本报10月17日讯（记者黄鹭）今天上午，省委书记景俊海率领吉林省党政代表团继续在上海学习考察，召开吉林省—上海市招商引智座谈会，与上海知名企业家、优秀吉林籍人才代表深入交流。省委副书记、省长胡玉亭主持会议。', '会上，39个合作项目集中签约，引资额480.9亿元。上海电气集团党委书记、董事长冷伟青，上海建科集团党委书记、董事长王吉杰，上海均和集团轮值总裁李金峰，上海均瑶（集团）有限公司总裁王均豪，上海联影医疗科技股份有限公司中国业务联席总裁缪宏，华道（上海）生物医药有限公司董事长余学军等知名企业家代表，以及上海森蜂园蜂业有限公司董事长、上海市吉林商会会长于富民，上海洱生信息科技（集团）有限公司董事长、上海市吉林商会执行会长尹绂聿，上海锡鼎智能科技有限公司董事长刘凯等吉林籍人才代表发言。与会人员共同观看吉林省情宣传片。', '景俊海强调，前不久，习近平总书记主持召开新时代推动东北全面振兴座谈会并发表重要讲话，指出了东北资源条件、产业基础、独特区位等优势，明确了东北全面振兴的发展路径。这既为吉林在新征程上重振雄风、再创佳绩注入了坚定信心和强劲动力，又为我们在新时代推动吉林全面振兴提供了重要机遇。这些年，我们始终牢记习近平总书记殷殷嘱托，全面实施“一主六双”高质量发展战略，聚焦转型数字化、服务智能化、社会共享化、产业高级化趋势，加快发展“六新产业”、建设“四新设施”，努力打造三个万亿级大产业和若干千亿级产业集群，进一步营造市场化法治化国际化营商环境，持续为吉林振兴发展夯实基础、聚势赋能。当前，吉林与长江经济带发展战略对接全面加强、持续深入，一批大项目好项目落地建设，吉林正在迎来快速发展的重要机遇期。希望各位知名企业家走进吉林、了解吉林、投资吉林，深入挖掘用好吉林丰富资源，与我们一路同行、一路分享、一路共赢，携手开辟事业发展新天地。希望各位优秀吉林籍人才以这次座谈会为契机，积极回乡创业就业、创新合作，把更多新理念、新技术、新模式带回吉林。我们一定努力为大家搭建一流事业平台，创造良好工作生活条件，让大家在吉林尽情施展才华、实现人生价值。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>53</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>宋刚书记率队观摩学习无锡马拉松赛</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2023-03-23</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://ccxq.gov.cn/xqyw/gkfqdt/202303/t20230323_2303383.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['为确保2023长春马拉松赛成功举办，3月16日至3月19日，北湖科技开发区党工委书记、管委会主任宋刚率队随同长春市体育局、长春市财政局、长春市卫健委等相关部门，赴无锡市观摩学习2023无锡马拉松赛。', '月16日至3月19日，北湖科技开发区党工委书记、管委会主任宋刚率队随同长春市体育局、长春市财政局、长春市卫健委等相关部门，赴无锡市观摩学习2023无锡马拉松赛。', '2023无锡马拉松为五赛合一的白标赛事，赛事整体水平及赛事规格相较往年全面提升，具备国际标准。宋刚书记一行先后前往运动员接待酒店、训练场地及马拉松赛道展开实地学习考察。从起点太湖大道隐秀路路口出发，循着赛道一路到达终点无锡太湖国际博览中心，在详细了解沿途环境、设施及公共医疗场所等情况后，重点询问了起、终点物料供给，标准化赛道的具体事宜。', '北湖管委会作为2023长春马拉松赛的协办单位，通过本次学习观摩，在开放的办赛理念、务实的办赛风格中深受启发，丰富了区域办赛经验，希望在即将开赛的长春马拉松赛中，能以赛为媒，引领运动风潮，展现北湖形象，助推新区建设。', '北湖开发区党政综合办公室主任王世亮、投资促进局局长李文泽及文旅体科室工作人员陪同考察。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>53</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>市教育局多措并举抓好校园德育工作</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2021-10-19</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://xxgk.cbs.gov.cn/jsly/jyly/202110/t20211019_696894.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['·长白山青少年“上冰雪”“进森林”“树信念”综合研学实践教育基地。印发《关于进一步加强白山市中小学研学实践教育工作的实施意见》。5月25日在鲁能胜地召开吉林·长白山青少年综合实践教育基地揭牌仪式，组织100名教师、360名学生参加全市首批集中研学教师培训和学生研学实践活动。二是开展国家安全日活动。 4月15日，红旗小学、第二十一中学、长白山职业技术学院等学校200名学生参加白山市2021年全民国家安全教育日宣传教育活动。三是全面开展中小学（幼儿）良好养成工作。邀请魏书生老师到白山就良好习惯养成做专题报告；派市直学校教师45人赴盘锦学习考察，考察结束后市直各学校组织考察学习汇报会；召开全市良好习惯启动大会，全面开展培养学生良好习惯工作。四是做好全市中小学生评优评先工作，根据省、市相关文件要求，评选出1名省级优秀学生，61名市级五好学生，598名市级优秀学生。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>53</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>市六届人大常委会召开第四十三次主任会议</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2021-05-12</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://credit.jlbc.gov.cn/xydt/bddt/202110/t20211021_372364.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['本报讯（记者张赫）5月11日，市人大常委会主任葛树立主持召开市六届人大常委会第四十三次主任会议。', '主任会议建议常委会会议议程为：听取和审议市人大社会建设委关于赴域外考察养老服务体系建设情况的报告；听取和审议市政府关于2020年环境状况和环境保护目标完成情况的报告；人事事项。', '会议听取了全市年度环保目标完成情况、农作物秸秆露天禁烧和综合利用情况的调研工作汇报，听取了学习考察域外养老服务体系建设情况的汇报。', '市人大常委会副主任王郢、叶静波、何野平、刘福彪出席会议；市人大常委会副秘书长、市人大各委办室负责人列席会议。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>53</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>这项工作公安部累计投入资金亿元</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2024-01-24</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://police.cbs.gov.cn/sy/tpxw/202401/t20240125_799793.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['公安部1月23日在京召开新闻发布会，通报公安部党委深入贯彻落实习近平总书记关于巩固拓展脱贫攻坚成果、全面推进乡村振兴的重要指示精神，用心用情用力做好定点帮扶、助力乡村振兴工作举措成效情况。', '2021年以来，公安部加强组织发动，突出公安特色，用心用情用力，累计为贵州省兴仁市、普安县和广西壮族自治区三江县投入帮扶资金1.7亿元、引进帮扶资金1.7亿元，选派25名机关干部赴三地挂职，发动部属单位1879人次实地调研，培训基层干部、技术人员等3万余人次，采购和销售农副产品价值6亿余元，打造了“万亩茶园”、民警支教、“三江党旗红”等一批立得住、叫得响的帮扶品牌，受到社会各界的一致赞誉。其中，2023年为三地投入帮扶资金5834万元、引进帮扶资金2144万元，培训基层干部、技术人员等9855人次，采购和销售农副产品价值2.5亿元，帮助三地持续巩固拓展脱贫攻坚成果、大力推进乡村振兴。', '培育特色产业。一次性投入1000余万元在普安县新建1万亩茶园，帮助全县11个乡镇1万余名群众在家门口就业。援建3座茶叶加工厂，解决茶青就近加工难题，聘请专家上门培训茶农3000余人，在全国部分高铁站设置普安茶叶展柜160多个，助力品种培优、品质提升、品牌打造。2023年，投入600万元为普安新建茶青交易市场等产业设施，改良茶树种植土壤2500亩，仅销售茶青就带动农户增收500万元，“万亩茶园”的帮扶经验入选了全国首批乡村振兴典型案例。协调北京首农集团与兴仁市深化薏仁米产销合作，为兴仁引进农产品加工企业，加强产品种类研发，拓宽销售渠道。国家移民管理局帮助三江县160个品种农产品开展质量检测、质量认证，带动“一村一品”产业项目提质增效，发展壮大了村集体经济。', '发展乡村旅游。聚焦“红色+旅游”“体育+旅游”“康养+旅游”项目，为兴仁市援建长征海河战斗遗址纪念馆，协调在高铁列车上、航站楼播出三地旅游风光宣传片，提升三地知名度。2023年以来，协助贵州省黔西南州先后举办山地旅游大会、全国警察马拉松赛等活动，投入550万元帮助兴仁市鲤鱼村打造集红色教育、特色产业、休闲观光于一体的乡村振兴示范点，促进农文旅融合发展。', '深化消费帮扶。连续4年发动全国公安机关进行消费帮扶，推进三地特色产品进机关、进学校、进食堂，并建立常态化购销机制，累计采购三地农副产品3.8亿元。2023年，在黔西南州举办公安部定点帮扶专场直播带货活动，线上线下累计总销售额达881万元，近期又在三江进行直播带货。同时，引进厦门等地农产品销售企业与兴仁市、普安县做好产销对接。特别是将“普安红”茶叶和三江侗族刺绣手工艺品列为公安部外事礼品，向海外朋友宣传脱贫成果。', '促进就近就业。为普安县引进2家警用被装生产企业，帮助三地引进手袋厂、皮鞋厂、家纺厂等劳动密集型产业，设置乡村公益岗位，提升就业容量。2023年，指导普安县2家企业提高生产技术，发动全警完成采购额1.5亿元，解决300余名搬迁群众就近就业。', '深化劳务协作。协调宁波、厦门、惠州等地公安机关与三地开展东西部劳务协作，通过设立招聘站、举办专场招聘会等形式，精准对接用工需求，开通务工就业直通车，发动务工地公安机关做好务工群众关心关爱和服务保障工作，帮助三地3300余名群众实现稳就业。', '加强技能培训。每年组织三地乡镇干部、致富带头人和群众开展考察学习和就业技能培训，帮助他们开阔视野、转变观念、提升技能。国家移民管理局在三江县建立“培训+拿证+就业”一体化培训模式，惠及群众900余人。', '强化组织保障。以发展帮扶地区青少年足球运动和英语为切入点，部署北京市公安局、国家移民管理局选派优秀青年民警赴三地开展支教，建立健全工作机制，促进三地基础教育质量得到整体提升。发动公安部部属各单位捐款捐物，协调中国篮协、中国足球发展基金会等单位，从援助训练器材、开展专业培训、举办体育赛事等方面加强支持保障。', '细化目标举措。足球支教方面，为兴仁市、普安县组建22支校园足球队，每学期开展2000余学时足球训练，已培养足球国家一、二级运动员51人，6人入选贵州省青训队、45人入选黔西南州青训队。2023年，公安部在北京、福建厦门、贵州黔西南州、新疆喀什等地举办了4场青少年足球赛事和研学活动，使帮扶地区的青少年走出大山，感受中国式现代化建设的伟大成就。指导黔西南州成立青少年足球基金会，确立了乡村教育与足球发展互促共进的“校园足球”发展路径。英语支教方面，为兴仁市、普安县开设英语兴趣班14个，开展英语竞赛、口语实践等活动340余场次，两地中小学校600余名英语兴趣班学生平均成绩提升至96分。国家移民管理局帮助三江县创新教学法，协调史家小学等名校校长带队为三江县开展教师培训，邀请北京等地名师为三江1842名应届高中毕业生作“高考冲刺”系列辅导讲座，一本、二本上线人数为历史最高。', '丰富载体形式。引进城市名校与三地中小学结对，搭建“云课堂”等线上教学平台，帮助三地教师改进授课方式、提高教学水平。同时，采取培训和送教上门等方式培训三地教师。', '强化党建引领。在三地乡镇道路沿线、文化广场设置宣传栏、宣传标语，深入宣传习近平新时代中国特色社会主义思想，传递党的惠农政策，弘扬社会主义核心价值观，推进农村移风易俗。2023年，继续组织公安部部属先进党支部与三地农村党支部结对，开展“感悟二十大思想伟力、共建助力乡村振兴”等联建联创和主题党日活动，国家移民管理局组织三江县129名正科级干部到清华大学参加培训，进一步擦亮警地共建活动品牌。', '发展社会事业。筹集1.1亿元帮助三地改善中小学办学条件，援建学校硬件设施和教学条件得到极大改善。筹集2870万元为三地援建乡镇卫生院、村卫生室，捐赠医疗器械和药品，让三地农村群众就近就医有了保障。2023年，投入500万元为兴仁市人民医院新建外科急诊大楼，协调宁波大学附属人民医院、海曙区中医院与普安白沙乡、高棉乡卫生院建立对口帮扶关系，国家移民管理局组织医疗小分队赴三江巡诊义诊，为学生、老人等重点群体举办健康知识公益讲座。针对去年旱情严重的情况，筹集400万元帮助三地修建蓄水池、更新供水管网、购置运水设备，有效解决了三地农村缺水难题。', '整治提升人居环境。在三地31个村开展人居环境整治，因地制宜推进生活垃圾处置、污水治理、卫生厕所改建、庭院美化绿化等工程，援建产业路、便民桥、活动广场、农贸集市等基础设施。兴仁市老里旗村、鲤鱼村、普安县白石村、三江县归东村分别被评为省、市（州）级乡村振兴示范村。', '下一步，公安部将再鼓干劲、再接再厉，继续认真做好定点帮扶各项工作，坚决巩固拓展好脱贫攻坚成果、助力全面推进乡村振兴，坚决完成好党中央交给的政治任务。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>53</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>务实开展对口合作共享两山理念成果丨区长刘刚带队开展招商引资活动系列报道二</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2023-02-17</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.hunjiang.gov.cn/zw/hjyw/202302/t20230217_760185.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['湖州是“两山”理念的诞生地，是全国首个地市级生态文明先行示范区，白山市浑江区与湖州市吴兴区全面对接、对口合作，全力践行“两山”理念重要思想。2月13日—14日，区委副书记、区长刘刚带队赴浙江省湖州市吴兴区开展对接交流和考察学习，深入落实全区高质量发展大会部署要求，进一步推动两地务实合作，实现优势互补、携手发展、共同进步。', '在湖州市产业投资发展集团有限公司的座谈会上，总经理陈百民对刘刚一行的到来表示欢迎，并介绍了湖州产业集团概况及发展历程。刘刚表示，浑江区正奋力推进绿色转型高质量发展，围绕“五大产业”，集中力量高标准打造“一区多园”。希望湖州产业集团乘两地对口合作东风，积极参与到浑江区的产业发展、园区建设中来，为两区合作增添新亮点。双方就“服装产业园”项目开展深入洽谈，湖州市产业集团计划以直接投资方式参与园区建设。', '考察期间，刘刚一行先后踏查了浙江贝盛光伏股份有限公司、湖州灵粮生态农业有限公司、浙江三一装备有限公司、妙西谷堆乡创空间、原乡小镇、湖州美欣达机动车回收拆解有限公司等企业和项目。刘刚认真了解这些企业的经营现状、运营模式、投资方向、规划建设、业务领域等，并详细介绍我区的基本区情、园区建设、优惠政策及相关产业的发展状况，并真诚邀请企业负责人到浑江区实地考察，投资兴业。', '在中共湖州市委党校，刘刚一行与吴兴区区委常委、常务副区长潘帆等开展对口合作交流座谈会。双方在多个合作领域达成共识。如，共同出资设立浑江区产业引导基金，吴兴区相关资本作为LP之一出资1000万元，推动产业绿色转型；吴兴区计划提供资金支持，参与浑江区沃金黑牛养殖项目建设；双方共同开发鸭绿江文旅资源，支持浑江区购买游船开展水上旅游项目……近期，吴兴区将派专班到我区就项目实施进一步开展对接落实。刘刚代表浑江区委区政府对近年来吴兴区给予的支持表示感谢，未来双方将在绿色食品、生态农业、循环经济、环保产业、乡村振兴、全域旅游等领域开展深度合作，助推浑江、吴兴两地“绿水青山”转化为“金山银山”。', '吴兴区委书记赵如浪，区委常委、常务副区长潘帆，区委常委、高新区书记杨斌，副区长厉云燕、金斌斌、王占山等分别参加座谈和考察。浑江区委常委、副区长韩东，区委常委、副区长傅远超，副区长英宝庆及相关部门负责同志参加考察。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>53</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>长白县中小学校长赴辽宁省本溪县考察学习</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2024-05-24</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.changbai.gov.cn/zwgk/zwdt/zwdt/202405/t20240524_810563.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['为进一步落实长白县教育局“112”攻坚行动，全面深化课堂教学改革和“语文主题学习”实验研究，强化全县中小学教学管理，推进学校内涵发展和校园文化建设，5月13日—5月15日，县教育局、县教师进修学校相关领导，全县校长（园长），共计26人，赴辽宁省本溪县进行了为期3天的考察学习活动。', '活动中，考察人员分别参观了本溪县实验小学、本溪县第三中学、本溪县高中三所学校。考察人员深入课堂观摩“语文主题学习”教学活动；观看了本溪县实验小学读书汇报展示、大课间活动、社团活动、校园文化等。在每所学校参观结束后，双方针对“如何形成特色的办学思想”“打造有特色的学校”“学校文化与品牌建设”“学校管理”“课堂教学改革”“新高考改革”等方面进行了座谈交流，双方畅所欲言、答疑解惑，携手相融、互通共进，收获颇丰。', '通过此次考察学习，全县校长了解了域外教育思想，拓宽了教育思维，为我县教育教学工作理清思路，凝聚了教学智慧，提升了课堂指导能力和管理水平，为助力教学管理工作的规范化、科学化、特色化起到巨大的推动作用。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>53</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>吉林陕西企业家座谈会召开集聚创新要素资源持续深耕吉林市场</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2024-05-06</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://swj.cbs.gov.cn/gzdt/zsyz/202405/t20240506_808764.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['4月29日，吉林·陕西企业家座谈会在西安召开。省委书记景俊海出席座谈会，与陕西知名企业家代表深入交流互动，共谋合作发展，推动新时代吉林全面振兴率先实现新突破。省委副书记、省长胡玉亭主持会议。', '会上，与会人员共同观看吉林省情宣传片。隆基绿能科技公司董事长钟宝申、陕西投资集团董事长李元、世纪荣华投资控股集团董事长崔荣华、步长制药公司总裁赵超、西安大医集团董事长刘海峰、大唐西市集团董事局主席吕建中、陕西成长集团董事长尹建国等知名企业家代表深情发言，一致表示看好吉林振兴发展前景，愿意在吉林投资兴业、与吉林携手共进。', '景俊海首先代表省委、省政府，向广大秦商对吉林振兴发展的大力支持表示衷心感谢。他说，陕西是中华民族和中华文明的重要发祥地，绵延不绝的历史文化涵养了一代又一代秦商。新时代以来，广大秦商秉承“厚德重道、勇毅精进、融创实干、义利报国”精神，顽强拼搏、开拓进取，为推动陕西乃至全国经济发展作出了重要贡献。特别是这些年，一大批秦商积极响应东北全面振兴国家重大战略号召，踊跃来吉投资合作、创业兴业，为吉林全面振兴注入了新动能新活力。', '景俊海指出，今年一季度，我省GDP增速位居全国第一，其他主要经济指标增速领跑全国，充分展现出吉林全面振兴进入了稳住上升期、稳在快车道的新阶段。我们将再接再厉、奋勇向前，继续认真落实习近平总书记在新时代推动东北全面振兴座谈会上的重要讲话精神，切实构建起高质量发展体系、高品质生活体系、高水平安全体系，为全国各地企业家和优秀人才打造一流的营商环境、开放环境、创新环境、生活环境，让大家在吉林干事创业更放心、更安心、更舒心。', '景俊海强调，这次吉林省党政代表团到陕西学习考察，就是要深入贯彻习近平总书记关于推进东北全面振兴与西部大开发战略深度对接的重要指示精神，推动“吉陕一家亲”走深走实、再谱新篇。吉陕两省产业关联度高、互补性强。希望广大秦商牢牢抓住吉林全面振兴时代机遇，聚焦我省“四大集群”培育、“六新产业”发展、“四新设施”建设，进一步加强与吉林交流对接，找准在吉投资合作契合点，集聚创新要素资源，持续深耕吉林市场，让吉陕合作成果更丰硕、情谊更浓厚。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>53</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>吉林浑江经济开发区赴长春市山东省开展经贸交流活动</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2024-03-25</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.hunjiang.gov.cn/zw/gsms/202403/t20240328_804866.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['为积极贯彻落实浑江区高质量发展大会暨经济工作会议精神，3月18日至22日，吉林浑江经济开发区考察团赴长春市、山东省济南市、泰安市、淄博市开展招商引资学习考察活动，切实提高开发区招商引资质量和实效。', '考察团先后拜访了山东宝来利来生物工程股份有限公司、药用玻璃股份有限公司、瑞丰高分子材料股份有限公司、瑞阳制药股份有限公司、华源实业发展有限公司等医药健康、玻璃制品、环保新材料等企业，与有关企业负责人进行交流，详细了解企业基本情况、生产经营状况，并围绕浑江开发区园区建设、产业布局、投资环境、资源禀赋等方面，开展精准对接洽谈，寻求项目招引落地合作。', '考察期间，浑江经济开发区工作人员与长春市泰州商会就浑江泰州医药产业园项目进行了筹划磋商，初步达成合作意向。在山东沂源经济开发区与开发区的领导进行了交流，学习了山东沂源经济开发区发展理念、园区建设和运营管理模式，积极推动两地开发区经验互通，资源共享，携手发展。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>53</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>吉林浑江经济开发区赴湖北省开展经贸交流活动</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2024-04-15</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.hunjiang.gov.cn/zw/hjyw/202404/t20240415_806959.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['为切实提高浑江开发区招商引资质量和实效，4月7日至12日，浑江经济开发区积极参加了吉林省代表团赴湖北学习考察活动，加强对鄂宣传推介，开展精准对接洽谈，深化务实合作，为我区绿色转型高质量发展积蓄动能。', '考察团先后考察参观了国药医养健康产业（湖北）集团有限公司、恩施德源硒材料工程科技有限公司、润邦国际富硒茶业有限公司、湖北鄂中生态工程股份有限公司、小米科技（武汉）有限公司、武汉楚天激光（集团）有限公司，并与企业负责人进行深入交流，详细了解企业基本情况、生产经营状况及未来发展方向。在国药医养健康产业（湖北）集团有限公司，浑江开发区与周光明总经理就中药材收购加工项目进行深入合作洽谈，并签订了战略合作框架协议，双方表示，将以此次签约为契机，务实合作，互通有无，加快推进项目早落地、早见效。', '考察期间，浑江开发区在武汉市参加了吉林省医药健康产业推介会和第六届世界大健康产业博览会，主要围绕浑江开发区园区建设、产业布局、投资环境、资源禀赋等方面，开展宣传推介，寻求能与湖北企业家共商合作发展、共谋全面振兴。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>53</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>吉林白山经济开发区参加吉林安徽深化产业交流合作</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2024-06-21</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://kfq.cbs.gov.cn/zxzx/xwdt/202406/t20240621_813169.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['6月13日，吉林·安徽产业交流合作对接会在合肥市召开。白山经济开发区管委会主任冯一鸣参加此次活动。', '此次对接会是两地深化合作、共谋发展的重要举措，聚焦汽车、新能源、科技创新等关键领域，旨在通过深入交流，拓宽合作渠道，实现互利共赢。', '自2023年10月吉林省党政代表团赴安徽省学习考察以来，双方签署了《吉林省人民政府安徽省人民政府战略合作框架协议》及8个专项合作协议。此次对接会的召开，标志着两省在积极落实战略合作框架协议的基础上，进一步加快了沟通对接的步伐，推动了一系列合作成果的落地。', '在对接会上，安徽省工商联副主席发表了热情洋溢的讲话，对两省合作的前景表示了乐观态度。吉林省政协副主席吴靖平代表吉林省发言，强调了吉皖两地在产业、技术、市场等方面的互补优势，以及双方在推动高质量发展中的共同愿景。', '双方一致认为，通过加强两省间的产业交流与合作，可以激发出驱动高质量发展的澎湃动能。对接会不仅为双方企业提供了展示自身优势、寻求合作机会的平台，也为两省在更深层次、更广领域的合作奠定了坚实基础。', '此次对接会的成功举办，是两省在新形势下深化合作、实现共赢发展的具体实践，也是贯彻落实国家区域协调发展战略的重要举措。未来，吉林·安徽将继续携手前进，共同开启高质量发展的新征程。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>53</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>张海率队赴大连北京佛山青岛等地开展经贸交流活动叙乡情谈合作谋发展推动浑江高质量发展再上新台阶</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2024-03-21</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.hunjiang.gov.cn/zw/hjyw/202403/t20240322_804207.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['张海率队赴大连、北京、佛山、青岛等地开展经贸交流活动 叙乡情谈合作谋发展 推动浑江高质量发展再上新台阶', '为积极贯彻落实省、市经济工作会议、优化营商环境大会精神，3月10日至17日，区委书记张海率队赴大连、北京、佛山、青岛等地开展招商引资学习考察活动，奋力开启全区招商引资“开门红”，跑好全年发展“拉力赛”。副区长英宝庆、经开区、商务局主要负责同志陪同参加相关活动。', '在大连中国供销南海一号、大连益诚VS.软银孵化器、大连三十七相文旅科技产业园、大连万融科技金融服务集团、北京国电投中创新能源技术开发有限公司、中国中药有限公司、青岛涵岛研发中心，张海与有关企业负责人深入交流，详细了解企业基本情况、生产经营状况、发展规划布局、发展前景等情况，宣传推介我区投资环境，开展精准对接洽谈，寻求项目招引落地合作。企业家们纷纷表示，浑江生态环境优越、产业基础好、发展潜力大，投资前景广阔，下一步将择期到浑江实地考察，进一步发挥自身优势，结合发展规划，谋求产业合作，共享政策红利，共创美好未来。', '考察期间，分别与大连吉林商会、大连广东商会、大连山东商会、大连河北商会、青岛白山商会等友好商会开展座谈交流。张海详细了解商会规范化建设、服务会员企业，以及乡贤企业发展历程、生产运营等情况，与有关负责人深入交流，共叙乡情、共商合作、共谋发展。', '座谈交流中，张海首先对商会长期以来关心支持家乡发展表示衷心感谢，他指出，近年来，浑江以建设践行“两山”理念试验区为引领，大力实施“一山两江”品牌战略，着力构建“一体两翼”发展格局，全力推动五个百亿级产业集群发展，加快发展中的浑江活力无限、未来可期。期望充分发挥商会桥梁纽带作用，搭建更多合作交流平台，创造更多对接沟通机会，推动更多优质企业和优秀人才到浑江考察对接、投资兴业。商会有关负责人表示，家乡发展潜力巨大，营商环境优良，将充分发挥商会作用，不断加强与白山之间的联系，寻求商机、深化合作，助推高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>53</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>中国共产党纪律处分条例</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2024-04-22</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://gxs.jl.gov.cn/ztzl/djxxjy/202405/t20240524_8912830.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['中国共产党纪律处分条例 （2003年12月23日中共中央政治局会议审议批准，2003年12月31日中共中央发布，2023年12月8日中共中央政治局会议第三次修订，2023年12月19日中共中央发布） 第一编 总则 第一章 总体要求和适用范围 第一条 为了维护党章和其他党内法规，严肃党的纪律，纯洁党的组织，保障党员民主权利，教育党员遵纪守法，维护党的团结统一，保证党的理论、路线、方针、政策、决议和国家法律法规的贯彻执行，根据《中国共产党章程》，制定本条例。 第二条 党的纪律建设必须坚持以马克思列宁主义、毛泽东思想、邓小平理论、“三个代表”重要思想、科学发展观、习近平新时代中国特色社会主义思想为指导，坚持和加强党的全面领导，坚决维护习近平总书记党中央的核心、全党的核心地位，坚决维护以习近平同志为核心的党中央权威和集中统一领导，弘扬伟大建党精神，坚持自我革命，贯彻全面从严治党战略方针，落实新时代党的建设总要求，推动解决大党独有难题、健全全面从严治党体系，全面加强党的纪律建设，为以中国式现代化全面推进强国建设、民族复兴伟业提供坚强纪律保障。 第三条 党章是最根本的党内法规，是管党治党的总规矩。党的纪律是党的各级组织和全体党员必须遵守的行为规则。党组织和党员必须坚守初心使命，牢固树立政治意识、大局意识、核心意识、看齐意识，始终坚定道路自信、理论自信、制度自信、文化自信，切实践行正确的权力观、政绩观、事业观，自觉遵守和维护党章，严格执行和维护党的纪律，自觉接受党的纪律约束，模范遵守国家法律法规。 第四条 党的纪律处分工作遵循下列原则： （一）坚持党要管党、全面从严治党。把严的基调、严的措施、严的氛围长期坚持下去，加强对党的各级组织和全体党员的教育、管理和监督，把纪律挺在前面，抓早抓小、防微杜渐。 （二）党纪面前一律平等。对违犯党纪的党组织和党员必须严肃、公正执行纪律，党内不允许有任何不受纪律约束的党组织和党员。 （三）实事求是。对党组织和党员违犯党纪的行为，应当以事实为依据，以党章、其他党内法规和国家法律法规为准绳，执纪执法贯通，准确认定行为性质，区别不同情况，恰当予以处理。 （四）民主集中制。实施党纪处分，应当按照规定程序经党组织集体讨论决定，不允许任何个人或者少数人擅自决定和批准。上级党组织对违犯党纪的党组织和党员作出的处理决定，下级党组织必须执行。 （五）惩前毖后、治病救人。处理违犯党纪的党组织和党员，应当实行惩戒与教育相结合，做到宽严相济。 第五条 深化运用监督执纪“四种形态”，经常开展批评和自我批评，及时进行谈话提醒、批评教育、责令检查、诫勉，让“红红脸、出出汗”成为常态；党纪轻处分、组织调整成为违纪处理的大多数；党纪重处分、重大职务调整的成为少数；严重违纪涉嫌犯罪追究刑事责任的成为极少数。 第六条 本条例适用于违犯党纪应当受到党纪责任追究的党组织和党员。 第二章 违纪与纪律处分 第七条 党组织和党员违反党章和其他党内法规，违反国家法律法规，违反党和国家政策，违反社会主义道德，危害党、国家和人民利益的行为，依照规定应当给予纪律处理或者处分的，都必须受到追究。 重点查处党的十八大以来不收敛、不收手，问题线索反映集中、群众反映强烈，政治问题和经济问题交织的腐败案件，违反中央八项规定精神的问题。 第八条 对党员的纪律处分种类： （一）警告； （二）严重警告； （三）撤销党内职务； （四）留党察看； （五）开除党籍。 第九条 对于违犯党纪的党组织，上级党组织应当责令其作出书面检查或者给予通报批评。对于严重违犯党纪、本身又不能纠正的党组织，上一级党的委员会在查明核实后，根据情节严重的程度，可以予以： （一）改组； （二）解散。 第十条 党员受到警告处分一年内、受到严重警告处分一年半内，不得在党内提拔职务或者进一步使用，也不得向党外组织推荐担任高于其原任职务的党外职务或者进一步使用。 第十一条 撤销党内职务处分，是指撤销受处分党员由党内选举或者组织任命的党内职务。对于在党内担任两个以上职务的，党组织在作处分决定时，应当明确是撤销其一切职务还是一个或者几个职务。如果决定撤销其一个职务，必须撤销其担任的最高职务。如果决定撤销其两个以上职务，则必须从其担任的最高职务开始依次撤销。对于在党外组织担任职务的，应当建议党外组织撤销其党外职务。 对于在立案审查中因涉嫌违犯党纪被免职的党员，审查后依照本条例规定应当给予撤销党内职务处分的，应当按照其原任职务给予撤销党内职务处分。对于应当受到撤销党内职务处分，但是本人没有担任党内职务的，应当给予其严重警告处分。同时，在党外组织担任职务的，应当建议党外组织撤销其党外职务。 党员受到撤销党内职务处分，或者依照前款规定受到严重警告处分的，二年内不得在党内担任和向党外组织推荐担任与其原任职务相当或者高于其原任职务的职务。 第十二条 留党察看处分，分为留党察看一年、留党察看二年。对于受到留党察看处分一年的党员，期满后仍不符合恢复党员权利条件的，应当延长一年留党察看期限。留党察看期限最长不得超过二年。 党员受留党察看处分期间，没有表决权、选举权和被选举权。留党察看期间，确有悔改表现的，期满后恢复其党员权利；坚持不改或者又发现其他应当受到党纪处分的违纪行为的，应当开除党籍。 党员受到留党察看处分，其党内职务自然撤销。对于担任党外职务的，应当建议党外组织撤销其党外职务。受到留党察看处分的党员，恢复党员权利后二年内，不得在党内担任和向党外组织推荐担任与其原任职务相当或者高于其原任职务的职务。 第十三条 党员受到开除党籍处分，五年内不得重新入党，也不得推荐担任与其原任职务相当或者高于其原任职务的党外职务。另有规定不准重新入党的，依照规定。 第十四条 党员干部受到党纪处分，需要同时进行组织处理的，党组织应当按照规定给予组织处理。 党的各级代表大会的代表受到留党察看以上处分的，党组织应当终止其代表资格。 第十五条 对于受到改组处理的党组织领导机构成员，除应当受到撤销党内职务以上处分的外，均自然免职。 第十六条 对于受到解散处理的党组织中的党员，应当逐个审查。其中，符合党员条件的，应当重新登记，并参加新的组织过党的生活；不符合党员条件的，应当对其进行教育、限期改正，经教育仍无转变的，予以劝退或者除名；有违纪行为的，依照规定予以追究。 第三章 纪律处分运用规则 第十七条 有下列情形之一的，可以从轻或者减轻处分： （一）主动交代本人应当受到党纪处分的问题； （二）在组织谈话函询、初步核实、立案审查过程中，能够配合核实审查工作，如实说明本人违纪违法事实； （三）检举同案人或者其他人应当受到党纪处分或者法律追究的问题，经查证属实，或者有其他立功表现； （四）主动挽回损失、消除不良影响或者有效阻止危害结果发生； （五）主动上交或者退赔违纪所得； （六）党内法规规定的其他从轻或者减轻处分情形。 第十八条 根据案件的特殊情况，由中央纪委决定或者经省（部）级纪委（不含副省级市纪委）决定并呈报中央纪委批准，对违纪党员也可以在本条例规定的处分幅度以外减轻处分。 第十九条 对于党员违犯党纪应当给予警告或者严重警告处分，但是具有本条例第十七条规定的情形之一或者本条例分则中另有规定的，可以给予批评教育、责令检查、诫勉或者组织处理，免予党纪处分。对违纪党员免予处分，应当作出书面结论。 党员有作风纪律方面的苗头性、倾向性问题或者违犯党纪情节轻微的，可以给予谈话提醒、批评教育、责令检查等，或者予以诫勉，不予党纪处分。 党员行为虽然造成损失或者后果，但不是出于故意或者过失，而是由于不可抗力等原因所引起的，不追究党纪责任。 第二十条 有下列情形之一的，应当从重或者加重处分： （一）强迫、唆使他人违纪； （二）拒不上交或者退赔违纪所得； （三）违纪受处分后又因故意违纪应当受到党纪处分； （四）违纪受处分后，又被发现其受处分前没有交代的其他应当受到党纪处分的问题； （五）党内法规规定的其他从重或者加重处分情形。 第二十一条 党员在党纪处分影响期内又受到党纪处分的，其影响期为原处分尚未执行的影响期与新处分影响期之和。 第二十二条 从轻处分，是指在本条例规定的违纪行为应当受到的处分幅度以内，给予较轻的处分。 从重处分，是指在本条例规定的违纪行为应当受到的处分幅度以内，给予较重的处分。 第二十三条 减轻处分，是指在本条例规定的违纪行为应当受到的处分幅度以外，减轻一档给予处分。 加重处分，是指在本条例规定的违纪行为应当受到的处分幅度以外，加重一档给予处分。 本条例规定的只有开除党籍处分一个档次的违纪行为，不适用第一款减轻处分的规定。 第二十四条 一人有本条例规定的两种以上应当受到党纪处分的违纪行为，应当合并处理，按其数种违纪行为中应当受到的最高处分加重一档给予处分；其中一种违纪行为应当受到开除党籍处分的，应当给予开除党籍处分。 第二十五条 一个违纪行为同时触犯本条例两个以上条款的，依照处分较重的条款定性处理。 一个条款规定的违纪构成要件全部包含在另一个条款规定的违纪构成要件中，特别规定与一般规定不一致的，适用特别规定。 第二十六条 二人以上共同故意违纪的，对为首者，从重处分，本条例另有规定的除外；对其他成员，按照其在共同违纪中所起的作用和应负的责任，分别给予处分。 对于经济方面共同违纪的，按照个人参与数额及其所起作用，分别给予处分。对共同违纪的为首者，情节严重的，按照共同违纪的总数额处分。 教唆他人违纪的，应当按照其在共同违纪中所起的作用追究党纪责任。 第二十七条 党组织领导机构集体作出违犯党纪的决定或者实施其他违犯党纪的行为，对具有共同故意的成员，按共同违纪处理；对过失违纪的成员，按照各自在集体违纪中所起的作用和应负的责任分别给予处分。 第四章 对违法犯罪党员的纪律处分 第二十八条 对违法犯罪的党员，应当按照规定给予党纪处分，做到适用纪律和适用法律有机融合，党纪政务等处分相匹配。 第二十九条 党组织在纪律审查中发现党员有贪污贿赂、滥用职权、玩忽职守、权力寻租、利益输送、徇私舞弊、浪费国家资财等违反法律涉嫌犯罪行为的，应当给予撤销党内职务、留党察看或者开除党籍处分。 第三十条 党组织在纪律审查中发现党员有刑法规定的行为，虽不构成犯罪但须追究党纪责任的，或者有其他破坏社会主义市场经济秩序、违反治安管理等违法行为，损害党、国家和人民利益的，应当视具体情节给予警告直至开除党籍处分。 违反国家财经纪律，在公共资金收支、税务管理、国有资产管理、政府采购管理、金融管理、财务会计管理等财经活动中有违法行为的，依照前款规定处理。 党员有嫖娼或者吸食、注射毒品等丧失党员条件，严重败坏党的形象行为的，应当给予开除党籍处分。 第三十一条 党组织在纪律审查中发现党员严重违纪涉嫌违法犯罪的，原则上先作出党纪处分决定，并按照规定由监察机关给予政务处分或者由任免机关（单位）给予处分后，再移送有关国家机关依法处理。 第三十二条 党员被依法留置、逮捕的，党组织应当按照管理权限中止其表决权、选举权和被选举权等党员权利。根据监察机关、司法机关处理结果，可以恢复其党员权利的，应当及时予以恢复。 第三十三条 党员犯罪情节轻微，人民检察院依法作出不起诉决定的，或者人民法院依法作出有罪判决并免予刑事处罚的，应当给予撤销党内职务、留党察看或者开除党籍处分。 党员犯罪，被单处罚金的，依照前款规定处理。 第三十四条 党员犯罪，有下列情形之一的，应当给予开除党籍处分： （一）因故意犯罪被依法判处刑法规定的主刑（含宣告缓刑）； （二）被单处或者附加剥夺政治权利； （三）因过失犯罪，被依法判处三年以上（不含三年）有期徒刑。 因过失犯罪被判处三年以下有期徒刑或者被判处管制、拘役的，一般应当开除党籍。对于个别可以不开除党籍的，应当对照处分违纪党员批准权限的规定，报请再上一级党组织批准。 第三十五条 党员依法受到刑事责任追究的，党组织应当根据司法机关的生效判决、裁定、决定及其认定的事实、性质和情节，依照本条例规定给予党纪处分，是公职人员的由监察机关给予相应政务处分或者由任免机关（单位）给予相应处分。 党员依法受到政务处分、任免机关（单位）给予的处分、行政处罚，应当追究党纪责任的，党组织可以根据生效的处分、行政处罚决定认定的事实、性质和情节，经核实后依照规定给予相应党纪处分或者组织处理。其中，党员依法受到撤职以上处分的，应当依照本条例规定给予撤销党内职务以上处分。 党员违反国家法律法规、企事业单位或者其他社会组织的规章制度受到其他处分，应当追究党纪责任的，党组织在对有关方面认定的事实、性质和情节进行核实后，依照规定给予相应党纪处分或者组织处理。 党组织作出党纪处分或者组织处理决定后，监察机关、司法机关、行政机关等依法改变原生效判决、裁定、决定等，对原党纪处分或者组织处理决定产生影响的，党组织应当根据改变后的生效判决、裁定、决定等重新作出相应处理。 第五章 其他规定 第三十六条 预备党员违犯党纪，情节较轻，可以保留预备党员资格的，党组织应当对其批评教育或者延长预备期；情节较重的，应当取消其预备党员资格。 第三十七条 对违纪后下落不明的党员，应当区别情况作出处理： （一）对有严重违纪行为，应当给予开除党籍处分的，党组织应当作出决定，开除其党籍； （二）除前项规定的情况外，下落不明时间超过六个月的，党组织应当按照党章规定对其予以除名。 第三十八条 违纪党员在党组织作出处分决定前死亡，或者在死亡之后发现其曾有严重违纪行为，对于应当给予开除党籍处分的，开除其党籍；对于应当给予留党察看以下处分的，作出违犯党纪的书面结论和相应处理。 第三十九条 违纪行为有关责任人员的区分： （一）直接责任者，是指在其职责范围内，不履行或者不正确履行自己的职责，对造成的损失或者后果起决定性作用的党员或者党员领导干部； （二）主要领导责任者，是指在其职责范围内，对主管的工作不履行或者不正确履行职责，对造成的损失或者后果负直接领导责任的党员领导干部； （三）重要领导责任者，是指在其职责范围内，对应管的工作或者参与决定的工作不履行或者不正确履行职责，对造成的损失或者后果负次要领导责任的党员领导干部。 本条例所称领导责任者，包括主要领导责任者和重要领导责任者。 第四十条 本条例所称主动交代，是指涉嫌违纪的党员在组织谈话函询、初步核实前向有关组织交代自己的问题，或者在谈话函询、初步核实和立案审查期间交代组织未掌握的问题。 第四十一条 担任职级、单独职务序列等级的党员干部违犯党纪受到处分，需要对其职级、单独职务序列等级进行调整的，参照本条例关于党外职务的规定执行。 第四十二条 计算经济损失应当计算立案时已经实际造成的全部财产损失，包括为挽回违纪行为所造成损失而支付的各种开支、费用。立案后至处理前持续发生的经济损失，应当一并计算在内。 第四十三条 对于违纪行为所获得的经济利益，应当收缴或者责令退赔。对于主动上交的违纪所得和经济损失赔偿，应当予以接收，并按照规定收缴或者返还有关单位、个人。 对于违纪行为所获得的职务、职级、职称、学历、学位、奖励、资格等其他利益，应当由承办案件的纪检机关或者由其上级纪检机关建议有关组织、部门、单位按照规定予以纠正。 对于依照本条例第三十七条、第三十八条规定处理的党员，经调查确属其实施违纪行为获得的利益，依照本条规定处理。 第四十四条 党纪处分决定作出后，应当在一个月内向受处分党员所在党的基层组织中的全体党员及其本人宣布，是领导班子成员的还应当向所在党组织领导班子宣布，并按照干部管理权限和组织关系将处分决定材料归入受处分者档案；对于受到撤销党内职务以上处分的，还应当在一个月内办理职务、工资、工作及其他有关待遇等相应变更手续；涉及撤销或者调整其党外职务的，应当建议党外组织及时撤销或者调整其党外职务。特殊情况下，经作出或者批准作出处分决定的组织批准，可以适当延长办理期限。办理期限最长不得超过六个月。 第四十五条 执行党纪处分决定的机关或者受处分党员所在单位，应当在六个月内将处分决定的执行情况向作出或者批准处分决定的机关报告。 党员对所受党纪处分不服的，可以依照党章及有关规定提出申诉。 第四十六条 党员因违犯党纪受到处分，影响期满后，党组织无需取消对其的处分。 第四十七条 本条例所称以上、以下，除有特别标明外均含本级、本数。 第四十八条 本条例总则适用于有党纪处分规定的其他党内法规，但是中共中央发布或者批准发布的其他党内法规有特别规定的除外。 第二编 分则 第六章 对违反政治纪律行为的处分 第四十九条 在重大原则问题上不同党中央保持一致且有实际言论、行为或者造成不良后果的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 第五十条 通过网络、广播、电视、报刊、传单、书籍等，或者利用讲座、论坛、报告会、座谈会等方式，公开发表坚持资产阶级自由化立场、反对四项基本原则，反对党的改革开放决策的文章、演说、宣言、声明等的，给予开除党籍处分。 发布、播出、刊登、出版前款所列文章、演说、宣言、声明等或者为上述行为提供方便条件的，对直接责任者和领导责任者，给予严重警告或者撤销党内职务处分；情节严重的，给予留党察看或者开除党籍处分。 第五十一条 通过网络、广播、电视、报刊、传单、书籍等，或者利用讲座、论坛、报告会、座谈会等方式，有下列行为之一，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分： （一）公开发表违背四项基本原则，违背、歪曲党的改革开放决策，或者其他有严重政治问题的文章、演说、宣言、声明等； （二）妄议党中央大政方针，破坏党的集中统一； （三）丑化党和国家形象，或者诋毁、诬蔑党和国家领导人、英雄模范，或者歪曲党的历史、中华人民共和国历史、人民军队历史。 发布、播出、刊登、出版前款所列内容或者为上述行为提供方便条件的，对直接责任者和领导责任者，给予严重警告或者撤销党内职务处分；情节严重的，给予留党察看或者开除党籍处分。 第五十二条 制作、贩卖、传播第五十条、第五十一条所列内容之一的报刊、书籍、音像制品、电子读物，以及网络文本、图片、音频、视频资料等，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 私自携带、寄递第五十条、第五十一条所列内容之一的报刊、书籍、音像制品、电子读物等入出境，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务、留党察看或者开除党籍处分。 私自阅看、浏览、收听第五十条、第五十一条所列内容之一的报刊、书籍、音像制品、电子读物，以及网络文本、图片、音频、视频资料等，情节严重的，给予警告、严重警告或者撤销党内职务处分。 第五十三条 在党内组织秘密集团或者组织其他分裂党的活动的，给予开除党籍处分。 参加秘密集团或者参加其他分裂党的活动的，给予留党察看或者开除党籍处分。 第五十四条 在党内搞团团伙伙、结党营私、拉帮结派、政治攀附、培植个人势力等非组织活动，或者通过搞利益交换、为自己营造声势等活动捞取政治资本的，给予严重警告或者撤销党内职务处分；导致本地区、本部门、本单位政治生态恶化的，给予留党察看或者开除党籍处分。 第五十五条 搞投机钻营，结交政治骗子或者被政治骗子利用的，给予严重警告或者撤销党内职务处分；情节严重的，给予留党察看或者开除党籍处分。 充当政治骗子的，给予撤销党内职务、留党察看或者开除党籍处分。 第五十六条 党员领导干部在本人主政的地方或者分管的部门自行其是，搞山头主义，拒不执行党中央确定的大政方针，甚至背着党中央另搞一套的，给予撤销党内职务、留党察看或者开除党籍处分。 贯彻党中央决策部署只表态不落实，或者落实党中央决策部署不坚决，打折扣、搞变通，在政治上造成不良影响或者严重后果的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务、留党察看或者开除党籍处分。 不顾党和国家大局，搞部门或者地方保护主义的，依照前款规定处理。 第五十七条 党员领导干部政绩观错位，违背新发展理念、背离高质量发展要求，给党、国家和人民利益造成较大损失的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 搞劳民伤财的“形象工程”、“政绩工程”的，从重或者加重处分。 第五十八条 对党不忠诚不老实，表里不一，阳奉阴违，欺上瞒下，搞两面派，做两面人，在政治上造成不良影响的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 第五十九条 制造、散布、传播政治谣言，破坏党的团结统一的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 政治品行恶劣，匿名诬告，有意陷害或者制造其他谣言，造成损害或者不良影响的，依照前款规定处理。 第六十条 擅自对应当由党中央决定的重大政策问题作出决定、对外发表主张的，对直接责任者和领导责任者，给予严重警告或者撤销党内职务处分；情节严重的，给予留党察看或者开除党籍处分。 第六十一条 不按照有关规定向组织请示、报告重大事项，对直接责任者和领导责任者，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。 第六十二条 干扰巡视巡察工作或者不落实巡视巡察整改要求，对直接责任者和领导责任者，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 第六十三条 对抗组织审查，有下列行为之一的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分： （一）串供或者伪造、销毁、转移、隐匿证据； （二）阻止他人揭发检举、提供证据材料； （三）包庇同案人员； （四）向组织提供虚假情况，掩盖事实； （五）其他对抗组织审查行为。 第六十四条 组织、参加反对党的基本理论、基本路线、基本方略或者重大方针政策的集会、游行、示威等活动的，或者以组织讲座、论坛、报告会、座谈会等方式，反对党的基本理论、基本路线、基本方略或者重大方针政策，造成严重不良影响的，对策划者、组织者和骨干分子，给予开除党籍处分。 对其他参加人员或者以提供信息、资料、财物、场地等方式支持上述活动者，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 对不明真相被裹挟参加，经批评教育后确有悔改表现的，可以免予处分或者不予处分。 未经组织批准参加其他集会、游行、示威等活动，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 第六十五条 组织、参加旨在反对党的领导、反对社会主义制度或者敌视政府等组织的，对策划者、组织者和骨干分子，给予开除党籍处分。 对其他参加人员，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 第六十六条 组织、参加会道门或者邪教组织的，对策划者、组织者和骨干分子，给予开除党籍处分。 对其他参加人员，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 对不明真相的参加人员，经批评教育后确有悔改表现的，可以免予处分或者不予处分。 第六十七条 从事、参与挑拨破坏民族关系制造事端或者参加民族分裂活动的，对策划者、组织者和骨干分子，给予开除党籍处分。 对其他参加人员，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 对不明真相被裹挟参加，经批评教育后确有悔改表现的，可以免予处分或者不予处分。 有其他违反党和国家民族政策的行为，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 第六十八条 组织、利用宗教活动反对党的理论、路线、方针、政策和决议，破坏民族团结的，对策划者、组织者和骨干分子，给予开除党籍处分。 对其他参加人员，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 对不明真相被裹挟参加，经批评教育后确有悔改表现的，可以免予处分或者不予处分。 有其他违反党和国家宗教政策的行为，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 第六十九条 对信仰宗教的党员，应当加强思想教育，要求其限期改正；经党组织帮助教育仍没有转变的，应当劝其退党；劝而不退的，予以除名；参与利用宗教搞煽动活动的，给予开除党籍处分。 第七十条 组织迷信活动的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 参加迷信活动或者个人搞迷信活动，造成不良影响的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 对不明真相的参加人员，经批评教育后确有悔改表现的，可以免予处分或者不予处分。 第七十一条 组织、利用宗族势力对抗党和政府，妨碍党和国家的方针政策以及决策部署的实施，或者破坏党的基层组织建设的，对策划者、组织者和骨干分子，给予开除党籍处分。 对其他参加人员，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 对不明真相被裹挟参加，经批评教育后确有悔改表现的，可以免予处分或者不予处分。 第七十二条 在国（境）外、外国驻华使（领）馆申请政治避难，或者违纪后逃往国（境）外、外国驻华使（领）馆的，给予开除党籍处分。 在国（境）外公开发表反对党和政府的文章、演说、宣言、声明等的，依照前款规定处理。 故意为上述行为提供方便条件的，给予留党察看或者开除党籍处分。 第七十三条 在涉外活动中，其言行在政治上造成恶劣影响，损害党和国家尊严、利益的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 第七十四条 不履行全面从严治党主体责任、监督责任或者履行全面从严治党主体责任、监督责任不力，给党组织造成严重损害或者严重不良影响的，对直接责任者和领导责任者，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。 第七十五条 党员领导干部对违反政治纪律和政治规矩等错误思想和行为不报告、不抵制、不斗争，放任不管，搞无原则一团和气，造成不良影响的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。 第七十六条 违反党的优良传统和工作惯例等党的规矩，在政治上造成不良影响或者严重后果的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 第七章 对违反组织纪律行为的处分 第七十七条 违反民主集中制原则，有下列行为之一的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分： （一）拒不执行或者擅自改变党组织作出的重大决定； （二）违反议事规则，个人或者少数人决定重大问题； （三）故意规避集体决策，决定重大事项、重要干部任免、重要项目安排和大额资金使用； （四）借集体决策名义集体违规。 第七十八条 下级党组织拒不执行或者擅自改变上级党组织决定的，对直接责任者和领导责任者，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。 第七十九条 拒不执行党组织的分配、调动、交流等决定的，给予警告、严重警告或者撤销党内职务处分。 在特殊时期或者紧急状况下，拒不执行党组织上述决定的，给予留党察看或者开除党籍处分。 第八十条 在党组织纪律审查中，依法依规负有作证义务的党员拒绝作证或者故意提供虚假情况，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务、留党察看或者开除党籍处分。 第八十一条 有下列行为之一，情节较重的，给予警告或者严重警告处分： （一）违反个人有关事项报告规定，隐瞒不报； （二）在组织进行谈话函询时，不如实向组织说明问题； （三）不按要求报告或者不如实报告个人去向； （四）不如实填报个人档案资料。 有前款第二项规定的行为，同时向组织提供虚假情况、掩盖事实的，依照本条例第六十三条规定处理。 篡改、伪造个人档案资料的，给予严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。 隐瞒入党前严重错误的，一般应当予以除名；对入党多年且一贯表现好，或者在工作中作出突出贡献的，给予严重警告、撤销党内职务或者留党察看处分。 第八十二条 党员领导干部违反有关规定组织、参加自发成立的老乡会、校友会、战友会等，情节严重的，给予警告、严重警告或者撤销党内职务处分。 第八十三条 有下列行为之一的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分： （一）在民主推荐、民主测评、组织考察和党内选举中搞拉票、助选等非组织活动； （二）在法律规定的投票、选举活动中违背组织原则搞非组织活动，组织、怂恿、诱使他人投票、表决； （三）在选举中进行其他违反党章、其他党内法规和有关章程活动。 搞有组织的拉票贿选，或者用公款拉票贿选的，从重或者加重处分。 第八十四条 在干部选拔任用工作中，有任人唯亲、排斥异己、封官许愿、说情干预、跑官要官、突击提拔或者调整干部等违反干部选拔任用规定行为，对直接责任者和领导责任者，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 用人失察失误造成严重后果的，对直接责任者和领导责任者，依照前款规定处理。 第八十五条 在推进领导干部能上能下工作中，搞好人主义，有下列行为之一，对直接责任者和领导责任者，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分： （一）以党纪政务等处分规避组织调整； （二）以组织调整代替党纪政务等处分； （三）其他避重就轻作出处理行为。 第八十六条 在干部、职工的录用、考核、职务职级晋升、职称评聘、荣誉表彰，授予学术称号和征兵、安置退役军人等工作中，隐瞒、歪曲事实真相，或者利用职权或者职务上的影响违反有关规定为本人或者其他人谋取利益的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 弄虚作假，骗取职务、职级、职称、待遇、资格、学历、学位、荣誉、称号或者其他利益的，依照前款规定处理。 第八十七条 侵犯党员的表决权、选举权和被选举权，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分。 以强迫、威胁、欺骗、拉拢等手段，妨害党员自主行使表决权、选举权和被选举权的，给予撤销党内职务、留党察看或者开除党籍处分。 第八十八条 有下列行为之一的，对直接责任者和领导责任者，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分： （一）对批评、检举、控告进行阻挠、压制，或者将批评、检举、控告材料私自扣压、销毁，或者故意将其泄露给他人； （二）对党员的申辩、辩护、作证等进行压制，造成不良后果； （三）压制党员申诉，造成不良后果，或者不按照有关规定处理党员申诉； （四）其他侵犯党员权利行为，造成不良后果。 对批评人、检举人、控告人、证人及其他人员打击报复的，从重或者加重处分。 第八十九条 违反党章和其他党内法规的规定，采取弄虚作假或者其他手段把不符合党员条件的人发展为党员，或者为非党员出具党员身份证明的，对直接责任者和领导责任者，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分。 违反有关规定程序发展党员的，对直接责任者和领导责任者，依照前款规定处理。 第九十条 违反有关规定取得外国国籍或者获取国（境）外永久居留资格、长期居留许可的，给予撤销党内职务、留党察看或者开除党籍处分。 第九十一条 违反有关规定办理因私出国（境）证件、前往港澳通行证，或者未经批准出入国（边）境，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 虽经批准因私出国（境）但存在擅自变更路线、无正当理由超期未归等超出批准范围出国（境）行为，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分。 第九十二条 驻外机构或者临时出国（境）团（组）中的党员擅自脱离组织，或者从事外事、机要、军事等工作的党员违反有关规定同国（境）外机构、人员联系和交往的，给予警告、严重警告或者撤销党内职务处分。 第九十三条 驻外机构或者临时出国（境）团（组）中的党员，脱离组织出走时间不满六个月又自动回归的，给予撤销党内职务或者留党察看处分；脱离组织出走时间超过六个月的，按照自行脱党处理，党内予以除名。 故意为他人脱离组织出走提供方便条件的，给予警告、严重警告或者撤销党内职务处分。 第八章 对违反廉洁纪律行为的处分 第九十四条 党员干部必须正确行使人民赋予的权力，清正廉洁，反对特权思想和特权现象，反对任何滥用职权、谋求私利的行为。 利用职权或者职务上的影响为他人谋取利益，本人的配偶、子女及其配偶等亲属和其他特定关系人收受对方财物，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务、留党察看或者开除党籍处分。 第九十五条 相互利用职权或者职务上的影响为对方及其配偶、子女及其配偶等亲属、身边工作人员和其他特定关系人谋取利益搞权权交易的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 第九十六条 纵容、默许配偶、子女及其配偶等亲属、身边工作人员和其他特定关系人利用党员干部本人职权或者职务上的影响谋取私利，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 党员干部的配偶、子女及其配偶等亲属和其他特定关系人不实际工作而获取薪酬或者虽实际工作但领取明显超出同职级标准薪酬，党员干部知情未予纠正的，依照前款规定处理。 第九十七条 收受可能影响公正执行公务的礼品、礼金、消费卡（券）和有价证券、股权、其他金融产品等财物，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 收受其他明显超出正常礼尚往来的财物的，依照前款规定处理。 第九十八条 向从事公务的人员及其配偶、子女及其配偶等亲属和其他特定关系人赠送明显超出正常礼尚往来的礼品、礼金、消费卡（券）和有价证券、股权、其他金融产品等财物，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。 以讲课费、课题费、咨询费等名义变相送礼的，依照前款规定处理。 第九十九条 借用管理和服务对象的钱款、住房、车辆等，可能影响公正执行公务，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务、留党察看或者开除党籍处分。 通过民间借贷等金融活动获取大额回报，可能影响公正执行公务的，依照前款规定处理。 第一百条 利用职权或者职务上的影响操办婚丧喜庆事宜，造成不良影响的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分；借机敛财或者有其他侵犯国家、集体和人民利益行为的，从重或者加重处分，直至开除党籍。 第一百零一条 接受、提供可能影响公正执行公务的宴请或者旅游、健身、娱乐等活动安排，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。 第一百零二条 违反有关规定取得、持有、实际使用运动健身卡、会所和俱乐部会员卡、高尔夫球卡等各种消费卡（券），或者违反有关规定出入私人会所，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。 第一百零三条 违反有关规定从事营利活动，有下列行为之一，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分： （一）经商办企业； （二）拥有非上市公司（企业）的股份或者证券； （三）买卖股票或者进行其他证券投资； （四）从事有偿中介活动； （五）在国（境）外注册公司或者投资入股； （六）其他违反有关规定从事营利活动的行为。 利用参与企业重组改制、定向增发、兼并投资、土地使用权出让等工作中掌握的信息买卖股票，利用职权或者职务上的影响通过购买信托产品、基金等方式非正常获利的，依照前款规定处理。 违反有关规定在经济组织、社会组织等单位中兼职，或者经批准兼职但获取薪酬、奖金、津贴等额外利益的，依照第一款规定处理。 第一百零四条 利用职权或者职务上的影响，为配偶、子女及其配偶等亲属和其他特定关系人在审批监管、资源开发、金融信贷、大宗采购、土地使用权出让、房地产开发、工程招投标以及公共财政收支等方面谋取利益，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 利用职权或者职务上的影响，为配偶、子女及其配偶等亲属和其他特定关系人吸收存款、推销金融产品、经营名贵特产类特殊资源等提供帮助谋取利益的，依照前款规定处理。 第一百零五条 离职或者退（离）休后违反有关规定接受原任职务管辖的地区和业务范围内或者与原工作业务直接相关的企业和中介机构等单位的聘用，或者个人从事与原任职务管辖业务或者与原工作业务直接相关的营利活动，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务处分；情节严重的，给予留党察看处分。 党员领导干部离职或者退（离）休后违反有关规定担任上市公司、基金管理公司独立董事、独立监事等职务，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务处分；情节严重的，给予留党察看处分。 第一百零六条 离职或者退（离）休后利用原职权或者职务上的影响，为配偶、子女及其配偶等亲属和其他特定关系人从事经营活动谋取利益，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 离职或者退（离）休后利用原职权或者职务上的影响为他人谋取利益，本人的配偶、子女及其配偶等亲属和其他特定关系人收受对方财物，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务、留党察看或者开除党籍处分。 第一百零七条 党员领导干部的配偶、子女及其配偶，违反有关规定在该党员领导干部管辖的地区和业务范围内从事可能影响其公正执行公务的经营活动，或者有其他违反经商办企业禁业规定行为的，该党员领导干部应当按照规定予以纠正；拒不纠正的，其本人应当辞去现任职务或者由组织予以调整职务；不辞去现任职务或者不服从组织调整职务的，给予撤销党内职务处分。 第一百零八条 党和国家机关违反有关规定经商办企业的，对直接责任者和领导责任者，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分。 第一百零九条 党员领导干部违反工作、生活保障制度，在交通、医疗、警卫等方面为本人、配偶、子女及其配偶等亲属、身边工作人员和其他特定关系人谋求特殊待遇，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。 第一百一十条 在分配、购买住房中侵犯国家、集体利益，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 第一百一十一条 利用职权或者职务上的影响，侵占非本人经管的公私财物，或者以象征性地支付钱款等方式侵占公私财物，或者无偿、象征性地支付报酬接受服务、使用劳务，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 利用职权或者职务上的影响，将应当由本人、配偶、子女及其配偶等亲属、身边工作人员和其他特定关系人个人支付的费用，由下属单位、其他单位或者他人支付、报销的，依照前款规定处理。 第一百一十二条 利用职权或者职务上的影响，违反有关规定占用公物归个人使用，时间超过六个月，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分。 占用公物进行营利活动的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 将公物借给他人进行营利活动的，依照前款规定处理。 第一百一十三条 违反有关规定组织、参加用公款支付的宴请、娱乐、健身活动，或者用公款购买赠送或者发放礼品、消费卡（券）等，对直接责任者和领导责任者，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 第一百一十四条 违反有关规定自定薪酬或者滥发津贴、补贴、奖金、福利等，对直接责任者和领导责任者，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 第一百一十五条 有下列行为之一，对直接责任者和领导责任者，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分： （一）公款旅游或者以学习培训、考察调研、职工疗养等为名变相公款旅游； （二）改变公务行程，借机旅游； （三）参加所管理企业、下属单位组织的考察活动，借机旅游。 以考察、学习、培训、研讨、招商、参展等名义变相用公款出国（境）旅游的，对直接责任者和领导责任者，依照前款规定处理。 第一百一十六条 违反接待管理规定，超标准、超范围接待或者借机大吃大喝，对直接责任者和领导责任者，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分。 第一百一十七条 违反有关规定配备、购买、更换、装饰、使用公务交通工具或者有其他违反公务交通工具管理规定的行为，对直接责任者和领导责任者，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。 第一百一十八条 违反会议活动管理规定，有下列行为之一，对直接责任者和领导责任者，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分： （一）到禁止召开会议的风景名胜区开会； （二）决定或者批准举办各类节会、庆典活动； （三）其他违反会议活动管理规定行为。 擅自举办评比达标表彰、创建示范活动或者借评比达标表彰、创建示范活动收取费用的，对直接责任者和领导责任者，依照前款规定处理。 第一百一十九条 违反办公用房管理等规定，有下列行为之一，对直接责任者和领导责任者，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分： （一）决定或者批准兴建、装修办公楼、培训中心等楼堂馆所； （二）超标准配备、使用办公用房； （三）未经批准租用、借用办公用房； （四）用公款包租、占用客房或者其他场所供个人使用； （五）其他违反办公用房管理等规定行为。 第一百二十条 搞权色交易或者给予财物搞钱色交易的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 第一百二十一条 有其他违反廉洁纪律规定行为的，应当视具体情节给予警告直至开除党籍处分。 第九章 对违反群众纪律行为的处分 第一百二十二条 有下列行为之一，对直接责任者和领导责任者，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分： （一）超标准、超范围向群众筹资筹劳、摊派费用，加重群众负担； （二）违反有关规定扣留、收缴群众款物或者处罚群众； （三）克扣群众财物，或者违反有关规定拖欠群众钱款； （四）在管理、服务活动中违反有关规定收取费用； （五）在办理涉及群众事务时刁难群众、吃拿卡要； （六）其他侵害群众利益行为。 在乡村振兴领域有上述行为的，从重或者加重处分。 第一百二十三条 干涉生产经营自主权，致使群众财产遭受较大损失的，对直接责任者和领导责任者，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。 第一百二十四条 在社会保障、社会救助、政策扶持、救灾救济款物分配等事项中优亲厚友、明显有失公平的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 第一百二十五条 利用宗族或者黑恶势力等欺压群众，或者纵容涉黑涉恶活动、为黑恶势力充当“保护伞”的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 第一百二十六条 有下列行为之一，对直接责任者和领导责任者，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分： （一）对涉及群众生产、生活等切身利益的问题依照政策或者有关规定能解决而不及时解决，庸懒无为、效率低下，造成不良影响； （二）对符合政策的群众诉求消极应付、推诿扯皮，损害党群、干群关系； （三）对待群众态度恶劣、简单粗暴，造成不良影响； （四）弄虚作假，欺上瞒下，损害群众利益； （五）其他不作为、乱作为、慢作为、假作为等损害群众利益行为。 第一百二十七条 遇到国家财产和群众生命财产受到严重威胁时，能救而不救，情节较重的，给予警告、严重警告或者撤销党内职务处分；情节严重的，给予留党察看或者开除党籍处分。 第一百二十八条 不按照规定公开党务、政务、厂务、村（居）务等，侵犯群众知情权，对直接责任者和领导责任者，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。 第一百二十九条 有其他违反群众纪律规定行为的，应当视具体情节给予警告直至开除党籍处分。 第十章 对违反工作纪律行为的处分 第一百三十条 工作中不负责任或者疏于管理，贯彻执行、检查督促落实上级决策部署不力，给党、国家和人民利益以及公共财产造成较大损失的，对直接责任者和领导责任者，给予警告或者严重警告处分；造成重大损失的，给予撤销党内职务、留党察看或者开除党籍处分。 党员领导干部对于到任前已经存在且属于其职责范围内的问题，消极回避、推卸责任，造成严重损害或者严重不良影响的，依照前款规定处理。 第一百三十一条 工作中不敢斗争、不愿担当，面对重大矛盾冲突、危机困难临阵退缩，造成不良影响或者严重后果的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务、留党察看或者开除党籍处分。 第一百三十二条 有下列行为之一，造成严重损害或者严重不良影响的，对直接责任者和领导责任者，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分： （一）热衷于搞舆论造势、浮在表面； （二）单纯以会议贯彻会议、以文件落实文件，在实际工作中不见诸行动； （三）脱离实际，不作深入调查研究，搞随意决策、机械执行； （四）违反精文减会有关规定搞文山会海； （五）在督查检查考核等工作中搞层层加码、过度留痕，增加基层工作负担； （六）工作中其他形式主义、官僚主义行为。 第一百三十三条 在公务活动用餐、单位食堂用餐管理工作中不履行或者不正确履行宣传教育、监督管理职责，导致餐饮浪费，造成严重不良影响的，对直接责任者和领导责任者，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分。 第一百三十四条 在机构编制工作中，有下列行为之一，造成不良影响或者严重后果的，对直接责任者和领导责任者，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分： （一）擅自超出“三定”规定范围调整职责、设置机构、核定领导职数和配备人员； （二）违规干预地方机构设置； （三）其他违反机构编制管理规定行为。 第一百三十五条 在信访工作中，有下列行为之一，造成不良影响或者严重后果的，对直接责任者和领导责任者，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分： （一）不按照规定受理、办理信访事项； （二）对规模性集体访等处置不力，导致事态扩大； （三）对党委和政府信访部门提出的改进工作、完善政策等建议重视不够、落实不力，导致问题长期得不到解决； （四）其他不履行或者不正确履行信访工作职责行为。 不履行或者不正确履行职责，导致信访事项发生，造成不良影响或者严重后果的，对直接责任者和领导责任者，依照前款规定处理。 第一百三十六条 党组织有下列行为之一，对直接责任者和领导责任者，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分： （一）党员被立案审查期间，擅自批准其出差、出国（境）、辞职，或者对其交流、提拔职务、晋升职级、进一步使用、奖励，或者办理退休手续； （二）党员被依法追究刑事责任后，不按照规定给予党纪处分，或者对党员违反国家法律法规的行为，应当给予党纪处分而不处分； （三）党纪处分决定或者申诉复查决定作出后，不按照规定落实决定中关于被处分人党籍、职务、职级、待遇等事项； （四）党员受到党纪处分后，不按照干部管理权限和组织关系对受处分党员开展日常教育、管理和监督工作。 第一百三十七条 滥用问责，或者在问责工作中严重不负责任，造成不良影响的，对直接责任者和领导责任者，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分。 第一百三十八条 因工作不负责任致使所管理的人员叛逃的，对直接责任者和领导责任者，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分。 因工作不负责任致使所管理的人员出逃、出走，对直接责任者和领导责任者，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分。 第一百三十九条 进行统计造假，对直接责任者和领导责任者，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 对统计造假失察，造成严重后果的，对直接责任者和领导责任者，给予警告或者严重警告处分；情节严重的，给予撤销党内职务、留党察看或者开除党籍处分。 第一百四十条 在上级检查、视察工作或者向上级汇报、报告工作时对应当报告的事项不报告或者不如实报告，造成严重损害或者严重不良影响的，对直接责任者和领导责任者，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。 在上级检查、视察工作或者向上级汇报、报告工作时纵容、唆使、暗示、强迫下级说假话、报假情的，从重或者加重处分。 第一百四十一条 违反有关规定干预和插手市场经济活动，有下列行为之一，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分： （一）干预和插手建设工程项目承发包、土地使用权出让、政府采购、房地产开发与经营、矿产资源开发利用、中介机构服务等活动； （二）干预和插手国有企业重组改制、兼并、破产、产权交易、清产核资、资产评估、资产转让、重大项目投资以及其他重大经营活动等事项； （三）干预和插手批办各类行政许可和资金借贷等事项； （四）干预和插手经济纠纷； （五）干预和插手集体资金、资产和资源的使用、分配、承包、租赁等事项。 第一百四十二条 违反有关规定干预和插手司法活动、执纪执法活动，向有关地方或者部门打听案情、打招呼、说情，或者以其他方式对司法活动、执纪执法活动施加影响，情节较轻的，给予严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 违反有关规定干预和插手公共财政资金分配、项目立项评审、功勋荣誉表彰奖励等活动，造成重大损失或者不良影响的，依照前款规定处理。 第一百四十三条 按照有关规定对干预和插手行为负有报告和登记义务的受请托人，不按照规定报告或者登记，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分。 第一百四十四条 泄露、扩散或者打探、窃取党组织关于干部选拔任用、纪律审查、巡视巡察等尚未公开事项或者其他应当保密的内容的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 私自留存涉及党组织关于干部选拔任用、纪律审查、巡视巡察等方面资料，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分。 第一百四十五条 在考试、录取工作中，有泄露试题、考场舞弊、涂改考卷、违规录取等违反有关规定行为的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 第一百四十六条 以不正当方式谋求本人或者其他人用公款出国（境），情节较轻的，给予警告处分；情节较重的，给予严重警告处分；情节严重的，给予撤销党内职务处分。 第一百四十七条 临时出国（境）团（组）或者人员中的党员，擅自延长在国（境）外期限，或者擅自变更路线的，对直接责任者和领导责任者，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分。 第一百四十八条 驻外机构或者临时出国（境）团（组）中的党员，触犯驻在国家、地区的法律、法令或者不尊重驻在国家、地区的宗教习俗，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务、留党察看或者开除党籍处分。 第一百四十九条 在党的纪律检查、组织、宣传、统一战线工作以及机关工作等其他工作中，不履行或者不正确履行职责，造成损失或者不良影响的，应当视具体情节给予警告直至开除党籍处分。 第十一章 对违反生活纪律行为的处分 第一百五十条 生活奢靡、铺张浪费、贪图享乐、追求低级趣味，造成不良影响的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分。 第一百五十一条 与他人发生不正当性关系，造成不良影响的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 利用职权、教养关系、从属关系或者其他相类似关系与他人发生性关系的，从重处分。 第一百五十二条 党员领导干部不重视家风建设，对配偶、子女及其配偶失管失教，造成不良影响或者严重后果的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分。 第一百五十三条 违背社会公序良俗，在公共场所、网络空间有不当言行，造成不良影响的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。 第一百五十四条 有其他严重违反社会公德、家庭美德行为的，应当视具体情节给予警告直至开除党籍处分。 第三编 附则 第一百五十五条 各省、自治区、直辖市党委可以根据本条例，结合各自工作的实际情况，制定单项实施规定。 第一百五十六条 中央军事委员会可以根据本条例，结合中国人民解放军和中国人民武装警察部队的实际情况，制定补充规定或者单项规定。 第一百五十七条 本条例由中央纪委负责解释。 第一百五十八条 本条例自2024年1月1日起施行。 本条例施行前，已结案的案件如需进行复查复议，适用当时的规定或者政策。尚未结案的案件，如果行为发生时的规定或者政策不认为是违纪，而本条例认为是违纪的，依照当时的规定或者政策处理；如果行为发生时的规定或者政策认为是违纪的，依照当时的规定或者政策处理，但是如果本条例不认为是违纪或者处理较轻的，依照本条例规定处理。', '第一条 为了维护党章和其他党内法规，严肃党的纪律，纯洁党的组织，保障党员民主权利，教育党员遵纪守法，维护党的团结统一，保证党的理论、路线、方针、政策、决议和国家法律法规的贯彻执行，根据《中国共产党章程》，制定本条例。', '第二条 党的纪律建设必须坚持以马克思列宁主义、毛泽东思想、邓小平理论、“三个代表”重要思想、科学发展观、习近平新时代中国特色社会主义思想为指导，坚持和加强党的全面领导，坚决维护习近平总书记党中央的核心、全党的核心地位，坚决维护以习近平同志为核心的党中央权威和集中统一领导，弘扬伟大建党精神，坚持自我革命，贯彻全面从严治党战略方针，落实新时代党的建设总要求，推动解决大党独有难题、健全全面从严治党体系，全面加强党的纪律建设，为以中国式现代化全面推进强国建设、民族复兴伟业提供坚强纪律保障。', '第三条 党章是最根本的党内法规，是管党治党的总规矩。党的纪律是党的各级组织和全体党员必须遵守的行为规则。党组织和党员必须坚守初心使命，牢固树立政治意识、大局意识、核心意识、看齐意识，始终坚定道路自信、理论自信、制度自信、文化自信，切实践行正确的权力观、政绩观、事业观，自觉遵守和维护党章，严格执行和维护党的纪律，自觉接受党的纪律约束，模范遵守国家法律法规。', '（一）坚持党要管党、全面从严治党。把严的基调、严的措施、严的氛围长期坚持下去，加强对党的各级组织和全体党员的教育、管理和监督，把纪律挺在前面，抓早抓小、防微杜渐。', '（二）党纪面前一律平等。对违犯党纪的党组织和党员必须严肃、公正执行纪律，党内不允许有任何不受纪律约束的党组织和党员。', '（三）实事求是。对党组织和党员违犯党纪的行为，应当以事实为依据，以党章、其他党内法规和国家法律法规为准绳，执纪执法贯通，准确认定行为性质，区别不同情况，恰当予以处理。', '（四）民主集中制。实施党纪处分，应当按照规定程序经党组织集体讨论决定，不允许任何个人或者少数人擅自决定和批准。上级党组织对违犯党纪的党组织和党员作出的处理决定，下级党组织必须执行。', '（五）惩前毖后、治病救人。处理违犯党纪的党组织和党员，应当实行惩戒与教育相结合，做到宽严相济。', '第五条 深化运用监督执纪“四种形态”，经常开展批评和自我批评，及时进行谈话提醒、批评教育、责令检查、诫勉，让“红红脸、出出汗”成为常态；党纪轻处分、组织调整成为违纪处理的大多数；党纪重处分、重大职务调整的成为少数；严重违纪涉嫌犯罪追究刑事责任的成为极少数。', '第七条 党组织和党员违反党章和其他党内法规，违反国家法律法规，违反党和国家政策，违反社会主义道德，危害党、国家和人民利益的行为，依照规定应当给予纪律处理或者处分的，都必须受到追究。', '重点查处党的十八大以来不收敛、不收手，问题线索反映集中、群众反映强烈，政治问题和经济问题交织的腐败案件，违反中央八项规定精神的问题。', '第九条 对于违犯党纪的党组织，上级党组织应当责令其作出书面检查或者给予通报批评。对于严重违犯党纪、本身又不能纠正的党组织，上一级党的委员会在查明核实后，根据情节严重的程度，可以予以：', '第十条 党员受到警告处分一年内、受到严重警告处分一年半内，不得在党内提拔职务或者进一步使用，也不得向党外组织推荐担任高于其原任职务的党外职务或者进一步使用。', '第十一条 撤销党内职务处分，是指撤销受处分党员由党内选举或者组织任命的党内职务。对于在党内担任两个以上职务的，党组织在作处分决定时，应当明确是撤销其一切职务还是一个或者几个职务。如果决定撤销其一个职务，必须撤销其担任的最高职务。如果决定撤销其两个以上职务，则必须从其担任的最高职务开始依次撤销。对于在党外组织担任职务的，应当建议党外组织撤销其党外职务。', '对于在立案审查中因涉嫌违犯党纪被免职的党员，审查后依照本条例规定应当给予撤销党内职务处分的，应当按照其原任职务给予撤销党内职务处分。对于应当受到撤销党内职务处分，但是本人没有担任党内职务的，应当给予其严重警告处分。同时，在党外组织担任职务的，应当建议党外组织撤销其党外职务。', '党员受到撤销党内职务处分，或者依照前款规定受到严重警告处分的，二年内不得在党内担任和向党外组织推荐担任与其原任职务相当或者高于其原任职务的职务。', '第十二条 留党察看处分，分为留党察看一年、留党察看二年。对于受到留党察看处分一年的党员，期满后仍不符合恢复党员权利条件的，应当延长一年留党察看期限。留党察看期限最长不得超过二年。', '党员受留党察看处分期间，没有表决权、选举权和被选举权。留党察看期间，确有悔改表现的，期满后恢复其党员权利；坚持不改或者又发现其他应当受到党纪处分的违纪行为的，应当开除党籍。', '党员受到留党察看处分，其党内职务自然撤销。对于担任党外职务的，应当建议党外组织撤销其党外职务。受到留党察看处分的党员，恢复党员权利后二年内，不得在党内担任和向党外组织推荐担任与其原任职务相当或者高于其原任职务的职务。', '第十三条 党员受到开除党籍处分，五年内不得重新入党，也不得推荐担任与其原任职务相当或者高于其原任职务的党外职务。另有规定不准重新入党的，依照规定。', '第十四条 党员干部受到党纪处分，需要同时进行组织处理的，党组织应当按照规定给予组织处理。', '第十五条 对于受到改组处理的党组织领导机构成员，除应当受到撤销党内职务以上处分的外，均自然免职。', '第十六条 对于受到解散处理的党组织中的党员，应当逐个审查。其中，符合党员条件的，应当重新登记，并参加新的组织过党的生活；不符合党员条件的，应当对其进行教育、限期改正，经教育仍无转变的，予以劝退或者除名；有违纪行为的，依照规定予以追究。', '（二）在组织谈话函询、初步核实、立案审查过程中，能够配合核实审查工作，如实说明本人违纪违法事实；', '（三）检举同案人或者其他人应当受到党纪处分或者法律追究的问题，经查证属实，或者有其他立功表现；', '第十八条 根据案件的特殊情况，由中央纪委决定或者经省（部）级纪委（不含副省级市纪委）决定并呈报中央纪委批准，对违纪党员也可以在本条例规定的处分幅度以外减轻处分。', '第十九条 对于党员违犯党纪应当给予警告或者严重警告处分，但是具有本条例第十七条规定的情形之一或者本条例分则中另有规定的，可以给予批评教育、责令检查、诫勉或者组织处理，免予党纪处分。对违纪党员免予处分，应当作出书面结论。', '党员有作风纪律方面的苗头性、倾向性问题或者违犯党纪情节轻微的，可以给予谈话提醒、批评教育、责令检查等，或者予以诫勉，不予党纪处分。', '党员行为虽然造成损失或者后果，但不是出于故意或者过失，而是由于不可抗力等原因所引起的，不追究党纪责任。', '第二十一条 党员在党纪处分影响期内又受到党纪处分的，其影响期为原处分尚未执行的影响期与新处分影响期之和。', '第二十二条 从轻处分，是指在本条例规定的违纪行为应当受到的处分幅度以内，给予较轻的处分。', '第二十三条 减轻处分，是指在本条例规定的违纪行为应当受到的处分幅度以外，减轻一档给予处分。', '第二十四条 一人有本条例规定的两种以上应当受到党纪处分的违纪行为，应当合并处理，按其数种违纪行为中应当受到的最高处分加重一档给予处分；其中一种违纪行为应当受到开除党籍处分的，应当给予开除党籍处分。', '第二十五条 一个违纪行为同时触犯本条例两个以上条款的，依照处分较重的条款定性处理。', '一个条款规定的违纪构成要件全部包含在另一个条款规定的违纪构成要件中，特别规定与一般规定不一致的，适用特别规定。', '第二十六条 二人以上共同故意违纪的，对为首者，从重处分，本条例另有规定的除外；对其他成员，按照其在共同违纪中所起的作用和应负的责任，分别给予处分。', '对于经济方面共同违纪的，按照个人参与数额及其所起作用，分别给予处分。对共同违纪的为首者，情节严重的，按照共同违纪的总数额处分。', '第二十七条 党组织领导机构集体作出违犯党纪的决定或者实施其他违犯党纪的行为，对具有共同故意的成员，按共同违纪处理；对过失违纪的成员，按照各自在集体违纪中所起的作用和应负的责任分别给予处分。', '第二十八条 对违法犯罪的党员，应当按照规定给予党纪处分，做到适用纪律和适用法律有机融合，党纪政务等处分相匹配。', '第二十九条 党组织在纪律审查中发现党员有贪污贿赂、滥用职权、玩忽职守、权力寻租、利益输送、徇私舞弊、浪费国家资财等违反法律涉嫌犯罪行为的，应当给予撤销党内职务、留党察看或者开除党籍处分。', '第三十条 党组织在纪律审查中发现党员有刑法规定的行为，虽不构成犯罪但须追究党纪责任的，或者有其他破坏社会主义市场经济秩序、违反治安管理等违法行为，损害党、国家和人民利益的，应当视具体情节给予警告直至开除党籍处分。', '违反国家财经纪律，在公共资金收支、税务管理、国有资产管理、政府采购管理、金融管理、财务会计管理等财经活动中有违法行为的，依照前款规定处理。', '党员有嫖娼或者吸食、注射毒品等丧失党员条件，严重败坏党的形象行为的，应当给予开除党籍处分。', '第三十一条 党组织在纪律审查中发现党员严重违纪涉嫌违法犯罪的，原则上先作出党纪处分决定，并按照规定由监察机关给予政务处分或者由任免机关（单位）给予处分后，再移送有关国家机关依法处理。', '第三十二条 党员被依法留置、逮捕的，党组织应当按照管理权限中止其表决权、选举权和被选举权等党员权利。根据监察机关、司法机关处理结果，可以恢复其党员权利的，应当及时予以恢复。', '第三十三条 党员犯罪情节轻微，人民检察院依法作出不起诉决定的，或者人民法院依法作出有罪判决并免予刑事处罚的，应当给予撤销党内职务、留党察看或者开除党籍处分。', '因过失犯罪被判处三年以下有期徒刑或者被判处管制、拘役的，一般应当开除党籍。对于个别可以不开除党籍的，应当对照处分违纪党员批准权限的规定，报请再上一级党组织批准。', '第三十五条 党员依法受到刑事责任追究的，党组织应当根据司法机关的生效判决、裁定、决定及其认定的事实、性质和情节，依照本条例规定给予党纪处分，是公职人员的由监察机关给予相应政务处分或者由任免机关（单位）给予相应处分。', '党员依法受到政务处分、任免机关（单位）给予的处分、行政处罚，应当追究党纪责任的，党组织可以根据生效的处分、行政处罚决定认定的事实、性质和情节，经核实后依照规定给予相应党纪处分或者组织处理。其中，党员依法受到撤职以上处分的，应当依照本条例规定给予撤销党内职务以上处分。', '党员违反国家法律法规、企事业单位或者其他社会组织的规章制度受到其他处分，应当追究党纪责任的，党组织在对有关方面认定的事实、性质和情节进行核实后，依照规定给予相应党纪处分或者组织处理。', '党组织作出党纪处分或者组织处理决定后，监察机关、司法机关、行政机关等依法改变原生效判决、裁定、决定等，对原党纪处分或者组织处理决定产生影响的，党组织应当根据改变后的生效判决、裁定、决定等重新作出相应处理。', '第三十六条 预备党员违犯党纪，情节较轻，可以保留预备党员资格的，党组织应当对其批评教育或者延长预备期；情节较重的，应当取消其预备党员资格。', '（二）除前项规定的情况外，下落不明时间超过六个月的，党组织应当按照党章规定对其予以除名。', '第三十八条 违纪党员在党组织作出处分决定前死亡，或者在死亡之后发现其曾有严重违纪行为，对于应当给予开除党籍处分的，开除其党籍；对于应当给予留党察看以下处分的，作出违犯党纪的书面结论和相应处理。', '（一）直接责任者，是指在其职责范围内，不履行或者不正确履行自己的职责，对造成的损失或者后果起决定性作用的党员或者党员领导干部；', '（二）主要领导责任者，是指在其职责范围内，对主管的工作不履行或者不正确履行职责，对造成的损失或者后果负直接领导责任的党员领导干部；', '（三）重要领导责任者，是指在其职责范围内，对应管的工作或者参与决定的工作不履行或者不正确履行职责，对造成的损失或者后果负次要领导责任的党员领导干部。', '第四十条 本条例所称主动交代，是指涉嫌违纪的党员在组织谈话函询、初步核实前向有关组织交代自己的问题，或者在谈话函询、初步核实和立案审查期间交代组织未掌握的问题。', '第四十一条 担任职级、单独职务序列等级的党员干部违犯党纪受到处分，需要对其职级、单独职务序列等级进行调整的，参照本条例关于党外职务的规定执行。', '第四十二条 计算经济损失应当计算立案时已经实际造成的全部财产损失，包括为挽回违纪行为所造成损失而支付的各种开支、费用。立案后至处理前持续发生的经济损失，应当一并计算在内。', '第四十三条 对于违纪行为所获得的经济利益，应当收缴或者责令退赔。对于主动上交的违纪所得和经济损失赔偿，应当予以接收，并按照规定收缴或者返还有关单位、个人。', '对于违纪行为所获得的职务、职级、职称、学历、学位、奖励、资格等其他利益，应当由承办案件的纪检机关或者由其上级纪检机关建议有关组织、部门、单位按照规定予以纠正。', '对于依照本条例第三十七条、第三十八条规定处理的党员，经调查确属其实施违纪行为获得的利益，依照本条规定处理。', '第四十四条 党纪处分决定作出后，应当在一个月内向受处分党员所在党的基层组织中的全体党员及其本人宣布，是领导班子成员的还应当向所在党组织领导班子宣布，并按照干部管理权限和组织关系将处分决定材料归入受处分者档案；对于受到撤销党内职务以上处分的，还应当在一个月内办理职务、工资、工作及其他有关待遇等相应变更手续；涉及撤销或者调整其党外职务的，应当建议党外组织及时撤销或者调整其党外职务。特殊情况下，经作出或者批准作出处分决定的组织批准，可以适当延长办理期限。办理期限最长不得超过六个月。', '第四十五条 执行党纪处分决定的机关或者受处分党员所在单位，应当在六个月内将处分决定的执行情况向作出或者批准处分决定的机关报告。', '第四十八条 本条例总则适用于有党纪处分规定的其他党内法规，但是中共中央发布或者批准发布的其他党内法规有特别规定的除外。', '第四十九条 在重大原则问题上不同党中央保持一致且有实际言论、行为或者造成不良后果的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第五十条 通过网络、广播、电视、报刊、传单、书籍等，或者利用讲座、论坛、报告会、座谈会等方式，公开发表坚持资产阶级自由化立场、反对四项基本原则，反对党的改革开放决策的文章、演说、宣言、声明等的，给予开除党籍处分。', '发布、播出、刊登、出版前款所列文章、演说、宣言、声明等或者为上述行为提供方便条件的，对直接责任者和领导责任者，给予严重警告或者撤销党内职务处分；情节严重的，给予留党察看或者开除党籍处分。', '第五十一条 通过网络、广播、电视、报刊、传单、书籍等，或者利用讲座、论坛、报告会、座谈会等方式，有下列行为之一，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分：', '（一）公开发表违背四项基本原则，违背、歪曲党的改革开放决策，或者其他有严重政治问题的文章、演说、宣言、声明等；', '（三）丑化党和国家形象，或者诋毁、诬蔑党和国家领导人、英雄模范，或者歪曲党的历史、中华人民共和国历史、人民军队历史。', '发布、播出、刊登、出版前款所列内容或者为上述行为提供方便条件的，对直接责任者和领导责任者，给予严重警告或者撤销党内职务处分；情节严重的，给予留党察看或者开除党籍处分。', '第五十二条 制作、贩卖、传播第五十条、第五十一条所列内容之一的报刊、书籍、音像制品、电子读物，以及网络文本、图片、音频、视频资料等，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '私自携带、寄递第五十条、第五十一条所列内容之一的报刊、书籍、音像制品、电子读物等入出境，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务、留党察看或者开除党籍处分。', '私自阅看、浏览、收听第五十条、第五十一条所列内容之一的报刊、书籍、音像制品、电子读物，以及网络文本、图片、音频、视频资料等，情节严重的，给予警告、严重警告或者撤销党内职务处分。', '第五十四条 在党内搞团团伙伙、结党营私、拉帮结派、政治攀附、培植个人势力等非组织活动，或者通过搞利益交换、为自己营造声势等活动捞取政治资本的，给予严重警告或者撤销党内职务处分；导致本地区、本部门、本单位政治生态恶化的，给予留党察看或者开除党籍处分。', '第五十五条 搞投机钻营，结交政治骗子或者被政治骗子利用的，给予严重警告或者撤销党内职务处分；情节严重的，给予留党察看或者开除党籍处分。', '第五十六条 党员领导干部在本人主政的地方或者分管的部门自行其是，搞山头主义，拒不执行党中央确定的大政方针，甚至背着党中央另搞一套的，给予撤销党内职务、留党察看或者开除党籍处分。', '贯彻党中央决策部署只表态不落实，或者落实党中央决策部署不坚决，打折扣、搞变通，在政治上造成不良影响或者严重后果的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务、留党察看或者开除党籍处分。', '第五十七条 党员领导干部政绩观错位，违背新发展理念、背离高质量发展要求，给党、国家和人民利益造成较大损失的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第五十八条 对党不忠诚不老实，表里不一，阳奉阴违，欺上瞒下，搞两面派，做两面人，在政治上造成不良影响的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第五十九条 制造、散布、传播政治谣言，破坏党的团结统一的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '政治品行恶劣，匿名诬告，有意陷害或者制造其他谣言，造成损害或者不良影响的，依照前款规定处理。', '第六十条 擅自对应当由党中央决定的重大政策问题作出决定、对外发表主张的，对直接责任者和领导责任者，给予严重警告或者撤销党内职务处分；情节严重的，给予留党察看或者开除党籍处分。', '第六十一条 不按照有关规定向组织请示、报告重大事项，对直接责任者和领导责任者，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。', '第六十二条 干扰巡视巡察工作或者不落实巡视巡察整改要求，对直接责任者和领导责任者，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第六十三条 对抗组织审查，有下列行为之一的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分：', '第六十四条 组织、参加反对党的基本理论、基本路线、基本方略或者重大方针政策的集会、游行、示威等活动的，或者以组织讲座、论坛、报告会、座谈会等方式，反对党的基本理论、基本路线、基本方略或者重大方针政策，造成严重不良影响的，对策划者、组织者和骨干分子，给予开除党籍处分。', '对其他参加人员或者以提供信息、资料、财物、场地等方式支持上述活动者，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '未经组织批准参加其他集会、游行、示威等活动，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第六十五条 组织、参加旨在反对党的领导、反对社会主义制度或者敌视政府等组织的，对策划者、组织者和骨干分子，给予开除党籍处分。', '对其他参加人员，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第六十六条 组织、参加会道门或者邪教组织的，对策划者、组织者和骨干分子，给予开除党籍处分。', '第六十七条 从事、参与挑拨破坏民族关系制造事端或者参加民族分裂活动的，对策划者、组织者和骨干分子，给予开除党籍处分。', '有其他违反党和国家民族政策的行为，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第六十八条 组织、利用宗教活动反对党的理论、路线、方针、政策和决议，破坏民族团结的，对策划者、组织者和骨干分子，给予开除党籍处分。', '有其他违反党和国家宗教政策的行为，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第六十九条 对信仰宗教的党员，应当加强思想教育，要求其限期改正；经党组织帮助教育仍没有转变的，应当劝其退党；劝而不退的，予以除名；参与利用宗教搞煽动活动的，给予开除党籍处分。', '第七十条 组织迷信活动的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '参加迷信活动或者个人搞迷信活动，造成不良影响的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第七十一条 组织、利用宗族势力对抗党和政府，妨碍党和国家的方针政策以及决策部署的实施，或者破坏党的基层组织建设的，对策划者、组织者和骨干分子，给予开除党籍处分。', '第七十二条 在国（境）外、外国驻华使（领）馆申请政治避难，或者违纪后逃往国（境）外、外国驻华使（领）馆的，给予开除党籍处分。', '第七十三条 在涉外活动中，其言行在政治上造成恶劣影响，损害党和国家尊严、利益的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第七十四条 不履行全面从严治党主体责任、监督责任或者履行全面从严治党主体责任、监督责任不力，给党组织造成严重损害或者严重不良影响的，对直接责任者和领导责任者，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。', '第七十五条 党员领导干部对违反政治纪律和政治规矩等错误思想和行为不报告、不抵制、不斗争，放任不管，搞无原则一团和气，造成不良影响的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。', '第七十六条 违反党的优良传统和工作惯例等党的规矩，在政治上造成不良影响或者严重后果的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第七十七条 违反民主集中制原则，有下列行为之一的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分：', '第七十八条 下级党组织拒不执行或者擅自改变上级党组织决定的，对直接责任者和领导责任者，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。', '第七十九条 拒不执行党组织的分配、调动、交流等决定的，给予警告、严重警告或者撤销党内职务处分。', '在特殊时期或者紧急状况下，拒不执行党组织上述决定的，给予留党察看或者开除党籍处分。', '第八十条 在党组织纪律审查中，依法依规负有作证义务的党员拒绝作证或者故意提供虚假情况，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务、留党察看或者开除党籍处分。', '有前款第二项规定的行为，同时向组织提供虚假情况、掩盖事实的，依照本条例第六十三条规定处理。', '篡改、伪造个人档案资料的，给予严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。', '隐瞒入党前严重错误的，一般应当予以除名；对入党多年且一贯表现好，或</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>53</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>湖州市考察团赴我区开展对口合作</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2023-06-09</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.hunjiang.gov.cn/zw/hjyw/202306/t20230614_773618.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['6月6日，湖州市市委副书记、政法委书记蔡旭昶带领考察团来到我区考察学习，白山市市委常委、政法委书记宋玉国，区委书记张海，区委常委、副区长傅远超陪同接待考察，双方在考察学习中积极开展交流，切实推动两地实现友好协作发展。', '考察中，一行人来到三道沟仙人洞村吉林省浙江商会捐赠兴建的五味子烘干厂工地现场，了解了烘干厂建设情况，并向考察团介绍了当地的产业特色和资源优势以及浑江区在对口合作上的帮助与支持。在滴台村考察团领略到我区优秀的生态资源，并表示会进一步深化产业协作，针对双方特色找准合作的切入点和结合点，让产业协作更具实效、更有质量。', '宋玉国代表白山市欢迎湖州考察团的到来，希望考察团能在这次考察中发现白山之美，并能充分利用生态、旅游、文化资源，推动两地旅游互补、客源互送、利益共赢，创新合作模式，探索出一条双赢的“飞地”模式，共促“飞地”经济，从而推动两地协同共进，助推湖州白山两地发展。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>53</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>市科技局与白山市浑江区湖州市吴兴区召开项目洽谈会</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://kjj.cbs.gov.cn/sy/xwkd/202308/t20230829_782151.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['为深入推进白山市科学技术研究所与湖州吴兴区美妆小镇开展精油技术合作及成果转化，8月28日下午，市科技局与白山市浑江区、湖州市吴兴区召开项目洽谈会。市科技局党组书记张永华、浑江区政协主席崔玉久、湖州市吴兴区政协主席丁芳芳参加了此次会议。白山市科学技术研究所、白山市长白山人参研究院及湖州市吴兴区赴白山学习考察人员列席会议。', '湖州市吴兴区政协丁芳芳主席一行参观了白山市科学技术研究所香精香料提取实验室。马志远所长介绍了长白山天然香用植物提取的精油、浸膏系列产品；提取工艺；应用情况及产业化前景。', '项目洽谈会上，白山市科学技术研究所唐贵才副所长围绕长白山区自然环境情况、香料植物资源情况及产业发展基础向参会人员做了专项推介。浙江吴兴经济开发区管委会副主任吴霜就美妆小镇基本情况、产业发展需求等向参会人员做了介绍。会议就长白山精油、浸膏产品在美妆小镇开展试验应用达成了初步合作意向，为未来相关产品实现产业化奠定了基础。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>53</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>走出去叩门招商请进来共同发展长春新区赴武汉深圳等地学习考察并开展招商引资活动</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://ccxq.gov.cn/xqyw/xqdt/202309/t20230913_2516665.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['“走出去”叩门招商 “请进来”共同发展 长春新区赴武汉、深圳等地学习考察并开展招商引资活动-长春新区管理委员会', '“走出去”叩门招商 “请进来”共同发展 长春新区赴武汉、深圳等地学习考察并开展招商引资活动', '近日，市人大常委会党组书记、主任王志厚率长春市代表团参加第24届中国国际光电博览会，并在深圳等地进行学习考察。长春新区党工委副书记李广明随市代表团参加活动期间，带领长春新区考察团赴武汉、深圳等地，聚焦光电信息产业发展开展学习考察和招商引资活动，对标学习先进地区的发展经验，洽谈推动重点招商项目合作，为长春新区高质量发展蓄能增势。', '5日上午，李广明陪同市人大常委会党组书记、主任王志厚赴中国信息通信科技集团有限公司、长飞光纤光缆股份有限公司进行考察学习，并在武汉东湖高新区和武汉会议中心分别进行了座谈交流，听取了武汉市经济和信息化局、东湖高新区在光电信息产业发展和光电信息产业政策上的经验，与长飞光纤、楚天激光、锐科光纤、中国信科等12户武汉企业代表进行交流洽谈，学习好经验、好做法，进一步密切彼此联系，促进共同繁荣发展。', '6日上午，李广明陪同市人大常委会党组书记、主任王志厚参加了深圳光博会开幕式并进行了巡馆，本次深圳光博会长春市共有36户企业参展，其中新区10户。随后，在深圳市国汇大厦召开深圳市-长春市合作交流座谈会，听取了华为、深圳创益、广东骏亚等11户域外企业代表的交流发言。长春新区光电办与深圳创益集团、弗迪电池、图灵量子、华为、广东骏亚电子、中商产业研究院等企业进行了对接交流，寻求项目合作机会，推动更多项目在新区落地。', '学习考察期间，李广明带领新区光电办、希达电子、长光集团、永利激光、泰华电子、国科创新、荣德光学、中关村长春创新中心相关负责人，与长春市工信局共同来到联合控股有限公司进行学习考察，实地参观了中电光谷展厅，了解了中电光谷相关产业园区建设整体情况。随后，一行人赴武汉高德红外股份有限公司，现场参观了高德红外公司展厅及主要产品，并与高德红外党委副书记徐光照举行了座谈交流，深入对接创新资源和重大项目，并邀请企业来长考察，务实对接项目，推动相关产业蓬勃发展。', '考察期间，长春新区光电办拜访了深圳市洲明科技有限公司，参观了企业展厅，与企业公共关系事业部总监迟水良开展交流座谈，双方围绕MINNI/MICRO LED领域研讨了合作方向。新区光电办详细介绍了长春新区的产业基础、区位优势、营商环境和资源禀赋，洲明科技表示对奥来德的柔性有机发光材料及蒸发源设备很感兴趣，同时围绕智慧路灯方向洲明科技也提出了项目提议，并将择期赴长春进行对接洽谈。随后，参观考察了深圳市光瑞实业有限公司和中荣国投智慧城市建设有限公司，洽谈对接了相关业务，诚邀广大企业家投资长春新区、加快布局，实现共同发展。此外，长春新区光电办还与图灵量子和中商产业研究院相关负责人进行了对接商讨。', '“走出去”叩门招商，“请进来”共同发展。此次考察，长春新区与30余户企业建立了联系，储备了资源，洽谈了项目合作内容。未来，长春新区将不断引入众多优质企业和项目，争取尽快将洽谈结果转化为落位成果，为推动长春新区经济高质量发展提供新动能和强有力支撑。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>53</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>靖宇县固成果衔振兴提收入行动实施方案</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2023-06-14</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://xxgk-jyx.cbs.gov.cn/shgy/tpgj/202310/t20231025_788897.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['“三农”工作的重要论述，贯彻落实党中央、国务院关于巩固拓展脱贫攻坚成果、全面推进乡村振兴的重大决策部署', '“五化”闭环工作法要求，进一步提升全县巩固拓展脱贫攻坚成果同乡村振兴有效衔接工作实效，稳步提升脱贫人口收入，经县委农村工作领导小组研究决定，', '“三农”工作的重要论述，认真落实中央和省委省政府决策部署，坚持稳中求进总基调，锚定加快农业强县建设目标，聚焦“守底线、抓发展、促振兴”，全面促进脱贫群众持续稳定增收，全面守牢不发生规模性返贫底线，全面加快宜居宜业和美乡村建设，全面推进重点村高质量发展，全面汇聚团结奋斗强大工作合力，不断增强脱贫地区和脱贫群众内生发展动力，协调推进巩固拓展脱贫攻坚成果上台阶、全面振兴见实效，为在中国式现代化进程中推动靖宇县全面振兴取得新突破提供有力支撑。', '过渡期内，全省脱贫人口人均纯收入增速高于全国水平，与全国脱贫人口人均纯收入持平；到', '坚持将促进脱贫人口持续增收作为脱贫人口稳定脱贫、逐步致富的关键举措，发展帮扶产业，强化就业帮扶，完善帮农带农机制，激发脱贫群众内生动力，推动兜底帮扶和社会帮扶落实落地，切实保障脱贫人口稳定增收。', '60%，省级衔接资金、涉农整合资金使用分别不低于50%和60%且不低于上年的目标要求，充分挖掘本土资源优势，科学谋划产业项目，合理安排帮扶资金，帮助乡村产业补上技术、设施、营销等短板，促进乡村产业提档升级、提质增效。', '“千亿斤粮食”工程、“秸秆变肉”暨千万头肉牛工程和打造十大产业集群等重大产业布局，找准结合点和突破口，做好“土特产”文章，推进“因户施策”、“以奖代补”', '针对性建设产业发展所需的道路、供水、用电、仓储保鲜、冷链物流、包装加工等设施建设，延长产业链，提升产业附加值。', '“小额信贷”投放力度，对符合贷款条件的、有贷款需求的脱贫户及监测对象全力给予信贷支持，确保2023年贷款量较上一年持续提升，余额户数占比保持总体稳定，及时落实“贷款贴息”工作，减轻脱贫户和监测对象资金使用负担。', '“致富带头人”、“科技特派员”作用发挥，就地培养农村“土专家”、“田秀才”等产业技术人才，超额完成每个脱贫村3个以上致富带头人，脱贫村科技特派员全覆盖目标。', '优先培育认定带动脱贫群众增收的农业产业化龙头企业，规范发展农村合作经营组织，深入实施农民合作社质量提升行动、家庭农场培育计划，鼓励组建区域性家庭农场协会或联盟，支持农民合作社依法组建联合社，扩大经营规模，拓宽销售渠道，增强经济实力。', '严格落实扶贫项目资产后续管理工作要求，持续抓好确权登记和资产监管，确保帮扶资金安全、帮扶产业平稳运行；加强病虫害和灾害天气预警，提醒农户做好管理防范，降低不利条件对产业的影响；持续推进', '“互联网+”拓宽销售渠道，积极开展消费帮扶行动，解决农产品“卖难”问题，促进脱贫户持续增收，帮助脱贫群众把农产品及时卖出去、卖上好价钱。', '2023年脱贫人口就业人员数量不低于2022年为基础目标，坚持稳存量、扩增量、提质量，多层次、全方位拓宽就业渠道，强化脱贫人口技能培训，增强就业竞争力。坚持“四个一批”工作机制，通过组织招聘会转移就业一批；与用工企业协调对接推动就业一批；发展蓝莓、肉牛等种养殖业以及资产收益类项目，通过雇工临时就业一批；在原有公益岗位数量的基础上再增加实现就业一批。', '坚持和完善就业帮扶车间认定标准，创新运用好厂房式、居家式、基地式、融合式发展模式，在确保原有帮扶车间稳定的基础上，全县', '“按需设岗、以岗聘任、在岗领补、有序退岗”管理机制，优先安置符合条件的脱贫人口特别是弱劳力、半劳力实现就业，避免重复设岗、一人多岗，及时纠正查处安置不符合条件人员、违规发放补贴等行为，2023年乡村公益岗位聘用人数较2022年增加10%。', '将脱贫人口融入到产业相关生产、加工、销售全链条中，支持自主创业和灵活就业，支持就业吸纳能力较强的新业态新模式发展。', '发挥以工代赈兜底保障作用，积极引导脱贫人口参加农田水利、村庄道路、人居环境整治、乡村绿化、污水处理、生活垃圾治理等工程项目建设，带动更多脱贫人口参与乡村建设。', '“春风行动”、“农用季节务工”等专项行动，将脱贫人口作为优先保障对象，提供优质就业服务；落实脱贫人口外出务工一次性交通补助政策，强化精准帮扶劳务协作、岗位推介，确保2023年脱贫劳动力省外、省内县外务工规模稳中有增。', '加大对脱贫人口就业技能和实用技术培训力度，将有条件、由意愿的脱贫劳动力和监测对象纳入培训范围，合理设置培训课程，按照', '“缺什么、补什么”的原则，积极开展“订单式”、“定向式”培训，对符合条件的脱贫群众优先给与职称评审，让更多有一技之长的乡土人才有帽子、被认可，发挥更强带动作用，2023年确保有培训意愿的脱贫劳动力和监测对象劳动力至少接受1次就业技能培训。', '及时足额发放补助资金，引导脱贫户及监测户新成长劳动力接受职业教育，掌握一技之长，做好毕业生就业指导服务，实现高质量就业，原则上享受雨露计划教育补助的学生毕业后，不再继续更高层次教育的均应实现稳定就业。', '“农民画”、“编织”、“雕刻”等产业带动就业质量，培养一批有品牌、有声誉的乡村工匠。', '“老、弱、病、残”群体的兜底帮扶作用，常态化入户走访，开展精准核算，确保符合条件的脱贫人口全部纳入保障范畴。充分发挥“临时救助”解决脱贫户突发性、紧迫性、临时性基本生活困难方面的突出效果，防止脱贫户家庭经济情况持续恶化。充分发挥社会帮扶的政策补充作用，鼓励引导机关企业、工商个体、爱心人士等社会组织参与脱贫人口帮扶工作，给予脱贫户家庭资金、物资、技术、岗位、信息等各方面支持。', '要核准脱贫户耕地、粮食种植、林地等情况，及时、足额发放玉米、大豆种植者补贴、地力补贴等农林补贴政策。核准脱贫户身份信息，及时发放计划生育补助、移民补贴等补助资金。要继续做好养老金发放、', '60周岁以上人员补贴资金和养老保险代缴工作，确保符合条件的脱贫人口养老金准时、足额发放到位，符合代缴条件的脱贫人口不落一人。充分发挥光伏资金促进脱贫户增收方面的积极作用，做好光伏电站运营维护，确保持续稳定发电，针对无劳动能力的脱贫人口和未消除风险的监测对象，按照文件要求，发放光伏补贴资金；针对有劳动能力和弱半劳动能力脱贫人口和未消除风险的监测对象，结合村内社会事业需求，科学设置公益岗位、开展小型公益事业用工；发挥好光伏资金对各类帮扶政策的补充作用，利用“一事一议”的方式，解决脱贫户在生产生活中各类突发困难问题。各部门和乡镇要及时开展核查和资金发放工作，确保各类补助和光伏补贴资金在9月30日前发放到位。', '加强《中华人民共和国宪法》、《中华人民共和国老年人权益保障法》、《中华人民共和国婚姻法》、《中华人民共和国刑法》等法律条款宣传，弘扬中华民族尊老爱幼的传统美德，积极开展传统节日孝亲、敬老等活动，通过政策宣传，激发群众内生动力，引导子女积极履行赡养义务，为老年父母、未成年人提供充足的生活保障。', '“三保障”和饮水安全有保障标准，进一步强化行业主管部门工作责任，准确把握和落实各项政策举措，实行动态摸排帮扶，坚决防止保障不到位引发规模性返贫风险。各乡镇和相关行业部门每半年组织开展一次全覆盖自查，集中排查解决短板弱项和问题隐患。', '持续开展控辍保学工作，全面掌握农村居住家庭适龄儿童少年义务教育保障情况，严防适龄儿童未入校就读和已就读学生失学辍学现象，落实家庭经济困难学生资助政策，做到应助尽助。', '健全农村低收入人口参保台账，做好信息动态核查比对，确保纳入资助参保范围的农村特困人口、低保对象、监测对象、脱贫人口等动态纳入基本医疗保险覆盖范围。严格落实脱贫人口和监测对象', '“先诊疗、后付费”政策，继续执行大病住院、慢病门诊报销比例倾斜政策。对因重特大疾病发生高额医疗费用支出，导致出现易返贫致贫的人口要按照相关规定予以救助。全面推动符合条件的脱贫群众基本医保“应保尽保”，签约服务“应签尽签”，医疗费用“应报尽报”。', '深入开展农村房屋安全隐患排查整治，按照相关政策要求开展巡查，及时进行房屋安全等级鉴定，全面排查农村居住家庭是否有安全住房，经鉴定属', 'C级、D级危房的，根据农户意愿，采取危房改造或其它有效方式保障住房安全，确保脱贫群众和监测对象不住危房。', '对照《农村饮水安全评价准则》，全面排查农村居住家庭饮水是否存在水质、水量、用水方便程度和供水保证率等方面问题，建立农村供水管理台账，排查农村集中供水工程运行隐患，特别是冬季冻损、季节性供水中断问题。建立健全长效管理机制、运行管护制度，确保县级中心作用发挥，落实维修管护资金、水费收缴管理制度，确保监督电话等举报渠道畅通，实现问题动态清零。', '2023年4月1日起以人均纯收入7800元为指导线，巩固好“三保障”和安全饮水核心指标，综合考虑因病、因灾、因事故等原因导致的收入骤减和医疗、教育等刚性支出，对存在致贫、返贫风险的农户要及时纳入监测范围，重点关注八类重点人群和特殊群体。', '2022年家庭人均纯收入较低和明显减少的农户，特别是收入低于防返贫监测收入指导线的农户；', '因病因灾因意外事故等刚性支出较大或收入大幅缩减导致基本生活出现严重困难的农户。各乡镇、行政村要加大宣传力度，指导村民利用微信', '“小程序”自主申报，发挥防返贫监测网格化管理和防返贫监测员作用，突出问题导向，提高工作实效，原则上以下几类农户必须纳入监测：一是年人均纯收入低于7800元且收入不稳定的农户；二是“三保障”和饮水安全出现问题且自身无力解决的农户；三是收入不可逆下降，支出长期较大的农户。要简化工作流程，在落实“村级提名、乡镇复核、县级确认”的基础上，缩短认定时间，从农户申报、村干部排查部门预警发现线索之日起，到完成监测对象识别认定，一般不超过15天，公示环节原则上只在村内进行不少于5天的公示，县乡不再重复公示。要提高工作实效，监测对象认定的信息比对与识别程序同步进行，推动防止返贫监测和低收入人口动态监测平台数据共享、比对结果共用，对新纳入低保对象已开展过信息比对的，可不重复比对。', '全县各行业部门要加大部门排查力度，充分发挥行业职能，与县乡村振兴服务中心不定期进行数据交换，实时报送本行业部门预警信息。', '对未消除风险的监测对象要及时制定帮扶方案并针对风险类型落实帮扶措施，对新纳入监测对象在村民大会或村民代表会议通过评议后，直接研究制定帮扶方案，对已消除风险的监测对象要制定后续巩固方案，结合政策要求，持续关注、巩固风险消除成效，严防再次发生风险。要保证帮扶措施及时到位、全面有效，防止', '“一兜了之”、“无效帮扶”和“福利化倾向”。义务教育、基本医疗、住房安全、饮水安全方面存在问题，风险类型较为单一的，及时落实针对性帮扶，尽快解决问题，消除风险。返贫致贫风险较为复杂的，要全面认定具体风险情况，并结合风险类型和农户需求，采取“政策包”的方式因人因户落实帮扶。户内有劳动力的监测对象，至少落实1项产业、就业开发式帮扶措施；整户无劳动能力的要落实好兜底保障、社会救助等综合性帮扶措施；对弱半劳力，创造条件探索落实开发式帮扶措施。对因灾因意外事故等导致出现返贫致贫风险，生活陷入严重困难事实清楚的，可通过“绿色通道”先录入全国防止返贫监测和衔接推进乡村振兴信息系统并开展救助、落实帮扶，后履行有关程序，确保做到早发现、早干预、早帮扶。自农户纳入监测之日起，30天内必须有相应帮扶措施落实，并在系统中进行录入。', '监测对象风险消除标注工作不设比例、不设时限，坚持实事求是、民主评议、公开公示，确保风险消除一户、稳定一户。除风险自然消除的，监测对象收入原则上要超过当年监测范围并稳定半年以上，', '“三保障”及饮水安全持续巩固、返贫致贫风险已经稳定消除的监测对象，按程序标注风险消除，针对整户无劳动能力的监测户，暂不进行风险消除标记。对已标注风险消除的监测对象，要制定后续巩固方案，常态化进行走访，风险消除不稳定的要及时进行回退，再次进行帮扶；标注风险消除后又出现返贫致贫风险的，要按程序重新识别认定。监测对象中的脱贫人口，即使消除了返贫风险，也要落实“四个不摘”的要求，可以享受脱贫人口的相关帮扶政策，相关政策明确规定要延续的，也要持续落实。监测对象中的非脱贫人口，风险消除后，不再按“监测对象”进行帮扶，但要在常态化监测预警排查中持续关注，需要延续的政策主要是存在一定“时间周期”的帮扶措施，如小额信贷帮扶应持续至合同到期，公益岗位应持续到岗位协议到期，教育帮扶和雨露计划应持续到完成当前学段等。', '7+16+12指标要求，在基础设施、社会服务设施等方面进行了大量建设。各乡镇、各行业部门要珍惜来之不易建设成果，做好相关设施的维护和管理工作，确保各项设施持续发挥便民、利民作用，按照“只提升不下降”的要求，为乡村振兴后续工作打下坚实基础。', '持续做好水源地管护工作，确保水井房、围栏及各类标识、制度齐全完整，门窗、水井封锁到位，电源、水泵和消杀设备正常运转，水源地附近', '30米内无重污染源等。加大水管员管理力度，按时办理健康证，对照工作方案要求，及时开展巡护和消杀工作并做好相关工作记录。要及时进行水质鉴定，保证鉴定流程、鉴定结果符合安全饮水标准。', '继续落实四室分开、卫生室与村医住房分离的要求，保证村卫生室室内外卫生达标。要保障药品种类和数量，及时核查药品有效期，清理临期药物。加大村医培训和管理力度，强化医治能力和服务水平，确保村医按要求开展入户问诊，制作各类档案，卫生室联网报销等工作。', '强化已建成通村硬化路、村内道路和机耕路维护保养工作，针对已存在的损坏进行维修；继续保持行政村通客运班车的标准不变。', '对照最新行业部门制定的标准，确保村办公场所设施齐备、功能齐全，及时发放和更新文化活动室图书和文体器材，持续提升服务群众水平，丰富群众娱乐生活。', '针对各村已建成的边沟、围栏、路灯、文体广场、健身器材和绿化项目要及时进行维护，防止因管理不善导致损坏。继续加强村内各类基础设施建设，在满足村民基本需求的同时，进一步提升村民生产生活的质量。', '加强易地搬迁后续扶持，进一步优化安置点基础设施、人居环境和公共服务。加大搬迁安置区资金项目扶持力度，坚持', '“短中长”结合培育发展产业帮扶项目，保持脱贫户参加新型经营主体比例总体稳定、产业分红总体稳定。加强对搬迁劳动力就业培训，优先保障劳务输出，推动就业帮扶车间吸纳就业，优先安排公益性岗位，确保搬迁家庭劳动力至少有1人就业。加强社区管理，开展易地搬迁安置点乡村治理专项行动，谋划设立和运行好“爱心超市”，组建爱心志愿者服务团队，开展丰富的群众文化活动，充分调动群众自治积极性，确保搬迁群众稳得住、能融入、逐步能致富。', '各乡镇、村及帮扶部门，要充分认识群众满意度、认可度对巩固拓展脱贫攻坚同乡村振兴有效衔接的重要作用和重大意义，以实际行动', '践行好党的群众路线。要坚持人民立场，做到群众利益无小事，要真正将党的根基厚植于人民群众之中。', '县党政主要领导遍访辖区内所有乡镇和部分脱贫群众、监测对象，乡镇党政主要领导遍访辖区内所有行政村及部分脱贫群众、监测对象，村支部书记遍访本村所有脱贫群众和监测对象。要运用', '“五化”闭环工作法，详细制定遍访工作方案或计划，在确保遍访全覆盖的同时，党政主要领导可以分片遍访，避免对同一对象重复走访。', '“五天四宿、吃住在村”的要求，确需离村的要严格执行请销假制度；要与派出单位工作脱钩，全身心投入到所在村的各项工作中。要充分利用自身综合素质上的优势，着重解决乡村振兴工作中的各项难点问题，积极化解村民生产生活中存在的困难。', '持续推动帮扶单位人员与脱贫户结对帮扶责任落实，各帮扶部门要定期组织帮扶人进村入户开展帮扶，帮助脱贫户解决困难、谋划发展、了解政策、提升收入。原则上县级部门帮扶责任人每月入户开展帮扶工作不少于', '2次，省、市部门帮扶责任人在无法到村的情况下，要采取电话、微信等方式了解情况，对存在的问题及时帮助解决。县直帮扶部门的主要领导和分管领导，要每月不少于2次到村研究、指导包保帮扶工作。', '多渠道、多方式，加大政策宣讲力度，经常性的到农户家聊一聊家常，讲一讲政策，谈一谈收益，说一说变化，提升群众政策知晓率、帮扶满意度和工作认可度。建立正向激励机制，弘扬中华民族劳动光荣、勤俭持家、邻里和睦、孝敬老人等传统美德，教育和引导脱贫群众主动参与、勤劳致富、服务社会。', '要不断完善高质量推进乡村振兴宣传机制，进一步用公众号、视频号等平台，加强新媒体矩阵联动，紧扣巩固拓展脱贫攻坚成果、全面推进乡村振兴主题主线，多角度、深层次、立体化进行宣传报道，持续讲好靖宇乡村振兴故事。要切实履行意识形态工作责任制，及时有效处置敏感舆情，积极稳妥回应社会关切。加强国家、省、市级媒体沟通，报送典型案例，工作进展情况，促进宣传质量提升，为靖宇乡村振兴工作营造良好舆论氛围。', '乡村治理是一项重大的政治工作、社会工作、群众工作，组织、宣传、政法、民政、农业农村等部门要密切配合，深入推进抓党建促乡村振兴，不断健全党组织领导的自治、法治、德治相结合的新时代乡村治理体系。要通过典型引领、释放带动等方式，推进网格化管理、精细化服务、信息化支撑，拓展积分应用领域，创新积分载体平台，扩大积分制覆盖范围。要结合实际探索建立小微权力、村级事项、公共服务等各类清单，规范村级组织运行。要深入推进农村精神文明建设，继续在乡村开展', '“听党话、感党恩、跟党走”宣传教育活动，积极建设乡村文化人才库、文化领域专家库、典型案例数据库，深入开展高价彩礼、大操大办等农村移风易俗领域突出问题治理，不断引领农村形成良好风尚。', '2022年度考核实地评估核查、第三方评估、资金绩效评价、媒体暗访等工作均已完成，针对反馈问题对号入座、照单全收、立即整改。要将本地存在的问题与通报其他地区存在的问题结合起来，举一反三开展拉网式大排查，逐条列出问题清单、任务清单、责任清单，在规定时限内全面完成整改，力求通过清查一个问题、解决一类隐患、提升一项工作。要注重健全完善长效机制，强化整改促提升，从政策上、制度上坚决防止问题反弹反复。要进一步强化问题导向，继续实行最严格考核评估，强化考评结果运用，发挥好“指挥棒”作用。', '坚持以发展促巩固拓展脱贫攻坚成果、推进乡村振兴，进一步提升全县乡村振兴人才理论素养和工作能力，努力建设一支政治过硬、本领过硬、作风过硬的乡村振兴人才队伍。要按照分级分类大培训要求，科学确定年度培训计划，要针对性提升各级各类干部从事乡村振兴工作的政策素养和业务能力。要用好用活网络培训大讲堂等培训载体，统筹开展好线上线下乡村振兴主体培训工作。要深化拓展', '“四库两基地”建设，适时组织乡村振兴系统干部和村干部赴域外考察学习，通过现场教学、实地观摩、当面交流，进一步提升培训实效。深入实施乡村振兴人才支持计划，有序引导大学毕业生到乡、能人回乡、农民工返乡、企业家入乡，重点加强党组织书记、创业致富带头人和乡土人才、高素质农民培育，打造一支植根乡村、持续稳定的人才队伍。', '全国防止返贫监测和衔接推进乡村振兴信息系统是国家了解村、户情况的重要方式，是中央制定乡村振兴政策的重要依据；乡村振兴档案是如实展现我县巩固拓展脱贫攻坚成果同乡村振兴有效衔接的重要媒介。各部门、各乡镇，要充分认识系统数据和档案材料工作的重要性，全面压实责任，推进系统数据录入和档案材料建设。一要严格数据采集标准，务必做到入户采集、反复核实、多方比对，杜绝闭门造车，编造数据现象发生；二要严格档案建设标准，', '程序类的坚持政策文件、程序履行、落实结果的装订模式；指标类的采取前附指标说明，后附相关台账的模式；责任履行类的采取实施方案、落实过程佐证、总结报告的模式；三要严格系统录入标准，保持系统录入人员稳定，强化业务培训，确保工作人员熟练掌握数据存疑标准，切实做到', '“三农”工作的重要论述，用心领会其中蕴含的巩固拓展脱贫攻坚成果、全面推进乡村振兴的方向、目标、思路和办法，以理论上的清醒保持政治上的坚定，切实把', '“四个意识”、坚定“四个自信”、坚决拥护“两个确立”、坚决做到“两个维护”体现在实际行动和工作成效上。', '对各项工作及早部署、一盯到底；各行业部门对牵头抓的工作主动对接、常态推动，对配合抓的工作积极参与、务求实效。', '“上下同心、尽锐出战，精准务实、开拓创新，攻坚克难、不负人民”的脱贫攻坚精神，涵养严新细实、团结奋斗的时代新风，永远吹冲锋号，', '“走基层、转作风、抓落实”活动，推动各级干部进村入户大走访，聚焦责任落实、政策落实、工作落实和成效巩固等方面实际成效和问题不足，问需于民、问计于民、问效于民，把工作真正做到群众的心坎上。', '要创新资金分配使用方式，优先解决巩固拓展脱贫攻坚成果面临的突出问题，优先保障到人到户资金需求，优先支持联农带农富农产业发展，积极支持发展新型农村集体经济，支持开展必要的小型公益性基础设施建设项目和农村人居环境整治补短板项目。要提升项目推进质量，统筹考虑建设周期、投资规模、建设内容、气候条件等因素，合理确定项目类型和实施计划。要强化事前事中事后全链条监管，有序推进项目实施和预算执行，各级衔接资金、中央衔接资金', '深入纠治乡村振兴领域形式主义、官僚主义等问题，推动各乡镇、各部门把更多时间和主要精力放在抓工作落实上。县委县政府将建立工作督导检查组，采取', '“四不两直”的方式，直入村户，了解各乡镇、各部门工作落实情况。坚持严管和厚爱结合、激励和约束并重，既让乡村振兴干部进一步养成在受监督和约束环境中工作生活的习惯，更让有为者有位、优秀者优先，形成爱岗敬业、团结奋斗、创先争优的浓厚氛围。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>53</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>市委统战部组织学员赴湖州考察</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2018-11-07</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201811/t20181107_373513.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['为增强市新联会、知联会会员的综合素质和企业家对当前经济发展模式的适应能力，提高企业创新发展能力，日前，市委统战部组织市新联会、知联会会员和企业家赴浙江省湖州市，学习湖州在践行“两山”理论、建设美丽乡村、新联会和民营企业发展等方面的先进做法和成功经验。', '此次学习采取专题培训、实地考察和对外交流的方式进行。湖州市委党校教授沈佳文作专题授课，分析讲解新时代国际国内经济走势。组织学员参观考察世友木业有限公司、浙江超威集团、浙江欧诗漫集团、长兴天能集团循环工业产业园及安吉县余村等。', '学员们纷纷表示，近年来，湖州市在招商引“智”、创新驱动、人才引进、美丽乡村建设等方面成就突出，考察学习时间虽短，但收获很大，深受启发。下一步，考察团成员将以这次学习考察为契机，认真学习吸收湖州市先进经验，寻找差距，提升素质，为促进白山经济社会高质量发展贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>53</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>年靖宇县事业单位公开招聘高层次和急需紧缺人才公告号</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2023-02-17</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://jyx.cbs.gov.cn/wzsy/gsgg/202302/t20230217_760206.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['根据《事业单位人事管理条例》、《吉林省事业单位公开招聘“八种类型”组织形式指导意见》、《中共吉林省委吉林省人民政府关于支持白山市建设践行“两山”理念试验区的意见》(吉发〔2021〕21号)、吉林省人民政府办公厅《转发关于全面建立和进一步完善全省事业单位新进人员公开招聘制度意见的通知》(吉政办发〔2010〕16号)、吉林省人力资源社会保障厅《关于印发〈关于进一步完善省直事业单位人员招聘制度的意见〉的通知》(吉人社字〔2009〕35号)、《关于进一步放活事业单位人才交流的意见(试行)》(吉人社联字〔2016〕45号)等文件精神,结合我县事业单位编制、岗位空缺情况及工作需要,拟面向社会公开招聘高层次和急需紧缺人才32名,制定招聘公告如下:', '中共吉林省委吉林省人民政府关于支持白山市建设践行“两山”理念试验区的意见》(吉发〔2021〕21号)、吉林省人民政府办公厅《转发关于全面建立和进一步完善全省事业单位新进人员公开招聘制度意见的通知》(吉政办发〔2010〕16号)、吉林省人力资源社会保障厅《关于印发〈关于进一步完善省直事业单位人员招聘制度的意见〉的通知》(吉人社字〔2009〕35号)、《关于进一步放活事业单位人才交流的意见(试行)》(吉人社联字〔2016〕45号)', '精神,结合我县事业单位编制、岗位空缺情况及工作需要,拟面向社会公开招聘高层次和急需紧缺人才', '2023年靖宇县事业单位拟公开招聘高层次和急需紧缺人才32名。具体岗位及其资格条件详见《2023年靖宇县事业单位公开招聘高层次和急需紧缺人才岗位及其资格条件一览表(1号)》(附件1)。', '5.年龄一般在18周岁以上、35周岁以下(1987年2月17日—2005年2月17日期间出生),获得博士研究生学历人员年龄可放宽至40周岁以下。招聘岗位对年龄有特殊要求的按招聘岗位要求确定。年龄计算时间点均以2023年2月17日为准(以本人身份证出生日期为准)。符合岗位资格条件的2023年普通高校毕业生报考不受年龄限制。', '日期间出生),获得博士研究生学历人员年龄可放宽至40周岁以下。招聘岗位对年龄有特殊要求的按招聘岗位要求确定。年龄计算时间点均以202', '1.符合岗位所需要的学历、专业、户籍、工作经历等其他条件,详见《2023年靖宇县事业单位公开招聘高层次和急需紧缺人才岗位及其资格条件一览表(1号)》(附件1);', '《2023年靖宇县事业单位公开招聘高层次和急需紧缺人才岗位及其资格条件一览表(1号)》(附件', '2.技工院校全日制高级工班、预备技师(技师)班毕业生分别参照大专、本科学历,可报考符合对应学历、专业等各项招聘条件的相应岗位;', '3.通过自学考试、成人教育、网络教育、夜大、电大等非普通高等学历教育形式取得学历的人员,须于报名前取得相应毕业证书和职位要求的学位证书;在国(境)外取得学历的人员,须于报名前完成教育部留学服务中心学历认证;', '3.通过自学考试、成人教育、网络教育、夜大、电大等非普通高等学历教育形式取得学历的人员,须于报名前取得相应毕业证书和职位要求的学位证书;在国', '1.曾因犯罪受过刑事处罚的人员和曾被开除公职的人员,受到党纪政纪处分期限未满或者正在接受纪律审查的人员,处于刑事处罚期间或者正在接受司法调查尚未作出结论的人员;', '2.在公务员招考和事业单位公开招聘中被考试组织部门认定有严重违纪违规行为并在禁考期限内的人员;', '6.“三支一扶”“大学生村官”等基层服务项目人员及公务员招录、事业单位招聘等未达到现工作地、单位或岗位要求最低服务年限的人员;', '大学生村官”等基层服务项目人员及公务员招录、事业单位招聘等未达到现工作地、单位或岗位要求最低服务年限的人员;', '事业单位公开招聘工作所有参与人员以及可能影响公正的特定关系人需要回避的,参照《事业单位人事管理回避规定》执行。', '(2)报名材料要扫描成PDF格式报送。报名人员须填写《2023年靖宇县事业单位公开招聘高层次和急需紧缺人才报名表(1号)》(附件2)电子版,然后在打印出来的纸质版报名表上手写签字,再将签字版本的报名表扫描成PDF格式;同时将本人身份证、毕业证、学位证、资格证、学信网学历验证报告等岗位需求的相关材料一并扫描成PDF格式放入文件夹中;', '年靖宇县事业单位公开招聘高层次和急需紧缺人才报名表(1号)》(附件2)电子版,然后在打印出来的纸质版报名表上手写签字,再将签字版本的报名表扫描成PDF格式;同时将本人', '(3)文件夹里的每个文件命名要带有数字作为文件顺序,统一格式为“1.报名表2.身份证3.毕业证4.学位证5.学信网学历验证报告6.户口簿7.单位同意报考证明(有工作单位的同志需要提供,否则不需要)8.工作经历(报考岗位需要提供工作经历的,需要提供此项,否则不需要)”。如有需要补充材料的考生要连续标注好序号后再上报;', '(4)2023年毕业生未取得毕业证学位证的,须提供由本校毕业生就业指导部门签署意见的《毕业生就业推荐表》;留学回国人员报考的,除需提供规定的材料外,还要提供教育部留学人员服务中心出具的《国外学历学位认证书》;', '须提供由本校毕业生就业指导部门签署意见的《毕业生就业推荐表》;留学回国人员报考的,除需提供规定的材料外,还要提供教育部留学人员服务中心出具的《国外学历学位认证书》', '招聘单位要成立资格审查小组,选派专人对考生资格条件进行认真审查。资格审查结果于报名结束后5个工作日内由招聘单位电话通知或回复电子邮件通知。报名结束后5个工作日内未接到通知的考生,请在2个工作日内及时与招聘单位或其主管部门资格审查人员主动联系,否则因此影响考生应聘的,后果由考生自负。', '子邮件通知。报名结束后5个工作日内未接到通知的考生,请在2个工作日内及时与招聘单位或其主管部门资格审查人员主动联系,否则因此影响考生应聘的,后果由考生自负。', '根据《吉林省事业单位公开招聘“八种类型”组织形式指导意见》,本次考试采取免笔试直接面试的方式进行,由中共靖宇县委组织部、靖宇县人力资源和社会保障局统一组织实施。面试实行百分制,当场打分,满分100分,及格线为60分。计算考生成绩时,保留小数点后两位。面试成绩即为总成绩。面试具体时间、地点和采取的面试方式待报名结束后由招聘单位或其主管部门另行通知。', '根据《吉林省事业单位公开招聘“八种类型”组织形式指导意见》,本次考试采取免笔试直接面试的方式进行,由中共靖宇县委组织部、靖宇县人力资源和社会保障局统一组织实施。面试实行百分制,当场打分,满分100分,及格线为60分。计算考生成绩时,保留小数点后两位。', '本公告同一岗位报名人数超过一个工作日面试人数最大值(一般为40人)时,视情况对报考该岗位考生进行笔试,按招聘岗位计划1:9的比例从高分到低分依次确定面试人选,多人并列进入1:9比例的,一并进入面试。加试成绩只作为进入面试的资格,不计入总成绩。加试内容、时间、地点另行通知。', '1.面试结束后,在考试总成绩达到及格线以上的人员中,从高分到低分按招聘岗位人数1:1的比例确定参加体检人选。如考生考试总成绩相同的,把考试成绩顺延到小数点后4位,成绩仍然相同的,按国家和我省有关规定符合优先聘用条件的优先聘用(如在我省参军入伍并服役期满、退出现役的自主就业退役大学生士兵考生在其服役期间荣立三等功及以上者优先等),没有符合优先聘用条件的,采取加试的方式确定人选。体检标准参照修订后的《公务员录用体检通用标准(试行)》并结合事业单位不同岗位实际用人需求确定;', '成绩达到及格线以上的人员中,从高分到低分按招聘岗位人数1:1的比例确定参加体检人选。如考生考试总成绩相同的,', '把考试成绩顺延到小数点后4位,成绩仍然相同的,按国家和我省有关规定符合优先聘用条件的优先聘用(如在我省参军入伍并服役期满、退出现役的自主就业退役大', '没有符合优先聘用条件的,采取加试的方式确定人选。体检标准参照修订后的《公务员录用体检通用标准(试行)》并结合事业单位不同岗位实际用人需求确定', '2.体检合格的,由招聘单位主管部门对其思想政治表现、道德品质、业务能力、工作实绩等情况进行考察。在体检过程中弄虚作假、隐瞒重要病史等导致体检结果不实的或考察不合格及体检考察期间自动放弃的,取消其拟聘人选资格,在报考同一岗位总成绩达到及格线以上的人员中,从高分到低分依次递补。', '体检合格的,由招聘单位主管部门对其思想政治表现、道德品质、业务能力、工作实绩等情况进行考察。在体检过程中弄虚作假、隐瞒重要病史等导致体检结果不实的或考察不合格及体检考察期间自动放弃的,取消其拟聘人选资格,在报考同一岗位总成绩达到及格线以上的人员中,从高分到低分依次递补。', '1.对公示反映有严重问题并查有实据不符合聘用条件的,取消其拟聘人选资格,并从报考同一岗位考试总成绩在及格线以上的人员中从高分到低分依次递补;对反映有严重问题但一时难以查实的,暂缓聘用,待查实并作出结论后决定是否聘用;对公示期满无异议的,或有反映问题但经核实不影响聘用的按程序办理相关聘用手续,签订聘用合同;', '1.对公示反映有严重问题并查有实据不符合聘用条件的,取消其拟聘人选资格,并从报考同一岗位', '人员中从高分到低分依次递补;对反映有严重问题但一时难以查实的,暂缓聘用,待查实并作出结论后决定是否聘用;对公示期满无异议的,或有反映问题但经核实不影响聘用的按程序办理相关聘用手续,签订聘用合同;', '2.2023年毕业生报考人员,办理聘用时须提供报考岗位所要求的学历学位证书。被聘用人员按相关政策规定约定试用期,试用期一并计算在聘用合同期限内。试用期满考核合格的,予以正式聘用,不合格的,取消聘用;', '证书。被聘用人员按相关政策规定约定试用期,试用期一并计算在聘用合同期限内。试用期满考核合格的,予以正式聘用,不合格的,取消聘用;', '3.在办理聘用手续前自动放弃的人员,取消其拟聘人选资格,在报考同一岗位考试总成绩在及格线以上的人员中从高分到低分依次递补。在职人员报考的,在办理聘用手续时无法与原单位依法解除聘用(劳动)关系的,视为自动放弃拟聘人选资格;', '在及格线以上的人员中从高分到低分依次递补。在职人员报考的,在办理聘用手续时无法与原单位依法解除聘用(劳动)关系的,视为自动放弃拟聘人选资格;', '根据《靖宇县引进人才激励与管理办法(试行)》(靖办发〔2020〕53号),其中靖宇县事业单位公开招聘的高层次人才与用人单位签订5年服务期合同的,对应享受以下待遇:', '1.择优提拔。服务年限满3年且年度考核结果均为优秀等次的,在提拔使用、上级机关遴选、挂职锻炼、外出考察学习等方面优先考虑;作出突出贡献或取得重大成就的,同等条件优先提拔使用;符合条件的可择优调任到公务员岗位;', '2.给予生活补贴。聘用的博士研究生给予12万元生活补贴,原“985”“211”工程院校硕士研究生给予10万元生活补贴,急需紧缺专业的普通院校硕士研究生给予8万元生活补贴,原“985”“211”工程院校全日制本科毕业生给予6万元生活补贴。以上生活补贴为5年服务期内补贴总金额,自签订聘用合同之日起每工作满一年发放一次,5年内发放完毕;', '3.给予住房补贴。5年服务期内,对聘用的博士研究生给予每月1000元的住房补贴,对聘用的原“985”“211”工程院校硕士研究生给予每月800元的住房补贴,对聘用的普通高校毕业的硕士研究生给予每月600元的住房补贴,对聘用的原“985”“211”工程院校全日制本科毕业生给予每月400元的住房补贴,每工作满一年发放一次。5年服务期内以本人身份在靖宇购房的,5年服务期满后凭房产证或购房合同一次性给予3万-12万元的购房补贴;', '3.给予住房补贴。5年服务期内,对聘用的博士研究生给予每月1000元的住房补贴,对聘用的原“985”“211”工程院校硕士研究生给予每月800元的住房补贴,对聘用的普通高校毕业的硕士研究生给予每月600元的住房补贴,对聘用的原“985”“211”工程院校全日制本科毕业生给予每月400元的住房补贴,每工作满一年发放一次。5年服务期内以本人身份在靖宇购房的,5年服务期满后凭房产证或购房合同一次性给予', '4.放宽职级职称政策。聘用管理岗位的硕士、博士研究生分别按八级职员、七级职员核定工资待遇;聘用专业技术岗位的,按照相关政策予以聘任(单位岗位已满的,可在政策允许范围内超岗聘任);暂未取得职称的,获得硕士学位的可先行聘用在专业技术十一级岗位,获得博士学位的可先行聘用在专业技术十级岗位;', '4.放宽职级职称政策。聘用管理岗位的硕士、博士研究生分别按八级职员、七级职员核定工资待遇;聘用专业技术岗位的,按照相关政策予以聘任(单位岗位已满的,可在政策允许范围内超岗聘任);暂未取得职称的,获得硕士学位的可先行聘用在专业技术十一级岗位,获得博士学位的可先行聘用在专业技术十级岗位', '1.资格审核贯穿招聘工作全过程,在任何环节发现考生不符合招聘条件或弄虚作假骗取应聘资格的,取消聘用资格。公开招聘过程中应聘人员、招聘单位和招聘工作人员违纪违规行为的认定与处理,按照《事业单位公开招聘违纪违规行为处理规定》(人社部令第35号)执行;', '附件:1.2023年靖宇县事业单位公开招聘高层次和急需紧缺人才岗位及其资格条件一览表(1号)', '1.2023年靖宇县事业单位公开招聘高层次和急需紧缺人才岗位及其资格条件一览表(1号)']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>53</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>建设美丽村镇乐享幸福生活江源区三型村镇创建进行时</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/xq/202207/t20220704_730737.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['为加快构建“三区四业五城”全域高质量发展战略布局，全面推进“微笑江源”建设，江源区坚持抓党建促乡村振兴，以“生态优良、村庄宜居、经济发展、乡风文明、治理有效”为具体目标，创建“干净村镇”“靓丽村镇”“文明村镇”“三型”村镇。', '开展“第一书记和村书记话‘两山’”行动。镇（街）党（工）委将组织举办一次“两山”理念大讲堂，采取镇（街）党（工）委领导班子成员带头讲、第一书记和村书记集中话的形式，全面加强镇村两级干部对“两山”理念的学习掌握。各村党组织以“第一书记和村书记话‘两山’”为主题组织开展一次主题党日，采取第一书记和村书记带头讲、支部党员集中话的形式，实现党组织教育党员的良好效果。各村还运用喇叭宣传“广播话”、微信群里“大家话”等方式进行宣传，第一书记和村书记深入田间地头与群众“深入话”，以党员引导群众、群众带动群众的方式，让“两山”理念进村入户、落地生根。', '开展涉农部门和乡村干部践行“两山”理念专题培训行动，适时采取“走出去学”的方式，集中组织镇（街）和涉农部门的区管干部、分批分期组织村党组织书记到域外“两山”样板地区学习考察。统筹采取“请进来讲”的方式，邀请专家学者、先进典型等到我区开展践行“两山”理念专题讲座。采取“线上线下相结合”方式，创办践行“两山”理念培训“云课堂”，通过举办线上培训会、制作“两山”理念专题辅导电子书等形式开展专题培训。', '开展党建引领乡村治理标准体系落实行动，抓紧抓实农村领域党支部BTX建设，常态化开展区镇（街）两级督导检查活动，推动农村党组织全面达标，为“美丽村镇”建设提供坚强的组织保障。组织开展“五星级”乡村党组织创建活动，全面“创、评、核、晒”村党组织发挥作用助力“美丽村镇”建设情况，进一步压紧压实责任，提升争先创优干劲。大力推进大石人镇光环村红色美丽村庄建设，打造江源“美丽村镇”示范样板村，示范带动全区乡村建设水平整体提升。', '开展村镇环境卫生整体提升行动。各镇（街）党（工）委以镇（街）为单位，制定村镇环境卫生整体提升工作方案，各村党组织要配套制定本村环境卫生提升方案。镇（街）党（工） 委和村党组织分级组织镇（街）站（办、所）和农村党员群众开展清垃圾、清柴草、清粪堆、清院落、清沟渠、清道路等“六清”活动以及沿路、沿河、沿景区环境综合整治活动。镇（街）党（工）委还带领村党组织抓好垃圾收集处理、污水治理、村庄绿化等项目建设。镇（街）领导班子成员对包保村及所辖城乡结合部环境卫生负责，定期组织开展环境整治互检、巡检和比树活动，梳理典型激励先进，对后进村进行通报、督促向先进看齐。', '开展“干净人家”创建行动。区妇联负责“干净人家”创建指导，帮助镇村进一步明确创建标准和评选细则，并以2022年全区10个示范村为重点，每个创建村要重点选树 5到10户“干净人家”示范户，通过典型选树帮助其他家庭找准差距，形成学典型、争先进的浓厚氛围。各村党组织也组织发动村内妇女开展卫生大扫除，以家庭为单位，每月组织开展一次“干净人家”评选活动，带动户户参与，实现村村全覆盖。各镇（街）党（工）委将对辖区内各村“干净人家”创建情况进行督导检查，对创建效果不好的予以通报，对创建效果好的进行表扬。', '开展农村基础设施改造提升行动。区镇（街）村三级党组织抢抓农村基础设施建设，把好规划布局关、资金使用关、项目建设关、环境保护关，将农村路面、供水管网、环卫设施、路灯等基础设施短板纳入改造提升范围，采取项目化手段集中推进一批、包保部门统一解决一批、村党组织主动领建一批等方式，全域推动解决农村基础设施相对滞后问题。紧扣“九有六无”标准，围绕绿、美、亮、路、桥、涵，持续推进示范村创建工作，提升创建村的村容村貌、基础设施和服务功能。', '开展建设生态特色村镇行动。农业农村、文化旅游等部门统筹村镇分类和规划，引导村镇建设展现乡村田园风光和地域文化特色，努力实现“一镇一特色”的良好目标。镇（街）党（工）委通过加强指导，推动村党组织围绕产业特色、生态景观、人文积淀、区位条件等按照“一村一特色”的标准，确定本村文化建设主题。农业农村部门会同文化旅游部门组织开展一次“特色村镇”评选活动，对村镇建设好的进行集中宣传，让村镇美得有底气、美得有内涵、美得有活力。', '开展村镇生态产业发展行动。农业农村部门推动村镇大力发展生态效益型农业，探索中医药产业发展模式，加快推进乡村农业发展。开展“集体经济发展消薄”计划，建立“月通报月调度”工作机制压实责任、传导压力，针对集体经济发展压力大的村进行提级包保，定期组织召开经验分享、成果展示等 活动，通过大力发展村级集体经济项目，引领农村产业发展，带动农民增收致富。区农业农村局、区文广旅局党组将规划打造农田景观，建设综合休闲园区，通过采摘、农事体验、农宿等方式，大力发展第三产业。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>53</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>抚松县卫生健康局赴浙江安吉考察学习医改工作</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2019-03-28</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>http://www.fusong.gov.cn/xwzx/fsyw/201903/t20190328_397164.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['为学习借鉴安吉卫生健康事业发展理念及系列改革创新工作方法，抚松县卫生健康局于3月20日至3月22日，在局长栗祥东带领下，赴浙江省安吉县，围绕深化医药卫生体制改革、县级公立医院管理、乡镇卫生院运行机制与薪酬分配机制、基本公共卫生服务和红十字会对口交流等五大方面内容进行深入考察学习。', '抚松县卫健局首先同安吉县卫健局就深入践行“两山”理念，坚持以人民健康为中心，扎实推动卫生事业持续向好发展进行了座谈交流，会上抚松县卫健局局长栗祥东详细介绍了“中国人参之乡”抚松良好的生态环境、得天独厚的绿色生态资源、丰富的矿泉资源，并就抚松实施健康抚松战略，推进全县医药卫生体制改革和医疗保障，组织推进公立医院改革，贯彻执行国家药物政策和国家基本药物制度进行了情况介绍。安吉县卫健局副书记秦光明详细介绍了安吉县推动公立医院改革，加强“三医联动”，丰富“双下沉、双提升”内涵，开展县域医共体建设取得的成果。安吉县红十字会谭益强会长，交流了安吉县红十字会近年来在完成公众应急救护技能救护培训民生实事项目、构建全县红十字会基层组织、参与养老服务、落实“三救三献”中心工作等重点工作成效。', '座谈交流结束后，学习考察小组深入5个基层医疗卫生机构实地考察学习。在安吉县人民医院调研了县级急救中心、胸痛中心、ICU、信息化建设，在安吉县中医院考察了“浙北腔镜中心”、“浙北心脑血管病中心”，重点学习了县域医疗服务共同体建设，医共体的管理模式和实际运营情况。在龙溪乡、上墅乡卫生院以及上墅乡村卫生室实地学习了公共卫生服务、乡村医共体建设先进经验。', '通过与安吉卫生健康系统对口合作交流，进一步树立了“大健康”理念，积累了深化医药卫生体制改革先进经验，为不断深化“健康抚松”战略，推动抚松“二五十百千”工程实施奠定了坚实基础。（孙斌 刘英才）']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>53</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>选拔优秀运动员备战全国民族运动会</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2021-07-26</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/202107/t20210726_686954.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['由省政府主办，省民委、省体育局、白山市政府和白城市政府共同承办的吉林省第八届少数民族传统体育运动会将于8月26日至29日在白山市举行。成功举办这届运动会既是繁荣发展少数民族文化体育事业的重要载体，也是为我省参加2023年第十二届全国少数民族传统体育运动会做准备。', '我省是有55个少数民族成分的多民族边疆省，全省有4个民族自治地方，即延边朝鲜族自治州、前郭尔罗斯蒙古族自治县、长白朝鲜族自治县和伊通满族自治县，还有33个民族乡（镇）和一个享受民族乡待遇的镇。在党的民族政策指引下，全省各族人民团结一心，传承着许多具有民族特色的传统体育项目，以少数民族传统体育项目为主的体育赛事丰富多彩，深受广大群众喜爱。', '省委、省政府把支持少数民族传统体育活动的开展，作为贯彻落实党的民族政策的重要举措。从1993年开始，吉林省少数民族传统体育运动会每四年举办一次，至今已成功举办了7届，培养了大批优秀运动员，使我省在全国少数民族传统体育运动会上取得优异成绩。', '根据吉林省第八届少数民族传统体育运动会的比赛结果，我省将选拔一批优秀运动员投入到备战第十二届全国少数民族传统体育运动会的训练。另外还将学习考察其他兄弟省区少数民族传统体育项目，有选择地作为我省参加全国少数民族传统体育运动会的参赛项目，在扩大参与面的同时，增加夺金点，努力为我省在第十二届全国少数民族传统体育运动会上再创佳绩奠定良好基础。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>53</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>浑江区农业农村局多举措推进区域公共品牌项目建设</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2021-01-27</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://www.hunjiang.gov.cn/zw/hjyw/202101/t20210127_658944.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['浑江区农业农村局立足区情实际，与各镇（街）对全区农业种养殖和加工业企业进行全面“摸底调查”。', '摸清自身产业底数，全区共有各类涉农企业961家，包括种植、养殖、农产品加工、休闲旅游、水产养殖等领域。以自身农业企业为基础进行招商引资、谋划项目，积极推动全区经济发展，浑江区农业农村局共谋划各类项目26个，引进外资1000万元。近日，浑江区农业农村局组织白山金谷农业投资开发有限公司、中裕智慧科技（深圳）有限公司的代表随吉林省党政代表团赴粤学习考察，并正式签订合作协议，此项协议的签订对浑江区农产品区域公共品牌建设将产生深远影响。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>53</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>临江市党政考察团到梅河口市参观学习</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2017-08-09</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/xq/201805/t20180519_313835.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['考察团一行先后来到梅河口现代服务业示范区、康美梅河口医疗健康中心、通化谷红制药GMP等项目建设现场，实地参观了梅河口市社会主义核心价值观主题公园（辉发河湿地公园）、商业步行街和长白山植物园等地，实地了解学习梅河口市招商引资、项目建设、城市管理和文明城市建设等方面的经验与做法。', '在交流会上，两地分别介绍了经济社会发展情况，并表示通过考察，进一步加强两地之间的交流和学习，不断深化合作空间，推动两地共同发展。', '考察团认为，梅河口市在招大引强、项目服务、城市管理、创建国家级文明城等工作上举措实、力度大，各项工作都取得了显著成效，形成了许多优秀经验与做法。临江将认真学习梅河口发展的好思路、好经验、好做法，最大限度地把先进地区的好经验、好做法转化为推动临江经济社会发展的思路和具体举措，为加快临江转型发展、创建鸭绿江历史文化名城提供不竭动力。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>53</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>我县多举措培育高素质产业农民</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2021-01-12</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://jyx.cbs.gov.cn/wzsy/jrxw/202101/t20210112_657026.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['近几年，靖宇县以中药材、食用菌、经济林为主的特色产业发展迅猛，产业收入占据农村经济的半壁江山，成为实现农村脱贫攻坚的重要产业。', '围绕特色产业发展，靖宇县就业服务局、县农民科技教育中心、县农业技术推广中心等相关部门结合各自工作职责和工作职能，采取多项举措，重点培育高素质新型农民，产业农民队伍不断壮大，科技素质大幅度提高，成为新时期推进乡村振兴的重要力量。', '县就业服务局结合农村脱贫攻坚，对农村创业和技能致富带头人开展示范培训，使其发挥“传、帮、带”作用。近几年，培训创业致富带头人200余人，开展20多场贫困劳动力招聘会，推荐就业岗位300多个，建设农民工返乡创业基地2个，带动农户580多户，投放小额担保贷款1200多万元，带动就业2400多人。', '县农民科技教育中心围绕食用菌、经济林等特色产业发展，举办了多期高素质农民培训班。他们还采取学用结合的方式组织学员到蛟河市黄松甸镇进行现场观摩，使参加培训的农民学员增长了见识、开阔了视野，有效推进了靖宇县黑木耳、灵芝、天麻等食用菌产业的健康发展。', '县农业技术推广中心结合全县中药材和经济林产业发展布局，承担了高素质农民培育的主要任务。近几年已经开展了多期培训工作，培育高素质农民科技骨干140余名。近期开展的高素质新型农民培训活动预计培训周期5个月，专业理论课培训聘请了吉林农业大学、吉林农业科技学院、白山市植保站、白山市农业技术推广站、靖宇县委党校等专家学者进行授课。专家围绕《非林地人参栽培技术》、《平贝母高产栽培技术》、《返魂草高产栽培技术》、《蓝莓大面积规范化栽培技术》、《农作物病虫害防治技术》、《草莓栽培技术》、《不忘国耻牢记使命》等方面进行了系统讲解。春节过后，他们还将组织学员到吉林通化、辽宁丹东等地进行参观考察学习，通过理论学习与实践观摩相结合的培训方式，培育一批有文化、懂政策、善经营、会管理的农村产业人才队伍。', '县农业技术推广中心结合全县中药材和经济林产业发展布局，承担了高素质农民培育的主要任务。近几年已经开展了多期培训工作，培育高素质农民科技骨干', '140余名。近期开展的高素质新型农民培训活动预计培训周期5个月，专业理论课培训聘请了吉林农业大学、吉林农业科技学院、白山市植保站、白山市农业技术推广站、靖宇县委党校等专家学者进行授课。专家围绕《非林地人参栽培技术》、《平贝母高产栽培技术》、《返魂草高产栽培技术》、《蓝莓大面积规范化栽培技术》、《农作物病虫害防治技术》、《草莓栽培技术》、《不忘国耻牢记使命》等方面进行了系统讲解。春节过后，他们还将组织学员到吉林通化、辽宁丹东等地进行参观考察学习，通过理论学习与实践观摩相结合的培训方式，培育一批有文化、懂政策、善经营、会管理的农村产业人才队伍。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>53</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>长白集安结对共建共促文明城市创建</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2021-06-04</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://www.changbai.gov.cn/zwgk/zwdt/tpxw/202106/t20210604_680768.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['同饮一江水，共建文明城。为深入贯彻落实全省创建全国文明城市经验交流会暨创城工作培训班会议精神，6月1日至2日，县委书记初洪波带队赴集安市学习考察全国文明城市创建工作。集安市委书记杨文慧参加有关活动。', '集安市是第六届全国文明城市，长白县是新一届全国文明城市提名城市。为务实做好两地“结对共建”工作，集安市与长白县全国文明城市创建工作对接会议2日上午在新时代文明实践中心举行。', '集安市委常委、宣传部长代表集安市委、市政府，诚挚欢迎长白县来到集安市“结对共建”。集安市将全力以赴做好“结对共建”工作，毫无保留地分享创建经验，提供一切力所能及的支持与帮助。希望两地进一步加强各个领域的交流合作，共同促进经济发展和社会进步。', '长白县委常委、宣传部长表示，集安市成功创建“全国文明城市”，让人切实感受到“塞北古城、德善集安”的文化底蕴和“集安最美，因为有你”的文明气息，将会认真学习借鉴集安市行之有效的工作举措，将好经验、好做法带回去，结合长白县实际加以推广，纵深推动长白创建全国文明城市工作，将创城成果惠及全县人民。', '会上还观看了集安市宣传片，并对集安市全国文明城市创建工作经验进行介绍。会后，两地各相关单位进行了工作对接。', '考察期间，考察团边走边看边学，先后来到滨江广场、莲花公园、政务大厅、客运站、遗址公园、新乐小区、职业学校、都城社区等地，通过听取相关情况介绍、实地察看、现场交流等方式，就创城焦点问题与考察点负责人深入探讨，详细了解集安市全国文明城市创建工作思路、成功经验和先进做法。', '在集安市职业教育中心，长白县考察团对网络直播、线上营销等课程兴趣浓厚，现场与校方负责人就职业教育中心办学和发展进行深入交流。在都城社区，考察团详细查看设施建设情况和各功能区服务情况。考察团表示，要以此次考察为契机，不断拓宽思路，把学习到的先进经验应用到长白县文明城市创建工作中，聚焦差距找不足，逐项抓好落实，确保文明城市创建工作扎实有效推进。要把创城工作与践行社会主义核心价值观、做好全域旅游、改善民生等内容有机结合起来，营造人人参与、理解、支持创建工作的浓厚氛围。要形成强大工作合力，加强细节管理，提高解决复杂问题的能力，进一步完善城市功能、改善城市品质、优化城市环境，有效提升人民群众获得感幸福感。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>53</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>大力发展特色产业种植旱稻切实增收</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2020-09-30</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://www.fusong.gov.cn/zwgk/xncjs/202009/t20200930_636641.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['走进抚松县沿江乡楞场村的旱稻种植基地，只见黄澄澄的秧苗正随风摇摆，种植者李福深正在稻田里忙碌着，“这里一共种植了150亩旱稻，保守预计可产出12万斤稻子，每亩纯利润可达2400元。”李福深高兴的对笔者说道，看着自己辛勤的成果，他的脸上洋溢着幸福的笑容。', '近年来，沿江乡立足本地资源优势，以农业增效，农民增收为目标，为积极推进农产业改造升级，组织乡内的创业带富青年到浙江省安吉县考察学习。李福深正是在安吉考察期间，了解到旱稻种植这一产业。据悉，他所种植的旱稻香米是将传统杂交育种法和分子标记法等高新技术应用到旱稻的育种中培育除的一种新型旱稻，无霜期106天，成熟期118-125天，具有口感好，产量高，成熟期短等优点，也符合沿江乡的气候特点，在经过为期两年的深入了解后，他发现旱稻种植简单易行，投入低，节能环保，收入也高于传统种植，今年他决定开始种植旱稻，目前已成熟，可于10月份进行售卖。', '“我种植的这批旱稻与稻种公司签订了订单协议，稻种公司以每斤两元的价格回收，保障稳定增收。”李福深表示，一人富不算富，今年种植成功后他将带动村里的其他村民一起种植旱稻，为村民提供更多的增收机会。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>53</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>深化党建引领打造脱贫攻坚红色引擎</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2020-09-01</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://www.fusong.gov.cn/xwzx/fsyw/202009/t20200901_630698.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['通讯员（孙伟民）今年是脱贫攻坚决战决胜之年，抚松县抚松镇按照“围绕党建促扶贫，抓好扶贫促党建”的思路，把党建优势转化为脱贫攻坚优势，把党建活力转化为富民兴村动力，全镇上下形成“大党建”引领“大脱贫”的格局，实现基层党建与脱贫攻坚同频共振、互融共促。', '8月31日，笔者在抚松镇荒沟门村看到，村党支部书记正带领村“三委”班子成员和部分村民加紧收割玉米。', '过去，荒沟门村大部分村民过分依赖于传统种植业，高附加值经济作物种植少，农业种植结构品种单一。近年来，荒沟门村按照党建引领、产业富民的发展思路，充分发挥基层党支部的堡垒作用，探索建立“党支部+贫困户”的扶贫模式，形成支部主导、产业发展、贫困户受益的发展新格局，拓宽贫困群众增收致富渠道。2019年末，村党支部书记带领村“三委”班子成员，分别到松原市和公主岭市学习考察，立足本村优势资源，最终确定了发展黑粘甜玉米项目：在本村种植黑粘甜玉米70余亩，项目年收入2万余元，通过项目收入对全村4名贫困户开展帮扶，逐渐走出了一条特色产业竞争力强、贫困户增收可持续的党建引领促脱贫之路，最大限度激发了贫困群众内生动力，助推脱贫质量提升。', '望着眼前的玉米地，荒沟门村党支部书记刘兴元表示：“今后我们村还要对黑粘甜玉米进行深加工，将黑粘甜玉米真空包装后进行网络和线下销售，通过党建引领打赢脱贫攻坚战”。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>53</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>助力脱贫攻坚推动乡村振兴</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2021-01-20</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/202101/t20210120_658179.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['近年来，靖宇县以中药材、食用菌、经济林为主的特色产业发展迅猛，产业收入占据农村经济的半壁江山，成为实现农村脱贫攻坚的重要产业。', '围绕特色产业发展，靖宇县就业服务局、县农民科技教育中心、县农业技术推广中心等相关部门结合各自工作职责和工作职能，采取多项举措，重点培育高素质新型农民，农民产业带头人队伍不断壮大，科技素质大幅度提高，成为新时期推进乡村振兴的重要力量。', '县就业服务局结合农村脱贫攻坚，对农村创业和技能致富带头人开展示范培训，使其发挥“传、帮、带”作用。近几年，培训创业致富带头人200余人，开展20多场贫困劳动力招聘会，推荐就业岗位300多个，建设农民工返乡创业基地2个，带动农户580多户，投放小额担保贷款1200多万元，带动就业2400多人。县农民科技教育中心围绕食用菌、经济林等特色产业发展，举办了多期高素质农民培训班。他们还采取学用结合的方式组织学员到蛟河市黄松甸镇进行现场观摩，使参加培训的农民学员增长了见识、开阔了视野，有效推进靖宇县黑木耳、灵芝、天麻等食用菌产业健康发展。县农业技术推广中心结合全县中药材和经济林产业发展布局，承担了高素质农民培育的主要任务。近几年开展多期培训工作，专业理论课培训聘请吉林农业大学、吉林农业科技学院、白山市植保站、白山市农业技术推广站、靖宇县委党校等专家学者进行授课，培育高素质农民科技骨干140余名。春节过后，他们还将组织学员到省内外进行参观考察学习，通过理论学习与实践观摩相结合的培训方式，培育一批有文化、懂政策、善经营、会管理的农村产业人才队伍。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>53</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>携手云贵引资引智共赢发展</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2018-04-20</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_317024.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['从白山松水，到多彩云贵，考察组追寻着春天的脚步，看望白山籍企业家，谱写浓浓乡情；引智引资回归，架起合作桥梁；考察学习经验，推动绿色转型。近日，市委书记张志军带队，远赴云南、贵州等地进行经贸交流及学习考察活动，突出招商引资、项目建设、全域旅游、平台建设、智慧城市、乡村振兴等重点工作，开展精准招商和务实合作，取他山之石、攻己之玉，推动合作，共襄发展。', '张志军一行先后深入云南省东南矿业、四方田矿业、通矿集团云南分公司、贵州省吉顺矿业等白山籍域外企业，代表市委、市政府和家乡人民专程看望企业家，实地踏查企业生产经营、安全管理等情况，认真听取汇报，亲切座谈交流，着力帮助企业解决实际困难。张志军指出，我市企业家远离故土、艰辛创业，市委、市政府始终关心、关注和支持你们的发展。近年来，家乡经济社会快速发展，交通、人才、资金等瓶颈问题逐步破解，区位、生态、资源、环境和政策优势集中释放，为各位企业家创业创新拓展了广阔空间。希望域外白山籍企业家积极返乡创业，投资大健康、大旅游、新材料等绿色产业和社会公益事业，并充分利用人脉资源优势宣传推介、牵线搭桥、以商招商，为家乡发展建言献策、添砖加瓦，努力造福家乡人民。各位企业家纷纷表示，家乡的变化让我们看在眼里、喜在心里，人是家乡好、月是故乡明，有市委、市政府和家乡人民做坚强后盾，我们愿意甩开膀子加油干，全心全意为家乡多做贡献。', '张志军一行日夜兼程，先后参观考察了昆明古滇名城养老度假区、贵州国家大数据展示中心、贵阳中铁国际生态城、特色小镇、旅游经济带、美丽乡村等重点项目。每到一处，大家都带着问题认真观摩、深入思考，详细了解当地文旅产业融合、生态环保修复、大数据平台建设、特色小镇建设、乡村振兴、脱贫攻坚等方面的情况，并与当地干部群众交流经验、探讨做法，向企业家广泛宣传、全面推介、寻求合作。考察期间，张志军还召集考察组的同志交流思想，消化吸收两省发展经验，推动成果落实。张志军要求，要结合白山市情和发展的阶段性特征，充分学习借鉴云贵地区在全域旅游打造、生态文明建设、招商引资、项目建设、产业转型升级、对外开放、营商环境、乡村振兴、民生改善等方面的发展思路和先进经验，进一步解放思想、拓宽思路，自觉对标先进地区，主动查找发展短板，切实把考察学习成果转化为推动白山绿色转型全面振兴的实际行动，不断推动我市经济社会实现高质量、高效率发展。', '在贵阳，张志军一行还拜访了贵州吉林商会，与我省及我市在当地的企业家开展深入座谈交流。张志军强调，近年来，我市深入贯彻新发展理念，坚持生态立市、产业强市、特色兴市，深入实施“3331”发展战略，加快打造大生态、大健康、大旅游、大服务、大文化深度融合的绿色产业体系，主要经济指标增幅排名全省靠前，白山已成为人才高地、政策洼地、投资福地和创业热土。我们真诚希望与云贵地区在经济社会发展方面开展全方位交流合作，充分学习借鉴当地发展经验，实现两地优势互补、互利共赢。我代表市委、市政府，诚邀域内外企业家在我市投资兴业，与我们共享商机、共赢美好未来。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>53</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>马鹿沟镇精心谋划全域旅游描绘新画卷</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2020-12-09</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://www.changbai.gov.cn/zwgk/zwdt/zwdt/202012/t20201210_649891.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['马鹿沟镇位于吉林省东南部，长白山主峰南麓，鸭绿江最上游，北与抚松县漫江镇接壤，西与金华乡毗邻，东南两面与朝鲜民主主义共和国两江道的“一市二郡”隔江相望，是5A级长白山南景区、4A级望天鹅风景区的必经之地，为充分发挥镇域旅游资源优势，马鹿沟镇多措并举，大力发展旅游产业。', '统筹推进旅游产业发展。拓展巨矢城旅游公司和旅行社功能，深入开展华东五市、海南、厦门、呼伦贝尔等多日游精品团次。发挥镇办巨矢城旅游公司牵头抓总作用，以果园村民俗体验旅游为核心，推动沿江各村谋划旅游项目，整体推动全镇旅游实现大发展。截止到目前，旅游公司共接待游客8000人，收益6万元。', '精心培育发展民俗文化和民宿旅游产业带。借力“爱上长白”主题宣传月活动，建成“旅游驿站”，开展全域旅游知识培训，着力打造鸭绿江源头第一村、3A级果园民俗文化旅游村等，规范运营朝鲜族展览馆，结合电商、实体店两种方式对扶贫产业进行销售热卖。完善“千家万铺”特色民宿工程，重点开展果园村民宿改造、排水边沟改造、村庄绿化等建设。', '积极探索红色教育遗迹。为推动红色教育深入开展，组成调研组到通化县逐个深入抗联景点考察学习，确定我镇的红色教育发展方向，并深入镇村进行路线踏查，挖掘红色遗迹，最终确定黑瞎子沟密营遗址及黑瞎子沟战迹地，为下一步红色教育景点的打造工作奠定了基础。目前，全镇工商个体户293个，从事旅游、餐饮、民宿、特产、电商等近926人。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>53</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>年靖宇县事业单位公开招聘工作人员含专项招聘高校毕业生公告</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2022-09-15</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://jyx.cbs.gov.cn/wzsy/gsgg/202209/t20220915_742387.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['根据《事业单位人事管理条例》《关于全面建立和进一步完善全省事业单位新进人员公开招聘制度意见的通知》(吉政办发〔2010〕16号)《关于做好2022年中小学幼儿园教师公开招聘工作的通知》（人社厅发〔2022〕21号）《关于进一步做好2022年全省事业单位公开招聘工作的通知》（吉人社发〔2022〕4号）精神，现将2022年靖宇县事业单位公开招聘工作人员有关事宜公告如下：', '根据《事业单位人事管理条例》《关于全面建立和进一步完善全省事业单位新进人员公开招聘制度意见的通知》', '本次靖宇县事业单位计划招聘工作人员19名。其中，专项招聘高校毕业生13名（岗位序号：1号-11号），招聘范围为2022年毕业的高校毕业生，以及2021年和2020年毕业且在择业期内未落实工作单位的普通高校毕业生〔国家统一招生的普通高校毕业生离校时和在国家规定的择业期内未落实工作单位，其户口、档案、组织关系仍保留在原毕业学校，或保留在各级毕业生就业主管部门（毕业生就业指导服务中心）、各级人才交流服务机构和各级公共就业服务机构的毕业生〕。具体招聘岗位及资格条件详见《2022年靖宇县事业单位公开招聘工作人员（含专项招聘高校毕业生）岗位及其资格条件一览表》（附件1）。', '19名。其中，专项招聘高校毕业生13名（岗位序号：1号-11号），招聘范围为2022年毕业的高校毕业生，以及2021年和2020年毕业且在择业期内未落实工作单位的普通高校毕业生〔国家统一招生的普通高校毕业生离校时和在国家规定的择业期内未落实工作单位，其户口、档案、组织关系仍保留在原毕业学校，或保留在各级毕业生就业主管部门（毕业生就业指导服务中心）、各级人才交流服务机构和各级公共就业服务机构的毕业生〕。具体招聘岗位及资格条件详见《2022年靖宇县事业单位公开招聘工作人员（含专项招聘高校毕业生）岗位及其资格条件一览表》（附件1）。', '5.年龄一般在18周岁以上35周岁以下（1986年9月15日至2004年9月15日期间出生，出生日期以本人身份证为准）。招聘岗位对年龄有特殊要求的，按招聘岗位要求确定。年龄计算截止时间均为2022年9月15日。符合岗位资格条件的2022年普通高校毕业生不受年龄限制。', '符合岗位所需要的年龄、学历、专业、户籍、工作经历、执业（职业）资格等条件,详见《2022年靖宇县事业单位公开招聘工作人员（含专项招聘高校毕业生）岗位及其资格条件一览表》（附件1）。', ',详见《2022年靖宇县事业单位公开招聘工作人员（含专项招聘高校毕业生）岗位及其资格条件一览表》（附件1）。', '技工院校全日制高级工班、预备技师（技师）班毕业生分别参照大专、本科学历，可报考符合对应学历、专业等各项招聘条件的相应岗位。', '通过自学考试、成人教育、网络教育、夜大、电大等非普通高等学历教育形式取得学历的人员，须于报名前取得相应毕业证书；在国(境)外取得学历的人员，须于报名前完成教育部留学服务中心学历认证。', '通过自学考试、成人教育、网络教育、夜大、电大等非普通高等学历教育形式取得学历的人员，须于报名前取得相应毕业证书；在国', '未取得教师资格证的高校毕业生符合招聘岗位条件的可以报考教师岗位，上岗后先行从事辅助性教育教学工作，再参加考试并取得教师资格，在订立聘用合同时按规定约定1年试用期，试用期内未取得相应教师资格的，依法解除聘用合同。', '未取得教师资格证的高校毕业生符合招聘岗位条件的可以报考教师岗位，上岗后先行从事辅助性教育教学工作，再参加考试并取得教师资格，在订立聘用合同时按规定约定', '1.曾受过刑事处罚和曾被开除公职的人员，受到党纪政纪处分期限未满或者正在接受纪律审查的人员，处于刑事处罚期间或者正在接受司法调查尚未做出结论的人员。', '6.“三支一扶”“大学生村官”“特岗教师”等基层服务项目的人员，公务员招录、事业单位招聘等未达到现工作地、单位或岗位要求最低服务年限的人员。', '人员，公务员招录、事业单位招聘等未达到现工作地、单位或岗位要求最低服务年限的人员。', '事业单位公开招聘工作所有参与方以及可能影响公正的特定关系人需要回避的，参照《事业单位人事管理回避规定》执行。', '3.每名考生只允许报考一个岗位，资格审查通过后不能改报。考生错填错报姓名、身份证号、报考单位、报考岗位等信息而影响资格审查的，责任自负。', '2.网上报名资格审查工作由用人单位或主管部门负责。考生须及时登陆报名网站查询报名资格审查结果。未通过资格审查的考生，报名截止前可改报符合资格条件的其它岗位。考生对资格审查结果存在异议的，可按报名流程提出仲裁。', '。考生须及时登陆报名网站查询报名资格审查结果。未通过资格审查的考生，报名截止前可改报符合资格条件的其它岗位。考生对资格审查结果存在异议的，可按报名流程提出仲裁。', '3.仲裁截止时间为9月29日15:30，仲裁结果查询截止时间为9月29日16:30。考生未改报或虽然改报但审查或仲裁不合格、因时间不足不能完成审查或仲裁的，均视为考生自动放弃报名资格或资格审查不合格，不再受理。', '0。考生未改报或虽然改报但审查或仲裁不合格、因时间不足不能完成审查或仲裁的，均视为考生自动放弃报名资格或资格审查不合格，不再受理。', '3.考生通过资格审查后，请务必在规定的时间内登陆报名网站进行网上缴费，缴费成功并打印报名表后，即为完成全部报名手续。考生未在规定时间内完成网上缴费，视为自动放弃报名。网上缴费后概不退费。', '2.考生登陆报名网站，用A4纸自行打印《准考证》，凭《准考证》按要求参加考试和资格复审。', '1.考生只能用二代身份证号报名。报名与考试使用的身份证必须一致。使用第一代身份证报名的视为无效。', '考试采取笔试、面试相结合的方式，由中共靖宇县委组织部、靖宇县人力资源和社会保障局统一组织。', '4.根据《关于进一步加强和改进征兵工作的意见》（吉政发〔2016〕25号）、《关于促进新时代退役军人就业创业工作的实施意见》（吉退役军人发〔2019〕30号），凡在我省参军入伍并服役期满、退出现役，且符合报考条件的自主就业退役大学生士兵考生享受笔试初始成绩加分政策。其中，一般自主就业退役大学生士兵加5分，荣立三等功的加7分，二等功的加9分，一等功的加11分。多次立功的按立功最高等次加分，其余立功次数不累计加分。请考生在报名缴费完成后于9月30日15:00前将本人身份证、入伍通知书、退伍证、立功受奖证书、毕业证、学位证、学历验证报告的pdf格式扫描件以及电子版《自主就业退役大学生士兵考生信息表》（附件2）打包成压缩文件，文件名格式为：考生姓名-报考单位-岗位代码。考生将压缩文件发送至电子邮箱：JYSYDWRSGL@163.COM进行审验，逾期未发送的或超过截止时间发送的视为考生自愿放弃享受加分政策。审验部门为靖宇县人力资源和社会保障局、县征兵办、县退役军人事务局。经审验合格的另行在靖宇县人民政府网站公示。', '2016〕25号）、《关于促进新时代退役军人就业创业工作的实施意见》（吉退役军人发〔2019〕30号），凡在我省参军入伍并服役期满、退出现役，且符合报考条件的自主就业退役大学生士兵考生享受笔试初始成绩加分政策。其中，一般自主就业退役大学生士兵加5分，荣立三等功的加7分，二等功的加9分，一等功的加11分。多次立功的按立功最高等次加分，其余立功次数不累计加分。请考生在报名缴费完成后于9月30日15:00前将本人', '48小时内（以采样时间为准）由具备资质的检测机构出具的新冠病毒核酸检测阴性证明（纸质版或“吉事办—核酸检测结果”截图打印），本人填报的《202', '1.依据笔试成绩从高分到低分，按招聘岗位计划数与面试人选数1:3比例依次确定拟面试人选。拟面试人选数达不到1:3比例的，按实际人数确定；多人并列进入1:3比例的，一并确定为拟面试人选。复审合格的确定为面试人选。', '3比例的，按实际人数确定；多人并列进入1:3比例的，一并确定为拟面试人选。复审合格的确定为面试人选。', '2.拟面试人选的资格条件复审由用人单位或主管部门负责。复审时，拟面试人选应按照报名和招聘岗位资格条件要求，提供与本人报考时填报信息相一致的身份证、准考证、毕业证、学历学位证、学历验证报告、执业（职业）资格证、专业技术职务资格证、工作经历等相关材料的原件和复印件。2022年应届毕业生未取得毕业证、学位证的须提供由本校毕业生就业指导部门签署意见的毕业生就业推荐表，必要时资格复审部门可以调阅考生档案。留学回国人员报考的，除提供上述规定的材料外，还要出具教育部门的学历认证。在职人员资格条件复审时，应一并提供所在单位或主管部门同意报考的证明。', '。复审时，拟面试人选应按照报名和招聘岗位资格条件要求，提供与本人报考时填报信息相一致的身份证、准考证、毕业证、学历学位证、', '年应届毕业生未取得毕业证、学位证的须提供由本校毕业生就业指导部门签署意见的毕业生就业推荐表，必要时资格复审部门可以调阅考生档案。留学回国人员报考的，除提供上述规定的材料外，还要出具教育部门的学历认证。在职人员资格条件复审时，应一并提供所在单位', '4.资格条件复审期间，因本人放弃或按考生所留联系方式联系不上取消面试资格的，以及资格条件复审期间和终止后查出不符合报名、招聘岗位资格条件取消面试资格的，有笔试的在报考同一岗位的人员中按笔试成绩从高分到低分依次递补。非以上原因取消面试资格以及虽然符合递补条件但是本人放弃递补超过3人以上的，不再递补。', '5.拟面试人选资格条件复审的时间另行在靖宇县人民政府网站发布。未按规定的时间、地点参加资格复审的，视为自愿放弃面试资格。', '1.根据行业、专业及岗位特点，面试灵活采用结构化面谈、说课、试讲、专业问答、情境模拟、实际操作等方式。具体面试时间、地点、方式、要求等，以《面试通知书》为准。', '考生的笔试成绩查询方法在靖宇县人民政府网站公布，请考生关注和查询，未及时查询的后果自负。', '面试结束后，在考试总成绩达到及格线以上的考生中，从高分到低分按招聘岗位人数1:1的比例确定体检人选。考生考试总成绩小数点后两位相同时，顺延到小数点后第4位。顺延小数点第4位后总成绩仍相同的，有符合国家和我省优先聘用规定（如在我省参军入伍并服役期满、退出现役的自主就业退役大学生士兵考生在其服役期间荣立三等功及以上）的优先聘用，没有符合优先聘用规定的，面试成绩高者优先聘用。', '（如在我省参军入伍并服役期满、退出现役的自主就业退役大学生士兵考生在其服役期间荣立三等功', '体检工作由招聘单位所在地人社部门统一组织在指定医院进行。体检参照修订后的《公务员录用体检通用标准（试行）》执行。', '所在地人社部门统一组织在指定医院进行。体检参照修订后的《公务员录用体检通用标准（试行）》执行。', '考生体检合格的，由招聘单位主管部门对其思想政治表现、道德品质、业务能力、工作实绩、遵纪守法等情况进行考察。', '考生体检、考察期间放弃的，取消其相应资格，不再递补。因不符合报名、招聘岗位资格条件取消体检、考察资格或体检、考察不合格的，在报考同一岗位考试总成绩达到及格线以上的考生中，从高分到低分依次递补。', '体检、考察期间放弃的，取消其相应资格，不再递补。因不符合报名、招聘岗位资格条件取消体检、考察资格或体检、考察不合格的，在报考同一岗位考试总成绩达到及格线以上的考生中，从高分到低分依次递补。', '经体检和考察合格的，确定为拟聘用人选，在靖宇县人民政府网站公示，公示期为7个工作日。', '公示后，放弃拟聘用人选资格的岗位不再递补。因不符合报名、招聘岗位资格条件取消拟聘用人选资格的岗位，在报考同一岗位考试总成绩达到及格线以上的考生中，从高分到低分依次递补。', '公示期满无异议的，或反映有问题但经核实不影响聘用的，按程序办理相关聘用手续，签订聘用合同。', '公示后，对反映有严重问题并查有实据，不符合聘用要求的，取消其拟聘人选资格；对反映有严重问题但一时难以查实的，暂缓聘用，待查实并做出结论后决定是否聘用。', '不符合聘用要求取消拟聘人选资格的岗位，在报考同一岗位的考生中按考试总成绩从高分到低分依次递补。', '2022年毕业生办理聘用手续时，须提供报考岗位所要求的学历学位证书，未能提供的取消聘用资格。被聘用的人员按相关政策规定实行试用期，试用期满考核合格的予以正式聘用；不合格的取消聘用。试用期一并计算在聘用合同期内。', '年毕业生办理聘用手续时，须提供报考岗位所要求的学历学位证书，未能提供的取消聘用资格。被聘用的人员按相关政策规定实行试用期，试用期满考核合格的予以正式聘用；不合格的取消聘用。试用期一并计算在聘用合同期内。', '根据《靖宇县引进人才激励与管理办法（试行）》（靖办发〔2020〕53号），其中靖宇县事业单位公开招聘的高层次和急需紧缺人才与用人单位签订5年服务期合同的，对应享受以下待遇：', '2020〕53号），其中靖宇县事业单位公开招聘的高层次和急需紧缺人才与用人单位签订5年服务期合同的，对应享受以下待遇：', '1.择优提拔。服务年限满3年且年度考核结果均为优秀等次的，在提拔使用、上级机关遴选、挂职锻炼、外出考察学习等方面优先考虑；作出突出贡献或取得重大成就的，同等条件优先提拔使用；符合条件的可择优调任到公务员岗位；', '2.给予生活补贴。聘用的博士研究生给予12万元生活补贴，原“985”“211”工程院校硕士研究生给予10万元生活补贴，急需紧缺专业的普通院校硕士研究生给予8万元生活补贴，原“985”“211”工程院校全日制本科毕业生给予6万元生活补贴。以上生活补贴为5年服务期内补贴总金额，自签订聘用合同之日起每工作满一年发放一次，5年内发放完毕；', '3.给予住房补贴。5年服务期内，对聘用的博士研究生给予每月1000元的住房补贴，对聘用的原“985”“211”工程院校硕士研究生给予每月800元的住房补贴，对聘用的普通高校毕业的硕士研究生给予每月600元的住房补贴，对聘用的原“985”“211”工程院校全日制本科毕业生给予每月400元的住房补贴，每工作满一年发放一次。5年服务期内以本人身份在靖宇购房的，5年服务期满后凭房产证或购房合同一次性给予3-12万元的购房补贴；', '4.放宽职级职称政策。聘用管理岗位的硕士、博士研究生分别按八级职员、七级职员核定工资待遇；聘用专业技术岗位的，按照相关政策予以聘任（单位岗位已满的，可在政策允许范围内超岗聘任）；暂未取得职称的，获得硕士学位的可先行聘用在专业技术十一级岗位，获得博士学位的可先行聘用在专业技术十级岗位。', '3.举报和咨询有关考试事宜的由市组织人社部门受理，举报和咨询有关资格条件、专业、学历等事宜的由用人单位或主管部门受理。', '举报和咨询有关考试事宜的由市组织人社部门受理，举报和咨询有关资格条件、专业、学历等事宜的由用人单位或主管部门受理。', '（一）资格审核贯穿招聘工作全过程，在任何环节发现考生不符合招聘条件或弄虚作假骗取应聘资格的，取消聘用资格。公开招聘过程中应聘人员、招聘单位和招聘工作人员违纪违规行为的认定与处理，按照《事业单位公开', '（二）凡考生未在规定时间内按要求参加笔试、资格审查、面试、体检、考察的，均视为自愿放弃应聘资格。', '附件：1.《2022年靖宇县事业单位公开招聘工作人员（含专项招聘高校毕业生）岗位及其资格条件一览表》', '1.《2022年靖宇县事业单位公开招聘工作人员（含专项招聘高校毕业生）岗位及其资格条件一览表》']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>53</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>江源区政务服务和数字化建设管理局加大考察学习力度全面推进一体化在线政务平台</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2019-06-25</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://jy.cbs.gov.cn/zwgk/djzc/djdt/201906/t20190625_418750.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['近日，江源区政务服务和数字化建设管理局为进一步加快我区数字化政务平台工作，在市政数局精心组织安排下，我局积极主动组织工作人员到四平市政务大厅进行了现场学习考察。', '在四平市政务大厅，由相关领导的陪同下及具体工作人员为江源区政数局一行人员进行了详细地讲解。在参观中先后了解了24小时自助户籍管理系统和自助行政审批查询系统。', '考察中，大家通过听讲解、现场交流等形式，重点学习了解了无差别全科受理的工作全部流程和对大厅各功能区的设计及对大厅工作人员制度管理等方面的内容。最后大家在政务大厅的会议室进行了本次参观学习的现场交流会，由大厅负责领导介绍四平政务大厅的发展过程以及工作中的一些积累经验。并由具体工作人员和大家进行了业务上的答疑解惑。', '通过此次学习考察使江源区政数局工作人员对数字化政务平台有了较直观的了解，也积累了一定的理论基础。下一步，区政数局将继续通过培养人才、引进人才等多种方式，做好人才保障，科学谋划和推进我区数字化政务平台工作。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>53</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>持之以恒推进援藏工作助力西藏防震减灾事业高质量发展</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2021-08-12</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://dzj.cbs.gov.cn/fzjz/202108/t20210812_688918.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['以习近平同志为核心的党中央高度重视西藏工作。习近平总书记在中央第七次西藏工作座谈会上强调，中央支持西藏、全国支援西藏，是党中央的一贯政策，必须长期坚持，认真总结经验，开创援藏工作新局面。今年7月，习近平总书记到西藏庆祝西藏和平解放，在党和国家历史上是第一次，充分表达了党中央对西藏工作的支持、对西藏各族干部群众的关怀。广东省地震局积极响应中央号召，按照中国地震局的统一部署，贯彻落实《全国地震系统援藏工作方案》，着力加强对口援藏工作，切实帮助林芝地区提高防震减灾基础能力和自我发展能力。', '18年来，广东省地震局始终坚持把林芝当做本省的一个地区来统筹谋划防震减灾事业发展。一是纳入局年度重点工作进行统筹。在中央财政“过紧日子”政策下，广东省地震局克服困难，从“口粮”中挤出足够资金作为防震减灾援藏专项经费，优先保障援藏工作，确保投入有增无减。2019年投入援藏资金56.5万元，用于波密地震台运维、业务交流培训、日常办公设备更新等工作。2020年加大投入至88万元，用于防震减灾科普馆建设、数字地震台网信息实时自动处理系统本地化和波密地震台改造等工作。二是纳入广东省整体援藏工作体系予以支持。先后推动林芝地磁台和地下流体观测井、察隅地磁台观测房、林芝地震台深井观测井、波密县地震观测系统等多个项目成功纳入广东省援藏项目，争取资金支持约179万元。', '一方面抓硬件投入，强基础。2010年建成的波密县地震观测台是西藏第一个县级地震观测系统，填补了县级地震监测工作的空白，加强了波密县、林芝地区乃至藏东南地区的地震监测能力，为做好波密及周边地区的防震减灾工作发挥了重要作用。2020年建成林芝市地震灾情收集系统，该系统集成了震情信息发布、宏观异常上报、地震灾情速报功能，极大提升了震后灾情收集的有效性和时效性，对摸清灾情底数起关键作用。另一方面抓软件投入，强根本。2019至2020年，广东省地震局连续两年选派思想过硬、业务精通的专业骨干人才进藏援助工作。同时，邀请林芝市地震局技术和管理人员到广东省实地调研学习，有效提高其业务能力水平。2020年，投入45万元建成林芝市防震减灾科普馆，日常对外开放，并在每年“5·12”全国防灾减灾日、“7·28”唐山大地震纪念日等时段组织中小学生和市民参观学习，营造浓厚的防震减灾氛围，提升广大群众防震减灾意识和能力。', '2021年是“十四五”开局之年，广东省地震局将按照习近平总书记在西藏考察时的重要讲话精神，全面贯彻新时代党的治藏方略，全力落实中国地震局和省委省政府关于援藏工作的部署要求，坚持人民至上、生命至上，统筹安全和发展，结合“十四五”规划编制实施，科学谋划新一轮援藏工作，特别是在加密川藏铁路沿线地震观测设施建设、提升西藏地区综合地震监测能力、做好重点地区地震灾害风险评估等方面下功夫，不断推进新时代西藏防震减灾事业迈上新台阶，助力雪域高原长治久安和经济社会高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>53</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>靖宇县农技中心助力乡村振兴</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2021-08-24</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://jyx.cbs.gov.cn/wzsy/jrxw/202108/t20210824_689994.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['这是一个勤奋务实的团队。他们每年跑遍全县110多个村屯，深入地块，采集土样，实施配方施肥，保证粮食稳产高产；这是一个团结向上的集体。他们立足岗位，尽职尽责，连续多年被省市业务部门和县里评选为先进单位；这是一个注重实践、不断创新的基层组织。他们在推进产业、服务企业过程中，取得10多项省级农业科技成果。这就是靖宇县农业技术推广中心。为了粮食生产连年丰收，为了全县农民群众都富裕，这个团队的20多位同志默默地奉献着他们的青春和力量。', '110多个村屯，深入地块，采集土样，实施配方施肥，保证粮食稳产高产；这是一个团结向上的集体。', '立足岗位，尽职尽责，连续多年被省市业务部门和县里评选为先进单位；这是一个注重实践、不断创新的基层组织。', '10多项省级农业科技成果。这就是靖宇县农业技术推广中心。为了粮食生产连年丰收，为了全县农民群众都富裕，这个团队的', '多年来，靖宇县农技中心立足本职、以热心服务农民群众为出发点，以绿色农产品高质高效生产技术推广为切入点，以帮助农民群众增收致富为落脚点，努力探索寻找全县粮食作物稳产高产的突破口。稳步实施“配方施肥、精准施肥”战略。积极进行玉米和大豆新品种试验示范。多年来中心始终保留一定面积的试验田，每年都进行粮食作物高产试验示范，通过“大豆协同推广”、“玉米早熟品种试验”等推广项目实施,筛选出10多个抗病强、产量高、品质优，适应山区特点的玉米和大豆新品种。践行“绿水青山就是金山银山”理论，帮助农民群众树立发展绿色健康农业的思想，落实农作物“绿色生态防控、科学安全用药、化肥减量增效”等技术措施，使农作物病虫害发生率大大降低，连续实现稳产高产。玉米亩产量由原来的不足450公斤提高到600多公斤；大豆亩产量由过去的不足120公斤提高到160公斤。粮食作物平均每亩增收200元以上。', '适应农业现代化发展要求，培育有文化、懂科技、会管理的高素质的科技型农民队伍也是农技中心的重要工作职责。他们坚持“授人以鱼不如授人以渔”的工作理念，始终把提高农民群众科技素质当做头等大事来抓。每年都结合产业发展需求，开展大规模的科技培训和灵活分散的技术指导。邀请吉林省农业科学院、吉林农业大学中药材学院、吉林农业科技学院等专家学者进行授课。采取集中办班、田间学校、个别答疑和现场点评等多种方式有针对性地向农民推广农业适用增产增收新技术，每年培训科技示范户和青年农民都在3000人次以上。全力建设科技示范主体,充分发挥家庭农场、农民专业合作社等新型经营主体的示范带动作用,构建“专家+农技人员+合作社+示范基地+农民”的科技推广网络,提升了高质高效农业技术的入户率和到田率,促进了农业高质量发展,加快了农民增收致富步伐。他们还采取走出去的办法，组织农民学员到辽宁、通化等地考察学习，不断拓宽农民群众的视野，增强发展产业实现振兴富裕的信心。', '工作理念，始终把提高农民群众科技素质当做头等大事来抓。每年都结合产业发展需求，开展大规模的科技培训', '集中办班、田间学校、个别答疑和现场点评等多种方式有针对性地向农民推广农业适用增产增收新技术，', '+农民”的科技推广网络,提升了高质高效农业技术的入户率和到田率,促进了农业高质量发展,加快了农民增收致富步伐。他们还采取走出去的办法，组织农民学员到辽宁、通化等地考察学习，不断拓宽农民群众的视野，增强发展产业实现振兴富裕的信心。', '近几年，靖宇县以人参为主的中药材、以黑木耳为主的食用菌、以蓝莓为主的经济林等特色产业发展迅猛，成为乡村振兴的重要支柱产业。农技中心紧紧围绕推进产业发展的关键环节，采取超前服务的办法帮助企业和农村新型经营主体攻克技术难关。中心先后与吉林农业大学中药材学院、吉林农业科技学院、吉林省菌物研究所等部门联合开展了《长白山区食用菌规范化栽培技术》、《天麻有性繁殖配套栽培技术》、《灰苏子丰产高效栽培技术推广》等多项技术研究。获得吉林省科技成果和省政府农业技术推广奖12项。帮助吉林省五禾源生物科技有限公司研发的《低温快速腐解和功能性肥料技术成果》被评定为国内先进。《畜禽粪便低温快速腐解技术研发与功能性肥料研制及应用》获得吉林省科技成果，给企业带来年利润200多万元。他们帮助靖宇县宇月中药材种植专业合作社筛选申报的《一种多孢灵芝高产增效种植方法》近期获得国家专利。', '近几年，靖宇县以人参为主的中药材、以黑木耳为主的食用菌、以蓝莓为主的经济林等特色产业发展迅猛，成为乡村振兴的重要支柱产业。农技中心紧紧围绕推进产业发展的关键', '攻克技术难关。中心先后与吉林农业大学中药材学院、吉林农业科技学院、吉林省菌物研究所等部门联合开展了《', '200多万元。他们帮助靖宇县宇月中药材种植专业合作社筛选申报的《一种多孢灵芝高产增效种植方法》近期获得国家专利。', '中心的骨干成员都是吉林农业大学等相关院校的毕业生，并且都是来自乡镇农业技术推广一线。他们都有勤奋朴实的工作作风和爱岗敬业的高尚品质。乡村振兴任重道远，他们深感责任重大，使命光荣。他们认真学习政治理论和农业科技知识，单位同志平均学历达到大学专科水平。他们把主要工作精力放在农业科技推广一线，与广大农民群众结对子、交朋友，全年有200多天时间奔赴在乡村和田野之间，根据农事季节，做好技术跟踪指导服务工作。他们本着关键环节主动入户、突发事件及时入户、技术咨询随时入户的原则，常年活跃在田间地头，帮助农民解决各种生产技术问题。为了靖宇县农村百姓实现生活富裕，为了乡村全面振兴默默地奉献着。', '他们认真学习政治理论和农业科技知识，单位同志平均学历达到大学专科水平。他们把主要工作精力放在农业科技推广一线，与广大农民群众结对子、交朋友，全年有', '根据农事季节，做好技术跟踪指导服务工作。他们本着关键环节主动入户、突发事件及时入户、技术咨询随时入户的原则，常年活跃在田间地头，帮助农民解决各种生产技术问题。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>53</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>家家有产业户户有项目支边村脱贫摘帽奔小康</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2020-07-06</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://jyx.cbs.gov.cn/wzsy/jrxw/202007/t20200706_619262.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['三道湖镇支边村依托资源优势，采取多项举措引导村民发展蓝莓栽培产业。全村栽培蓝莓规模达到1600余亩。2019年，蓝莓产量达到720吨，实现销售收入1100多万元，人均蓝莓产业收入达到3万元以上。通过栽培蓝莓实现了由贫困村到富裕村的巨大跨越，成了远近闻名的蓝莓专业村。', '支边村地势平坦，耕地多属偏酸性，土壤有机质含量高，气候冷凉湿润并且昼夜温差大，非常适合高山寒地蓝莓生长。2009年，村党支部成员外出考察学习，率先引进了蓝莓栽培项目。从几户到几十户，从几十亩到千余亩，逐渐发展壮大。全村117户农户百分百放弃传统粮食作物种植，全部改为栽培蓝莓。栽培种类分为矮丛和半高丛，有美登、北陆、杜克、蓝丰、瑞卡等10多个品种。', '自实施脱贫攻坚战以来，村里多次申报蓝莓产业项目，争取扶贫政策支持。近几年，通过“整村推进”“以奖代补”“因户施策”等产业扶贫模式先后争取扶贫资金200多万元，扩大蓝莓栽培规模900多亩。', '村委会干部刘培玲率先成立了蓝莓栽培专业合作社，从种苗采购、蓝莓栽培、生产管理、鲜果采摘、仓储运输等各方面为栽培户提供一条龙服务。', '现在走进支边村，远远就会看到满山遍野全是蓝莓栽培园。就连家家户户的房前屋后菜园子都栽上了蓝莓，简直就像“蓝莓的海洋”。到了每年7月下旬蓝莓成熟的季节，每天采摘蓝莓的人员多达千人以上，采摘场面非常壮观。多年的产业合作，支边村蓝莓销售有了相对稳定的客户。每到蓝莓采摘季节，沈阳、大连、哈尔滨等地的客商会提前来到村里，进行现场收购。果农采摘的鲜果做到了当日采摘、当日销售，迅速变现。现在支边村蓝莓有70%的面积进入盛果期。全村栽培蓝莓30亩以上的有20多户，栽培规模50亩以上的大户有6户。多数栽培户的蓝莓亩收入达到万元以上。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>53</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>白山市外事办赴湖州市外事办考察交流</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2020-08-19</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bmdt/202008/t20200819_626630.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['多年建城史的江南名城，是中国丝绸文化、湖笔文化、茶文化、瓷文化的发祥地之一，是国家绿色金融改革创新试验区、国家创新型试点城市，也是白山市对口交流友好城市，为更好服务我市中心工作，借鉴湖州外事先进工作经验，', '8月11日上午，两市外事办举行了交流座谈会。座谈会上，湖州市外事办党组书记、主任臧学萍和白山市外事办党组书记、主任辛泳光分别介绍了本地经济社会发展、外事工作开展情况和下一步工作打算。双方就外事管理服务地方经济社会发展，利用“快捷通道”助推企业复产复工，国际交流与友城合作及全方位打造宽松的营商环境等工作进行深入交流探讨，达到互相学习借鉴的预期目的。', '日上午，两市外事办举行了交流座谈会。座谈会上，湖州市外事办党组书记、主任臧学萍和白山市外事办党组书记、主任辛泳光分别介绍了本地经济社会发展、外事工作开展情况和下一步工作打算。双方就外事管理服务地方经济社会发展，利用“快捷通道”助推企业复产复工，国际交流与友城合作及全方位打造宽松的营商环境等工作进行深入交流探讨，达到互相学习借鉴的预期目的。', '在湖州期间，考察组一行在湖州市外事办的陪同下重点考察了湖州外事交流基地——翔顺工贸有限公司，参观了企业的丝绸产品展示厅，听取了企业汇报，深切感受到湖州市外事办在促进域内企业合作开放工作中发挥积极助推作用。', '考察团又赴习近平总书记“两山”理念诞生地——安吉余村进行实地参观学习，先后参观了余村陈列馆、观看习近平总书记在安吉调研时的珍贵视频资料，沿着习近平总书记走过的村路，亲身感受余村的新发展新面貌。十多年来，余村从一个靠采矿为生尘沙漫天的小山村发展成为山清水秀村美民富的新兴旅游村庄。余村的发展历程生动诠释了“绿水青山就是金山银山”这一理念。', '通过此次考察学习，两地外事办达成共识，在今后工作中将进一步加强友城合作，建立友城资源共享机制，互相借助友城资源渠道，搭建友城合作平台，拓展友城合作项目，把两地优势资源转化为外事工作资源，把外事资源转化为两地经济社会发展资源，为建设美丽湖州、美丽白山贡献外事力量。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>53</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>关于申请参加文化旅游推介考察学习所需差旅费的资金请示</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2019-09-02</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://xxgk-lj.cbs.gov.cn/gysy/ggwh/201910/t20191012_442260.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['为积极推介我市文化旅游资源，加强宣传推介力度，提升我市文化旅游影响力，我局积极参加由省、白山市、临江市组织的全国各项文化旅游推介会活动，因我局差旅费短缺，现申请差旅费2万元，用于参加临江市工会组织的赴浙江省长兴县考察等其他文化旅游推介会活动差旅费的支出。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>53</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>要闻湖州市吴兴区政协到浑江区开展对口合作学习考察</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2018-08-22</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://www.hunjiang.gov.cn/zw/hjyw/201808/t20180822_354102.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['8月21日至22日，湖州市吴兴区政协主席潘华一行八人到浑江区开展对口合作学习考察活动，浑江区政协主席崔玉久等领导陪同。', '考察团一行先后到吉林东圣焦化有限公司、助果果网络科技公司、品春缘茶庄、长白山山货市场、克斯兰特等企业进行学习参观，通过听取汇报和交流，对企业的发展进行了详细的了解，潘华一行高度赞许了浑江区企业发展水平和促进区域经济协调发展所做的贡献，并表示此次学习考察受益匪浅。', '双方希望以此次考察为契机，进一步加强吴兴区政协与浑江区政协的深入交流与合作，进一步助推吴兴区与浑江区在相关领域的深度合作、优势互补、共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>年靖宇县事业单位公开招聘高层次和急需紧缺人才公告号</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2022-06-23</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://jyx.cbs.gov.cn/wzsy/gsgg/202206/t20220623_725694.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['根据《事业单位人事管理条例》、《吉林省事业单位公开招聘“八种类型”组织形式指导意见》、《中共吉林省委吉林省人民政府关于支持白山市建设践行“两山”理念试验区的意见》（吉发〔2021〕21号）、吉林省人民政府办公厅《转发关于全面建立和进一步完善全省事业单位新进人员公开招聘制度意见的通知》（吉政办发〔2010〕16号）、吉林省人力资源社会保障厅《关于印发〈关于进一步完善省直事业单位人员招聘制度的意见〉的通知》（吉人社字〔2009〕35号）、《关于进一步放活事业单位人才交流的意见（试行）》（吉人社联字〔2016〕45号）、《关于进一步做好2022年全省事业单位公开招聘工作的通知》（吉人社发〔2022〕4号）和《关于做好2022年中小学幼儿园教师公开招聘工作的通知》（人社厅发〔2022〕21号）精神，结合我县事业单位编制、岗位空缺情况及工作需要，拟面向社会公开招聘高层次和急需紧缺人才37名，制定招聘公告如下：', '5.年龄一般在18周岁以上、35周岁以下（1986年6月23日—2004年6月23日期间出生），获得博士研究生学历人员年龄可放宽至40周岁以下。招聘岗位对年龄有特殊要求的按招聘岗位要求确定。年龄计算时间点均以2022年6月23日为准（以本人身份证出生日期为准）。符合岗位资格条件的2022年普通高校毕业生报考不受年龄限制。', '1.符合岗位所需要的学历、专业、户籍、工作经历、执业（职业）资格等其他条件详见附件1；', '2.技工院校全日制高级工班、预备技师（技师）班毕业生分别参照大专、本科学历，可报考符合对应学历、专业等各项招聘条件的相应岗位；', '3.拟聘人员应具有招聘岗位所需的教师资格证，但鉴于新冠疫情影响，此次招聘按规定落实疫情防控期间“先上岗，再考证”阶段性措施，暂时未取得教师资格证的可以报考教师岗位。招聘单位与未取得教师资格证的先上岗拟聘人员签订聘用合同时，应当按规定约定1年试用期，在试用期内未取得相应教师资格证的，应当依法解除聘用合同。', '1.曾因犯罪受过刑事处罚的人员和曾被开除公职的人员，受到党纪政纪处分期限未满或者正在接受纪律审查的人员，处于刑事处罚期间或者正在接受司法调查尚未作出结论的人员；', '2.在公务员招考和事业单位公开招聘中被考试组织部门认定有严重违纪违规行为并在禁考期限内的人员；', '6.“三支一扶”、“大学生村官”等基层服务项目人员及公务员招录、事业单位招聘等未达到现工作地、单位或岗位要求最低服务年限的人员；', '事业单位公开招聘工作所有参与人员以及可能影响公正的特定关系人需要回避的，参照《事业单位人事管理回避规定》执行。', '（2）报名材料要扫描成PDF格式报送。报名人员须填写《2022年靖宇县事业单位公开招聘高层次和急需紧缺人才报名表（1号）》（附件2）电子版，然后在打印出来的纸质版报名表上手写签字，再将签字版本的报名表扫描成PDF格式；同时将本人身份证、毕业证、学位证、资格证、学信网学历验证报告等岗位需求的相关材料一并扫描成PDF格式放入文件夹中；', '（3）文件夹里的每个文件命名要带有数字作为文件顺序，统一格式为“1.报名表2.身份证3.毕业证4.学位证5.学信网学历验证报告6.户口簿7.工作经历（报考岗位需要提供工作经历的，需要提供此项，否则不需要）”。如有需要补充材料的考生要连续标注好序号后再上报；', '（4）在读2022年12月31日前毕业尚未取得学历学位证的考生，须提供由本校毕业生就业指导部门签署意见的《毕业生就业推荐表》；留学回国人员报考的，除需提供规定的材料外，还要提供教育部留学人员服务中心出具的《国外学历学位认证书》；', '招聘单位要成立资格审查小组，选派专人对考生资格条件进行认真审查。资格审查结果于报名结束后5个工作日内由招聘单位电话通知或回复电子邮件通知。报名结束后5个工作日内未接到通知的考生，请在2个工作日内及时与招聘单位或其主管部门资格审查人员主动联系，否则因此影响考生应聘的，后果由考生自负。', '4.根据《关于进一步加强和改进征兵工作的意见》（吉政发〔2016〕25号）、《关于促进新时代退役军人就业创业工作的实施意见》（吉退役军人发〔2019〕30号），凡在我省参军入伍并服役期满、退出现役，且符合报考条件的自主就业退役大学生士兵考生享受笔试初始成绩加分政策。其中，一般自主就业退役大学生士兵加5分，荣立三等功加7分，二等功加9分，一等功加11分。多次立功的按立功最高等次加分，其余立功次数不累计加分。请考生在报名期间将本人身份证、入伍通知书、退伍证、立功受奖证书、毕业证、学位证、学历验证报告的扫描件（PDF格式）以及《自主就业退役大学生士兵考生信息表》（附件3）发送至jyzzbrcb@163.com进行审验，逾期未发送的或超过截止时间发送的视为考生自愿放弃享受加分政策。审验部门为中共靖宇县委组织部、靖宇县人力资源和社会保障局、靖宇县征兵办、靖宇县退役军人事务局。经审验合格的另行在靖宇县人民政府网站（http://jyx.cbs.gov.cn/）公示；', '6.考生应在笔试前14天通过微信添加“吉事办”小程序申领“吉祥码”“通信大数据行程卡”。笔试当天，需扫描“吉祥码”、查看“通信大数据行程卡”，并上交《2022年靖宇县事业单位公开招聘高层次和急需紧缺人才考生行程轨迹、体温监测记录单》（附件4）。“吉祥码”“通信大数据行程卡”为绿码的考生，经现场测量体温正常方可进入考点。“吉祥码”或“通信大数据行程卡”非绿码的考生，须于笔试当天提供开考前48小时以内在检测机构检测的新冠病毒核酸检测阴性证明，不能出具检测阴性证明的，不能参加考试；', '1.需要笔试的岗位，依据笔试成绩从高分到低分，按招聘岗位计划数与面试人选数1:5比例依次确定拟面试人选。拟面试人选数达不到1:5比例的，按实际人数确定；多人并列进入1:5比例的，一并确定为拟面试人选。拟面试人选公示期间，因本人放弃或查出不符合报名、招聘岗位资格条件取消拟面试资格的，在报考同一岗位的人员中按笔试成绩从高分到低分依次递补；', '2.免笔试的岗位，资格审查合格后直接确定为拟面试人选，不合格的取消拟面试资格。免笔试的岗位，招聘计划数与实际资格审查合格人数超过1:40时，考生需要加试，按招聘岗位计划1:9的比例从高分到低分依次确定面试人选，多人并列进入1:9比例的，一并进入面试。加试成绩只作为进入面试的资格，不计入总成绩。加试内容、时间、地点另行通知。', '1.根据行业、专业及岗位特点，面试灵活采用结构化面谈、说课、试讲、专业问答、情境模拟、实际操作等方式。计算考生成绩时，保留小数点后两位。具体面试时间、地点、方式、要求等，以《面试通知书》为准；', '1.按笔试成绩与面试成绩之和的50%计算考试总成绩，满分100分；免笔试的，面试成绩即为总成绩；', '面试结束后，在考试总成绩达到及格线以上的人员中，从高分到低分按招聘岗位人数1:1的比例确定参加体检人选。如考生考试总成绩相同的，把考试成绩顺延到小数点后4位，成绩仍然相同的，按国家和我省有关规定符合优先聘用条件的优先聘用（如在我省参军入伍并服役期满、退出现役的自主就业退役大学生士兵考生在其服役期间荣立三等功及以上者优先等），没有符合优先聘用条件的，采取加试的方式确定人选。体检工作要在落实疫情防控要求的前提下，在具备相应资质的专业医疗机构组织实施，体检标准参照修订后的《公务员录用体检通用标准（试行）》并结合事业单位不同岗位实际用人需求确定。', '体检合格的考生，由用人单位对其政治思想、道德品质、业务能力、工作实绩、遵纪守法等情况进行考察，并对其报考资格条件进行复查。体检、考察不合格或自动放弃的，取消拟聘人选资格，在报考同一岗位总成绩达到及格线以上的人员中，从高分到低分依次递补。', '1.对公示反映有严重问题并查有实据不符合聘用条件的，取消其拟聘人选资格，并从报考同一岗位考试成绩在及格线以上或考察合格以上的人员中从高分到低分依次递补；对反映有严重问题但一时难以查实的，暂缓聘用，待查实并作出结论后决定是否聘用；对公示期满无异议的，或有反映问题但经核实不影响聘用的按程序办理相关聘用手续，签订聘用合同；', '2.2022年毕业生报考人员，办理聘用时须提供报考岗位所要求的学历证书，未能提供的取消聘用资格。被聘用人员按相关政策规定约定试用期，试用期一并计算在聘用合同期限内。试用期满考核合格的，予以正式聘用，不合格的，取消聘用；', '3.在办理聘用手续前自动放弃的人员，取消其拟聘人选资格，在报考同一岗位考试成绩在及格线以上的人员中从高分到低分依次递补。在职人员报考的，在办理聘用手续时无法与原单位依法解除聘用（劳动）关系的，视为自动放弃拟聘人选资格；', '根据《靖宇县引进人才激励与管理办法（试行）》（靖办发〔2020〕53号），其中靖宇县事业单位公开招聘的高层次和急需紧缺人才与用人单位签订5年服务期合同的，对应享受以下待遇：', '1.择优提拔。服务年限满3年且年度考核结果均为优秀等次的，在提拔使用、上级机关遴选、挂职锻炼、外出考察学习等方面优先考虑；作出突出贡献或取得重大成就的，同等条件优先提拔使用；符合条件的可择优调任到公务员岗位；', '2.给予生活补贴。聘用的博士研究生给予12万元生活补贴，原“985”“211”工程院校硕士研究生给予10万元生活补贴，急需紧缺专业的普通院校硕士研究生给予8万元生活补贴，原“985”“211”工程院校全日制本科毕业生给予6万元生活补贴。以上生活补贴为5年服务期内补贴总金额，自签订聘用合同之日起每工作满一年发放一次，5年内发放完毕；', '3.给予住房补贴。5年服务期内，对聘用的博士研究生给予每月1000元的住房补贴，对聘用的原“985”“211”工程院校硕士研究生给予每月800元的住房补贴，对聘用的普通高校毕业的硕士研究生给予每月600元的住房补贴，对聘用的原“985”“211”工程院校全日制本科毕业生给予每月400元的住房补贴，每工作满一年发放一次。5年服务期内以本人身份在靖宇购房的，5年服务期满后凭房产证或购房合同一次性给予3-12万元的购房补贴；', '4.放宽职级职称政策。聘用管理岗位的硕士、博士研究生分别按八级职员、七级职员核定工资待遇；聘用专业技术岗位的，按照相关政策予以聘任（单位岗位已满的，可在政策允许范围内超岗聘任）；暂未取得职称的，获得硕士学位的可先行聘用在专业技术十一级岗位，获得博士学位的可先行聘用在专业技术十级岗位。', '1.资格审核贯穿招聘工作全过程，在任何环节发现考生不符合招聘条件或弄虚作假骗取应聘资格的，取消聘用资格。公开招聘过程中应聘人员、招聘单位和招聘工作人员违纪违规行为的认定与处理，按照《事业单位公开招聘违纪违规行为处理规定》（人社部令第35号）执行；', '2.凡考生未在规定时间内按要求参加笔试、资格审查、面试、体检、考察的，均视为自愿放弃应聘资格。', '附件：1.2022年靖宇县事业单位公开招聘高层次和急需紧缺人才岗位及其资格条件一览表（1号）', '1.2022年靖宇县事业单位公开招聘高层次和急需紧缺人才岗位及其资格条件一览表（1号）', '4.2022年靖宇县事业单位公开招聘高层次和急需紧缺人才考生行程轨迹、体温监测记录单']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>53</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>支边村脱贫摘帽奔小康</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2020-05-14</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/ztzl/jzjstpkj/202005/t20200521_609616.html</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['靖宇县三道湖镇支边村依托资源优势，采取多项举措引导村民发展蓝莓栽培产业。全村栽培蓝莓规模达到1600余亩。2019年，蓝莓产量达到720吨，实现销售收入1100多万元，人均蓝莓产业收入达到3万元以上。通过栽培蓝莓实现了由贫困村到富裕村的巨大跨越，成了远近闻名的蓝莓专业村。', '支边村地势平坦，耕地多属偏酸性，土壤有机质含量高，气候冷凉湿润并且昼夜温差大，非常适合高山寒地蓝莓生长。2009年，村党支部成员外出考察学习，率先引进了蓝莓栽培项目。从几户到几十户，从几十亩到千余亩，逐渐发展壮大。全村117户农户百分百放弃传统粮食作物种植，全部改为栽培蓝莓。栽培种类分为矮丛和半高丛，有美登、北陆、杜克、蓝丰、瑞卡等10多个品种。', '自实施脱贫攻坚战以来，村里多次申报蓝莓产业项目，争取扶贫政策支持。近几年，通过“整村推进”“以奖代补”“因户施策”等产业扶贫模式先后争取扶贫资金200多万元，扩大蓝莓栽培规模900多亩。', '村委会干部刘培玲率先成立了蓝莓栽培专业合作社，从种苗采购、蓝莓栽培、生产管理、鲜果采摘、仓储运输等各方面为栽培户提供一条龙服务。', '现在走进支边村，远远就会看到满山遍野全是蓝莓栽培园。就连家家户户的房前屋后菜园子都栽上了蓝莓，简直就像“蓝莓的海洋”。到了每年7月下旬蓝莓成熟的季节，每天采摘蓝莓的人员多达千人以上，采摘场面非常壮观。多年的产业合作，支边村蓝莓销售有了相对稳定的客户。每到蓝莓采摘季节，沈阳、大连、哈尔滨等地的客商会提前来到村里，进行现场收购。果农采摘的鲜果做到了当日采摘、当日销售，迅速变现。现在支边村蓝莓有70%的面积进入盛果期。全村栽培蓝莓30亩以上的有20多户，栽培规模50亩以上的大户有6户。多数栽培户的蓝莓亩收入达到万元以上。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>53</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>走出去学进来抚松县新农村建设考察团胜利归来</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2017-03-31</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://www.fusong.gov.cn/xwzx/fsyw/201706/t20170629_170374.html</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['为进一步加快抚松县新农村建设步伐，全力推进新农村建设提质升级，近日，由县委副书记郑强、副县长姜国君带领全县十四个乡镇主要领导、各职能部门主要负责人及部分村屯书记等一行33人组成考察团，前往敦化、通化两地，开展了为期三天的考察学习。', '考察团先后来到敦化市官地镇、雁鸣湖镇，通化市快大茂镇、大泉源满族朝鲜族乡，实地参观了官地镇杨家屯村、雁鸣湖镇小山村、通化县城市展览馆、高志航故居等地，并在随后与当地领导开会座谈，认真听取了当地发展成功之道，深入了解了当地文化挖掘定位、项目规划设计、农村环境整治、招商引资政策等工作情况，逐项询问相关细节加以记录，并对建设资金来源、生活垃圾处理、村民主体积极性调动等重点问题作出深入探讨。', '此次考察团选择敦化和通化作为目标地，一方面原因在于两地与我县自然环境相仿，人文环境相似，在新农村的建设过程中存在的制约因素也大体相同，我县可以对照先进寻突破，从成功典型中攫取宝贵经验，攻克现阶段我县新农村建设过程中存在的难题。另一方面是为了与周边兄弟城市建立沟通、深化交流、增进友谊、创造更多学习交流的机会，协同发展、共谋进步。', '考察团一致表示，这次取经学习收获巨大、受益良多、感触深刻。在耳闻目睹了先进村镇发展所带来的巨大变化时，更应深刻反思，对照先进找差距，立足本地实际，加强领导，完善规划，以政府投入的财政资金为杠杆，撬动社会资金的流入，深入挖掘各村自然资源、文化资源等优势，着力打造一批市场潜力大、附加价值高、区域特色明显的品牌式美丽乡村，从而提高农村生活品质，推动我县综合实力稳步前进。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>53</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>临江市启动培养中小学生良好习惯工作</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2019-12-20</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201912/t20191220_475127.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['近日，临江市启动“培养中小学生良好习惯”工作，所有中小学校学生每天将做到“五个三分钟”、培养“六个好习惯”。', '临江市委、市政府始终把教育放在优先发展的突出位置，深入落实全国教育大会精神，持续推进教育“五项工程”。为引导学生“扣好人生第一粒扣子”，养成好习惯，该市启动“培养中小学生良好习惯”工作，构建起全员性、全过程、全方位育人格局，形成齐抓共管的教育网络，全社会共同助力，确保培养中小学生良好习惯工作“全面到底”。', '临江市努力提升学校发展内涵，积淀深厚文化底蕴，重视培养学生的良好行为习惯，参加白山市教育局组织的赴盘锦学习考察活动后，积极借鉴外地的先进经验，结合本地实际开展此项工作。“五个三分钟”“六个好习惯”的具体内容是中小学生每天进行三分钟劳动、三分钟跑步、三分钟日记、三分钟诵读、三分钟红歌，努力养成制定计划、预习复习、专注听课、认真书写、整理错题和完成作业的习惯。培养中小学生良好习惯事关学生未来、教育发展和家庭幸福，临江市凝聚全民共识，注重家庭教育、学校教育协调配合，调动全社会力量，共促好习惯养成，努力为经济社会发展培养更多更优秀的人才。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>53</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>白山市湖州市举行对口合作经贸交流会</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2017-12-04</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://www.jl.gov.cn/yaowen/201712/t20171204_2996014.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['（图为：王志厚市长、钱三雄市长代表白山市政府、湖州市政府签订对口合作框架协议后，握手祝贺。）', '绿水青山就是金山银山；冰天雪地也是金山银山。习总书记的重要思想把北国边城和江南水乡连在了一起，党中央、国务院对东北老工业基地的亲切关怀让白山和湖州携手前行。', '白山市—湖州市对口合作经贸交流会，12月2日上午在湖州市行政会议中心举行。这是两地深入践行习近平新时代中国特色社会主义思想的具体行动，也是双方认真落实党中央、国务院关于建立东北地区与东部地区对口合作机制的重大决策和落实吉林、浙江省委、省政府有关部署的重要举措，必将推进双方优势互补，共谋发展，合作共赢。', '湖州市委书记陈伟俊，市长钱三雄，市委常委、常务副市长高屹，市委常委、秘书长蔡旭昶，市政协副主席、太湖度假区管委会主任葛伟，南太湖集聚区管委会主任、湖州开发区党委书记熊全龙，市政府秘书长徐晏平，各县区委书记，市直有关部门负责人参加会议。', '湖州濒临南太湖，地处浙江北部，面积5820平方公里，东北为水乡平原，西部以山地、丘陵为主，基本分布为“五山一水四分田”，下辖东吴、南浔2个区，德清、长兴、安吉3个县，常住人口298万，2016年地区生产总值2243亿元。湖州历史人文厚重，民风淳朴热情，早在宋代就有“苏湖富、天下足”的说法，自古就是江南粮仓。近代以来，湖州群体是推动上海工商业发展的重要力量。当前的湖州，正在习近平总书记“绿水青山就是金山银山”理念和“一定要把南太湖建设好”指示精神的指引下，按照市第八次党代会提出的“高水平全面建成小康社会，高质量建设现代化生态型滨湖大城市”的目标，在五大发展理念的引领下，加快赶超发展，发展势头强劲。', '会上，首先播放了湖州市、白山市市情宣传片。王志厚、钱三雄分别作了白山市、湖州市市情介绍。在热烈的掌声中，两市签订了对口合作框架协议。', '张志军在讲话中代表市委、市政府对双方签订合作框架协议表示热烈祝贺，对湖州给予白山市的大力支持和关心厚爱表示衷心感谢。', '张志军指出，白山和湖州资源禀赋相近，发展观念相合，有着良好的合作基础和广阔的合作空间，旅游1+1对口合作率先启动，开辟了双方政府专题合作的先河；干部人才互派交流，取得了学思想、转观念、换思维的良好成效；农夫山泉、娃哈哈等浙江知名企业在白山投资置业，全面提升了经济效益和品牌价值，不仅为白山市学习湖州观念、借鉴湖州经验、借助湖州优势，加快自身发展创造了有利条件，同时也为促进两地企业开拓域外市场，开展项目合作，实现资本与资源对接，推动体制机制创新创造了条件。希望我们两个兄弟城市以开展对口合作为契机，积极作为，共谋发展，在产业互融、经贸互动、平台共建、要素共享等方面，不断深化全方位合作，努力推动优势互补、良性互动、协同发展、互利共赢。', '张志军代表120余万热情好客的白山人民，向湖州市领导和嘉宾，向湖州企业家，向湖州人民发出最真挚的邀请，送上最诚挚的祝福。他说，我们坚信在十九大精神和习近平新时代中国特色社会主义思想指引下，白山绿色转型全面振兴一定会取得新的成绩，我们两地的合作一定会结出新的硕果，衷心祝愿湖州的明天更加美好。', '陈伟俊在讲话中代表湖州市委、市政府，对白山党政代表团千里迢迢来到湖州开展对口合作经贸交流活动表示热烈欢迎。他说，湖州和白山远隔千山万水，但人心相通、人情相依、人文相亲，两地自然资源、经济社会、民俗文化具有许多相似性、互补性，在很多方面可以相互学习借鉴。近年来，双方合作交流日益密切，在很多领域取得了初步成果。我们将认真落实中央和浙江省委的决策部署，推进两地全方位合作交流，实现南北联动、协同发展、互利共赢。在今后的工作中，双方要加强生态互利、产业互补、贸易互通、要素互融、人员互访，建立更加密切的合作机制，推动各领域合作更加深入开展，不断取得骄人业绩，衷心祝愿白山和湖州友谊之树常青，祝双方对口合作取得圆满成功。', '两地领导热情洋溢的讲话和合作意向赢得热烈掌声，为双方深化对口合作营造了浓厚的氛围。', '会上，浙江麦巴夫与白山市山野优品电子商务有限公司，优嘿嘿食品有限公司与浑江区政府，浙江佐力药业与抚松县政府签订了合作协议。', '当天下午和第二天上午，张志军、王志厚一行在湖州市党政领导陪同下，前往安吉县天荒坪镇余村，到“两山”重要理念诞生地学习考察。2005年8月15日，时任浙江省委书记的习近平同志到余村调研，充分肯定了余村走绿色发展之路的做法，并在这里首次提出了“绿水青山就是金山银山”的科学理念。十多年来，余村干部群众牢记习近平同志的嘱托，精规划、美环境、优产业、浓氛围，大力开展生态文明建设，发展休闲旅游经济，让绿水青山变成了金山银山。沿着习近平同志行走的路线，参观习近平同志当年与余村干部座谈时简朴的会议室和与群众话家常、问寒暖、拍合影的小院，切身体验余村把“两山”重要理念变成美好现实的生动实践，白山市党政代表团深受教育，倍感鼓舞。大家表示，一定要认真学习领会习近平新时代中国特色社会主义思想，认真学习领会党的十九大精神，用“两山”重要理念指导白山绿色转型全面振兴，守护建设好绿水青山，让广大群众过上幸福美好的生活。张志军、王志厚一行还来到湖州开发区、德清县考察香飘飘、永兴特钢等企业和天使风情小镇、蔓塘里自然村、二都小镇、地理信息小镇、民国风情小镇。', '12月2日上午，白山市与湖州市各县区及企业对接洽谈会在开元酒店湖州厅举行。市委常委、副市长石新明，市人大常委会副主任、靖宇县委书记毕增祥；湖州市委常委、常务副市长高屹，市政协副主席、太湖度假区管委会主任葛伟，两地县区及市直有关部门主要领导、企业界知名人士60多人参加活动。双方围绕进一步加深了解，推动白山产品与湖州市场、白山资源与湖州资本、白山转型与湖州创新，进行了全方位、多领域、深层次的交流洽谈，取得了喜人成果。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>53</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>吉白两市教育部门开展扶贫协作对接</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2018-04-17</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://xxgk.cbs.gov.cn/jsly/tpgj/201809/t20180910_358691.html</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['白山市政府信息公开专栏 &gt;&gt; 社会公益事业建设领域 &gt;&gt; 乡村振兴领域/脱贫攻坚领域', '为深入贯彻中央、省、市扶贫协作会议精神，按照白山市委市政府的安排部署，白山市教育局赴吉林市开展扶贫协作对接及考察学习工作。', '4月17日两市教育系统相关同志召开座谈会，双方立足各自实际，针对中高职合作办学、中职联合招生、干部教师交流培训、教育科研和信息化建设、学校结对帮扶等事项进行了深入交流，达成了两市教育交流合作意向，确定双方联席会议制度，畅通联络渠道，深化交流沟通。会上，两地学校精准对接并签订实施方案，推动两地教育扶贫协作深入开展。通过本次考察学习，我市教育系统开拓了眼界，活化了思路，增添了信心，下一步将认真做好各项后续对接工作，保证沟通渠道畅通，把教育扶贫各项工作做细做实，充分借鉴吉林市教育成功经验，加快推动我市教育教学工作全面发展。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>53</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>鄂州市委政法委来我市考察</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2019-07-11</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/ztzl/shceddjl/shdtyw/201907/t20190711_422036.html</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['7月9日，湖北省鄂州市委政法委考察团来我市考察学习，重点了解我市在扫黑除恶专项斗争和法学会方面的经验做法。', '考察团到市扫黑办实地参观，听取我市扫黑除恶专项斗争工作的经验做法介绍，详细了解我市扫黑除恶专项斗争工作机制建设及“互联网+智慧扫黑”服务管理平台对扫黑除恶的线索收集、处理和档案分类管理等工作开展情况。', '“互联网+智慧扫黑”服务管理平台是我市为进一步提高全市扫黑除恶专项斗争智能化、科学化、精准化水平，推动全市扫黑除恶专项斗争不断向纵深发展的重要平台。目前，该平台各项功能日渐完善，成为推动扫黑除恶专项斗争工作的有力武器。', '考察团表示，将认真学习和借鉴我市扫黑除恶专项斗争好经验、好做法，进一步坚定信心和决心，明确目标，扎实工作，发挥作用，确保扫黑除恶专项斗争取得决定性胜利。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>53</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>湖州市教育代表团来白山市开展考察交流工作</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2018-09-20</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://edu.cbs.gov.cn/jydt/201809/t20180920_361185.html</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['为贯彻落实《白山市人民政府湖州市人民政府对口合作框架协议》《白山市与湖州市对口合作工作实施方案》工作要求，应白山市教育局邀请，湖州市教育代表团一行19人，在湖州市教育局副局长黄桂众的带领下，于9月15日—9月17日莅临白山市对我市教育系统进行回访，并开展了系列考察交流工作。', '为贯彻落实《白山市人民政府湖州市人民政府对口合作框架协议》《白山市与湖州市对口合作工作实施方案》工作要求，应白山市教育局邀请，湖州市教育代表团一行19人，在', '的带领下，于9月15日—9月17日莅临白山市对我市教育系统进行回访，并开展了系列考察交流工作。', '湖州市教育代表团先后考察了10所对口合作学校。在长白朝鲜族自治县，考察团参观了长白县实验中学和朝鲜族学校，对长白民族文化进行了考察，听取了长白县教育局对民族教育发展情况的工作汇报。在抚松县，考察团对抚松县教育投入赞不绝口，认为抚松一中的校园设计和抚松实验学校的文化理念在江浙地区也是领先的。在靖宇县，考察团对抚松县的职业教育的学生管理和基础教育的德育工作表示了充分的肯定，并表示对职业技术培训的进一步合作愿望。回到白山市，考察团参观了长白山职业技术学院新校区，白山市红旗小学和白山市二中。对我市职业技术学院的建设投入表示倾佩，对我市红旗小学展示的绘本阅读表示出浓厚兴趣，充分认可二中的文化校园工程的推进工作。', '考察结束后，两地教育系统领导和对口学校校长们在白山市第二中学会议室召开了座谈交流会。会上，市教育局党组书记、局长韩玉春介绍了白山市的人文地理概况，并详细介绍了市教育局“五项工程”的开展情况，同时对职业教育困境的突破提出了交流的愿望。市教育局副局长臧贻明及县区教育局局长就两市教育的对口合作内容提出了自己的观点及期望。湖州市代表团纷纷对此次考察表示真挚的感谢，对我市教育取得的成就给予了充分肯定。湖州市教育局副局长黄桂众在座谈交流中说，这次考察学习给了他很大的震动，白山市教育不忘初心，用持之以恒、一丝不苟的态度推动教育发展，让湖州市教育代表团此行收获巨大，此次考察学习既是两市教育互访，也是两市对口合作的全面推进。', '在两地教育局的协商下，座谈交流会上初步确定了下一步两市将在提升师资素质工作中，结合地域特征，围绕学前教育、基础教育、职业教育等内容举办论坛；实现互联，利用假期，以研讨观摩等方式安排两地老师互相交流学习；同时通过学科教师培训和干部挂职锻炼等方式，搭建两地师资队伍交流的平台；加大网络交流的力度，拓展学习交流的时间及空间维度；加大职业教育交流，在专业建设、促进学生就业等方面加强合作，我市将派优秀的职业教育竞赛选手到湖州训练，在人才培养上实现共同发展。', '最后市教育局副局长臧贻明对此次活动进行了总结，充分肯定了此次考察使双方合作方向更加明确，思路更加明晰，内容更加具体；要求各县（市、区）教育局、对口合作学校要以此次合作交流为契机，进一步梳理合作意向，尽快在年底前将合作意向落地。', '此次考察学习是在8月份两地教育部门建立对口合作的基础上，进一步探索创新合作模式，推进两地教育在基础教育、职业教育、重大教育改革等领域深入合作的一次交流活动。此次考察学习，深化了两地教育全方位合作，在今后的发展中两市教育将共同携手、摒力互助，努力推动优势互补、良性互动、协同发展、互利共赢，最大限度的发挥出各自教育资源的优势，形成强大合力，促进两地教育新一轮跨越发展，为推动两地经济社会发展做出新的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>53</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>白山湖州供销社深入合作促发展</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2019-11-07</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201911/t20191107_446987.html</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['为巩固加强白山市、湖州市对口合作，扎实推进落实白山、湖州两市供销合作社签订的《长白山农副土特产品产业发展战略合作协议》，近日，白山市供销合作社组织白山地区多家长白山农特产品企业负责人赴湖州市考察学习，并就企业之间合作事项进一步洽谈对接。', '在湖州期间，考察团先后参观考察了湖州对口支援农产品暨区域公用品牌2019年金秋大联展、浙北大厦购物中心、浙北大厦超市、两山农产品科技公司、东西部协作扶贫馆、华圣药业集团、南浔红美人可持续发展园、两山农品汇上海店等，详细了解企业规模、经营项目、发展规划、销售渠道，以及湖州市供销合作社在经营网络、销售平台、电子商务、产业农合联、“三位一体”建设等方面的具体做法。国药肽谷有限公司、白山市吉林省山野优品农业科技有限公司、长白山珍食品有限公司等4家白山企业分别与湖州两山农产品贸易有限公司、湖州浙北大厦超市有限责任公司签订了《长白山农副土特产品产销合作协议》，为长白山名优特产品走进湖州乃至长三角地区拓宽了销售渠道，打下了良好基础。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>53</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>对标高位学先进开拓视野增动力长春高新区赴天津杭州考察学习</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2017-06-23</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://ccxq.gov.cn/xqyw/xqdt/201706/t20170623_2116016.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['对标高位学先进 开拓视野增动力——长春高新区赴天津、杭州考察学习-长春新区管理委员会', '为进一步解放思想、提升境界，强化落实与天津、杭州对口合作精神，6月19日至21日，长春高新区党工委书记赵旭带队，长春高新区管委会办公室、商务局、住建委、行政执法局、双德乡、硅谷街道等部门主要负责人组成的考察团赴天津、杭州考察重点企业，学习城市建设管理经验，召开座谈会推介长春高新区，开启了长春高新区对接合作、创新发展的新篇章。', '一是深化交流互动，展现开放合作发展新活力。在到访天津的第一天，考察团第一时间组织了企业家座谈会，与天津吉林商会、天津黑龙江商会等企业家代表进行了深度交流。座谈会上，长春高新区党工委书记赵旭向与会企业详细介绍了高新区区情以及长春新区发展状况，特别是对现代服务业、先进装备制造业、创新创业、城市功能等方面做了重点说明，希望与企业选准契合点，加强沟通和合作。各参会企业纷纷表示，长春是新一轮东北振兴的核心区域，拥有非常好的发展前景，希望能够为长春发展贡献力量。在新材料制作方面，山东霞光实业有限公司希望能够将新型环保材料推向长春，为长春百姓营造更好的居家环境；在科技创新方面，昆仑智业有限公司、鑫茂科技有限股份公司紧跟前沿趋势，积极发展VR产业，有望在长春打造新的VR产业园；在支持城市建设方面，施耐德万高天津电气设备有限公司、天津凯发电气股份有限公司、天津强敏机械股份有限公司对长春地铁建设表示关注，希望未来有机会参与长春地铁建设，共同打造东北亚区域中心城市。座谈会现场氛围融洽、友爱，双方交流互动热烈，为长春高新区发展带来了新的机遇。', '二是实地踏查走访，树立国际示范城市新理念。此次对接考察，学习交流城市规划、城市建设与管理、城市魅力提升是重中之重。在天津市文化中心、第五大道，考察团实地走访了沿线街路，对城市绿化、街路美化、城市建设与服务业融合发展进行了系统考察，对人性化的景观设计、综合性的街路功能设计表示了充分的肯定。在中新天津生态城，考察团详细听取了生态城的规划设计，实地走访了生态城第三社区中心、城市数字化管理中心，对国际化的城市建设有了深刻认识，特别是对现代化的社区服务，智能化的城市管理有了更深层次的理解，开拓了城市建设管理新思路。在杭州国际博览中心、钱江新城，考察团成员又实地参观了杭州市旧城改造、新城建设情况以及城市亮化，“先生态、再生活、后生产”的发展理念使得考察团的同志们深受启发，建设国际化、现代化、智能化的长春高新区成为了大家的一致共识，城市建设管理理念得到了新的飞跃。', '三是加强政企联系，搭建政商对口合作新通道。在三天的行程中，考场团集中主要精力积极登门拜访企业，叩门招商、服务招商，打开了招商引资新通道。进一步加深了合作交流，在天地伟业集团，考察团一行拜访了天地伟业集团戴林董事长，参观了企业展厅，详细了解了企业生产状况以及主要产品，希望企业能够关注长春高新区，关注长春新区，支持帮助长春发展。进一步促进了政商互动，在中新药业集团，考察团与中新药业进行了深度交流，双方分别介绍了各自发展状况，并对生物医药产业的发展前景交换了意见，希望中新医药集团能够与长春高新区携手合作，在生物医药产业方面实现合作共赢。进一步增进了政商感情，在万向集团，考察团一行受到了热情接见，万向集团各相关部门负责人向考察团介绍了万向集团的新产品、新举措，并对高新区发展表示了关心，希望能够在长春汽车产业发展上有所作为，赢得发展新机遇。', '三天的考察学习时间里，考察团马不停蹄的深入企业、毫不间歇的交流互动，大家进一步解放了思想、更新了观念、开阔了视野、提升了境界。赵旭书记要求，要认真学习天津、杭州的先进理念和方法，积极借鉴天津、杭州在加快产业转型升级、发展园区经济、建设美丽城市等方面的成功实践，切实用好并深化这次学习考察的成果，真正做到学思践悟，以新加坡式的国际标准进行城市建设，以人性化、智能化的方式处理社会问题，推动经济、社会同步提升，让群众真正享受到发展红利，把好事办好、办实，让高新区真正成为宜居宜业的现代化新城区。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>53</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>抚松县抽水乡实现粮食增产农民增收</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2020-08-31</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/202008/t20200831_630383.html</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['抚松县抽水乡以乡村振兴战略为抓手，按照“产业振兴”要求，紧扣农业增效、农民增收、农村繁荣目标，立足资源优势，深化产业结构调整，大力发展“松水泉”牌玉米糁、速冻玉米、玉米面条、树莓罐头、树莓果汁、长白山猕猴桃等特色优势产业，扎实推进乡村振兴试验区创建工作。', '抽水乡地处长白山山脉，头道松花江东岸，属于吉林省黄金玉米带中的早熟区，玉米种植面积高达2.4万亩，但传统的玉米种植，耗费人力、收获期长、经济收益低，面对这些问题，如何打好“玉米”牌是近年来乡党委、政府的重点工作。', '抽水乡立足当地实际，深挖地域优势，改变传统玉米种植品种，大力发展小粒红玉米种植。通过对上争、本级投、村列支等多种渠道，于2018年对上争取资金50万元，完成180平方米SC标准化厂房建设，购置新型玉米糁加工生产设备，申请注册“松水泉”品牌商标，成立永泉农产品专业合作社，“松水泉”玉米糁应运而生。', '合作社立足于本地优势，选择优质地块，种植小粒红胶质玉米。与农户签订种植合同，采用有机种植模式，产品种植中严格控制农药喷洒量，大量使用有机肥料，田间管理中采用人工除草，确保“松水泉”特色玉米从种植到加工全过程绿色有机。这种“村集体+合作社+农户”的管理模式，带动全村46户村民实现每亩增收200余元，年收益约10万余元。', '因“松水泉”玉米糁市场反馈效果良好，发展前景广阔，为进一步扩大产业优势，2019年，该乡对上争取资金100万元，将闲置敬老院改造成经营性资产，64.66平方米冷库的建成积极地拓展了合作社的发展空间。', '为实现农民共同富裕，抽水乡党委、政府打破固式思维，积极推行“跨村联建”模式，以“联思想带观念、联组织带提升、联技能带致富、联产业带发展”的工作原则，强村带弱村形成系统经营管理方式，辐射带动抽水村、永泉村、碱场村合作联建，真正实现村村联建产业链条，在抽水村引进先进设备，建设速冻玉米加工生产线，建设200余平米冷库、速冻库，在碱场村选择沿江流域的优质地带建设种植基地与永泉农产品专业合作社合作经营，形成种植、加工、储存、销售为一体的村集体经济发展模式。2019年，速冻玉米项目带动3个村60余户村民增收致富，实现年收益20万余元。', '抽水乡高度重视农民专业合作的发展，始终把发展农民专业合作社作为实现乡村振兴的一项战略举措。在打造“松水泉”玉米糁产品品牌的基础上，构建农民增收长效机制的突破点，扩大树莓、长白山猕猴桃种植面积，现可达1000余亩，新上树莓玉米面条、人参玉米面条、树莓罐头、树莓果汁等新产品种类。目前，永泉农产品专业合作社产品种类达10余种，玉米衍生产品从单一走向多元，树莓产品已形成相应规模，产品种类丰富，增强了农民发展产业，扩大经营规模的信心。', '抽水乡坚持以市场为导向，优化产业结构，以玉米种植为基础，探索产业新模式。多次联合村两委成员域外参观考察学习，解除农民的种种顾虑，使之充分认识到合作社的好处，通过多种形式的宣传，激发农民加入合作社、领办合作社的信心，为合作社的进一步发展营造了浓厚氛围。凝聚各村特色种植力量，发挥“头雁”引领示范作用，对回收的有机玉米、树莓、长白山猕猴桃进行现代化加工，开发玉米面条、树莓玉米面条新产品。实现加工、包装、存贮、销售一条龙，蹚出一条适应现代化农业发展、市场需求和乡村振兴共融的路子。据悉，2020年预计收益30万元，实现逐年稳步提升。', '现在“松水泉”永泉农产品专业合作社由初期单纯向村民提供技术，信息服务，逐步延伸到储运、加工、销售等各个环节，村党支部积极联系机关食堂、各大超市和销售企业，同时产品入驻各电商平台，实现线上线下同步销售，积极参加各种农产品展会，拓宽销售渠道，最终实现种植体验、参观生产、产品销售为一体的经营模式。', '产业振兴先锋开路，乡村振兴蹄疾步稳。抽水乡将坚持把特色产业和乡村振兴战略有机衔接起来，构筑特色农业新优势，谱写乡村振兴试验区这篇大文章，催生新动力、实现新跨越，把乡村振兴“一盘棋”下活。']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>53</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>临江市苇沙河镇赴河北省安国市考察中草药种植产业</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2019-03-11</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://www.linjiang.gov.cn/zwgk/jcxxgk/xzxx/201903/t20190312_395004.html</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['为深入推进农业产业结构调整，受河北省安国市新京源药业有限公司邀请。2月28日，临江市苇沙河镇村干部一行6人赴河北省安国市考察中草药种植项目，通过学习找差距、围绕差距找原因、针对原因找办法，提速提效推进苇沙河镇乡村振兴工作。', '考察组一行先后参观了安国市药苑小镇、安国市中草药中心交易大厅、安国数字中药都和安国市新京源药业有限公司等地，详细听取了有关人员对中草药种植、加工和交易方面的经验介绍，提高了眼界，增长了知识。', '在考察中，考察组每到一处，听介绍，看现场，问经验，切身感受河北省安国市中草药种植产业强劲的发展势头，同时，增强了各村对于发展中草药种植产业的信心。下一步，镇政府将组织各村针对全镇的气候及地理特点，选好选优种植品种，拓宽农民增收渠道，切实把学习考察成果转化为推进各项工作的具体思路和务实举措。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>53</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>长白县司法局四个强化夯实司法所建设</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2019-09-19</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://www.changbai.gov.cn/zwgk/zwdt/zwdt/201909/t20190919_436165.html</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['按照“组织健全、设施完善、运作规范、注重创新、务求实效”的工作思路，长白县司法局“四个强化”夯实司法所规范化建设，充分发挥司法所的防火墙、助推器等职能作用，为长白县经济发展和社会稳定发挥积极作用。', '强化基础建设，树形象。积极争取当地党委政府重视和支持，整合资源，完善司法所基础设施建设，树立基层司法新形象。全县8个司法所都统一配备电脑、打印机、执法记录仪等办公设备，满足信息化办公要求，保障基层司法行政工作全面有效开展。', '强化制度建设，立规范。在硬件设施具备条件的情况下，争取软件工作无疏漏，根据工作职能，坚持“制度上墙、身份亮相、职责公开”，接受群众监督。严格司法行政规章制度，统一内部管理，落实司法所目标管理责任制。加强司法所档案管理，统一司法所各类工作文书，确保所务管理、业务工作科学化和规范化，以“文明、公正、规范”的形象服务基层、服务群众、服务企业。目前，8个基层司法所均达到省级示范化司法所标准。', '强化队伍建设，提素质。全局扎实开展“两学一做”学习教育，深入开展纪律教育，培养增强司法所干部纪律意识，养成遵守纪律的自觉性；积极组织举办各类司法行政业务工作培训班，切实提高基层工作人员业务能力；大力开展人民调解工作，组织人民调解员开展集中业务培训，提高化解矛盾纠纷调处能力和水平。', '强化树立典型，促发展。定位“走出去、引进来”的工作思维，组织司法所人员外出考察学习先进单位的工作经验和做法，通过听、看、问的形式结合自身工作找差距、理思路、定目标。及时召开司法所建设专题会议，着力抓好一至两家规范化司法所建设作为全县模版，以示范引导全县司法所建设向纵深推进。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>53</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>周洁副县长带队赴江苏河南等地考察医改工作</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2018-04-11</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://www.fusong.gov.cn/xwzx/tplb/201804/t20180411_285793.html</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['近日，为贯彻落实国家医改，着力解决当地百姓和重点人群看病难、看病贵的问题。在县委县政府的高度重视下，由周洁副县长带队，县卫计局和乡镇卫生院代表一行5人组成学习考察小组，先后赴苏州健康在线医疗科技股份有限公司、江苏省扬中市卫计委、河南省睢县卫计委学习考察。', '期间，各地政府和卫计委负责人详细介绍了当地医疗卫生体制改革、医联体建设及分级诊疗等工作建设运行情况，与我考察组交流了工作推进中的经验和做法，并就如何进一步运用改革杠杆，促进医改及分级诊疗和健康扶贫工作，提升基层医疗机构服务能力等问题进行了深入交流。', '周洁副县长对江苏省扬中市、河南省睢县在推进医药卫生体制改革和基层医疗机构建设方面的经验给予充分肯定，并表示：“扬中模式”“睢县模式”给考察组带来了新启发，考察组要把扬中、睢县医改建设中好的经验好的做法充分吸纳，更好的为抚松县委县政府推进医改及分级诊疗等相关工作建言献策，为进一步解决群众“看病难，看病贵”问题，使人民群众得实惠，党和政府得民心做出新的贡献。（王傲）']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>53</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>长白山干部学院全国民族团结进步教育基地揭牌</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2020-07-06</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/202007/t20200706_619329.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['近日，省民委在我市长白山干部学院举行“全国民族团结进步教育基地”揭牌仪式。省民委副主任金明哲、监督检查处处长刘洪涛、市民委、长白山干部学院相关领导出席活动。', '2019年1月，长白山干部学院被省民委命名为“吉林省民族团结进步教育基地”，同年11月，入选国家民委第六批“全国民族团结进步教育基地”。近年来，干部学院在全面贯彻落实习近平总书记关于民族团结进步教育指示精神，深入挖掘传承白山地区丰富的民族历史文化教育资源的同时，围绕“五个认同”教育培训目标，深入贯彻党的民族政策。对促进白山地区民族团结进步教育和发展起到了积极的推动作用。', '在开展民族团结进步创建工作的过程中，干部学院依托长白山地区满族、朝鲜族等丰富的民族文化资源、历史文化积淀和浓厚的民族团结氛围，围绕“中华民族一家亲，携手共圆中国梦”主题，组织培训班次前往长白山满族文化博物馆、锦江木屋村、讷殷古城等地，开展民族团结进步教育。通过参观考察、学习体验，引导学员深入感受民族民俗民风和历史文化熏陶，增强学员对伟大祖国的认同、对中华民族的认同、对中华文化的认同，强化国家意识和公民意识，深刻理解维护国家统一，坚持各民族共同团结奋斗、共同繁荣发展的重要意义，增强维护民族团结、维护国家统一、反对分裂的责任感和自觉性。2019年干部学院全年培训班次77期，累计12728人次，研学培训20期，涉及白山市8所学校，累计1981人次。', '省民委相关领导表示：“举办此次“全国民族团结进步教育基地”揭牌仪式，是为了让我们永远铭记那些为革命事业英勇献身和浴血奋战的先辈们，更好地继承和发扬他们追求和平、争取解放、不畏强权、不怕牺牲的斗争精神，传承少数民族人民听党话跟党走的红色基因，激励全省各族干部群众以实际行动将革命先辈奋斗追求的中华民族复兴伟业不断推向前进。', '传承是最好的纪念，发展是最好的告慰。我们要戮力同心，锐意进取，改革创新，不断铸牢中华民族共同体意识，弘扬汉族与少数民族同呼吸、共命运、心连心的优良传统，凝聚全市各族人民的磅礴力量，继承和发扬革命先辈的斗争精神、牺牲精神，把初心落在行动上，把使命担在肩膀上，为吉林高质量发展做出积极贡献”。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>53</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>张志军在市区调研时强调狠抓项目建设保障工业运行为高质量发展积蓄强大动能</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2018-05-09</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_317087.html</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['初夏的白山，绿意渐浓。5月8日，市委书记张志军来到市区重点项目和工业企业，就落实浙沪学习考察精神、“三抓”项目、工业经济运行情况进行调研。他强调，要认真落实浙沪学习考察精神，按照省“三抓”大会部署，抢抓施工建设的黄金期，大干快上推动项目建设；提供优质服务和要素支撑，全力以赴保障工业经济运行，为我市高质量、高效益发展集聚强大动能。', '项目建设是经济增长的重要引擎，扩大投资是转型升级的有效手段。我市按照“在谈项目抓签约、签约项目抓落地、落地项目抓推进”要求，实行全过程服务，一个个大项目、好项目落地生根、开花结果。为加快项目建设步伐，张志军先后深入浑江区特色啤酒小镇、河口老道洞景区、德馨安养综合体、鑫德文化街等项目地，进现场指挥督战，到一线破解难题，以实际行动推动项目早开工、早落地、早见效。张志军强调，各级、各部门要认真落实浙沪学习考察精神，按照省“三抓”大会部署，进一步增强责任感和紧迫感，咬定项目建设不放松，抢抓施工建设的黄金期，狠抓项目落地。要继续强化项目服务，靠前指挥，上门服务，落实“只跑一次”改革，强化资金保障，完善土地供给，推动项目尽快开工，迅速掀起建设热潮。', '当前，我市正处于转型升级重要时期和关键节点，抓好工业经济运行意义重大，张志军高度重视。5月7日，张志军召开专题会议，听取了情况汇报。此次调研张志军还来到吉林春柏药业、琦祥纸业，了解企业生产经营情况，推动工业经济健康平稳运行。他指出，要始终坚持发展第一要务，牢牢把握稳中求进工作总基调，落实高质量发展要求，深入分析当前形势，对工业运行中出现的新情况、新问题，深入开展调查研究，积极主动协调解决。要不断强化保障，为企业提供政策资金支持，积极帮助企业开拓市场，推动相关优惠政策落地，减轻企业负担，让企业轻装上阵、做优做强。要大力扶持实体经济，不断激发企业活力，针对企业生产经营中难题，按照一企一策原则，主动作为、实行包保，落实责任、逐一破解，推动工业企业良好运行。企业要以前瞻性思维，实施招商引资，积极联大靠强，引入战略投资者，扩大生产规模，拓宽销售网络，提升品牌影响。', '市委常委、市委秘书长费洪海，副市长刘凤春，市委办、浑江区、发改委、工信局主要负责同志陪同调研。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>53</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>张宝琦同志率队到天津滨海新区学习考察</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2019-01-04</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>http://ccxq.gov.cn/xqyw/tpxw/201901/t20190104_2119360.html</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['为学习借鉴天津滨海新区发展经验，进一步加强对口合作，推进长春新区率先发展、创新发展和高质量发展，2019年新年伊始，长春市政协副主席、长春新区管委会主任张宝琦率队到天津滨海新区学习考察。', '1月2日上午，张宝琦一行首先来到科大讯飞智汇谷人工智能产业示范基地参观考察。科大讯飞智汇谷是科大讯飞与天津港保税区联合共建的“人工智能产业基地”，占地30亩、建筑面积3.1万平方米，采用政企合作、官助民办的创新模式，为京津冀区域智能科技及相关企业提供相关服务。截至2018年9月已入驻企业35家，年产值可达20亿元。张宝琦观看了智能语音切换产品演示，详细了解企业的成熟技术和产品在智慧教育、智慧医疗、智慧司法等领域的应用，以及促进产业集聚发展的有关情况。对于滨海新区引进这种战略性、引领性的人工智能技术，并为企业匹配建设资金、助力企业做大做强的做法非常赞赏。之后，张宝琦一行来到保税区欧洲贸易中心参观考察。保税区欧洲贸易中心兼具零售、批发、电商三重平台功能，汇集来自世界的优质进口商品，打造购物、休闲、郊游、摄影的绝佳平台。张宝琦详细了解了企业日常经营情况，以及企业对周边的辐射带动作用，对于这种具有特色的贸易平台在集聚人气、促进产业发展中的带动作用，表示应该加大引进和扶持力度。', '1月2日下午，张宝琦一行来到滨海新区规划展览馆、国家超级计算中心、东疆邮轮母港、保税区国际汽车城、自贸区港强商品产业园参观考察，了解滨海新区规划发展和重点功能性企业建设发展情况。每到一户企业，张宝琦都全面了解企业生产经营情况，与企业负责人深入交流。在自贸区港强商品产业园，张宝琦一行参观了冷链进口商品展示区和储藏区。港强商品产业园占地面积15万平方米，拥有多座检疫检验综合实验室，多条机检通道，多个现代化的冷库、恒温库、食品仓库，对接“一带一路”66个国家清真产品的进出口贸易及加工。当了解到港强商品产业园打造品牌优势，以品牌带动企业发展壮大时，张宝琦十分认同，表示品牌是企业的生命，长春新区的驻区企业也应当注重打造品牌，发挥品牌效应，以提高产品知名度和市场占有率。', '1月3日，张宝琦一行来到滨海新区文化商务中心，与滨海新区方面开展座谈交流。座谈会由滨海新区副区长、天津自贸区管委会专职副主任张忠东主持，滨海新区发改委、科技局、财政局、人社局等部门有关负责人介绍了相关情况。围绕民营经济发展、科技创新支撑、现代金融服务、人力资源保障等方面进行了深入交流。特别是在谈到借鉴自贸区发展经验时，张宝琦表示，长春新区要进一步解放思想，积极探索复制天津自贸区成功经验的有效路径，将自贸区制度创新的先进理念和政策，运用到长春新区加快构建对外开放新格局、提高外向型经济发展水平的实践之中，对标先进、积极而为，努力推进长春新区率先发展、创新发展、高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>53</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>抚松县抽水乡做强特色产业蹚出乡村振兴新路子</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2020-08-10</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>http://www.fusong.gov.cn/lyfs/mytc/202008/t20200810_624711.html</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['近年来，抚松县抽水乡以乡村振兴战略为抓手，按照“产业振兴”要求，紧扣农业增效、农民增收、农村繁荣目标，立足于当地资源禀赋，深化产业结构调整，大力发展“松水泉”牌玉米糁、速冻玉米、玉米面条、树莓罐头、树莓果汁、长白山猕猴桃等特色优势产业，扎实推进乡村振兴试验区创建工作。', '抽水乡地处长白山山脉，头道松花江东岸，属于吉林省黄金玉米带中的早熟区，玉米种植面积高达2.4万亩，但传统的玉米种植，耗费人力、收获期长、经济收益低，面对这些问题，如何打好“玉米”牌是近年来乡党委、政府的重点工作。', '抽水乡党委、政府立足当地实际，深挖地域优势，改变传统玉米种植品种，大力发展小粒红玉米种植。通过对上争、本级投、村列支等多种渠道于2018年对上争取资金50万元，完成180平方米SC标准化厂房建设，购置新型玉米糁加工生产设备，申请注册“松水泉”品牌商标，成立永泉农产品专业合作社，就这样抽水乡“松水泉”玉米糁应运而生。', '合作社立足于本地优势，选择优质地块，种植小粒红胶质玉米。与农户签订种植合同，采用有机种植模式，产品种植中严格控制农药喷洒量，大量使用有机肥料，田间管理中采用人工除草，确保“松水泉”特色玉米从种植到加工全过程绿色有机。这种“村集体+合作社+农户”的管理模式，带动全村46户村民实现每亩增收200余元，年收益约10万余元。', '初期，“松水泉”玉米糁市场反馈效果良好，发展前景广阔，为进一步扩大产业优势，2019年对上争取资金100万元，将闲置敬老院改造成经营性资产，64.66平方米冷库的建成积极地拓展了合作社的发展空间。', '为实现农民共同富裕，抽水乡党委、政府打破固式思维，积极推行“跨村联建”模式，以“联思想带观念、联组织带提升、联技能带致富、联产业带发展”的工作原则，强村带弱村形成系统经营管理方式，辐射带动抽水村、永泉村、碱场村合作联建，真正实现村村联建产业链条，在抽水村引进先进设备，建设速冻玉米加工生产线，建设200余平米冷库、速冻库，在碱场村选择沿江流域的优质地带建设种植基地与永泉农产品专业合作社合作经营，形成种植、加工、储存、销售为一体的村集体经济发展模式。2019年，速冻玉米项目带动三村68余户村民增收致富，实现年收益20万余元。', '乡党委、政府高度重视农民专业合作的发展，始终把发展农民专业合作社作为实现乡村振兴的一项战略举措，在打造“松水泉”玉米糁产品品牌的基础上，构建农民增收长效机制的突破点，扩大树莓、长白山猕猴桃种植面积，现可达1000余亩，新上树莓玉米面条、人参玉米面条、树莓罐头、树莓果汁等新产品种类。目前，永泉农产品专业合作社产品种类达十余种，玉米衍生产品从单一走向多元，树莓产品已形成相应规模，产品种类丰富，增强了农民发展产业，扩大经营规模的信心。', '抽水乡坚持以市场为导向，优化产业结构，以玉米种植为基础，探索产业新模式。多次联合村两委成员域外参观考察学习，解除农民的种种顾虑，使之充分认识到合作社的好处，通过多种形式的宣传，激发农民加入合作社、领办合作社的信心,为合作社的进一步发展营造了浓厚氛围。凝聚各村特色种植力量，发挥“头雁”引领示范作用，对回收的有机玉米、树莓、长白山猕猴桃进行现代化加工，开发玉米面条、树莓玉米面条新产品。实现加工、包装、存贮、销售一条龙，蹚出一条适应现代化农业发展、市场需求和乡村振兴共融的路子。据悉，2020年预计收益30万元，实现逐年稳步提升。', '现在“松水泉”永泉农产品专业合作社由初期单纯向村民提供技术，信息服务，逐步延伸到储运、加工、销售等各个环节，村党支部积极联系机关食堂、各大超市和销售企业，同时产品入驻各电商平台，实现线上线下同步销售，积极参加各种农产品展会，拓宽销售渠道，最终实现种植体验、参观生产、产品销售为一体的经营模式。', '产业振兴先锋开路，乡村振兴蹄疾步稳。抽水乡将坚持把特色产业和乡村振兴战略有机衔接起来，构筑特色农业新优势，谱写乡村振兴试验区这篇大文章，催生新动力、实现新跨越，把乡村振兴“一盘棋”下活。（通讯员：王竞晗 王可慧）']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>53</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>政协抚松县第十一届委员会第一次会议在县行政中心隆重召开</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2021-11-25</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>http://www.fusong.gov.cn/xwzx/tplb/202111/t20211125_701070.html</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['11月23日上午，中国人民政治协商会议抚松县第十一届委员会第一次会议在县行政中心隆重召开。来自全县各界的政协委员们肩负责任与使命，齐聚一堂，共商大计，为我县经济社会发展贡献智慧和力量。', '政协抚松县第十一届委员会第一次会议应出席政协委员180人，实际到会166人，符合法定开会人数。', '出席今天大会的有：县委、县人大、县政府、县法院、检察院、人武部、水资源管理局、野山参管理局等副县级以上领导同志，往届部分县政协主席及军休干部代表。', '在主席台前排就座的县领导有：曾钒胜、李铁刚、王福源、郑强、王中钺、郑永恒、孙海韬、李迎鑫、杜铁军、孙宝伟、刘涛、修铭。', '要强化政治引领，增进思想共识。始终把坚持党的领导作为政协工作最根本的政治规矩；坚持用习近平新时代中国特色社会主义思想武装头脑、指导实践、推动工作；全面贯彻习近平总书记关于加强和改进人民政协工作的重要思想，团结引领参加人民政协的各党派团体和各族各界人士，不断增强对中国共产党和中国特色社会主义的政治认同、思想认同、理论认同、情感认同，在事关旗帜、道路、方向、目标、制度等根本问题上统一意志、统一步调、统一行动。', '要紧扣中心大局，精准建言献策。按照“同心同德干事业、凝心聚力促发展”的要求。主动对接县委、县政府中心工作，聚焦经济建设，把兴产业上项目作为我们共同的事业，密切关注、并积极参与全县重点产业发展、重点项目落实，在促进产业升级、绿色低碳发展等方面出谋划策。要围绕重点工作，深入开展调研视察、咨询论证和协商建言活动。充分发挥联系广泛的优势，为招商引资和聚才引智牵线搭桥、贡献力量。要坚持问题导向，瞄准改革发展中的热点、难点和制约性问题开展监督，推动工作取得实效。', '要发挥独特优势，凝聚发展合力。充分发挥政协组织包容各方、联系广泛的优势，在把握主流中形成共识，最大限度把不同党派、不同信仰、不同民族、不同界别的力量动员起来、凝聚起来。协助党委政府多做工作，凝聚强大合力。要强化政协委员学习，掌握党中央的大政方针，深入理解县委的工作思路和要求，引导各界人士积极参与我县重大决策部署讨论协商，让党委政府的决策和工作更加顺应民意，符合实际。', '要关注民生福祉，促进社会和谐稳定。充分发挥政协组织联系群众的桥梁和纽带作用。多走进基层、走进群众，成为畅通民意反映渠道的重要一环。要发扬以民为本、为民请命精神，围绕就业、就学、医疗等民生热点难点问题，千方百计为群众排忧解难。', '要强化自身建设，提升政协工作水平。县政协要适应社会主义民主政治建设新要求。树牢“一线”意识，强化实干担当，对标中央、省委、市委和县委要求，提升队伍素质，全面提高履职能力，着力打造一支“懂政协、会协商、善议政，守纪律、讲规矩、重品行”的政协委员队伍，培养一支“高素质、敢担当、善作为”的政协干部队伍。', '曾钒胜最后说：各位委员、同志们，新目标、新愿景令人鼓舞，新形势、新任务催人奋进，人民政协舞台广阔，大有可为。让我们更加紧密地团结在以习近平同志为核心的党中央周围，同心同德，开拓进取，为奋力打造高质量“两山”实践创新的抚松样板而努力奋斗。', '坚持强化政治引领，共同思想政治基础更加牢固。不断完善党组集体学习制度，共组织学习培训、讲座15期，专题学习46次，政协领导及干部参加各类培训400余人次。坚定正确方向，毫不动摇地坚持中国共产党的领导，积极引导各党派团体和各族各界人士，始终坚持中国共产党领导的多党合作和政治协商制度，巩固和发展最广泛的爱国统一战线。', '坚持聚焦主责主业，专门协商机构作用更加彰显。五年来，共向县委、县政府和有关部门报送各类调研报告24篇，围绕重点课题形成35份建言材料。积极开展专题协商、对口协商，探索创建协商议政微信平台，十届政协共收到委员提案528件，经审查整合后，立案458件。', '坚持贡献政协力量，服务中心大局效果更加明显。积极参与重点工作，20多条建议直接转化为相关部门的工作措施。开展优化营商环境专题民主监督，提出意见建议22条。全力助推脱贫攻坚，为定点帮扶的砬子河村及贫困户协调投入各类扶贫项目资金500余万元，累计筹措扶贫基金资金16万元。持续开展“助力脱贫攻坚，政协委员在行动”活动，捐款捐物价值25万余元。齐心合力抗击疫情，政协委员捐款捐物价值总计240余万元。', '坚持致力凝聚共识，大团结大联合氛围更加浓厚。深入开展协商议政活动，参与省市政协组织的各类协商活动30余次。深入开展县级政协系统联动，加强交流合作，积极学习考察，推介抚松。五年共收集、整理、编撰出版文史书籍65篇，总字数186万字，6部书籍被国家图书馆收藏。累计发表通讯、新闻和调研文章40余篇。《抚松政协》期刊等宣传阵地充分发挥作用。', '坚持突出强基固本，政协发展内生动力更加强劲。着力提高党建工作水平，充分发挥政协党组重要作用，强化委员队伍建设，完善委员履职工作规则和考核办法，全县14个乡镇和29个社区分别建立了“政协委员联络站”，为委员知情明政、建言献策、展示风采提供舞台。', '五年来，十届县政协继承优良传统，坚持开拓创新，主动适应人民政协面临的新形势新任务，研究新情况，解决新问题，不断深化对人民政协事业发展特点和规律的认识，在实践中积累了一定的经验，形成了一些新的认识和体会。只有坚持维护核心，政协工作才能更有为。只有坚持服务中心，政协工作才能更有位。只有坚持贴近民心，政协工作才会更有效。只有坚持凝聚人心，政协工作才会更有力。只有坚持不忘初心，政协工作才能更有序。', '郑强对县政协今后五年的工作提出了建议。今后五年，县政协工作的总体要求是：高举中国特色社会主义伟大旗帜，坚持以习近平新时代中国特色社会主义思想为指导，全面贯彻落实中共十九大和十九届历次全会精神，深入贯彻落实习近平总书记视察吉林时的重要讲话精神，认真学习领会县第十六次党代会决策部署，围绕县委提出的“生态文明建设的示范、‘两山’实践创新的样板、生态文化旅游的典范、乡村振兴的标兵、人民幸福生活的样本”奋斗目标，牢牢把握团结和民主两大主题，扎实履行政协职能，充分发挥专门协商机构作用，持续在建言资政和凝聚共识上双向发力，为奋力打造高质量“两山”实践创新的抚松样板贡献智慧力量。', '要筑牢思想政治根基，在提升政治站位上达到新高度。加强思想政治理论学习，突出抓好广大政协委员深入学习贯彻习近平新时代中国特色社会主义思想，学习《中国人民政治协商会议章程》，自觉把思想行动统一到中共中央和省市县委的决策部署上来。全面落实党对政协组织实施领导的制度规定，推进党的建设与政协履职深度融合。', '要倾力协商建言献策，在服务中心大局上展示新作为。准确把握“发挥人民政协专门协商机构作用”，紧紧围绕全局性、战略性问题进行深度协商，精准建言。围绕党政重视、群众关注、委员关心的议题深入调研广泛协商。围绕健康抚松建设、促进共同富裕、推进城乡治理、持续巩固疫情防控成果等议题开展协商座谈。围绕生态环保、安全生产、社会治理等发展大事，开展专题协商议政，让广大委员将履职尽责融入到助推乡村振兴，服务大局工作中。', '要增强民主监督实效，在推动工作落实上彰显新担当。深入贯彻落实《中共中央关于加强和改进人民政协民主监督工作的意见》，围绕县委、县政府重大决策部署、群众反映强烈和社会普遍关注的问题，开展有针对性的民主监督活动。聚焦巩固脱贫攻坚成果与乡村振兴有效衔接、绿色转型发展等重点工作，开展专题监督、评议监督。以提案工作为抓手，完善协商成果的交办、受理、反馈、督办、通报机制，助力部门各项工作的开展。', '要增进大团结大联合，在广泛凝聚共识上迈出新步伐。注重与党政部门、政协各参加单位常联系、勤交流、多沟通，协助党委、政府开展工作。进一步加强同民主党派人士、工商联和无党派人士合作共事，支持其履职尽责、发挥作用。全面贯彻党的民族宗教工作方针、政策，加强同非公经济人士、新的社会阶层人士的联系，沟通思想，凝聚共识。拓展对外联谊交流渠道，加强兄弟县政协横向联系，广泛开展交流合作。加强与各级媒体的联系合作，传播好声音，展示新形象。', '要聚焦履职能力提高，在加强自身建设上取得新突破。不断加强委员和政协机关干部的学习教育培训，强化委员服务管理。建立完善协商民主向基层延伸工作平台，更好地服务群众、服务基层、服务发展。健全和完善委员联络机制，创新委员活动方式。紧紧围绕政治建设、思想建设、组织建设、作风建设、纪律建设、制度建设，把“高标准严要求”落实到政协机关建设中，不断提高政协服务质量，推进政协整体工作进一步提质增效。', '郑强最后说：各位委员，重任在肩担使命，砥砺奋进正当时。让我们更加紧密地团结在以习近平同志为核心的中共中央周围，在中共抚松县委的坚强领导下，围绕中心，履职尽责，为奋力打造高质量“两山”实践创新的抚松样板做出新的更大贡献。', '会议书面审阅《抚松县2021年国民经济和社会发展执行情况与2022年国民经济和社会发展计划（草案）的报告》《抚松县2021年财政预算执行情况与2022年财政预算（草案）的报告》《抚松县人民法院工作报告》和《抚松县人民检察院工作报告》。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>53</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>靖宇县国土局带队到吉林省舒兰市就光伏发电考察学习</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2017-06-07</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://zrzy.cbs.gov.cn/xwzx/dtxx/201805/t20180530_329452.html</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['白山市自然资源局职能配置 第一条 根据《中共吉林省委办公厅吉林省人民政府办公厅关于印发〈白山市机构改革方案〉的通知》（吉厅字〔2018)113号），...[详细]', '2017年6月5日由国土局副局长林丹辉带队会同靖宇县能源局副局长王铁等一行七人到吉林省舒兰市就光伏发电用地审批方面进行了考察学习，在考察期间舒兰市国土局向我们介绍了在用地方面的先进经验及操作程序等，又同普惠新能源公司工作人员对光伏用地现场进行了参观考察，其主要用地形式大致分为四种，一是得用建设用地进行纯粹的光伏建设，二是采取住户屋顶村广场等地建设，三是光伏+养殖，四是光伏+种植等形式进行建设。', '通过这次考察给我们极大的启示，此项目的成功主要有上级政府的支持和主要领导的重视，多方形成合力才能使项目真正得到落实。我局也将通过这次考察学习，在用地方面开拓思路，采取多种－审批形式支持我县光伏发电项目建设，使项目能早日建成，发挥其作用。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>53</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>解放思想推动浑江绿色转型全面振兴考察吴兴后书记带领总结经验继往开来</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2018-11-09</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://www.hunjiang.gov.cn/zw/hjyw/201811/t20181109_374927.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['11月6日，五楼人大常委会会议室座谈交流的气氛热烈，区领导胡波、姜慧闻、张长胜及各镇街书记参加赴吴兴考察交流经验座谈会，交流经验，共享成果。', '书记说，习近平总书记此次视察东北，不仅体现了党中央对东北的高度重视、对东北人民的亲切关怀，还代表党中央再度明确并进一步强化了东北在国家发展全局中至关重要的战略地位，极大地提振了吉林干部群众改革发展的信心和士气。浑江区也要借此机会，对标吴兴，找出短板，发挥我们独有的优势，抢抓机遇，勇于担当，为浑江区的绿色转型奠定坚实的基础。', '各镇街书记也纷纷结合自身实际与各项工作、班子队伍建设等方面，畅谈了考察交流心得和体会。', '大家有信心的说，会坚定不移地解放思想，在提高思想凝聚力上下工夫，借由参加外出考察学习的机会，进一步拓宽视野、开阔思路、提升本领，增强加快发展的危机感、紧迫感和责任感，今后会认真做好各项工作，为我区的建设贡献自己的力量。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>53</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>白山市首家特色产业农合联揭牌启动</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2019-07-22</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bmdt/201907/t20190722_424481.html</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['白山市江源区供销合作社与国家级龙头企业白山市林源春生态科技有限公司合作，吸纳会员单位9家，会员500余人，成立白山市金源浆果农业科技“农合联”。这是白山市供销合作社综合改革工作的新成果，是助力地方特色优势产业发展的新平台，是创新为农服务方式的新载体，标志着白山市产业“农合联”建设工作迈出了关键的第一步，对于加快供销合作事业发展，加快实现乡村振兴，具有十分重要的意义。', '白山市农民合作经济组织规模小、实力弱，与农村经济的发展要求不相适应，尽快提高农民的组织化程度已成为各级政府、涉农部门工作的当务之急。白山市供销合作社在“农合联”的组建过程中，为了找准符合自身发展的路子，探索了多种类型的“农合联”组建模式，分别到浙江湖州、吉林、四平、辽源等地学习考察了“农合联”的组建和运营方式。通过考察发现，各地的“农合联”组建情况和运行情况各不相同，白山市社最终形成了组建特色产业“农合联”的思路。', '白山地区产业“农合联”还在起步期，还需要进一步完善和理顺。下一步，白山市社将围绕地方特色产业，在天麻、蜂蜜、人参等产业上做文章，通过产权联结、业务合作、项目扶持、服务带动等方式，规范提升农民专业合作社、农业龙头企业、农村生产经营大户等农合经济组织水平，提升为农服务能力，打好供销合作社综合改革攻坚战。（白山市供销合作社 张馨予）']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>53</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>市委常委副市长曾钒胜带领考察组赴四平市考察学习解决无籍房问题工作经验</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2018-09-11</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>http://www.linjiang.gov.cn/sy/ljyw/201809/t20180911_358854.html</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['从民生角度出发，为较好地解决我市“无籍房”问题，市委、市政府高度重视。9月7日，市委常委、副市长曾钒胜、副市长王喜成，带领由市政府办、市国土局、市住建局、市公安局和市税务局等部门组成的考察组，赴四平市考察学习破解“无籍房”问题工作经验。', '四平市政府自2017年8月成立解决“无籍房”问题领导小组，通过总结的“精减”办理、“并联”办理和“集中”办理的工作思路；严格坚持“依法依规”、“全力追缴所欠税费、维护公共利益”、“最大限度保护群众利益”、“简化容缺办理”和“先易后难”的 “五大原则”，靶向给力，切实解决群众难题。截止目前，已有五万余户正在办理房照，一万余户已经拿到了房照，受到了群众的高度赞扬。', '曾钒胜指出，“无籍房”问题是涉及群众利益的大事，办理不了产权证，群众房产交易难、继承难、融资难、改善居住环境难，近年来不断引发上访问题。该问题长期存在严重影响群众利益，影响房地产领域的正常秩序，也影响党委、政府的形象。考察组要通过此次学习，总结先进经验，结合我市实际，研究对策和措施，加速推进解决我市“无籍房”问题。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>53</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>年靖宇县事业单位公开招聘高层次和急需紧缺人才公告</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2021-10-19</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>http://jyx.cbs.gov.cn/wzsy/gsgg/202110/t20211019_696860.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['为加快推进“人才强县”战略，优化事业单位人才队伍结构，提升公共服务质量和水平，根据《事业单位人事管理条例》、《关于进一步放活事业单位人才交流的意见（试行）》（吉人社联字〔2016〕45号）、《关于全面做好2021年全省事业单位公开招聘工作的通知》（吉人社联字〔2021〕1号）、《吉林省事业单位公开招聘“八种类型”组织形式指导意见》、《教育部办公厅等五部门关于进一步做好非全日制研究生就业工作的通知》（教研厅函〔2019〕1号）、《靖宇县“矿泉城英才”引进计划工作方案》（靖办发〔2020〕54号）等文件精神，公开招聘一批高层次和急需紧缺人才。现将有关事宜公告如下：', '为加快推进“人才强县”战略，优化事业单位人才队伍结构，提升公共服务质量和水平，根据《事业单位人事管理条例》、《关于进一步放活事业单位人才交流的意见（试行）》', '战略，优化事业单位人才队伍结构，提升公共服务质量和水平，根据《事业单位人事管理条例》、《关于进一步放活事业单位人才交流的意见（试行）》', '、《吉林省事业单位公开招聘“八种类型”组织形式指导意见》、《教育部办公厅等五部门关于进一步做好非全日制研究生就业工作的通知》（教研厅函〔2019〕1号）、《靖宇县“矿泉城英才”引进计划工作方案》（靖办发〔2020〕54号）等文件精神，', '组织形式指导意见》、《教育部办公厅等五部门关于进一步做好非全日制研究生就业工作的通知》（教研厅函〔', '本次计划招聘工作人员46人。具体招聘岗位详见《2021年靖宇县事业单位公开招聘高层次和急需紧缺人才岗位及其资格条件一览表》（附件1）。', '。具体招聘岗位详见《2021年靖宇县事业单位公开招聘高层次和急需紧缺人才岗位及其资格条件一览表》（附件1）。', '符合岗位所需要的年龄、学历、专业等条件，详见《2021年靖宇县事业单位公开招聘高层次和急需紧缺人才岗位及其资格条件一览表》（附件1）。', '1.曾因犯罪受过刑事处罚的人员和曾被开除公职的人员，受到党纪政纪处分期限未满或者正在接受纪律审查的人员，处于刑事处罚期间或者正在接受司法调查尚未作出结论的人员。', '1.曾因犯罪受过刑事处罚的人员和曾被开除公职的人员，受到党纪政纪处分期限未满或者正在接受纪律审查的人员，处于刑事处罚期间或者正在接受司法调查尚未', '曾因犯罪受过刑事处罚的人员和曾被开除公职的人员，受到党纪政纪处分期限未满或者正在接受纪律审查的人员，处于刑事处罚期间或者正在接受司法调查尚未', '2.在公务员招考和事业单位公开招聘中被考试组织部门认定有严重违纪违规行为并在禁考期限内的人员。', '在公务员招考和事业单位公开招聘中被考试组织部门认定有严重违纪违规行为并在禁考期限内的人员。', '6.“三支一扶”“大学生村官”等基层服务项目人员及公务员招录、事业单位招聘等未达到现工作地、单位或岗位要求最低服务年限的人员。', '等基层服务项目人员及公务员招录、事业单位招聘等未达到现工作地、单位或岗位要求最低服务年限的人员。', '事业单位公开招聘工作所有参与方以及可能影响公正的特定关系人需要回避的，参照《事业单位人事管理回避规定》执行。', '报名人员须认真填写《2021年靖宇县事业单位公开招聘高层次和急需紧缺人才报名登记表》（附件2），连同本人身份证、毕业证、学位证、资格证、学信网学历验证报告等有关材料一并通过扫描发送电子邮箱的方式报名。在职人员报考的，须提供所在单位同意报考证明。报名人员应如实提交有关信息和材料，凡本人填写信息不真实、不完整和填写错误的责任自负。', '报名人员须认真填写《2021年靖宇县事业单位公开招聘高层次和急需紧缺人才报名登记表》（附件', '），连同本人身份证、毕业证、学位证、资格证、学信网学历验证报告等有关材料一并通过扫描发送电子邮箱的方式报名。在职人员报考的，须提供所在单位同意报考证明。报名人员应如实提交有关信息和材料，凡本人填写信息不真实、不完整和填写错误的责任自负。', '由招聘单位及其主管部门依据招聘岗位设置的条件负责进行资格审查。资格审查贯穿招聘工作全过程，在任何环节，发现应聘人员不符合招聘岗位及资格条件要求或弄虚作假骗取应聘资格的，均取消应聘资格。', '4.考生考试有作弊行为的，取消考试资格；工作人员组织或参与考试作弊的，一经查实交有关部门根据有关规定严肃处理。', '考生考试有作弊行为的，取消考试资格；工作人员组织或参与考试作弊的，一经查实交有关部门根据有关规定严肃处理。', '根据《吉林省事业单位公开招聘“八种类型”组织形式指导意见》，本次考试采取免笔试直接面试的方式进行，面试在切实做好疫情防控工作的同时，由中共靖宇县委组织部和靖宇县人力资源和社会保障局统一组织实施。面试实行百分制，当场打分，满分100分，及格线为60分。计算考生成绩时，保留小数点后两位。面试具体时间、地点和采取的面试方式待报名结束后由招聘单位或其主管部门另行通知。', '组织形式指导意见》，本次考试采取免笔试直接面试的方式进行，面试在切实做好疫情防控工作的同时，由中共靖宇县委组织部和靖宇县人力资源和社会保障局统一组织实施。面试实行百分制，当场打分，满分', '分。计算考生成绩时，保留小数点后两位。面试具体时间、地点和采取的面试方式待报名结束后由招聘单位或其主管部门另行通知。', '本公告同一岗位报名人数超过一个工作日面试人数最大值（一般为40人）时，视情况对报考该岗位考生进行两轮面试或加试等方式确定最终面试资格人选。进行两轮面试或加试的岗位，最终面试资格人选根据首轮每组面试或加试成绩从高分到低分按招聘岗位人数1:5的比例确定。取得面试资格的人选按规定程序参加最终面试，其首轮面试或加试成绩不作为总成绩计算权重，考生成绩以最终面试成绩为准。', '时，视情况对报考该岗位考生进行两轮面试或加试等方式确定最终面试资格人选。进行两轮面试或加试的岗位，最终面试资格人选根据首轮每组面试或加试成绩从高分到低分按招聘岗位人数1:5的比例确定。取得面试资格的人选按规定程序参加最终面试，其首轮面试或加试成绩不作为总成绩计算权重，考生成绩以最终面试成绩为准。', '时，视情况对报考该岗位考生进行两轮面试或加试等方式确定最终面试资格人选。进行两轮面试或加试的岗位，最终面试资格人选根据首轮每组面试或加试成绩从高分到低分按招聘岗位人数', '的比例确定。取得面试资格的人选按规定程序参加最终面试，其首轮面试或加试成绩不作为总成绩计算权重，考生成绩以最终面试成绩为准。', '面试结束后，在考试总成绩达到及格线以上的人员中，从高分到低分按招聘岗位人数1:1的比例确定参加体检人选。如考生考试总成绩相同的，按国家和我省有关规定符合优先聘用条件的优先聘用，没有符合优先聘用条件的，采取加试的方式确定人选。体检工作由组织、人社部门统一组织在指定医院进行。体检参照修订后的《公务员录用体检通用标准（试行）》，并结合事业单位实际用人需求情况确定。', '的比例确定参加体检人选。如考生考试总成绩相同的，按国家和我省有关规定符合优先聘用条件的优先聘用，没有符合优先聘用条件的，采取加试的方式确定人选。体检工作由组织、人社部门统一组织在指定医院进行。体检参照修订后的《公务员录用体检通用标准（试行）》，并结合事业单位实际用人需求情况确定。', '体检合格的，由招聘单位主管部门对其思想政治表现、道德品质、业务能力、工作实绩等情况进行考察。在体检过程中弄虚作假、隐瞒重要病史等导致体检结果不实的或考察不合格及体检考察期间自动放弃的，取消其拟聘人选资格，在报考同一岗位总成绩达到及格线以上的人员中，从高分到低分依次递补。', '经体检与考察合格的，确定为拟聘用人选，在靖宇县人民政府网站公示，公示期为7个工作日。', '公示期满无异议的，或反映有问题但经核实不影响聘用的按程序办理相关入职手续，签订聘用合同。', '根据《靖宇县引进人才激励与管理办法（试行）》（靖办发〔2020〕53号），其中靖宇县事业单位公开招聘的高层次和急需紧缺人才与用人单位签订5年服务期合同的，对应享受以下待遇：', '根据《靖宇县引进人才激励与管理办法（试行）》（靖办发〔2020〕53号），其中靖宇县事业单位公开招聘的高层次和急需紧缺人才与用人单位签订', '1.择优提拔。服务年限满3年且年度考核结果均为优秀等次的，在提拔使用、上级机关遴选、挂职锻炼、外出考察学习等方面优先考虑；作出突出贡献或取得重大成就的，同等条件优先提拔使用；符合条件的可择优调任到公务员岗位。', '年且年度考核结果均为优秀等次的，在提拔使用、上级机关遴选、挂职锻炼、外出考察学习等方面优先考虑；', '突出贡献或取得重大成就的，同等条件优先提拔使用；符合条件的可择优调任到公务员岗位。', '2.给予生活补贴。聘用的博士研究生给予12万元生活补贴，原“985”“211”工程院校硕士研究生给予10万元生活补贴，急需紧缺专业的普通院校硕士研究生给予8万元生活补贴，原“985”“211”工程院校全日制本科毕业生给予6万元生活补贴。以上生活补贴为5年服务期内补贴总金额，自签订聘用合同之日起每工作满一年发放一次，5年内发放完毕。', '3.给予住房补贴。5年服务期内，对聘用的博士研究生给予每月1000元的住房补贴，对聘用的原“985”“211”工程院校硕士研究生给予每月800元的住房补贴，对聘用的普通高校毕业的硕士研究生给予每月600元的住房补贴，对聘用的原“985”“211”工程院校全日制本科毕业生给予每月400元的住房补贴，每工作满一年发放一次。5年服务期内以本人身份在靖宇购房的，5年服务期满后凭房产证或购房合同一次性给予3-12万元的购房补贴。', '4.放宽职级职称政策。按照《2021年靖宇县事业单位公开招聘高层次和急需紧缺人才岗位及其资格条件一览表》（附件1）中岗位条件要求，聘用管理岗位的硕士研究生分别按八级职员核定工资待遇。聘用专业技术岗位的，按照取得的相应职称聘任（可超岗聘任）。暂时没有职称的，获得硕士学位的可先行聘用在专业技术十一级岗位。', '4.放宽职级职称政策。按照《2021年靖宇县事业单位公开招聘高层次和急需紧缺人才岗位及其资格条件一览表》', '究生分别按八级职员核定工资待遇。聘用专业技术岗位的，按照取得的相应职称聘任（可超岗聘任）。暂时没有职称的，获得硕士学位的可先行聘用在专业技术十一级岗位。', '此次公开招聘信息发布网站为靖宇县人民政府网站（http://jyx.cbs.gov.cn/）及中共靖宇县委组织部微信公众号“靖宇组工”，有关公开招聘的信息及相关事项均通过网站进行发布，请注意查询。', '按照统筹推进疫情防控工作有关要求，拟参加本次招聘的考生在考试环节须携带《2021年靖宇县事业单位公开招聘高层次和急需紧缺人才考生健康管理信息承诺书》（附件3），其他防疫要求详见《准考证》。', '附件1：2021年靖宇县事业单位公开招聘高层次和急需紧缺人才岗位及其资格条件一览表', '附件3：2021年靖宇县事业单位公开招聘高层次和急需紧缺人才考生健康管理信息承诺书']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>53</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>众科玫瑰的发展历程</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2018-11-20</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>http://www.hunjiang.gov.cn/zw/gsms/201811/t20181120_378289.html</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['近日，白山市宣传部、浑江区宣传部领导协同吉林省电视台、白山市电视台、长白山日报记者采访白山市浑江区六道江镇众科玫瑰种植专业合作社创始人：程邵军。', '从2010年开始，他北至黑龙江，南至云南等地，通过多方面考察学习，发现鲜切花市场前景广阔，尤其玫瑰花供不应求，具有销量大、产值高的独特优势。2013年开始创业，在六道江镇创立了白山市众科玫瑰种植专业合作社，承包了8栋大棚，开始了种植与销售。', '合作社就业带动能力不断增强。经过4年的发展，合作社从8名就业人员增加到现在的50余人，其中女性41人，残疾人3人，贫困户2户。预计到2019年，合作社可带动就业人员70余人。合作社每年都对有就业意向的人进行免费岗前培训3次，每周对基地已录用人员进行考核培训，使他们能够胜任工作岗位。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>53</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>张宝琦同志率队到陕西西咸新区学习考察</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2019-01-25</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>http://ccxq.gov.cn/xqyw/tpxw/201901/t20190125_2119367.html</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['为学习借鉴外地新区先进经验，精心谋划长春新区2019年及今后一个时期的发展，探索推动高质量发展的新路径，在加快对外开放、壮大实体经济、强化科技创新、增强人才支撑、发展现代金融、推进体制机制创新等方面寻求突破性举措，1月22日至24日，长春市政协副主席、长春新区管委会主任张宝琦率队到陕西西咸新区学习考察。', '1月23日上午，张宝琦一行在西咸新区管委会副主任亢振峰的陪同下，首先来到西咸新区秦汉新城新丝路文化创意产业基地和中译语通科技有限公司参观考察。秦汉新丝路文化创意产业基地是西北首个文化产业云平台，于2016年3月正式上线运营，主要提供云计算以及虚拟招商和互动展示等数字媒体服务；中译语通科技股份有限公司是全球领先的大数据和人工智能企业，主要为国际性大会及大型国有企业集团、外向型企业提供跨语言大数据服务。张宝琦详细了解企业的技术成熟度和产品的市场应用情况，对企业的战略前瞻性、引领性和发展的巨大潜力和优势给予高度评价和赞赏。随后，张宝琦一行参观了西咸新区规划展馆，并召开座谈会听取了西咸新区经济社会发展情况介绍，与会同志进行了深入交流与讨论。张宝琦就西咸新区创新城市发展方式的战略定位、厅级建制的管理体制机制、重大项目扶持政策情况以及招商机构的设置等重点内容进行了详细了解，认为西咸新区的发展理念清晰、思想解放程度高、体制机制灵活、发展优势明显，有很多好的做法和经验值得长春新区学习借鉴。', '1月23日下午，张宝琦一行来到西咸新区沣西新城的科技创新港、西工大翱翔小镇和沣东新城的中俄丝路创新园、腾讯众创空间、自贸产业园参观考察，了解重点功能性项目、科技孵化器、国际合作园区及自贸区建设发展情况。每到一个考察点，张宝琦都详细听取项目规划背景、战略定位、发展前景及建设进度情况的介绍，就发展模式、资金保障、土地供应、政策扶持等关键性问题，与项目负责人进行深入交流。在考察完各项目建设情况后，张宝琦对西咸新区高度重视并充分利用本地高校优势、科技优势、人才优势、资源优势、区位优势的做法十分认同，表示本地资源要素优势是推动区域发展的原动力，是难得的宝贵资源和财富，应该充分利用好，并把其转化为经济发展优势，打造成区域特色品牌，长春新区的各种资源要素优势也很明显，应在这方面下更大功夫。', '1月24日上午，张宝琦一行来到西安市渭南国家新材料高新技术产业化基地进行考察，先后详细参观了先进装备制造3D打印设备、产品及实验室，在座谈会上认真听取了项目建设背景、技术研发、产品应用及发展前景的情况介绍，并就项目建设的合作模式、需要的扶持政策、市场开发及技术人才支撑等重点问题进行了详细交流。座谈交流后，张宝琦指出，3D打印项目具有前瞻性、引领性和示范性，与长春发达的行走业具有很强的关联性，长春不仅有雄厚的产业基础、科技支持和人才保障，更有有力的政策扶持和一流的营商环境，希望下一步尽快对接洽谈、务实推进、抓紧落位。']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>53</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>市农委培训创业致富带头人推进精准扶贫</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2018-12-10</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201812/t20181210_384215.html</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['为做好“精准扶贫、精准脱贫”工作，充分发挥创业致富带头人带动脱贫的积极作用，12月5日，由市农委主办的白山地区贫困村创业致富带头人培训班在长白山职业技术学院开班，来自全市75个贫困村的创业致富带头人参加培训。', '本次培训以培育产业扶贫技术人才、农村专业合作社管理人才等“领军人才”为主要方向，重点从全市75个贫困村推荐具有领办村级产业项目实力、有意愿履行带动贫困人口脱贫致富责任的“村两委”成员、村级后备干部、专业合作社负责人参加培训。培训活动持续5天。期间，来自市农委、中国建设银行白山分行、农科站等单位的专业人员，将从新型职业农民素质提升、农资金融政策等方面，向学员系统讲解现代农业相关知识，帮助他们理解掌握未来新型农业发展趋势及管理方法，还将组织学员到辽源市东辽县朝阳村进行实地考察，学习该村带头致富的成功经验。', '近年来，市农委始终将打好脱贫攻坚战、实施乡村振兴战略作为一项重要工作抓好抓实，致力产业扶贫各项政策及农产品种养知识等相关内容的普及推广，积极推进全市农业农村发展，助力贫困户增收脱贫。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>53</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>脱贫攻坚板石街道召开农村经济发展工作会议</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2019-02-14</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>http://www.hunjiang.gov.cn/zw/hjyw/201902/t20190219_392509.html</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['为认真贯彻落实习近平新时代中国特色社会主义思想和党的十九大精神，推动村级集体经济不断发展壮大，实施乡村振兴，努力实现打赢脱贫攻坚战，板石街道召开农村经济发展工作会议，研究发展村集体经济，努力实现脱贫攻坚,街道党工委班子成员、相关站办所工作人员及所辖各村书记参加了此次会议。', '会上，街道办事处主任首先传达了《中共吉林省委组织部、吉林省财政厅、吉林省农业农村厅、吉林省扶贫开发办公室印发《关于发挥党组织作用不断壮大村级集体经济的意见》的文件精神。随后，板石街道党工委书记及班子成员与辖区四个村书记针对四个村的具体实际，就落实文件精神，切实研究了各村适宜发展的村集体项目。经初步研究，拟定在新兴村发展华林公司白云石开采及深加工项目、长白山特产加工园项目和一社赵家沟流域沟系打造成集农产品种植、农业观光采摘、农家乐乡村旅游、垂钓、休闲养老为一体的经济综合开发项目；在吊水壶村发展石英砂矿产品加工产业园项目、冬季滑雪场项目和吊水壶、珍珠门历史和自然景观旅游项目；在金英村发展砖厂集体项目、山泉水产品生产项目、农产品加工项目；在上青村发展农产品加工项目，并与新兴村合作黑果花腺楸项目等。', '最后，会议要求：各村要组织相关人员对拟定项目的技术、市场进行专项调研； 要积极走出去，到经济发达地区进行考察学习，引进先进的技术和管理经验； 组织好相关人员的技能培训，确保拟定的项目能够尽快上马，并切切实实地发展起来，努力打赢脱贫攻坚战，加快实现板石地区乡村经济全面振兴。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>53</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>浑江好人最美扶贫干部事迹选登旱沟驻村工作队尹健光</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2019-10-17</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>http://www.hunjiang.gov.cn/zw/hjyw/201910/t20191017_443498.html</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['驻村以来，尹健光坚定不移地贯彻落实中央、省、市、区和镇政府的决策部署，在深入摸排、认真分析研究的基础上，按照“扶贫到户、精准到人”的原则，切实瞄准扶贫对象，采取精准扶贫措施，不断提高精准扶贫工作实效，努力实现旱沟村扶贫工作目标。尹健光驻旱沟工作队中主要负责扶贫文件档案整理归档工作，工作队日常签到，会议记录，工作日志，台账采购等工作。在主要工作职责外，他一是辅助第一书记组织好学习，组织驻村工作队员、村党员、村民代表及村民，不拘时间地点，讲党课、开展各项学习，不断提高党性修养和责任意识。二是开展活动，同各帮扶部门对接，灵活开展各种学习会、干净人家表彰会、省市党校培训班、旱沟村人居环境集中整治日、（靖宇、长白、河南）外出学习考察等活动，把脱贫攻坚的贫困户档案及日常工作档案等各项工作细节了然于胸，为旱沟村驻村工作队的工作及贫困村退出工作树起坚硬的后盾。', '在驻村工作的这段时间里，他与其它工作队成员积极组织召开了干净人家表彰大会、农民趣味运动会、驻村工作队与村民心连心篝火晚会、秧歌队、露天电影等丰富多彩的活动，在这些活动中均穿插安排了扶贫政策和扶贫产业项目解答、抢答有礼环节，即丰富了百姓的业余生活又提高了宣传工作的效率，百姓热情高涨。开展的“我脱贫我光荣”、“悬挂脱贫光荣户门牌”、“应知应会扶贫政策问答”、扫黑除恶、“最美庭院”、“致富带头人”、“旱沟村人居环境综合整治日”等活动，即帮助百姓树立了脱贫光荣的思想意识，又提升了贫困户建设美丽乡村的责任意识。', '在队长的带领下，他们积极主动联系区委、区政府等相关领导以及交通局、住建局、民宗局、发改局、财政局、旅文新局、水利局、农业农村局等相关部门，多方筹措资金，实现了全村亮化，安装太阳能路灯40盏，解决了村民夜间出行难的问题；建文化广场1000平方米，购置健身器材，安装文化设施，极大的丰富了村民的文化生活；改建沥青路、更换琉璃瓦；砌围墙、修边沟；建水源、修管路；栽苗木、修河堤；如今的旱沟村基础设施齐全，村容村貌焕然一新。', '在产业项目上，通过协调资金修主路、开展培训传技能，尽可能的解决产业项目进驻旱沟村的“后顾之忧”。现如今生态黑毛猪养殖、肉牛养殖、白鹅养殖、灵芝种植和光伏发电等脱贫项目，已步入正轨并成效显著，这些项目安置旱沟村闲置劳动力达90余人，每年为村集体增收9.5万元，带动64户、126人增收脱贫，仅光伏发电项目每年就能为贫困户每户增收3000余元。枫沐包装饮用水厂、生态黑毛猪养殖二期、蒲公英茶厂等项目下半年将陆续投产运营，抗联英雄卢松岩老人红色旅游、民宿旅游等项目已提升上工作日程。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>53</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>成为对口合作的先行者和开路先锋市委常委长春新区党工委书记孙亚明率团赴天津滨海新区学习考察</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2016-12-02</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>http://ccxq.gov.cn/xqyw/xqdt/201612/t20161202_2115799.html</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['成为对口合作的“先行者”和“开路先锋”市委常委、长春新区党工委书记孙亚明率团赴天津滨海新区学习考察-长春新区管理委员会', '成为对口合作的“先行者”和“开路先锋” 市委常委、长春新区党工委书记孙亚明率团赴天津滨海新区学习考察', '11月16日，国务院正式出台《关于深入推进实施新一轮东北振兴战略加快推动东北地区经济企稳向好若干重要措施的意见》，要求东北三省四市与东部部分省市建立对口合作机制。其中，长春市与天津市开展对口合作。29日，省委常委、长春市委书记王君正率队在天津滨海新区学习考察时要求，长春新区要抓紧与滨海新区对接学习，将简政放权的好经验、好做法尽快“移植”到长春，以点带面，争取在全市推广。此次长春新区考察团赴天津滨海新区学习考察，是落实长春市工作部署的具体举措，同时也开启了长春新区与滨海新区对口合作的新契机。', '孙亚明一行考察了滨海新区天津港太平洋国际集装箱码头、滨海建投集团、国家动漫产业园、中新生态城第一社区服务中心、空客Ａ320天津总装线和欧洲贸易中心。并在考察期间就两地新区园区合作、投融资平台搭建、行政审批制度改革、新型生态社区建设、动漫产业发展、贸易中心引进等工作进行了广泛交流。', '孙亚明表示，长春新区将深入学习滨海新区在落实简政放权、创业创新、行政管理、社会管理等方面好的经验做法和先进发展理念，并“移植”“嫁接”“复制”到长春新区。全区上下将加倍努力，振奋精神，切实加快推进对口合作的深度和广度，各项对接工作力争在年底前取得实效。长春新区各开发区、各相关部门将认真研究《关于深入推进实施新一轮东北振兴战略加快推动东北地区经济企稳向好若干重要举措的意见》，进一步细化措施、分解任务、制定方案，切实将对口合作工作做细、做实。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>53</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>天津滨海新区考察组一行到长春新区考察交流</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2018-12-24</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>http://ccxq.gov.cn/xqyw/xqdt/201812/t20181224_2116721.html</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['为落实《长春新区与天津滨海新区对口合作关系框架协议》，推动长春新区与天津滨海新区合作发展，12月21日，天津滨海新区副区长梁益铭一行到长春新区考察交流。', '考察组一行首先参观了长春新区规划展览馆。参观中，讲解员介绍了长春新区的区位优势、空间布局及重点项目建设进展等内容，增进了考察组一行对长春新区的认识和了解。参观后，梁益铭称赞展馆建设水平高，是展示长春新区形象的重要窗口和平台。', '随后，考察组一行实地参观了北湖科技园和长光卫星技术有限公司，深入了解企业发展状况。通过现场走访，考察组切实感受到了新区企业的快速发展和雄厚实力，为两区进一步开展深入合作奠定了良好基础。', '据悉，2016年11月16日，国务院正式出台《关于深入推进实施新一轮东北振兴战略加快推动东北地区经济企稳向好若干重要措施的意见》，要求东北三省四市与东部部分省市建立对口合作机制。其中，长春市与天津市开展对口合作。为落实长春市工作部署，2016年11月30日，长春新区考察团赴天津滨海新区进行学习考察，开启了长春新区与天津滨海新区对口合作。', '本次考察对接，切实增强了两区间的沟通交流，增进了了解互信，对推动两区进一步谋划共赢发展起到了有力的推动作用。今后，在双方团结协作的共同努力下，长春新区与天津滨海新区将充分发挥长春市与天津市对口合作“先行者”和“开路先锋”的示范引领作用，加快推进对口合作的深度和广度，在振兴东北的实践中创造典范、走在前列。', '长春新区管委会副主任韩明月参加考察。北湖科技开发区相关负责人，长春新区商务局、发改局相关负责人参加考察活动。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>53</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>引他山之石谋发展之策仙人桥镇解放思想大谈论纪实</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2018-12-11</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>http://www.fusong.gov.cn/xwzx/fsyw/201812/t20181211_384440.html</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['为深入推进解放思想大讨论活动的深入开展，结合全镇镇基层党组织书记赴浙江省安吉县考察学习的有利契机，近日，仙人桥镇召开解放思想、推动乡村振兴专题研讨会，汇报学习成果、交流学习经验、总结学习收获。镇党委班子成员、各村党支部书记及相关站办所负责人参加了会议。', '会上，各村党支部书记依次汇报学习感悟及今后的发展计划，并围绕如何解放思想，谋求适合本村发展之路，参会人员畅所欲言，进行深入探讨。通过在安吉县的参观学习，大家总结当地先进经验，找出制约本村发展的瓶颈，破除旧思维，做到优势互补、举一反三。', '党委书记卢平启在做总结性发言时指出，参会发言同志经过学习、研究和讨论三个阶段，都聚焦在“开”和“实”上做文章，计划性的解决了影响和制约乡村振兴发展和推进“二五十百千”工程中的突出问题，形成了有利于本村发展的工作规划，取得了良好成效。', '他强调，安吉之行为我们提供良好机会，要“引他山之石，谋发展之策”，以提升基层组织力、推进乡村振兴、促进“二五十百千”工程为目标，进一步深化大讨论活动内涵，明确今后发展方向，要以此次解放思想大讨论为契机，形成今后谋划推进发展的长效工作机制。仙人桥镇作为“二五十百千”工程五大节点镇之一，一定要做推动全县经济发展的先锋队和排头兵。全镇上下要提高思想站位，紧紧围绕县委决策部署，谋划推动各项工作快速发展，不断优化经济发展环境，不断提升全镇经济建设。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>53</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>走出去引进来积极招商引资活跃经济发展</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2017-02-07</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://www.linjiang.gov.cn/zwgk/jcxxgk/bmdt/201706/t20170630_181390.html</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['为学习发达地区的先进经验，提升县域经济发展的质量和水平，切实推进全市经济社会更好更快发展，依托2015年全国食药监（市场监管）优秀基层干部培训班同学情谊网，根据市委市政府加大招商引资工作力度安排，2016年12月21日至30日，由市场监督管理局联系，市政协主席孙和平、副市长娄善伟同志带领市场监督管理局局长王俊德、副局长马荣堂等同志一行4人，前往山东、河南、广东等省市进行了招商引资考察学习。', '此次外出招商收获颇丰，初步达成4个项目投资意向：一是与山东鲁抗医药股份有限公司达成来我市收购或投资药业企业生产线的投资意向；二是与山东邹平西王集团达成关于玉米深加工、医用葡萄糖生产线的投资意向；三是与广东肇庆华润怡宝集团达成矿泉水、饮料生产线的投资意向；四是与河南民生药业集团达成来我市投资中草药种植的投资意向。', '本次考察学习得到了当地党委、政府、政协和食药监部门的高度重视和热情接待，通过实地参观、座谈商洽、宣传推介等方式对外宣传介绍了我市的主要自然情况和独特生态资源，为加快我市招商引资工作步伐，与当地企业广泛接触，加大招商引资力度起到了积极的推动作用，为今后的招商引资工作奠定了较为坚实的']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>53</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>长白山寒地蓝莓高效栽培养护高级研修班圆满结束</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2018-12-03</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>http://hrss.cbs.gov.cn/gzdt/zwdt/201812/t20181203_382770.html</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['2018年11月26日——11月30日，白山市职业技能教育中心在白山市金税酒店成功举办了长白山寒地蓝莓高效栽培养护高级研修班。', '本次研修班的专家在国内外蓝莓领域享誉盛名，他们研究蓝莓多年、专业理论水平极高。他们分别是李亚东教授、代海涛教授和刘显晨教授。李亚东教授是来自吉林农业大学的小浆果研究所所长、果树学教授，博士研究生导师。同时他也是我国农业部蓝莓项目首席专家，中国园艺学会——小浆果分会理事长，吉林省园艺学会果树专业委员会主任，被誉为“中国蓝莓之父”。代海涛教授和刘显臣教授都来吉林农业科技学院，专业理论功底深厚。', '在26日上午的开班仪式上，白山市人社局副局长林立同志出席并代表人社局党组发表了重要讲话，林立指出：“我们开办此次长白山寒地蓝莓高效栽培养护高级研修班的目的是为了进一步促进全省蓝莓产业科技人员了解长白山区蓝莓产业发展现状及发展前景，更好地为我省经济机构转型升级发展献计献策。希望大家珍惜这个难得的机会，学有所得、学有所悟、学有所成，把知识带回到工作岗位上，以饱满的热情投入到我省蓝莓产业当中。”同时林立也对本次培训班提出了三点要求：一是端正态度、提高认识，增强学习的自觉性。二是把握机会、学以致用，切实提高自身素质。三是振奋精神、严肃纪律，确保取得良好果。', '通过为期五天的学习考察，来自白山市各地区的蓝莓从业者通过专家讲座、讨论交流、现场观摩的方式，系统学习了中国蓝莓产业发展的现状、存在的问题及解决措施，对吉林长白山寒地蓝莓的营销理念及营销方式、长白山寒地蓝莓地理标志的使用与维护也有了更深层次的了解。', '参加此次研修班的白山市蓝莓协会会长李延昌表示，通过此次研修班，他看到了政府对蓝莓产业的重视，对蓝莓未来的发展非常有信心，将在政府的领导下，提振精神，鼓足干劲，不断提升蓝莓的质量，打造白山蓝莓地理标志，为白山市乃至全省的蓝莓产业发展做出贡献。']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>53</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>打通最后一公里市纪委包保帮扶景山镇脱贫攻坚记事</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2018-12-06</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201812/t20181206_383475.html</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['“市纪委工作组组织我们外出学习考察，开阔了视野，理清了发展思路，结合我们村发展乡村旅游实际，谋划了民宿、向日葵花海、黑玉米种植等产业项目，为我们村发展集体经济指明了方向……”三角村驻村第一书记陈磊在村民代表大会上发言时说到。', '“变冬闲为冬忙，利用苞米叶、柳条、马尾草等编织手工艺制品，变废为宝，可以拓宽增收致富渠道。”白山市巧手职业培训学校校长李金枝在西南岔村妇女草编项目扶贫培训班上讲到。', '“大爷，入冬了，再出去干活就穿我给你买的棉衣”“叔，这个药不好买，以后我从白山帮你带”“大娘放心，只要下雪我就来帮你扫雪……”包村工作组、驻村工作队成员们殷殷嘱托。', '谋划项目、传授技能、送上关切，在市纪委脱贫攻坚工作组的全力推动下，这一幕幕温馨的画面成为靖宇县景山镇包保帮扶打通“最后一公里”的常态。', '为全面推动景山镇脱贫攻坚工作提质增效，力促包保帮扶工作再上新台阶，市纪委抓住全市解放思想大讨论这一有利契机，直面当前急需解决的问题，打开思路，放开手脚，充分调动镇、村、帮扶部门工作积极性，推动景山镇打通脱贫攻坚“最后一公里”专项行动向纵深开展。', '全面健全“四级包保帮扶体系”，即每一户贫困户都由镇领导班子、镇级驻村工作队、驻村工作队、包保帮扶责任人分别包保，使每一户贫困户由一对一结对帮扶变为四级包保帮扶，突出镇党委主体责任，将帮扶工作从“单兵作战”变为“团队作战”，形成网格化包保帮扶体系。在实际工作中，市纪委要求镇领导班子、包村工作组、驻村工作队、部门帮扶责任人扑下身子，真情帮扶；切实通过引导产业发展、开展技能培训等方式，帮助解决实际困难，使贫困户树立主体意识、增强脱贫信心；严禁工作流于形式，敷衍塞责。', '市纪委推动景山镇脱贫攻坚工作组与包村镇级领导、各村驻村工作队开展座谈20余次，将责任压实到每名干部身上，增强打赢脱贫攻坚战的决心和信心。工作组还推动景山镇开展了全镇脱贫攻坚问题集中整改暨歼灭战专项行动，对脱贫攻坚工作存在的问题形成清单，明确责任人和整改时限。成立专项督导组，严格检查各村包保帮扶工作，坚持问题导向，严查工作不足，并将问题及时反馈驻村第一书记，强化整改落实。部署各村开展扶贫领域互检，全面检查贫困户满意度和脱贫认可度、村户两级档案和结对帮扶情况，及时发现问题，解决问题。组织42个包保帮扶部门负责人召开脱贫攻坚情况反馈大会，通报互检发现的问题，认真分析原因，对各部门后续包保帮扶重点工作进行安排部署。', '在市纪委脱贫攻坚工作组的有力推动下，景山镇各项脱贫攻坚工作有序开展，成果逐步显现。今后，市纪委脱贫攻坚工作组将进一步履行好包保帮扶职责，全力推动工作再上新台阶，切实将“最后一公里”变成“零距离”。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>53</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>市职教中心培训科巾帼不让须眉</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2018-02-28</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>http://hrss.cbs.gov.cn/gzdt/zwdt/201802/t20180228_276057.html</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['白山市职业技能教育中心培训科是一个以女性同志为主的科室，有着女性柔美的一面，而工作中，雷厉风行的女同志又掩饰不住巾帼不让须眉的干练。', '一、爱岗敬业，巾帼不让须眉，争做业务精英。她们负责、认真，面对繁重的培训任务从来没有退缩。从招生工作开始，经常冒着严寒酷暑深入到社区、乡镇发招生简章,并多次深入到六道江镇下甸子村开展农村劳动力技能培训和创业培训。天冷路滑，女同志需要起早贪黑，有的甚至需要自己带饭，但是培训的热情仍然高涨。在她们的努力下 2017年圆满完成了工作目标，共计培训1966人', '二、铿锵玫瑰闪光芒，发挥所长打赢“去产能”攻坚战。制定通矿集团转岗就业培训方案，开展各类技能培训、创业培训、转岗培训，累计培训182人。由于松树镇离白山较远，培训科的女同志需要吃住在那里，她们想办法克服各种困难。有的家里老人有病，自己却长期在外工作，照顾不上；有的孩子上小学，却顾不上接送；有的孩子正在读高三的关键时期，却没有时间给孩子做饭；有的起早贪黑，甚至生病了也坚持在工作岗位上。', '三、抢抓机遇，不断奔走助实训基地早日建成。2016年3月份，市职教中心抢抓发展机遇向国家发改委争取了白山市职业技能培训公共实训基地项目。培训科的女同志从项目申报开始积极奔走，加班加点到发改、水利、住建等各个部门跑手续，培训科的女同志克服个人困难，先后赴北京、长春等地考察学习，积极借鉴成功的经验典型，形成可操作性报告，助项目早日建成。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>53</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>我县开展优化培训助推全县物业服务企业快发展</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2018-01-31</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>http://jyx.cbs.gov.cn/wzsy/jrxw/201801/t20180131_273733.html</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['近年来，随着我县房地产开发进展迅猛，而物业服务相对管理落后。我县紧紧围绕靖宇县经济社会发展大局，优作风、提效能、树形象，以效能服务品牌为抓手，不断创新工作理念，提升工作质量，为我县物业服务铺好桥搭好路，促进物业服务企业快速发展。', '针对我县物业企业发展缓慢、经营理念落后局面，我县多次组织县内物业服务企业到物业管理先进的白山、通化等地进行考察，学习相关先进管理服务经验，提升物业服务企业自身业务素质，更好的开展物业服务经营活动。每年为县内物业企业召开一次座谈会，邀请各物业企业到我中心会议室进行座谈，探讨我县物业发展之路，了解企业发展情况及困难，研究物业发展方向，协调相关部门解决企业经营当中遇到的问题。', '今年我县靖宇县晟通物业服务有限公司反映新聘任的物业管理人员，对物业相关法律法规及物业知识了解不深，在物业服务经营当中不能及时的处理业主提出的物业相关问题，造成业主不满，对物业有抵抗心理。在了解该情况后，迅速安排相关人员无偿到该物业企业用一天的时间为该企业主要的业务经理及相关管理人员进行了相关物业知识、法律法规、物业常识、实践应用等方面的培训。培训期间根据《物权法》、《物业管理条例》、《吉林省物业管理办法》等相关法律法规，剖析物业企业经营当中实际遇到的情况及相关经典案例，让该物业企业管理人员对物业相关知识有了深入的了解学习。培训结束后又赠送给该物业企业相关法律法规及物业服务管理相关书籍、宣传单。取得了该物业企业管理人员的一致好评，帮助该物业企业提高自身员工素质更好的开展服务活动，依法管理依规服务。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>53</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>靖宇县工商联加快推进精准扶贫步伐</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2017-01-16</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_315177.html</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['2016年，靖宇县工商联立足工作实际，将“造血”与“输血”相结合，全力开创精准扶贫新局面。', '走出去、请进来，改思想、树理念。2016年，该县工商联相继组织包保村——大井村村民到临江千百禾和松岭雪村学习考察致富经验和做法。邀请白山市西贝咨询公司、长春华航、吉林真纯源、三合坊农商贸有限公司多次到村就如何致富脱贫、打造产业等与村民开展座谈，增加致富知识。', '送温暖、谋产业，齐努力，共致富。该县工商联多次到贫困户家中走访慰问，解决短期燃眉之急。组织工作人员和部分会员多次到大井村逐户实地调研，一户一策。邀请白山市旅游商会、白山市文化创意商会到村出谋划策，策划制作出《大井村乡村旅游发展规划》，为大井开展乡村旅游奠定良好基础。组织部分会员企业与村民就订单农业开展交流、合作，多措并举，解决贫困户长期脱贫、致富难题。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>53</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>高新区举办省内投资基金公司园区行活动</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2017-06-16</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>http://ccxq.gov.cn/xqyw/xqdt/201706/t20170616_2116012.html</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['为搭建高新区科技型中小企业与证券投资机构的合作对接平台，拓宽企业直接融资渠道，助推高新区科技型中小企业快速成长，6月15日，吉林省金融办、吉林省投资基金业协会和长春新区、高新区科创委在长春科技大市场联合组织举办省内投资基金公司园区行活动。吉林省金融办投资市场处梁授亮处长、吉林省投资基金业协会汪了了副会长以及长春新区、高新区科创委相关领导出席活动并致辞。吉林省20家投资基金公司、高新区7家孵化器和众创空间、17家驻区企业以及吉林大学代表参加了此次活动。', '活动中，与会领导、来宾对科技金融中心、青年荟创业孵化园进行了学习考察；在长春科技大市场观看了艺梵新材料、喜报科技、先盈医疗等8户参会企业围绕环保新材料、人工智能、医疗健康等项目现场路演，围绕投融资需求与参会人员进行了交流座谈。摆渡创新工场等7家区内重点孵化器深入剖析了初创期项目的发展瓶颈，投融资机构围绕项目推介情况提出合理化建议，并与参会企业进行融资业务对接。此次活动充分集聚科技金融资源，推动政府部门、投资机构和企业三方形成合力，帮助企业解决融资困难，通过对接，已有多个项目与投资机构初步达成合作意向。高新区科创委将组织有意向机构前往企业进一步了解情况。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>53</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>抚松县开展清洁能源供热试点</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2016-09-07</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_314680.html</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['为改变传统燃煤供热方式，改善长白山区域空气质量，为抚松县“森林氧吧”、“洗肺之旅”等生态旅游产品创造条件，抚松县住建局积极进行新能源、生物质能、可再生能源的推广使用工作。', '针对供热新型能源的使用，该局工作人员到北京进行学习考察，对单井循环采集浅层地能无燃烧为建筑物智慧供暖技术与恒有源科技发展集团有限公司签订合作协议，并将该县实验幼儿园、车辆管理所、第九中学、第八小学、黄家崴子村作为试点单位，进行推广实施。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>53</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>长春高新区考察组赴杭州连云港学习考察</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2019-03-15</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>http://ccxq.gov.cn/xqyw/xqdt/201903/t20190315_2116808.html</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['为深入落实长春高新区2019年各项重点工作任务，加快推进招商步伐，近日，由高新区管委会主任助理常莉带队的考察组，分别走进浙江杭州高新区（滨江区）、江苏连云港经济开发区开展学习考察和招商引资，先后走访了智慧e谷、海创基地、天和高科技产业园、网易集团、华业高科、浙江吉林商会、生命健康产业园、恒瑞医药集团、豪森制药公司、康缘药业等10余户特色孵化器、专业孵化器，以及行业领军企业和行业龙头企业，推动5个项目招商工作顺利开展。', '在杭州高新区，考察组一行与杭州高新区发改局、经济局、科技局、人才办等部门主要负责人进行座谈，双方就产业发展、科技创新、人才服务、企业服务、非公领域党建等方面进行深入交流并达成共识，两区要加强合作，互动往来，实现产业互补，利用杭州高新区信息产业资源提升长春高新区传统制造业，筛选以一汽富奥为代表的10余户汽车装备制造企业与杭州高新区互联网企业进行对标和结对，在制造业领域打造互动标杆。此外，双方将加强社区互建，即选取一个社区作为试点，与杭州高新区进行共建，打造智慧社区标杆。', '随后，考察组来到由杭州高新区投资建设的创业孵化中心海创基地，详细听取了基地负责人介绍，参观众创空间，该公司在67个孵化器中始终发挥着龙头引领作用，配套功能设施完备、孵化企业质量较高、发挥作用明显，当地影响力较大，考察组邀请企业到长春高新区进行指导，将对区域建设高品质孵化器具有重要指导意义。', '在天和高科技产业园，杨森控股副总裁朱冬生接待了考察组，并进行深入座谈交流。作为全国首家民营生物医药国家级科技企业孵化器，引进企业近300家，集聚度极高，目前已发展成为生物医药、智慧健康的专业集聚园区，对支撑生物医药产业发展发挥了巨大作用。常莉邀请产业园企业到长春高新区实地考察指导，实现企业互动、产业互补。', '在网易集团，考察组与企业负责人就长春网易联合创新中心下一步如何发展进行深入对接，常莉提出，网易集团要在长春注册独立公司，组建独立运营团队，将考拉和严选实体店落户益田硅谷新城，充分发挥网易互联网资源和云功能的优势，打造升级长春高新区1至2户传统制造业企业，量身定制智能制造解决方案，打造网易提升传统产业升级标杆，同时希望网易集团尽快形成2019年长春网易联合创新中心工作方案，加快推进项目实施。', '在华业高科技产业园，考察组认真听取了华业控股集团副总经理谭利洋详细介绍园区发展情况，作为一家具有突出特色的民营孵化器，坚持专心、专业、专注的打造高科技园区，目前已成为杭州高新区十大特色产业园之一。双方就发展空间、拓展东北市场、双创企业专业性辅导等事宜达成共识。', '同时，考察组一行还拜访了浙江吉林商会对接招商项目，就PREIPO加速器项目落位、设立浙吉科创基金、借助浙江吉林商会资源招商引资等事宜进行交流，浙江吉林商会负责人将于近期到访高新区推动各项合作。', '在连云港经济技术开发区，考察组一行参观了核心区起步区，双方针对医药产业发展、提升服务企业效能、扶持医药产业政策等展开交流。随后，考察组走访了恒瑞医药集团、豪森制药公司、康缘药业等行业龙头企业，这些企业都是医药领域的参天大树，多年来一直专注于医药行业发展，在规划建设上走园区化、国际化发展路线，拥有独立的研发中心、生产基地、研究院等，具备很强的国际竞争力。', '长春高新区党群办、发改工信局、现代服务业办、社会事业局主要负责人，以及益田硅谷新城、越达产业园相关企业负责人参加考察。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>53</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>白山市年上半年消除义务教育阶段学校大班额专项规划工作进展情况报告</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2019-10-08</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>http://xxgk.cbs.gov.cn/jsly/jyly/201910/t20191008_440670.html</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['为全面完成我省消除大班额专向规划工作，白山市于2016年末制订了《白山市消除义务教育学校大班额专项规划》，目前工作正有条不紊推进。现将2019年上半年白山市消除义务教育阶段学校大班额专项规划工作进展情况汇报如下：', '截止目前，我市消除义务教育阶段学校大班额情况为：小学基本消除56人及以上大班额现象，初中完全消除61人及以上大班额现象。我市小学45人、初中50人的标准班额比例和小学56人及以上、初中61人及以上大班额的比例均达到全省消除义务教育学校大班额设定目标。', '为了完成消除大班额专项工作的顺利开展，进一步加强对消除大班额规划工作的领导，成立以市教育局局长为组长，相关部门主要领导为成员的白山市消除义务教育学校大班额专项工作领导小组。领导小组定期召开工作调度会议，年末听取各项工作完成情况汇报。同时对全市义务教育统筹规划、合理分流。', '年，我市所辖县（市、区）全部通过国家义务教育基本均衡发展评估认定。市政府以此为契机，加大投入力度，改善办学条件。不仅比计划提前两年实现义务教育基本均衡发展目标，更有效的缓解了大班额现象。', '师资配备和培训。2018年全市面向社会公开招聘教119人、免费师范生7人、高层次人才10人，为农村学校招录“特岗教师”191人、硕师计划17人，补充城镇及乡村教师队伍，促进教师资源均衡配置，使师资不足问题得到有效缓解。同时加大培训力度。举办了3期校长论坛、6期“名师大讲堂”，组织普通高中新课程、义务教育和学前教育等“国培”和“省培”。先后组织领导干部和教师到北京、浙江、上海、广州等发达地区考察学习。累计参加培训1万余人次。实施“大教研”活动。开展了“四个一”教研评比、教学基本功大提高竞赛和“一师一优课 一课一名师”活动，开展了骨干校长和骨干班主任评选活动。推进校本科研课题立项工作，全市共立项科研课题1676项。', '我市义务教育阶段学校专业教师严重不足，教师队伍年龄老化问题严重，特别是国家出台高级职称女教师延迟退休政策后，更增加了中小学教师老龄化的趋势。', '随着城市快速的发展和建设，城镇居民扩容速度增快，随着我国“三农”问题的有效解决，农民生活条件得到了极大的改善，尤其是近几年农村人口城镇化发展迅速，农民人均可支配收入猛增，农村人口在城区购房人口增加，其子女就近入学的需求就凸显出来。同时，随着企业改制，林区、矿区劳动力和家庭向城区流动，进城务工人员子女增加，这也对就近入学制造了一定的压力。', '依法规范学校办学行为，加强学籍管理，对择校问题有堵有疏，根据市教育局出台《城区义务教育学区划分方案》，规范入学招生管理办法。加强内外宣传，通过电视台、网络媒体面向社会大力宣传“大班额”的不良影响及消除“大班额”的措施。坚决避免因办学不善，导致家长盲目选择优质学校，造成个别学校大班额问题反弹现象。', '我市继续加大对薄弱学校的改造力度，加快中小学标准化建设，加强乡镇寄宿制学校和乡村小规模建设，全面改善农村义务教育学校办学条件。', '将消除义务教育阶段学校大班额作为评估学校工作的重要内容，开展好专项督导，对全市义务教育学校标准化建设及均衡发展进行不定期督查，建立责任追究制度，坚决杜绝因学校管理不善或其他原因造成大班额问题。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>53</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>张志军带队赴河南学习考察脱贫攻坚</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2017-12-12</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_316460.html</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['中原大地，暖阳高照。12月6日，市委书记张志军带领我市考察组奔赴河南省，考察脱贫攻坚工作，推动白山“全面小康路上不落一人”；学习传承焦裕禄精神，助推白山绿色转型全面振兴。', '兰考曾是国家级贫困县，也是焦裕禄精神的发源地，是习近平总书记第二批党的群众路线教育实践活动的联系点。2014年，兰考县委向总书记作出“三年脱贫，七年小康”的庄严承诺。三年多来，全县上下深入贯彻落实总书记调研兰考时提出的“把强县和富民统一起来，把改革和发展结合起来，把城镇和乡村贯通起来”的指示精神，大力传承弘扬“亲民爱民、艰苦奋斗、科学求实、迎难而上、无私奉献”的焦裕禄精神，同心奋斗，开拓创新，务实重干，扎实有效推进脱贫攻坚。今年2月27日，经国务院扶贫开发领导小组评估并经河南省人民政府批准，兰考县正式退出贫困县序列。', '学习考察组一到兰考，就直接奔赴焦裕禄干部学院，观看《今日兰考》宣传片，听取脱贫工作经验介绍，了解焦裕禄干部学院管理运营情况，在开封市委常委、兰考县委书记、焦裕禄干部学院党委书记蔡松涛陪同下，调研焦裕禄干部学院校园建设情况，与兰考县政协主席吴长胜，县委常委、组织部部长、焦裕禄干部学院第一副书记席建设等领导热烈交流，学习脱贫攻坚经验。随后走进焦裕禄同志纪念馆，前往焦裕禄烈士墓进行拜谒。', '考察团学经验、找差距，谈体会、话脱贫。张志军表示，要认真学习贯彻落实党的十九大精神，在习近平新时代中国特色社会主义思想指引下，循着优秀共产党人的足迹，不忘初心、牢记使命、奋力前行。要认真学习好、领悟好兰考县在脱贫攻坚方面的务实举措和典型经验，消化好兰考的好理念、好思路、好做法，切实把学习成果转化为工作实效，坚决打赢白山脱贫攻坚战，确保全面小康的路上不落一人，不断开创白山各项事业发展新局面。', '市委常委、副市长石新明，市人大常委会副主任、靖宇县委书记毕增祥，长白县、市委办、市委组织部、市发改委、市经合局主要负责同志参加考察。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>53</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>长白县高质量抓实乡村干部培训</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2011-11-18</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>http://agri.jl.gov.cn/xwfb/sxyw/201111/t20111118_4685809.html</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['日前，长白县利用20多天时间，投入30余万元，组织各村党支部书记、相关乡镇领导干部参加培训和域外考察学习，分两期开展“项目支书”全员培训。', '该县结合“三项工程”重点攻坚任务，突出履职尽责、岗位能力、服务“三农”、创业带富、红色教育等主题，对课程进行精心设计，确保培训内容紧贴农村实际，适合学员“口味”，增强培训针对性和实效性。', '同时，聘请国家农业部、省委党校和省内农业院校专家教授讲解，安排观摩村村干部现身说法。授课做到理论结合实际，注重解决实际问题，让学员听得懂、记得住，增强课堂吸引力。为在培训上突出“新”字，他们适当减少课堂教学比重，增加实践培训内容，组织村书记进行多次交流、座谈；安排学员到北京、石家庄等发达地区，选择对乡村干部有借鉴意义、操作性强的产业项目进行考察学习，理清思路，开阔视野。', '为切实提高培训效率，保证培训质量，县委组织部还安排干部专门负责管理培训班，对学员吃、住、行、培训安排等方面提出严格的纪律要求，强化服务意识，满足学员学习、生活方面的需求，营造了良好、温馨、舒适的学习环境。']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>53</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>抚松县组织人员赴外地考察学习美丽乡村建设</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2017-03-27</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/ztzl/tsnyfzzt_13295/cydt/201805/t20180520_326341.html</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['为加快推进抚松“美丽乡村”创建工作，积累建设经验，3月1日至3日，抚松县领导带领相关部门、14个乡镇、部分村屯主要负责人一行36人到敦化、通化进行实地观摩和考察学习。', '考察团先后实地查看了敦化市官地镇杨家屯村、敦化市雁鸣湖镇腰营村、敦化市雁鸣湖镇小山村、通化县聚鑫经济开发区赤柏松村、通化县聚鑫经济开发区小南沟屯、通化县快大茂镇繁荣村、通化县大泉源乡爱国村等美丽乡村建设情况，认真听取了当地在建设美丽乡村过程中的经验报告，深入了解当地挖掘农村文化、项目规划设计、农村环境整治等工作情况，并对建设资金来源、生活垃圾处理、村民参与形式等重点问题进行了深入探讨。通过实地考察学习，不仅开阔了眼界，学到了经验，增长了见识，得到了启示，更是看到了差距，感到了压力，激发了干劲和信心。', '参观学习结束后，考察团一致认为敦化、通化等地的美丽乡村建设工作在科学规划、强化管理、整合项目、培植产业等做法值得抚松县借鉴和学习。下一步，要结合本县实际，因地制宜制定好发展规划，通过美丽乡村项目的实施，有效改善和提升农村人居环境，同时大力发展现代农业，发展农村集体经济，助推农村经济发展和人居环境水平全面提升，把美丽乡村建设工作推上一个新的台阶。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>53</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>靖宇县卫生计生局精准部署落实扶贫开发整改工作</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2018-05-08</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>http://wsjkw.cbs.gov.cn/xwzx/201805/t20180508_289564.html</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['为加快深入推进卫生计生系统精准扶贫工程，县卫生计生局党组书记、局长李长云在县委组织相关部门领导赴贵州省赤水地区考察、学习脱贫攻坚工作之后，结合县政府下发的《靖宇县2017年扶贫开发工作成效考核发现问题整改方案》，近期组织召开“局领导班子扩大会议”，部署落实扶贫开发整改工作，集体学习赤水地区成功经验、做法，加快脱贫攻坚步伐。相关科室负责人、工作人员列席会议。', '会议首先对《整改方案》中责任分工涉及卫生计生系统的内容进行了逐条逐句梳理、分析、部署和落实。对整改工作步骤、整改时限及整改要求做出具体安排，明确了要按要求制作高标准问题台帐，完成一项销号一项，确保在短期内高质量完成整改任务。并详细解读了贵州省赤水地区的脱贫经验、做法及亮点。']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>53</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>关于对辖区内工业固体废物储量及综合利用情况</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2013-08-13</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>http://www.hunjiang.gov.cn/zw/yata/zxya/201706/t20170615_110248.html</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['2011年，国家工信部制定了《大宗工业固体废物综合利用“十二五”规划》，并确定了第一批开展工业固体废物综合利用基地建设试点工作的12个地区。我区在掌握国家精神后，区委、区政府责成区经济局立即对我区工业固体废物储量、组分及综合利用情况进行调研，并研究我区工业固体废物综合利用工作的具体措施和工作推进方案。为此，区经济局抽调人员，对辖区内的粉煤灰、铁矿尾矿、煤矸石、金矿尾矿和将产生的钴矿及白云石尾矿等工业固体废物历史堆积量、年产生量、组分、综合利用等情况进行逐一调查，并形成了《浑江区工业固体废物储量及综合利用基本情况调查报告》。在前期调查的基础上，区委、区政府向国家工信部汇报了我区工业固体废物储量及综合利用情况，并确定了具体工作目标。由于国家工业固体废物综合利用基地建设试点工作均以地级市为单位进行申报，我区将此项工作向市政府进行了汇报，市政府决定市区统一推进试点基地的争取工作。', '2012年，我区委托中国国际咨询公司编制《白山市资源开发和综合利用总体规划》和《白山市工业固体废物综合利用规划》。区经济局制定了《白山市及浑江区工业固体废物综合利用推进工作方案》，方案确定将组织开展考察学习、专题研讨、组织申报三个阶段性工作。2012年8月28日至9月4日，由市政府副秘书长辛泳光任组长，市工信局副局长张凤岐、区政府副区长李江波为副组长，市工信局、区经济局相关人员为成员的考察学习组，根据白山市工业固体废物种类，有针对性地从列入全国第一批工业固体废物综合利用基地建设试点地区中就近选取了辽宁省本溪市、河北省承德市、山东省招远市进行了考察学习。考察组在三个地区实地考察了当地工业固体废物综合利用企业，并与当地政府、企业主管人员进行了座谈。考察结束后，考察组撰写了《赴本溪、承德、招远三地开展工业固体废物综合利用基地建设情况考察报告》，呈报区委、区政府，市委、市政府。市政府有关领导对考察报告，彭永林市长、陈耀辉副市长分别进行了批示，以信息专刊形式印发相关部门，要求继续组织推进此项工作，并责成市工信局为推进主体单位。', '目前，市政府与区政府已经多次与中国资源综合利用协会及国家工信部协调相关事宜，并积极筹备申报国家第二批工业固体废物综合利用基地试点地区。我市将在确定为国家试点基地的基础上，从资金、技术等多方面推进工业固体废物综合利用工作。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>53</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>临江市农牧局扎实开展新型职业农民培育跟踪回访工作</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2018-01-17</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>http://www.linjiang.gov.cn/zwgk/jcxxgk/bmdt/201801/t20180117_262932.html</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['为了做好新型职业农民培育后续跟踪服务工作，了解前期学员对培训知识及技能的实际掌握情况，解决学员在农业生产中所遇实际困难，临江市农牧局农机校在六道沟镇六道沟村开展了集中跟踪调查回访工作。', '近期，农牧局农机校组织教师深入六道沟镇六道沟村在学员中对面对面地进行指导咨询，根据学员提出的各种生产生活中遇到的实际问题进行解答。帮助学员解决技术难题、创业和经营过程中遇到的问题和困难，直接了解学员对今后跟踪服务工作的意见和建议，对没有加入微信学员要求添加智农通及培训班微信群等，为学员了解国家农业政策和推广使用农业科技建立交流平台。回访中学员对参加培训感到非常满意，纷纷表示不仅学到了新技术、新知识，还通过走出去参观学习考察，开阔了视野，增长了见识，收获很大，增强了对农业机械化发展的信心和动力。 通过跟踪回访服务，不仅及时解决了广大学员的生产技术问题，而且也为今后更好地开展跟踪服务奠定了坚实的基础。', '近期，农牧局农机校组织教师深入六道沟镇六道沟村在学员中对面对面地进行指导咨询，根据学员提出的各种生产生活中遇到的实际问题进行解答。帮助学员解决技术难题、创业和经营过程中遇到的问题和困难，直接了解学员对今后跟踪服务工作的意见和建议，对没有加入微信学员要求添加智农通及培训班微信群等，为学员了解国家农业政策和推广使用农业科技建立交流平台。回访中学员对参加培训感到非常满意，纷纷表示不仅学到了新技术、新知识，还通过走出去参观学习考察，开阔了视野，增长了见识，收获很大，增强了对农业机械化发展的信心和动力。', '通过跟踪回访服务，不仅及时解决了广大学员的生产技术问题，而且也为今后更好地开展跟踪服务奠定了坚实的基础。']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>53</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>对标先进查找差距全面推进脱贫攻坚张志军带队赴白城学习考察脱贫攻坚工作</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2018-08-04</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>http://xxgk.cbs.gov.cn/jsly/tpgj/201809/t20180910_358667.html</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['白山市政府信息公开专栏 &gt;&gt; 社会公益事业建设领域 &gt;&gt; 乡村振兴领域/脱贫攻坚领域', '8月2日至3日，市委书记张志军带领我市考察组驱车近千公里，赴白城市考察调研脱贫攻坚工作情况，进一步对标先进、查找差距，助推我市脱贫攻坚迈出新步伐。', '考察团先后对镇赉镇架其村光伏项目、镇赉镇西北围子屯村屯环境整治、镇赉县南湖湿地公园生态建设、特色养殖产业扶贫基地项目、黑鱼泡岔台村村屯整治、村级组织场所建设、卫生室建设及扶贫档案整理情况进行实地考察。', '白城市5个县（市）区中，曾有3个国家级贫困县、2个片区“天窗县”，曾是全省贫困程度最深、致贫原因最复杂、脱贫任务最艰巨的地区。脱贫攻坚启动以来，白城市坚决贯彻国家、省要求部署，大力攻坚推进，取得了重大阶段性成效，在2017年度全省脱贫成效考核中，白城市在9个市（州）中排名第一，镇赉县、大安市在15个贫困县中分别排名第二、三位。', '在白山市与白城市脱贫攻坚座谈会上，两市就如何做好脱贫攻坚工作展开深入讨论、沟通交流。白城市委书记庞庆波、市长李明伟、市委副书记李洪慈，白山市人大常委会副主任、靖宇县委书记毕增祥，副市长于翠利参加座谈会。', '座谈会上，张志军说，白城市的脱贫攻坚工作成绩显著，有很多值得学习的做法。他表示，白山市将认真学习白城经验，结合白山实际狠抓落实，做到领导高度重视，把脱贫攻坚作为头等大事，当成重大政治任务，在全市范围内落到实处。学习白城精准识别、精准退出、精准施策的精准工作做法，做好基础性工作，把工作做细做实，提升脱贫攻坚满意度，平衡各贫困村、贫困村与非贫困村、贫困户与非贫困户之间的差距。做好产业扶贫，发展特色农业产业，发挥好龙头企业的带动作用。产业不仅能带动脱贫，而且是实现长期致富的一项重要保障。做好顶层设计，把政策落实到位、宣传到位，不仅要做好“一达标、两不愁、三保障”以及兜底政策，还要对标白城的经验做法，动员贫困户，挨家挨户做工作，提高脱贫的积极性。完善责任体系，明确市县乡村四级责任主体，真正把责任树立起来，做好顶层设计，提升干部作风。坚持督查考核，加大督查力度，借鉴白城经验，把“六查”模式落实到位，强化督查考核抓落实，形成多方合力，确保脱贫攻坚工作全方位推进。', '庞庆波对张志军一行的到来表示热烈欢迎并简要介绍了白城脱贫攻坚的工作经验。庞庆波指出，白城自脱贫攻坚战役启动以来，全市上下积极探索，合力攻坚，取得一定成绩。各县（市）区党政一把手高度重视，直面问题，统筹兼顾、主动担当、党政同责。白城与白山有很多相似相通的地方，希望以此为契机，加强在其他方面的交流与合作，推动两地经济发展，实现互利共赢。', '白山市发改委、扶贫办、市委办等相关部门和浑江区、抚松县、江源区、临江市、长白县相关负责人参加学习考察活动。']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>53</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>让农耕更有味农民更光荣</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2018-08-13</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>http://www.fusong.gov.cn/lyfs/mytc/201808/t20180813_349076.html</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['"农，天下之大本也"，党的十九大提出实施乡村振兴战略，这是决胜全面建成小康社会、全面建设社会主义现代化强国的一项重大战略部署，是新时代做好“三农”工作的总抓手。因此，让农耕更有味、让农民更光荣事关发展大局，事关民族复兴，事关文明传承。', '抽水乡作为农业乡，推进乡村振兴正逢其时。该乡调整产业结构，大力发展第三产业，增加农民增收渠道，协调退耕还林工作的推进，让传统产业“老树”发“新芽”。', '自2013年来，乡党委、政府经过多次实地调查和研究后，决定把种植大榛子作为全乡的重点农业项目进行扶持，加快农民增收致富的步伐。实现让农耕更有味，农民更光荣。', '推进乡村振兴，产业兴旺是重点。为了让村民少走弯路，让农民的钱袋子鼓起来。进一步提高对大榛子种植产业的认识。抽水乡党委政府组织各村的种植带头人共50多人次先后到沈阳、本溪、吉林左家以及长白县的大榛子产业园进行考察学习。同时，聘请大榛子种植专家到田间地头实地教学。为村民开办大榛子种植技术培训班10余次，共印发科普材料1000多份，并多次组织科普讲座和科技下乡等活动。突出品种特色实现人无我有、人有我优、人优我特、人特我强。此外，抽水乡政府申请兴边富民专项资金，在苗木费用上给种植户补助，同时还在林地使用方面给予相应优惠。', '推进乡村振兴，生活富裕是基础。“我今年过年后就没有空闲。”村民们高兴地说。通过抽水乡政府政策引导和各方面的大力支持，至2018年8月全乡大榛子已种植13.8万棵，覆盖面积达到1517亩。未来三年大榛子将进入产果期，保守估计每亩地可产200斤大榛子果，收入可达4000元，真正做到为村民增收致富。', '授人以鱼不如授人以渔，让村民有了自身造血的功能，才能真正走上持续发展的道路，让肥沃的土壤生出“金蛋蛋”。（通讯员：王竞晗）']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>53</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>我市赴通化县就新农村建设乡村振兴工作进行考察并召开座谈会</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2018-07-02</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>http://www.linjiang.gov.cn/sy/ljyw/201807/t20180702_339575.html</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['为有效借鉴周边地区新农村建设工作中好经验好做法，促进我市乡村振兴工作再上新台阶。6月27日，市长刘宝芳，副市长杨莅春带领我市各相关单位、各乡镇街以及70个行政村党支部书记组成的考察团对通化县新农村建设、乡村振兴工作进行考察。', '考察团一行受到了通化县县长孙继民，县委副书记胡宗庆的热情接待。在通化县县领导和通化县相关部门的陪同下，先后来到了通化县聚鑫经济开发区赤柏松村、大都岭村,西江镇岔信村、民主村、太平村，快大茂镇繁荣村，金斗乡广信村，英额布镇王家村、四平村，对通化县各村屯的农村环境综合整治、美丽乡村建设，产业项目建设和基层党建建设等情况进行了实地查看。在考察中，大家通过听介绍、现场看等方式，详细了解了当地的好经验、好做法。', '通化县西江镇岔信村在2017年被评为“全国第一批绿色村庄”，“第一书记”张全才介绍了岔信村新农村建设的经验成果和产业发展情况并带领考察团参观了该村的基础设施和特色广场建设；考察团还参观了民主村的稻草人景观路、诗词长廊，观摩了太平村休闲旅游现代农业观光园和西江月“梦里水乡.贡米小镇”项目建设，及繁荣村村史馆、高志航故居。在王家村的奇星新能源有限公司，考察团得知，公司将秸秆进行充分利用，转化为沼气，并将沼气入户，用于日常生活，既减少了焚烧秸秆带来的环境污染，又用新能源改善了生活，目前，部分村民已经使用上了新能源。所到之处，高标准规划、特色鲜明的美丽乡村建设，给考察团成员留下了深刻印象。大家纷纷表示，这次考察拓展了思路，很多好理念、好思路、好做法值得学习和借鉴。', '在考察过程中，市长刘宝芳表示，随着时代的发展，新农村建设的内涵也在变得日益丰富，相关部门、各乡镇、村屯负责人要进一步提高认识，将这次考察做为拓宽思路、激发干劲儿的重要契机，做到带着问题来，带着答案回的目的。要认真思考、消化吸收，充分借鉴此次考察学习到做法和经验，结合我市的实际，取长补短，将新农村建设与文化、产业项目、环境整治、基层党建等工作有机结合起来，真正把我市新农村建设工作抓出成效，进一步推动我市乡村振兴工作。', '在考察结束后，我市还召开了赴通化县考察乡村振兴工作座谈会，市领导钟铁鹏、刘宝芳，张庆、曾钒胜、周岩、张辉、杨莅春及赴通化县考察团全体成员参加了会议。', '市委书记钟铁鹏会上指出：此次会议既是赴长兴、浦江、通化考察的经验总结会，也是推进我市美丽乡村建设的誓师动员会。之所以召开这次会议，就是为了趁热打铁，抓紧在大家学习记忆最为深刻，心里最受触动的关键时刻，进一步统一思想，振奋精神，鼓舞干劲，对我市美丽乡村建设进行全面动员，全面部署。', '就针对三县考察和如何做好我市美丽乡村建设，钟铁鹏讲三个方面的感受和意见。他说，通过这次考察学习，最大感受是：', '钟铁鹏强调，要明确任务，大干快上，奋力完成2018年美丽乡村建设各项工作任务。 今年，全市上下要围绕“产业兴旺、生态宜居、乡风文明、治理有效、生活富裕”的总体目标，按照“因地制宜、梯次推进、一个不落”的总体思路，抓住重点，扭住关键，全力以赴推动以下几项工作。要马上建立相关议事牵头机构；迅速整治环境卫生积存问题；立即建立完成常态保洁机制；要抓紧推进各项设施建设；完善提升绿化美化层次；着手开展争先创优活动。要加强领导，完善机制，形成推动美丽乡村建设的强大合力。领导带头，全员参与。多方筹资，追加投入。明确责任，严格奖惩。加强宣传，广泛发动。', '建设美丽乡村，上级有要求，群众有期盼，自身有基础，周边有榜样，钟铁鹏希望与会人员要以本次会议为契机，进一步明确目标、夯实责任，全力做好美丽乡村创建工作，为美丽临江建设作出应有贡献。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>53</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>关于年率先实现农业现代化工作的实施意见</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2016-06-03</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>http://www.jl.gov.cn/szfzt/jlssxsxnyxdh/tzgg/201606/t20160603_2005933.html</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['各市（州）党委和人民政府，长白山开发区，各县（市）党委和人民政府，省委各部、委，省政府各厅、委和各直属机构，各人民团体：', '为了贯彻落实习近平总书记关于“吉林省要争当现代农业建设排头兵，率先实现农业现代化”和“吉林省要健全城乡发展一体化体制机制，着力建设规模效益型现代化大农业，走出一条集约、高效、安全、可持续的现代农业发展道路”的重要讲话精神，省委、省政府编制出台了《吉林省率先实现农业现代化总体规划（2016—2025年）》，以打造粮食主产省率先实现农业现代化综合实验区为战略方向，全面部署了加快建设现代农业产业体系、现代农业生产体系、现代农业经营体系重点任务，规划描绘了“十三五”及未来十年全省农业现代化建设的宏伟蓝图。', '“十三五”是传统农业向现代农业加快转变的关键时期。做好“十三五”农业农村工作，要认真贯彻落实习近平总书记重要讲话和重要指示精神，牢固树立创新、协调、绿色、开放、共享的发展理念，主动适应经济发展新常态，突出发挥“五个优势”，推进“五项举措”，加快“五大发展”，以市场需求为导向调整完善农业生产结构和产品结构，以科技为支撑走内涵式现代农业发展道路，以健全市场机制为目标改革完善农业支持保护政策，以家庭农场和农民合作社为抓手发展农业适度规模经营，以产能建设为根本实现藏粮于地、藏粮于技，大力推进农业供给侧结构性改革，深入实施率先实现农业现代化总体规划，走出一条集约、高效、安全、可持续的规模效益型现代化大农业发展道路。', '2016年是全面建成小康社会决战决胜阶段的第一年，也是“十三五”和实施率先实现农业现代化建设的开局之年。做好率先实现农业现代化的启动实施对于实现农业强、农村美、农民富和支撑经济社会发展全局都具有十分重要的意义。2016年全省率先实现农业现代化工作要全面贯彻党的十八大和十八届三中、四中、五中全会精神，深入学习贯彻习近平总书记系列重要讲话精神，以新理念引领农业新发展，以全面深化改革为动力源泉，以加快转变农业发展方式为主线，以多种形式适度规模经营为引领，加快建设现代农业产业体系、生产体系、经营体系，全面提高农业综合生产能力、市场竞争力和可持续发展能力，为“十三五”全省经济社会发展开好局、起好步提供有力支撑。为了贯彻落实好全省农村工作会议和省委1号文件精神，确保率先实现农业现代化规划扎实启动实施，特制定如下意见。', '1．稳定发展粮食生产。落实藏粮于地、藏粮于技战略要求，加强粮食生产核心功能区建设，进一步优化品种结构和生产布局，建设现代黄金玉米带、黄金水稻带，打造国家绿色大粮仓。加快划定永久基本农田，推动建设一批国家级粮食生产核心功能区，将口粮生产能力落实到田块地头，稳定提升粮食生产能力。以第二松花江、嫩江、东辽河等干支流沿线为重点，建设优质水稻生产核心功能区。开展玉米大豆轮作试点，建设轮作核心功能区，推广绿色增产模式。粮食生产要力争再获好收成，正常年景下粮食产量达到680亿斤。', '2．加快建设现代畜牧业。实施标准化养殖、精深化加工、品牌化营销、产业化经营、信息化管理，加快建设现代畜牧业。肉、蛋、奶总产量分别达到320万吨、116万吨和58万吨，产值达到1400亿元。无疫区建设力争通过国家评估认证，抓好重大动物疫病防控，确保群体免疫密度达到90%以上，应免畜禽免疫密度达到100%，免疫抗体合格率达到70%以上。加快推进全产业链建设，突出抓好生猪、肉牛、肉羊、肉鸡、奶牛和梅花鹿6条产业链，支持15个国家级和95个省级农业产业化龙头企业开展科技创新、产品创新，建设精深加工项目，扩大精深加工产能。大力推进24个投资亿元以上畜牧业大项目建设，力争年底使70%的大项目投产或部分投产。深入实施“草变肉”工程，抓好秸秆粗饲料开发。建设畜禽标准化规模养殖场（小区）550个。加快发展畜禽种业，引进原种猪、牛、羊、祖代鸡。加快培育东辽黑猪、精气神山黑猪、长白山黑牛、肉用草原红牛具有吉林特色的畜禽新品种。创建全国畜产品知名品牌和优质安全品牌。', '3．发展壮大园艺特产业。做优棚膜蔬菜产业，推进棚室集中连片开发，新建和改造棚室5万亩，建设棚膜园区30个以上，创建国家级标准化示范园区10个以上。做强食用菌产业，产量达到120万吨。建设黑木耳、香菇、草腐菌三条产业带。建设敦化秋梨沟黑木耳、梅河口山城镇香菇等15个标准化园区。做大人参产业，建设6个良种繁育基地，建设9个非林地种植示范基地，建设40个“长白山人参”品牌产品原料生产基地。认证、吸纳企业加入“长白山人参”品牌，升级完善“长白山人参”品牌专卖店8个以上。发展特色经济作物面积达到800万亩以上。马铃薯种植面积发展到150万亩以上。', '4．增强渔业综合生产能力。实现水产品产量20万吨，稻渔综合种养示范面积力争达到20万亩。全力扶持珲春水产品加工业发展。引进黄河鲤、三文鱼、美洲红点鲑、南美白对虾、瓯江彩鲤等水产名优品种进行养殖开发，扩大大银鱼、池沼公鱼移殖规模，做好青海三文鱼引进工作。打造3—5个集养殖、加工、销售、旅游等为一体的大型现代化渔业企业。加强无公害、绿色、有机水产品认证。继续开展增殖放流活动，加强保护区管理，做好渔政执法、船舶检验等工作。', '5．做强农产品加工业。围绕我省粮食、畜禽、特产三大农业主导产业谋划重大项目，上项目招投资。以玉米生化、农作物秸秆利用、功能性保健食品等为重点，设计、收集、整理项目包，建立项目库，完成100个以上的大项目设计和储备工作。举办农产品加工业重点项目对接活动，搭建科企间、银企间、企业间的交流合作平台。实施好农产品产地初加工补助项目，投入补助项目资金4500万元，以马铃薯、果疏以及特产品等为重点，主要覆盖15个县（市、区）。', '6．加快建设现代种业。改进品种审定工作，完善品种审定委员专家库，重新调整实验点布局，完善品种审定绿色通道。强化种子质量检测体系建设，加强南繁基地的建设与管理。组织实施好育种基地创新项目建设和品种审定、鉴定项目的建设。抓好吉东种业与国家现代种业基金2000万元合作的同时，积极组织我省其他3家亿元种业与现代种业基金进行对接。启动我省现代种业发展基金，推进种业“事企脱钩”改革，探索退出商业化育种的农业科研院所与优质企业合作的新途径。进一步强化种子市场监管，开展省际间联合执法、跨部门的联合执法，突出抓好种子集中交易大市场监管。', '7．加快完善农产品流通体系。创新流通方式，突出改造升级大中型骨干批发市场和物流园区，完善农产品市场流通体系，重点完善农产品市场骨干网络。推进中心城市成品粮批发市场建设，建设洮南杂粮杂豆区域性市场。完善吉林大米网电商平台建设，实现与全国粮食交易网衔接。与农业部共建国家级长白山人参市场，建设人参产业物联网系统，升级完善仓储、检测、内部管理等信息化管控平台、电子商务平台、现场电子交易拍卖平台。启动建设梅河口果仁市场、蛟河黄松甸木耳市场等2－3个区域性农产品产地市场建设；启动农安县哈拉海“三辣”市场、洮南市黑水西瓜市场等5个左右田头市场建设。在长春市筹划建设一个立足东北亚面向全球、线上线下互动、超国家级大市场标准的现代化的中国（长春）国际农产品交易中心。', '8．推进农业对外交流合作。建立开放型农产品流通体系，主动融入国家“一带一路”、“互联互通”战略，建立农业开放合作平台，加快中新食品园区、亚太农业与食品安全示范区等重点园区建设。加强与俄罗斯、蒙古、哈萨克斯坦、柬埔寨、巴基斯坦以及美洲、中欧、非洲相关国家的合作，加快建设以粮食、畜牧领域等为重点的境外农业合作开发基地，加强国际产能合作。', '9．建设高标准农田。按照向长春市及国家现代农业示范区集中、向水田（旱改水）集中、向集中连片耕地集中、部门资金向同一片区集中、项目资金向“十三五”规划前两年集中“五个集中”要求，在14个现代农业示范县建设集中连片、旱涝保收、稳产高产、生态友好的高标准农田209万亩，大体上水田和旱田各100万亩。集中打造榆树市、永吉县、前郭县、德惠市、梅河口市、长春市九台区6大高标准水田片区。3月底前完成项目前期及招投标，4月到6月底组织项目春季施工，完成工程量的40%，7月到8月底组织夏季施工，12月底前组织秋季施工并进行年度总结验收。', '10．加快水利现代化建设。大规模推进农田水利建设，积极推进大中型灌区建设及续建配套与节水改造，完善小型农田水利设施，推广先进适用节水灌溉技术，探索建立节水奖励和精准补贴机制，鼓励社会资本参与小型农田水利工程建设与管护。新增和改善灌溉面积141万亩，继续实施34个县（市）山洪灾害防治项目建设，治理水土流失面积240万亩。抓好22项重点水利工程建设，完成投资100亿元。科学做好防汛抗旱工作，对全省34万眼应急抗旱水源井进行大排查和维修养护。继续实行防汛检查负责制，修订完善防汛抗旱预案，及时调配、合理布局全省防汛抢险物资。抓好高标准农田建设和农业结构调整水利支撑，支持旱改水的农田水利配套工程建设。深化小型水库、农田水利、水权市场、水利工程投融资机制、水利行政审批制度等水利改革。', '11．提升农业机械化水平。继续组织实施好普惠制、敞开式的农机购置补贴政策。优先在率先实现农业现代化示范县等17个县（市）扶持建设机械化新型农业经营主体200个。在32个县（市）安排落实保护性耕作300万亩，深松作业1400万亩。深入实施国家粮食生产全程机械化整体推进行动，围绕耕整地、种植、植保、收获、烘干、秸秆处理六个环节，探索一系列全程机械化生产模式。开展农机金融租赁试点。', '12．增强科技创新与应用能力。集成研发秸秆还田培肥、玉米一增双节高产高效栽培、优良食味稻和超级稻新品种培育及配套生产、大豆节本增效综合生产、棚室蔬菜标准化生产等5项重大技术。集成研发主要病虫害航化防控、玉米半干旱区水肥一体化、赤眼蜂防治水稻二化螟、苏打盐碱地水稻生产、米豆轮作高产栽培、脱毒马铃薯栽培、花生丰产栽培、绿豆丰产栽培、长白山人参质量安全生产等9项关键技术。抓好玉米规模化生产新技术示范推广、玉米规模化新技术集成创新、玉米主要病虫害航化防控技术、玉米半干旱区水肥一体化技术、超级稻新品种培育及其配套生产、玉米大豆轮作技术、温室和塑料大棚及其配套机械设备标准化建设、集约化育苗标准化生产技术等关键技术研究与集成创新。发布推介吉林省2016年农业主导品种和主推技术。建设县级试验示范基地不少于120个，乡级示范基地不少于200个。培育农业科技示范户不少于30000户。', '13．加快培育新型职业农民。培育新型职业农民2.5万人，其中现代青年农场主400人。制定下发吉林省新型职业农民培育工作指导意见，依托涉农院校和科研院所开展专业技能培训，依托现代化龙头企业开展创新创业培训，依托实训基地开展农业实用技术培训，依托省现代农业产业技术体系创新团队开展新技术新品种示范推广培训。创新培训管理，创新互联网+培训模式，探索开展互联网APP、微信公众平台建设，通过情景模拟化教学、网上政策咨询、专家授课等形式开展教育培训。调整课程设置和师资库，课程区分为公共基础必修课和产业专业技能课两部分，在1—2个县市开展试点，培训授课教师不少于600人。启动新型职业农民认定试点。继续开展冬春农业科技培训。', '14．推进农业可持续发展。编制《吉林省农业可持续发展规划（2016-2030年）》。推进长春市及国家现代农业示范区14个县（市、区），化肥用量增幅降到0.8%以下。全省落实增施有机肥1000万亩，秸秆还田300万亩，水肥一体化10万亩，高效缓控释肥300万亩，中微量肥料20万亩。加大对14个县（市、区）的高效低毒低残留农药品种的筛选和推广力度，逐步淘汰使用高毒农药。建立26个专业化统防统治与绿色防控示范区。加强农膜使用监管，坚决杜绝超薄地膜使用，在4个县（市）开展农用地膜回收项目建设。新增地膜回收网点20个，新增地膜加工能力1800吨，新增地膜回收面积50万亩。在14个率先实现农业现代化示范县（市、区），大力推广秸秆覆盖免耕技术示范。开展循环农业发展新模式示范、清洁生产养殖示范。加强农业面源污染监测，设立13个农业面源污染监测点。加强重金属污染防控，采集506个农产品样品，监测区域2024万亩左右耕地。继续做好刺萼龙葵、少花蒺藜草防控工作。', '15．推进秸秆综合利用。积极落实国家秸秆综合利用企业税收优惠政策和秸秆初加工农用电优惠政策，实施秸秆运输“绿色通道”政策，完善秸秆综合利用标准体系，出台秸秆综合利用和收储体系项目建设用地支持政策，加快秸秆综合利用技术研发及装备产业化生产，加大秸秆收储及初加工设备等机具设备购置补贴力度。在机场和城市周边、高速和国道两侧及粮食主产区等重点区域，推进秸秆机收打捆、收储和综合利用示范试点。积极扶持秸秆综合利用重点骨干企业，启动实施吉林省安基秸秆综合利用有限公司年产10万吨阶梯板及其它制品建设项目等重点项目20个，年可加工农作物秸秆100万吨。切实加强秸秆禁烧工作，确保2016年重点区域秸秆露天焚烧现象有明显改善。', '17．扎实推进现代农业示范区建设。推进榆树市、公主岭市、农安县、永吉县、前郭县、洮南市、梨树县、敦化市、梅河口市、东辽县、抚松县11个国家现代农业示范区率先实现农业现代化。全力打造高标准、高水平的前农现代农业核心示范区、长吉新型现代农业展示区和吉林石油集团华侨农场现代农业精品示范园建设。', '18．发展适度规模经营。总结推广规模经营新模式，集中集成使用政策支持规模经营主体发展，支持农业的生产用地、新增生产补贴等政策要向新型经营主体倾斜，增强新型经营主体辐射带动能力。研究制定适合中东西不同区域实际的示范性家庭农场标准，启动示范性家庭农场培育计划。总结推广土地入股、土地托管、互换并地等规模经营主推模式和私人订制、休闲种植、体验采摘等经营模式，并在14个县市开展各类模式或案例推广试点。开展全口径的规模经营主体调查统计和基础信息采集、登记。完成全部14个现代农业示范区的农村土地流转服务（农村产权交易）体系建设。积极鼓励和引导工商资本下乡，开展产业项目包装，打造工商资本进入和落地的载体。举办工商资本进入农业展洽会。', '19．健全完善社会化服务体系。研究起草经营性服务组织承担公益性服务的资质标准。开展社会化服务需求与供给调查，对经营主体服务需求进行调查登记。积极做好社会化服务对接。开展政府购买服务试点，重点是14个现代农业示范区，集中中央全程社会化服务专项资金和县级财政用于政府购买服务的专项资金，围绕技术推广、病虫害防治等确定购买服务的种类、项目。开展农业社会化服务机制创新试点，每个现代农业示范区至少要启动2个试点。', '20．推进农村一二三产业融合发展。开展休闲农业和乡村旅游示范县、示范点创建活动，创建2个示范县、3—5个示范点，培育评选出吉林最美休闲乡村20个。开展吉林重要农业文化遗产挖掘工作，建立我省农业文化遗产储备库。进一步完善龙头企业与基地农户的有效利益联结机制。探索总结农户以土地经营权或资产入股参与农业产业化经营的可行模式、方式和途径。研究促进一二三产融合发展的政策措施。培育带动能力强的龙头企业集群。启动投资3000万元以上农业产业化重点项目100个，力争完成投资50亿元。', '21．保障农产品质量安全。全面推进农业标准化生产，组织制定农业地方标准36项，畜牧业地方标准21项。新认证“三品一标”产品200个，建设10个“三品一标”生产基地，培育20个“三品一标”龙头企业，打造10个“三品一标”品牌，新建1—2个国家绿色食品原料标准化生产基地。建立完善农产品质量安全追溯体系，加快追溯公共服务平台建设，力争与全省食品药品可追溯监管平台实现对接。到2016年底，各级农业行政部门均单独设置或挂牌设立农产品质量安全监管机构。积极改造升级5个检验检测实验室。深入开展农产品质量安全执法监管，划分监管网格，明确行政负责人和技术负责人，推行投入品安全使用制度、农产品生产记录制度，重点开展农药、兽药、饲料等专项整治行动。抓好3个国家农产品质量安全县创建，抓好11个县（市、区）省级农产品质量安全县创建。启动8个县市农产品产地准出试点。开展4次例行监测，9次专项监测，确保监测合格率稳定在97%以上。开展蔬菜、食用菌、农产品包装物3项农产品质量安全风险评估。', '22．加强培育农产品品牌。研究编制吉林省农产品品牌发展规划，建立吉林省农产品品牌目录制度，研究制定吉林省农产品品牌目录管理办法。壮大吉林大米产业联盟，继续加大吉林大米品牌建设力度。启动洮南绿豆、扶余四粒红花生两个特色农产品品牌建设，通过举办各类农产品宣传推介活动重点打造推出一批农产品品牌。积极培育以“双阳梅花鹿”、“通榆草原红牛”、“延边黄牛”等地理标志商标品牌为重点的地方特色品牌。创新第十四届中国农交会组展参展工作。筹划办好第十五届长春农博会。', '23．发展互联网+现代农业。加快农业物联网技术推广应用，续扩建示范点51个，建设与省水利厅、省气象局等涉农部门的数据资源共享交换系统。抓好12316“三农”综合信息服务平台系统升级改造，对12316、12582专家队伍进行整合和重新聘任，全面推广应用测土配方施肥手机服务系统、易农宝手机客户端、农民钱包等信息技术。到2016年底，易农宝手机客户端用户突破30万户。完善市、县、乡、村四级农业农村信息化管理及服务网络。新建村级电商网店1000家，使我省标准化村级电商网店达到3800家。建设好淘宝吉林馆、京东特色吉林馆，探索与中通快递合作建设农村物流体系。推动农业大数据建设。', '24．推进农业结构调整。调减籽粒玉米面积300万亩。优化调整种养业结构，支持苜蓿和青贮玉米等饲草料种植，开展粮改饲80万亩。依托灌区实施旱改水，扩大水稻种植面积24万亩。在通榆等8个节水增粮项目区县调减玉米80万亩，改种其它高效作物。积极推动开展玉米大豆轮作，在东部敦化等8个县调减玉米80万亩。发展设施高效型种植业，大力发展生态农业观光园、采摘园等休闲旅游农业。认真落实结构调整扶持政策，充分发挥结构调整资金投入引导作用，对新型经营主体结构调整、适度规模经营、粮改饲和规模化养殖等方面加大政策补贴、信贷担保等支持力度。', '25．开展农村金融综合改革试验。扎实推进农村金融改革试验，着力推动机构创新、市场创新、机制创新，为涉农主体提供全方位、多元化金融服务。持续深化农信社等法人金融机构改革，增强可持续发展能力。探索农民合作社信用合作发展有效路径，提高农户融资可获得性。建设农业信贷担保体系，在14个现代农业示范区率先成立农业信贷担保分支机构，并尽快开展业务。鼓励各类资本组建涉农融资、金融仓储、互联网支付、消费金融、征信公司、保险公司等机构，进一步丰富涉农金融参与主体。创新农业产业链金融产品，稳步推进国家农村承包土地的经营权和农民住房财产权抵押贷款试点，扩大土地收益保证贷款规模和应用领域。进一步扩大农业银行经营权抵押贷款试点范围，把14个示范县（市）全部纳入试点范围。安排现代农业发展专项资金专项用于对家庭农场、农民合作贷款贴息和担保费补助。探索建立以保险公司为基础的农业再保险制度，探索建立多层次的农业保险大灾风险分散机制。提高农业保险保障水平，玉米、水稻、大豆、花生、葵花籽分别提高到4200元/公顷、5200元/公顷、3000元/公顷、2500元/公顷、2500元/公顷，取消产粮大县玉米和水稻品种财政补贴比例。', '26．推进土地确权整省试点。年内完成全省确权总任务量的70%，14个现代农业示范区力争年底前完成入户调查、外业实测、内业处理和确认公示等主要任务，鼓励具备条件的县（市、区）整县推进，力争25个县（市、区）完成入户调查和外业实测。抓好“三权分置并行”试点，调整完善农村土地承包经营权登记簿和农村土地经营权登记簿，在梅河口和公主岭探索颁发农村土地承包权证和经营权证。建立全省统一的农村土地确权信息化管理平台，抓好确权登记颁证信息与不动产登记信息平台衔接。制定确权工作的具体验收办法，做好验收准备和验收试点工作。', '27．启动抓好农垦改革。开展调查摸底，理清各类农垦农场管理体制、办社会职能、土地承包、职工社会保障、垦区劳动用工等基本情况，在调查摸底的基础上，列出改革任务清单，形成农垦改革工作方案。根据国家部署要求，研究制定我省贯彻落实中央《关于进一步推进农垦改革发展的意见》的实施意见和具体政策意见。按照推进垦区集团化、农场企业化改革方向，在四平辽河垦区、前郭灌区开展整建制转制试点，探索建设现代农垦农业企业集团。稳步推进农垦农场土地确权试点。', '28．推进国有林区和国有林场改革。做好改革前期准备，适时启动国有林场改革。在东中西分别选择代表性强、基础条件好的县份先行试点，逐步推开，确保在2017年完成改革主要任务。积极稳妥推进国有林区改革。研究制定国有林区改革具体实施方案，争取国家支持我省国有林区企业转制、机构设置、编制核定等相关政策，到2020年完成国有林区改革任务。', '29．深化粮食流通体制改革。全面落实粮食安全省长责任制，把责任细化分解落实到市县。推进粮食流通企业混合所有制改革，探索国有资本、民营资本交叉持股，推动农企融合、集团化经营。要扩大粮食银行试点，开办“粮食银行”业务的企业要达到150户。鼓励符合条件的企业开展代收代储、代销代加工，探索开展品种兑换、农资供应、仓单抵押、套期保值等业务。完善地方粮食收储保障体系，扎实推进“粮安工程”，加快仓储设施和物流节点项目建设，新建仓容300万吨，新建农户科学储粮示范仓1万套。开展智慧粮库试点。', '30．推进供销社综合改革。在四平等17个市县开展供销合作社综合改革试点，探索发展供销集团公司、新型基层供销社、农村社区综合服务社、合作社内部信用合作等多种模式，建设为农服务综合平台。在具备条件的地区，探索资金互助社试点。继续推进“新网工程”。以乡镇基层供销社为载体，探索多种形式的土地托管服务。依托全国供销总社和有关电商平台，打造“网上供销合作社”。制定供销合作社基层社规范，加快基层社分类改造，推动在基层社空白乡镇恢复重建基层社。深化社有企业改革，推进各层级社有企业相互参股，建立共同出资的投资平台，推动跨区域横向联合和跨层级纵向整合，加快培育企业集团。', '31．挖掘农民增收的潜力。着力推进农业内部转型挖潜，通过结构调整，加快发展特色高效经济作物，以及猪牛羊禽、鹿蜂蛙等规模养殖业。大力推广普及节肥、节水、节电、节药、节油和科学储粮仓等节本降耗技术。大力推进农村产业融合，创新农业产业化经营模式，发展订单农业和股份合作，建立保底收益+按股分红利益联结机制。支持发展产地初加工和深加工，提高农产品附加值。鼓励开展代耕代种、大田托管专业化服务。盘活农村存量资产，推进农村土地征收、宅基地、集体建设用地和集体产权股份化改革，促进农民的资产转变为资本，支持农民从土地承包权、宅基地使用权、集体收益分配权出让、转让中获得财产性收入。', '32．加大农民就业创业支持。加强劳务市场建设，及时发布用工信息，开展有针对性的对接活动，更多地为农民工提供就业岗位。充分利用冬春科技培训、展会大集、阳光工程、职业农民培训等形式和途径，开展以需定培、定向输出、定岗就业的订单培训，形成培养、就业、保障三位一体的农民工培训模式。要推进新型城镇化，实施农村产业融合发展试点示范工程，让农民经营在产业链、价值链扩展中获得更多利益。要对农民创业用地、用电、税费等方面给予支持补贴。进一步发挥新兴业态的增收潜力，实施休闲农业和乡村旅游提升工程，加快发展都市农业、观光农业、生态渔业、精品民宿和乡村旅游。实施互联网+现代农业行动，大力发展农产品电子商务，完善配送和综合服务网络，探索农产品个性化定制服务、会展农业、农业众筹等新业态。', '33．加快推进新农村建设。推进新一轮435个重点村建设，做好新农村建设专项资金补助项目建设。搞好435个重点村建设规划编制。完善提升500个新农村建设点，评定的108个美丽乡村。建立农村路、水、电、气、房等基础设施长效维护机制，建立农村环境卫生管理日常保洁制度，打造新农村建设文化品牌。推进80个新农村片区建设，集中连片建设的行政村达到400个。创建150个宜居宜业、美丽生态、幸福和谐的美丽乡村，使全省美丽乡村总量达到258个。打造美丽庭院5万户、干净人家20万户。推进24个县（市、区）整县美化。美化自然村2000个，自然屯7000个，打造花海旅游基地30个，美化农村公路10000公里。开展春秋两季农村垃圾专项整治活动，抓好农村环境卫生日常保洁。', '34．进一步加强组织领导。各级各部门要全面贯彻习近平总书记关于“吉林省要争当现代农业建设排头兵，率先实现农业现代化”重要讲话精神，深入学习贯彻党的十八届五中全会、省委十届六次会议精神，提高对率先实现农业现代化战略性、重要性、艰巨性认识，强化工作摆位，加大投入力度，创建形成强大工作合力。省直各部门要围绕《吉林省率先实现农业现代化总体规划（2016—2025年）》和《任务分工方案》，明确职责任务，强化协调配合，深入落实强农惠农富农政策，提出统筹推进改革创新举措，加大重大工程、重大项目推动力度。各市（州）、县（市、区）要科学制定本地规划和具体政策措施，将地方率先发展的积极性、领导干部干事业的积极性、企业上项目的积极性都聚集到率先实现农业现代化建设上来。各市（州）、县（市、区）要建立健全率先实现农业现代化领导小组和常设的领导小组办公室，做到人员、办公场所、工作经费三个到位。省率先实现农业现代化领导小组办公室要建立覆盖所有领导小组组成部门和省、市、县三级工作运行调度机制。', '35．统筹集聚各方面力量。各省直相关部门制定支持率先实现农业现代化工作政策意见，将各县（市）提出标志性重点工作与省直部门职能任务对接，把农村土地确权、国有林区和国有林场改革、粮食流通体制改革、供销社综合改革、农垦改革、农村金融改革、水利改革、城乡社会保障统筹改革、农村产权改革等改革创新和试点探索任务优先安排到率先县市，先行先试，集成应用，通过改革创新支撑率先发展。各级各部门要加强农业项目的包装，加大招商引资的力度，将企业等社会投资吸引到农业供给侧改革和现代农业建设上来，提升我省优质农产品的竞争力。贯彻落实《关于大力推进大众创业万众创新若干政策措施的意见》要求，制定激励鼓励政策，创新投贷联动、股权众筹等融资方式，为创业者提供低成本办公场所，发展创业孵化和营销、财务等第三方服务，发挥财政资金的撬动作用，引导和鼓励社会资本加大对“三农”的投入。推动与农业部签订共同推进农业现代化合作备忘录，与国家发改委、银监局等签订相关省部合作协议，争取国家部委的支持。组建吉林省率先实现农业现代化专家咨询委员会，围绕农业供给侧结构性改革、转变发展方式、产业结构转型升级等农业现代化建设面临的重大问题，确定课题进行专题研究。探索组建吉林省现代农业产业发展联合会，吸纳各个部门、社会各方面主体参与，发挥行业协调组织功能。', '36．推进涉农资金项目整合。以县域为载体，以率先发展规划为牵引，按照“统一规划、集中投入、渠道不乱、用途不变、各负其责、各计其功、形成合力”的原则，整合各类现有中央和省里涉农项目资金，集中投向14个县（市、区）和市（州）城市周边，集中投向20项重点任务的项目，打造标志性典型工程。提高财政资金整体效益，实现“规划一片、建设一片、建好一片、成功一片”。按照“五个集中”要求，在14个县整合安排发改、农发、国土等高标准农田项目，整合安排，集中建设。', '37．确定率先发展县市任务清单。邀请农业部和农业部规划设计院等多位专家、省里有关专家组成论证组，对14个县（市）区发展规划和市（州）周边都市农业规划开展审核论证，科学确定各地发展定位、思路目标和标志性重点任务，进而梳理汇总出任务清单和5—8项标志性重点工作，制定工作台帐，强化任务落实、责任落实。指导14个县（市、区）以及市州依据本地率先规划，围绕20项重点任务按年度提出建设项目，编制农业现代化重大项目库。', '38．建立完善督查指导机制。制定率先实现农业现代化工作考核办法。由省率先实现农业现代化领导小组组成部门牵头，组成14个长期结对督查指导组，按照责任书和考核办法对率先实现农业现代化14个县（市、区）进行督导。联合省绩效办将率先实现农业现代化重点工作任务纳入到部门绩效考核，工作成效与部门年度考核评优挂钩。', '39．加强学习考察和宣传工作。组织赴外地学习考察示范区、高标准农田和现代农业建设发展经验。做好工作简报专栏编发、网站开办工作，总结宣传典型，树立吉林率先实现农业现代化先进典范。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>53</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>打通最后一公里市纪委推动景山镇开展脱贫攻坚工作记事</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2018-11-29</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>http://xxgk.cbs.gov.cn/jsly/tpgj/201812/t20181227_388117.html</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['白山市政府信息公开专栏 &gt;&gt; 社会公益事业建设领域 &gt;&gt; 乡村振兴领域/脱贫攻坚领域', '“市纪委工作组组织我们村外出学习考察，开阔了视野，理清了发展思路，结合我们村发展乡村旅游实际，谋划了民宿、向日葵花海、黑玉米种植等产业项目，为我们村集体发展经济指明了方向……”三角村驻村第一书记陈磊在村民代表大会上激动地说。', '“变冬闲为冬忙，利用苞米叶、柳条、马尾草等编织手工艺制品，变废为宝，可以拓宽增收致富渠道。”白山市巧手职业培训学校校长李金枝在西南岔村妇女草编项目扶贫培训班上讲到。', '“大爷，入冬了，再出去干活就穿我给你买的棉衣；叔，这个药不好买，以后我从白山帮你带；大娘放心，只要下雪我就来帮你扫雪……”谋划项目、传授技能、送上关切，在市纪委脱贫攻坚工作组的全力推动下，这一幕幕温馨的画面成为景山镇包保帮扶打通“最后一公里”的常态。', '为全面推动景山镇脱贫攻坚工作提质增效，力促包保帮扶工作再上新台阶，市纪委抓住全市解放思想大讨论这一有利契机，勇于直面当前急需解决的问题，打开思路，放开手脚，充分调动镇、村、帮扶部门工作积极性，推动景山镇打通脱贫攻坚“最后一公里”专项行动向纵深开展。', '全面健全“四级包保帮扶体系”，即每一户贫困户都由镇领导班子、镇级驻村工作队、驻村工作队、包保帮扶责任人分别包保，使每一户贫困户由一对一结对帮扶变为四级包保帮扶，突出镇党委主体责任，将帮扶工作从“单兵作战”变为“团队作战”，形成网格化包保帮扶体系。在实际工作中，市纪委推动景山镇脱贫攻坚工作组要求镇领导班子、镇包村工作组、驻村工作队、部门帮扶责任人一定要扑下身子，真情帮扶；要切实通过引导产业发展、开展技能培训等方式，帮助解决实际困难，使贫困户树立主体意识、增强脱贫信心；严禁工作流于形式，敷衍塞责。', '市纪委推动景山镇脱贫攻坚工作组与包村镇级领导、各村驻村工作队开展座谈20余次，将工作压实到每名干部身上，增强打赢脱贫攻坚战的决心和信心。工作组还推动景山镇开展了全镇脱贫攻坚问题集中整改暨歼灭战专项行动，对脱贫攻坚工作存在的问题形成清单，明确责任人和整改时限。成立专项督导组，严格检查各村包保帮扶工作，坚持问题导向，严查工作不足，并将问题及时反馈驻村第一书记，强化整改落实。部署各村开展扶贫领域互检，全面检查贫困户满意度和脱贫认可度、村户两级档案和结对帮扶情况，及时发现问题，解决问题。组织42个包保帮扶部门负责人召开脱贫攻坚情况反馈大会，通报互检发现的问题，认真分析原因，对各部门后续包保帮扶重点工作进行安排部署。', '在市纪委脱贫攻坚工作组的有力推动下，景山镇各项脱贫攻坚工作正有序开展，成果逐步显现。参与脱贫攻坚工作的同志都表态，将进一步履行好包保帮扶职责，举全力推动工作再上新台阶，切实将“最后一公里”变成“零距离”。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>53</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>山东省滨城区发改局来我市考察学习</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2017-04-05</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>http://www.linjiang.gov.cn/zwgk/jcxxgk/bmdt/201706/t20170630_181665.html</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['3月28日，山东省滨州市滨城区发改局局长王晓勇携山东鲁抗医药股份有限公司、滨州泰裕麦业有限公司一行7人赴我市考察，学习我市在党风廉政建设、发展改革、招商引资工作中的先进经验和做法。市政协主席孙和平、市政府副市长娄善伟、丁相明及市市场监督管理局局长王俊德等陪同考察。 29日，山东省滨州市、吉林省临江市交流洽谈会在市市场监督管理局六楼会议室召开。副市长娄善伟主持了会议，市市场监督管理局、市工信局、市农牧局等部门相关负责人参加了会议。 洽谈会上，市工信局、市农牧局分别向考察团介绍了我市药品及农业产业结构情况。同时，在会上与来临企业进行了项目洽谈。 在听取完介绍后，考察团代表表示：临江投资环境优越，发展潜力巨大，希望通过此次考察，进一步加强与我市的交流合作。 交流洽谈会结束后，考察团一行还参观了我市宏大药业有限公司，与药品生产企业进行深入交流，并初步达成了合作意向。', '29日，山东省滨州市、吉林省临江市交流洽谈会在市市场监督管理局六楼会议室召开。副市长娄善伟主持了会议，市市场监督管理局、市工信局、市农牧局等部门相关负责人参加了会议。', '洽谈会上，市工信局、市农牧局分别向考察团介绍了我市药品及农业产业结构情况。同时，在会上与来临企业进行了项目洽谈。', '在听取完介绍后，考察团代表表示：临江投资环境优越，发展潜力巨大，希望通过此次考察，进一步加强与我市的交流合作。', '交流洽谈会结束后，考察团一行还参观了我市宏大药业有限公司，与药品生产企业进行深入交流，并初步达成了合作意向。']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>53</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>长白县以新担当新作为开创组织工作新局面</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2019-08-30</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201908/t20190830_432600.html</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['长白县把政治建设作为党的根本性建设，加大力度、创新举措，不断强化理想信念教育，凝聚党员干部担当作为、奋勇赶超的合力，激发党员干部昂扬向上、一往无前的奋斗姿态。', '用好主题教育“一个载体”，凝聚组织力量。成立“不忘初心、牢记使命”主题教育筹备组，举办全县“我的初心，我的使命”主题党日活动，同步开展系列主题活动230余次，组织专题研讨200余次，切实打好主题教育提前量。', '用好教育培训“一个抓手”，提高政治素养。争取干部教育培训专项经费190余万元，开展脱贫攻坚等专题培训10期，培训各级党员干部1100余人次。', '用好教育基地“一个平台”，强化党性修养。依托国门红色教育基地，承接各类学习考察23场次，举办白山市委老干部局、辽源市教育局等域外培训10余场。', '长白县将严管厚爱贯穿干部管理工作始终，矢志不渝提升干部素质能力，用管结合激发干部干事活力，努力打造一支敢拼、能拼、会拼、爱拼的干部队伍。', '树立“崇尚实干”鲜明导向。结合机构改革，调整干部5批147人次，其中提拔重用脱贫攻坚等基层一线干部24人，树立了崇尚实干的用人导向。', '发挥“以上率下”头雁效应。开展“清单式”攻坚活动，要求县管领导班子围绕全县重点工作，制定本部门（单位）任务清单，通过季调度、年考核的方式，推动形成“一级带着一级干，一级做给一级看”的良好氛围。', '落实“从严从实”监管机制。实行干部选任全程纪实监督，保证干部选任过程脉络清晰、查考有据，在今年的干部选拔任用工作中，做到了零信访、零举报。', '发挥“正向激励”鞭策作用。贯彻落实《关于进一步激励广大干部新时代新担当新作为的意见》，研究制定《长白县公务员职务与职级并行制度实施方案》，以正向激励激发干部队伍干事活力。', '长白县将提升组织力、强化政治引导力作为重要课题，坚持“政治功能”与“服务功能”并重，找准基层党建的关键点，不断推进基层党建工作取得新成效。', '夯实农村党建“惠民线”。聚焦重点领域，采取务实措施，推进乡村持续振兴。推动村部升级改造取得新气象。实施“乡村驿站”工程，升级改造8个村部，逐步将村级组织打造成带动村民致富、村集体增收的“阵营”，不断巩固边境一线村守土固边的堡垒作用。打开抓党建促脱贫攻坚新局面。召开全县抓党建促脱贫攻坚推进大会，选树23个先进集体和个人；举办“第一书记”代言产品展销会，助推扶贫产品大销售；开展驻村干部全覆盖式督导检查，从严日常管理。取得基层组织建设领域扫黑除恶专项斗争新进展。召开全县推进会议2次，落实部署要求，明确推进措施；净化村干部队伍，清除有前科劣迹现任村干部18人、留用25人，并顺利完成补齐配强工作；建立县、乡、村“三级联动”机制，整顿软弱涣散村党组织4个。实现发展壮大村级集体经济新突破。组成专题调研小组，对全县77个行政村进行实地踏查，谋划民宿旅游、中药材种植等集体经济项目44个，累计投入资金395.38万元，确定并稳步推进九道沟村等5个中央村级集体经济扶持项目。', '提升城市党建“服务线”。推动城市基层党建统筹联动，提高城市党建工作水平。创新“党建+”城市治理模式，依托“党建+旅游”服务中心，整合各领域优势资源，推行“一事一协作、一案一整治”模式，合力破解城市发展中的难点问题。延伸“长白帮客行动”，开展“万人环卫日”“爱心义卖·回馈社会”等帮客活动100余次，在全社会树立崇德向善的价值导向。深化社区“共商共治”，健全党建联席会议制度，推进社区、单位、行业党建互联互动，召开联席会议37次，解决问题29件。开展“砥砺98载·壮丽70年”系列活动，召开机关干部创先争优表彰大会，组织国有企业“山川真秀美·生态更和谐”文艺汇演，创新中小学“爱国情·强国志·报国行”等特色活动，进一步传递党建能量、提升党建质量。', '拓宽非公党建“发展线”。以巩固阵地为目标，升级八道沟镇硅藻土特色工业园区党建活动服务中心，打造非公党建活动场所5处。以服务企业为导向，实施“党建惠企物流车”行动，征求意见建议37条，开展专业化服务10余次。以融合发展为追求，开展“村企共建”活动，促成5个企业党支部与5个村党支部缔结共建对子，实现企业和农村党建共同进步。', '长白县立足民族边境地区实际，以服务县域发展、破除瓶颈壁垒为出发点，以“抢人才就是抢未来”的紧迫感，从人才引进、培养、运用等方面入手，多措并举、重点发力，实实在在念好“人才经”。', '以引才为“突破点”，加大聚才揽智力度。促成吉林大学生命科学院、吉林农业大学等多名博士生导师与该县企业签约对接，解决技术难题30余项。', '以用才为“立足点”，激发创新创业动能。组织开展长白县人才交流暨农特产品展销会，吸引87家企业广泛参与，实现68名返乡大学生与企业达成就业意向、3家本土企业与域外企业达成合作意向。', '以留才为“切入点”，营造爱才良好氛围。创新开展“人才暖心”工程，建立定期走访、返乡座谈等10项人才关爱机制，营造“礼敬人才、激励人才、服务人才”的良好氛围。']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>53</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>长沙市规划展示馆到长春新区规划展览馆交流学习</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2017-12-01</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>http://ccxq.gov.cn/xqyw/xqdt/201712/t20171201_2116194.html</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['11月30日，由长沙市规划展示馆副馆长章盛莉带队的考察团一行6人，到长春新区规划展览馆参观学习。', '考察团刚进入新区展览馆大厅，就被正面墙上螺丝钉组成的世界地图所吸引，章盛莉表示：“贵馆展示的世界地图中，清晰体现了国家“一带一路”的倡议构想，使展览馆有效融合了国家政策，值得借鉴。”在随后的近一个小时的参观中，从前言到战略规划，从四大分区到三楼大型仿真沙盘，考察团一行认真听讲解、做录音、拍影像，并观看了长春新区项目建设掠影。', '新区展览馆布局合理、重点突出、展示目的性鲜明；讲解员得体、到位、声情并茂；展览馆管理规范，从细处入手，体现人文关怀，这是考察团参观新区展览馆后的切身感受。', '参观完毕后，两馆相关工作人员就岗位设置、对外宣传、设备维护、讲解员培训等多个方面进行了一对一的深入交流；就如何取长补短、共同进步、如何更好的提升讲解服务水平交换了彼此的经验；大家都认为，在今后的工作中，要牢记责任感和使命感，发扬优点、弥补不足，更好的服务区域发展、服务人民群众。', '11月末的长春有些寒冷，长沙规划展示馆考察团受到了新区展览馆的热情接待。此次交流活动不仅增进了两馆的友谊，更达到了相互学习、共同提高的效果。', '据悉，中国城市规划协会规划展示专业委员会共有一百多家会员单位，长沙市规划展示馆是其中一员，而长春新区规划展览馆是众多会员单位中第一家区级展览馆，也是目前为数不多的具备国家行业标准、特色鲜明的区级展览馆之一。自新区展览馆对外开放以来，全面丰富的展示内容吸引了众多其他城市的展示馆工作人员前来参观学习；同时，通过交流，新区展览馆也在不断创新和丰富完善展陈内容，不断向自身注入新的活力。']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>53</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>长春新区获年全国人才工作创新案例评选最佳案例</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2019-09-19</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>http://ccxq.gov.cn/xqyw/xqdt/201909/t20190919_2117151.html</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['日前，中国组织人事报社、中国人才杂志社公布2019年（第四届）全国人才工作创新案例评选获奖名单，《打造“长白慧谷”海纳天下英才——长春新区“人才管理改革试验区”建设工作成果显著》案例荣获全国人才工作创新案例“最佳案例”。中国组织人事报社、中国人才杂志社举办的“全国人才工作创新案例征集评选活动”已成功举办四届，在全国各类人才工作评选中具有较大影响力。在中央组织部人才工作局的指导下，中国组织人事报社、中国人才杂志社举办了“2019年（第四届）全国人才工作创新案例征集评选活动”，共征集到全国27个省、自治区、直辖市来稿1100余篇。经严格评选，评出组织奖12个、最佳案例10篇、优秀案例120篇。此次经省委组织部、市委组织部推荐，入选2019年（第四届）全国人才工作创新案例，是长春新区构建高层次人才培育载体的重要成果，也激励着长春新区以更加积极的姿态、更加有效的举措推动人才工作迈上新台阶。', '致天下之治者在人才。长春新区启动建设以来，不断强调人才作为经济社会发展第一资源的重要性，始终坚持把人才工作抓好，让人才事业兴旺起来，依托省、市、区“三级共建”“人才管理改革试验区”，为推动省市全面振兴、全方位振兴，提供了有力的人才保障和智力支撑。2015年入选国家创新人才培养示范基地，2016年国家示范性侨商产业集聚区和华侨华人创新创业基地“侨梦苑”落户长春新区，2017年被确定为第二批全国“双创”示范基地，2018年以长春新区为核心的长吉图科技成果转移转化示范区正式获批。引进集聚各类高层次人才近5万人，累计投入资金8亿多元。', '人才“政策洼地”效应进一步凸显。2016年以来，新区依法依规，结合实际，进一步修订提升原有政策，完善出台了《长春新区加快高层次人才集聚若干政策》、《长春新区“长白慧谷”英才计划暂行办法》。为实现政策新突破，2017年公安部批复长春新区实施4方面7项外籍高层次人才出入境政策，使长春新区享有与北京中关村、广东自贸区同样的出入境政策，为外籍人才申请办理永久居留、入出境有效签证、居留证件等方面提供更大便利。', '人才引领创新驱动能力进一步增强。依托优质项目落位汇集一批高层次人才，中星微电子集团东北总部组建了以邓中翰院士为核心的6名技术和管理团队，“长白慧谷”英才宣明团队领跑吉林航天产业，目前已实现“吉林一号”13颗卫星在轨运行；光智园拥有200多项自主知识产权、专利，集聚各类人才近千人。释放政策红利“筑巢”吸引人才，评选八批“长白慧谷”英才，共入选131个人才项目，给予入选英才资金达8000多万元。拓展载体招才引智，开通“智联招聘”长春新区常态化引才专栏，引进人才400余人；与吉林大学等驻长高校建立“校友会协作联盟”、与院所开展“科技联合攻关”等成果转化计划，高校院所在新区新创办企业达100余户；承办中国（长春）海外人才创新创业项目大赛、长春市青年创新创业大赛等活动，全方位吸引创新创业人才。', '人才创新创业环境进一步优化。新区拥有创新型孵化载体35个，在孵企业1000余家，从业人员3万多人。依托“一院四所四校”优势资源，不断深化科技创新中心建设，打造光电子、新材料、新能源、生物医药、生态农业五大专业技术平台，累计引进高水平研发机构60家；省、市科技大市场相继落户新区，吉林省科技大市场入库科技成果2万余项，长春市科技大市场技术交易额达到300亿元；建成企业院士（专家）工作站15家，博士后工作站独立站5家，分站12家。全区拥有79家股权投资机构和近百家金融服务企业，建立了3亿元的战略性新兴产业发展基金，拥有各类产业基金达11只，总规模达248亿元；搭建了“信贷、股权、上市融资”的“梯形融资模式”，累计培育上市企业10家、“新三板”挂牌企业24家，占全市总数的52%。', '人才服务体系建设进一步完善。长春新区先后出台《长春新区打造一流营商环境“二十条”措施》、《关于实现项目和企业全流程精细化服务的实施办法》、《关于对招商引资项目和企业轻微违法行为首违不罚的规定》等一系列文件；建成省内服务项目最全、功能最优、配套设施最完善的长春新区政务服务中心，进一步扩大“最多跑一次”“证照分离”“标准地+承诺制”等改革成果。不断丰富服务内涵，规划建设200套新区人才公寓；开展“诸葛团”、“千户企业万张服务卡”、企业包保服务等活动；协助企业及人才积极争取各级各类人才项目扶持，2011年以来共组织申报国家、省、市专项近4000项，申请资金近33亿元。为区内各类高层次人才配备“人才服务专员”，了解并协调解决人才及所在企业遇到的困难和问题；组织开展高层次人才健康体检、走访慰问、外出考察学习等活动，协调解决人才子女就学、配偶工作、入境出境等问题，切实解决人才生产生活中的实际需求。', '用好用活人才，合理使用人才，给人才压担子、搭台子、铺路子，长春新区营造了拴心留人的人才环境氛围，形成了“集四海之气、借八方之力、聚天下英才”的良好局面。未来，长春新区将持续深入推进人才发展体制机制改革，不断优化创新人才体系，为省市全面振兴全方位振兴提供坚实支撑。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>53</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>抚松县利用价格调节资金新建平价超市</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2016-11-28</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_314983.html</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['为更好地发挥副食品价格调节资金的效益，抚松县价格监督检查局把建设平价副食品超市作为稳物价惠民生的重要平台和开展价格调控的重要抓手，在抚松镇已建有一个大型平价超市的基础上，利用省级副食品价格调节资金，又在松江河镇新建了大型平价超市。该平价超市位于松江河火车站商圈之内，营业面积1200平方米，其中平价专营区面积500平方米。', '为推进平价超市建设，抚松县价格监督检查局勤调研，重谋划，局领导班子多次到松江河镇进行实地调研考察，在一个月内完成了选址、建设方案、合作模式等各项前期准备工作，并安排了主管领导与超市工作人员共同到通化、吉林等地进行考察学习，学习兄弟市县区的先进经验和先进做法。', '平价超市的投入使用既能为当地广大群众提供安全、新鲜、平价的商品，同时，对实现农民增收、创收、维护农副产品价格基本稳定等方面将发挥重要作用。']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>53</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>白山德育工作者赴长春解放大路小学一八学校观摩学习</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2017-11-06</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_316309.html</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['为深入贯彻落实习近平总书记“推进党的十九大精神进校园”的指示精神，实现习近平新时代中国特色社会主义思想关于培育和践行社会主义核心价值观的要求，加强我市未成年人思想道德建设，市委宣传部、市文明办、市教育局于近日组织全市中小学德育校长、德育工作者，赴长春市解放大路小学和一○八学校两所首届全国文明校园参观考察，学习中小学德育工作先进典型经验。', '长春市解放大路小学社会主义核心价值观教育工作经验，多次得到中宣部肯定，学校构建德育方向正确，内容、手段、载体丰富，首创校园币评价体系，确立三阶段培养目标，社团活动精彩纷呈，科技创客空间、生态植物园、球幕影院成为孩子们健康快乐成长的乐园，社会主义核心价值观教育做到了落实、落细、落小，入脑入心。长春市一○八学校长期坚持以创建文明校园为载体，开展德育一体化工作细致入微，学校的文明校园创建、“乐帮”志愿者服务队、初中学生会例会、“生态文明”主题少先队例会活动都充分体现出全程育人、全方位育人、文明育人、育文明人的教育理念。', '长春市委宣传部、市文明办、市教育局对白山市组织的此次学习观摩活动给予了高度重视和大力支持，两所名校为接待参观活动进行了精心设计和周密安排，热情细致介绍经验做法，并增加互动交流环节。', '我市观摩人员非常珍惜这次难得的学习机会，认真学习和观摩，大家一致表示通过学习深受教育和启发，回到学校后，要以学习贯彻十九大精神为动力，结合实际，学以致用，多创佳绩，为全面提升我市的社会主义核心价值观建设工作做出贡献。']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>53</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>关于加强浑江区新时期人才队伍建设的建议</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2017-09-25</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>http://www.hunjiang.gov.cn/zw/yata/zxya/201804/t20180425_288119.html</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['为大力实施人才强区战略，积极营造“尊重劳动、尊重知识、尊重人才、尊重创造”的社会氛围，全面加强高层次人才队伍建设，激发人才的创造活力和创业热情，推动浑江经济社会又好又快发展，根据省委、市委关于各级党委要直接选拔管理一批优秀专家指示精神，已经在2013年选拔了首批和即将在2017年选拔第二批区管专家。区委、区政府对区管专家授予证书，并对区管专家申报的项目资金扶持、职称评定、进修经费等方面给予一定的资金资助。', '二、2017年围绕全区素质提升工程，制定“浑江区卓越人才培养工程实施方案”。创新人才教育培训模式，面向浑江区绿色转型发展需求，加大实践教育教学力度，争取三年内将全区卓越人才轮训一遍。为了顺利实施卓越人才培养计划、保证培养质量，由组织部牵头相关区直部门组成，主要研究并全面负责制定培养方案和实施方案，提出政策建议和措施，解决卓越人才培养工作中出现的重大问题，提供政策、人力、财力保障。', '以对人才实行重奖激励机制为载体，2017年将选择两个行业领域开展 “拔尖人才”评选， 并对其进行重点培养和扶持。通过相关专业培训班不断提升他们的业务能力，还要积极为他们域外考察、学习及参加各种学术交流创造条件。推行特殊人才享有特殊待遇，在他们提供管理、技术、知识等智力资本的同时也能感受组织、国家到对人才的关心和重视，避免“引进来，留不住” ； 推进人才服务中心和人才“一站式”服务窗口建设，通过制定完善引进人才的跟踪服务、定期走访制度，解除对住房、医疗、子女入学、配偶异地就业等后顾之忧，提供基础保障。']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>53</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>吉林省抚松现代农业科技园区建设进展情况简要汇报</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2015-09-29</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>http://kjj.cbs.gov.cn/sy/zngg/201704/t20170421_54490.html</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['抚松现代农业科技园区始建于2011年3月，是抚松县委、县政府基于转变地区农业发展方式，促进地区农业结构调整和产业升级，带动农民增收致富和新农村建设考虑而设立的。在省、市的大力支持下，科技园区通过两年多的运营，围绕园区核心区建设，我们成立了吉林省抚松现代农业科技园区建设工作领导小组，组建了吉林省抚松现代农业科技园区管理委员会，编制了《吉林省抚松现代农业科技园区发展规划》及《实施方案》，全面启动了各项工作。', '1、学习考察。2012年由抚松县副县长带队，组织相关专业精干人员到公主岭国家农业科技园区和沈阳辉山国家农业科技园区实地考察学习，收获颇丰。', '2、成立机构。2012年6月，抚松县委、县政府经研究决定成立了园区建设领导小组。2012年7月，成立了以县长为园区主任的吉林省抚松现代农业科技园区管理委员会。2012年8月，园区工作抽调相关工作人员到位，正式投入到园区各项工作中。', '3、人员编制报批。县编委召开专题会议研究园区人员编制申报事宜，由县编委负责向上级编委申报批准机构及人员编制。目前，此事项正在有序进行。', '4、2012年9月，与东北师范大学党委书记盛连喜老师、原省科技厅副厅长李广臣等5位老师在长春就抚松申报国家级农业科技园区工作座谈，完善修订《园区总体规划》。2012年10月，由东北师范大学城市与环境科学学院谷国峰老师等相关人员进一步修订完善了《实施方案》和《总体规划》，做好了申报的一系列前期工作。', '6、2014年2月-6月，吉林省抚松现代农业科技园区《实施方案》和《总体规划》，根据省科技厅要求多次修改完善。', '7、2014年6月，吉林省抚松现代农业科技园区规划通过省科技厅专家组论证，被正式命名为我省首批七个省级现代农业科技园区之一。', '基于园区发展需求，我县以抚松新城、万良镇及兴参镇部分区域为核心，打破行政区划，整合包括泉阳镇、兴参镇、露水河镇、北岗镇、新屯子镇、仙人桥镇、抽水乡、沿江乡等乡镇的中心发展区域的农业资源，规划建设了抚松现代农业科技园区，园区总体规划面积170平方公里。根据园区地貌、资源优势、产业布局等特征，确立为3个分区，即：核心区、示范区和辐射带动区。其中核心区60平方公里，示范区110平方公里。', '核心区——规划面积60平方公里。核心区的确立，基于三个方面的考虑：一是现有产业基础坚实。二是区位交通优势明显。三是未来发展需要。重点建设1园2基地3中心：科技企业孵化园，人参新品种、新技术种植示范基地，人参文化示范基地，科研中心，加工中心，销售—物流中心。', '示范区——规划占地面积110平方公里，重点建设2区3基地：长白山山黑猪等特种经济动物繁育养殖基地，蓝莓产业示范基地，北五味子产业示范基地，生态观光旅游产业示范区及矿泉水保护开发产业示范区。', '辐射区——主要是对白山地区乃至全省的特种经济动物产业及人参、蓝莓等特色产业种植发展引导、示范和推动相关产业科技成果普及、推广，使相关产业规模化、标准化、品牌化、销售市场化，以此带动农民增收致富，并分发挥重大示范项目的辐射作用，提升示范线对区域经济的带动效应。']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>53</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>市人大常委会开展双联双创活动纪实</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2018-09-26</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201809/t20180926_363140.html</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['“昨天反映的小区内僵尸车停放影响环境问题，没两天就解决了。”家住抚松泉阳林业局群众高兴地逢人就说，纷纷为人大代表为民办实事之举点赞。原来，抚松县人大代表接待日这天，群众反映在泉阳林业局44号楼一批僵尸车在小区内停放两年多，车内装有垃圾，整个小区气味难闻，影响小区环境卫生。人大代表立即将群众反映情况反馈到镇政府，镇政府经过核实后，第一时间组织人员将该批僵尸车依法进行处理。', '如何使人大代表在闭会期间履职尽责、发挥作用，一直是市人大及其常委会积极探索的重要课题。为此，市八届人大换届伊始，市人大常委会对全市的代表工作进行调研，针对调研中代表闭会期间履职能力不强，与群众联系渠道不畅、作用发挥还不到位、缺少活动载体等问题，经过充分审视研究和不断总结反思代表工作思路，在以往工作经验的基础上，结合新时代新要求，提出了在全市开展“双联双创”活动工作思路。即在人大闭会期间开展人大常委会组成人员联系人大代表、人大代表联系人民群众（“双联”）和创建优秀“人大代表之家”、优秀“人大代表民情联络站”（“双创”）活动。“双联双创”活动是市人大常委会做好新形势下创新人大工作的一个有益探索和生动实践，随着活动的深入开展，“双联双创”取得了较好的实效，发挥了应有的作用，成为代表闭会期间履职的有效载体，成为人大代表密切联系群众的重要途径，成为密切各级人大、各级人大代表之间联系的桥梁纽带。', '“双联双创”活动开展以来，有效激发各级代表的履职热情，使全市各级代表形成看成绩、比贡献、展风采的浓厚履职氛围。目前，全市共组建“人大代表之家”66个，组织代表开展活动347次，组建“人大代表民情联络站”504个，组织代表开展活动2236次，共征集群众反映的意见和建议2316件，为人民群众解决、落实208件，有效打通了联系服务群众“最后一公里”。正如代表所说：“过去一年一两次，现在一年七八趟。”许多代表尤其是基层人大代表从“会议代表”“举手代表”变成了全天候代表，田间地头、农家小院，“代表就在我身边”，人大代表成为贫困群众发展生产的主心骨，也成为人民群众意志要求的代言人。', '从人民群众密切关注、迫切需要解决的问题入手，精心部署，形成工作合力，是活动取得成效的根本保障。为将活动开展得扎实有效，市人大常委会组织各县（市）区人大常委会主任和市人大有关部门负责同志到天津市和平区、山东省淄博市进行了专题考察学习，根据考察学习到的经验，结合白山实际，反复斟酌、推敲、完善，先后出台制定了《关于开展“双联双创”活动的实施意见》《活动方案》等文件，成立了领导和工作机构，提出了主要工作措施。连续召开部署动员会、座谈会、总结表彰会、现场会进行部署、研究和总结，并先后三次带着课题到各县（市）区，深入到“家”“站”进行调研和指导。市委非常重视，对开展好此项活动提出了明确要求，并专门以市委文件对该《实施意见》予以转发，为市人大常委会设立了代表联络办，市、县两级人大均成立了代表联络办并配备了专职人员，在乡镇、街道“家”设专职秘书，村屯、社区“站”指定专人负责，办、家、站都有了明确分工，形成了完整的工作网络体系。广泛宣传，积极发动。运用灵活多样的宣传方式，加大活动宣传。各乡镇还采取告群众一封信形式，让“双联双创”家喻户晓。同时，加大宣传活动在保持与人民群众心声、解决实际问题的典型事例，以典型示范和带动作用，激励和引导广大代表更好地参与到活动中来。去年9月召开了全市“双联双创”工作经验总结交流会，会后又印发了《全市“双联双创”活动经验材料汇编》，有力地推动了活动的开展。', '“双联双创”开展以来，市人大常委会坚持“人民选我当代表、我当代表为人民”的理念，从人民群众密切关注、迫切需要解决的问题入手，使人大闭会期间的代表工作更加扎实，有效地促进了代表工作的制度化、常态化、规范化。代表之家以代表小组活动为主要途径，每月固定时间开展学习交流、述职、政策咨询、法规宣讲、义诊、科普、民意征集等活动，每位代表包括常委会组成人员轮流在每月的固定时间到民情联络站与群众面对面交流，汇集基层和群众的意见和诉求，根据征集上来的民意诉求，根据职权范围的层级，由民情联络站向代表之家、由代表之家向县、市人大代表联络办逐级反映，属于应由哪一级办理、哪个部门解决的问题按程序交办，督促“一府两院”认真办理和解答，真正做到察民情、听民声、释民惑、帮民需、集民智，不仅使人大代表成为“一府两院”工作的督导员、为人民谋利益的服务员，也成为政策法规的宣讲员、反映群众呼声的传递员，真正成为百姓身边看得见的贴心人，使有问题问代表、有事情找代表成为常态，让人民群众切实感受到党和政府的关怀和温暖。', '建立长效机制，有效地促进代表工作的制度化、正常化、规范化，是巩固活动成果，提升活动成效的重要方式。在服务中心工作上下功夫，引导和鼓励各级人大代表积极投身经济社会发展主战场，充分发挥各级人大代表在经济社会发展中的模范引领作用，不愧对“人民选我当代表、我当代表为人民”的承诺。向全市各级人大代表发出倡议，号召人大代表积极主动在“十大工程（战役）”中，认真履行代表职责，建功立业。为深入贯彻落实习近平生态文明思想，去年，在环境保护问题对政府进行了专题询问的基础上，今年开展“守住绿色家园”人大代表在行动系列活动，一年确定一个主题，在生态白山建设中彰显人大作为。在办理社情民意上做文章，一方面积极引导代表多联系选民，多参加闭会期间的各项活动，多深入基层调研区收集好的建议和意见。另一方面，对意见建设仔细逐件梳理，认真转办、督办、采办重点督办、递进式督办和将办理结果检查评比的满意率改为办结率的方式，提高办理的实效性。通过跟踪督办，把意见建议落实到实处，促使相关问题得到有效解决，形成良性循环。在助力脱贫攻坚工作上常发力，促使代表勇于担当，主动作为，引导鼓励代表争当脱贫攻坚政策宣讲员、争当政策贯彻落实的监督员、争当扶贫重点工作指战员、争当畅通上情下情信息员、争当维护和谐稳定调解员。江源区砟子镇开展了“脱贫攻坚在路上，人大代表在行动”主题活动，以“六个一”为抓手，即人大代表“走一村、上一课、帮一户、献一策、引一项、听一次”，助推脱贫攻坚。目前，此项活动经验已在江源区全面推广。通过“双联双创”活动，党的方针政策在基层得到有效落实，人民群众的民情民意得到有效反馈，密切了党和政府与人民群众的关系。', '一条条生动的经验做法，一件件鲜活的事例，记录了“双联、双创”工作的探索历程，见证了代表们真实践行“人民选我当代表、我当代表为人民”的庄重承诺，更体现了新时代下人民代表大会制度的勃勃生机与活力。']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>53</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>长白县多举措推进干部教育常态化</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2017-03-20</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_315415.html</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['近年来，长白县牢牢把握“大规模培训干部，大幅度提升素质”的工作目标，不断改进干部教育培训工作方法，加大培训经费投入，精心部署、从严组织，全面推进经常性干部教育工作进程，确保干部教育工作实现常态化。', '以“解放思想观念”为重点，激发干事创业活力。加大域外培训力度，通过到改革前沿城市实地考察学习，进一步增强全县干部干事创业的紧迫感和责任感。深挖长白潜在发展优势，融合先进发达地区理念，有针对性地举办旅游经济、绿色产业发展、园区和两新组织建设、电子商务等各类专题培训，探索富民强县的新思路、新举措。', '以“服务发展大局”为主线，提升综合能力素养。坚持问题导向，分层次、分领域、分类别精心设计培训班次和培训内容，突出抓好“一把手”、朝鲜族干部、后备干部等主体班次。定期聘请省市知名专家学者、行业领军人物等到长白县进行专题培训。', '以“创新教学理念”为载体，增强教育培训实效。转变教学理念，创新培训模式，探索实施“五式”教学法，即研讨式教学、体验式教学、情景式教学、案例式教学和实践式教学。增强参与度，使干部完成从被动接受到主动探索、从“听”到“思考”的转变，不断提高干部处理实际问题，特别是应对突发事件的能力，增强教育培训的灵活性、应用性和实效性。']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>53</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>白山市年学校艺术教育工作自评报告</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>http://xxgk.cbs.gov.cn/jsly/jyly/202002/t20200217_587529.html</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['根据国务院《关于全面加强和改进学校美育工作的意见》《全国学校艺术教育发展规划(2013-2020年)》和《教育部关于印发&lt;中小学生艺术素质测评办法&gt;等三个文件的通知》的要求，我市积极开展艺术教育工作，不断更新教师的教育观念，努力提高美育教育工作的管理水平，把美育教育渗透于学校教育的各个领域，使学校美育教育工作真正落到实处。现将我市2019年学校美育工作自查情况汇报如下。', '我市要求各县区和市直属学校都要按标准开齐开足艺术课程，并结合当地教育资源，开设了符合本校特点的地方学校艺术课程。小学一、二年级艺术课平均每周4课时，三至六年级艺术课平均每周3课时，同时各学校结合本校的实际情况适当调整音乐、美术学科的课时数；初中七至九年级音乐、美术课平均每周各1节；高中开设音乐、美术必修课及选修模块的课；中等职业学校将艺术课程纳入公共基础必修课。抚松县还在每年的初中毕业生学业考试中，增加了音乐、美术学科的考试，通过考试的形式对学生义务教育阶段艺术类课程的学习情况进行考核，确保艺术课程的教学质量。', '我市非常重视艺术活动的开展，每三年组织开展一次市级中小学生艺术节活动，每两年以县(市)区为单位组织开展中小学生艺术节活动，各学校也根据实际情况，每年或每两年举办一次综合性的校园艺术节活动，有条件的学校每年自行举办一到两次大型演出。各学校能够因地制宜建立学生艺术社团或兴趣小组，例如：合唱、舞蹈、美术、书法、剪纸、小乐器等，保证每周有固定的艺术活动时间。同时，积极组织学生参加区、市教育行政部门举办的艺术展演等系列活动，并取得一定的成绩。3月份，组织全市中小学开展了征集“吉林省第九届农民工子女书画精品展”和“吉林省第十六届青青草杯原创作品大赛”活动，6个县（市）区参与了此次活动，全市中小学共推荐优秀作品百余幅上报省里参加评选，荣获一等奖2个，二等奖6个，三等奖7个。4月份，全市中小学生艺术节暨第六届艺术展演活动中参加评选的优秀节目、作品、案例分别获国家级2个二等奖、1个指导教师二等奖和1个三等奖；省级13个一等奖、20个二等奖、32个三等奖，同时临江市教育局获国家级优秀组织奖；白山市教育局、抚松县教育局、长白县教育局获省级优秀组织奖。11月份，组织全市乡村学校少年宫参加在吉林市召开的全省乡村学校少年宫作品展，作品具有当地特色，得到与会同仁的高度赞许。', '多年来，各学校在教育局的统一要求下，认真开展了社团展演、艺术作品展出等一系列艺术活动，积极营造良好的校园文化艺术环境，配合路标、宣传栏、文化长廊、校园广播等，营造健康、高雅的学校文化艺术氛围，让校园处处萦绕着艺术的气息，打造了良好的艺术氛围，丰富了学校的校园文化环境。11月1日，市教育局组织召开了市直中小学（幼儿园）校园文化建设工作流动现场会，白山市实验小学和美悠扬、动感十足的“小乐器”；白山市红旗小学的自创绘本制作；白山市解放中学的艺体特色教育等，全方位地展示了学校的校园文化建设内涵及学校办学特色。', '我市共有艺术专兼职教师859人，其中专职的音乐教师313人、美术教师298人，兼职的音乐教师123人、美术教师125人，学历全部达标，其中部分学校的艺术教师是毕业于专业院校，也有些县区学校的艺术教师是中专、幼师毕业，但都是并爱好艺术学科，且具备一定艺术特长。由于艺术类大学生报考乡村学校较少，造成乡村学校紧缺艺术教师，音乐教师缺额129人，美术教师缺额108人。', '全市各学校设置艺术专用教室和艺术活动室共计643个，并按照国家标准配备艺术课程教学和艺术活动器材。其中音乐专用教室196个、美术专用教室175个、艺术场馆和其他类艺术活动室272个。', '近几年，“三小进课堂”教学成果得以全面推广，应用于全市中小学学校，得到了全国各地与会同仁的认可、赞许和好评。中国教师报第544期做了“三小”进课堂《简笔画打开课堂一扇窗》专题报道。2014年承办了“中国东北三省中小学美术学科教学论坛”现场会，会上小美术简笔画课堂教学展示及近千名学生现场作画，得到与会领导老师的高度赞扬。《简笔画进课堂 发展快乐教育行动研究》2014年获吉林省人民政府颁发的吉林省第四届基础教育教学成果奖。2015年吉林省教育信息网对“三小”进课堂做了专题报道。2017年《体育艺术教育三小进课堂项目实践研究》被第二届中国教育创新成果公益博览会审核通过录入为第二届中国教育创新成果并受邀请到北京全国教博会进行了成果展出。', '“三小进课堂”教学成果得以全面推广，应用于全市中小学学校，得到了全国各地与会同仁的认可、赞许和好评。中国教师报第544期做了“三小”进课堂《简笔画打开课堂一扇窗》专题报道。2014年承办了“中国东北三省中小学美术学科教学论坛”现场会，会上小美术简笔画课堂教学展示及近千名学生现场作画，得到与会领导老师的高度赞扬。《简笔画进课堂', '发展快乐教育行动研究》2014年获吉林省人民政府颁发的吉林省第四届基础教育教学成果奖。2015年吉林省教育信息网对“三小”进课堂做了专题报道。2017年《体育艺术教育三小进课堂项目实践研究》被第二届中国教育创新成果公益博览会审核通过录入为第二届中国教育创新成果并受邀请到北京全国教博会进行了成果展出。', '由于艺术教师师资的不均衡，各学校的教师队伍良莠不齐，所以今后要继续加强对艺术教师的培训，加大师资队伍建设，鼓励教师外出进修、改革教学方法，不断提高教学水平。', '部分学校的艺术教研组活动仍不够规范，特别是一些规模较小的学校，艺术教师较少，同学科之间难以开展有效的教研活动，这就要求教师不断增加自身的业务素质和基础文化素质，积极探索本领域的系统知识，增强教研、科研能力。', '白山市教育局要将学校艺术活动开展情况纳入到学校管理目标年度考核、校长学期（年度）职绩考核当中，要对在艺术活动方面有突出贡献的学校、领导、老师给予重奖，要在教育局学期工作总结、年度工作总结中表扬、宣传艺术活动开展好的学校。', '抓好国培与省培计划实施，切实抓好市级、县级和校本培训。认真落实教师补充机制，不断优化教师队伍年龄和专业结构。艺术教育师资短缺，是制约我市艺术教育发展的一个主要因素，加强艺术师资的培养，建设一支与素质教育要求相适应的艺术师资队伍，是学校艺术教育改革发展的根本保证，也是我市艺术教育工作的当务之急。我们会利用多种渠道，努力增加和提高艺术教师的数量和质量。研究制定艺术教师培训计划，加快对农村学校艺术教师的培训步伐；加强城乡之间的艺术教育教学交流，以城市带动农村。组织专业教师外出学习、考察，观摩学校艺术活动小组等，努力提高教师的专业水平。', '同时要采取有力措施，充实和稳定艺术教师队伍。在艺术教师考核、工作量的认定、晋级等方面建立有利于艺术教育发展的、相对公平的考核机制，使他们的工作积极性得到提高。', '今后教育行政部门进行督导评估，办学条件评估时，都要把艺术教育的器材配备情况、艺术功能室配备情况、艺术经费使用情况和生均艺术经费使用情况等，作为督导评估的一项重要指标。通过评估、督导，切实促进我市中小学艺术教育办学条件的改善和良性发展。']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>53</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>市人大常委会大力实施素质提升工程</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2018-05-24</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bmdt/201805/t20180524_327871.html</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['“每周三定为机关学习日”“加强帮带促学”“请进来讲、走出去学”“加强与外地人大沟通对接，建立了深度工作交流机制” …… 进入新时代，市人大常委会把“素质提升工程”纳入常委会机关建设的重要议事日程，始终坚持日常学习和集中培训相结合，学以致用，不断拓宽学习领域和渠道，为人大机关干部和代表认真履职打造素质提升平台的同时，以更严的标准、更高的要求，推动人大机关干部履职尽责、竞进作为。', '多措并举，打造学习平台。紧密结合新时期人大工作的特点和要求，紧扣发展主题，狠抓常委会及机关的自身建设，带动代表思想政治素质和履职能力的提高。坚持和完善常委会和机关学习制度，建立了学习阅览室，为各专门委员会和办事机构配齐了专业书柜，编发“两学一做”学习教育口袋书，要求全体机关干部要多看、精读、善思、会用。先后精心组织开展了系列理论宣讲、先进事迹学习、“两学一做”学习教育等，重点对党的十九大精神和新时代习近平中国特色社会主义思想进行系统学习和专题研讨。特别是党的十九大召开后，市人大常委会立即作出集中学习宣传贯彻落实十九大精神的决定，并带头掀起学习宣讲做实的热潮，邀请省、市专家进行宣讲。以人大常委会机关“周三学习日”为平台，开展常委会领导专题授课、委室领导轮流讲课、科级以下干部读书分享等活动，在向书本学、听专家讲、向同行学的同时，采取“请进来讲、走出去学”的方式，赴长春、南京、北京等地通过聘请专家教授授课培训、考察学习借鉴先进工作经验、选派人员到省人大挂职等渠道，不断提升常委会和机关能力。', '注重实效，创新学习载体。日前，组织人大机关干部到长春进行了集中培训，与长春人大进行了学习交流，与各专门委进行对接，实地到长春市普阳街道信阳社区进行了参观学习，其目的就是要学习外地人大工作的先进经验和有益做法，以高度的政治责任感和使命感，把外地先进的发展理念和快速发展的经验带回来，把好的工作方法和好的工作作风带回来，最终转化成推进白山人大工作、服务白山经济社会发展的强大动力。加强与各地人大的沟通对接，建立了深度工作交流机制。通过学访，既看到外地人大工作取得的经验和成效、增加了紧迫感，也看到了正在缩小的差距、进一步坚定了信心。今年还将组织人大常委会组成人员和专门委员会组成人员到北京进行培训，提升履职综合能力，适应新时代人大工作的需要。', '学以致用，问题倒逼提升。要求机关老同志要充分发挥余热，做好“传帮带”，年轻同志要谦虚好学，多向老同志学，多向书本学，多向实践学，不断培育担当的情怀、巩固担当的责任、提高担当的能力。连日来，市人大常委会党组坚持问题导向、着眼问题倒逼，组织各专门委员会、办事机构、工作机构及常委会组成人员坚持以习近平新时代中国特色社会主义思想为指导，紧扣中心，服务大局，围绕研究和谋划新时代做好人大工作的新思路、新举措、新部署、新要求，自觉主动地找差距、补短板、强弱项，开展了深入学习和思考。在此基础上，市人大常委会主任、副主任分头带队，分别赴各个县（市）区就“新时代人大工作要有新气象、新作为”开展了大调研活动，注重解决问题，专门在探讨应对之策、研究破解之道上做文章，通过听取汇报、与基层代表座谈、实地察看“人大代表之家”“民情联络站”等方式，就新时代如何围绕中心、服务大局，在立法、监督、决定、任免四项法定职权中实现新突破，更好发挥代表作用、提高履职能力，在人大机关自身建设等方面进一步加强深入调查研究，进一步理清工作思路，提出务实可行的对策措施。经过调研和召开做好新时代人大工作座谈会，使全市人大系统进一步提高认识、统一思想、提振信心，激发推进工作的强大思想动力。']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>53</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>白山市民政局与新疆阿勒泰地区民政部门开展对口对接交流活动</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2016-05-20</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>http://mzj.cbs.gov.cn/wzsy/tpxw/201705/t20170510_65078.html</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['新疆阿勒泰地区民政局局长哈吉木拉提.赛特汗等9名同志在省民政厅规划财务处魏玉宏副处长，市民政局副局长崔振才，浑江区民政局局长李华东、副局长王金波的陪同下，先后考察参观了白山市社会福利院和试运营中的养老服务示范中心、浑江区青山湖社区、浑江区养老服务中心。', '名同志在省民政厅规划财务处魏玉宏副处长，市民政局副局长崔振才，浑江区民政局局长李华东、副局长王金波的陪同下，先后考察参观了白山市社会福利院', '在市社会福利院考察时，哈吉木拉提.赛特汗一行参观了正在试运营中的养老服务示范中心各功能区域，对养老服务示范中心完善的服务设施、人性化服务与管理、宽敞明亮的活动场所、工作人员良好的精神风貌给予了高度评价。', '当了解到青山湖社区的工作人员详细记录了每位社区老人的生日，并在生日当天为老人们送上面条和鸡蛋，寓意着“长长久久”，新疆阿勒泰地区民政工作的同志由衷地赞叹社区工作人员细心、贴心的服务。', '的工作人员详细记录了每位社区老人的生日，并在生日当天为老人们送上面条和鸡蛋，寓意着', '此次对接考察活动，白山市和新疆阿勒泰地区民政部门的同志就各自的经验和做法进行交流，针对社会福利、社会救助、社区建设、社会事务等工作和养老机构管理方式、运行模式和服务规程，人才培养计划和对口支援工作等进行了探讨，对完善民政工作体制、机制和保障工作起到了积极的推动作用。（兰天）']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>53</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>浑江区干部教育工作显成效</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2013-07-08</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>http://www.hunjiang.gov.cn/zw/hjyw/201706/t20170623_132842.html</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['近年来，浑江区积极改进领导干部教育培训方式，探索出“一化一式一自主”即专题化、菜单式和干部自主选学的培训新路子，仅2012年就培训领导干部1300人，在全区领导干部中反响强烈。', '以专题化讲座为抓手，丰富领导干部培训内容。把组织需求、岗位需求和干部本人需求有机结合起来，实行专题化办学，设置了“灾害性突发事件管理”、“金融危机应对”、“文化与旅游产业发展”、“扩大内需与经济发展”、“招商引资与项目建设”、“公共礼仪”6个专题，培训各级领导干部600余人次。推行“二一一”模式，即每个专题班设置公共课和专业课两个单元课程，安排一次学员论坛，一次现场教学。相关职能部门共提供了近50个专业课备选课题，内容丰富且实践性强，改变了以往领导干部主体班教学重理论轻实践的不足。', '以菜单式选学为重点，强化各类干部培训成果。以科级干部、新提职干部、青年干部、妇女干部、党外干部、村级组织负责人及专业技术人员等七类培训为重点，发放调查问卷了解各类身份干部的培训需求，据此确定个性培训课题。形成党政干部、专业技术人员、农村基层干部一起抓，分级分类开展培训的格局。换届后，已举办领导驾驭全局能力提升培训班、新提拔领导干部红色教育专题培训班、“三方面”干部能力提升培训班、村（社区）书记轮训班各1期，后备干部综合素质提升培训班2期，培训领导干部140余人次，镇（局）级后备干部192人、专业技术人员96人，村书记、社区书记120余人次。', '以自主选学为核心，激发基层干部学习热情。改变了以往组织调训的局限性，各级领导干部可以根据工作需要和本人知识结构，自主选择最适合自己的培训专题。在各镇及辖村街道中开展“一地一色”的培训模式，根据各地不同领域、行业干部的不同特点和需求确定培训内容，让基层干部愿意学、学得懂、用得上、用得好。目前，针对三道沟镇旅游、渔业比较发达的优势，举办了大连旅游、果树、渔业生产养殖专题培训班；红土崖镇作为该区农业大镇，分别组织人员赴内蒙古、山西、山东等地学习考察沙棘、草莓等经济作物种植技术；板石街道作为该区专业合作社比较集中的街道，分别在广州和厦门举办了考察学习无公害蔬菜基地、蔬菜专业合作社培训班；六道江镇、七道江镇作为该区城乡统筹结合地，在成都举办了统筹城乡发展专题培训班。']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>53</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>长白县着力加强基层组织建设</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2016-08-25</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_314534.html</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['长白县围绕提升村级组织班子整体战斗力，创新措施，完善机制，强化管理，大力实施“班子提劲”工程。', '立规矩“提劲”。找准突破口，实行村干部“责任追究制，任务清单制，考评多元制，奖惩绩效制”四制管理办法，健全完善《农村基层党建责任落实工作实施办法》、《村干部坐班值班办公管理暂行办法》等，年初制定《村级组织工作任务清单》，试行《农村基层党建工作考评办法》，深入推行“一定三诺两评”管理办法，健全完善“村财乡管”制度，严格村党支部书记抓党建述职评议考核制度，督促广大村干部坚守“主阵地”、种好“责任田”。', '给待遇“提劲”。按照年均2.7万元的标准发放村干部报酬，确保按月发放。给予村书记每年500元的养老保险补贴。', '按上级有关政策，择优推荐适任的3名村书记进入乡镇领导班子，让“干得好”的村书记更有前途。结合今年县乡换届，积极推荐政治素质好、参政议政能力强的村干部作为“两代表一委员”人选。', '强能力“提劲”。定期组织党员干部通过农村党员现代远程教育网，加强服务能力、农村实用技术等方面的学习。扎实开展培训，今年6月组织对全县新当选的村“两委”和村务监督委员会负责人进行全员岗位能力培训，年末将组织村书记进行域外考察学习，进一步转变思想观念，提高政治引领能力和服务水平。', '推行村级后备干部“青蓝计划”，加大责任落实、物色人才、锻炼培养、预判储备工作力度，实行村干部后备梯次培养、动态管理、量才使用，在每个行政村选配7名以上优秀年轻后备干部。', '抓党性“提劲”。加强思想政治教育，深化“两学一做”学习教育，规范“三会一课”、组织生活会、党性分析、民主评议党员等党内生活制度，健全村班子周例会制度，发挥各乡镇“优秀年轻农民培训学校”作用，对基层党组织书记和广大党员干部有针对性地开展思想政治教育，切实提高对党员干部的思想教育和政治引领能力。']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>53</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>市慈善会学习考察慈善超市建设工作</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2014-07-01</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>http://mzj.cbs.gov.cn/gzdt/201705/t20170508_64520.html</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['6月4日上午，市慈善会工作人员到通化市东昌区慈善超市进行了考察学习。慈善超市负责人对超市的运营模式、慈善项目及未来规划都做了详细的介绍。慈善超市是由政府推动指导，社会各界广泛参与、新时期扶贫济困的新模式。白山市将借鉴通化经验在浑江区通沟街道建设慈善超市。', '月4日上午，市慈善会工作人员到通化市东昌区慈善超市进行了考察学习。慈善超市负责人对超市的运营模式、慈善项目及未来规划都做了详细的介绍。慈善超市是由政府推动指导，社会各界广泛参与、新时期扶贫济困的新模式。']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>53</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>江源区三项举措助力煤炭企业转型发展</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2016-08-18</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>http://jy.cbs.gov.cn/zwgk/jyxw/201706/t20170630_178477.html</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['白山市江源区扎实推进煤炭企业转型发展战略，以“提升服务”“取经借法”、“强化引导”三项举措,铺就煤炭企业转型发展快车道，有效促进全区产业结构优化。', '提升服务，为煤炭企业转型发展搭建平台。搭建融资平台，对技术设备先进、产品有竞争力、有市场、有效益的煤炭企业，给予资金支持。今年江源农村商业银行在我区挂牌成立，这是全国首个由民营机构全资控股的农商银行，开启了全额引进民营资本重组高风险地方农联社的先河，是我区金融改革的又一新创举，也为转型发展提供了一个新的强大融资平台。搭建沟通协作平台，以组织开展座谈会等形式，促进企业间的相互交流。', '取经借法，走出去学习外地转型成功经验。积极带领煤炭企业家赴经济转型发展成功地区考察，了解当前最前沿的企业生产经营创新方式方法和发展趋势，学习先进的生产经营理念，谋求适合我区煤炭产业具体情况的转型之路。5月22日-29日，我区组织26名煤炭企业家和相关部门同志参加了全市煤炭行业企业家赴陕西西安、延安专题培训班，实地考察学习了西安市在创意园区建设、物流产业发展等方面的成功经验。', '加强引导，促进政府和企业在转型发展上形成共识。向企业积极宣传转型升级的重要性，鼓励企业家解放思想，积极做好产业结构调整和创新思路转变。成立了全区煤炭企业转型发展领导组，由1名副区长担任组长，全面负责煤炭企业的转型发展项目建设工作，区安监局专门负责煤矿企业转型发展工作的日常指导和服务。相关职能部门，通过实地调研等多种形式，及时了解煤炭企业转型发展中出现的问题。（许春华 孙伟皓）']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>53</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>白山市供销合作社深化改革求突破做强企业求发展</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2019-05-22</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bmdt/201905/t20190522_413666.html</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['实施分类指导。白山地区供销系统社有企业86户，其中：能正常运行且相对较好的36户，占41.86%；靠出租资产勉强维持的32户，占37.21%；处于停业困境的18户，占20.93%。针对这种情况，通过实施精准对标，因企施策，利用供销社有形资产和无形资产的潜在作用，采取强强联合、引进能人、龙头企业带动等形式，助推有经营活力的企业提档升级，做优做强企业品牌；对维持现状的企业盘活资产，寻求行业合作伙伴；对一些僵尸企业，通过资产有效转换，确保社有资产保值增值。靖宇县龙泉供销合作社引进本地优秀企业家韩有利投资500万元，改造综合办公楼547平方米，新建厂房1200平方米，库房1000平方米，除了经营传统的服务项目，注册成立了吉林省奇诺莓饮品有限公司，又扩建综合加工厂、办公室、仓库、冷库等6000多平方米，年实现销售额800万元，安置农民工60余人，带动当地农户100多户，改造后的龙泉供销合作社综合服务功能明显增强，经济效益和社会效益都有了很大提高。', '提高管理水平。白山地区市、县（市、区）两级供销社都成立了社有资产管理委员会，在此基础上，又相继成立了社有企业管理有限公司，整合了社有资产，理顺了管理模式，推动企业经营和管理逐步走向规范化。我们还充分发挥各级监事会作用，通过建立健全监事会工作制度，完善监督工作制度保障，规范监事会工作流程，提升了监事会监督职能。对社有资产需要处置、变现、置换、转让、参股、对外出租等，均要提前上报市社理事会，由监事会全程监督并备案，经党组会批复后方可执行。', '完善制度机制。为了加强企业内部管理和风险防控，提升社有资产监管水平，市社先后制定了《直属企业管理办法》、《关于压实监管工作职责的意见》、《核心权利及制度建设改革工作措施》等制度，形成了用制度说话、以制度管人、依制度办事的良好机制，有序的推进了企业经营发展和内部管理走上规范化、制度化，并形成了企业经营效益与企业员工薪酬挂钩的激励约束机制和考核评价体系。一是每年市社与企业签定《租赁经营责任书》、《资产管理目标责任书》等责任书，明确了出资人的权利义务，并在年底根据完成情况进行绩效考评。二是围绕年初与社有企业签订的《目标责任书》，有重点、有针对性对社有企业资产管理情况进行审计监督检查，对企业存在问题，提出完善企业内控制度的意见和建议，并将审计结果作为年度业绩考核依据。三是完善和加强服务企业联系工作机制，建立了领导包保企业联系点，及时了解和掌握企业的需求和困难，为企业出谋划策，疏通渠道，解决实际问题。四是对企业领导班子成员工资待遇进行相应调整，按照基本工资+浮动工资+绩效工资来核定企业经理和其他班子成员工资标准，从而激发了企业管理者和广大员工的积极性。', '为了促进社有企业在经营管理、产品品牌、人才队伍等方面能够适应市场经济要求，积极组织企业，特别是企业经理走出去学习考察，转变经营理念，调整经营方式，使企业在激烈的市场竞争中不断完善壮大。', '联合合作，改善社有企业经营状况。对资产较好，但无经营项目的企业，通过招商引资，引进社会资本来有效盘活社有资产。白山市万和有限公司是供销社老企业，虽然地处市区，但企业历史债务沉重，大部分资产长年闲置，使用效能低下，在与民营企业鑫精通汽车维修中心合作后，形成了互惠互利的“双赢”关系，企业翻新改造了库房院落，合作经营汽车维修及零部件销售，使社有资产增值了，企业收入也增加了。', '参股合作，促进优势产业做优做强。坚持走先由供销社入股龙头企业，再由龙头企业带动供销社发展的路子，形成“供销社+龙头企业+供销社”的经营模式，并收到了较好效果。抚松县松江农村供销社利用供销社无形资产入股省级龙头企业“吉林长白明珠森林食品有限公司”，并为其争取中央服务业发展专项资金270万元，进行人参深加工系列产品及配送中心建设，新建车间和鲜人参低温储藏库7200多平方米，现在已有7个系列28个品种养生功能性保健食品，通过线上线下销往香港、匈牙利、加拿大及全国各地，年销售额3000多万元，带动3个合作社，280户参农，为每户增收近2万元。目前，全市龙头企业带动供销社发展的示范企业有8家。', '战略合作，在新兴领域方面谋发展。主动加强与地方金融部门的对接合作，借助金融惠农政策，为社有企业的健康发展提供金融支持。一是市供销社与浑江农村商业银行等六家金融机构共同签署了“供销+金融”战略合作协议，积极推介供销项目，助力社有企业发展。二是长白县供销合作社与县农信社签定协作协议，以社有资产为抵押，给予授信500万元贷款额度，采取灵活的信贷支持，为农资供应、农副产品收购提供了资金保障。三是一些乡镇供销社与当地农村信用联社合作，开设了乡镇金融网点，接入POS机终端，结合企业手机银行，为客户在八小时以外、周末、节假日开展存、取款、转账等业务，打通了服务“三农”的最后一公里。', '加大政策支持力度，历史遗留问题得到解决。一是加大土地、税收政策支持，为经营困难的企业暂缓缴纳土地使用税，并享受国家企业改制重组相关税收政策，减轻了企业资金压力。二是对在银行抵押的社有资产，采取先由白山市国有资产投资有限公司整体打包回购，再由企业低价购回的办法来解决历史欠账，市益合农业生产资料有限公司欠农业银行历史沉欠贷款本息2,284万元，该企业仅用143万元化解了公司债务，盘活了企业资产；三是紧紧抓住市区棚户区改造这一契机，对地处这一区域的供销企业，通过与政府有关部门沟通协商，进行异地置换，扩大经营场所，为企业更好地发展提供了条件。', '发挥财政资金作用，社有企业全面提质增效。依托项目建设，通过争取国家、省级服务业发展专项及地方财政资金来做大做强社有企业。白山市银河商城积极争取省级服务业专项资金的扶持，以项目扩大经营规模。几年来，共获得省级专项资金支持282万元，商城从小做大，从弱到强，收到了较好的社会效益与经济效益。长白县十四道沟供销合作社是国家级基层社标杆社，县财政连续两年共支持80万元对房屋、库房、院落进行改造，经营场所实现一站式综合服务。他们还本着“一村一店一特色”、镇村连接、独立核算的经营模式，在镇所辖的5个自然村恢复成立了供销社（分销店），把为农服务触角延伸到了村屯，实现了为农服务“零距离”，也带动了村域经济的发展。', '精选名优特产品，积极打造白山供销品牌。充分利用供销系统网络渠道优势，提倡企业通过贴签注标等方式，宣传推介白山“土字号、乡字号”特色农产品，扩大白山品牌知名度和供销社的影响力，用供销品牌助推企业发展。市社与白山市乐淘&amp;山野优品电子商务有限公司达成合作意向，企业负责注册带有“供销”标识的商标品牌，市社负责对接对口合作发达省份的供销网络平台，共同开发市场，扩大销售渠道。目前，白山有影响的供销品牌达20多个。', '总之，要想使社有企业在激烈的市场竞争中有所发展，不断壮大，必须要积极转变思想，强化创新意识，抓住供销合作社综合改革机遇期，继续深化社有企业改革，不断寻求新的发展空间，把企业做大，把行业做强，为供销社改革发展增添新活力、增强竞争力。']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>53</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>变废为宝巧手编织玲珑梦</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2016-06-15</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>http://www.fusong.gov.cn/xwzx/tplb/201706/t20170627_159239.html</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['走进抚松县新屯子镇黄泥村郭爱玲的玲珑工艺小屋，一个个精美的草编、珠编、剪纸等工艺品映入眼帘，货架上摆满了她用玉米叶精心编织的手提袋、汽车坐垫、笔筒、小筐以及珠编等精美的工艺品，墙上挂满了她的剪纸作品，谁也不会想到这些漂亮的工艺品都是出自一名残疾人的手中。', '郭爱玲是抚松县新屯子镇黄泥村的一名普通农民，由于腿部残疾，她从小就不能从事体力劳动，只能呆在家里，由于母亲喜爱剪纸，过年时她也学着经常给邻居们剪窗花，有人结婚给人家剪喜字等，一张红纸，一把剪刀在她的手上飞舞，一会儿就能剪出精美的剪纸作品。结婚后，她还是继续从事着自己心爱的剪纸，有一次，心灵手巧的她看着农村被人扔掉的玉米叶，突然想，现在人们都崇尚天然绿色的用品，玉米叶没有污染，纯天然的，成本很小，自己本来就有编织的基础，何不把这些玉米叶编织成工艺品，既满足了自己的爱好，又能补贴家用。说干就干，她让女儿从网上购买了天然环保的染料，收集了很多玉米叶就开始了她的草编的之路。镇残联又积极帮助联系，推荐她多次参加县残联举办的培训班，使她不仅深入的学习了草编技术，也学习了珠编技术，镇委书记带领她到舜太民艺公社等进行考察学习，使她拓宽了眼界，增长了技艺。', '现在她的编织技术越来越好，已经能够编织出五十多种玉米叶编织品，大到汽车坐垫，小到笔筒、荷包，由于产品天然绿色无污染，越来越受到大家的喜爱。现在她的编织品通过微信和买家的介绍已经慢慢卖到抚松等地，受到了很多越来越多人的喜爱。镇委和残联等部门也将继续加大对她进行资金、场地、技术培训、产品网上销售等方面的扶持与帮助。她也希望有更多的人能加入她的编织队伍，和她一起进行草编创业，用自己的双手编织出五彩的致富梦。']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>53</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>抚松县经济局积极开展电子商务工作</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2015-04-23</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>http://www.fusong.gov.cn/xwzx/fsyw/201706/t20170616_114853.html</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['为认真贯彻落实省、市、县关于加快推进中小企业电子商务发展的一系列重大决策部署，经济局党委对开展电子商务工作高度重视，成立了由主管副局长任负责人的专门科室，把电子商务工作列入今年经济局十项创新重点工作中，计划在今年上半年完成抚松县电子商务产业园区前期筹建工作。为进一步做好此项工作，经济局局领导于3月17日带领相关工作人员赴辽源和公主岭，进行实地考察，学习其发展电子商务的先进经验。考察结束后，经济局形成调研报告，向县领导作了专题汇报，并对抚松发展电子商务工作提出了建议，为县领导决策提供了依据。近期，经济局又按照委、县政府的要求，着手制定“关于加快推进抚松县电子商务发展应用的实施意见（试行），谋划今后我县开展电子工作工作的整体思路和发展方向。']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>53</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>市委办着力打造服务型团队</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2017-03-09</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_315375.html</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['市委办公室突出精深思考、精准聚焦、精细服务“三精”工作导向，聚焦素质提升，以搭建平台、组织活动、锤炼品格为主要抓手，着力打造一支有理想、有人格、有本事、有担当、有行动、有境界的“六有”干部队伍，助推“三服务”能力和水平全面提升。', '作为市委综合办事机构，市委办公室充分履行“参谋辅政、统筹协调、督查督办、综合服务、后勤保障”五项职能，在服务中突出亮点、建设精品，努力打造让市委放心的“坚强前哨”和“巩固后院”。他们按照“六有”干部要求，坚持把搭建平台作为干部素质提升的有效举措。一方面，积极开展“三个工程”，即文字综合能力提升工程，办会、办事能力提升工程，办文能力提升工程。制定实施方案，成立领导小组，明确时限和具体措施。另一方面，着力构建三个平台。一是构建教育培训平台。在全市机关首创建成“党之园”活动室，收藏各类书籍千余本，为机关干部自主学习、读书交流提供平台。打造“书香机关”，以“一人读书，大家分享”为理念，开展每月读一本书、撰写一篇心得体会、分享交流一本书、全年编写一本读书刊物“四个一”活动。注重请进来。先后邀请知名学者、各级领导干部，围绕公文写作、信息调研、公务礼仪、文件处理等内容进行了专题授课。积极走出去。结合白山实际，加大赴省内外考察学习力度，组织开展域外培训，拓宽眼界，提升境界。二是构建实践锻炼平台。开展“大督查”活动。结合重点督查任务，把全员分批次纳入督查组，深入基层一线，深入项目一线，了解新情况，研究新问题，既为“练兵”搭建平台，又为督察督办充实力量。开展“大调研”活动。紧紧围绕绿色转型全面振兴大局和“十大工程（战役）”，立足全局，深入调研，以实际调研成果助推各项工作落地生根、开花结果。去年完成6篇高质量调研报告全部得到市委主要领导签批。开展“大讲堂”活动。每周五下午举行一期“业务讲座”活动，由各科室、部门负责同志或业务骨干讲解各科室、部门业务知识、业务流程等。讲课内容涵盖了保密、文电、信息等，成为全市干部队伍建设的品牌工程。开展“上挂下派”活动。选派年轻干部到省委办公厅对口业务处室进行跟班学习、对口锻炼，组织安排机关干部到企业、基层挂职锻炼，让干部在基层经风雨、见世面、壮筋骨。去年派出1名副主任对口帮扶企业，得到市委主要领导和企业的高度认可。三是构建实战提升平台。全员写信息。建立全员信息制度，坚持抓亮点、抓特色，深度挖掘常规信息，每人全年至少发表2篇信息。全员校稿。重要会议、专项会议领导讲话稿，汇报材料，工作报告等实行全员校稿制度，以科室为单位，全员上阵。全员参与大型会议。根据工作需要，打破科室界限，重要会议全员参与、全部分工。', '为缓解工作压力、强健体魄，市委办把文体活动作为提振干部精气神的重要举措。组建了排球篮球队、乒乓球队、太极拳队、合唱团、户外登山协会等活动小组，并以支部为单位，利用业务时间开展丰富多彩的文体活动，使支部活动有载体、有抓手，凝聚力和向心力显著增强。']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>53</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>我县加强经济建设创建美丽乡村</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2018-11-09</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>http://jyx.cbs.gov.cn/wzsy/jrxw/201811/t20181109_374661.html</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['我县为扎实推进美丽乡村建设，西南岔村结合自身实际，提出了建设“生态南岔、美丽乡村、幸福家园”的工作目标，制定完善了具有可操作性的工作机制。', '一、抓组织领导，做到推动有力。为抓好此项工作，西南岔村建立了由村党支部书记、村主任任组长的美丽乡村建设领导小组，领导小组下设综合协调组、环境整治组、绿化工作组，抽调村精干力量，集中办公，专职负责综合协调、操作实施、信息汇总等工作。各组按要求充实队伍，健全工作机制。村里成立村民理事会，明确理事会和村民在村屯内部管理和维护上的责任。着力构建各方参与的工作体系，形成美丽乡村建设的强大合力。', '二、抓统筹谋划，做到规范推进。坚持规划引领，突出把高起点、高标准的建设理念融合到规划中，坚持不规划、不建设，目前全村规划已经由省城乡规划设计院帮助编制完成。注重考察调研，村美丽乡村建设领导小组多次对全村美丽乡村建设情况进行调查研究，并多次组织村三委成员和村民代表外出到辽宁丹东、吉林通化等地考察学习，举办美丽乡村建设专题研讨会。为有序推进美丽乡村建设，西南岔村按照县、镇美丽乡村建设的总体要求，研究制订了村总体建设、产业发展、环境整治、绿化美化、资金整合等一系列工作方案，通过“零距离”地与群众接触，面对面地与群众交流，对村规划建设、环境整治和产业发展等方面达成共识，形成目标。', '三是抓典型示范，做到重点推进。按照景山镇“培育中心村、整治自然村、提升特色村”的工作要求，西南岔村作为全镇美丽乡村建设的试点，结合实际情况，征求群众意见，确定了村规划、产业发展、环境整治、基础设施、农田整理、公共服务等若干个“推进点”，实施分类实施，注重远近结合、难易结合、软硬结合，确保了工作的重点推进。', '四、抓资金投入，做到有效保障。从2016年开始，争取镇财政安排资金5万元，支持西南岔村的美丽乡村建设。建立西南岔村美丽乡村长期投入保障机制，积极利用省级美丽乡村建设、新农村建设、镇级配套资金，整合好村屯整治、农村清洁工程、人畜饮水工程、水利建设、体育健身、土地整治等各类项目，根据西南岔村美丽乡村建设规划，制定道路、排水、绿化、环境治理等项目财政奖补标准，有序推进美丽乡村建设。加强资金监管，对资金筹集、工程招标、资金报账、财务核算、资金拨付、竣工决算、审计做了详细规定，保证西南岔村美丽乡村建设资金的有效使用。', '五、抓氛围营造，做到家喻户晓。尊重群众意愿，依靠群众力量，才能真正做好工作。西南岔村积极做好宣传发动工作，引导群众积极主动参与，利用召开户代表会议等形式，把美丽乡村建设从意义上讲透、内容上讲清、情理上讲明，取得群众的广泛赞同。村广播室对西南岔村美丽乡村建设情况进行专题宣传报导，编发新闻近10条。围绕“生态南岔、美丽乡村、幸福家园”主题，对美丽乡村建设涉及的文明创建、综治、植树造林等各个方面进行宣传教育。坚持内宣、外宣并举，主动邀请靖宇电视台、靖宇日报、长白山日报等媒体走进西南岔村作专题报道，进一步提高了西南岔村的影响力和美誉度。', '西南岔村将继续以村屯环境整治为突破口，推进村屯基础设施、公共服务配套等方面建设，尤其是针对村内卫生死角，大力开展农村垃圾污水处理等活动，通过农村“一事一议”、以奖代补，逐步推进各种农村垃圾处理模式，同时在村内加强绿化和景观带的建设。紧密结合全镇文明创建活动，推进乡风文明建设，力争实现美丽乡村建设上档升级。']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>53</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>沈阳市中学到抚松考察学习</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2015-05-21</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>http://www.fusong.gov.cn/xwzx/fsyw/201706/t20170617_115735.html</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['5月20日上午，沈阳市108中学教师在王铁英副校长的带领下，来到抚松县考察学习 “语文主题学习”的开展情况。', '沈阳市108中学教师一行六人在县进修学校朱建宏副校长、语文教研员的陪同下来到外国语学校一起听了四节初中“语文主题学习”研讨课。', '外国语学校共有四位教师做课，分别以“聆听生命的歌，迎接精神的洗礼”、“悲剧中的美与力”、“在阅读中让思绪飞扬”、“剪不断的乡愁”四个不同的主题做了研讨课。听课结束后，所有与会教师共同进行了座谈交流。座谈中，进修学校朱建宏副校长介绍了“语文主题学习”的相关理念和运作情况；外国语学校宿久俊副校长就 “语文主题学习”的开展情况作了具体汇报。交谈中，沈阳市108中学的教师们对该校讲课的四位教师给予了高度评价。大家认为教师个人素质好，具有“大语文”观念；课堂容量大，内容广博，语文主题阅读开展的实、活、到位；学生精神面貌好，训练有素，语言表达能力强，语文底蕴深厚……同时，他们与外国语学校教师就语文主题课的相关问题进行了探讨交流。', '此次沈阳市108中学教师的考察学习，将抚松教育在“语文主题学习”方面的先进经验进一步推广开来，促进了校际间的交流学习，共同提高，体现了资源共享的时代优势。']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>53</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>王德胜到鑫德创业孵化基地调研时强调发挥园区龙头作用大力推进青年创业</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2017-08-16</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_316011.html</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['8月15日上午，市委副书记王德胜一行深入到白山市鑫德创业孵化基地，就我市青年创业情况开展专题调研，强调青年是“大众创业、万众创新”的生力军，要高度重视青年创业工作，形成鼓励青年创业的鲜明导向，千方百计帮助解决青年创业面临的难题，为青年创业提供全方位服务。', '王德胜先后来到长白山特产展销厅、长白山文化创业产业园、青年特色产业创业园和创业孵化基地，并为团中央认定的“国家级青年示范园区”揭牌。在长白山特产展销厅，王德胜详细了解长白山特产O2O交易平台、电商外包服务、创业孵化等情况，并与有关人员深入探讨交流，提出借鉴全国先进地区经验，加快白山电子商务企业孵化和电子商务发展。', '在随后召开的座谈会上，王德胜认真听取了我市优秀创业青年代表的发言，并就抓好我市青年创业进行座谈交流。王德胜指出，青年人思维活跃、观念新颖，是创业的最好时期。要紧紧抓住国家鼓励“双创”的有利契机，放飞青春梦想，在创业大潮中有所作为。团市委等相关部门要把青年创业摆到突出位置，作为服务全市发展大局的重要任务，努力为青年创业提供服务和保障。要想方设法帮助青年解决创业中的难题，主动深入企业了解实际情况，根据存在问题制定出台鼓励支持政策，打好政策“组合拳”，努力破解人才、资金等瓶颈因素制约，为青年创业提供良好环境。要组织青年创业骨干赴域外考察，学习先进经营理念、管理模式和运维方法。要创办青年创业论坛，强化青年创业培训，丰富培训内容、创新培训形式，增强培训的针对性和实效性。要选树一批青年创业典型，发挥典型带动作用，在全市形成青年创业的浓厚氛围。要落实包保服务，各有关部门要落实包保责任，实行“一对一”包保服务，帮助企业解决具体问题，助力创业园区做大做强，带动更多青年走向创业道路。要加强青年企业家和创业者的培育，形成青年企业家创业群体，助推白山绿色转型全面振兴。']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>53</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>长白县助推农村电商发展</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2017-07-13</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_315862.html</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['为大力推进农村电子商务又好又快发展，长白县委组织部结合长白县农村电子商务发展初期实际，先后制定下发了《关于实施农村电子商务“凝智引航”工程的方案》和《农村电子商务“E网富民”工程实施方案》，定位“孵化”平台、“孵化”队伍、“孵化”品牌、“孵化”物流工作目标，落实工作举措，助推农村电子商务发展取得新成效。', '依托县级微度双创基地，在8个乡镇建设了农村电子商务服务中心，在77个行政村建设了农村电子商务服务站，将各村远教终端网络带宽提高至6M以上，安装具有推送功能的无线路由器并免费向村民开放，配备电脑、桌椅、实物展示柜等设施，夯实筑牢农村电子商务发展硬件基础。', '“孵化”电商队伍，全县组建了三支服务队伍：第一支队伍从优秀年轻后备干部中选拔77人，第二支队伍从素质较高、有实际电商操作经验的女干部、群团干部中选拔77人，第三支队伍从精通电子商务、有实体经济的企业家中选拔8人，分别挂点联系指导各乡镇、村，凝聚集体智慧，带动农村电子商务发展。同时，加强农村电子商务服务从业人员培训，先后组织电商骨干到杭州等地进行了专题考察学习，邀请省市专家开展“特产馆上线辅导”专题培训等，共举办各类培训班10余次，培训电商服务从业人员1000余人次。', '在原有放山娃、炮哥、长久电商产品品牌的基础上，依托长白丰富的自然人文资源，精心包装山珍林特、朝鲜美食、民族风情等13个品类的长白特产，指导各乡镇、村电子商务服务中心和服务站，利用淘宝网、京东网、1号店等第三方网购平台，开设特色网店，对本地注册品牌的农特产品进行网上推广、直销、分销、预售等服务，强化电商产品品牌引领。', '“孵化”电商物流，与天天快递公司衔接，引导天天快递公司开辟农村市场，在各村建立天天快递物流网。在物流不便的行政村依托客运、出租车运营户等，采取无偿或低偿方式为村民提供代取、代送、代邮等服务，努力解决邮购物流难等问题。截止到4月底，全县各村电商服务站共开展线上代买服务1391次，开展线上代卖服务298次。']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>53</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>政协白山市浑江区九届四次会议开幕</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2019-12-17</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>http://www.hunjiang.gov.cn/zw/hjyw/201912/t20191217_472087.html</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['为发展把脉，为民生谏言。12月16日上午，政协白山市浑江区九届四次会议开幕，来自全区各界和各条战线的政协委员齐聚一堂，不忘合作初心，奋力携手前进，为全区改革发展汇聚强大合力。', '区委书记王代刚作讲话；区政协主席崔玉久作政协浑江区第九届委员会常务委员会工作报告；政协副主席郭少华作政协浑江区第九届委员会常务委员会关于九届三次会议以来提案工作情况的报告。', '大会对2019年总体工作进行回顾。一年来，区政协常委会以习近平新时代中国特色社会主义思想为指导，全面贯彻落实中央和省委、市委、区委的部署要求，深入贯彻习近平总书记关于加强和改进人民政协工作的重要思想，认真学习习近平总书记在中央政协工作会议暨庆祝中国人民政治协商会议成立70周年大会上的重要讲话精神，认真履行政治协商、民主监督、参政议政职能，圆满地完成了年初制定的各项工作任务，为全区经济社会持续健康发展做出了不懈努力和积极贡献。', '着力加强政治建设。坚持党的领导，强化组织保证。扎实开展活动，严肃政治生活，提升学习能力，强化理论武装，召开专题学习会28次，常委会议“会前一刻钟”学习4次，参加学习的党组成员、政协常委和政协机关干部540余人次。着力推动全面发展。紧扣中心大局，调研求真务实，形成行之有效的调研报告，提出各式合理化建议。积极建言献策，视察成效明显。丰富协商形式，增强协商实效。组建由政协主席带队，各专门委员会和政协委员参与的调研队伍，运用听取汇报、实地察看、集体座谈等多种方式，全面收集第一手材料，形成切实管用的调查报告。着力加强民主监督。反映社情民意，用心为民履职。区政协常委会着重发挥社情民意信息在民主监督中的“直通车”作用，委员共提出建议87件，经审查确定立案39件，分类合并35件，剩余48件分21期编发《社情民意》报市政协和区级领导参阅，得到了相关领导的重要批示。创新监督形式，先后两次听取政府有关部门对政协调研视察建议落实整改情况汇报，提升监督实效。开展跟踪问效，紧盯成果转化，不断提升跟踪督办的实效和层次。着力维护社会和谐稳定。服务基层单位，完善基础设施。协调有关单位为二道沟村修建围墙600延长米，修建环路600延长米，对自来水旧坝进行重建，协调委员单位为滴台村购买垃圾清运车3辆，协调有关部门争取资金300万元用于美丽乡村建设农村综合开发。协调市武警支队提供资金10万元，帮助三岔河村将老村部改建成白山市浑江区五谷香煎饼厂，解决部分贫困户就业问题，并向贫困学生捐资助学、贫困村民捐献药品及日常用品等近万元。民盟活动组、民建活动组、工商联活动组等纷纷帮扶贫困群众，解决他们生产生活中实际困难。继续开展“五帮扶”活动，累计投入资金物资近20万元。着力打造过硬政协队伍。强化责任担当，提升工作标准。圆满完成机关党支部换届选举。成功举办浑江区政协第十三届羽毛球比赛。激发履职活力，汇聚强大合力。始终致力于打造懂政协、会协商、善议政的委员队伍，以“四种能力”为重点，加强委员队伍建设。定期开展业务培训，引导和鼓励做学习型委员。做好团结联谊，广泛凝聚共识。组织部分委员前往湖州市吴兴区进行学习考察、合作交流，提升了委员使命意识和责任担当。', '高举习近平新时代中国特色社会主义思想伟大旗帜，深入贯彻党的十九大和十九届二中、三中、四中全会精神，认真贯彻落实《中共中央关于新时代加强和改进人民政协工作的意见》，牢牢把握“五位一体”总体布局、 “四个全面”战略布局，深入贯彻新发展理念，坚持团结和民主两大主题，全面贯彻落实区委二届六次全会提出的目标任务，认真履行职能、积极建言献策，为推动浑江绿色转型、全面振兴、高质量发展贡献智慧和力量。', '会议指出，要强化政治引领，在凝聚思想共识中担当新使命。把深入学习贯彻习近平新时代中国特色社会主义思想和习近平总书记在中央政协工作会议暨庆祝中国人民政治协商会议成立70周年大会上的重要讲话精神作为重要任务，认真学习习近平总书记关于加强和改进人民政协工作的重要思想，增强“四个意识”、坚定“四个自信”、做到“两个维护”，实现党的组织对党员委员全覆盖、党的工作对政协委员全覆盖，把思想政治引领落实到履职工作各方面和全过程，夯实团结奋斗的共同思想政治基础，确保政协事业沿着正确的方向前进。', '会议要求，要聚焦中心工作，在推进绿色转型中做出新贡献。增强一切在大局下谋划、在大局下行动的自觉性，合力助推区委、区政府决策部署落地生根。要围绕重大决策部署的贯彻落实开展民主监督，紧盯区委、区政府重点工作，组织委员调查研究、视察监督，精准发力、有效发声，做到敢监督不缺位、善监督不走偏、真监督不应付。要发挥政协联系面广、包容性强的优势，持续深入开展广泛交流，努力把政协的担当作为体现到推进绿色转型的具体实践中。', '会议认为，要坚持履职为民，在增进民生福祉中取得新成效。坚持以人民为中心，围绕关系全区人民根本福祉的重大问题确定协商议政选题，深入调查研究，拿出一批符合政策、反映区情、代表民意、有助决策的调研成果。要广泛动员各党派、各团体、各界别提交提案，着力提高提案和提案办理的质量，不断提高民生类提案办理实效。要助推重大民生工程落地落实，充分发挥界别作用，综合运用专题调研、提案督办、社情民意信息等履职手段，及时了解和反映事关群众切身利益的实际问题，推动区委、区政府各项惠民政策有效落实。', '会议强调，要致力凝聚共识，在汇聚各方力量中展现新作为。通过有效工作，使人民政协成为坚持和加强党对各项工作领导的重要阵地、用党的创新理论团结教育引导各族各界代表人士的重要平台、在共同思想政治基础上化解矛盾和凝聚共识的重要渠道。加强政协组织之间的沟通交流，推动上下左右联系更加紧密、沟通更加频繁、合作更加有效。注重练好内功，坚持全面从严治党，落实管党治党责任，把主题教育的成果运用到党建工作之中，在强化自身建设中树立新形象，进一步提高委员素质，增强履职本领，为开创浑江绿色转型、全面振兴、高质量发展新局面做出新的更大的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>53</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>江源区为农村党员充电</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2011-12-13</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>http://agri.jl.gov.cn/xwfb/sxyw/201112/t20111213_4686134.html</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['当前，正是农村农闲之际，江源区积极利用好这一时节，组织全区涉农部门联合开展党员培训活动，以“富脑子、强本领”为目标，加快实用技术推广，加强农村党员致富技术培训，力争通过3个月左右时间，使每个党员普遍掌握1-2门实用技术。 培训活动中，该区坚持把组织广大农村党员开展“冬训”与加快推进新农村建设结合起来，围绕新农村建设，强村富民，提高党员致富技能等，采取“请进来”和“走出去”的方式，邀请市、区农技专家先后举办食用菌栽培、蔬菜种植、肉食牛养殖等多期培训班，还组织60名农村党员干部赴山东寿光、潍坊等地考察学习。通过培训，使广大农村党员开拓了视野、创新了思路、增长了才干，致富和带富能力明显增强。']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>53</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>十二道沟镇互联网扶贫助力精准脱贫</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2016-07-14</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>http://www.changbai.gov.cn/zwgk/zwdt/zwdt/201801/t20180117_269616.html</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['自开展精准扶贫工作以来，长白县十二道沟镇政府积极鼓励和引导传统农产品流通企业、专业合作社、种养大户和贫困户通过电子商务平台，拓展线上零售业务，进一步提升农业产业效益。现阶段，该镇正进一步加强电商人才培养，近期组织了镇村两级干部和专业合作社负责人赴延吉市、丹东市考察学习电子商务，以推动十二道沟镇“互联网扶贫”、“互联网农村电商”等产业发展，争取迅速培养一批电商带头人，带领广大贫困群众脱贫致富。', '十二道沟镇通过精准制导、定点清除、喷灌滴灌等扶贫方式，做到了精准到户、到产业、到举措、到效果，真正扶到老百姓的心坎上。中和村作为该镇“互联网扶贫”的主阵地，在浓厚的舆论引导和村书记的亲身指导下，如今贫困户上山采摘到的山野菜、灵芝药材等，均通过村里电商服务点发布到网络上进行销售，由于价格公道、绿色无污染，每周的定单都接连不断。中和村书记郑建华说道，“下一步，争取给我们村24户贫困家庭都配上电脑和宽带，安装好各大农产品销售平台，让他们更方便的在网上销售、创造利润。”十二道沟镇脱贫致富奔小康的号角已经吹响，美丽乡村谋发展的蓝图也正在紧密绘制之中。']</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>53</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>全市脱贫攻坚环境整治绩效考督工作大会召开</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2018-08-03</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>http://www.linjiang.gov.cn/sy/ljyw/201808/t20180803_347057.html</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['8月1日，全市脱贫攻坚、环境整治、绩效考督工作大会在青少年宫召开。市委书记钟铁鹏，市人大常委会主任姜国栋，市长刘宝芳，市政协主席孙和平及在家的副县级以上领导、各乡镇（街）、市直各部门副科级以上领导干部，以及各行政村党组织书记和社区主任参加了会议。', '会上，关于脱贫攻坚工作市委书记钟铁鹏指出：前不久，省、白山市相继召开了脱贫攻坚推进大会，通报了各县（市、区）2017年扶贫开发工作考评结果，我市在全省非贫困县排名中位列第4，等次为好。成绩虽然较好，但是工作当中存在的突出问题同样不能忽视。', '对于出现的问题，我们必须给予高度重视，拿出果断整改措施加以改进。下半年，要重点抓好以下几项工作。', '在对象识别退出上要再精准、在补齐基础短板上要再提标、在产业项目扶贫上要再创新、在反馈问题整改上要再加码、在落实包保责任上要再夯实、在资金管理使用上要再从严、在宣传舆论引导上要再发力。', '完成今年脱贫攻坚工作任务，时间紧迫、责任重大。我们要坚定信心，排除万难，以贫困不除、愧对历史的使命感，群众不富、寝食难安的责任感，坚决打好打赢这场攻坚战。', '在关于环境整治工作方面，钟铁鹏指出：美丽乡村建设，是新农村建设的升级版，是美丽中国建设的重要组成部分，是实现乡村振兴和全面建成小康社会的重大举措。这项工作上级有要求，百姓有期待，既是必须履行的政治任务，更是改善民生的有效抓手。', '这项工作总的指导思想和总体目标是：高举习近平新时代中国特色社会主义思想伟大旗帜，以党的十九大精神和“两山理论”为指导，围绕“产业兴旺、生态宜居、乡风文明、治理有效、生活富裕”的总体目标，按照“因地制宜、梯次推进、一个不落”的总体思路，扎实开展人居环境整治，推进美丽乡村建设，实现乡村振兴发展，努力把各个村屯建设成为环境美、生活美、民风美和宜居、宜业、宜游的新时代社会主义新农村。', '乡村振兴，包括美丽乡村建设是一项长期而系统的工程,不可能一蹴而就，必须常抓不懈，久久为功。下一步，我们要分阶段把握和抓好以下几个工作重点。', '关于绩效考督工作，钟铁鹏说：八次党代会以来，我市的发展目标、发展思路和发展路径愈发地清晰起来，思想逐步统一起来。经过对白山市“十大工程（攻坚）”任务的深入分解，结合对长兴县成功经验的深入考察学习，市委最终决定在全市范围内开展“双提十攻坚”行动。“双提十攻坚”这一活动既是落实十九大精神和八次党代会工作任务的具体抓手，也是当前全市经济社会发展的总体“作战图”，全市上下要统一思想、凝心聚力，全面参与到这一工作当中。', '对于这项工作，钟铁鹏提要求：要通过改进考督机制解决考核任务繁重、考核方式漂浮、干部评价方式工作落实梗阻四个问题。', '要始终突出考督体系改革四种导向。督考体系的改革我们今年是第一次实施。在细节上肯定要有不合脚、不如意的地方，要边实施，边改进。但改革的大方向上要始终突出这么几点。要突出差异化考核、突出个性化考核、突出模块化考核、突出常态化考核。', '要狠抓机制执行，大力弘扬党员示范执行，弘扬带头精神。赶超比拼执行，弘扬争先精神。与时俱进执行，弘扬创新精神。严明纪律执行，弘扬钉钉子精神。', '“不让一个贫困群众掉队，与全省人民携手同步小康”，是我们向全市人民做出的庄严承诺。“建设美丽乡村，打造幸福家园”是全市百姓的共同期盼。“双提十攻坚”行动，是我们狠抓落实的具体载体，是锤炼和检验作风的舞台。新时代要有新气象，新征程要有新作为。钟铁鹏希望与会人员要更加紧密地团结在以习近平同志为核心的党中央周围，群策群力、凝心聚力，为各项工作迈向新台阶而不懈奋斗，不断书写临江绿色发展、转型振兴的新篇章！', '市长刘宝芳主持了会议，并就贯彻落实好这次大会钟铁棚书记的讲话精神、做好当前和今后一个时期脱贫攻坚、环境整治、绩效考督工作，强调：要凝聚共识，广聚合力，迅速传达这次大会和相关文件精神。要照单承接、抓好当前，不断开创各项工作新局面。要夯实责任，改进作风，确保各项工作抓实、抓牢、抓出成效。']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>53</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>浑江区增强党员致富本领</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2010-07-13</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_304834.html</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['浑江区狠抓农村党员创业技能培训，全面提升农村党员创业带富能力，为推进全区“三项工程”深入开展提供有力保障。', '外请专家“教学”。为了提高农村党员创业技能培训层次，让广大农民党员能直接与高层次农业专家对话，解决农业产业发展中存在的技术难题，邀请吉林农大和吉林大学教授，为全区168名农民党员及农业产业大户讲授农业发展趋势及日光温室建设、保护地蔬菜栽培新技术及蔬菜新品种、山野菜大棚种植、病虫害防治技术等相关知识，培训结束后针对学习内容进行统一考试，为合格者发放岗位技能鉴定证书。培训期间，还组织全体学员实地参观考察该区东山村日光温室蔬菜基地，吉林大学农业专家亲自到大棚内辅导，真正做到了理论与实践相结合。', '外埠考察“促学”。为进一步学习和借鉴农业发展先进地区经验，该区于去年组织68名村书记、主任赴云南省考察学习。考察学习组一行先后来到云南省新华村、石林镇和路美邑乡堡子村考察学习。在“共产主义第一村”的新华村，考察学习组参观了村集体企业银饰品交易大厅，听取了该村集体经济从无到有、由弱变强的宝贵经验；在路美邑乡堡子村，考察学习组就农业产业化建设、农村文化建设等相关工作向该村两委班子成员做了详细了解和学习，使农村基层干部进一步解放了思想，开阔了眼界，拓展了发展思路。今年5月6日至14日，该区组织农村党员、种植大户共41人赴山东省寿光市，系统学习了蔬菜集约化育苗新技术、蔬菜深冬上市栽培新技术、绿色有机蔬菜病虫害综合防治新技术、蔬菜配方施肥技术等一系列全国先进蔬菜种植技术。通过学习，切实为农民解决了蔬菜生产过程中遇到的难题，让广大农民党员和种植大户开阔了眼界，拓宽了发展思路，坚定了从事蔬菜生产的信心。']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>53</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>白山深圳两局交流探讨四经普专项试点工作</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2018-05-10</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>http://tjj.cbs.gov.cn/wzsy/zthd/201805/t20180510_289993.html</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['近日，深圳市统计局副局长胡卫东带队一行12人到白山市统计局，对白山市第四次全国四经普专项试点工作情况进行为期2天的考察学习。 第四次全国经济普查是新时代一项重大国情国力调查，事关国家宏观经济政策规划和推动高质量发展，意义十分重大。按照国家统计局《关于开展第四次全国经济普查专项试点工作的通知》的统一部署，根据《吉林省统计局关于开展第四次全国经济普查专项试点工作的函》要求，白山市抚松县为第四次全国经济普查专项试点县。抚松镇、松江河镇、露水河镇、东岗镇等4个乡镇为试点乡镇，涉及12个社区76个委和30个行政村，普查区面积20.2万公顷，共划分42个普查区、69个普查小区，清查摸底基本单位名录库1322家，个体工商户4427家。通过此次专项试点对四经普拟新增内容进行深入研究与落实，与各相关部门通力协作，大胆实践，突出试组织、试方案、试流程和锻炼队伍，狠抓组织领导、分工协作、科学调度和统筹推进，经过2个多月的辛勤努力，实现专项试点工作的圆满收官，从整体上检验了普查方案的科学性及业务流程的合理性，重点检验普查内容填报的可行性和准确性，检验配套数据处理程序的稳定性和适用性，为第四次全国经济普查方案和数据处理方案的积累了经验，提供了有益借鉴。 深圳市局调研组与我局副科以上干部及部分县区相关人员进行了座谈。座谈会上，局长张子政对深圳市局调研组的来访表示热烈的欢迎，探讨了四经普工作的经验和方法，白山市局在统计基层基础建设取得新突破。他指出，此次交流是两个局彼此促进、共同学习的大好机会，要将此次试点中总结的一些经验和教训与深圳市局共同分享、共同研究探讨破解四经普的难题。要多多学习深圳市局统计服务、统计监测、统计队伍和统计信息化建设方面的经验。更将以此次交流学习为契机，加强两局相互间的友好交流关系，在工作上能扬长避短，共同提高，共同推进统计工作跃上一个新台阶。 抚松县调查队负责人就第四次全国经济普查专项试点工作进行了介绍，将四经普专项试点中总结的经验和教训、影响经济普查的困难和问题，与深圳市局调研组进行探讨。双方还围绕四经普、统计基层基础建设、互联网+统计+网格化管理、部门数据共享更新基本单位名录库建设等方面展开了交流。 座谈会后，深圳市局调研组在白山市局的陪同下深入到抚松县试点乡镇实地考察了试点情况，深入了解四经普专项试点工作的流程及存在的实际问题。深圳市局调研组对白山市四经普专项试点工作中取得的经验表示肯定，参考和学习了很多好的作法和经验。双方还就如何破解四经普难题交流了彼此的想法和建议，在今后的工作中将多交流、多沟通、共同进步。 通过此次交流，深圳市局调研组与白山市局都学到了一些好思路、好经验、好做法，为高质量、高效率全力以赴地完成第四次经济普查奠定基础，为坚持不懈完善统计体制，坚定不移推进新时代现代化统计调查体系建设贡献力量。', '第四次全国经济普查是新时代一项重大国情国力调查，事关国家宏观经济政策规划和推动高质量发展，意义十分重大。按照国家统计局《关于开展第四次全国经济普查专项试点工作的通知》的统一部署，根据《吉林省统计局关于开展第四次全国经济普查专项试点工作的函》要求，白山市抚松县为第四次全国经济普查专项试点县。抚松镇、松江河镇、露水河镇、东岗镇等4个乡镇为试点乡镇，涉及12个社区76个委和30个行政村，普查区面积20.2万公顷，共划分42个普查区、69个普查小区，清查摸底基本单位名录库1322家，个体工商户4427家。通过此次专项试点对四经普拟新增内容进行深入研究与落实，与各相关部门通力协作，大胆实践，突出试组织、试方案、试流程和锻炼队伍，狠抓组织领导、分工协作、科学调度和统筹推进，经过2个多月的辛勤努力，实现专项试点工作的圆满收官，从整体上检验了普查方案的科学性及业务流程的合理性，重点检验普查内容填报的可行性和准确性，检验配套数据处理程序的稳定性和适用性，为第四次全国经济普查方案和数据处理方案的积累了经验，提供了有益借鉴。', '深圳市局调研组与我局副科以上干部及部分县区相关人员进行了座谈。座谈会上，局长张子政对深圳市局调研组的来访表示热烈的欢迎，探讨了四经普工作的经验和方法，白山市局在统计基层基础建设取得新突破。他指出，此次交流是两个局彼此促进、共同学习的大好机会，要将此次试点中总结的一些经验和教训与深圳市局共同分享、共同研究探讨破解四经普的难题。要多多学习深圳市局统计服务、统计监测、统计队伍和统计信息化建设方面的经验。更将以此次交流学习为契机，加强两局相互间的友好交流关系，在工作上能扬长避短，共同提高，共同推进统计工作跃上一个新台阶。', '抚松县调查队负责人就第四次全国经济普查专项试点工作进行了介绍，将四经普专项试点中总结的经验和教训、影响经济普查的困难和问题，与深圳市局调研组进行探讨。双方还围绕四经普、统计基层基础建设、互联网+统计+网格化管理、部门数据共享更新基本单位名录库建设等方面展开了交流。', '座谈会后，深圳市局调研组在白山市局的陪同下深入到抚松县试点乡镇实地考察了试点情况，深入了解四经普专项试点工作的流程及存在的实际问题。深圳市局调研组对白山市四经普专项试点工作中取得的经验表示肯定，参考和学习了很多好的作法和经验。双方还就如何破解四经普难题交流了彼此的想法和建议，在今后的工作中将多交流、多沟通、共同进步。', '通过此次交流，深圳市局调研组与白山市局都学到了一些好思路、好经验、好做法，为高质量、高效率全力以赴地完成第四次经济普查奠定基础，为坚持不懈完善统计体制，坚定不移推进新时代现代化统计调查体系建设贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>53</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>浑江区组织休闲农业企业外出考察学习</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2011-08-26</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/xq/201805/t20180519_310833.html</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['浑江区组织部分休闲农业企业于8月15日至17日到吉林市昌邑区孤店子镇大荒地村的神农庄园有限公司进行考察学习。参加这次考察学习的企业有立信度假庄园、盛雅生态园、青山湖风景区管理处、野猪林山庄、三道沟旅游办。通过组织考察学习，借鉴成功先进经验，促进浑江区休闲旅游农业的发展。 （浑江区府办 王金鑫 丁梅）']</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>53</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>聚焦高质量发展加快绿色转型振兴</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2018-05-15</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_317117.html</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>['“这次赴浙沪学习考察，一是学到了经验，他们在产业发展、城市建设、科技创新、营商环境等方面走在了全国前列，值得学习借鉴；二是看到了差距，与浙沪相比，我们在思想观念、体制机制、干事创业氛围等方面存在较大差距；三是坚定了信心，白山作为欠发达、后发展地区，具备良好的生态、资源、政策等后发优势，我们将以此为契机，聚焦高质量发展，以干在实处、务实重行的工作作风，走在前列、敢为人先的创新精神，勇立潮头、一往无前的奋斗情怀，加快白山绿色转型全面振兴。”5月11日，白山市委书记张志军向记者谈起这次浙沪之行，感触颇深。', '张志军说，年初以来，白山市围绕落实全省“三抓”“三早”行动，突出抓好项目落地和建设，全年安排5000万元以上项目167个，总投资748亿元，其中亿元以上项目125个、10亿元以上项目12个；产业类项目85个、占比50.9%，其中“新五样”（矿产新材料、矿泉水、医药健康、旅游和现代服务业）项目66个、占产业项目的77.6%，转型发展取得阶段性成果；省“三早”项目13个、总投资61.2亿元，其中产业类项目11个、占比85%；谋划5000万元以上项目220个，亿元以上项目135个。强化项目帮扶包保，实行全链条全过程服务，确保上半年重点项目开复工率达80%以上。目前，鲁能、复华国际、天人合一等百亿级大项目开工建设，农夫山泉、葵花药业、全国青少年长白山革命传统教育基地等一批重点项目全面推进，白山经开区新区、人参生命科技产业园等平台效应正在凸显，白山加快赶超、集聚发展的后发优势已经形成。同时，加大招商引资力度，深化对口合作，与浙江湖州签订了旅游、经开区新区战略合作协议，共建浙江大健康产业园。引进了昆仑能源、中节能、红树林度假小镇等一批大项目、好项目。预计全年地区生产总值增长6%以上，固定资产投资增长2%以上、力争达到5%，规模以上工业增加值增长2%以上，服务业增加值增长12%以上。', '下一步，如何围绕“三抓”落实工作，张志军表示，要解放思想，振奋精神，真抓实干，具体做到“五个加快”：', '加快推动绿色转型。深入贯彻新发展理念，加快产业转型升级，重点抓好“三个突出”：突出改造提升煤林铁“老三样”，突出发展矿产新材料产业，突出打造大生态、大健康、大旅游、大服务、大文化融合发展的绿色产业体系，让老产业焕发新活力、实现创新发展，新产业做强做优、成为高质量发展支撑。特别是要大力发展全域旅游，创建国家全域旅游示范区。突出抓好“旅游+农业、旅游+工业、旅游+文化”等新业态，实施57个旅游项目，重点建设人参、矿泉水、啤酒等特色小镇，一零八房车基地、松岭雪村、八里坡文化园、百里画廊等旅游节点，实现30-50公里半径全覆盖，使全域旅游成为发展新引擎。', '加快实施创新驱动战略。着力推进理念、产业、企业、能力、制度、人才、环境等“七个创新”，持续开展“院士专家白山行”“百所高校进白山”“名校优生”“选拔博士硕士挂职”等引才行动，发挥9个院士工作站、3个研究院以及104名专家顾问带动作用，加快创新和科技成果转化，力争在硅藻土、金属镁、生物医药等重点领域实现关键性技术突破。加快长白山职业技术学院新校区建设，采取校校、校企、校地“三个合作”模式，打造“万人大学”，为绿色转型提供人才支撑。', '加快优化发展环境。加快建设“五高速、两高铁、三机场”大交通格局，强化发展硬支撑。加快“放管服”改革，实现工业项目审批时限压缩到35个工作日内、基础设施类项目压缩到55个工作日内，确保“只跑一次”改革7月底完成80%以上。投资2.8亿元，建设4.1万平方米新政务大厅，年底前投入使用。加快“一带一区一基地”建设，“一带”即鸭绿江500公里开发开放经济带，围绕产业、基础设施等实施一批项目，总投资1080.6亿元，构建绿色转型振兴、改革开放创新、兴边富民固防三个平台；“一区”即白山经开区新区，规划面积33.1平方公里，高标准谋划亿元以上项目25个，重点建设浙江大健康产业园，打造一批人参全产业链上市公司；“一基地”即全国青少年长白山革命传统教育基地，筹划建设10平方公里红色小镇，打造集爱国主义教育、干部培训、红色旅游为一体的综合式教育基地。', '加快建设“幸福白山”。全力抓好脱贫攻坚，加大“五个一批”“十大扶贫重点工程”推进力度，实施产业扶贫项目180个以上、基础设施项目179个，确保完成全年目标任务。全力抓好民生和社会事业，加快推进34件民生实事。突出抓好城市建设，重点推进水韵广场、江滨公园、文体公园等55个项目，实现300米见绿、500米见园、1000米见泉的目标。', '加快打造“三个生态”。坚持以习近平新时代中国特色社会主义思想为指导，持续加强政治、思想、干部队伍、基层组织和党风廉政建设，深化“素质提升工程”，全力构建不敢腐、不能腐、不想腐的制度机制体系，打造山清水秀的自然生态、充满活力的经济生态和风清气正的政治生态，为加快白山绿色转型全面振兴、建设幸福美好吉林而不懈奋斗。']</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A141" t="n">
+        <v>53</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>市强制隔离戒毒所四个加强全面提升收治水平</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2014-05-16</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bmdt/201805/t20180519_306971.html</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>['一是到省内强制隔离戒毒工作开展成熟的戒毒所考察学习，同时邀请省司法厅戒毒局的专家进行知识培训；二是投入100余万元，对场所监控、巡更系统，强制隔离戒毒人员宿舍楼、探访室、食堂、卫生所及供热管网进行升级改造；三是建立健全戒毒管理、教育、生活卫生等各项规章制度104项，并制定了具体的工作流程，确保各项制度落到实处；四是加强与公安、卫生等部门的沟通协调，推动了强制隔离戒毒工作的深入开展。截至目前，全所已累计接收强制隔离戒毒人员45人。 （市司法局 郭大鹏）']</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A142" t="n">
+        <v>53</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>全省公安机关贯彻落实全省公安局处长会议精神网络访谈之白山立足实战着眼风险防控推进五升一创战略</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2019-03-18</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>http://police.cbs.gov.cn/sy/tpxw/201903/t20190318_395775.html</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>['全省公安机关贯彻落实全省公安局处长会议精神网络访谈之白山：立足实战着眼风险防控 推进“五升一创”战略', '按:为深入贯彻党的十九大精神，践行习近平新时代中国特色社会主义思想，集中反映全省公安机关坚持以刘金波副省长在全省公安局处长会议上提出的五个“准确把握”为引领，聚焦政治首责、平安建设、服务发展、深化改革、基层基础、铁军建设“六大任务”，锐意进取、真抓实干的决心和态度，省公安厅政治部与北方法制报、中国吉林网、吉和网、凤凰网吉林频道等省内多家媒体网站共同策划组织了“全省公安机关贯彻落实全省公安局处长会议精神”系列访谈活动，邀请各市州公安局，长白山公安局，梅河口、公主岭市公安局局长围绕学习贯彻全省公安局处长会议精神和刘金波副省长在全省公安局处长会议上的重要讲话，谈感受、说认识、话落实，进一步凝聚警心、鼓舞斗志，赢得社会各界理解支持，为深入推动“全国最安全省份”创建工作营造良好氛围。', '今天是“全省公安机关贯彻落实全省公安局处长会议精神”网络访谈第七期，邀请到的嘉宾是白山市副市长、公安局长吴强。', '记者：吴市长你好。2月15日，刘金波副省长在全省公安局处长会议上作了题为“坚持不懈创一流、全力以赴保平安，以创建全国最安全省份新业绩庆祝新中国成立70年”的讲话，您感触最深的是哪一点?', '吴强：刘金波副省长在全省公安局长会议的讲话站位高、立意深远，对2019年全省公安工作起到指导和引领作用，其中让我感受最深的一点，应当是刘金波副省长在讲话中多次提到“创建全国最安全省份”这一整体目标，这是提纲挈领、牵头抓总、统筹全局的总任务、总目标，充分彰显了吉林公安的坚韧不拔与主动担当。', '对此，白山公安将按照刘金波副省长提出的五个“准确把握”为引领，聚焦政治首责、聚焦平安建设、聚焦服务发展、聚焦深化改革、聚焦基层基础、聚焦铁军建设的“六大任务”，以“做好新中国成立70周年大庆安保工作”为主线，立足白山公安新起点，凸显白山公安新速度，展现白山公安新发展，锐意进取、真抓实干，向争创全国最平安边境地区目标而努力奋斗。', '记者：围绕学习贯彻落实刘金波副省长讲话和全省公安局处长会议精神，白山市公安对2019年工作是如何谋划和安排的？', '吴强：对照刘金波副省长在全省公安局处长会议上的讲话部署要求，白山市公安局党委紧密结合我市实际，逐项细化分解，逐一列表推动落实，制定出台操作性更强、更加接地气的实战方案，确定了“五升一创”的战略目标，即：敏锐治安能力实现新提升、主动治安能力实现新提升、智慧治安能力实现新提升、民生治安能力实现新提升、固本治安能力实现新提升，全力以赴争创全国最安全边境地区。', '全省公安局处长会议后，我们立即召开全市公安工作会议，动员号召全体公安民警将思想和行动统一到省厅和市局党委的决策部署上来，进一步明确工作目标、细化推进措施、限定工作时限、拧紧责任螺丝，确保紧盯目标加油干、强势发力持续干、以上率下带头干，在全警形成工作往严里抓、往实里干、往细里做的战斗氛围，确保各项工作落实落地，坚决打赢今年维护国家政治安全和社会稳定的一系列硬仗，以优异成绩庆祝新中国成立70周年!', '记者：围绕为新中国成立70周年创造安全稳定的政治社会环境这条工作主线，白山公安机关总体工作思路是怎样的？', '吴强：今年，白山市公安局将“做好新中国成立70周年大庆安保工作”作为贯穿全年工作的主题主线,全力以赴保安全、护稳定、促和谐。一是在强化情报研判预警、专项打击治理、重点领域管控方面下大力气、做足功课，全力打好政治安全保卫战；二是在情报主导、基础保障、应急处置方面打造过硬本领，全力打好维护边境安全稳定阵地战；三是紧盯“打、防、管、控”四项措施，做实做精做细反恐防暴各项措施的落实落地，全力打好反恐防暴攻坚战；四是紧紧围绕防范化解重大风险，全力做好矛盾排查调处和风险防范化解工作，全力打好风险隐患化解战；五是聚焦隐患排查整治、信息安全防护、交通安全管理等公共安全重点，全力打好公共安全治理战。', '记者：2019年是扫黑除恶专项斗争的攻坚之年，白山警方如何做到重点突出、有的放矢，为平安建设添砖加瓦?', '吴强：今年，白山市公安局着重突出“打击”和“治理”两个重点，做到有黑扫黑、无黑除恶、无恶治乱。把扫黑除恶斗争作为根治治安难点、乱点、热点问题的龙头，以优化、提升、完善“利剑突击队”的集群打击、合成配侦、外联会商等机制为切入点，全力深化扫黑除恶斗争，保持对严重暴力犯罪、锋芒性犯罪、群众反映强烈的侵财类犯罪的严打高压态势，全力深化严打整治。进一步系统完善刑事案件日研判、专案攻坚、合成作战机制，引入犯罪预测预警工具、学习借鉴先进地区经验，全力深化犯罪防控，紧盯人民群众最恨最急最忧的治安突出问题开展专项打击整治，以高压严打之势巩固全市社会大局持续稳定。', '吴强：2019年，白山公安立足深入推动智能化现代化指挥体系、移动警务和集约式智能感知体系、信息化基础保障体系“三项体系”建设，实现智慧治安能力的新提升。从现在起到2021年，高标准、高起点规划推动布设4张网、搭建新警综平台、推动城市治理“双中心”建设、构建打击服务预防治理四精准的“4124”工程，以“移、物、大、智、云”等前沿技术为支撑，统筹开展大数据战略规划、突出解决好资源统筹问题、抓好抓实平台优化、构建具有白山效率的“1、3、5”分钟快速响应体系，建设“一体化保障、社会化服务”的警务保障体系，建立涵盖经费结算、项目管理、招标采购、资金管理、车辆管理、固定资产管理、后勤服务等警务保障信息化平台，强化信息化基础保障系统建设，构建精准打击、精准服务、精准预防、精准治理的社会治理体系，努力把智慧警务的理念、方略、思维落实到实战应用，努力推动白山公安信息化建设创新升级。', '记者：打铁还需自身硬，建设一支铁的队伍，是实现工作目标、不断取得新胜利的保证。白山公安在锻造一支钢铁队伍方面有哪些切实招法?', '吴强：今年，白山市公安局党委将以队伍建设“五项任务”，即坚持全面从严治党、从严治警不放松，持续强化公安党建工作，不断深化公安政治工作，继续加强公安意识形态工作，实现省厅考评和“双十”的提级晋位为抓手，以锻造铁军为目标，实现固本治安能力的新提升。一是增强“四个意识”、坚定“四个自信”、做到“两个维护”，着力锻造革命化、正规化、专业化、职业化公安铁军，筑牢“公安姓党”的思想根基，创建白山公安“六位一体”党建品牌工程，谋划设计好“践行新使命、忠诚保大庆”主题实践活动，组织优秀党支部书记、政工干部赴湖州公安机关学习考察党建工作经验，持续强化公安党建工作。二是巩固提升“1141”工程，进一步强化战时思想政治工作、典型选树、精准扶贫、干部选拔任用、职务晋升、爱警惠警等工作，为做好各项公安工作提供强有力的组织保障和警力支撑。三是严格执行党委意识形态工作责任制，牢牢掌握意识形态工作的领导权、管理权、话语权，研究制定针对性强、操作性好的全市公安机关意识形态领域工作实施方案，强化公安文联组织、阵地、载体建设，继续加强公安意识形态工作。四是紧紧围绕省公安厅确定的考评项目和考评标准，深入查找白山市公安局在考核中存在的问题和短板，研究制定《全市公安机关推进省厅差异化考评工作落实考核方案》，充分发挥考评的引领和导向作用，实现省厅考评和“双十”的提级晋位。五是积极适应党的纪律监督体制和国家监察体制改革新要求，既要自觉主动接受派驻纪检监察机构监督，又要切实履行好管党治警的主体责任，始终坚持全面从严治党、从严治警不放松，为做好各项公安工作提供强有力的组织保障和警力支撑。']</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A143" t="n">
+        <v>53</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>江源区加强老干部工作</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2014-04-01</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>http://jy.cbs.gov.cn/zwgk/jyxw/201706/t20170628_167518.html</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>['一是定期召开通报会，引导离休干部在思想上、政治上、行动上与党中央保持一致。是是组织离退休干部开展参观考察学习活动，鼓励老干部为江源发展献计献策。三是在老干部党支部中开展争创“离退休干部党支部标兵”活动，推动“五好”党支部和“四好”党员创建工作。四是加大对老年大学场所建设，增设曲艺班、电子琴2个班，新招收各班学员共计80多人，五是开设每月一节“学习十八大”专题讲座。六是走访慰问离休老干部、抗日老干部遗属、企业困难老干部、遗属和贫困党员。向上争取资金累计50多万元，用于省属破产企业老干部生活补贴、老干部党支部建设、大病造成生活困难老干部补贴、老干部发挥作用、老干部生活及住房困难补贴和老干部遗属维修房屋，越冬取暖等。（冷淑香）']</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A144" t="n">
+        <v>53</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>吴强立足实战着眼风险防控推进五升一创战略以打造更高水平的平安白山向新中国华诞献礼</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>2019-02-21</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>http://police.cbs.gov.cn/sy/tpxw/201902/t20190221_392745.html</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>['吴强：立足实战着眼风险防控 推进“五升一创”战略 以打造更高水平的平安白山向新中国70华诞献礼', '2月20日，全市公安工作会议在市公安局召开。副市长、公安局长吴强出席会议并讲话。他强调，全市公安机关要立足实战，着眼风险防控，推进“五升一创”战略，以打造更高水平的平安白山向新中国70华诞献礼。', '吴强指出，2018年，在市委、市政府和省公安厅的坚强领导下，在历届市公安局党委的共同努力下，全市公安机关和广大公安民警牢固树立“四个意识”，深入贯彻习近平总书记关于公安工作的系列重要指示精神，牢牢把握对党忠诚、服务人民、执法公正、纪律严明“四句话、十六字”总要求，坚持围绕中心、服务大局，牢记使命、忠实履职，推动白山公安实现跨越式的发展，各条战线硕果累累、成效斐然。但综合白山经济转型发展、公安工作实际来看，我们在政治水平、能力素质、斗争精神、基础工作能力、工作标准、队伍作风等方面还存在诸多不适应，需要我们正视短板不足，总结经验教训，在今后的工作中加以改进和解决。', '吴强强调，2019年，是 “十三五”规划的攻坚之年，是“五·四”运动100周年、建国70周年和澳门回归20周年，一系列安保工作任务异常艰巨繁重。中央、省、市政法工作会议和全国厅局长、全省局处长会议对于做好今年公安工作提出了新的更高要求，我们必须准确把握新时代发展脉搏，以习近平新时代中国特色社会主义思想为指导，深入贯彻落实中央、省、市政法工作会议和全国厅局长、全省局处长会议精神，围绕建国70周年安保主线，紧盯创建“全国最安全省份”的总目标，坚持稳中求进工作总基调，坚持政治建警、公信立警、科技强警、文化育警、廉洁从警、从优待警，以“践行新使命、忠诚保大庆”为载体，以深化改革为动力，进一步巩固深化“八大提升”，扎实推进“五升一创”战略，推动白山各项公安工作上台阶、上水平，让白山广大人民群众有更多、更直接、更实在的获得感、幸福感、安全感，沿着新时代公安事业的发展方向，为建设更高水平的平安白山接续奋斗。', '以习近平新时代中国特色社会主义思想为指导，深入贯彻落实中央、省、市政法工作会议和全国厅局长、全省局处长会议精神，围绕建国70周年安保主线，紧盯创建“全国最安全省份”的总目标，坚持稳中求进工作总基调，坚持政治建警、公信立警、科技强警、文化育警、廉洁从警、从优待警，以“践行新使命、忠诚保大庆”为载体，以深化改革为动力，进一步巩固深化“八大提升”，扎实推进“五升一创”战略，推动白山各项公安工作上台阶、上水平，让白山广大人民群众有更多、更直接、更实在的获得感、幸福感、安全感，沿着新时代公安事业的发展方向，为建设更高水平的平安白山接续奋斗。', '吴强要求，全市公安机关要切实提升政治站位，强化使命担当，从严从细从实地做好维护国家安全和社会稳定的细致活、实在活。要围绕“一条主线”，打好五个攻坚战，实现敏锐治安能力的新提升。紧紧围绕建国70周年安保这一主线，在强化情报研判预警、专项打击治理、重点领域管控方面下大力气、做足功课，全力打好政治安全保卫战；在情报主导、基础保障、应急处置方面，打造过硬本领，全力打好维护边境安全稳定阵地战；紧盯“打、防、管、控”四项措施，做实做精做细反恐防暴各项措施的落实落地，全力打好反恐防暴攻坚战；紧紧围绕防范化解重大风险，全力做好矛盾排查调处和风险防范化解工作，全力打好风险隐患化解战；聚焦隐患排查整治、信息安全防护、交通安全管理等公共安全重点，全力打好公共安全治理战，以精益求精的“工匠精神”，全力实现“五个坚决防止、三个确保”的工作目标。要突出两个重点，以扫黑除恶为龙头，实现主动治安能力的新提升。突出“打击”和“治理”两个重点，做到有黑扫黑、无黑除恶、无恶治乱。把扫黑除恶斗争作为根治治安难点、乱点、热点问题的龙头，以优化、提升、完善“利剑突击队”的集群打击、合成配侦、外联会商等机制为切入点，全力深化扫黑除恶；保持对严重暴力犯罪、锋芒性犯罪、群众反映强烈的侵财类犯罪的严打高压态势，全力深化严打整治；系统完善刑事案件日研判、专案攻坚、合成作战机制，以治理压降电信网络诈骗犯罪为核心，引入犯罪预测预警工具、学习借鉴先进地区经验，系统精准研判电信网络诈骗高发的区域时段、侵害人群、手段方式、止付堵点等关键环节，全力深化犯罪防控，紧盯人民群众最恨最急最忧的治安突出问题开展专项打击整治，以高压严打之势巩固全市社会大局持续稳定。要强化“三项建设”，突出全域应用，实现智慧治安能力的新提升。从现在起到2021年，高标准、高起点规划推动“4124”工程，以“移、物、大、智、云”等前沿技术为支撑，统筹开展大数据战略规划、突出解决好资源统筹问题、抓好抓实平台优化、构建具有白山效率的“1、3、5”分钟快速响应体系，强化现代化、智能化指挥体系建设；以实战需求为导向推进移动警务系统建设、在强基固本中坚持发展新时代“枫桥经验”、以好使管用为目标推进集约式智能感知体系建设，着力推进一网双域移动警务终端的全面部署，强化移动警务和集约式智能感知体系建设；建设“一体化保障、社会化服务”的警务保障体系，建立涵盖经费结算、项目管理、招标采购、资金管理、车辆管理、固定资产管理、后勤服务等警务保障信息化平台，强化信息化基础保障系统建设，构建精准打击、精准服务、精准预防、精准治理的社会治理体系。要提供“四项保障”，以成效务实为导向，实现民生治安能力的新提升。坚持以人民为中心的发展理念，找准公安机关服务大局的职能定位，立足争创“全国优秀执法示范单位”方向，严格按照省厅深化执法规范化建设规划要求，持续深化执法规范化建设，提供“公安模式”的执法保障；坚持简政放权动真格、放管结合出实招、优化服务使真劲，切实提高公安机关公共服务质量和水平，持续深化“放管服”和“只跑一次”改革，提供“公安方案”的政策保障；要扎实做好平台的监管工作，强化业务培训，明确政务大厅综合服务、统筹引领的实体功能定位，以打造公安政务服务超市为目标丰富进厅业务，持续深化“互联网+公安”平台建设，提供“公安特色”的品牌保障；在深化省厅服务民营经济发展“十五条”，统筹推动市委十大工程（战役）方面，组织精干力量，系统研究项目引入、审批、建设、达产等各个环节企业需求以及公安服务供给的错位失衡问题，集中开展有针对性的打击整治制假售假、非法添加、虚假宣传、非法排污、非法转移倾倒处置废物等专项行动，深入落实河湖警长制，把河湖水质是否改善作为衡量工作成效的根本标准，推动河湖治理提质增效，为白山绿色转型、全面振兴营造优质高效的发展环境。要紧盯“五项任务”，以锻造铁军为目标，实现固本治安能力的新提升。增强“四个意识”、坚定“四个自信”、做到“两个维护”，锻造革命化、正规化、专业化、职业化公安铁军，筑牢“公安姓党”的思想根基，创建白山公安“六位一体”党建品牌工程，谋划设计好“践行新使命、忠诚保大庆”主题实践活动，组织优秀党支部书记、政工干部赴湖州公安机关学习考察党建工作经验，持续强化公安党建工作；巩固提升“1141”工程，切实强化战时思想政治工作、典型选树、精准扶贫、干部选拔任用、职务晋升、爱警惠警等工作，为做好各项公安工作提供强有力的组织保障和警力支撑；严格执行党委意识形态工作责任制，牢牢掌握意识形态工作的领导权、管理权、话语权，研究制定针对性强、操作性好的全市公安机关意识形态领域工作实施方案，强化公安文联组织、阵地、载体建设，继续加强公安意识形态工作；紧紧围绕省厅确定的考评项目和考评标准，深入查找我市在考核中存在的问题和短板，研究制定《全市公安机关推进省厅差异化考评工作落实考核方案》，充分发挥考评的引领和导向作用，实现省厅考评和“双十”的提级晋位；积极适应党的纪律监督体制和国家监察体制改革新要求，既要自觉主动接受派驻纪检监察机构监督，又要切实履行好管党治警的主体责任，始终坚持全面从严治党、从严治警不放松，为做好各项公安工作提供强有力的组织保障和警力支撑。', '会上，全体与会领导和民警奏唱《人民警察警歌》，市公安局党委委员、政治部主任李爱华宣读了《关于全市公安机关2018年表彰奖励和差异化考评情况的通报》，市公安局党委委员为年度差异化考评、“重大成果和创新”奖、年度综合工作、各项案（事）件中成绩突出单位和个人代表颁奖。', '会议由市公安局党委委员、常务副局长姜云波主持。市公安局党委委员，各县（市、区）公安局局长、各直属分局局长、政委，市公安局机关各部门、直属分局副科级以上领导干部和民警代表在主会场参加会议；各县（市、区）公安局领导班子成员、各内设机构主要负责同志、基层所队长和部分民警在各地分会场参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A145" t="n">
+        <v>53</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>抚松县农民科技教育中心围绕春耕生产扎实开展考察学习活动</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2015-03-16</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>http://www.fusong.gov.cn/xwzx/fsyw/201706/t20170616_113453.html</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>['近日，抚松县农民科技教育中心抢抓春耕生产的有利时机，组织2014级新型职业农民培育生产经营型蔬菜专业学员赴吉林市丰满区无公害蔬菜专业种植合作社参观学习。本次考察学习是抚松县农民科技教育中心开展2014年度新型职业农民培育工程课程安排中的重要环节，重点考察了吉林市丰满区无公害蔬菜专业种植合作社现代农业种植基地，听取了合作社法人王伟对产业结构调整、品种特性、栽培技术等的经验介绍。丰满区无公害蔬菜专业种植合作社先进的经营理念；高产高效栽培技术；生物农药、新型肥料和物理防病等技术的试验与产业化；开展农产品标准化生产、节水农业、生态农业等的示范；农业高新技术、优质农产品展览,农业科技知识普及和农业采摘观光等独特的管理模式让参观学习的学员耳目一新，不仅收获了知识，更对今后的生产充满了憧憬，增添了信心。', '通过本次参观学习，丰富了抚松县新型职业农民培育工程培训形式，增进了学员之间的技术交流，拓宽了学员现代农业科技视野，转变了学员的创业致富理念，提高了我县新型职业农民学员对蔬菜生产新技术的认知能力和对发展抚松县蔬菜产业的信心。']</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A146" t="n">
+        <v>53</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>长春高新区组织学习国务院推进新一轮东北振兴重要举措</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2016-11-30</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>http://ccxq.gov.cn/xqyw/xqdt/201611/t20161130_2115795.html</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>['11月25日上午，长春高新区组织学习《国务院关于深入推进实施新一轮东北振兴战略加快推动东北地区经济企稳向好若干重要举措的意见》（国发[2016]62号）。高新区党工委书记赵旭主持学习会议，并做重要讲话。', '学习会上，高新区管委会主任助理常莉首先全文介绍了国务院近日印发的《关于深入推进实施新一轮东北振兴战略加快推动东北地区经济企稳向好若干重要举措的意见》。', '针对每条措施的路径图、时间表以及结合区内实际情况，赵旭书记指出，全区领导干部应提高认识、深入分析，准确把握当前的经济形势。近几年，受国际金融危机影响，东北三省的GDP增速排名靠后。但是长春今年头三个月的GDP增速为6.9%，高于全国平均经济增速0.2个百分点，特别是民营工业企业累计完成产值1568.7亿元，同比增长14%，连续9个月实现两位数增长，产值总量占到全市工业比重的22.8%，拉动全市工业增长3个百分点。这一方面说明我市已经表现出了明显的筑底回升、企稳向好的态势，另一方面也说明工业增长的动力、潜力、活力都很足。', '赵旭提出，要振奋精神、树立信心，抢抓加快发展的战略机遇。从国家层面看，中央连续颁布振兴东北的重要文件；从省市层面看，省市高度关注全力支持新区发展；从区域发展层面看，我们的先行先试优势愈加明显。高新区25年的发展历程，获批30多个国家级园区和基地，集聚了7000多户的企业，形成了比较坚实的发展基础，加快发展的区位优势、产业优势、科技优势、生态优势、环境优势都十分明显，我们完全可以凭借这些优势，抢抓新机遇、推动新发展、实现新作为。', '赵旭强调，要对标先进，奋发有为，推动各项工作迈上新台阶。首先，要大力解放思想，对标先进地区，通过学习考察，更新观念，开拓思路，推进发展；其次，要发挥科技优势，引进优质项目；第三，要加强企业服务，打造良好环境，要走出去，主动到企业、到项目现场开展服务，定期调度、及时了解企业在建设、投产过程中遇到的问题，第一时间帮助企业协调解决，保证企业各项生产要素；第四，要练好工作内功，提高自身素质，围绕工作实际和需要，坚持“干什么、学什么”，“缺什么、补什么”，以学习提升整体工作素质。', '最后，赵旭书记希望各部门要认真学习文件，深入研究政策，以此推动工作顺利开展。同时，今后还要将集体学习常态化，聘请有关专家分析解读当前经济形势，创新学习模式方法，进一步提高学习效果。', '高新区管委会主任助理季世芳、徐国力出席学习会，管委会各相关部门主要负责人参加学习会。']</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A147" t="n">
+        <v>53</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>年度新年致辞</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2019-01-03</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>http://www.linjiang.gov.cn/sy/jrtt/201901/t20190103_388865.html</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>['乘着与时俱进、开拓创新的春风，我们即将告别充满挑战、奋发有为的2018年。如今，崭新的2019年正向我们走来。在这个辞旧迎新的美好时刻，我谨代表市委、市政府向全市人民、离退休老干部、驻临部队以及所有关心支持临江各项事业发展的各界人士、各方朋友，致以节日的祝福和亲切的问候!向节日期间坚守工作岗位的同志们表示亲切的慰问。', '过去的一年，在白山市委、市政府的坚强领导下，我们深入学习贯彻党的十九大、十九届二中、三中全会以及习近平总书记视察东北期间重要讲话和重要指示精神，积极应对经济转型新考验、半岛局势新变化、社会治理新情况，干成了许多大事难事，绿色发展、转型振兴取得阶段成效，经济社会保持了稳中向好发展态势。预计全年地区生产总值同比增长5.5%，固定资产投资同比增长6.6%，规上工业增加值同比增长20%，全口径财政收入和地方级财政收入同比分别增长22.8%和21.7%。', '这一年，我们全面推进习近平新时代中国特色社会主义思想在临江落地生根。坚持以上率下，市委常委同志带头领学宣讲，组织市委理论中心组学习15次。不断丰富活动形式，发挥新时代文明实践中心和“百姓讲坛”阵地作用，掀起学习宣传贯彻热潮。认真贯彻落实习近平总书记关于长生生物疫苗案件的重要指示精神，扎实开展“干部作风大整顿”和“解放思想大讨论”活动，进一步统一思想、鼓舞士气，为新时代临江绿色发展转型振兴营造浓厚氛围。', '这一年，我们以产业转型为龙头，综合经济实力稳步跃升。大力开展“三抓”“三早”“项目建设冲刺年”行动，实施3000万元以上项目55个，列入“省三早”项目3个。实施工业经济提振行动计划，精准打好技术改造、银企对接、盘活嫁接等“组合拳”，向上争取民营经济发展专项资金1190万元，协调企业贷款1.2亿元。新增特色种植面积1.4万亩，调减籽粒玉米1万亩，新发展食用菌970万袋，棚膜种植394亩，大栗子葡萄获评国家级“一镇一品”。', '这一年，我们以改革开放创新为引擎，发展活力动力持续增强。成立全省首家行政审批局，被指定为全省“只跑一次”改革系列地方标准制定单位，“二维码”信息公示的作法得到景俊海省长好评，已在全省推广。医疗卫生体制改革深入推进，获评“省级公立医院改革先进县”。加强与长兴县全方位对口合作，签订农业发展、招商引资等合作协议。组建专职招商队伍，与吉钢集团、紫鑫药业等战略投资者开展广泛接触。获批省级科技项目3个，省级重大科技成果转化、重点科技攻关项目2项，争取科技资金1115万元。新认定省级科技“小巨人”企业5户、国家高新技术企业2户，获评“国家知识产权试点市”。“圆梦e家”双创中心一期建成投用，入驻企业达到30家。', '这一年，我们以美丽临江建设为载体，城乡人居环境日新月异。深入践行“两山”理论，扎实推进“九城联创”和“美丽乡村建设”工作，美丽县城功能得到提升。省级卫生城市申报建设成效得到专家组一致好评，城市宜居度、群众获得感得到“双提升”。成立乡村振兴办，统筹协调全市乡村振兴工作，乡村人居环境提档升级。开展农村环境整治大会战，建立了农村日常保洁队伍，通过重奖激励等措施，打造标兵村7个、先进村14个；六道沟镇火绒沟村、桦树镇西小山村转头山屯被列入第五批中国传统村落名录，总数突破5个，全省仅9个；群众反映强烈的大湖至蚂蚁河公路改扩建等工程竣工通车。生态环境问题得到有力整治。办结中央环保督察交办案件53件，全力配合中央环保督察“回头看”和省生态环保督察，办结交办案件31件；投资1.75亿元实施生态保护修复等23项工程，森林城市创建规划通过国家林业局专家评审；集中开展“绿盾2018”和清洁空气、水体、土壤等专项行动，获评“中国深呼吸小城十佳示范城市”。', '这一年，我们以全面同步小康为目标，人民群众生活日益改善。脱贫攻坚扎实推进。因地制宜实施扶贫产业项目21个，带动贫困户290户462人；发放贫困学生教育补助239万元，医疗兜底报销250.2万元，转移贫困劳动力就业24人，公益性岗位安置就业62人；全年脱贫162人，退出贫困村2个，贫困发生率降至1.3%。精神文明建设取得突破。摘得“省级文明城市”殊荣；积极践行社会主义核心价值观，17人荣获“吉林好人”“最美法官”和“白山好人”称号；改革开放40周年献礼影片《中国年》完成摄制；《魅力临江》专栏获“全国市县电视台优秀作品”一等奖。民主法治建设和平安临江建设得到加强。市法院对“9.22”特大电信诈骗案59名被告集中宣判，形成强力震慑；市检察院获得“全国模范检察院”殊荣；食品药品监管能力不断加强，获评“省级食品药品安全示范县”；坚定不移推动扫黑除恶专项斗争纵深开展，打掉恶势力团伙9个，打处违法犯罪嫌疑人64人。', '这一年，我们以抓好党的建设为主责，管党治党水平得到提升。突出抓好市委常委会自身建设，严格执行民主集中制和常委会议事规则，较好地发挥了班子的整体功能。突出抓好思想建设和政治建设。扎实推进“两学一做”学习教育常态化制度化，全面接受中央脱贫攻坚专项巡视、中央环保督察“回头看”、省委第九巡视组巡视等政治检验，不折不扣地开展各项整改。突出抓好基层组织和非公党建。大范围组织机关和农村干部赴长兴、浦江、通化等地考察学习，推动干部解放思想，提升干劲；广开渠道壮大村级集体经济，52个村集体经济收入超过10万元；启动城市基层党建“红色领航固边强基”工程，创先开展社区干部职业化“三分三定”体系建设，被省委组织部确定为创建全国城市基层党建示范市；非公党建指导服务中心被评为省级精品指导服务中心。突出抓好干部和人才队伍建设。成立考督办，制定“两考三评”差异化考评实施办法，将“考人”“考事”有机结合；实施“精英惠临”工程，柔性引进院士专家及各类人才160余人，夯实高层次人才后备力量。突出抓好党风廉政建设和反腐败斗争。顺利推进国家监察体制改革试点工作，完成临江市监察委员会组建并有效运行；全面履行从严治党主体责任，“四种形态”得到综合运用，警示、纪律和家风三大教育成效明显，“不能腐”制度建设改革工作全面铺开。', '新的一年，预示着新的起点，新的机遇，新的挑战。在新的一年里，我们要高举习近平新时代中国特色社会主义思想伟大旗帜，坚持稳中求进工作总基调，统筹推进“五位一体”总体布局，协调推进“四个全面”战略布局，以思想大解放为引领，以供给侧结构性改革为主线，以高质量发展为主题和主攻方向，以全面深化改革开放为主轴，深入实施“五个三”发展战略，提升生态优势，推动产业转型，建设开放高地，保障改善民生，奋力开创临江绿色发展转型振兴新局面。', '新的一年，我们要加速产业转型升级，奋力实现经济发展高质量。铆定产业发展主攻方向，坚决打好打赢“冬春会战”，持续做大做强民营经济。我们要持续发力乡村振兴，推动农业农村发展高质量。认真落实“产业兴旺、生态宜居、乡风文明、治理有效、生活富裕”要求，打好环境整治持久战，打好特色农业攻坚战，打好集体经济提升战。我们要持续激活三大动力，推动改革开放创新高质量。从改革开放创新“三力联动”中找准临江高质量发展的“着力点”，推动改革“再出征”，推动开放“再突破”，推动创新“再提升”。我们要深入践行“两山”理论，奋力实现生态环境高质量。统筹推进生态环境保护、生态经济发展和生态文明制度建设，以最扎实的措施抓问题整改，以最严格的要求抓生态治理，以最科学的制度保障生态发展。我们要狠抓精神文明建设，奋力实现文化发展高质量。牢牢把握宣传思想和文化建设的领导权和主动权，扛起抓牢意识形态工作，深化精神文明创建工作，蓬勃发展文化事业。我们要聚焦平安稳定团结，推动民主法治建设高质量。牢牢守住依法治市这个不可破的底线和维护社会稳定这条不可破的红线，全面加强民主法治建设，全面加强平安临江建设。我们要秉持人民中心理念，奋力实现人民生活高质量。坚持从人民群众最现实的利益问题入手，全面兜住底线民生，夯实提高基础民生，关注解决热点民生，巩固提高质量民生。', '临江的发展，需要全市人民的共同奋斗；临江的未来，需要社会各界的热情关注和鼎力支持。让我们携起手来，以更加振奋的精神，更加饱满的热情，更加务实的作风，抢抓机遇，乘势而上，凝心聚力，善谋实干，奋力开创临江更加辉煌灿烂的明天！']</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A148" t="n">
+        <v>53</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>市民政部门和新疆阿勒泰地区民政部门开展对接交流活动</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>2014-12-22</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>http://mzj.cbs.gov.cn/gzdt/201705/t20170510_64773.html</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>['新疆阿勒泰地区民政局党组书记匡文兴等11名同志在省民政厅规划财务处李文田处长、魏玉宏副处长，市民政局王晓东局长、崔振才副局长，浑江区民政局李华东局长、王金波副局长的陪同下，先后考察参观了白山市浑江区七道江镇青山湖社区、白山市儿童福利院和白山市社会福利院。并就社会福利、社会救助、社区建设、社会事务、社会工作等工作和养老机构管理方式、运行模式和服务规程，人才培养计划和对口支援工作等进行了探讨与交流。', '在青山湖社区考察时，看到社区规范的工作流程、完善的居民服务设施、宽敞明亮的办公活动场所，社会服务人员良好的精神风貌，新疆阿勒泰地区民政工作的同志挑起大拇指，打心里赞叹白山的社区工作开展的这么规范。', '在市儿童福利院看到双手严重残疾，只能用嘴写字的孩子柏福娟，参加河南电视台组织《汉字英雄》大赛，机智顽强的通关晋级时，考察人员无不为之震撼和感动。', '在市社会福利院院长薛峰详细介绍了院里老人的生活保障情况和市社会养老示范中心建设情况后，白山市和新疆阿勒泰地区民政部门的同志就各自的经验进行交流，深入探讨了民政工作体制、机制和保障方面的经验和做法，为促进共同发展起到了积极的推动作用。（庄炳臣）']</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A149" t="n">
+        <v>53</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>板石街道学习考察增强党建功能</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>2013-10-30</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>http://www.hunjiang.gov.cn/zw/hjyw/201706/t20170624_136538.html</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>['日前，板石街道工作人员赴贵州省贞丰县沙坪乡开展为期三天的学习考察活动。考察组先后在沙坪乡、锦丰金矿与有关部门进行了学习交流，了解兄弟地区“四方共创”多元化群体、规章制度及基础设施建设、教育卫生、饮用自来水改造、脱贫技能培训等方面的工作和项目；学习借鉴面对复杂的自然、民族条件，“四方共创”调解企业、村民矛盾，促进社会稳定和谐，以及非公企业党建联系基层、服务群众的做法和经验，启发我街“四方共建”丰富组成群体，壮大队伍，增强党建带动功能。']</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A150" t="n">
+        <v>53</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>江源区审计局多种形式抓业务学习</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>2013-12-31</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>http://jy.cbs.gov.cn/zwgk/jyxw/201706/t20170628_165971.html</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>['江源区审计局把加强学习、更新知识作为提高队伍素质和工作质量的有效手段，采取多种形式狠抓学习。一是注重审计工作经验交流。该局利用每周五下午进行集中学习，邀请兄弟审计单位的专业技术人才交流相关业务知识。二是注重学习考察。该局针对对本单位的薄弱环节，有计划、有步骤地派出人员外出求教。三是注重工作总结。通过总结不同科室、不同审计项目的审计报告，集中点评和归纳在审计中发现的问题，深刻剖析产生问题的原因。']</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A151" t="n">
+        <v>53</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>抚松县全力推进经济社会发展侧记</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>2018-01-18</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_316622.html</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>['隆冬时节，走进抚松，大项目建设蓄势待发，特色产业蓬勃发展，镇村建设日新月异，人民群众安居乐业……在这方充满活力和希望的热土上，加速发展、加快振兴的氛围让人感受强烈。', '1月13日，首届抚商发展论坛暨上海、广东、深圳抚松商会成立大会在抚松县举行。域内外抚松商界精英和抚松乡贤齐聚一堂，共谋抚商发展，共绘抚松发展蓝图。继北京抚松商会成立后，上海、广东、深圳抚松商会的成立，实现了对京津冀、长三角、珠三角的全覆盖，使抚松开放招商平台建设水平显著提升，走在了全省的前列。', '“要坚定不移推动乡村振兴战略，全面实施”二五十百千“工程，坚持以绿色转型升级为主线，不断提高经济发展质量和效益。”2017年12月15日，抚松县委十五届二次全会明确提出。', '近年来，抚松县积极贯彻落实全省“三抓”会议精神，坚持“生态立县、绿色兴县、产业强县”的发展战略，牢固树立“抓项目就是抓发展，上项目就是上实力”的理念，不断优化投资环境、创新招商方式、拓宽招商领域、提高服务水平，项目建设、招商引资取得了丰硕成果，吸引了一批又一批客商来抚投资，促进了抚松全县经济社会持续较快发展，为奋力开启美丽抚松新征程提供了强劲动能。', '成绩在跳跃的数字中展现，进步在不懈的努力中凸显。2017年，抚松县签约引进了总投资150亿元的复华长白山国际度假区、总投资120亿元的长白天地和总投资55亿元的长白山雪村等亿元以上项目9个，实现签约总额382.2亿元。', '体制机制的创新，是加快发展的前提。抚松县创新招商机制，出台了《抚松县加强精准招商工作方案》，提高了招商专业化、精准化水平；创新招商招法，借助吉浙对接契机，在全省率先与浙江省吉林商会建立战略合作关系，开展委托招商，与浙商总会大健康委员会密切互动并建立长期合作关系。', '在创新体制机制的同时，抚松县大力实施“走出去、引进来”战略。县领导班子成员带队，前往北京、广州、深圳、重庆等地学习考察。2017年共安排外出考察16次，参加展览会3次，推介会14次，请进来77次，接待客商560余人，出访与接待量均创历史新高。', '——投资112亿元的长白山鲁能胜地年度完成投资20亿元，原乡客栈、精品酒店、滑雪设备等建成运营。', '抚松还坚持主动跟进、合力攻坚，落实包保领导和责任部门，着力破解项目前期工作和建设过程中遇到的供地、拆迁等困难和问题，加快推动项目早落地、早开工、早见效。', '2017年共安排3000万元以上重点项目78个，总投资539亿元，已完成投资142亿元。其中百亿元以上项目3个，十亿元以上项目8个，入选省“三早”项目8个。鲁能胜地、太安堂、吉视传媒等一批重点项目进展顺利。由于项目投资体量大、建设速度快、产业结构优，抚松作为唯一的县区代表在全省“三早”行动汇报会上作了经验交流，得到了省级领导的认可。', '改革创新彰显新活力。近年来，抚松在省和国家层面承担重要的改革试点任务，是吉林省东部重要节点城市、绿色转型示范城市，被列为全省“扩权强县”试点，享有地市级管理权限，被赋予“创建国际旅游名城”的重大使命，还是“国家新型城镇化综合试点”。抚松不断深化改革，发挥省级开发园区和国有投资平台的作用，加快产城融合步伐，加强基础设施和公共服务配套建设。', '抚松县医院、中医院累计投入3.3亿元，硬件水准赶超省内市级医院水平。县医院肿瘤治疗中心、儿科诊疗中心、120急救指挥中心项目已启动实施，医疗卫生服务体系日趋完善。2017年，投入4.8亿元改善教育教学条件，完成7所学校“全面改薄”，与通化师院合作实施“乡村教师支持计划”，深入实施名优教师培养工程，教育教学水平显著提升。', '抚松县下大决心、大气力改善民生。2017年，投入3.7亿元改造棚户区26万平方米，建设保障性安居住房4389套；城镇新增就业1.16万人，转移农村劳动力2.72万人；实施“全民参保计划”，发放养老金9.29亿元，覆盖人数19万人；社会救助水平不断提升，发放各类救助资金1.35亿元，更多基层群众享受到了惠民政策带来的阳光雨露。加大城乡环境整治和美丽乡村建设，仅2017年就投入9.8亿元，城乡面貌发生巨大变化，深受百姓好评。', '历史车轮滚滚向前，时代潮流浩浩荡荡。作为“先行者”和“领跑者”的抚松，绿色转型发展的步伐更加快速稳健，深入实施乡村振兴战略，全面推进“二五十百千”工程的内生动力也愈加强劲。', '改造提升“双核心”、全力打造五个节点城镇、谋划建设十个非行政建制的特色产业小镇、推动建设百家田园综合体式精品农庄、加快建设千家精品旅游客栈，抚松正以“人民对美好生活的向往”为依归，奋力开启美丽抚松建设新征程。']</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A152" t="n">
+        <v>53</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>江源电商产业集群发展</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2017-04-07</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_315487.html</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>['以阿里巴巴运营中心建设为基础，全面推进电商建设，在全区各村建立3.0体验店，开展“爆炸式宣传地毯式培训”，酝酿开通“云尚江源”网站，使群众足不出户即可买到全区所有商品……2017年是江源电子商务发展年，该区采取有力措施大力发展特色电子商务产业。', '加大培训力度建立淘宝大学，整合区就业扶持资金，用于淘宝大学的教育培训。对那些经过培训后，有能力开办网店的年轻人，政府拿出就业基金给予无息贷款，以鼓励他们进入电商运营中，鼓励全民创业，实现大众创业。', '强化产品上行力度，通过开展运营设计培训、操盘手培训、产业包装、好货品展览等，提升产品质量，强化网上销售运营。整合江源现有的松花石产业、承天顺酒业、瀚宝山珍及林源春生态科技有限公司等一批国省名优质企业先行先试，走上网络销售平台。积极推进辖区三岔子林业局、湾沟林业局依托运营中心，建立特色产品旗舰店，促进产业升级。', '结合“八大特色产业园区”特点和实际需求，在每个园区规划建设各具特色的物流产业园区，带动全区整体物流业发展。总投资3.5亿元的人参生命科技产业园区物流项目已于长吉图物流公司达成合作意向，并通过省交投董事会，正在进行市场调查和初步运营。依托湾沟林业局域内丰富的山珍食品、优质食用菌、特色浆果以及冷水鱼等优势资源，围绕长白山绿色食品产业园区建设需求，在湾沟规划建设辐射抚松、靖宇的绿色食品物流配送区，打造有龙头、有特色、有规模的现代物流产业格局。', '2017年全区计划实现外贸进出口2300万美元，同比增长12%。为实现目标，该区千方百计扩大对外贸易，加快外向型企业发展速度，加快培植出口龙头企业。对金枫、中加等出口大户全方位帮扶指导，发挥龙头带动效应。鼓励中小企业想法子、找门路，通过到沿海等发达地区设立贸易办事处，深挖贸易增长点。', '江源现有哲仁药业交易网络平台、吉洋农产品交易公司、林源春生态科技有限公司和江源产权交易公司4家骨干电子商务企业，网络销售覆盖面涵盖医药、黑木耳、林蛙油、特色浆果饮料、产权交易等领域，骨干电子商务企业的经济效益和带动能力显著增强。各类电子商务网店日益普及，从网店销售领域看，主要有农特产品、山珍食品、松花石系列产品等品种，年销售额达到660万元，网店从业人员达到390人。网店业的快速发展，不仅创造了新的消费需求，还增加了居民的就业和增收渠道。', '该区组织相关人员先后到吉林市及所属舒兰市和山东菏泽市运城县等地进行考察学习，与阿里巴巴集团签订意向协议，谋划电商产业集群发展。计划建设江源电子商务产业一条街，目前集展览、办公、运营、培训于一体的电子商务平台运营中心和菜鸟儿物流集散地已建成，适时启动电商服务，开通“云尚江源”网站，将整合江源域内的交投、苏宁云商等各类电商企业建立电商一条街。', '物流产业多向发展，形成电子商务发展的要素。全区有专业物流企业13家，具有物流配送功能企业8家，中小型快递企业12家、23个营业网点。哲仁医药交易平台项目拥有医药运输车辆6台，销售运输半径覆盖全市，辐射通化、蛟河等地，实现年产值1亿元，税金740万元。', '在电商拓市场、电商促销费、电商扩投资方面强化举措，催生发展了一批电子商务企业和各类网店。目前江源开展电子商务企业有26家，各类网店132个，年销售额达2.3亿元。']</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A153" t="n">
+        <v>53</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>长春新区争当对口合作的先行者和开路先锋</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>2016-12-22</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>http://ccxq.gov.cn/xqyw/xqdt/201612/t20161222_2115811.html</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>['12月22日，长春新区推介会在天津举行。作为创新经济发展示范区、新一轮东北振兴重要引擎、图们江区域合作开发重要平台、体制机制改革先行区，长春新区将成为长春市与天津市对口合作的“开路先锋”，其发展优势和规划蓝图吸引了天津各界关注的目光，推介会的胜利召开，进一步深化了长春与天津的合作，构建了共赢发展桥梁。来自天津、长春两地69户重点企业代表出席推介会。长春新区管委会副主任姜保忠在推介会上介绍了长春新区发展环境，长春新区管委会副主任石威主持会议。', '2016年，国家密集出台一系列进一步支持东北全面振兴的政策措施，11月16日，国务院正式出台《关于深入推进实施新一轮东北振兴战略加快推动东北地区经济企稳向好若干重要措施的意见》，要求东北三省四市与东部部分省市建立对口合作机制。其中，长春市与天津市开展对口合作。', '11月29日，吉林省委常委、长春市委书记王君正率队在天津滨海新区学习考察时要求，长春新区要抓紧与滨海新区对接学习，将简政放权的好经验、好做法尽快“移植”到长春，以点带面，争取在全市推广。希望滨海新区和长春新区努力成为对口合作的“先行者”“开路先锋”，通过两个新区的合作，拉近两个城市的友谊，努力在振兴东北的实践中创造典范、走在前列。', '11月30日，长春市委常委、长春新区党工委书记孙亚明率长春新区考察团赴天津滨海新区进行学习考察，开启了长春新区与滨海新区对口合作的新契机。此次推介会是长春新区落实东北振兴对口合作战略的具体实践，更体现了长春新区对外交流合作的开放胸襟和广阔视野。', '长春新区是2016年2月3日由国务院批复设立的第17个国家级新区，主体位于长春市东北部，管辖范围包括长春北湖科技开发区、长春空港经济开发区、长德经济开发区、长春高新区四个区域。经过近一年的开发建设，长春新区不断培育新动能、发展新产业、实现新发展，全区经济社会呈现出强劲的发展势头，主要经济指标保持两位数增长，地区生产总值、固定资产投资占全市20%以上，有效发挥了国家级新区对区域经济发展引擎和带动作用。', '长春新区管委会副主任姜保忠在推介会上介绍了长春新区发展环境。长春新区投资环境日益优化，吉林省明确赋予长春新区市级经济社会管理权限，长春市2000余项市级管理权限年底前将全部下放到位，真正实现“新区事新区办”；创新招商体制，实现“招商、落位、投产”一条龙接续服务；在全省率先开展国地税联合办税改革，推行政务服务“一门式、一张网”综合改革，建立重大项目服务秘书制，为项目提供全方位、全过程、全天候的秘书式服务；再造审批流程、提高审批效率，创造“新区速度”和“服务品牌”。', '长春新区主导产业集群发展，着重培育先进制造业、现代服务业、现代农业三大主导产业，以“突出特色、错位发展”为发展原则，新区所属四个开发区产业发展各有侧重。长春空港经济开发区重点发展国际合作事务服务、区域服务外包、金融服务、文化交流等现代服务业以及临空先进制造业；长春北湖科技开发区重点发展科技、文化、信息、商贸、物流等高端生产性、生活性服务业；长德经济开发区重点发展先进制造和现代农业；长春高新区重点发展高新技术产业和高端服务业。目前全区引进落位了温德克通航制造产业园、广东龙浩临空产业园、普仁国际医学城、泰山高端冰雪运动装备制造、北大未名生物农业示范区等一批投资上百亿元大项目，北湖、物流、长德、空港四大商务区全面启动，航天信息产业园、华为大数据中心、长春铁路综合货场等一批功能性项目加快建设，新区的要素集聚、项目集聚、产业集聚效应日益凸显。', '为支持新区发展，吉林省、长春市分别出台了《若干意见》和《实施意见》，明确在重大改革试点、建立一级财政、设立专项资金、规划土地审批等方面给予长春新区全力支持。长春新区结合自身实际和发展需求，在充分借鉴全国先进国家级新区创新政策的基础上，制定了扶持战略性新兴产业、高端服务业、科技创新、金融创新、高层次人才集聚等一系列政策，扶持力度之大、含金量之高前所未有。完善的政策体系，对招商引资和项目建设形成强大的吸引力。长春新区按照既定的奋斗目标，正全力打造创新繁荣、开放包容、公平幸福、生态智慧的现代化新区。对在长春新区投资的项目，新区将在政策、土地、市场、环境配套等方面提供最大限度的支持。', '天津滨海新区商务委总经济师许红球深入介绍滨海新区建设情况，天津滨海新区是继深圳特区、浦东新区之后，中国当前着力打造的服务辐射区域经济发展新的经济增长极，2006年，滨海新区开发开放正式上升为国家战略，2014年12月国务院批准设立中国（天津）自由贸易试验区，涵盖天津港片区、天津机场片区、中心商务片区三个片区，2015年4月21日正式挂牌。2016年，滨海新区开发开放十周年，步入了新的更高发展阶段。滨海新区构筑起高端高质高新化产业体系，汽车及装备制造业，航空航天产业，电子信息产业，生物医药产业，石油化工产业，新能源产业，新材料产业，粮油轻工产业。其中，汽车及装备制造、石油石化、电子信息3个产业均达到3000亿的能级；以新一代信息技术、新能源、生物医药为代表的战略性新兴产业年均增长超过20%，产值达到2000亿元；培育超百亿级企业集团21个,其中超千亿级企业集团3个。', '推介会上，长春新区规划局副局长王昊昱介绍了新区总体规划。据了解，长春新区以国际化视野，采用“专家领衔、团队合作”方法，建立了由12位专家组成的智库和20个团队组成综合编制组；并突出了以国家战略为引领，将区域能力、产业规划、政策设计、招商体系甚至资本规划和空间规划体系多规合一，力图实现对长春新区空间规划体系，全生命周期的总体设计，规划成果已于10月8日正式获批。', '规划提出长春新区“三步走”发展战略，第一步，建设国家级新区；第二步，成为吉林自贸试验区的重要支撑；第三步，至2030年，成为中国在东北亚地区面向世界开放的新节点。', '规划三大任务将推动长春新区战略性能力建设和能级提升，构建联通国际的战略性枢纽和通道，重点打造“两港两枢纽”和战略性通道体系，依托龙嘉国际航空港建设东北亚区域航空物流枢纽。客运量6000万人次，货运量300万吨，成为东北亚地区门户枢纽。依托铁路综合货场，建设长春国际陆港，形成东北亚区域海陆空联运大枢纽。铁路运量3300万吨/年，成为“一带一路”北线通道的重要节点。构建辐射国际的开放性平台，依托龙翔国际商务区、空港国际商务区、国际物流中心服务区、长德服务业集聚区“四大商务中心”，打造面向国际物流枢纽、科技创新、文化信息、国际会展、对外贸易等六大类共81项服务性产业平台。', '构建开放创新型产业体系，重点发展先进制造业、现代服务业、现代农业三大主导产业，形成以中国智能装备制造中心和东北亚区域绿色消费中心为核心，开放创新型产业体系，形成N个千亿级产业集群。', '规划构建“多规合一”规划体系，将产业、城规、土地、生态、交通规划等16个专项规划60个核心指标一一落实到四大分区17个单元，明确了涉及28个部门、融合54项规划、1200个图层“多规合一”GIS数据成果，实现一张蓝图干到底。', '本次推介会还进行了项目签约仪式，吉林动画学院与天津正东动漫文化发展有限公司签署战略合作项目协议；长春空港经济开发区与天津市万顺置业有限公司签署欧贸中心项目协议；长春高新区与天津华鸿科技股份有限公司签署战略合作框架协议；长春新区与天津北方创业控股集团签署框架合作协议。']</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A154" t="n">
+        <v>53</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>大阳岔镇党员教育培训办法多效果好</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2013-12-31</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>http://jy.cbs.gov.cn/zwgk/jyxw/201706/t20170628_166855.html</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>['一是改进培训方式。采取专题讲座与研讨交流相结合、课堂学习与实地参观相结合的方式，聘请区委党校和市农科站等相关部门的专家教授，进行党的理论知识、政策法规和专业技能培训，并组织党员和积极分子外出考察学习经验。', '二是改进活动方式。因地制宜，做大做活“自选动作”。每年举办以“党在我心中”为主题的演唱会、趣味运动会，开展为老党员免费体检等活动。规范党员档案管理，建立健全党费收缴制度；实行村、社区“两委干部”定期联系包保流动党员制度，使党支部与流动党员保持长期联系。', '几年来，全镇党员和积极分子接受各级各类培训500余人次，发展党员39名，其中农村党员26名，35岁以下党员30名，使党员结构得到进一步优化。（王朝华于秀成）']</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A155" t="n">
+        <v>53</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>江源区妇联以双百双十活动为载体落实三帮扶工作</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>2014-01-02</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>http://jy.cbs.gov.cn/zwgk/fzgh/gsms/201706/t20170623_129612.html</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>['江源区妇联积极落实全省“三帮扶”活动，带动妇女参与社会管理创新，在全区开展以“帮百名贫困女童、百名贫困妇女、十户工商户、十个创业就业基地”为主要内容的“双百双十”活动。', '一是帮扶百名贫困女童。区妇联通过对全区10个镇街进行摸底调查，发动社会爱心人士对百名贫困儿童进行帮扶。', '二是帮扶百名贫困妇女。实行一名妇联干部牵手一名贫困妇女创业就业活动，积极与群众交友、谈心，听取和反映群众意见，帮助解决实际困难，全区共有一百名妇联干部就能就近就地帮助一百名妇女脱贫致富。', '三是帮扶十户女创业带头人。以帮扶女创业带头人为着力点，进一步提高农村妇女组织化程度，促进农村妇女增收致富。', '四是加强十个就业基地建设。加强以手工编织基地为首的十个妇女就业基地建设，从技术、信息、资金、人力等方面全力帮扶基地建设，通过带领基地创建人外出考察学习，扩大基地规模等形式，带动妇女就业人数逐步增加。']</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A156" t="n">
+        <v>53</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>我市女企业家和创业妇女赴云南学习考察</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2011-06-10</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_305201.html</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>['为贯彻落实市委、市政府创旅游品牌，全力打造国际生态旅游城战略部署，充分发掘妇女在旅游产品开发、生产、销售领域的独特优势和作用，日前，市委组织部、市妇联、工信局、旅游局联合组织从事旅游产品开发的女企业家和创业妇女40人，赴云南开展学习考察活动。', '此次学习考察活动以专题讲座、实地走访、座谈相结合的方式进行。考察期间，女企业家、创业妇女实地观摩考察了两家云南省女企业家创办的旅游产品生产企业。所到之处，受到了企业负责人和工作人员的热情接待，全面介绍企业发展情况，交流个人创业经验，并耐心回答创业妇女的提问，积极衔接了合作项目。考察人员还与当地旅游业成功人士围绕长白山旅游产品开发和深加工进行座谈讨论，座谈围绕如何把握旅游服务行业发展的机遇，进行创业就业，发展致富及妇联组织在妇女就业创业中如何发挥组织优势，达到社会效益、女性自身发展的双赢进行了探讨与交流。', '通过学习考察，促进了我市与云南省创业妇女和组织的相互交流与往来，也为我市女企业家、创业妇女提供了开阔视野，更新观念的平台，使她们认识到旅游产业的巨大发展前景，坚定了参与我市旅游产业发展，推动“无围墙”工厂建设的信心和决心。']</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A157" t="n">
+        <v>53</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>环境整治四步走建设塞北花园城临江市强力实施村庄清洁行动走笔</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>2019-05-21</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201905/t20190521_413314.html</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>['临江市地处吉林省东部山区，既是革命老区、民族地区，也是边境地区。2018年以来，临江市委、市政府认真贯彻习近平总书记关于建设生态文明的重要思想，牢固树立绿水青山就是金山银山的理念，在落实推进乡村振兴战略方面，突出问题导向，狠抓农村环境整治，强力实施村庄清洁行动，实现从物质到精神、从硬件到软件、从“面子”到“里子”的全面振兴。', '近年来，浙江省万千美丽乡村建设在全国异军突起，通化市农村环境整治在全省不断展现新“亮点”。对照先进典型，临江市委、市政府提出“远学浙江、近学通化”的号召，先后组织市级领导、涉农部门“一把手”、乡镇街道领导及行政村负责人近200余人，分4批次到浙江省长兴县、浦江县和通化市通化县，考察学习改善人居环境、建设美丽乡村经验做法。通过学习，开阔了视野，拓宽了思路，解决了不具备条件不能干、方法不多不会干、决心不大应付干的思想问题。他们认识到，近年来临江市持续推进城市建设，城市品位不断提升，先后荣获中国最美县城、中国深呼吸小城、中国最具开发价值的十大旅游城市等荣誉称号，城市建设虽然越来越好，但农村垃圾围村、污水横流、杂物乱堆等环境脏乱差问题仍十分突出，如何缩小城乡环境建设差距，是当前工作的“重中之重”，必须力克顽疾、抓好整治、取得实效。', '外出考察结束后，临江市委、市政府第一时间召开“农村环境整治座谈会”，全面总结消化浙江、通化两地学习经验。会上，县级领导、乡镇和涉农部门负责人、村干部聚在一起，争相谈收获、论心得、提意见，座谈会开成了农村环境综合整治的“誓师会”。座谈会后，临江市委、市政府一班人利用近一个月时间，深入调研、集中研究、反复论证，从整治力度、建设程度、推进速度与财力承受度、农民接受度等多方面考量，最终确立了临江市“1+4”农村环境综合整治工作思路。“1”：把整个临江建设成为“大花园”这一终极目标；“4”：实施“四步走”战略，即利用3年多时间，梯次升级农村人居环境整治。第一阶段，2018年抓集中整治，达到“干净”目标；第二阶段，2019年抓攻坚提升，达到“整洁”目标；第三阶段，2020年抓品位提升，达到“美丽”目标；第四阶段，2020年之后抓融合发展，达到“富饶”目标。', '为确保农村环境综合整治的持续性、实效性，杜绝一阵风、走过场，临江市着力把好标准制定、责任落实、整治方式“三大关口”。', '——把好标准制定关，保证农村环境综合整治有章可循。制定了临江市农村环境综合整治工作实施方案，对全市70个行政村、380个自然屯，全面实施“六清、四化、一创建”环境整治活动。“六清”：清垃圾，全面清理道路两侧、房前屋后、公共场所、村屯周边、绿化带等各类垃圾；清柴草，清理后的柴草垛，统一堆放在村屯的下风头，符合农村消防要求；清粪堆，清理村内街道两旁、田间地头散乱堆放的粪堆；清院落，清理院落私搭乱建、墙壁乱涂乱画；清沟渠河塘，清理村内小流域、河流、河塘内的杂草、垃圾、污物；清理卫生死角地带，清理村屯出入口，公路交汇地带，沟渠与村屯、农田联结区域，工业园区和蔬菜棚膜园区周边等不易引起重视的地方所积存的各类垃圾、污物。“四化”：实施净化工程，建立农村日常保洁和垃圾分类处置机制，做到村庄垃圾日产日清；实施绿化工程，坚持见缝插花、见空植绿，抓好城镇、村屯、公路绿化，打造一批花香路、花田村；实施美化工程，加大房屋外立面，院墙、篱笆、边沟等设施的规划和改造力度，抓好农村住房和院墙粉刷装饰工作；实施亮化工程，对进村路、主街道、重要公共活动场所进行风格化、艺术化的亮化装饰，真正让乡村的夜晚都亮起来、美起来。“一创建”：在全市农村广泛开展好婆媳之家、尊老爱亲之家、诚实守信之家、美丽庭院等以“三好一庭院”为引领的一系列创建活动，大力培育文明乡风、良好家风、淳朴民风。', '——把好责任落实关，营造干部群众合力整治大好局面。为压实工作责任，确保各项包保任务落到实处，临江市委、政府制定下发了《市级领导、市直机关部门及中省直单位（企业）包保美丽乡村建设工作实施方案》，突出“五包五责”，形成一级抓一级、层层抓落实的工作推进机制。县级领导包乡镇，落实解决突出问题责任。全市26名副县级以上领导全部落实包保任务，要求县级领导每月深入包保乡镇至少1次，帮助包保乡镇理清建设思路，解决好单靠一家一户、一村一镇难以解决的问题。乡镇包村，落实乡村全面振兴责任。86名乡镇领导与所辖村结成包保对子，统筹包保环境整治、脱贫攻坚、扫黑除恶等重点工作，共同研究解决问题，完成目标任务。部门包村，落实联村帮建责任。全市62个部门、20户企业把包保帮扶工作纳入本单位重点工作，根据自身类别，通过项目扶持和资金、物资投入等形式进行帮扶。村组干部和党员包户，落实示范带动责任。全市发动1459名村组干部和党员，实行干部包组、党员包户的管理方式，并以党员干部率先行动、甘当表率，以自身实际行动，带动自家的人，影响身边的人，感化周围的人。农户“三包”，落实自我管理责任。', '对全市有劳动能力的1.24万常住农户，落实门前包卫生、包绿化、包秩序的“三包”责任，实现全民动手，合力整治农村环境。', '——把好整治方式关，集中会战突击开展农村环境整治。2018年8月，临江市委、市政府召开全市农村环境综合整治动员大会，要求全市上下总动员、齐参与，每年春、秋两季大搞一次农村环境综合整治大会战。第一场秋季会战历时近3个月，会战过程中，县级领导“白天当村官，晚上当县官”，带头参加劳动，包保部门干部、乡镇干部全部奋战一线、苦干一线。全市各级累计投入1880万元，清除各类垃圾1.8万吨，基本实现农村积存垃圾、河道沟塘、“三小五堆”和私搭乱建“四个清零”要求。投入4800万元，实施中心村、主村屯主干路柏油铺设和危桥改造，绿化美化村路巷路118公里，村屯绿化美化6.36万平方米，农村人居环境整治初战告捷，四步走战略的第一步“干净”目标基本达成。', '临江市委、市政府高度重视农村环境整治工作，高度摆位、高位推进，从建立健全工作推进机制入手，不断创新领导方式方法。', '——建立专门的组织领导机构。成立市委书记、市长任双组长的市乡村振兴工作领导小组，领导小组下设办公室，主任由一名副县级领导担任。市乡村振兴办对全市农村环境综合整治工作牵头抓总、指导协调、考核督导。', '——建立多渠道的投入保障机制。市财政将农村环境综合整治资金纳入预算优先保障。仅2018年，市财政投入农村环境综合整治资金1016.8万元。将各类涉农项目和资金打捆使用，集中投入到农村人居环境整治。2018年整合投入农村人居环境资金达19410万元。引导有关部门、社会组织、个人通过捐资捐物、结对帮扶等形式，捐资350万元，支持农村环境综合整治工作。', '——建立严格的奖惩制度。一方面，奖励给到位。对于获得农村人居环境整治工作标兵村、先进村、达标村的行政村，年度分别给予20万元、10万元、5万元资金奖补，累计奖励44个村；乡镇按照一类奖励40万元、二类奖励20万元，街道按照一类奖励20万元、二类奖励10万元，共奖励乡镇、街道8个。2018年底的表彰大会上，仅重奖先进镇、街道、村就兑现了近575万元。另一方面，处罚严到份。将农村环境综合整治工作纳入全市村干部绩效工资的考核中，作为农村干部工作业绩优劣的重要评定指标。', '——建立保洁长效机制。按照常住人口千分之三比例为各村配备保洁员189名，确保垃圾有人清扫、有人收集、有人转运、有人填埋。2018年，投放小型分类垃圾桶3.8万个，大型分类垃圾桶366个，采购垃圾清运车40辆，建立起“户分类、屯保洁、村集中、镇转运、市处理”垃圾处理模式，实现全市农村生活垃圾处理全覆盖。', '发挥农村人居环境整治聚人气、强党建、带脱贫、壮集体、转民风的融合促进作用，推动农村环境整治与农村产业提升、集体经济发展、乡风文明建设等方面的均衡发展、良性互动，具体实现了“五带动”。', '——环境整治带动全域旅游。围绕改善农村人居环境和塑造乡村文化品牌，临江市借势打造了一批生态型、田园型、休闲型、历史文化型特色小镇和精品村落，田园风光+娱乐模式的坡口村、美丽庭院+观光旅游模式的桦皮村、休闲绿道+农家乐体验模式的邱家岗村等模式，不断复制和推广，有力地推动了临江市全域旅游发展。', '——环境整治带动基层党建。在农村环境综合整治开展过程中，临江市深入开展了党员示范、党员亮相、党员包户活动，各乡镇、村和部门干部带头、全员上阵，环境整治大会战，成为了全市基层党员干部锤炼作风、转变作风、检验作风的重要主战场。', '——环境整治带动脱贫攻坚。开展农村环境综合整治，在为贫困群众带来美好环境的同时，更培树了积极向上的生活态度、健康的生活方式。通过农村环境综合整治，实现了扶思想、扶观念、扶信心，贫困群众通过自己双手早日摘下贫困帽子的意识变得越来越强烈。', '——环境整治带动集体增收。通过实施“人居环境整治，许多镇、村在人居环境整治中找到了发展乡村旅游、设施农业和农村电商的突破口，2018年，全市70个行政村，集体经济收入超过10万元的达到51个。', '——环境整治带动乡风文明。在农村环境综合整治过程中，临江市通过打好“三好一庭院”“临江好人”评比、基层文艺擂台赛、村规民约制定等一系列组合拳，唱响了主旋律，传播了正能量，以社会主义核心价值观抢占农村意识形态“高地”。农村群众看到了各级党委政府的信心决心，感受到了环境整治之后带来的舒畅和便利。']</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A158" t="n">
+        <v>53</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>景山镇西南岔村立足科学规划建设美丽乡村</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>2017-09-11</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/ztzl/mlxcjs/xczx/jyx/201805/t20180519_324642.html</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>['为扎实推进美丽乡村建设，西南岔村结合自身实际，提出了建设“生态南岔、美丽乡村、幸福家园”的工作目标，制定完善了具有可操作性的工作机制。', '一、抓组织领导，做到推动有力。为抓好此项工作，西南岔村建立了由村党支部书记、村主任任组长的美丽乡村建设领导小组，领导小组下设综合协调组、环境整治组、绿化工作组，抽调村精干力量，集中办公，专职负责综合协调、操作实施、信息汇总等工作。各组按要求充实队伍，健全工作机制。村里成立村民理事会，明确理事会和村民在村屯内部管理和维护上的责任。着力构建各方参与的工作体系，形成美丽乡村建设的强大合力。', '二、抓统筹谋划，做到规范推进。坚持规划引领，突出把高起点、高标准的建设理念融合到规划中，坚持不规划、不建设，目前全村规划已经由省城乡规划设计院帮助编制完成。注重考察调研，2016年，村美丽乡村建设领导小组多次对全村美丽乡村建设情况进行调查研究，并多次组织村三委成员和村民代表外出到辽宁丹东、吉林通化等地考察学习，举办美丽乡村建设专题研讨会，为谋划2017年的美丽乡村建设工作打下了坚实的基础。为有序推进美丽乡村建设，西南岔村按照县、镇美丽乡村建设的总体要求，研究制订了村总体建设、产业发展、环境整治、绿化美化、资金整合等一系列工作方案，通过“零距离”地与群众接触，面对面地与群众交流，对村规划建设、环境整治和产业发展等方面达成共识，形成目标。', '三是抓典型示范，做到重点推进。按照景山镇“培育中心村、整治自然村、提升特色村”的工作要求，西南岔村作为全镇美丽乡村建设的试点，结合实际情况，征求群众意见，确定了村规划、产业发展、环境整治、基础设施、农田整理、公共服务等若干个“推进点”，实施分类实施，注重远近结合、难易结合、软硬结合，确保了工作的重点推进。2016年，投入新农村建设资金55万元，建设农户砖砌围墙700延长米。投入美丽乡村建设专项资金300万元，在村B区、C区建设仿木塑围栏6010米，安装农户大门134个，村B区建设了50米的排水渠，并建盖板涵1道。投入财政一事一议项目建设资金230万元，建设了4177延长米路边排水沟。县交通局投资600万元，实施了15公里村路改造项目。2016年，西南岔村新评选美丽庭院35户、干净人家100户，环境综合整治工作任务圆满完成。', '四、抓资金投入，做到有效保障。从2016年开始，争取镇财政安排资金5万元，支持西南岔村的美丽乡村建设。建立西南岔村美丽乡村长期投入保障机制，积极利用省级美丽乡村建设、新农村建设、镇级配套资金，整合好村屯整治、农村清洁工程、人畜饮水工程、水利建设、体育健身、土地整治等各类项目，根据西南岔村美丽乡村建设规划，制定道路、排水、绿化、环境治理等项目财政奖补标准，有序推进美丽乡村建设。加强资金监管，对资金筹集、工程招标、资金报账、财务核算、资金拨付、竣工决算、审计做了详细规定，保证西南岔村美丽乡村建设资金的有效使用。', '五、抓氛围营造，做到家喻户晓。尊重群众意愿，依靠群众力量，才能真正做好工作。西南岔村积极做好宣传发动工作，引导群众积极主动参与，利用召开户代表会议等形式，把美丽乡村建设从意义上讲透、内容上讲清、情理上讲明，取得群众的广泛赞同。村广播室对西南岔村美丽乡村建设情况进行专题宣传报导，编发新闻近10条。围绕“生态南岔、美丽乡村、幸福家园”主题，对美丽乡村建设涉及的文明创建、综治、植树造林等各个方面进行宣传教育。坚持内宣、外宣并举，主动邀请靖宇电视台、靖宇日报、长白山日报等媒体走进西南岔村作专题报道，进一步提高了西南岔村的影响力和美誉度。', '2017年，西南岔村将继续以村屯环境整治为突破口，推进村屯基础设施、公共服务配套等方面建设，尤其是针对村内卫生死角，大力开展农村垃圾污水处理等活动，通过农村“一事一议”、以奖代补，逐步推进各种农村垃圾处理模式，同时在村内加强绿化和景观带的建设。紧密结合全镇文明创建活动，推进乡风文明建设，力争实现美丽乡村建设上档升级。']</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A159" t="n">
+        <v>53</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>关于开发浑江区域内沟系旅游项目的建议</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>2016-09-07</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>http://www.hunjiang.gov.cn/zw/yata/zxya/201706/t20170615_111664.html</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>['浑江区域内的沟系开发，我们将结合乡村旅游的开展一同开发。乡村游是我国近年来快速发展起来的新兴旅游业态，也是我区旅游发展的一个方向，据初步统计，全区4个镇及部分街道都有不少农民依托景区景点、居民集中居住区和城郊发展的“农家乐”。全区共有“农家乐”40多家，三道沟镇滴台村有农家乐经营户10余家，农家乐的客源主要来自市区人群，外地游客较少。就全区农家乐的现状看，目前也存在着一些问题，主要表现在：', '一是经营模式单一。乡村游主要经营方式就是用餐，体现在“吃”上，前来的客人在等待用餐的时间大多只能喝喝茶、打打麻将，周围没有可游玩的娱乐设施，失去了乡村游的重要要素——体验农村的生产生活。', '二是规模档次低。均存在规章和设施不完善，规模不大的问题。绝大多数只是小餐馆——家庭式“作坊”,以自己的住房作为经营场所，没有田园、果园、景园，员工也是自己家人，拉动农村就业的作用没有体现。', '三是缺乏经营理念、管理经验。大多数经营户没有参加任何服务技能培训，只是靠自己的特长或者是在一定区域的做菜“名声”进行经营，基本不具备必要卫生、防疫、业务技能等知识。', '四是环境污染现象严重。大部分农家乐都建立交通主干道或者城乡结合部，有些甚至在风景区内。大多农家乐经营户环境保护意识淡薄，他们只顾眼前利益，不考虑长远发展。经营过程中无形中对周边的环境卫生带来极大的负担，在农家乐周围，随处可见残羹剩汤、纸袋酒瓶等生活垃圾，与周边优美的环境极为不协调。', '一是出台相关政策，进行政策引导。我们将积极借鉴外地的相关经验，适时出台“乡村游企业经营规范”“星级评定与划分”等标准。对镇内的乡村游进行规范经营，使旅游者到农户的果园中观光、渔业养殖基地垂钓、购买本地特色食品（本地鸡蛋、手工鞋垫、山野菜、松花奇石）等。同时，区政府将适时出台扶持政策，按照国家、省旅游局的要求和相关优惠政策，帮助达到一定层次的经营场所争取相关资金或政策支持，从而鼓励农家乐向规范化、规模化方向发展。', '二是强化经营管理。由于经营户分散性强，缺乏正规的专业训练，旅游知识缺乏，经营管理水平低，因此要强化经营管理，提高综合服务效益。今后的一个阶段我们将会着重做好几个方面的工作：首先组织经营户进行服务技能、经营管理培训，提高经营户的综合素质。其次有计划地组织经营户到乡村游发展较好的地方考察学习。另外要经常性地举办技能比赛，引导经营户积极参与省、市、区举办的各类比赛，从而提高其服务管理水平。 三是搞好环境保护。伴随着乡村游的发展，环境污染也日渐严重。农家乐的发展与环境的保护是相辅相承的。乡村游的发展大都凭借的是优美的环境，而最吸引人的地方也一般是其周围美丽的自然或田园风光。但是现今很多经营者缺乏长远的眼光，只顾眼前蝇头小利，给环境带来了破坏。针对这种情况我们将配合相关部门进一步加大综合治理的力度，确保在促进三道沟镇乡村游发展的前提下，环境也得到保护。', '二是强化经营管理。由于经营户分散性强，缺乏正规的专业训练，旅游知识缺乏，经营管理水平低，因此要强化经营管理，提高综合服务效益。今后的一个阶段我们将会着重做好几个方面的工作：首先组织经营户进行服务技能、经营管理培训，提高经营户的综合素质。其次有计划地组织经营户到乡村游发展较好的地方考察学习。另外要经常性地举办技能比赛，引导经营户积极参与省、市、区举办的各类比赛，从而提高其服务管理水平。 三是搞好环境保护。伴随着乡村游的发展，环境污染也日渐严重。农家乐的发展与环境的保护是相辅相承的。乡村游的发展大都凭借的是优美的环境，而最吸引人的地方也一般是其周围美丽的自然或田园风光。但是现今很多经营者缺乏长远的眼光，只顾眼前蝇头小利，给环境带来了破坏。', '针对这种情况我们将配合相关部门进一步加大综合治理的力度，确保在促进三道沟镇乡村游发展的前提下，环境也得到保护。', '在今后的工作中，我们会把旅游环境保护和服务水平的提高当作中心工作，重点抓，长期抓，努力营造良好旅游环境，促进全社会齐抓共管，并针对工作中的薄弱环节和今后出现的新问题，不断完善措施，改进方法，提高旅游管理水平，促进旅游业健康、快速发展，打造滴台边境乡村旅游精品村。']</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A160" t="n">
+        <v>53</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>省征地事务中心帮扶工作步步实</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>2013-08-01</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>http://www.changbai.gov.cn/zwgk/zwdt/zwdt/201801/t20180117_267301.html</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>['省国土资源厅征地事务中心对我县十二道沟镇背阴亭村开展帮扶工作以来，多次进村入户，解决实际问题，赢得了村民的好评。', '真情扶困。为引导帮助困难党员群众创业致富，征地事务中心先后为背阴亭村6户困难党员、群众捐款3500元，用于备耕生产；投资4万元帮助21户村民购置了科学储粮仓；投资5万元，引进种猪20头，分给18户村民养殖，在壮大了村养猪合作社规模的同时，提高了贫困党员、群众的创业致富的能力。', '强基聚力。征地事务中心一方面协助村组织选齐配强村班子成员；另一方面组织村干部群众赴长春、通化学习考察，因地制宜引进贝母等致富项目。2012年征地事务中心帮扶16万元，依托当地优质的粮食资源，建起了煎饼加工厂，不仅解决了村中闲置劳动力，拓宽了村民增收渠道，而且壮大了村集体经济，增强了基层党组织的凝聚力。', '改善民生。为解决村民就医看病问题，2013年征地事务中心帮扶15万元，为背阴亭村建了一座崭新的卫生所，改善了村民的就医环境。']</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A161" t="n">
+        <v>53</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>赤松镇岗顶村大力建设美丽乡村打造美好家园</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>2017-09-11</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/ztzl/mlxcjs/xczx/jyx/201805/t20180519_324641.html</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>['靖宇县赤松镇岗顶村坐落在松花江沿岸台地上，地势平坦，环境优美，距靖宇县城60公里，位于赤松镇政府所在地东南3.5公里处，是二次搬迁移民村，辖1个自然屯，总户数62户，人口237人。村占地面积5平方千米，林地面积7.9公顷，在册耕地面积855亩，人均耕地面积3.6亩。村主要街道为四横二纵，总长4.2公里。岗顶村村主导产业以传统种植业、养殖业为主，2015年农民人均纯收入5800元。2015年，岗顶村被推荐为首批省级美丽乡村。', '为扎实推进美丽乡村建设，岗顶村结合自身实际，提出了建设“生态岗顶、美丽乡村、幸福家园”的工作目标，制定完善了具有可操作性的工作机制。', '一、抓组织领导，做到推动有力。为抓好此项工作，岗顶村建立了由村党支部书记、村主任任组长的美丽乡村建设领导小组，领导小组下设综合协调组、环境整治组、绿化工作组，抽调村精干力量，集中办公，专职负责综合协调、操作实施、信息汇总等工作。各组按要求充实队伍，健全工作机制。村里成立村民理事会，明确理事会和村民在村屯内部管理和维护的责任。着力构建村民组推动工作体系，形成美丽乡村建设的强大合力。', '二、抓统筹谋划，做到规范推进。坚持规划引领，突出把高起点、高标准的建设理念融合到规划中，坚持不规划、不建设，目前全村规划编制工作已基本完成。注重考察调研，2015年8月份，村党支部专门安排人员对全村美丽乡村建设情况进行了初步的调查研究。2015年10月份以来，村美丽乡村建设领导小组对全村的情况进行了全面的摸底，又多次组织村的三委成员和村民代表外出到辽宁丹东、吉林省的四平等地考察学习，并举行了美丽乡村建设的专题研讨会，为谋划2016年的美丽乡村建设工作打下坚实的基础。为有序推进美丽乡村建设，岗顶村按照县、镇美丽乡村建设的总体要求，研究制订了村总体建设、产业发展、环境整治、绿化美化、资金整合等一系列工作方案，通过“零距离”地与群众接触，面对面地与群众交流，对村规划建设、环境整治和产业发展等方面达成共识，形成目标。', '三是抓典型示范，做到重点推进。按照赤松镇“培育中心村、整治自然村、提升特色村”的要求，岗顶村作为全镇美丽乡村建设的先行试点，在前期走访、调查了解的基础上，结合群众意见，确定了村规划、产业发展、环境整治、基础设施、农田整理、公共服务等若干个“推进点”，实施分类实施，注重远近结合、难易结合、软硬结合，确保了工作的重点推进。2015年，全村新增项目种植大果榛子100亩、食用菌50万袋。新建60平方米幸福大院一座，安装路灯41盏，种植绿化树840棵，草坪绿地2000平方米，建设砖砌围墙3920延长米。评选美丽庭院15户、干净人家33户，环境综合整治工作任务如期完成。', '四、抓资金投入，做到有效保障。从2015年开始，争取镇财政安排资金50万元，并逐年增加，支持岗顶村的美丽乡村建设。建立岗顶村美丽乡村长期投入保障机制，积极利用省级美丽乡村建设、镇级配套资金，整合好村屯整治、危房改造、农村清洁工程、人畜饮水工程、水利建设、体育健身、土地整治等各类项目，根据岗顶村美丽乡村建设规划，制定道路、绿化、排水管道、环境治理等项目财政奖补标准，有序推进岗顶村美丽乡村建设。加强资金监管，对资金筹集、工程招标、资金报账、财务核算、资金拨付、竣工决算、审计做了详细规定，保证岗顶村美丽乡村建设资金的有效使用。', '五、抓氛围营造，做到家喻户晓。尊重群众意愿，依靠群众力量，才能真正做好工作。岗顶村积极做好宣传发动工作，引导群众积极主动参与，利用召开户代表会议等形式，把美丽乡村建设从意义上讲透、内容上讲清、情理上讲明，取得群众的广泛赞同。村广播室对岗顶村美丽乡村建设情况进行专题宣传报导，编发新闻近10条。围绕“生态岗顶、美丽乡村、幸福家园”主题，对美丽乡村建设涉及的文明创建、综治、植树造林等各个方面进行宣传教育。坚持内宣、外宣并举，主动邀请靖宇电视台、靖宇日报、长白山日报等媒体走进岗顶村作专题报道，进一步提高了岗顶村的影响力和美誉度。', '当前岗顶村美丽乡村建设存在着以下几方面的难点和问题：一是现代农业发展不足，农村的耕作方式、资金投入、技术水平相对落后，传统农业向现代农业的转型又受到资金、技术、土地流转等方面制度的制约。二是资金投入严重不足。岗顶村美丽乡村建设需要大量资金投入，由于村级财力有限，本村基础设施差、村级集体经济落后、农民收入低，自我筹集资金能力差，现有的资金远远不能满足岗顶村美丽乡村建设需求。三是村域资源整合困难。许多涉农项目资源，由于来自不同部门，很难加以整合，不能根据各地发展的轻重缓急安排使用，难以发挥更大的整体效应。四是村容村貌整治难度大。目前的岗顶村外出人口多，村级集体经济薄弱，村容村貌整治难度大。', '2016年，岗顶村坚持以村屯环境整治为重点，推进村屯基础设施、公共服务配套等方面建设，尤其是针对脏、乱、差等方面的差异，大力开展农村垃圾污水处理、安全饮水、改水、改厕活动，通过农村“一事一议”、以奖代补，加强农村村内道路硬化工程建设，逐步推进各种农村垃圾处理模式，同时在村内加强绿化和景观带的建设，探索市场化农村保洁业发展，并紧密结合全镇文明创建活动，推进乡风文明建设，通过综合治理力争实现美丽乡村建设上档升级。']</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A162" t="n">
+        <v>53</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>长春新区长白慧谷英才计划暂行办法</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>2019-05-18</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>http://ccxq.gov.cn/ztzl/zczd/202106/t20210603_2120922.html</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>['第一条 为吸引和集聚海内外高层次人才，全力打造吉林省、长春市人才管理改革试验区，推动新区高质量发展，根据省、市人才发展规划及《长春新区人才管理改革试验区建设方案》等文件精神，制定本办法。', '第二条 长春新区人才工作领导小组（简称“领导小组”）负责确定人才引进和培育的方向和重点，审批年度资金扶持计划。领导小组下设办公室（简称“人才办”），负责英才计划的统筹协调和具体实施工作。各开发区承担本区域内英才计划申报、日常考核及后续服务等工作。', '第三条 利用五年左右时间，根据新区产业集聚和高质量发展的需要，计划新引进高端领军人才30名；引进和培育高层次创新创业人才300名、高级经营管理人才300名、高技能人才1000名。全力打造人才智力高度密集、体制机制不断创新、科技创新高度活跃、新兴产业快速发展的“人才管理改革试验区”。', '第五条 人才类型为：高端领军人才、高层次创新创业人才、高级经营管理人才和高技能人才。', '年龄一般不超过55周岁；创业型人才为所在企业主要创办人且为第一大股东（股权一般不低于30%），创新型人才需要与企业签订正式劳动合同或合作协议；人才团队应由1名带头人和不少于4名核心成员（指与团队带头人同时引进的人才）组成；人才入选后能连续在引才企业工作、服务3年以上，且每年工作、服务时间不少于2个月；企业具有独立核算的企业法人资格。', '（2）在国内外知名企业或一流院校、科研机构，曾担任中高级工程技术专家、科研项目牵头人、经营管理专家。', '（3）具有博士、正高级专业技术资格或境外相当资格条件，在海外学习、工作5年以上的归国人才。', '（2）驻区企业引进的高级经营管理者，其工作绩效对企业发展有关键甚至起决定性影响的人才。', '（1）职业技能处于国内先进水平，在省级以上职业技能竞赛中取得优秀成绩的技术服务人才、技术创新人才、技能操作人才。', '（2）主导产业发展急需紧缺的，能够运用专业知识和技术，完成高复杂度、高技术性、高操作难度的管理和技能人才。', '第六条 入选人才项目采取无偿和股权投资相结合的方式予以支持，对于引领新区产业发展、能带来巨大经济效益和社会效益的世界一流创新创业团队，根据实际情况给予最高5000万元资金支持或股权投资。', '（2）对创业人才提供200平方米办公场所，3年内免收租金或给予最高60元/平方米?月房租补贴。', '（3）对入选人才（团队带头人）提供150平方米住房公寓，3年内免收租金或给予最高3000元/月房租补贴；在长春首次自购住房的，给予20万元购房补贴。', '（3）对入选人才（团队带头人）提供150平方米住房公寓，3年内免收租金或给予最高3000元/月房租补贴；在长春首次自购住房的，给予10万元购房补贴。', '第七条 区内企业新入选国家“千人计划”等市级以上引才计划的高层次人才，直接列入“长白慧谷”英才计划高层次创新创业人才，并给予10-50万元资金支持。其中，入选国家“千人计划”的给予50万元资金支持，入选省、市级引才计划的给予实际支持资金的20%最高50万元资金支持。', '第八条 对入选的各类高层次人才，优先推荐参加市级以上各类人才引进培养计划（工程）的评选，优先推荐参加市级以上有突出贡献中青年专家和享受国务院特殊津贴及省、市政府其他专项津贴项目的评选。', '第九条 鼓励投资机构大力扶持高层次人才创办的高技术企业。对高层次人才领办创办的种子期、初创期高技术企业，长春新区根据企业需求优先向区内各专业化产业基金推荐，由基金投资介入并重点扶持，解决企业发展战略定位、日常管理、市场推广和融资等实际问题。', '第十条 实行高层次人才服务专员制度、健康体检制度、节假日走访慰问制度，为高层次人才提供个性化服务；组织开展“诸葛团”活动，帮助人才企业解决实际困难和问题；不定期举办主题沙龙、座谈交流、考察学习等活动，打造常态化的沟通交流平台。', '第十一条 入选人才适龄子女入学入托，根据其本人意愿协调安排；入选人才（团队带头人）适龄子女在长春市范围内自行择校就学的，一次性给予择校费的50%最高2万元补贴；积极协助安排入选人才配偶工作。', '第十二条 人才办发布当年批次的“长白慧谷”英才计划申报公告，各开发区负责人才项目的申报受理、资格初审及政策咨询等工作。', '第十三条 人才办会同有关部门对申报项目进行初审后，提交人才项目评审委员会开展实地考察，并对申报高端领军人才、高层次创新创业人才项目组织专家答辩；或委托第三方机构组织评审。需要股权投资的人才项目，相关投资机构将全程参与考察评审。评审委员会综合各方意见，确定拟入选名单及资金支持额度，报领导小组等专题会议审定，公示无异议后，发文立项，同项申请人签订立项合同。', '对于引领新区产业发展、能带来巨大经济效益和社会效益的世界一流创新创业团队，可根据具体情况简化评审程序，通过新区管委会主任办公会议或专题会议研究讨论后，确定“长白慧谷”英才计划人才类别，享受相应政策扶持和服务。', '1．高端领军人才、高层次创新创业人才项目评审重点为申报人经历及创新创业过往业绩；所在企业（或拟成立企业）基本情况、发展优势和前景、营业收入和经济贡献，人力和财务筹备情况、团队工作状态等；申报项目核心技术与专利情况、市场前景与风险分析、财务与投资的可行性、未来三年的实施规划及可量化的考核目标等。', '2．高级经营管理人才项目评审重点为人才综合素质、创新管理能力、资本运营和市场开拓能力；所在企业基本情况、营业收入和经济贡献等。', '3．高技能人才项目评审重点为人才工作技能水平、创新服务能力、对行业促进作用；所在企业基本情况、营业收入和经济贡献等。', '第十五条 无偿支持部分由新区管委会具体实施，股权投资部分由入选人才及所在企业与第三方投资机构具体协商。', '第十六条 人才项目考核周期原则上为3年。入选人才所在企业每半年须书面报送项目进展情况。项目满1年、2年后，人才办将会同有关单位，对项目完成情况进行中期考核；满3年后，由项目申请人根据项目执行情况，提交人才支持项目完成情况报告、第三方对资金使用情况审计报告等材料。人才办将会同有关单位，对项目完成情况进行考核验收，并向管委会提交后续产业资金的支持意见。', '发生入选人才与企业解除合作关系、人才项目长时间延期或终止等情况，经领导小组等新区专题会议研究讨论后，取消入选资格，并采取调整、停止兑现或追回已拨付政策资金等处理措施。', '第十八条 本办法自发布之日起施行。《中共长春新区工作委员会 长春新区管理委员会关于印发&lt;长春新区“长白慧谷”英才计划暂行办法&gt;的通知》（长新党字﹝2017﹞64号）同时废止。']</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A163" t="n">
+        <v>53</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>江源区依托一表一卡一库加强干部教育培训量化考核管理</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>2014-06-10</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>http://jy.cbs.gov.cn/zwgk/jyxw/201706/t20170628_169191.html</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>['为强化干部教育培训管理力度，实现干部教育培训量化管理，江源区对区管干部参加的脱产培训、自主选学、网络培训学习时间进行折合，作为考核依据，将五年考核与年度考核相结合，考核结果同干部提拔、年度考核等相挂钩。', '一是一表是指“江源区干部教育培训申报审批表”。区管干部在参加上级直属部门或本系统选调的各类学习之前，必须向区委组织部履行申报程序填写此表。为推进干部教育培训工作制度化、规范化，制定了《中共白山市江源区干部教育培训申报审批制度》，针对各部门（单位）组织本单位人员域外学习考察、组织跨部门（单位）的各类培训及区管干部参加上级直属部门或本系统选调的各类培训必须履行申报程序。截止目前，全区共申报各类培训班29个，培训7130人次。', '二是一卡是指“江源区领导干部培训学员考核登记卡”。记录区管干部参加组织部门各类培训的基本情况及参训情况，将其作为学员考核的一项重要指标，进一步促进学员有效学习。同时建立领导干部培训个人档案，将区管干部参加各级各类培训的一表或一卡装入个人培训档案袋，并按年度进行归档。', '三是一库是指领导干部教育培训情况查询系统库。在干部教育培训查询系统库中，可以准备查询到全区区管干部的参训情况及区管干部个人培训的详细情况。每年年底录入参训人员台帐后，系统对培训对象在人员类别、累计培训时间、详细培训内容、等方面自动生成直观报表；录入培训班台帐后，系统对培训对象在人员类别、对参加培训总人次及详细的培训渠道方面自动生成直观报表。截止目前已将2012和2013年培训数据全部入库。(唐丽梅)']</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A164" t="n">
+        <v>53</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>江源区全面打响专项整治攻坚战</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>2014-05-08</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>http://jy.cbs.gov.cn/zwgk/jyxw/201706/t20170628_168864.html</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>['日前，江源区委启动了群众路线教育实践活动第一批专项整治工作，通过解决实际问题，回应群众关切，促进作风转变，营造风清气正的干事创业氛围。', '江源区结合反映问题梳理情况，经过广泛征求意见，确定了第一批11个方面50个具体问题。即开展“形象工程”、“数字工程”、“豆腐渣工程”专项整治，重点整治违背科学发展，盲目铺摊子、上项目，招商引资不实、经济指标不实问题，解决重点项目推进不顺问题；开展庸懒散奢和软弱涣散专项整治，整治机关纪律松弛、吃喝玩乐歪风，机关、行业衙门作风问题，解决联系包保基层走形式，大操大办婚丧喜庆事宜问题，整治领导干部公共场所吸烟、公益性岗位人员管理混乱、服务效果不突出等问题；开展行业不正之风专项整治，改善城区公交车和出租车运营秩序，治理教育行业“三乱”，整治教师收礼，医务人员收取患者红包，违规审核发放低保等问题；开展侵害群众利益问题专项整治，治理农资领域坑农害农，物业管理不到位，整治涉法涉拆中损害群众利益问题及安全生产、食品安全监管不到位等问题；开展行政审批改革障碍专项整治，解决行政审批透明不够、效率不高问题；开展“三公”经费专项整治，严格“三公”经费预算管理问题，规范公务接待管理、领导干部域外学习考察审批等问题；开展违规配备使用公务用车、超标准配置办公用房问题专项整治，治理公务用车，清理办公用房等问题；开展信访积案专项整治，解决信访积案问题；开展选人、用人不正之风专项整治，整治违反程序选拔任用干部，区直部门（单位）随意调整镇（街）站办所长问题，清理党政领导干部在企业兼职（任职）、在职不在岗等问题；开展党政机关、事业单位超编、超职数配备人员问题专项整治；开展加重基层接待负担问题专项整治，解决基层接待负担，评比达标、检查考核项目过多过滥、截留、挤占基层专项资金等问题。（王思妍范学芬）']</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A165" t="n">
+        <v>53</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>梅河口市局来我局考察学习统计服务创新经验</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>2014-12-10</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>http://tjj.cbs.gov.cn/wzsy/tjxw/201704/t20170425_61995.html</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>['12月9日上午，梅河口市局一行5人在农调队付长伟队长的带领下，来我局考察学习统计服务创新工作经验，我局张子政局长携白贵清副局长、以及综合科工作人员热情接待其一行的到来，期间两局举行了座谈会。', '座谈会上，张子政局长介绍了我局在构建现代服务型统计方面所采取的举措以及取得的成果。他说，白山市局紧紧围绕党委、政府和公众普遍关注的焦点和热点问题，通过《统计信息》、《统计分析》等系列专刊发表各类统计分析报告，为领导提供统计咨询建议。编印《数据白山》便携式小手册，《手册》如手掌般大小，内设连续5个年份的白山发展主要经济指标，以及全省各地主要数据，内容简明便于携带，受到地方领导、相关部门的高度赞誉。', '张子政表示，白山作为吉林省东南部中心城市，经济规模总量、统计人员配置都与兄弟市州有很大的差距，梅河口市局作为新晋升省垂管县（市），各方面发展都面临着新的机遇与挑战，在今后的工作中，两局要相互分享经验、相互学习借鉴更好的工作经验，进一步加强双方往来，推动优势互补，发展互动，共同开创两市统计事业美好明天。', '座谈会上，付长伟高度评价了我局在统计服务方面所取得的成就。他说，近年来，白山市局努力创新统计服务方式，统计工作面貌发生了深刻变化，影响力也日益提升。此次来白山，他们将重点考察白山统计官方微信、《白山数据》手册以及统计信息化建设等一些好经验、好做法。白山市局很多好的服务理念、经验、做法都值得梅河口市局学习和借鉴。特别是开通的白山统计官方微信里面丰富的服务内容给他们留下了深刻印象。他们将进一步学习、借鉴、消化、汲取白山市局好经验，推动梅河口市局统计服务上新水平、上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A166" t="n">
+        <v>53</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>百名专家进江源助力经济发展</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>2014-04-01</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>http://jy.cbs.gov.cn/zwgk/jyxw/201706/t20170628_167493.html</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>['江源区采取外聘内训的形式引进高层次专家人才开办“名师讲堂”，延伸培训内容，提高培训目标，“百名专家进江源”，受训人数已达7000余人，涉及卫生、教育、农业、松花石产业等八大领域，为经济发展提供了新助力。', '2013年，以加强人才队伍整体建设、激发现有各类人才的创造活力和创业热情为目标，以区人才工作领导小组各成员单位为主体，采取外聘内训的形式引进省级以上的专家学者开办以专题讲座、技术培训等为主要形式的“名师讲堂”，进行理论实际指导，在提高人才队伍素质和带动创业致富等方面取得了显著成效。区机关党工委邀请吉林省著名雕刻家、东北师大教授韩笑到江源组织了短期的松花石雕刻技法培训。通过学习，从业人员对松花石雕刻技法、诀窍有了深刻的认识，大幅度提高了从业人员的专业素质和从业水平。区科技局按照全区产业特点，联系中国石油大学、山西大学、太原理工大学等科研院所，对接“玄武岩材料制作输油管道技术”、“劣质煤资源化燃烧利用关键技术”等项目，邀请中科院东北地理与农业生态研究所所长赵恒田教授到江源培训农民专业合作社；邀请沈阳农业大学专家教授到江源指导养鸡和蓝莓种植，形成了以有机肥为纽带的养殖种植综合农业生态系统。区人才工作领导小组其他成员单位也分别邀请专家教授到江源进行现场授课和业务指导。', '目前，有80余名江源大学生暑期返乡参加实践锻炼活动，返乡大学生按照所学专业及地域就近原则，分配到部分农村、社区、企业等15个实践锻炼点，开展实践活动。通过参观、考察、学习，直观体验家乡发展。锻炼结束后，组织开展座谈交流会，参加实践锻炼活动的大学生结合所学专业特长对家乡发展建言献策，推动江源经济发展。（冯硕）']</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A167" t="n">
+        <v>53</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
           <t>奋发作为拼搏创新为白山绿色转型全面振兴建功立业</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>2017-10-23</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/ztzl/sjd/jjfz/201805/t20180519_324494.html</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>['白山市女企业家协会第四次会员大会于2013年召开。五年来，协会牢牢把握“发展”和“民生”两个关键，坚持为经济建设服务，为女企业家成长服务，为企业振兴与发展服务的宗旨，开拓创新、拼搏进取，团结和带领我市女企业家和女经营管理者，为促进白山市绿色转型全面发展做出了积极的贡献。', '市女企协会员在围绕经济建设，促进企业发展中展示了自身的风采。五年来，协会的每位会员都能从有利于全市经济发展的角度出发，调整思路，树立与市场经济要求相适应的现代经营理念，带领职工改革、创新、求实、发展，使所在企业与时代发展同步，取得了良好的社会效益和经济效益，为白山经济发展做出了积极贡献。各位会员也都在各自不同的岗位上为白山市的经济发展和社会进步做出了积极贡献，展示了自身的风采。', '市女企协会员在妇女创业就业工程中发挥了重要作用。协会会员积极参与“妇女创业就业工程”的实施。会员们积极响应协会提出的“众姐妹手拉手，创业路上一起走”的号召，踊跃参加市妇联、市女企协开展的争当“巾帼创业带头人”活动。会员们从自身条件和现有能力出发，对下岗女职工进行转变择业观念教育，开展各种职业技能培训，使她们掌握一技之长，并在力所能及的范围内，积极吸纳安置下岗女职工。通过协会会员的努力，有力地促进了白山市下岗女工就业工作的开展。八年来，市妇联、市女企协共培养命名“巾帼创业带头人”76名，这些“巾帼创业带头人”以自强不息的奋斗精神实现了自己的创业目标，并以强烈的责任心和使命感带动了千名下岗失业妇女重新走上了新的工作岗位。', '市女企协会员在精神文明建设中发挥积极作用。为引导会员企业切实加强精神文明建设，市女企协组织开展了形式多样的活动，用爱国守法、明礼诚信、团结友爱、勤俭自强、敬业奉献的行为准则提升企业素质。召开公民道德建设实施纲要座谈会，引导会员把道德建设融入企业管理中，在企业中大力倡导良好的社会公德和职业道德，诚实守信，文明经营，努力提高产品质量，切实维护消费者的合法权益。各位会员努力进取，弘扬文明新风，做到“致富思源，富而思进”，大力倡导和弘扬助人为乐，扶贫济困的传统美德和文明新风，在服务社会中自觉奉献。', '加强培训。市女企协通过举办专题讲座或召开座谈会等形式，提高会员的思想政治理论水平和企业经营管理能力。通过开展理论培训，教育引导会员深刻理解和掌握党的基本理论、基本纲领、基本路线和基本经验，落实好党的方针政策贯彻十八大重要思想。通过业务培训，女企业家们逐渐掌握了现代企业的经营管理知识、市场经济常识、法律知识、投资技巧和项目的运作，使经营管理企业的能力不断得到提高。', '拓宽视野。五年来，协会多次组织女企业家们外出参观、考察、学习，使企业管理者们开阔了视野、增长了知识，对树立创新的发展理念、深化企业发展、提高经营管理水平都起到重要作用。', '开展联谊。协会通过“三八”节期间和重大节庆日期间举办各界妇女和女企业家参加的联谊会，扩大女企业家同社会各界的广泛联系，为企业发展和个人成长创造了有利条件。同时，加强会员之间、会员企业之间、会员和社会各界人士之间的联系和交往，为女性人才的交流和发展提供了广阔的空间。', '互助奉献。组织女企协在企业家中间开展手拉手、团结互助活动。市女企协会员积极响应省、市妇联号召，积极为灾民和贫困妇女捐款捐物，及时送去了关怀和温暖；广大会员还积极为生活困难的下岗女工捐赠物品，奉献爱心，积极参与“春蕾计划”活动。扶助活动的开展，受到了社会各界赞誉，树立起了讲文明、树新风、讲公德、献爱心的女企业家群体形象。', '一是帮助会员解决事业和生活中的困难。市女企协克服会员分散、不便联系的困难，千方百计为会员企业提供力所能及的服务。多次下发调查提纲，及时掌握会员企业的发展状况；帮助协调解决企业发展中的难题；帮助企业联系销售产品、招聘用工；开展法律咨询，协助解决法律纠纷，维护会员的合法权益，使协会成为她们真正意义上的“娘家”。', '二是大力宣传女企业家典型。市女企协注重培养和树立女企业家先进典型。经常通过各级各类媒体大力宣传优秀会员企业和女企业家事迹，用榜样的力量教育和引导广大妇女树立“四自”精神，在各自的岗位上建功立业。', '三是加强协会自身建设。市女企协注重加强会员队伍建设，吸引凝聚各行各业优秀女企业家到协会中来，尤其是随着经济结构的调整，越来越多的非公有制经济领域的女企业管理者加入协会，为协会注入了新鲜血液，增添了新的力量。与此同时，女企协按照章程要求，对那些不再担任企业领导职务的会员进行调整；对不热心协会工作、违法违纪的不合格会员及时予以清除。', '五年来，在市妇联的领导及社会各方面的关注支持下，经过全体会员的共同努力，协会工作取得了一定的成绩。在此，代表市女企协理事会，对所有关心协会工作、促进协会发展的领导、同志们及社会各界朋友表示衷心的感谢！', '面向新世纪、新阶段的发展要求，市女企协会员的政治、业务素质需要不断提高；协会活动内容需要不断创新；协会管理需要不断规范，会费拖欠问题亟需得到解决，这些都应引起重视并在今后的工作中做出不懈的努力。', '回顾过去，硕果颇丰，展望未来，使命艰巨。白山市女企业家协会将牢牢把握“发展”和“民生”两个关键，按照“三个五”发展战略和“东中西三个板块”发展布局，始终突出绿色发展、转型振兴这条主线，坚定信心，发挥优势，突出特色，为促进白山加速崛起、加快绿色转型全面振兴做出新的贡献！']</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A168" t="n">
+        <v>53</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>白山市江源区下好五子棋做实三帮扶</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>2015-01-05</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>http://jy.cbs.gov.cn/zwgk/fzgh/gsms/201706/t20170623_131246.html</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>['江源区在“三帮扶”工作中下好“五子棋”，推动薄弱基层党组织升级晋位，提高困难群众、困难党员生活幸福指数。', '一是考察学习换脑子。集中组织党员实地考察，重在解决农民党员致富路子不广、思想滞后等问题。组织全区90余名基层党员干部赴山东潍坊参观考察，现场听取农民大户讲经验、传技术，引导发展特色种植、养殖产业，使他们拓宽视野、增长才干；组织8名镇街党委书记参加了省、市委组织部组织的培训；先后3次组织全区村“两委”负责人参加岗位能力、致富技能等培训；组织93名党员创业示范户参加市农村党员创业培训中心举办的9期实用技术培训。', '二是城乡连心结对子。全区各部门有帮扶能力的党员与1164名困难群众结成了帮扶对子，共投入资金物资47.4万元；与1106名困难党员结成帮扶对子，为困难党员捐款捐物达30.5万元。开展“留守儿童关爱工程”和“金秋助学”、“春蕾计划”等活动，发放各类救助资金27.98万元，帮助930名困难家庭学生解决了就学问题。加大社会救助力度，新增低保户149人，累计发放社会救助资金1200万元，救助困难群众2500人，帮助15名白内障患者实现了复明', '三是基础建设铺路子。采取副区级领导包片，部门单位包点的方式，包保全区农村、社区薄弱基层党组织。各帮扶部门累计投入帮扶资金达400万元，帮助谋划发展项目23个，协调引进发展项目17个，新建活动场所4个，改扩建活动场所11个。组织各类交流培训会议53次，协调改造泥草房1300平方米，协调修建改造村屯公路25.4公里，协调场所建设资金300余万元。通过“八路安居”工程，完成保障性住房73.83万平方米，为13360户低收入家庭解决了住房问题。实施农村饮水安全工程，解决了30个村10000多村民饮水问题。', '四是典型引领树旗子。为了发挥典型示范带动作用，建立创先争优典型群体库,同时随着活动不断深入开展,对全区先进典型群体库进行了增补。通过层层推荐的方式，组织考核的方式，把不同层次的先进典型选树上来，目前,全区共选树先进基层党组织82个、优秀党务工作者68名、优秀党员107名，朱玉林同志被中央授予“全国优秀共产党员”称号。并在江源电视台开通“时代先锋”专栏，连续播放先进典型事迹专题20期，组织4名优秀共产党员代表组成事迹宣讲团，共专题报告11场。', '五是技能培训搭台子。对有创业能力的群众，重点在就业指导、信息提供等方面开展帮扶，逐步实现“输血”到“造血”的转变。通过多种途径，整合教育资源，为其提供相应的技术技能培训，全面整合党校、农业、就业、畜牧、蔬菜、人力保障等域内各类培训资源，深入到各镇、街、村、社区进行培训。几年来，全区投入培训经费近200万元，共举办各类培训班100余期，培训党员8000余人次，选派专业技术人员87名，为困难党员群众提供创业场地20个，策划创业项目18个。（唐丽梅）']</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A169" t="n">
+        <v>53</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
           <t>长白镇多措并举发展壮大新型村级集体经济</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>2013-03-01</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>http://www.changbai.gov.cn/zwgk/zwdt/zwdt/201801/t20180117_266761.html</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>['为全面推进新型村级集体经济发展，夯实镇村发展后劲，长白镇不断创新发展思路，通过盘活集体资产、发展重点项目等措施，力推新型村级集体经济发展。', '一是加强政策引导，提高发展活力。成立了发展壮大村集体经济领导小组，明确领导包村联系点，形成一把手亲自抓，分管领导具体抓，包村领导、村干部具体落实的工作机制。设立了10万元发展村集体经济专项资金，鼓励村集体通过盘活闲置资产、土地流转等方式发展壮大集体经济。并对做出突出贡献的单位和个人，进行表彰和奖励，提高村干部发展村集体经济的积极性。', '二是深入调查摸底，明确发展思路。组织包村领导和包村站所到各村反复摸底和调研，结合各村实际，制定村集体经济发展规划。各村充分利用现有资源，进行资产租赁。目前，民主村的门市房，解放村的木材加工厂，绿江村的车库、暖窑都已出租。在此基础上，进一步明确各村重点发展项目，绿江村重点发展养殖项目、民主村发展饲料加工厂项目、解放村发展蔬菜大棚项目。绿江村探索通过合资、合作形式，多方位吸纳资金，聘请养殖能人到养殖场，发展村集体经济经营性项目，目前，黄牛养殖场正处于育牛阶段，已育肥牛45头；民主村计划以村民、村集体入股的方式投资300万元，在占地3000平方米的区域建饲料加工厂；解放村计划在小梨树沟二队新建棚模蔬菜基地，新建20栋蔬菜大棚，重点发展绿色无公害蔬菜，供应县城市场。', '三是强化培训力度，培养“双带”干部。创新培训方式，有计划、分层次加强农村干部的教育培训，不断增强村干部责任意识，组织村干部到四平梨树等地考察学习，有效地增强了村干部带头致富和带领群众致富的能力，拓宽了村干部发展村集体的思路和视野。']</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A170" t="n">
+        <v>53</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>当好非公经济助推器市工商联服务经济社会发展纪实</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>2012-03-28</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_311403.html</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>['市工商联紧扣自身职能做足“联”字文章，充分发挥党委、政府联系非公有制经济人士的桥梁、纽带和助手作用，团结和引导广大非公有制经济人士积极参政议政、发展经济、投身社会公益事业，为促进全市经济和社会事业又好又快发展作出了积极的贡献。五年来，先后获得“全国工商联系统先进集体”、“全省工商联系统先进单位”、“全民创业促就业先进单位”和“招商引资优秀服务单位”等称号。', '坚持标准，加大基层商会建设力度。现在全市共建立乡镇、街道商会53个，行业商会12个，在全市形成了较完整的组织网络。靖宇县工商联在组织建设上，确立了主席、副主席联系执委，执委联系会员，会员发展会员的发展模式和上级工商联联系基层商会，基层商会凝聚会员的工作模式，使组织结构更加完善。露水河林区商会党组织，履行商会职能，脚踏实地为会员服务，赢得了会员企业的拥护，被中组部评为“全国先进基层党组织”。积极开展各种宣传教育评比表彰活动。在非公经济人士中开展争做“创业先锋”、“民企系三农，共建新农村”等各种教育评比表彰活动。有123名会员和会员企业先后被评为“创业先锋”、“和谐劳动关系模范企业”、“优秀捐赠慈善企业”、“抗震救灾先进会员企业”、“全国优秀基层党组织”和“全国光彩事业国土绿化贡献奖”等，分别受到国家、省、市的表彰。', '搭平台服务非公企业。为解决中小企业融资难问题，市工商联不断探索和研究融资渠道，帮助企业融资。先后与白山建设银行和白山工商银行签署《共同支持白山市中小企业发展的框架合作协议》，并成功举办多次银企对接会，五年来，全市各级工商联帮助企业融资贷款2.3亿元。为缓解企业融资难，加速企业发展做出了卓有成效的工作。为非公有制企业提供学习考察和培训服务。与人社局联合举办《劳动合同法》培训班。组织会员企业参加省、市举办的关于《吉林省民营经济高峰论坛》、《中国经济和企业发展新机遇》等专题讲座12期，同时有计划地组织部分非公经济企业赴经济发达地区进行学习考察，吸收先进经验。', '充分发挥工商联对外联络的独特优势，积极开展招商引资工作。五年来，先后邀请并接待了大连市、沈阳市、济南市、淮安市、丹东市等地工商联组织及来我市考察的民营企业家70余人，召开项目对接会3次，完成意向投资7项，项目资金3亿元。2009年，市委、市政府选派优秀干部到经济发达地区的工商联挂职招商，市工商联自我加压，主动承担任务，与上海、大连等地工商联取得联系，经过协调、沟通，顺利完成了市委、市政府交给工商联的任务。到目前为止，已与10个外省市工商联建立了友好商会。']</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A171" t="n">
+        <v>53</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>胡家福在互联网公安平台建设应用推进会上强调让互联网公安成为吉林公安的精神标尺</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>2017-04-24</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>http://police.cbs.gov.cn/sy/tpxw/201706/t20170630_176008.html</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>['胡家福在“互联网+公安”平台建设应用推进会上强调 让“互联网+公安”成为吉林公安的精神标尺', '4月21日，副省长、公安厅党委书记、厅长胡家福在吉林“互联网+公安”综合服务平台建设应用总结表彰暨深入推进工作会议上强调，要以精益求精的“工匠精神”精雕平台功能，以精细精准的“绣花”功夫细刻服务项目，以敢为人先的创新勇气探索网上服务新技术新领域新模式，使“互联网+公安”综合服务平台不仅成为全国公安机关的独特坐标，而且成为吉林公安的独特精神标尺。', '胡家福指出，建设吉林“互联网+公安”综合服务平台，为人民群众提供优质高效的网上服务，是全省公安机关贯彻国家创新驱动战略、落实 “互联网+政务服务”行动计划的重大举措，是运用互联网思维破解社会治理难题、提升管理服务效能的创新实践。一年来，全省公安机关始终坚持民意引领、对接群众需求，把群众呼声作为第一信号、把群众需求作为第一选择，宁可自己吃苦、不让群众受苦，宁愿提高自己的辛苦指数、也不降低群众的幸福指数，让千百万百姓共享了网络发展的红利，深切感受了“指尖”上服务的便利，赢得了人民群众对公安工作的真心拥护和广泛支持；始终坚持顺应时代潮流、强化科技应用，加快互联网与公安工作深度融合，以“互联网+公安”的小支点撬动了公安工作的大变革，在推进社会治理现代化的历史进程中赢得了主动和先机；始终坚持突出资源整合、推进内外联动，破除单干、封闭、独享的思维方式和行为方式，大力推进资源整合、服务集成、业务联动，变“独角戏”为“大合唱”、变“一指禅”为“组合拳”，有效破解了管理难题、倍增了服务效能，增强了整个公安工作的系统性、整体性、协同性。', '胡家福强调，“凡益之道，与时偕行”。历史从不等待一切犹豫者、观望者、懈怠者，只有聆听时代声音、把握时代脉搏，才能不断开拓人生的新天地，赢得事业更加光明的未来。必须看到，当今时代是一个飞速发展的时代，随着互联网、物联网和大数据、云计算、人工智能的加快发展，人类生活所经历的一切都在转变。置身如此伟大的时代、面对如此重大的历史机遇，作为具有光荣传统和深厚积淀的吉林公安，是积极拥抱现代科技，还是坐井观天，无动于衷？是主动塑造时代，还是被时代所塑造？是弯道超车、敢为人先，还是亦步亦趋、甘居人后？全省各级公安机关领导同志都要从综合服务平台建设中获得深刻启迪，以更加开阔的视野审视吉林公安工作，以与时俱进的精神反思自身短板，着力破解吉林公安有数量、缺质量，有工作、缺亮点，有高原、缺高峰等突出问题，努力打造具有时代特征、中国特色、吉林特点的现代警务机制。当前，要以精益求精的“工匠精神”精雕平台功能，以精细精准的“绣花”功夫细刻服务项目，以敢为人先的创新勇气探索网上服务新技术新领域新模式，使“互联网+公安”综合服务平台不仅成为全国公安机关的独特坐标，而且成为吉林公安的独特精神标尺。', '胡家福要求，要坚持以群众需求为导向，持续创新平台服务功能，释放平台惠民优势，让人民群众有更多更深切的获得感幸福感。要尽快开通机动车修理业、开锁业、旅馆业、临时住宿人员手机端采集应用、边境游团队护照签发网上预受理、驾驶证记满12分网上学习、驾考网上缴费等新功能，努力实现公安业务应上尽上、全程在线。要将“互联网+公安”平台整体迁入省政府“政务云”平台，通过整合资源最大限度地为群众压减各类申办材料。要探索推进人脸识别技术在平台管理中的应用，最大限度地减少群众到实体服务窗口办事的次数和等候的时间。要把平台服务项目逐步向自助服务终端移植，积极推动受理、审批、发证、签注实现全流程、24小时自助服务。要推进平台服务从行政审批向治安管理、从服务群众向服务企业、从公安服务向公共服务延伸，今年，要把服务民营企业作为平台服务重点，上线一批民营企业需求大的服务项目，为民营企业办事咨询提供“直通车”服务。', '胡家福要求，要以上线一周年为契机，深入开展平台应用的主题宣传活动，扩大平台影响力，提升群众注册率。要通过平台大数据分析，准确判断大学生、有车族、农民工等各类用户需求，采取量身定制、点对点推送的方式推介平台实用创新功能，提升服务的精准度和实效性。要通过平台“一网一端一号”与全省公安新媒体联动，加强面向近1200万注册用户的推介宣传，持续释放平台服务的红利，激发平台用户活跃度。要充分利用公安窗口和社区阵地开展体验引导，让办事群众了解平台的便民功能，并把触角向社会单位、公共场所、居民小区和偏远地区延伸，发挥熟人间传播可信度高的优势扩大宣传的覆盖面，运用足不出户即可申办事项的实际范例增强平台对群众的吸引力。要利用“台、报、网、端”开展多层次、立体化引导推介，通过腾讯等知名互联网站的城市服务板块推送平台成熟稳定的服务项目，对应用踊跃、提出合理化意见的用户采取累计积分兑换小礼品等方式给予奖励，吸引更多群众注册应用平台。', '胡家福要求，要进一步提升平台管理的规范化精细化科学化水平，确保平台安全顺畅高效运行。要与有关软硬件厂商、电信运营商建立平台故障问题快速联动处置机制，引进现代IT管理技术，实现平台运行自动监测、功能故障自动修复。要进一步完善平台服务标准，狠抓各项制度规定落实，使民警网上服务行为走上规范化、精细化轨道，对发现的推诿扯皮、吃拿卡要等不作为、乱作为问题，要及时移交纪检、督察、法制等部门调查处理。要抓好线上线下对接管理，对网上预约的事项，要开辟绿色通道、优先办理；对网上公开承诺的事项，要严格执行，不得增设审批条件、增加申请材料；对群众在网上咨询且需要在网下解决的事项，要及时回访当事人，迅速做好转办工作。', '胡家福强调，要把应用平台开展网上服务作为民警必须掌握的基本技能，加强系统化培训、注重专业化提升，确保广大民警的素质能力与平台功能创新、效能发挥相适应。要组织业务骨干开展广泛学习，实时掌握互联网、大数据、人工智能等新知识新技术，增强应用现代科技创新平台的意识和素养。要组织具有研发潜质的专业人才到互联网巨头企业和先进省市学习考察“互联网+政务”最新成果，提升研发能力和水平。要全面推动平台应用进警衔晋升培训班、进教育训练平台、进警察学院课堂，适时举办知识竞赛和领导干部专题培训班，使广大民警和各级领导干部熟悉平台服务项目，掌握基本操作流程，做到“懂功能、懂程序、懂要求”、“会审核、会答复、会沟通”。要以审批办件监督、咨询办件分转、不满意办件处理、数据分析监测为重点，通过现场集中授课、远程视频教学、实地业务指导等方式，对全省平台管理人员开展常态化培训，不断提升网上服务管理水平。']</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A172" t="n">
+        <v>53</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>浑江区创新方式推进非公企业党建</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>2013-03-14</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>http://www.hunjiang.gov.cn/zw/hjyw/201706/t20170623_128952.html</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>['为扎实推进非公企业“双覆盖、双增强”工程，浑江区以“派出党支部”为突破口，大力推行“321”工作法，有效破解非公企业党建难题。', '凝聚三股力量，出重拳。对全区所有非公企业进行拉网排查、建立台账，做到企业规模、经营情况、员工数量、党员数量、业主态度“五个清”。把未组建党组织的770家企业进行合理划分，为派出党支部“压担子”。由区委组织部牵头，吸纳经济、发改、环保等39个职能部门为大党工委委员，成立“两新”组织大党工委，对全区157个派出党支部进行“抓总”；从机关和行业部门优选素质高、懂经济的党务干部成立41个派出党支部，对198家“难题”企业进行“高配”；按照属地管理原则，优选街道党员干部和社区在职、在籍党员成立116个派出党支部，结合社区“网格化管理”工作，对572家企业进行“攻坚”。', '采取双向互动，强队伍。区“两新”组织大党工委采取聘请专家授课、区内现场观摩、外出考察学习等形式，加大对派出党支部成员的培训力度，突出抓好派出党支部书记的素质提升，增强带队伍能力，提高抓非公党建意识，掌握与企业主沟通技巧，精通党组织组建程序，做到帮忙不添乱、指导更服务。依托派出党支部，对企业中的党员、积极分子、技术骨干进行“梯次”培训，将非公企业中年富力强、思想素质好、文化知识高、甘于奉献的170名同志纳入重点发展对象，加强培养和锻炼，在对企业进行“输血”之时，着重增其“造血”功能。已成功将企业13名党员推荐到关键岗位、16名党务干部推荐到管理岗位。', '运行一套机制，扩成果。成立督查考评组，对派出党支部进行“日抽查、周调度、月小结、季通报、年奖惩”。指派专人对照派出党支部工作台账，每日随机抽查5个记入工作“推进表”；每周进行一次情况调度，要求派出党支部书记汇报工作进展情况；每月进行一次阶段性总结，将各派出党支部工作进行客观评价，发扬成绩、克服不足；每季度进行一次业绩“晾晒”，在全区“排大榜”；每半年进行一次考核，采取派出党支部上报、督查组实地走访、工作对象测评等方式进行跟踪问效，将考核结果作为评先选优、提拔使用的重要依据。']</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A173" t="n">
+        <v>53</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>关于打造发展三道沟滴台边境乡村旅游精品村的提案</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>2015-09-09</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>http://www.hunjiang.gov.cn/zw/yata/zxya/201706/t20170615_110798.html</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>['乡村游是我国近年来快速发展起来的新兴旅游业态，也是我区旅游发展的一个方向，据初步统计，全区4个镇及部分街道都有不少农民依托景区景点、居民集中居住区和城郊发展的“农家乐”。全区共有“农家乐”40多家，三道沟镇滴台村有农家乐经营户10余家，农家乐的客源主要来自市区人群，外地游客较少。就全区农家乐的现状看，目前也存在着一些问题，主要表现在：?', '一是经营模式单一。乡村游主要经营方式就是用餐，体现在“吃”上，前来的客人在等待用餐的时间大多只能喝喝茶、打打麻将，周围没有可游玩的娱乐设施，失去了乡村游的重要要素——体验农村的生产生活。?', '二是规模档次低。均存在规章和设施不完善，规模不大的问题。绝大多数只是小餐馆——家庭式“作坊”,以自己的住房作为经营场所，没有田园、果园、景园，员工也是自己家人，拉动农村就业的作用没有体现。?', '三是缺乏经营理念、管理经验。大多数经营户没有参加任何服务技能培训，只是靠自己的特长或者是在一定区域的做菜“名声”进行经营，基本不具备必要卫生、防疫、业务技能等知识。?', '四是环境污染现象严重。大部分农家乐都建立交通主干道或者城乡结合部，有些甚至在风景区内。大多农家乐经营户环境保护意识淡薄，他们只顾眼前利益，不考虑长远发展。经营过程中无形中对周边的环境卫生带来极大的负担，在农家乐周围，随处可见残羹剩汤、纸袋酒瓶等生活垃圾，与周边优美的环境极为不协调。?', '一是出台相关政策，进行政策引导。我们将积极借鉴外地的相关经验，适时出台“乡村游企业经营规范”“星级评定与划分”等标准。对镇内的乡村游进行规范经营，使旅游者到农户的果园中观光、渔业养殖基地垂钓、购买本地特色食品（本地鸡蛋、手工鞋垫、山野菜、松花奇石）等。同时，我们将会提请区政府适时出台扶持政策，按照国家、省旅游局的要求和相关优惠政策，帮助达到一定层次的经营场所争取相关资金或政策支持，从而鼓励农家乐向规范化、规模化方向发展。?', '二是强化经营管理。由于经营户分散性强，缺乏正规的专业训练，旅游知识缺乏，经营管理水平低，因此要强化经营管理，提高综合服务效益。今后的一个阶段我们将会着重做好几个方面的工作：首先组织经营户进行服务技能、经营管理培训，提高经营户的综合素质。其次有计划地组织经营户到乡村游发展较好的地方考察学习。另外要经常性地举办技能比赛，引导经营户积极参与省、市、区举办的各类比赛，从而提高其服务管理水平。', '三是搞好环境保护。伴随着乡村游的发展，环境污染也日渐严重。农家乐的发展与环境的保护是相辅相承的。乡村游的发展大都凭借的是优美的环境，而最吸引人的地方也一般是其周围美丽的自然或田园风光。但是现今很多经营者缺乏长远的眼光，只顾眼前蝇头小利，给环境带来了破坏。针对这种情况我们将配合相关部门进一步加大综合治理的力度，确保在促进三道沟镇乡村游发展的前提下，环境也得到保护。', '在今后的工作中，我们会把旅游环境保护和服务水平的提高当作中心工作，重点抓，长期抓，努力营造良好旅游环境，促进全社会齐抓共管，并针对工作中的薄弱环节和今后出现的新问题，不断完善措施，改进方法，提高旅游管理水平，促进旅游业健康、快速发展，打造滴台边境乡村旅游精品村。']</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A174" t="n">
+        <v>53</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
           <t>东北经济陷入困境长春为何能突围</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>2018-09-29</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>http://ccxq.gov.cn/xqyw/xqdt/201809/t20180929_2116626.html</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>['长春，一座以第一汽车集团公司和长春电影制片厂而闻名的城市，长期在东北缺乏存在感。近段时间，因疫苗事件，它成为全国关注的焦点。与此同时，外界发现，在东北经济深陷困境时，它已成长为该区域突围的一个样板。', '最新数据显示，2018年上半年，长春市GDP完成2973亿元，增长7.4％，高出全国增速0.6个百分点，而东北另外三个副省级城市沈阳、大连和哈尔滨，增速都没有达到全国平均水平。', '这是过去两年多这几座城市发展的真实写照。继2016年上半年以来，长春连续8个季度保持经济增速在7％到8％的区间运行，高出中国整体的GDP增速，也高于东北另外三座副省级城市。', '2015年，长春工业遭遇了前所未有的挑战。其中，支柱性企业一汽集团产销不理想，跌出第一阵营；农产品加工龙头企业大成集团出现大幅下滑。在多重因素的影响下，长春工业发展多个月出现“负增长”。', '怎样突围，是摆在东北三省面前的问题，也是长春面临的问题。对这座城市来说，国企改革之后，长春是否要继续依靠汽车、农产品加工、装备制造等产业，还是找寻新的经济增长点？产业发展，是对本土企业进行孵化培育，还是对外招商引资？如何逆转东北人才净流出的局面，在激烈的竞争中吸引到人才？', '作为老工业基地，在经济陷入困境时，长春的主政者要回答一个现实的问题：一汽的发展是不是已到天花板？轨道客车的发展是不是也到了天花板？按照现有工业基础和产业结构，长春应该如何布局？', '长春市工业和信息化局副局长车仁义告诉《中国新闻周刊》，两三年前，长春市进行了一轮较为深刻的自我剖析。“找出路，就得研究突破口。我们就分析，自己的优势是什么，自己的短板是什么。具体到每个行业，优势和短板又都是什么。挨个查一遍。”', '以传统汽车行业来说，燃油汽车可能已经到了天花板，但新能源汽车、智能网联汽车仍是一片蓝海，等待技术突破。另一方面，从产业链条来看，国际上汽车产业的上下游产能比是1：1.73，而长春市汽车行业的上下游产能比目前是1：0.5，产业链条仍有很大的发挥空间。', '长春市决定拿出资金支持汽车研发，对新能源汽车进行核心技术的突破。同理，农产品加工、轨道客车和装备制造行业也都还有突破空间。车仁义说，目前，长春着力于研究如何进一步整合及配套资源，围绕这几大支柱性产业，打造世界级的产业基地。', '吉林省委常委、长春市委书记王君正在接受《中国新闻周刊》采访时说：“产业都在不断升级，没有好坏之分，关键在于采用了什么样的技术。做好了都是活产业，做坏了都是坏产业。”', '作为计划经济遗留下来的产物，一汽是长春市的工业命脉。有句话说，一汽打个喷嚏，长春就会感冒。过去的这些年里，汽车产业在长春是一业独大。这曾经是该市经济发展的优势，而在新经济浪潮下，优势不再。', '长春意识到了这个问题，并在近些年内着力发展新兴产业。与找准支柱产业的定位一样，长春的新兴产业也有浓郁的本土特色。目前，长春市主要在光电信息技术、生物和医药、新能源、新材料、大数据等产业上发力。', '其中，新能源与汽车行业息息相关。“新能源汽车（这条路），你想走也得走，不想走也得走。不是你想不想干的事，而是你必须拿下的事。如果这个事不突破，长春市就没希望了。突破了，就前途一片光明。必须啃硬骨头。”车仁义说。', '大数据也与传统汽车业、装备制造业有一定的关系。过去，长春市的工业发展实现了自动化，但没有全面实现信息化。“我们必须进行信息化改造，这是工业化发展到一定程度的必然选择。这块如果落后，整个工业行业就落后。”', '其他新兴产业，也多与长春市多年积累有关。比如，中国科学院长春光学精密机械与物理研究所（简称“长春光机所”），是新中国在光学领域建立的第一个研究所，由中科院长春光机所与中科院长春物理所于1999年整合而成，主要从事发光学、应用光学、光学工程、精密机械与仪器的研发生产。长春光电产业发展较快，科研助力是重要因素。', '而在生物制药领域，中国生物技术集团公司下辖六个生物制品研究所，其中之一是长春生物制品研究所。作为东北地区微生物学和免疫学的研究中心，长春生物制品研究所及其带动发展的企业，成为了长春市发展生物制药产业的助力。', '2017年，长春市规模以上工业总产值突破万亿大关，达到10358亿元，同比增长10.7％。在15个副省级城市中排名第九位，在东北地区，则先后超过大连和沈阳，居第一位。', '在外界的印象中，东北并不是民营经济发育的沃土。如何发展民营企业，也是东北振兴的要义之一。', '在外部经济下行压力之下，长春能将民营经济发展起来，除了确立了新兴产业的发展方向之外，还做了更为具体细致的工作，包括培育本土的企业以及招商引资。', '在本土企业的培育方面，长春市着力培育科技创新主体，也就是国家高新技术企业（以下简称国家高企）和科技型“小巨人”企业。', '选择科技创新主体，一方面与国家大势有关，另一方面，也是因为长春市做了调研，发现有独立知识产权、有科技含金量的企业，发展势头好过其他同行业企业。', '对于国家高企和“小巨人”企业，国家均有认定标准。以高新技术企业来说，它要求企业必须注册成立一年以上，通过自主研发、并购等方式，获得主要产品或服务在技术上发挥核心支持作用的知识产权，企业从事研发和相关技术创新活动的科研人员占职工总数的比例不低于10％等。“小巨人”企业的认定标准则稍低一些。', '任务被分派到了长春市科学技术局。该局高新技术发展及产业化处处长张永超告诉《中国新闻周刊》，一开始，大家都认为这个目标太难了，无法完成，因为在2014年，市里仅有五六十家企业被认定为“小巨人”企业。', '“那个时候，我们都不知道企业在哪儿。市科技局掌握的科技型企业信息大概就一两百家，区科技局更弱一些，恐怕只了解两三家。”因此，当务之急，是尽可能收集整理科技企业信息和正在孵化中的科技创业项目。', '2016年，长春市组织干部去天津考察学习，发现对方将科技企业的发掘、培育工作任务分配至各区县，每季度排名，末位者主动向市领导班子检讨原因，压力之下，科技企业发展势头迅猛。', '长春市采取了同样的方法，将发掘科技企业的任务分配到了各个区县，并纳入了年终绩效考核体系。张永超说，现在科技工作的触角已经到了各个街道，上上下下的人都为了科技工作动了起来。', '不过，从发掘科技企业，到企业能申报国家高企、“小巨人”企业，还有一段距离，要符合国家认定标准并不简单。张永超说，他们也是在反复研究标准之后，对企业提出了具体的要求。“如果你想成为高新技术企业，你按我们的要求往那边努力，两年之内，你肯定能成为高新技术企业。”', '长春市科技局出台规定，企业一旦被认定高企，奖励20万元，被认定“小巨人”企业，奖励10万元。真金白银无疑可以推动企业，而更内在的原动力是，在市场竞争中，高企和非高企从招标阶段就已有了高下之分，前者的机会会更多一些。', '张永超记得，在2017年末，他们去各区县给企业讲课，讲一个企业如何发展成高企、“小巨人”企业，跑了40多场，共有1500多人来听课。', '对长春市科技局来说，眼前的难题并不是如何将现有的公司科技化、申请成为高企、“小巨人”企业，而是存量正在一步步减少，后续应如何孵化项目、储备上马的问题。', '长春市科技企业的开办与培育，也立足于该市的科研优势。长春市有包括吉林大学在内的40所左右的大学，有包括中科院长春光机所在内的多家科研机构，每年的科研项目数目十分可观。但问题在于，科技成果转换率并不高。', '据张永超介绍，原因主要有两方面，一是研究成果本身不太接地气，无法转换；二是科研人员没有心思也没有精力去做转换的事。', '为了扭转这一局势，长春市决定每年评选十个重大科技成果转换项目和十个重大科技攻关项目。过去主要以学校、科研院所为申报主体，现在则要求由企业申报，或者申报院校和科研院所必须有合作企业。“目前，我们的科技经费，70％左右会投往企业。”张永超说。', '以长春市最著名的科研院所光机所来说，该所历史悠久，专利很多，但曾有一位领导评价说，过去的光机所“说啥有啥、看啥有啥，就是要啥没啥，光教学生了，不跟产业相结合”。但实际上，光机所的不少专利都很贴合市场需求。', '针对这一情况，长春市与光机所研究资源整合，由光机所控股一家民营企业。控股之后，光机所将最新研究的传感技术交给该企业，转换为产品上市，收效甚好。目前，与光机所合作的企业已经扩展至十几家。', '“这样的科技成果转换多了，未来几年，长春市就会有一个接一个的独角兽企业出现了。”张永超说。', '除了科研院所、大学与企业的公对公合作，也有不少科研人员选择自己创办企业。对他们来说，最大的难题不是科技，而是资金。', '孙尚勇是长春人，毕业于吉林大学。在一次科技成果展销会上，长春市科技局相关领导看到了孙尚勇公司的产品，感觉很好，但销售数字却比较低。被问及为何不扩大生产时，孙尚勇说，资金紧缺，贷款门槛又高，无法扩大生产。', '得知他的贷款需求在1000万元以内，科技局让他到长春市的科技金融中心申请贷款。批贷后，孙尚勇所在的吉林省永利激光科技有限公司发展得很好，销售收入以每年50％的速度增长，目前已是行业的龙头企业之一，国内市场占有率20％，美国市场占有率达50％。', '科技金融，是长春市科技局为年轻的科技企业推出的服务，共有12款金融产品，吸引了12家银行，31家金融机构，近百家评估、征信等机构参与。像孙尚勇那样的公司，经过法院、担保公司的前置审核，可以满足1000万元以内的贷款需求，贷款利率不会高于银行利率。', '与普通的金融服务不同，科技金融推出的业务可以在网络上进行。比如，一家公司希望贷款500万元，在安全性、前景等内容审核通过后，该公司的贷款需求发布在网上。有资质的银行、金融机构可以去“抢”，单笔最低5万元，先到先得。张永超说，基本都在30秒内抢完。', '放眼全国，二、三线城市的招商引资竞争很激烈，且旷日持久。各个城市都施展浑身解数，吸引优质的项目落地。长春也一样。', '长春市发改委副主任宋长者告诉《中国新闻周刊》，对于长春来说，首先要改变的，是干部的思维，“过去安逸惯了”。为此，招商引资纳入了相关部门的年终考核指标体系。以发改委来说，过去并无招商任务，现在，金融、服务业招商指标均落到了发改委头上。', '“现在的考核，是产业优先、项目优先、发展优先。不设上限，只设下限。哪怕你完成了你的任务，可能也会排在末位，得努力干。”排名靠前的，有一定的奖励。排在末位的，官员的升迁会一定程度受到影响。', '招商引资的方式也发生了变化。过去是组团招商，商务局主导，各县市区配合。现在则改变为产业招商，市里设置了十个产业专项招商组，细分领域和行业。比如工业就由主管工业的副市长带队招商，工信局、发改委等相关部门也会参与其中。', '宋长者介绍，以发改委来说，作为政策制定方，他们比较了解商业综合体、服务业集聚区等政策，可以介绍给对方。', '对外来企业来说，东北对他们的吸引力，无外乎土地资源丰富、市场前景广阔，而长春增加了一项独特的优势：产业。', '如上文所述，长春已经确立了三大支柱型产业和一些新兴产业的发展方向，招商引资就围绕这些产业方向来，以形成集聚规模。', '宋长者说，和北上广深这样的一线城市竞争，长春没有明显的优势，如果要从“虎口”夺食，引进这些城市正在发展的产业项目，十分困难。但如果是引进这些城市需要进行转移的产业，则容易得多。', '比如北京的中关村，企业很多，加上租金、人力成本等原因，已有外溢趋势。长春作为地处东北的省会城市，土地和人力成本都比较低，再加上本身想发展光电、大数据等产业，可以接收中关村这部分的转移企业，最终将外来企业发展成自身的优势。', '产业集聚还有额外的好处。以吉林省永利激光科技有限公司为例，它和它的供应商在同一个园区，互为邻居。这也是长春市在打造园区时希望实现的，通过招商引资和产业发展，把产业链条逐渐完善，形成规模，最终形成雪球效应，让越来越多产业上下游的公司来长春发展。', '项目和企业谈妥了，怎么高效稳妥地落地，也事关重大。长春建立了招商信息衔接机制，由发改委和商务局负责，调动各区县，使项目落地的所有细节都有人过问，形成无盲区的闭环管理。', '而针对其中20亿元以上的大型项目，长春市推出了“项目秘书制”，由相关官员给项目做秘书，帮助解决手续办理、资金筹措等全链条问题。这项政策也纳入了官员的年终考核，如果大项目落地不畅，会在一定程度上影响其升迁使用。', '当然，有的问题是靠一个秘书、一个部门解决不了的。目前，长春创立了以常务副市长为组长的“重大项目问题疑难问题解决机制”，不定期开会，各部门现场办公，所有疑难问题必须推进解决，不能卡壳。据了解，今年以来，长春市解决了三批32个项目的疑难问题。', '几年来，在落地问题上，长春市对能改革、能解决的机制问题，几乎进行了全覆盖的改革，包括“只跑一次”“证照分离”等。比如，长春市梳理了企业到政府办事事项共1469项，对项目名称、实施机关、项目类别、设立依据、申报材料、办理程序、收费标准、法定期限、承诺期限等都实现了全市统一。', '根据长春市统计，截至今年8月底，企业开办实际用时从原先的15个工作日减少到3个工作日。对企业来说，目前影响项目落地的，已不是行政速度，而是法律规定的硬性前置条件。压缩办事环节本身，已没有多少空间。', '2016年，为了优化长春市的营商环境，长春市重新设立软环境办公室（以下简称软办），作为其营商环境建设的综合协调机构。过去，该办公室设在纪委，在纪委职能改变后取消。', '长春市软环境办公室主任赫军告诉《中国新闻周刊》，通常来说，考核指标分两类，一类是日常考核，比如该部门软环境的规则设置是否规范，是否进行了制度化的建设等。另一类是加分项，即该部门是否给长春市的软环境带来一些好的变化等。', '比如，吉林省针对软环境设立了统一举报电话，如果接到有关长春市的举报，会将线索下派给长春市软办，市软办立刻协调解决。日常没有举报线索时，市软办也会去窗口单位、服务单位暗访。这些单位是否存在软环境问题、解决问题的速度如何，都是年末考核指标的一部分。', '赫军说，能看得出来，在全市上下，每一位公务员脑子里，软环境的弦绷得很紧。软环境问题是长春市当下最重要的问题之一。']</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A175" t="n">
+        <v>53</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
           <t>通沟求变梦成真</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>2013-05-17</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>http://www.hunjiang.gov.cn/zw/hjyw/201706/t20170623_131062.html</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>['资源枯竭意味着矿区繁荣的终结，让资源枯竭的矿区重新繁荣起来犹如古希腊的“斯芬克斯之谜”，让所有的人感到困惑和无解。然而，通沟这个曾经创造过无数辉煌的矿区，在八道江煤矿破产后的第八个年头被“中天人”揭开了谜底，中天人用自己的业绩创造出一个“通沟现象”。', '看到今天这鳞次栉比的楼房，谁也不会想到通沟曾经连片的棚户区；曾经居住在这里的居民，谁也不会想到自己会有一天入住宽敞明亮的高楼。然而，短短四年，蜿蜒的通沟河与通沟人一起见证了通沟社区的巨变。是谁，又是怎样揭开通沟这个让无数人困惑不解的“缪斯谜语”的？正是中天集团人用他们的智慧和勇气，让通沟居民摆脱困境。作为一种经济、社会现象，“通沟现象”无可争辩地成为白山市棚户区改造的典范。', '幸运的是，2004年通沟街道享受到了国家对采煤沉陷区、棚户区改造的优惠政策。改造工程在通沟街道展开后，当时承担改造任务的某企业在实施过程中，发现这里改造任务不仅难度大，而且没有任何经济效益可言，因而，2008年，这家企业抛下“烂尾工程”逃之夭夭，改造项目陷于瘫痪。', '2009年，浑江区负责人向招商引资来的、正在三道沟考察旅游开发项目的中天置业集团董事长魏恒山介绍了通沟的情况，并希望中天集团能够接手通沟项目。面对这种情况，中天集团领导左右为难，接手的话，可能没有经济效益拖垮企业，还要承担“烂尾工程”；不接手，眼看着浑江区负责人真诚而焦急的目光，他于心不忍。最终，中天集团的决策者把社会效益放在第一位，接手通沟棚户区改造项目。市区领导如同放下了个大包袱，而中天集团从此负重前行。', '通沟与一般棚户区不同，老通沟人——通沟街道关工委主任崔凯山说：“当年，八道江煤矿连续两年半没开工资，几次千人集体上访，一度成为政府和通化矿业的老大难。最终，八道江矿还是因为资源枯竭而破产，8000多名职工一下子没了饭碗，数万人的生计没了着落。”', '曾经负责棚户区拆迁工作的经理张富林说：“拆迁前，这里有好几个‘三多’：失业困难户多、释解人员多、酗酒闹事的多、打麻将的多……我是外来户，大半生都在走南闯北，那么多的拆迁工程中就从来没有遇到像通沟这种情况。就连我自己也想不到，通沟会在这么短的时间内发生这么大的变化。”然而，这种巨变却是实实在在的。', '思路决定出路，规划带来变化。按照白山市政府关于中心城区“南扩”总体规划，结合通沟街道实际情况，白山市加大了对通沟街道棚户区及沉陷区的改造力度，结合通沟街道多为低矮潮湿的平房，住房狭小，拥挤不堪的现状，进行了整体开发规划。', '实现企业又好又快发展，中天集团把人当做第一生产力要素抓住不放，把培养人才当作企业发展的根本。在实施开发规划过程中，中天集团更是从宏观和高水平入手，花大本钱先后从辽、吉两省聘请高级人才加盟集团公司，而且针对企业发展实际，经常选派专业人才出国或到外省市考察学习，三年共选派管理人员220人次考察学习，仅培训费就200多万元。最近，他们又与辽宁大学签订了为中天集团高管全体进修EMBA的协议。管理人员整体素质的提高不仅为企业发展引擎增加了马力，而且增加了企业效益比例。', '拆迁过程中，他们始终坚持和谐拆迁方针。负责拆迁工作的张富林经理说：“小区建设拆迁是基础，集团董事长要求我们一手托三家，凡事要把百姓和政府摆在首位，企业自己要放在次要位置。要‘落实政策到位，不沾政策便宜’，这是拆迁工作的红线，也是实现和谐拆迁的不二法宝。”正如张富林介绍，和谐拆迁不仅让老百姓高兴，也要让政府放心，他们用较短的时间实现了区域拆迁，抢得先机，不仅用时间换来了空间，也换来了经济效益。他们仅仅不到百天就全部完成了一期120户的拆迁，当年就打了三栋楼的基础，创造了白山拆迁史上的新记录。', 'B2区居民李家兰已经回迁入住新楼，她说：“原来住的小平房屋里总是霉味呛人，每到雨季和春天雪化时，灶坑里总是满满的水。', '本来得了癌症，没有想到能在有生之年还会住上新楼房！B2区居民张景贵的心理最有回迁居民代表性，他在回迁时喜不自禁，自己写了副“感党恩住有所居真好，谢政府惠民生得民心”的对联贴在自家门上。', '如今通沟棚户区一期改造工程已经完成，二期工程正在有条不紊地推进，等待二期工程回迁的居民经常到建设工地察看，他们盼望着早日住进集中取暖楼。', '通沟街道副书记张浩亮说：“由于中天集团的建设和倡导，文化广场、健身场、美食街、服装表演、中天剧场等等，从前没有的这里都有了，过去的酗酒、打架、赌博、盗窃等现象已经被健康有益的活动所取代。通沟人的幸福指数正在一天天提高。”', '一座座崭新的楼房拔地而起，小区环境焕然一新。现已规划开发的A、B、C、D四个区域全面交工，已有1892户居民办结了回迁手续。一座容纳6万人口的新城，千家店铺的街区正在这里逐步变为现实。', '改变通沟，一个没设答案的谜面，依靠国家政策，市区两级政府的协同努力和支持，中天人借力找到了改变通沟的钥匙，破解了通沟“缪斯谜语”，也增强了白山人克服困难的信心和能力。']</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A176" t="n">
+        <v>53</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
           <t>浑江区积极组建非公企业党组织</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>2013-01-11</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>http://www.hunjiang.gov.cn/zw/hjyw/201706/t20170622_126870.html</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>['为扎实推进非公“双覆盖、双增强”工程进程，浑江区以“派出党支部”为突破口，大力推行“321”工作法，有效破解非公企业党组织组建难题。', '凝聚三股力量，出重拳。对全区所有非公企业进行拉网排查、建立台账，做到企业规模、经营情况、员工数量、党员数量、业主态度“五个清”。把未组建党组织的770家企业进行合理划分，为派出党支部“压担子”。由区委组织部牵头，吸纳经济、发改、环保等39个职能部门为大党工委委员，成立“两新”组织大党工委，对全区157个派出党支部进行“抓总”；从机关和行业部门优选素质高、懂经济的党务干部成立41个派出党支部，对198家“难题”企业进行“高配”；按照属地管理原则，优选街道党员干部和社区在职、在籍党员成立116个派出党支部，结合社区“网格化管理”工作，对572家企业进行“攻坚”。', '采取双向互动，强队伍。区“两新”组织大党工委采取聘请专家授课、区内现场观摩、外出考察学习等形式，加大对派出党支部成员的培训力度，突出抓好派出党支部书记的素质提升，增强带队伍能力，提高抓非公党建意识，掌握与企业主沟通技巧，精通党组织组建程序，做到帮忙不添乱、指导更服务。依托派出党支部，对企业中的党员、积极分子、技术骨干进行“梯次”培训。将非公企业中年富力强、思想素质好、文化知识高、甘于奉献的170名同志纳入重点发展对象，加强培养和锻炼，在对企业进行“输血”之时，着重增强其“造血”功能。同时，成功将企业13名党员推荐到关键岗位、16名党务干部推荐到管理岗位。', '运行一套机制，扩成果。成立督查考评组，对派出党支部进行“日抽查、周调度、月小结、季通报、年奖惩”。指派专人对照派出党支部工作台账，每日随机抽查5个记入工作“推进表”；每周进行一次情况调度，要求派出党支部书记汇报工作进展情况；每月进行一次阶段性总结，将各派出党支部工作进行客观评价，发扬成绩、克服不足；每季度进行一次业绩“晾晒”，在全区进行“排大榜”；每半年进行一次考核，采取派出党支部上报、督查组实地走访、工作对象测评等方式进行跟踪问效，将考核结果作为评先选优、提拔使用的重要依据。']</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A177" t="n">
+        <v>53</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
           <t>突出农村党员培训多样性助推新农村建设</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>2015-03-08</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>http://www.changbai.gov.cn/zwgk/zwdt/zwdt/201801/t20180117_268406.html</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>['长白县紧紧围绕社会主义新农村建设主题，转变培训思路，整合培训资源，丰富培训内容，扩宽培训领域，培养了一大批有文化、懂技术会经营的新型农村党员，为全县农村经济社会发展注入新的活力。', '远程教育，突出培训的科技性。为了切实解决农村党员群众培训难集中、活动难组织，经常性学习教育不够的问题，本着农村党员远程教育要与农民实际需求相结合的原则，充分发挥远程教育信息传递方便快捷、内容丰富的特点。以发展特色农业、牧业、种植业为突破口，广泛收集相关种养殖技术、产品信息、销售网络、市场分析等内容，安排各类种养殖户集中收看学习远程教育节目，让他们享受到高科技给大家带来的实惠。除此之外，党员干部和群众还可以根据个人需求向站点管理人员提前预约，方便群众随时点播节目和查阅资料，做到“点菜式”培训。对在实际生产中遇到的问题，由各站点管理员负责收集汇总，统一报到县远程教育工作小组，由工作小组负责联系相关专家、技术人员给予解答，确保教学活动“学出成效、学出效益”。', '分类培训，突出培训的针对性。按照“缺什么补什么，需什么教什么”的思路，健全完善县、镇、村“三位一体”的培训服务模式。改变以往所有党员同一个培训内容的做法，采用因人施教的方法，分层次、分类别、有针对性地抓农村党员教育培训。成立专家顾问团，聘请农业、林业、水利、农机、畜牧、科协等涉农部门专家与广大农村党员建立定向联系，根据产业发展实际、技术需求开展分门别类的技能培训，精心确定温室大棚、蔬菜、水果、苗木、药材的栽培、病虫害防治等方面的种植技术；家禽、牲畜繁殖育肥、疫情防治等方面的养殖技术以及木工、瓦工、电工等实用技术为培训重点，深入组织开展了“一技一训”、“一业一训”、“一题一训”等个性化培训，进一步增强了培训工作的针对性和实效性。通过技术下乡、农技培训、集中授课、现场示范、实地观摩等方式，为农民党员提供免费指导和技术培训。教育学采取互动模式，对发现的问题，遇到的难题，随时提问、随时解答，共同探讨。改变以为那种“灌输式”，“填鸭式”的教学模式，消除那种在参加培训后存在着记不住、学不会、用不上的现象。', '域外培训、突出培训的灵活性。为切实抓好乡土人才教育培训工作，长白县组织农村党员中的种养大户、科技户、农村专业协会会长到山东、黑龙江、江苏等地进行域外考察学习。通过采取现场授课，实地考察、现场观摩和交流座谈相结合的方式，学习这些地区的先进理念、规模化发展模式和特色种植业、养殖业产业化等方面的成功经验和做法；在感受先进地区的发展气氛、接受先进地区环境的熏陶，拓宽了农村党员的视野和思路的同时，看到了发展的差距，找到自身发展的不足，拓宽了今后的发展思路，树立了发展信心，使其成为农村致富的领头雁、排头兵、带头人。', '选树典型，突出培训的鲜活性。在开展技能培训的同时，长白县组织企业主、产业大户、致富带头人与广大农村党员建立长期的定向联系，解答他们在生产、发展中遇到的困惑和难题，定期邀请创业成功人士给广大农民党员讲述创业历程，邀请农村党员特别是村中“能人”“致富能手”“乡土专家”进行谈心交流，用身边典型引导，提高典型示范的感染力和鲜活性，激发广大农村党员的创业热情，尤其是那些“想干事、会干事、能干事”的优秀年轻人的创业信心。']</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A178" t="n">
+        <v>53</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
           <t>长白朝鲜族自治县教育局基础教育年工作计划</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>2019-09-18</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>http://xxgk-cb.cbs.gov.cn/shgy/jyly/201909/t20190918_436094.html</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>['现将《长白朝鲜族自治县教育局基础教育2019年工作计划》印发给你们，请认真组织学习，抓好贯彻落实。', '2019年我县基础教育工作，坚持以新时代习近平教育理论为指导，全面贯彻党的教育方针，认真落实国家、省、市基础教育工作要点，紧紧围绕提高教育质量这一战略主题，以素质教育为中心，以立德树人为根本任务，以“五项工程”为抓手，加快学前教育发展，深化基础教育综合改革，提高教育教学质量，促进学生健康成长，办人民满意教育。', '认真贯彻落实党的十九大会议精神和习近平总书记系列重要讲话，贯彻落实教育部《中小学德育工作指南》，以全面贯彻落实“立德树人”为根本任务，以培育和践行社会主义核心价值观、进一步加强全县中小学德育工作为核心，以传承中华优秀传统文化为重点，秉承实践育人、活动育人、课程育人理念，开展有效的增强学生社会责任意识、提升社会实践能力、培养学生创新意识的各种主题实践活动。促进学生德智体美劳全面发展，突出重点，统筹兼顾，整体稳步推进全县中小学德育和校外教育工作。', '（一）扎实开展好全县中小学培育和践行社会主义核心价值观教育，传承中华优秀传统文化，进一步加强德育和校外教育工作。', '（二）继续落实“明德知礼工程”与“社会主义核心价值观”中的各项工作任务，做到落实落细落小。', '（三）加强全县德育和校外教育职工队伍建设，深入建设“长白教育资源服务公共平台”之“德育云”，利用信息化手段整体提升一线教师政治素质和业务素质，使得他们的能力能够适应完成立德树人根本任务的客观要求。', '（五）整合社会资源，形成育人合力，建立社会育人网络。利用图书馆、县青少年校外活动中心、企业和部队等社会资源，广泛开展社会实践活动，增长见识，开阔视野，丰富社会知识。把自然和历史课搬到校外，让孩子们亲身体验自然和历史知识。', '（六）强化督导监督机制，确保主体责任落实。省教育厅督导办已经明确把中小学德育和校外教育纳入教育目标管理责任体系，明确提出各地教育局要强化目标管理责任落实。', '1. 开展好“进入新时代 改革开新篇”为主题的爱国主义读书活动。各校在每年的4月23日“世界读书日”前后围绕“进入新时代 改革开新篇”主题开展读书征文、读书演讲与讲故事和网上答题等不同形式的读书活动。让读书成为习惯，让读书传递文明，让读书聚集力量。教育局将于5月初，围绕“进入新时代 改革开新篇”为主题举办长白县中学生演讲、小学生讲故事活动。', '2．各中小学校要利用晨读等课余时间开展《中华优秀传统文化经典诵读》读本诵读，深入挖掘中华民族传统节日，结合清明、端午、中秋等中华民族传统节日，举行“我们的节日”等中华经典主题诵读会等活动，增强中小学生文化自信心和民族自豪感。9月初举行全县第二届优秀传统文化诵读比赛并选拔优秀个人与团体参加吉林省第二届优秀传统文化诵读比赛。', '3．深入开展爱学习、爱劳动、爱祖国教育。各校要积极开展丰富多彩的主题班会、主题党团日、升国旗仪式、运动会、艺术节、读书读报、征文演讲等活动，让学生感受祖国是自己成长进步、理想实现的重要依靠。有效利用本土实践基地教育资源，组织学生走出校园，走向工厂、田间地头，积极参加劳动体验活动，鼓励有条件的学校开展校园种植养殖活动，引导学生在体验中学会尊重劳动人民和劳动成果。', '4．深入开展研学旅行课程。各校要根据教育教学要求，将研学旅行纳入综合实践活动课程和社会实践活动计划，精心设计研学旅行活动课程。各中小学校要结合学段特点和地域特色，将研学旅行纳入学校教育教学计划，制定适合本校的研学旅行实施方案，精心设计研学旅行活动课程，避免“只旅不学”或“只学不旅”现象发生。', '5．全县各中小学要根据环保教育要求，将环保教育贯穿于学生日常生活中，注重从学生身边的小事培养环保意识和行为，注重实效。各学校要结合学校和周边环境实际，充分利用主题班会、校会等教育方式，借助校园网站、广播、简报黑板报等宣传工具，通过征文、演讲、书画、汇演等比赛形式，广泛开展环境教育宣传教育活动和丰富多彩的环保事件活动。2019年将继续在全县各中小学校开展“河流环境保护”等“河长制八个一”宣传教育活动。', '6．实施我县特色强校的战略目标。2019年继续实施我县特色强校的战略目标，促使学校走出一条“特色立校、特色兴校、特色强校”的发展之路，进一步打造一流的教育品牌，提升我县教育品位和整体实力，促进学校可持续发展。', '1．在教师管理中加强常规。增强规范意识，强化课程标准和教学常规的落实。严格执行《义务教育学校办学标准》、《吉林省义务教育教学常规（试行）》等相关文件。根据教学常规管理的有关规定，结合学校实际，重新修订具体的教学常规管理办法，细化备、教、批、辅、考的各个环节，加强基本环节的组织实施过程的检查与反馈，及时纠正不当的教学行为。', '2．在学生管理中落实常规。认真贯彻教育部颁发的《中小学德育工作指南》等文件要求，落实好市教育局《“实践的德育”指导纲要》、《关于加强中小学心理健康教育的意见》，树立正确的教育观、质量观；把养成教育作为最重要的常规工作，着力培养学生良好的行为习惯；深化课程改革，把德育目标落实到课堂教学实践中；开展丰富多彩的德育实践活动，让学生在参与中体验感悟，在参与中受教育；实施“身心强健计划”，促进学生身心健康，开展家庭教育指导，创设良好育人环境。', '3．在教研管理中促进常规。学科教研机构是学校实施教学管理、开展教学活动的基层组织。要合理设立学科教研组，注重教研组长的选拔和任用，加强对教研组工作的管理。学习常规、落实常规要成为教研组活动的重要内容和所有教研活动不能突破的底线。', '4．在教育督导中保障常规。要把落实常规做为教育督导工作的重要内容，教育目标管理责任制不变的基础项目。教研部门要定期深入学校对常规落实情况进行检查和指导。各学校要探索建立和完善校内督导制度，在检查评估的基础上，加强工作指导和整改提高。', '1．提炼总结，形成品牌特色。巩固、完善、提高“疑探”教学改革成果，形成相对稳定的、目标明确的教育教学改革思路和基本模式。长期坚持下去，不断深化改革研究、不断修正不足，逐渐形成自己的特色和品牌。', '2．继续深化“语文主题学习”实验研究。语文学科作为基础学科，也是其他学科教学有效开展的基础。提高语文素养是学生全面发展和终身发展的基础。2019年将这项改革实验做为质量兴校工程的重点工作，在加强教师培训的同时，开展示范校和示范教师评比，以此推动全县各中小学“语文主题学习”的深入开展。今年所有中小学的所有班级必须全部进入“语文主题学习”的改革行列，把这项工作的开展情况做为“星级学校”的重点内容，加强考核验收。', '3．加强校际合作，提升整体实力。教研部门要发挥牵头、协调作用，以大学区管理改革为突破口，以学科工作室为平台，统筹同类学校、同学科的教研活动时间，每学期要安排不少于2次的集中教研活动，促进资源共享与信息交流。加强幼儿园与小学、小学与初中、初中与高中的沟通协调，研究幼小、小初、初高衔接中存在的问题及解决办法，减少学生在学段变化中的不适。', '4．积极做好中考、高考改革和普通高中课程改革各项应对准备工作。加强政策解读和舆论引导工作，要通过举办培训班、外出考察学习等方式，加大对中考、高考改革、高中课程改革的政策解读，统一思想认识，明确改革思路与任务；各高中校要做好选课走班、基础设施建设、学科教师配备、学生发展指导等高考管理工作。', '5．以教育信息化促进教育教学改革。抓好“三朵云”和“六联体”建设，继续推进“三通两平台”建设与应用，实现互联网全覆盖和网络环境普及。推进线上线下相结合的课程共享，探索信息技术支撑的教育服务供给模式，实现平台互联互通、资源共享。持续提高教师信息技术应用能力，充分利用现代信息技术和手段，推进教学模式、学习方式的变革，促进信息技术与教育教学的深度融合。开通专递课堂的学校，要按照课程计划开展好同步课堂教学。继续开展好“一师一优课、一课一名师”评选活动，提高“晒课”的质量。', '1．加强课程建设。要增强课程意识。统筹国家课程、地方课程和学校课程，努力建设国家课程学校化、地方课程特色化的学校课程体系化，积极实施课程建设与改革实验。认真学习贯彻落实中小学、特别是新修订的普通高中课程标准，依据课程标准，凝练和把握学科核心素养的基本要求，引导教师在学科教学中既注重传授知识，更注重学科思想、思维方式等的培养；将学科核心素养的基本要求作为实现课程目标、遴选教学内容、设计教学活动的主要依据，积极探索具有学科特点的基本教学模式。每校都要努力打造1-2个优势学科，发挥示范带动作用。认真贯彻落实好教育部印发的《中小学综合实践活动课程指导纲要》，充分认识综合实践活动课程的重要意义，组织教师认真学习纲要，切实加强对综合实践活动课程的精心组织、整体设计和综合实施，不断提升课程实施水平。', '2．建立制度，充分发挥教研组、备课组和名师工作室的作用。学校要建立相关制度，加强对教研组、备课组工作的管理。要根据本校实际，进一步明确学科教研组的工作职责，健全教研组工作制度。由教研组独立开展的教研活动，每周不少于2小时。以年级组集中办公的学校，教研组活动以年部备课组为主，学校每学期组织不少于2次的全校学科教研组活动。建立“名师工作室”，发挥名师在教学、教研中的引领作用。完善评价机制，开展优秀教研组、优秀备课组评选。', '3．深入开展教师全员参与的“大教研”活动。以“全员参与，共同提高”为主题，以“四个一”为载体，组织全县中小学教师全员参与“大教研”活动，即运用先进的教育理念、结合先进的现代教育技术手段上好一节达标课或者精品示范课；努力解决一个教学方法上的问题；结合学科教学工作的验收标准，编制一套学期末测试卷；写一篇深刻的教学反思。制定印发“四个一”教研活动方案，每年开展评比。广泛开展学科竞赛、基本功大赛及优质课评选活动，深入推进“大教研”活动的开展。', '1．完善教学质量监控机制。教研部门要进一步完善“质量检测、分析反馈、行为改进”的监控流程。一是要完善教学质量抽测制度。在统一抽测、高考、中考成绩等教学质量评估基础上，加大随机抽测力度，使质量监控与评价的信息采集面更广，更全面反映学生学习实际。二是科学分析监测信息。针对存在问题提出可操作的具体措施，提高分析诊断的水平和质量。三是要落实三个层级的教学质量分析报告制度。学校教研组长每学期要向学校提交一份高质量的本学科教学质量分析报告；学校业务领导每学期要向校长和全体教师提交一份高质量的全校各学科教学质量分析报告，开好一次质量分析会；教研部门每学年要向主管教育行政部门提交一份高质量的教学质量分析报告，并开好质量分析会。四是继续开展“高考奠基奖”的评选活动，继续采取以高考成绩评价各初中和小学学的倒评模式。', '2．建立课堂教学诊断改进系统。一是教研部门和学校建立适应诊断改进需求的听评课实践流程。要抓住课堂教学中的问题进行定性分析，针对问题，拿出解决问题的策略办法。二是完善教育教学反思制度。教师要定期对自己的教育教学进行总结和反思，要创造条件支持教师进行教学反思，提升教师自主发展能力。三是积极开展教学指导。教研部门要积极开展相关指导，帮助教师提高教育教学水平，帮助学校提高科学决策水平。', '3．完善促进学生全面发展的评价体系。综合素质评价是促进学生全面而富有个性发展的重要手段。各校要根据省、市有关规定，运用综合素质评价系统严格规范评价程序，采用开放、多元、多样的评价方式，充分发挥综合素质评价的导向作用，建立促进学生全面发展的评价体系。', '（一）进一步推进义务教育均衡发展。认真贯彻落实省、市推进义务教育均衡发展的相关文件精神，研究制定我县相关政策措施；保证适龄儿童少年免试就近入学；注重农民工子女教育，保障进城务工人员子女平等接受义务教育；规范“留守儿童”和特殊儿童的管理，关注特殊群体子女教育，将进城务工人员随迁子女义务教育作为“心民工程”纳入教育发展规划和财政保障体系，构建以政府为主导，社会各方面广泛参与的留守儿童关爱体系。', '（二）进一步巩固和提高义务教育工作成果。加强中小学学籍管理和“控辍”工作，继续在全县各中小学开展“控辍”评创活动；加大县、乡、村三级控辍力度，落实乡、村、学校在控辍方面应承担的责任，坚决杜绝因片面追求升学率导致学习基础较差的学生对学习失去兴趣，因厌学而导致辍学；要采取有效措施防止和控制中学生辍学，确保每一名学生都留得住、学得好，确保初三所有毕业生都参加升学或毕业考试。', '（三）严格执行课程计划，认真落实教学常规，规范中小学教育教学行为。进一步落实《吉林省义务教育阶段教学常规（试行）》，认真贯彻执行新课程计划，严格执行《吉林省义务教育阶段新课程计划表》，保证学年上课时间，不得随意增减课时。各校要配齐各学科教师，开齐开全科目，开足课时，按要求上好每一节课。各校要认真组织实施地方课程和校本课程的课时，严禁将地方课程和校本课程课时挪作他用。', '继续落实《长白县教育局关于进一步规范办学行为的若干规定》，切实维护学生公平受教育的权益。学校教育资源的分配，要坚持均衡的原则。新生分班要依据人数和性别均衡分班，均衡配备科任教师，保证学生接受公平教育的权利。严禁举办或变相举办重点班、特色班。继续实行“阳光招生”，继续开展“人情编班排座”专项整治活动。', '严格控制学生在校活动时间，保证寒暑假和国家法定节假日学生完整休假。严禁中小学寒暑假补课。继续开展义务教育阶段学校“减负”活动，纠正各自存在的不当行为，按教育部的要求规范办学行为，减轻学生过重的课业负担，使全体学生健康快乐成长。', '（四）进一步落实特殊教育提升计划。贯彻落实国家、省、市特殊教育提升计划，落实第二期特殊教育三年行动计划，继续开展“三类”残疾儿童少年随班就读和送教上门工作，动员有能力的轻度“三类”残疾儿童少年到外地特殊教育学校就读，中度“三类”残疾儿童少年在户籍所在地学校随班就读，重度“三类”残疾儿童少年由户籍所在地学校采取送教上门的方式学习，保证每个适龄儿童少年平等接受义务教育，让每一个孩子都有学上，让每一个生命都有尊严。', '（五）进一步深化考试评价制度改革。稳步推进初中学业考试改革，进一步完善“综合评价、择优录取”的高中招生制度，大力推进优质高中招生指标分配到初中的改革措施，促进义务教育阶段学校均衡发展，促进教育公平；完善学生发展性评价机制，加强高中、初中、小学学生综合素质评价工作的指导；改革义务教育阶段质量监测办法，学校要摒弃功利主义思想，正确对待质量监测活动，充分认识到提高教学质量不能以加班加点、搞题海战术、增加学生课业负担、牺牲学生课余时间的方式来实现；要制定科学、合理、可操作性强的教学质量监测方案，认真组织实施并不断加以完善，形成符合我县实际的教学质量监测体系。要研究制定初中和小学教学质量评估办法，将综合素质评价和毕业生参加高考情况做为评价初中和小学的主要依据。缩小普通高中招生数量，努力实现职普比大体相当。', '积极贯彻落实省、市《学前教育改革与发展的实施意见》，完成“学前教育第三期三年行动计划”年度目标任务；进一步提升示范性幼儿园建设水平，加强乡镇中心园建设，充分发挥国办、公办幼儿园的示范辐射作用；继续规范民办幼儿园，严格准入和年检制度，清理整顿非法幼儿园；做好对各级种类幼儿园的分类评级工作和普惠性民办幼儿园的认定工作；进修学校要加强对各类幼儿园特别是民办幼儿园的业务指导，强调坚持小学一年级“零起点”，严禁幼儿园提前教授小学教育内容，防止和纠正幼儿教育“小学化”倾向。认真落实教育部《3—6岁儿童学习与发展指南》，提高保教质量；开展好2018年学前教育宣传月系列活动；继续加大对幼儿教师的培训力度，不断创新和完善幼儿教师培训机制，有效提高幼儿教师的综合素质和专业化水平，为学前教育改革和发展提供人才支持。', '（一）全面加强学校体育工作。深入贯彻落实《中共中央 国务院关于加强青少年体育 增强青少年体质的意见》和教育部《学生体质健康监测评价办法等》三个文件的通知精神，进一步加强和改进中小学体育工作，保质保量开展体育课教学，认真落实体育与健康课程实施方案，加强教学管理，严格执行体育教学常规要求，开齐、开足、上好体育课，尤其是确保初三、高三年级及冬季体育课；建立体育锻炼联动机制，广泛深入开展学生课外体育活动，把课外体育活动纳入教育教学活动安排，制定并实施体育课程、大课间（课间操）和课外体育活动一体化的阳光体育运动；大力发展学校课外训练和竞赛工作；切实加强体育教师队伍建设；全面有效落实学生体质健康“十保证”。做好中小学生体质健康测试工作，下半年迎接国家对我县中小学体质健康抽测。', '开展好足球教学与训练。按照《教育部等6部门关于加快发展青少年校园足球的实施意见》和青少年《校园足球教学基本要求》，学校体育课每周至少上1节足球课，认真执行每周2小时足球活动计划，建立校内足球队，大校可建立班级足球队，坚持长期业余训练。每学年要有计划地组织实施校级、年级、班级之间的足球联赛，举办含有校园足球内容的文化节、文化周，建立足球社团或足球兴趣小组。保证全校不少于50%的学生参与足球活动并掌握相应的足球基本知识和技能。6月中旬将举办第三届校园足球比赛。', '落实好“百万学生逐雪嬉冰”工程实施方案。要以北京成功申办2022年冬奥会为契机，与德育相结合，在加大冬季奥林匹克相关知识和冰雪运动项目宣传的同时，着重宣传中国冰雪健儿在冬奥会上的优异表现，激发学生爱国热情和对冰雪运动的关注；根据实际情况把冰雪运动基本知识的普及推广列入学校体育教学的内容，通过各种形式让学生了解基本常识、掌握基本规则、感受冰雪运动的魅力，结合本校实际合理利用场地开展冰雪运动，开展形式多样的冰雪运动项目。12月举办中小学越野滑雪比赛。', '（二）加强音乐、美术教学及书法教育，促进学生全面发展。贯彻落实《国务院办公厅关于全面加强和改进学校美育工作的意见》和《教育部关于推进学校艺术教育发展的若干意见》，以全面提升学生艺术素养、促进学生健康成长为目标，强化课程落实，努力提升艺术课堂教学的质量，充分调动和发挥校园内外艺术教育资源优势和作用，创新教育形式，完善工作机制，积极探索适应学生发展需求和学校实际的途径和方法，努力为全体学生搭建展示、提高和发展才能的平台，推进学校艺术教育工作的科学发展。各校要充分发挥乡村少年宫的作用，大力开展好科技、艺术等社团活动。', '深入推进“体育艺术2+1项目”，让每个学生至少学习掌握两项体育运动技能和一项艺术特长，提高学生文体活动水平；积极开展名曲欣赏和名画鉴赏活动；开展合唱节活动，要求中小学班班有合唱团，定期开展合唱比赛，让歌声充满校园；鼓励各中小学发挥本地社会人才资源的优势，聘请有艺术专长的人才进校园，对学生艺术技艺进行辅导。鼓励学校与少年宫、社会艺术团体及社区等校外活动机构建立合作关系，充分利用活动资源，拓展学生文体活动空间；全县每所学校都要成立学生艺术社团或艺术兴趣小组，要结合学校实际，统筹安排好兴趣小组建设，科学设置，合理布局，突出重点，做到定人、定时、定地点，做到校校有活动、校校有特点。各校每年都要开展一次校园艺术节活动，在艺术教育中培养中小学生健康的审美情趣和良好的艺术修养。', '（三）继续抓好健康教育和学校传染病防控工作。各校要高度重视师生的健康教育，开好健康教育课；全力抓好学生近视眼和春季传染病防控工作；每学期开学初各校要对全体学生视力进行筛查；组织开展6月6日的“全国爱眼日”和12月1日的“艾滋病”宣传日各种宣传活动，确保师生的身体健康和生命安全。', '（四）开展规范使用国家通用语言文字工作。认真贯彻落实《中华人民共和国国家通用语言文字法》和《吉林省国家通用语言文字条例》，按照《长白朝鲜族自治县教育局关于贯彻落实〈中华人民共和国国家通用语言文字法〉开展规范使用国家通用语言文字工作的通知》要求，在全县教育系统中开展规范使用国家通用语言文字工作，小学1—2年级要开设写字课，3—9年级要开设书法课，推动国家通用语言文字的规范化、标准化及其健康发展；继续推进语言文字规范化示范校建设，完成年度省、市两级语言文字规范化示范校的达标验收工作；开展好第22届全国推广普通话宣传周活动。', '各校要贯彻落实《教育部关于加强家庭教育工作的指导意见》，充分认识加强家庭教育工作的重要意义，更好地担负起指导家庭教育的重任。加强家庭教育指导者队伍建设，努力形成一支结构合理、专兼结合，具有较高素质的家庭教育指导者队伍。努力提高家长学校的办学质量，坚持全面推进素质教育方向，积极探索转变家长观念、提高家长素质的有效工作机制，加强规范管理，提高办学质量，使家长能得到较为系统的科学的家庭教育指导。要把家长学校的办学质量纳入教育教学常规工作的考核内容，不断提高家长学校工作的实效性。利用信息化技术手段，依靠微信群、公众号、教育信息化平台进行家庭教育宣传、咨询、交流，逐步形成网络家庭教育指导的特色。各校可借助“家长开放日”、“亲子阅读”、“亲子日记”等手段增强孩子与父母之间的沟通和理解，让家长亲身经历子女在校的学习和生活，让家长走近孩子，倾听心声，走进教室，关注教育；增强学校、教师与家长的沟通，从而更好地配合学校，共同关注孩子的健康成长。', '各校要贯彻落实《中小学心理健康教育指导纲要》，按要求开设心理健康课，充分利用好心理咨询室，帮助学生解决在学习、生活和成长中出现的问题。采取集体教育和个别辅导相结合的方式，使全体学生都能受到适当的教育，又使个别学生的各种特殊问题得到及时解决。关注师生阳光心态，营造良好的整体心理健康教育环境，在全体教师中普及心理健康教育知识，强化心理健康教育技能。让心理健康教育与家庭教育相结合，利用家长学校进行心理卫生知识教育，以家庭教育指导为链接，使家长成为学生心理健康教育中的一支重要力量，能够配合学校促进学生心理健康成长。', '（一）继续实行“大学区”管理。为贯彻落实《吉林省人民政府关于深入推进义务教育均衡发展的实施意见》，促进义务教育资源共享，缩小校际差距，深入推进县域义务教育均衡发展，2019年在全县中小学继续实行“大学区”管理，各学区要积极探索“大学区”管理的有效机制；积极开展学区内教研活动和其它各种交流活动，充分利用信息化手段开展线上线下相结合的教研活动，在总结经验的基础上，创新“大学区”管理新模式。', '（二）开展特色学校创建活动。全面贯彻党的教育方针，不断深化教育改革，在全面提高教育教学质量的基础上，大力实施特色教育发展战略，以师生“读好书 写好字 做好人”为目标，扎实开展特色学校创建工作，为培养“身心健康能力强，个性和谐品德良”的合格新型师生为目标，从而进一步提高学校办学品位和档次，打造具有鲜明特色的个性化学校。', '（三）开展学生综合素质评价工作。全面贯彻党的教育方针，全面实施素质教育，全面提高教育质量，深入推进基础教育课程改革；把实施初中毕业生综合素质评价作为初中毕业与高中招生制度改革的重要突破口，改变以升学考试分数作为唯一录取标准的做法，强化素质教育导向，建立健全学生综合素质评价制度，形成素质教育实施与保障的长效机制；让学生获得恰当的评价，让学生在评价中获得自我发展，让学生在评价中学会评价，促进学生全面、和谐发展；面向全体师生、家长和社会，进一步倡导素质教育，加大基础教育课程改革的宣传力度，促使全社会教育观念的转变，促进中小学生综合素质的全面发展。在2018年、2019年初一新生全面实施综合评价工作。']</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A179" t="n">
+        <v>53</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
           <t>长白抓实县直机关目标管理绩效考评</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>2010-03-12</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_307798.html</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>['为增强各级领导班子和广大机关干部的争先创优意识，提高工作效率，改善机关作风，促进社会经济又好又快发展，2009年，长白县首次开展了县直机关目标管理绩效考评工作。为做好这项工作，这个县先后多次组织相关人员到白山市及其他县区考察学习，研究建立了符合长白实际的目标管理绩效考评汇总系统、百分制目标管理绩效考评系统、目标管理绩效考评督查系统。', '日前，该县召开会议对县直机关93个参评部门(单位)目标管理绩效考评情况进行了通报。同时，确立2010年目标管理绩效考评的奖惩要继续坚持“三挂钩”，即考评结果与评先树优挂钩、与干部能力考察和干部使用挂钩、与个人工资福利挂钩，严格落实奖惩措施。']</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A180" t="n">
+        <v>53</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
           <t>浑江区突出人才战略搭建工作舞台</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>2014-10-14</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>http://www.hunjiang.gov.cn/zw/hjyw/201706/t20170624_139729.html</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>['浑江区树立“人才资源是第一资源”的工作理念，抓好人才引进、培养、激励和使用等关键环节，推进人才工作再上新台阶。', '突出高层次人才引进，以人才引领产业发展。紧紧围绕建设繁荣和谐的生态园林型长白山中心城区的需要，本着“需要什么、就引进什么，缺什么、就补什么”的原则，提高人才引进工作的针对性和实效性。坚持不求所有、但求所用，不拘一格、广纳群贤，不惜重金引进高层次人才，用事业留人、用待遇留人、用感情留人。用最优惠的政策、最优越的条件吸引人才，实现高层次人才引进工作新突破。强化服务意识，通过感情投入和人文关怀来感召人才。要爱惜人才，宽容失败，在全社会营造尊重知识、尊重人才、尊重劳动、尊重创造的氛围。要关心和改善人才的生活条件，解决生活中的实际困难，让高层次人才安心、舒心、放心干事创业。', '突出企业型人才培养，促进民营经济大发展、快提升。民营经济是最活跃的成份，具有较强的适应能力、开拓能力和创新能力。要以“民营经济聚才兴企工程”和“蓝领工程”为载体，主动服务民营企业，助推民营经济腾飞。以提高现代化经营管理水平为核心，围绕民营经济发展方向，重点抓好"5+2"产业人才队伍建设，建立广覆盖、多层次、开放式的企业经营管理人才培养体系。组织优秀经营管理人才到高校、发达地区和大型企业学习考察，增强管理水平。要采取集中培训、案例教学、个性训练、实战提高等方式，提升企业经营管理人才的领导水平和管理能力。依托国家和省、市重大人才培养计划和学科建设项目，加快在民营企业中培养和选拔有发展潜力的学术、技术带头人。采取鼓励自学、岗位技能培训与科技文化知识培训相结合，每年有针对性地选拔一定数量重点专业的中青年技术骨干到科研院校进行专业培训', '突出载体建设，搭建人才施展才华的舞台。按照“经科教联动、产学研合作、校所企共赢”的思路，组织形式多样的校地、校企科技人才对接活动，在科研人才和企业之间搭建有效的交流平台。要开展好“四方共建”和“专家基层行”活动，引导更多的高层次人才来区寻求合作机会。鼓励和支持知名高校、科研院所来区建立教学科研分支机构，吸引更多的科技成果来区转化。围绕全区经济社会发展重点领域和重点产业，加大资金及政策扶持力度，加快推进人才基地建设，发现和培养新的人才增长点，形成区域性人才创新创业基地集群。紧紧依托浑江区各类园区，完善整体服务功能，吸引更多的项目入园，通过项目聚人才，依靠人才上项目，使各类园区真正成为吸引人才、培养人才以及各类人才施展才华的“阵地”。', '突出开放式工作方式，不断拓宽引进人才的渠道。把招才引智与招商引资结合起来，通过组织重点企业赴发达地区和高校召开招聘会，参加经贸活动、商会、联谊会等方式，宣传我区人才政策，对有意向的高端人才主动接洽，以诚相待，大力引进一批人才。采取“柔性”引才方式，对支柱产业、高新技术产业等紧缺人才，不愿落户的以讲学、聘为顾问、项目合作或者以技术入股等形式引进。采取“合约”引才方式。对急需人才、项目人才，可采用签订合约、购买服务年限的方式引进。', '突出强化组织领导，不断提高党管人才工作水平。坚持“一把手抓第一资源”，主要负责同志要带头抓人才工作，带头研究人才项目，亲自引进重要人才。不断完善党政领导人才工作目标责任制。加大对党政领导班子人才工作的考核力度，切实把“人才强区”各项目标任务落到实处抓谋划、抓载体、抓示范、抓协调、抓督查，确保每个阶段的目标、任务、责任、时限“四明确”。突出重点，谋划一批符合实际的人才工程，探索具有特色的人才工作之路。进一步完善党委、政府统一领导、组织部门牵头抓总、相关部门密切配合、社会力量广泛参与的人才工作格局，集中各方力量，全力组织推进。']</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A181" t="n">
+        <v>53</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
           <t>长白县四项机制倾力培养项目支书</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>2013-12-30</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>http://www.changbai.gov.cn/zwgk/zwdt/zwdt/201801/t20180117_267522.html</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>['长白县以“用好一个人，强化一个班子，带活一方经济，富裕一方百姓”为指导，以提高村党组织书记带富本领和服务本领为重点，建立完善了待遇保障、教育培训、创业帮扶、服务管理等四项机制，倾力培养引领和谐发展的“项目支书”队伍。', '建立待遇保障机制。出台了一系列政策措施，注重从待遇保障等方面解除村书记后顾之忧，将大中小村书记工作生活补贴标准分别提高到了1万元、1.1万元、1.2万元，每年均为村“两委”负责人办理养老保险，为正常离任的村党组织书记全部进行一次性补助，定期对村党组织书记进行表彰奖励，为省级优秀“村党组织书记”姜淑清按最高标准落实了副乡（局）级工资待遇，进一步提高了村党组织书记干事创业的热情。', '建立教育培训机制。注重培训的针对性和实效性，聘请熟悉党务知识、了解党的政策和掌握农业科技的专家在县域范围内开设培训班，针对实际，精心设置培训课程，采取课堂授课与实地指导等方式，着重讲授适合村书记和村干部的鲜活经验、案例和解决问题的方法。连续四年组织全县村书记到北京、山东等地考察学习具有借鉴意义、操作性强的产业项目，通过学习发展项目36个，使“项目支书”队伍进一步壮大。组织农业、畜牧、特产等涉农部门专家组成服务团队，定期到村指导村书记的项目产业，帮助解决技术难题148个。', '建立创业帮扶机制。安排各包保部门“一把手”对村书记发展项目进行全方位的帮扶，通过协调贷款、提供无息借款等方式为48名村书记争取220余万元的创业资金。县财政设立100万元的“项目村民”发展资金，以无息借款的方式优先扶持村党组织书记发展致富项目上，县农业银行等金融部门为“项目支书”发放1200余万元的创业贷款。县农业局、国土局、税务局等部门对村党组织书记在领办创办项目上实行“一站式”服务，对其领办创办项目实行优先审批。', '建立服务管理机制。每年定期表彰奖励优秀“项目支书”5-10名，着重表彰奖励带富村民的优秀“项目支书”。强化跟踪服务，在“三项工程”包村帮扶活动中，领导干部和机关干部对创业村党组织书记进行帮扶，在财力、物力、技术和信息上给予大力支持，帮助解决创业过程中遇到的困难和问题300余件，成立党员创业服务团队，为村党组织书记带头创业和带领群众创业提供政策咨询、项目包装、技术指导、综合信息、协调资金等各类服务600余人次。设立了由农业、蓄牧、特产等涉农部门专家组成的跟踪服务团队，实时提供跟踪服务，为“项目支书”提供各类服务。']</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A182" t="n">
+        <v>53</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
           <t>江源提高干部教育培训质量</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>2013-12-31</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>http://jy.cbs.gov.cn/zwgk/jyxw/201706/t20170628_166168.html</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>['近年来，江源区在全面落实中央关于大规模培训干部、大幅度提升干部素质、实现干部全员培训要求的同时，注重从实际出发，通过做好“四字文章”，切实提高干部教育培训质量。', '一是在培训内容上注重一个“新”字。根据广大干部对新理论、新政策和新知识的迫切需求，每年年初在制定培训计划时，都事先发放调查问卷或召开座谈会，了解干部对培训内容的需求，适时将前沿理论、刚出台的政策法规，以及中央、省、市刚刚做出的重大决策部署和重要会议精神等做为重点培训内容，让参训干部通过学习之后感觉到“解渴”“管用”。', '二是在培训方式上注重一个“活”字。在逐步减少以往理论灌输这一单一呆板的培训方式基础上，注重采取案例教学、情景模拟、理论研讨、实地考察、挂职锻炼、社会实践等以提高参训干部各方面能力为主的灵活培训方式，这既调动了参训干部的积极性，激发了广大干部的参学热情，又让参训干部学到了知识，提高了本领，为更好地履行岗位职责奠定了坚实的基础。', '三是在培训方法上注重一个“实”字。培训中注重采取专题授课与实践锻炼有机结合、域内理性知识学习与域外感性认识有机结合的培训方法，最终达到理论学习与工作实践相结合的目的。几年来通过域内理论培训之后，先后派出了11个批次、600多名干部远赴珠三角、长三角及辽宁、河北、山东等经济发达地区考察学习，选送了4名年青干部到苏州市沧浪区有关部门挂职锻炼，选送了6名干部到市直有关部门和企业挂职锻炼，选派了200余名青年后备干部到村、社区挂职锻炼或进行社会实践，使参训干部真正开阔了眼界、增长了见识、增强了能力', '四是在培训管理上注重一个“严”字。为了切实加强对培训工作的管理，每年的主体班次都由组织部的同志全程跟班，实行每天四次点名制，培训结束后对参训干部表现情况进行实名通报，并对违反培训纪律的取消当年的培训成绩。此外，还通过制定《领导干部学习培训学分制》、《领导干部点名调训制》、《领导干部学习培训请假制》等一系列规章制度，对干部参加培训及在培训中的行为等进行严格的规范，保证了各类培训班的正常教学秩序。（王振宇曹泓）']</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A183" t="n">
+        <v>53</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
           <t>八道江区关工委科技培训青年农民</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>2009-08-06</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_310374.html</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>['八道江区各级关工委在开展热爱家乡、培育新型青年农民教育活动中，根据全区建设社会主义新农村的总体规划和目标要求，从农村青年创业致富的需求出发，帮其所需，送其所求，主动配合农业、农科、科协等职能部门，在全区青年农民中开展了科技培训，提高创业致富能力。', '组织科技传授团下乡培训。从2007年以来，区关工委科技传授团配合农业、农科、科协等涉农涉青部门，每年春季围绕备耕春耕生产深入到镇街、村屯开展农业科技教育培训。两年多来，共举办葡萄、蔬菜、五味子、食用菌种植，水稻、玉米、大豆高产栽培技术，养鱼、养牛等各类农业实用技术培训班181期，培训青年农民1.3万人次，提高了他们的科技素质。各镇街关工委配合农业农科部门积极开展送科技下乡活动，在田间地头、创业基地，为青年农民提供信息、技术服务。', '利用镇村农民文化技术学校进行培训。各地农民文化技术学校聘请老农科技术人员、农民技术骨干和市区农科、畜牧部门专业技术人员任兼职教师，定期对青年农民进行专项技术培训，各级关工委积极参与主动配合。七道江镇、村文化技术学校兼职教师先后给青年农民讲授了无公害蔬菜、温室蔬菜的栽培与管理及畜牧等实用技术，为农村青年解决了创业致富技术上的难题。', '组织指导青年自学小组开展自学活动。在开展热爱家乡教育活动中，各镇街、村关工委组织思想进步、求知欲望强的农村青年成立自学小组45个。自学小组以新型青年农民典型、骨干为核心，在农家炕头，或在田间地头，或在创业基地，学习新知识、新技术，传递致富信息，交流创业经验，共同提高了致富本领。', '组织青年农民去外地学习考察培训。为了开阔青年们的视野，获取更多致富信息和新技术，镇街、村关工委领导组织有创业愿望的青年去外地学习考察，参加农博会。有的还送有作为的青年农民去大专院校深造，参加省、市有关部门举办的培训班，有效地促进了青年农民科技素质的提升。']</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A184" t="n">
+        <v>53</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
           <t>关于加强引导促农家乐旅游健康发展的提案</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>2014-09-09</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>http://www.hunjiang.gov.cn/zw/yata/zxya/201706/t20170615_110649.html</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>['农家乐是我国近年来快速发展起来的新兴旅游业态，也是我区旅游发展的一个方向，据初步统计，全区4个镇及部分街道都有不少农民依托景区景点、居民集中居住区和城郊发展的“农家乐”。全区共有“农家乐”40多家，现有规模较大，环境相对良好的农家乐经营户10余家，农家乐的客源主要来自市区人群，外地游客较少。就全区农家乐的现状看，确实存在着一些问题，主要表现在：? 一是农家乐经营模式单一。“农家乐”主要经营方式就是用餐，体现在“吃”上，前来的客人在等待用餐的时间大多只能喝喝茶、打打麻将，周围没有可游玩的娱乐设施，失去了农家乐旅游的重要要素——体验农村的生产生活。? 二是农家乐规模档次低。农家乐均存在规章和设施不完善，规模不大的问题。在全区各镇街经营的农家乐中绝大多数只是小餐馆——家庭式“作坊”,以自己的住房作为经营场所，没有田园、果园、景园，员工也是自己家人，拉动农村就业的作用没有体现。? 三是缺乏农家乐经营理念、管理经验。大多数农家乐经营户没有参加任何服务技能培训，只是靠自己的特长或者是在一定区域的做菜“名声”进行经营，基本不具备必要卫生、防疫、业务技能等知识。? 四是环境污染现象严重。大部分农家乐都建立交通主干道或者城乡结合部，有些甚至在风景区内。大多农家乐经营户环境保护意识淡薄，他们只顾眼前利益，不考虑长远发展。经营过程中无形中对周边的环境卫生带来极大的负担，在农家乐周围，随处可见残羹剩汤、纸袋酒瓶等生活垃圾，与周边优美的环境极为不协调。? 针对上述问题：我们将会同相关部门积极采取有效措施，加强规范和管理。? 一是出台相关政策，进行政策引导。我们将积极借鉴外地的相关经验，适时出台“农家乐经营规范”“农家乐星级评定与划分”等标准。对辖区内农家乐进行规范经营，使旅游者到农户的果园中观光、渔业养殖基地垂钓、购买本地特色食品（本地鸡蛋、手工鞋垫、山野菜、松花奇石）等。同时，我们将会提请区政府适时出台农家乐扶持政策，按照国家、省旅游局的要求和相关优惠政策，帮助达到一定层次的农家乐经营场所争取相关资金或政策支持，从而鼓励农家乐向规范化、规模化方向发展。? 二是强化经营管理。由于农家乐经营户分散性强，缺乏正规的专业训练，旅游知识缺乏，经营管理水平低，因此要强化经营管理，提高综合服务效益。今后的一个阶段我们将会着重做好几个方面的工作：首先组织农家乐经营户进行服务技能、经营管理培训，提高农家乐经营 户的综合素质。其次有计划地组织农家乐经营户到农家乐发展较好的地方考察学习。另外要经常性地举办农家乐技能比赛，引导农家乐经营户积极参与省、市、区举办的各类比赛，从而提高其服务管理水平。 三是搞好环境保护。伴随着农家乐的发展，环境污染也日渐严重。农家乐的发展与环境的保护是相辅相承的。农家乐的发展大都凭借的是优美的环境，而农家乐最吸引人的地方也一般是其周围美丽的自然或田园风光。但是现今很多经营者缺乏长远的眼光，只顾眼前蝇头小利，给环境带来了破坏。针对这种情况我们将配合相关部门进一步加大综合治理的力度，确保在促进农家乐发展的前提下，环境也得到保护。', '在今后的工作中，我们会把旅游环境保护和服务水平的提高当作中心工作，重点抓，长期抓，努力营造良好旅游环境，促进全社会齐抓共管，并针对工作中的薄弱环节和今后出现的新问题，不断完善措施，改进方法，提高旅游管理水平，促进旅游业健康、快速发展。']</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A185" t="n">
+        <v>53</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
           <t>中共白山市委白山市人民政府关于全面落实降本减负政策着力优化营商环境推动民营经济高质量发展的实施意见</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>2019-05-30</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201905/t20190530_415578.html</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>['中共白山市委白山市人民政府关于全面落实降本减负政策 着力优化营商环境推动民营经济高质量发展的实施意见', '为深入贯彻习近平总书记关于民营经济发展的重要指示精神，全面落实党中央、国务院和省委、省政府关于推动企业降本减负各项决策部署，全面优化营商环境，推动民营经济实现高质量发展，结合我市实际，现提出如下实施意见。', '（一）落实支持实体经济发展税收优惠政策。落实国家调整增值税税率有关政策，统一增值税小规模纳税人标准为年应征增值税销售额500万元及以下。对增值税小规模纳税人按国家规定幅度上限即50%的税额幅度，减征资源税、城市维护建设税、房产税、印花税、城镇土地使用税、耕地占用税等地方税种及教育费附加、地方教育附加。增值税一般纳税人发生增值税应税销售行为或者进口货物，原适用16%税率的，税率调整为13%；原适用10%税率的，税率调整为9%，确保主要行业税负明显降低。', '（二）落实增值税即征即退政策及简化税制。对符合增值税优惠目录的资源综合利用产品和劳务实行增值税即征即退政策；对符合条件的软件产品、动漫企业按16%税率征收增值税后，对其增值税实际税负超过3%的部分实行增值税即征即退政策；对符合条件的安置残疾人就业企业按照一定额度落实增值税即征即退政策；对符合条件的纳税人提供技术转让、技术开发和与之相关的技术咨询、技术服务免征增值税；对符合条件的生物制品等产品按简易办法征收增值税。', '（三）落实支持企业创新发展税收政策。提高企业研发费用税前加计扣除比例，企业开展研发活动中实际发生的研发费用，未形成无形资产计入当期损益的，在按规定据实扣除基础上，2020年12月31日前，再按照实际发生额的75%在税前加计扣除，形成无形资产的，在上述期间按照无形资产成本的175%在税前摊销。提高享受当年一次性税前扣除优惠的企业新购进研发仪器、设备单位价值上限，企业在2018年1月1日至2020年12月31日期间新购进的设备、器具，单位价值不超过500万元的，允许一次性计入当期成本费用在计算应纳税所得额时扣除，不再分年度计算折旧。创业投资企业和天使投资个人直接投资于种子期、初创期科技型企业满2年的，可按投资额的70%抵扣应纳税所得额。对纳税人新设立的资金账簿按实收资本和资本公积合计金额征收的印花税减半，对按件征收的其他账簿免征印花税。', '（四）降低小微企业税费负担。自2019年1月1日至2021年12月31日，增值税小规模纳税人月销售额不超过10万元（按季纳税不超过30万元）的，免征增值税。月销售额超过10万元，但扣除本期发生的销售不动产的销售额后未超过10万元的，其销售货物、劳务、服务、无形资产取得的销售额免征增值税。对小型微利企业年应纳税所得额不超过100万元的部分，减按25%计入应纳税所得额，按20%的税率缴纳企业所得税；对年应纳税所得额超过100万元但不超过300万元的部分，减按50%计入应纳税所得额，按20%的税率缴纳企业所得税。小型微利企业无论按查账征收方式或核定征收方式缴纳企业所得税，均可享受上述优惠政策。', '（五）加大财税优惠政策支持力度。2020年12月31日前，将符合条件的小微企业和个体工商户贷款利息收入免征增值税的单户授信额度上限，由100万元提高到1000万元。对纳税困难的企业，经有权限的税务机关审批，可减征或免征房产税、城镇土地使用税。允许符合条件的财政性资金，准予作为企业所得税不征税收入。', '（六）进一步降低企业其他税收负担。统一下调全市购销合同印花税核定征收标准，工业企业采购环节按照购进货物金额的40%计征，销售环节按销售收入70%计征。商业企业采购环节按购进金额70%计征，销售环节按销售收入的20%计征。对符合条件的市内跨县（市、区）经营且实行统一核算的固定业户总分支机构，经企业申请，报经省税务局、省财政厅审批同意，可以在分支机构预征，并由总机构汇总申报缴纳增值税。', '（七）落实涉企收费减免政策。落实国家和我省各项清理规范行政事业性收费政策措施。将用人单位缴纳的残疾人就业保障金标准上限从不超过当地社会平均工资的3倍降至不超过2倍；将国家重大水利工程建设基金征收标准在2017年降低25%的基础上再降低25%；减缴专利申请费、发明专利实质审查费、自授权当年起6年的专利年费、专利复审费等。', '（八）规范中介服务收费。持续开展清理规范政府部门行政审批中介服务事项，实行目录化管理，没有法定依据的，不得要求企业提供中介服务评估评审报告。在政务服务大厅设立中介服务超市，规范中介服务机构在全市范围内依法开展从业活动，自主参与竞争。规范社会团体涉企收费，不再要求社会团体和民办非企业单位提供法定代表人离任审计和注销清算审计结果，改由审批部门采取政府购买服务方式，委托有关机构开展法定代表人离任审计、注销清算审计。', '（九）降低一批涉企经营服务性收费标准项目。对新开办的小微企业3年内委托检测费用降低50%收取；对大学生创业的企业免收2年委托检测费用；对全市产业创新服务综合体、制造业创新中心提供的计量校准、测试服务费降低20%收取。支持电信企业加大提速降费力度，推动中小企业互联网专线资费降低10%，针对进驻“双创”基地、产业园区的企业专线宽带给予优惠政策。', '（十）降低企业用能成本。扩大直购电交易规模，全面放开煤炭、钢铁、有色金属、建材等行业进入电力直接交易市场，对高新技术企业和高端制造业等新兴产业，可不受电量限制参与直购电交易。认真贯彻落实国家、省降低电网环节收费和输配电价格政策，清理电网企业不合理垄断性服务收费项目，清理规范供电环节不合理加价行为，加快落实已出台的电网清费政策，降低全市一般工商业目录电价每千瓦时8.85分。精简企业用电扩配套项目审批流程和时限，确保企业用户平均接电时间压减至80天以内。对具备电力承装资质的企业所承建的电力建设项目，供电企业，均应尽早验收及时供电。落实国家和省价格政策，加强管道燃气输配价格监管，从严核定天然气管输和配气价格，抑制层层加价，减轻企业用气负担。', '（十一）降低企业用地成本。民营企业与国有企业平等享有建设用地使用权，平等享受差别化土地政策，凡符合《划拨用地目录》的，均可通过划拨方式取得土地使用权。民营企业转产为国家鼓励发展的生产性服务业的，允许以5年为限继续按原土地用途和权利类型使用土地；不涉及改变土地用途的，提高土地利用率和增加建设容积率可不再增收土地价款。民营企业发展国家支持的新产业新业态项目，属于产品加工制造、高端装备修理的，按工业用途供地，比照工业用地价格制定出让底价。灵活运用弹性出让政策。鼓励企业采取长期租赁、先租后让、租让结合等方式取得经营性旅游和避暑休闲设施及附属服务设施用地的土地使用权，降低企业土地取得成本。', '（十二）降低企业用工成本。贯彻落实国家统筹降低社会保险费率相关部署安排，对经营困难的企业，依据法定程序办理缓缴手续。对历史形成的社会保险费征缴参差不齐等问题，严禁自行集中清缴，确保企业社保缴费实际负担有实质性下降；延长阶段性降低失业保险缴费费率政策执行期限。对用人单位和职工失业保险缴费比例总和降至1%的现行政策，2019年4月到期后继续延续实施；继续实施阶段性降低工伤保险费率政策，执行期延长至2020年4月30日；考虑收支政策和基金运行情况，在确保待遇按时足额支付前提下，自2019年1月1日起至2019年12月31日，临时性降低医疗保险单位缴费费率1个百分点；全市企业工会经费按一定比例用于中小企业贴息贷款、技能培训和帮扶救助；严格执行住房公积金缴存比例上限12%和下限5%的规定，允许缴存单位在规定缴存比例上下限范围内，自主确定比例，不再履行报批手续；对生产经营困难的企业申请缓缴的，审批工作做到即来即办。', '（十三）降低企业物流成本。鼓励国家级、省级甩挂运输试点企业加入吉林省甩挂运输联盟，扩大甩挂运输应用范围和规模，全面提升干线运输组织效率。支持“互联网+”物流发展，开展无车承运人试点，降低货车空驶率，提高物流运作效率。大力推进运输结构调整三年行动计划，加快物流基础设施和物流智能平台建设，推动实施散改集、公改铁结构调整，实施普通营运货物运输车辆“三检合一”（即货运车辆年审、年检、尾气排放检测合一）和网上年审等措施，有效降低物流成本。', '（十四）大力推进产融合作。建立产融信息对接服务平台，制订重点项目融资对接清单，完善产融合作对接机制。推动银团贷款、产业链融资、金融租赁，扩大“银税互动”贷款范围。推动金融机构和企业共建“供应商+核心企业+经销商”全供应链融资体系。鼓励金融机构稳妥开展并购贷款业务。支持符合条件民间资本设立消费金融公司、金融租赁公司。探索组建信用增进投资公司，为企业债券融资提供增信服务。', '（十五）落实降低小微企业融资成本政策。落实再贷款、再贴现的利率优惠政策。金融机构借用再贷款发放的贷款加权平均利率不高于其运用自有资金发放的贷款加权平均利率。支持金融机构制定专门普惠信贷计划，在风险可控的前提下，可自主确定小微企业贷款资金支付方式。将单户授信1000万元及以下小微企业贷款纳入再贷款合格抵押品范围。', '（十六）创新金融产品和服务。鼓励金融机构加强对困难企业分类帮扶，对重点帮扶企业实行降低贷款利率等措施。大力发展应收账款融资，进一步扩大应收账款质押融资规模。支持金融机构发行金融债券、信贷资产证券化、同业存单、大额存单等金融产品，利用成本更低、期限更长的主动负债工具，替代高成本负债产品。大力发展设备融资租赁。推进“银税互动”贷款，鼓励银行机构和税务部门建立信息共享机制，在商业可持续、风险可控的前提下，对已有纳税记录、无不良信用记录并已达到一定纳税信用级别的纳税人发放“银税互动”贷款。对符合条件的企业，鼓励经办银行发放信用贷款，并给予利率优惠。', '（十七）加强担保体系建设。对政策性融资担保机构的设立、合并、增资开设绿色通道，支持银行业金融机构与政策性融资担保机构和再担保机构合作，积极争取国家小微企业融资担保业务降费奖补资金，加大对小微企业融资担保业务降费奖补力度。鼓励政策性融资担保机构降低担保费率，全市政策性融资担保机构平均担保费率下调至1.5%以内。', '（十八）拓宽民营企业融资渠道。推动“上市驱动”工程，强化对后备上市主板企业的引导和培育，对列入后备上市企业按股改、辅导备案、审核通过、成功发行等环节实行分阶段奖励，累计奖励不超过500万元；企业在“新三板”挂牌成功后，一次性奖100万元，企业转主板上市后、再奖励400万元。非上市股份公司在区域性股权交易市场挂牌（不含展示）成功后，一次性给予10万元奖励。大力实施“引金入白”计划，并围绕矿产新材料、旅游、矿泉水、医药健康、现代服务等产业，引导民间资本参股或组建绿色产业投资基金、绿色产业引导基金。积极鼓励民营企业按照央行推出的民营企业债券融资和股权融资政策，开展债券融资，按融资金额5‰给予奖励，上限不超过50万元，以市场化、法治化方式缓解民营企业债券、股权融资难问题。', '（十九）完善续贷政策。引导金融机构建立健全续贷机制，对企业融资到期需要续贷且符合续贷条件的，按续贷政策办理，续贷情形不单独作为下调贷款风险分类的因素。推动金融机构挖掘市内企业资金需求特点，积极开发循环贷款、年审制贷款、分期还本付息等贷款产品和服务方式。', '（二十）拓宽贷款抵（质）押物范围。对于符合法律、法规和政策规定，权属明晰、取得产权证书或证明权证的各类不动产、动产、知识产权、商标权及其他财产权利，用于向银行、保险、融资担保、小额贷款、民间融资等机构进行抵（质）押担保或抵（质）押反担保时，各登记部门应给予办理抵押权、质押权登记。', '责任单位：市银保监局、市金融办、人民银行白山市中心支行、市法院、市自然资源局、市住建局、市市场监督管理局、市林业局', '（二十一）改进不动产抵押登记办理方式。对于金融机构与企业达成续贷协议的，可将前一笔贷款已经设立的抵押权注销登记和新一笔贷款需要办理的抵押权设立登记一并受理、同步审核、分别登簿，实现不动产抵押权注销登记与抵押权设立登记无缝对接。对以抵押贷款购买不动产的民营企业，将转移登记（或预告登记）与抵押登记同步受理、分别办理。', '（二十二）推进企业“无籍房”登记。开展民营企业“无籍房”梳理排查，对因历史遗留问题不能办理不动产登记的，自然资源、住建、消防等部门要主动了解企业存在的问题，建立工作台帐，提请政府研究解决。加快不动产登记工作，保护企业的合法权益，推进“资源变资产、资产变资本”。', '（二十三）积极化解债务风险。支持金融机构在依法合规、风险可控前提下，积极运作重组、追偿、核销、转让等多种手段，加快处置不良资产。支持金融机构通过向金融资产管理公司、地方金融资产管理公司打包转让不良资产等方式，多渠道处置不良资产。支持金融机构面向发展前景良好但遇到暂时困难的优质企业开展市场化债转股。推动金融机构用足用好现有核销政策，做到应核尽核。', '（二十四）帮助企业纾困。设立总额为5000万元的中小企业周转基金，致力于缓解中小企业临时性融资接续困难，缓释企业资金链断裂风险，切实保障符合产业政策、运营健康良好、具有发展潜力的企业临时性融资接续需求。', '（二十五）支持民营企业参与国有企业改制和兼并重组。支持民间投资主体对国有企业进行产权收购、股权收购、可转债认购、出资入股、股权置换，或与国有企业合资新设企业等，鼓励民间资本控股经营。民营企业并购国有企业，参与分离办社会职能和企业改制的，按有关规定执行企业改革的相关优惠政策；被兼并重组企业原享受的其他优惠政策，符合相关规定的可继续执行。支持企业间战略合作和跨行业、跨区域兼并重组，提高规模化、集约化经营水平。对企业在进行兼并重组过程中，所发生的涉及房产和土地资产过户形成的地方贡献给予适当奖励。', '（二十六）实施“大企业培育”“小升规”和“个转企”专项行动。强化项目、资金、人才等方面扶持，对年销售收入首次超过 10 亿元、20 亿元、50 亿元的民营工业企业，给予年度新增贷款利息不超过 50%比例贴息支持。支持发展总部经济，对国内外知名企业在我市落户的地区总部、研发中心、采购中心等给予适当补助。实施中小企业成长培育计划，对“限下变限上”“资质以下变资质以上”的企业每户奖励3万元；对首次升规工业企业，在每户奖励10万元的基础上，再通过“小升规”工业企业培育专项资金给予一次性10万元无偿补助。符合条件的“个转企”企业按国家有关政策规定享受企业所得税、教育费附加、地方教育附加、残疾人就业保障金等税费减免。对符合减免税条件且纳税确有困难的“个转企”企业，报经税务机关批准后可减免其房产税、城镇土地使用税。各县（市、区）政府要在本级财政预算中安排中小企业和民营经济发展专项资金。', '（二十七）支持民营企业技术改造和创新发展。实施新一轮技术改造行动，运用技改贴息、综合奖补、智能制造、机器人应用、节能降耗等专项扶持政策，对规上企业普遍开展技术改造。实施创新型企业快速增长行动，加快培育高新技术企业和科技小巨人企业。2019年起，对当年认定的高新技术企业、科技小巨人企业分别给予20万元、10万元补贴扶持。鼓励民营企业加大研发投入，规上工业企业研发投入占主营业务收入达到3%的，按其新增研发投入的5%给予支持、最高不超过100万元。', '（二十八）完善创业创新服务体系。加强中小企业综合服务机构建设，搭建白山中小企业服务云平台，到2020年实现省、市、县中小企业服务网络全覆盖。推动市中小企业公共服务示范平台提档升级，提升专业化服务能力。加快创业创新基地建设，对创建为国家级、省级孵化器和“双创”基地的分别给予一次性50万元、20万元补助。对新获得国家级、省级认定的众创空间，分别给予20万元、10万元补助。对省级以上科技企业孵化器、大学科技园和众创空间自用以及无偿或通过出租等方式提供给在孵对象的房产、土地，免征房产税和城镇土地使用税；对其向在孵对象提供孵化服务取得的收入，免征增值税。', '（二十九）加大民营企业引才育才支持力度。实施领军企业家五年培育计划，每年选派50名市内优秀民营企业家到珠三角、长三角等发达地区考察学习。每年遴选10名左右40周岁以下的全市规模以上企业接班人，到浙江湖州相关企业挂职锻炼。对创新创业团队中的高层次人才、急需紧缺人才和特殊人才，可放宽学历、专业技术职称等条件限制聘用，已有专业工作经历、学术或专业技术贡献，可作为职称评聘的依据。每三年评选一次市级优秀项目研发人才团队，每个人才团队由市级财政一次性给予30万元资助资金。5年内，帮助企业实现累计新增销售收入5亿元以上的科技创新人才团队，同级财政一次性给予100万元的再奖励。对当年设立院士工作站、博士后工作站、博士生导师工作站、博士工作站并开展工作的企事业单位，给予10万元的建站经费；在白山重点产业关键领域、共性技术研发等方面取得显著成效的院士专家团队，根据研发成果市场前景、经济效益等情况，一次性给予10-30万元的创新研发扶持资金。', '（三十）进一步放宽市场准入。全面落实全国统一的市场准入负面清单制度，清单以外的行业、领域、业务等，各类市场主体皆可依法平等进入。推动“非禁即入”普遍落实，积极引导支持民间资本进入交通运输、基础设施、油气、电信、养老、医疗、教育等社会文化事业领域。加快推进“证照分离”改革，疏解“堵点”，解决准入不准营问题。鼓励支持民营企业和民间资本通过出资入股、收购股权、股权置换等方式，参与市国有企业混合所有制改革。', '（三十一）完善公共资源交易管理。落实招标采购项目招标文件及相关附件上网工作，降低企业获得有效信息的成本。创新保证金模式，在招标活动中，推进保证金由第三方银行全流程电子化统一收取及退缴制度，并推进保证金保函制度。推动公共资源交易“互联网+”模式，在招标采购活动中广泛采用电子招投标方式，推动电子化交易平台全覆盖。对于直接采用协议转让方式转让国有资产项目的交易费予以全额减免。', '（三十二）推进“政务一网通”改革。深化行政审批制度改革，减事项、减要件、减环节、减证照、减时限，公布“政务一网通”事项目录，建成全市一体化网上政务服务平台，实现政务服务事项网上可办率达到90%以上。', '（三十三）简化投资项目审批流程。加快推进市在线政务服务平台建设，制定公布市“马上办、网上办、就近办、一次办”审批服务事项目录清单和公共服务事项清单，优化审批流程，实行各类投资审批在线并联办理。大幅压缩投资项目落地时间，对国家鼓励类企业投资项目探索不再审批。对不新增用地的技改项目，推行承诺备案制。政府部门在审批过程中委托开展的技术性服务活动，必须通过竞争方式选择服务机构，服务费用一律由部门支付并纳入部门预算。依托投资项目在线审批监管平台，全面实行网上并联审批，实现“一口进出、信息共享、并联办理、限时办结”。企业一般项目开工前的审批时间压缩至50个工作日，有特殊条件要求项目开工前的审批时间压缩至80个工作日。', '责任单位：市发改委、市政务服务和数字化局、市商务局、市自然资源局、市生态环境局、市住建局、市水务局', '（三十四）深化商事制度改革。在全市范围内对涉企行政审批事项分别按照直接取消审批、审批改为备案、实行告知承诺、优化准入服务等四种方式实施“证照分离”改革，大幅削减涉企证照事项，常态化企业开办3个工作日内办结；实现高频办事事项“一证通办、一网通办、一窗通办、一城通办”全覆盖。推广使用电子营业执照，全面推行企业登记全程电子化。完善事中事后监管制度，强化“双随机、一公开”监管，进一步整合双随机抽查事项，推行多部门联合抽查，实现“一次抽查、全面体检”。推动产品检验检测结果和产品认证实现互认，采信第三方认证结果。', '（三十五）推进“照后减证”。公众聚集场所仅变更名称或者法定代表人的，无法提供建设工程消防验收或者竣工验收消防备案手续的，可以提供原《公众聚集场所投入使用营业前消防安全检查合格证》代替，消防部门应当依法受理。2009年5月1日以后已取得消防审批手续的建设工程，申请人在办理《公众聚集场所投入使用营业前消防安全检查合格证》时，无需向消防部门提供整体建筑消防审批手续。对投资额在50万元以下或者建筑面积在500平方米以下的建筑工程，取消消防设计和竣工验收消防备案。', '（三十六）严格执行涉企保证金清单管理制度。国家和我省公布的涉企保证金目录清单之外的涉企保证金项目（完全市场化行为产生的保证金，以及金融机构缴纳的保险、保障基金除外）一律取消，各级行政机关新设立涉企保证金项目必须依据法律、行政法规规定或经国务院批准。推广以银行保函或保险公司保单的形式缴纳保证金。', '（三十七）建立政企联系沟通机制。认真落实激励广大干部新时代新担当新作为的有关规定，把支持民营企业发展作为一项重要任务，建立市、县领导和相关经济部门定点联系民营企业工作制度；健全政府职能部门和企业家沟通交流机制，开展“百名干部进百企”活动，选派百名政治素质高、专业能力强的干部进入企业服务，支持引导民营企业高质量发展，协调解决民菅企业遇到困难和问题；健全企业家参与涉企政策制定机制，各级党委和政府及相关职能部门作出涉及企业重大利益的决策时，要广泛征求工商联、行业协会、商会和相关企业的意见建议；定期开展“进园区、进企业、送政策、送服务”等活动，让企业从政策和服务中增强获得感。', '各地各部门各单位要建立和完善政策信息发布制度，扩大政策知晓面，提高政策可及性。要细化制定具体措施，建立健全降本减负工作机制，加强统筹协调和跟踪服务，确保不折不扣执行到位。市委督查室、市政府督查室负责政策落实情况的常态化督查。将各地、各部门落实执行政策情况纳入绩效考核。对政策措施落实不力的地区和部门予以通报，对不作为、慢作为、乱作为的典型案例，要严肃追责问责并及时曝光，对问题严重的追究相关领导和人员责任。', '本《实施意见》自颁布之日起施行（意见中涉及国家和省有关意见，遵照国家和省政策期限施行）。《关于突出发展民营经济的实施意见》（白山发〔2013〕6号）和《关于进一步促进民营经济发展稳定经济增长的若干意见》（白山发〔2015〕8号）同时废止。本《实施意见》所列奖补资金由税收受益区域政府承担。']</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A186" t="n">
+        <v>53</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
           <t>李晋修会见伊春市学习考察团</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>2009-10-19</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_306984.html</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>['10月16日，由黑龙江省伊春市市长、林管局局长王爱文带队的一行30人考察团来我市，就旅游和绿色食品产业情况进行学习考察。', '在市宾馆会议室，市长李晋修，副市长贾骞向考察团介绍了我市经济发展情况和支柱产业情况以及旅游和绿色食品产业情况。市政府秘书长臧立平，市长助理、市发改委主任王永和参加了会议。', '听取汇报后，伊春考察团表示，伊春市和白山市是两个非常相似的城市，在生态资源和旅游资源方面有很多共同之处，希望我们两地携起手来，搭建旅游合作框架，为促进双方共同发展做出努力。']</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A187" t="n">
+        <v>53</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
           <t>长白县为五有一创工程扎实推进提供保障</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>2012-02-23</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_311088.html</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>['长白县委早谋划、早安排、早落实，把今年社区基层组织建设“五有一创”工程作为一项重要的基础性工程来抓，有效整合资源，采取措施，取得初步成效。', '为了加强组织领导，该县委召开专题会议研究落实“五有一创”工程，明确了每名县委常委包保1个社区的工作任务。县委常委、组织部长深入到社区进行调研，了解情况，摸清底数；并召开部长办公会，对社区“五有一创”进行专题研究，吃透上级精神，理清工作思路，明确工作重点和工作措施。同时，将社区场所建设列为2012年的工作重点，县委领导带头，多次深入社区现场办公，研究解决社区场所选址、建设经费等问题，并为每个社区安排了3个县直部门(单位)对场所建设进行包保。目前，长白镇塔山社区、绿江社区已开工修建，长白镇长松社区、民主社区已做好今年春季动工建设的各项准备，年内长白镇4个社区场所将全部建成并投入使用；其他6个乡镇社区场所建设方案已形成，力争在年底前完成建设任务。', '在强化推进措施上，他们积极研究解决社区党建经费。通过县财政配套、党费支持等方式，每年为每个社区提供不少于1万元的党建经费。还加强社区干部队伍建设。积极筹备社区干部专项培训工作，计划今年一季度组织全县社区干部和相关部门工作人员，到省内党建工作开展好的社区进行考察学习；做好新选聘社区党组织副书记和党组织书记(居委会主任)助理的培养、培训和管理工作；按上级精神，积极开展选聘社区工作人员有关工作。并对社区困难群众进行结对包保帮扶。据了解，今年至今，该县级领导、县直部门(单位)和机关党员干部深入各社区贫困群众家中进行走访慰问，共走访贫困群众715户，投入资金36万元，帮助困难群众解决生产生活难题312件。']</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A188" t="n">
+        <v>53</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
           <t>浑江区南下招商纳贤促转型跨越发展</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>2013-07-16</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>http://www.hunjiang.gov.cn/zw/hjyw/201706/t20170623_133285.html</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>['一家大企业，赛过百家小企业。对于浑江区而言，招大商、引强企，无疑是实现转型跨越发展，扩充区域经济总量的最佳途径。近日，浑江区委书记费洪海、区长胡波率领十几人的招商团队走进上海、宁波，拉开了2013年浑江区在长三角地区招商引资、招贤纳士的序幕……', '为将浑江区的优势产业更好地向外界推介，7月7日，浑江区与宁波企业家协会、企业家联合会、工业经济联合会在宁波举行了吉林省白山市浑江区投资合作（宁波）项目推介会。区长胡波作了主旨推介讲话。区委书记费洪海代表浑江区，向来宾表示欢迎和感谢。他说：“浑江区地缘优势明显、交通条件优越、创新资源密集、产业基础厚实、投资环境优越。我们将本着“一事一议、特事特议”的原则，竭诚为海内外投资者服务，让有志于到浑江投资兴业的有识之士得到丰厚而满意的回报。”', '此次浑江区赴上海和宁波重点推介的项目具有鲜明的地方特色。亮相的12个项目是由浑江区精选而成，投资前景良好，项目涵盖了城市综合体、生物技术与新医药、旅游三个领域。推介会现场播放了浑江宣传片和项目介绍片，每个参会嘉宾的座位上都精心准备了一个蓝色的袋子，里面是关于浑江区风土人情、资源特色的精美画册和招商项目手册，让企业代表更直观地认识浑江，了解项目。推介会结束后，就有10余家企业代表找到商务局工作人员主动接洽，表达了投资落户的初步意愿。', '区属重点企业东北亚新型建材依托该区拥有紫砂陶土的优势上了一条紫砂陶生产线，急需提高生产工艺和技术等。为帮企业突破瓶颈寻求发展，约见国家高级工艺美术师、中国陶瓷艺术设计大师葛军也是此次沪浙一行的重头戏之一。通过与葛军的深入交谈，浑江区领导诚恳的态度、务实的作风、求才若渴的想法、想事干事的精神深深打动了葛军大师。他说浑江区领导为帮助企业发展，不惜千里招贤纳士的精神让他很感动。他豪爽的答应，如果企业需要建立紫砂陶展览馆，他将全力以赴支持和帮助。宜兴紫砂学院也将免费为浑江区培训学员，并帮忙推荐优秀人才到浑江工作，促进浑江做大做强紫砂陶产业。', '在上海，浑江区招商小分队参加了由上海前滩新兴产业研究中心举办的2013改革论坛，不仅聆听到中央党校教授和原商务部副部长的精彩演讲，开拓了眼界、丰富了思想，也通过主办单位着重的推介实现了与与会企业沟通和交流，将浑江区的项目进行了有效推介。', '学习考察，推介招商、招贤纳士等系列活动的开展，必将把浑江区与长三角地区的交流与合作推向一个新的发展阶段。']</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A189" t="n">
+        <v>53</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
           <t>年度长白好人事迹材料姜彦庆</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>2014-12-15</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>http://www.changbai.gov.cn/zwgk/gsgg/201801/t20180110_260206.html</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>['姜彦庆，男，今年75岁，是八道沟镇十一道沟村一个普普通通的农民，也是长白县第一个尝试种植草莓的人。20多年来，老姜不断探索草莓种植技术，更新引进草莓新品种，热心传授乡亲草莓栽培技术，在他的带动下，十一道沟村已经有80%以上的村民发展该项目，现在草莓种植已经是十一道沟村的“一村一品”特色产业项目。', '姜彦庆是个闲不住的人。由于种庄稼是季节性的农活，得靠天吃饭，赶上好年头，种粮食收入就多点，若是流年，种粮食也仅够一家人糊口。为此，从20多年前开始，老姜就开始琢磨发展点其他的产业，增加家庭收入。', '有了这一想法之后，老姜便开始仔细观察研究各种农产品的季节特点和产业商机。经过研究，老姜发现每年草莓成熟上市的时候正是其他水果的淡季，而且草莓香甜可口，是老少皆宜的水果。看准这一商机之后，老姜对发展草莓种植项目就更上心了，他开始不断的查看书籍和相关信息，并自费到外地考察学习。', '1994年，老姜开始研究种植草莓，当时草莓品质差、产量低，市场效益不明显，但是老姜却在试种中摸索到了一些种植草莓的方式方法，对草莓的习性更加了解了。2000年秋，老姜通过村委会的帮助，从吉林农科院引进“索菲娅”草莓新品种，又开始了试种，这次使他的草莓产业真正走上了正轨，收入也比往年增加了很多。到2001年春，试种的草莓亩产均就达到了4000斤以上，而且产出的草莓个大、味甜、耐储藏，深受消费者的欢迎，每亩纯收入达到了2500元以上，看到种草莓有真么好的收益，老姜这心里美滋滋的。', '种植草莓不是件容易的事，而要种出品形好、口感好、干干净净的草莓更不是件容易的事。刚开始尝试种植草莓的时候，老姜没少吃苦，但老姜是个爱钻研的人，遇到困难会想方设法的客服困难，比如，不论是在田地里种草莓，还是在大棚里种草莓，在下雨或浇水的时候，都会渐得草莓满身泥，为克服这一难题，老姜就想出了用草覆盖垄沟的方法，这样不仅防止将泥渐到草莓上，还保持了土壤水分，一举两得。', '为了一年四季都能有新鲜草莓上市，老姜不断探索用冬季用暖棚种植草莓、春季用冷棚种植草莓和大田地种植草莓的方法，并分别进行试种。经过几年的探索和总结经验，现在老姜成功的实现了一年四季都有新鲜草莓上市的想法。', '村民们看着姜彦庆种植草莓赚的钱越来越多，许多村民也萌生了种植草莓的想法，便开始到老姜家取经。老姜本就是个热心肠的人，每次别人问他草莓种植方法和技术难题的时候，他都会毫无保留的进行讲解，甚至亲自到村民的大棚中传授育苗、病虫害防治等技术，就这样，在老姜的带动下，许多村民都加入到了种植草莓项目的队伍中。每次乡亲们唠起老姜的时候，都说：“他真是我们村的大好人”。', '老姜的草莓发展过程和他的辐射带动作用，十一道沟每位村干部都是看在眼里、记在心上的，并与2009年由村党支部和村委会牵头，组织种植户成立了“广盛草莓种植合作社”，形成“一村一品”专业种植模式。', '合作社成立以后，村民种植草莓有了技术交流平台，对各项惠农政策也都能第一时间掌握。2011年，合作社争取上级专项补助资金230万元，完成占地4700平方米的10栋草莓暖棚和占地200平方米的10栋管护房建设。2012年，合作社筹措资金130万元，分别于2012-2013年完成占地2400平方米的5栋草莓暖棚和100平方米的5栋管护房建设。2013年，合作社争取兴边富民资金30万元，完成210亩草莓基地土壤改良、滴灌安装和50立方米蓄水池建设。同时，合作社看到村民种植草莓品种过于单一，便结合本村实际，外出考察后引进佐贺清香、九九、张记3个新品种。', '现今，十一道沟村裸地种植草莓180亩，每亩收入达到1万元，实现毛收入180万元；15栋暖棚进行草莓、西瓜、香瓜3茬轮作，每个暖棚收入达到6万元以上，实现毛收入90万元；38栋日光棚进行草莓、西瓜、香瓜2茬轮作，每个棚收入达到2万元以上，实现毛收入76万元。扣除投入成本90万元，仅此一项农民可实现纯收入256万元，人均增收1万元以上，产出的产品少数当地销售外，大多销往白山、通化、长春、沈阳、黑龙江等地，且供不应求。', '现在我们走过十一道沟村，便会看见村民们在路边撑起的一个个遮阳伞，销售着新鲜的草莓，如今这已经是鸭绿江畔一道亮丽的风景线。']</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A190" t="n">
+        <v>53</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
           <t>关于白山市城区建筑外立面管理条例草案面向社会征求意见的公告</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>2017-09-21</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="F190" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/hd/yijianzhiji/xzlfyjzj/201805/t20180519_308110.html</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>['《白山市城区建筑外立面管理条例（草案）》已经2017年9月8日白山市第八届人民代表大会常务委员会第五次会议进行了第一次审议。按照《白山市人民代表大会及其常务委员会立法条例》的规定，现予以公告，面向社会广泛征求意见和建议。', '现对《白山市城区建筑外立面管理条例（草案）》（以下简称《条例》）的起草情况作如下说明：', '1.现有法律、法规已不能满足建筑外立面装饰装修、外立面改造、顶部屋面改造、平时维护活动的监督管理的需求。', '2.法律、法规对外立面的规定相对分散，内容不是十分详细，外立面装饰装修违法行为的行政处罚职责不明确。', '3.多个城市制定了地方的建筑外立面管理条例，内容侧重点不尽相同，很有借鉴意义，我市在建筑外立面管理上相对落后，管理相对不到位，难点很多，需要对建筑外立面管理进行立法。', '《条例》主要依据为《中华人民共和国城乡规划法》、《城市市容和环境卫生管理条例》、《吉林省城乡规划条例》、《吉林省城市市容和环境卫生管理条例》等相关法律、法规。', '《条例》列入市人大常委会2017年度立法计划后，由大城环委牵头，成立了起草《条例》的工作机构，确定了工作方案，组织起草《条例》。《条例》初步形成后，市人大城环委及规划局分别组织相关单位和专业人员召开座谈会，对草案进行调整、修改。期间向各县市区人大征求意见，并赴宜昌市、徐州市和济南市就该《条例》立法情况进行了学习考察，借鉴其立法经验。对《条例》进行了进一步修改、完善。随后将修改后的《条例》印制200余份，发送给部分市人大代表、政协委员、法律咨询员、各县（市、区）人大常委会、各有关部门、离退休老干部、民主党派及市、区两级法院、商业建筑产权单位、牌匾制作单位、临街商铺，广泛征求意见。共征集50余条意见，整理16条。根据此次征求意见结果，组织召开了关于《条例》完善修改座谈会，邀请市人大常委会法工委、浑江区政府、江源区政府、市城管大队、市住建局、市国土局、市工商局、市消防大队、市交运局、市环保局、市法制办及法律咨询员对征集到的建议进行梳理、筛选，修改完善《条例》。经过多次征求意见和多次修改，形成了目前的《条例》。', '2.五至十五条，对建筑外立面管理进行了详细规定，主要是关于成片区建筑外立面的改造、外立面装饰装修、保护建筑和古建筑外立面装饰装修及广告牌匾等。', '1.《条例》把建筑物屋顶改造活动的管理加入本条例中。近年来我市在屋顶私搭乱建成为重灾区，因此建筑物屋顶改造活动的管理加入本条例，对未来城市管理有法可依创造了条件。', '3.《条例》对建筑物外立面管理责任人，对建筑物外立面管理主管部门进行了明确阐述，同时对外立面改造活动所需办的手续进行了规定。', '第一条 为了加强白山市城区建筑外立面管理，创造整洁、优美城市环境，根据《中华人民共和国城乡规划法》《城市市容和环境卫生管理条例》《吉林省城乡规划条例》《吉林省城市市容和环境卫生管理条例》等法律、法规，结合本市实际情况，制定本条例。', '第二条 本条例所称城区指浑江区、江源区行政区域内的城市建成区以及实行城市管理的其他区域。', '本市城区范围内建筑外立面装饰、装修、包括外立面改造、顶部屋面改造、平时维护等活动的监督管理，适用本条例。', '第三条 本条例所称建筑外立面，是指建筑、构筑物和其他设施的外侧立面以及建筑物屋顶。', '第五条 对本市城区建筑物外立面实施成片区统一改造的，组织实施单位应当向市人民政府城乡规划行政主管部门提供符合本市相关规划要求的设计方案，并将批准的方案予以公示。', '第六条 对本市城区建筑物外立面进行装饰装修，改变建筑物外立面原有的主体色调、造型和设计风格的，组织实施单位应当向市人民政府城乡规划行政主管部门提供符合本市相关规划要求的设计方案，并将批准的方案予以公示。', '第七条 利用建筑外立面设置夜景灯光的，应当提供设计方案，征求市人民政府城乡规划主管部门意见，并将批准的方案予以公示。', '第八条 建筑物外立面进行装饰装修、改造等活动涉及建筑物、构筑物结构安全或公共安全的，申请人应持市城乡规划主管部门批准的建筑外立面改造方案到市建设行政主管部门办理相关施工管理手续。', '第九条 各类保护规划确定保护的建筑外立面装饰装修活动，法律法规另有规定的，从其规定。', '第十一条 建筑外立面装饰装修不得增加使用面积、改变房屋权属登记确定的界线、改变建筑使用功能、改变建筑结构；', '建筑外立面装饰装修的行为涉及超出申请人房屋使用权、所有权部位的行为，须征得相关产权人的同意。', '第十二条 建筑物、构筑物和其他设施（包括建筑外立面附加设施和附加设备）的所有权人是建筑物外立面维护管理责任人。所有权人与管理人、使用人之间约定建筑物外立面维护管理责任的，从其约定。', '（一）实行物业管理的居住区的责任人为物业管理单位，未实行物业管理的居住区的责任人为街道办事处或者原产权单位；', '（二）使用建筑物、构筑物的市场、商场、宾馆、饭店等商品交易或服务场所，责任人为经营、管理单位；', '第十三条 在建筑物外立面上安装防盗防护设施、遮阳棚、排气排烟设施、管线设施和空调外机、太阳能设备、空气能设备等附加设施和附加设备，应当保持其安全、完好、整洁、有序。', '附加设施和附加设备不得占用人行道和建筑物内的出入口、过道、楼梯等共用部位以及其他用于安全疏散和施救的通道。', '第十四条 建筑外立面的维护管理责任人应当对其建筑外立面定期检查、清洗和维护，保持建筑物外立面整洁、美观、安全；对有使用保质期的材料和饰品按时检查和更换；对破损、脱落、锈蚀、变色、污浊的及时修复、清洗、粉刷、更换或拆除；对出现安全隐患的建筑外立面装饰及及附加设备、附加设施及时加固或者拆除，消除安全隐患。', '（一）损坏、拆除建筑物外立面统一设置的各类设施或者改变其位置、规格、式样以及颜色；', '（二）擅自在建筑物外立面开门、开窗或者改变原有门窗尺寸、形状和位置，改设橱窗；擅自封闭阳台、伸出雨蓬；', '第十六条 违反本条例第五、六、七、八、九条规定的，建筑外立面装饰装修行为未经审批或不符合审批内容的，责令停止建设。限期改正，并处建设工程造价百分之五以上百分之十以下罚款。', '第十七条 违反本条例第十五条第（三）、（四）项规定的，责令停止建设。限期改正，并处建设工程造价百分之五以上百分之十以下罚款；作出责令停止建设或者限期拆除的决定后，当事人不停止建设或者逾期不拆除的，并在法定期限内，不申请行政复议或提起行政诉讼的，市、区人民政府可以责成有关部门采取查封施工现场、强制拆除等措施。', '第十八条 违反本条例第十五条第（一）、（二）、（五）、（六）、（七）项规定的，责令停止该项行为。限期改正，恢复原状，并处建设工程造价百分之五以上百分之十以下的罚款。', '第十九条 违反本条例第十五条第（八）项规定的，责令停止建设，并经相关部门批准，恢复或重建承重结构，并承担相关经济和法律责任。', '第二十条 违反本条例第十五条第（九）项的，责令限期清除，并处以一千元以上一万元以下罚款；涂写、刻画、张贴、印制内容中有违法行为人通信号码的，通知其限期接收处理；逾期不接受处理的，书面通知通信企业暂停该通信号码的使用；违法行为人接受处理后，应当及时通知通信企业恢复其通信号码的使用。', '第二十一条 有关行政管理机关违反本条例规定的，由其主管机关或者监察机关依法责令改正、通报批评；对建筑物外立面负有管理责任的国家工作人员玩忽职守、滥用职权、徇私舞弊的，依法给予行政处分；构成犯罪的，依法追究刑事责任。', '第二十二条 违反本条例规定依法应当给予治安管理处罚的，由公安机关依法实施；构成犯罪的，依法追究刑事责任。']</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A191" t="n">
+        <v>53</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
           <t>关于推进市直义务教育学校均衡发展工作情况</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>2018-08-14</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>http://xxgk.cbs.gov.cn/jsly/jyly/201808/t20180814_350739.html</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>['市教育局有直属义务教育学校8所，其中完全中学1所，普通初中2所，九年一贯制学校1所，九年一贯制民族学校1所，特教学校1所，小学2所；', '积极落实整改意见，借助实施“全面改薄”有利契机，在落实政策、加大投入、强化管理、提高质量等方面做了大量工作，有力推动了县域义务教育从基本均衡向优质均衡升级，从外延均衡向内涵均衡升级。2016年，上述4个县（市、区），投入资金1.28亿元，其中本级投入4521万元，改扩建学校38所，新增学位310个，新增校舍面积2.9万平方米、体育场馆面积1.7万平方米、实验室和功能室23间、教学仪器设备788.3万元、图书1.2万册、计算机1078台，补充教师185人，交流校长教师459人，为农村地区选拔输送特岗教师248人。', '公众满意度为95.4%，靖宇县公众满意度为96.4%。市级复评得分分别为96.7和95.9。随后，市教育督导室和市直各义务教育学校认真落实了省检整改意见，由4所学校代表浑江区参加了国检，受到了国检组的好评，并于2017年7月4日顺利通过了国家对浑江区人民政府推进县域义务教育均衡发展工作评估和认定，', '近三年来，市委、市政府高度重视义务教育均衡发展工作，以打造质量一流、人民满意的市直教育为目标，以规范管理、提高质量、创新特色、促进均衡为重点，解放思想、创新举措、真抓实干，市直义务教育均衡发展水平越上了新台阶。', '市委、市政府把“推进均衡”作为教育改革发展的重要任务，纳入全市中长期教育改革和发展的实施意见和“十大工程”中，明确了目标任务和推进措施，落实了教育、人社、发改、财政、编办等政府涉教部门的职责。市政府先后3次召开常务会议和专题会议，研究义务教育均衡发展问题；主管市长多次召开会议听取工作情况汇报。市教育局从市区一体的发展大局出发，把均衡发展作为教育重点工作任务纳入教育规划和工作计划，先后多次召开局长办公会研究解决相关问题，确立了市直与全市义务教育同步规划、同步推进、同步实现均衡的目标。', '财政、审计和监察等有关部门切实加强监督检查，确保学校公用经费安排使用、贫困学生补助和学校收费等行为的规范性。', '查、达标建设、评估验收、分步推进的工作思路。2015年底开展了市直义务教育学校达标普查，为确定均衡发展的重点任务和阶段目标奠定了基础。', '市直义务教育学校达标验收各项工作任务，组织市直学校积极参加了全区义务教育学校达标验收培训会，认真组织开展了自查自评，于2017年3月全部通过了达标验收。为督促市直各义务教育学校与浑江区同步做好各项迎检准备工作，市教育督导室责成专人负责，召开专题会议部署迎检任务，安排责任区督学深入学校跟踪指导，并组成督导组逐校进行督导，及时督促整改，达到了以评促建的工作效果。', '市政府高度重视义务教育学校教师补充工作，教育、编办、人社共同发力，2014年以来先后3次面向社会公开招聘教师81人，招录免费师范生13人，为4所义务教育学校补充了师资，今年秋季通过公开招录、遴选的方式为市直学招聘教师25人。目前市直义务教育学校有教工编制907人，在编教工765人，空余编制142人，为补充新教师预留了空间。积极开展职称评聘，2014年以来有126名义务教育学校教师晋升了职称，确保了市直学校教师队伍的结构稳定。积极组织开展了全市中小学系列专业技术职务特设岗位竞聘工作，2015至2016年共有107名特设岗位教师到农村学校支教。', '目前，中小学中级和高级职称比例分别为47%和30.4%。义务教育学校骨干教师队伍中有省级骨干67人，市级骨干234人，省级名师工作室1个。同时，为提高教师待遇，', '市政府于2015年决定将中小学班主任津贴由原来的12元提高到200元，由市财政落实，有力调动了教师工作的积极性。', '年以来，对包括8所义务教育学校在内的3名校长和4名副校级领导进行了轮岗交流。同时，还注重加强校长后备梯队的培养和使用，先后有5名后备干部通过培养锻炼和竞聘上岗，被选拔到副校级领导岗位，有力地促进了校际间管理水平的均衡提高。切实加大了校长培训力度，有30名校级领导参加了国家和省集中培训，先后5次组织183名学校领导到域外学习考察，促进了校长专业素质的全面提高。目前市直义务教育学校校长队伍中，有省杰出校长1名，省专家型校长2名，省骨干校长15名。', '依托“国培” “省培”“市培”等资源平台，大力开展骨干教师、班主任等专项培训。近三年来，市直共有6732人次参加了各级各类培训，其中，“国培”48人，“省培”136人，市集中培训783人，远程培训5765人。充分发挥市直骨干教师的示范带动作用，定期组织开展市直校际间的集体备课、研讨交流活动和送课下乡活动。通过同课异构、互动交流等方式，共享先进的教育理念、教学方法和教学资源，促进了校际间、城乡间教学质量的均衡提高。近三年来共组织市直义务教育学校集体备课和研讨交流活动13次，参加教师650人次；组织市直骨干教师送课下乡10次，参与教师1200人次。2016年启动了“教师素质提升工程”，以提高教师师德水平和教育教学能力为主题，以提高教师专业化发展水平为导向，以“教育思想大讨论，专业知识大学习，教学技能大训练”等活动为载体，面向全体教师举办“白山教育论坛”，组织开展形式多样的教育和培训，促进广大教师整体素质和专业水平的全面提高。', '近几年来，市政府在经费保障、改善条件、师资配置、教学管理等方面给予了多方扶持。先后筹措资金90余万元用于装备实验室、图书室和班班多媒体等教学设备；投资520万元，新建2260平方米教学综合楼。为提高朝鲜族学校吸引力，保证生源的稳定，市教育局在招生政策上给予倾斜，规定学校招生可以不受学区限制，初中毕业生参加中考录取时，总分只要达到450分即可享受示范高中指标生录取政策。为全面提高学校的办学水平，市教育局在市直学校实施了“对口支援朝鲜族学校建设和发展工作”项目，通过市直学校共同援助的方式，全面提高朝鲜族学校内涵质量和办学水平。学校的教育教学质量不断提高，“三语”教学改革实验等项目取得了突破性成果。', '从2009年至今，通过向上争取、地方配套、社会捐助和学校自筹等渠道投入资金达1150余万元，新建了3000平方米的培智康复综合楼，建设了康复训练中心配套功能室和教学功能室，装备了配套的多媒体教学、康复训练、律动、体育训练和电子影像等康复设备和教学仪器设备，建设了5300平方米的塑胶操场，完善了校园设施，美化了校园环境。2015年以来，用于改善办学条件的资金累计达到393万元。市财政按照规定的生均6000元的标准拨付公用经费，并为全体学生免除了教科书费、学杂费，对寄宿生按照小学每生每年1000元，初中每生每年1250元给予生活补助。学校冬季取暖费用也由财政专项资金解决。市教育局还积极协调各相关部门和社会各界，对逸夫学校学生开展助学活动。', '目前，接纳三类残儿126人，占全市残儿总数的73%，全市适龄残疾儿童少年入学率达到89.3%。学校已发展成为以招收听障和智障学生为主，集基础教育、职业教育和康复训练于一体的特教中心，基本满足了残障群体接受义务教育、高中教育、职业教育和康复训练的需要。', '年市政府常会议研究决定，由市财政投入2400万元用于改善市直8所义务教育学校的办学条件，', '主要用于装备实验室、卫生室、计算机网络教室、音乐教室、美术教室等功能室的设施设备和图书、体音美器材、班班多媒体教学仪器设备等', '。在市教育局统筹下，白山市教育督导室、教育技术装备中心先后3次深入8所义务教育学校进行普查、摸底、调研，形成装备报告，由市教育局牵头，邀请财政有关部门领导、教育督导室、装备中心有关通知参加的市直义务教育均衡发展工作推进会议，确立装备项目，依法依规落实招投标工作，国检前全部完成装备工作任务。除此之外，2015年和2016年，市直义务教育学校用于改善条件、购置设备的投入分别达到2737.5万元和1739.6万元。同时各义务教育学校也通过调整公用经费支出、积极自筹资金等方式，提升教育技术装备水平。目前，市直', '坚持科学的质量观，着力推进教育教学改革，以改革促发展，向管理要质量。近年来，市教育局基础教育科、市教育学院以规范教学常规管理为切入点，实施了“教育教学质量提升工程”。市教育局印发了', '《市直中小学教学管理常规细则（试行）》和《市直中小学教学常规管理“星级学校”评估方案（试行）》等指导性文件。市教育督导室', '有效促进了教学常规的落实。各学校重新修订了学校教学管理制度，认真执行省定课程计划，积极开展了', '“导学案”、“小组合作学习”和“四环节”课堂教学模式改革，有力地促进了义务教育教学质量的稳步提升。2016年秋，以“教学案”为载体的“四环节”课堂教学改革模式、体育艺术教育“三小”进课堂实验项目和“时事综合课-时事地理”教学改革项目在第二届中国教育创新成果公益博览会上展示，获得行业人士的好评。', '的首要任务，积极开展了以提升办学质量、促进内涵发展为主要目标，以学校环境文化、教学文化、制度文化、精神文化、活动文化等为重点内容的教育文化建设工程，有效地引领校长和教师进一步转变教育观念，提升对学校内涵发展的思考力、领导力和执行力，市直学校管理初步实现了由粗放型向精细化的转变。为建立和完善更加有效的德育工作机制，市教育局提出了', '心理强健计划”和“家庭教育援助行动”，成立了心理健康教育指导服务中心和家庭教育指导中心，在各学校全面开展心理健康教育，开展家庭教育指导和咨询服务，积极构建家校合作促进学生学业水平提高的育人机制。以“体育大课间”为载体的学校阳光', '学校体育活动得到加强，学生每天在校一小时体育锻炼时间得到保证，积极推进“体育、艺术2+1”活动的落实，学校体育、艺术教育普遍得到重视，促进了学生全面发展，推进了素质教育的有效实施。', '把规范市直中小学办学行为、治理乱收费、乱补课、乱办班工作纳入重要工作日程，由局纪检监察室负责落实，作为年度重点工作进行考核。制发了《白山市教育局整治人情编班排座工作方案》，在白山教育信息中心网站和新闻媒体公开学校收费项目、收费标准等情况。市教育局会同市纠风办联合建立了市直教育系统“三级”纠风举报体系，在各学校设立了纠风室，发挥好行风监督员作用。为进一步完善学生学籍管理，控制“大班额”问题，市教育局印发了《学籍管理办法》，加大学生流动的宏观调控力度，科学合理地调整和划分学区，规范招生秩序，严格按照省定标准控制学校规模和班额。保证军人子女、进城务工人员随迁子女等特殊群体子女与本地居民子女享受同等接受义务教育待遇。为有效落实国家和省关于切实减轻学生课业负担的有关规定，市教育局印发了《关于进一步加强中小学教学管理工作的意见》《关于统一市区中小学生在校时间的通知》等指导性文件，通过严查严管等方式，严格控制学生在校时间和作业量，坚决杜绝违规补课、违规办班等行为的发生。切实加大校园安全保障监管力度，积极创建平安校园，通过公益性岗位为学校配备了专职保安人员，累计投入1200余万元对校园校舍、消防基础设施等进行了改造和更新，建设了校园安全监控平台，为所有学校建设了门禁系统。扎实开展专项整治行动，', '学校食品与饮用水、传染病防控措施有效落实。市教育局荣获全国校园安全教育先进单位称号，安全工作在政府重点工作目标责任制绩效考核中连续6年被评为第一名。近年来，市直各学校没有发生安全责任事故。', '通过深入推进义务教育均衡发展工作，市直教育整体发展水平得到大幅提升。但按照上级的要求，与先进地区相比我们还有一定差距：一是教育投入还不能很好地满足教育发展的需要，政府投入与教育需求矛盾仍比较突出。二是队伍建设仍需要加强，教师补充交流还需政策性突破。教师队伍整体结构优化程度还有待提高，教师专业化发展水平还不能完全适应教育现代化发展需要。三是义务教育均衡发展推进力度需要进一步加大。校际间在办学理念、师资力量、管理能力等方面还不均衡，与']</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A192" t="n">
+        <v>53</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
           <t>创新培训方式扶持产业大户依托协会发展</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>2012-05-03</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="F192" t="inlineStr">
         <is>
           <t>http://www.hunjiang.gov.cn/zw/hjyw/201706/t20170621_120652.html</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>['浑江区积极推行“321”工程，不断为农村培育新型人才和技术骨干，发展壮大村集体经济，加快农民党员创业带富步伐。', '采取3种模式创新培训方式。改变传统的“教什么，学什么”为“用什么，学什么”。农民党员定向赴外地挂职培训。由组织部门联系辽宁、山东等地农产品深加工龙头企业，每个镇选派两到三名文化水平相对较高、自身产业规模相对较大的优秀农民党员赴当地挂职培训半年到一年，全程参与企业的生产、销售、管理等各个环节，拓宽视野，提升能力。预计今年选派15名农民党员外出学习，区里拿出专项资金给予补贴。农民党员自主赴外埠学习考察。动员想干事、能干事、会干事的年轻农民党员到日照、寿光等地自主学习，涉及到的相关费用按比例予以报销。今年设立10万元专项基金，对外出自主学习的党员进行补贴。外请吉大、省中医药管理局等专家学者跟踪培训。依托“四方共建”、“千名处长进千村”等有利契机，邀请专家学者为全区农民党员和农业产业大户讲授农产品质量与标准化生产、市场营销等相关知识，并实行网上交流，跟踪培训。目前已有1000余名党员群众受益。', '着眼2个方面加大扶持力度。对特色产业种养殖大户予以资金支持。落实无息贷款、“三补一扶”等优惠政策，全区拿出50万元专项资金，重点扶持食用菌产业大户、五味子规模农户、特色养殖户等，使其尽快发展壮大，更好地发挥辐射带动作用。仅去年就有40余人获得补贴或无息贷款。领导和部门包保扶持产业大户。实行“一带三”、“一带一”计划，重点扶持产业大户，协调创业资金，扩大项目规模，拓宽销售渠道，解决在生产中遇到的实际困难。目前为产业大户协调资金100余万元，解决实事200余件。', '搭建1个平台构筑大协会格局。把区内产业相同或相近的合作社组织起来成立协会，通过规范新品种、新技术的引进，规避市场风险，发挥规模优势，打造特色品牌，提高竞争实力。依托大山合公司，整合区内11个食用菌合作社成立浑江区食用菌协会，依托冷水鱼、育肥牛、林蛙、蜜蜂、獭兔等成立特产养殖协会，依托五味子、中草药等特色种植业成立特色种植协会，全区三大协会格局已初具规模。']</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A193" t="n">
+        <v>53</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
           <t>市总工会大力进行困难职工帮扶中心建设全力打造民生工作平台</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>2008-08-20</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bmdt/201805/t20180519_302156.html</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>['为全面贯彻落实市委五届二次、三次全会和全市民生工作会议精神，市总工会举全会之力进行困难职工帮扶中心建设，积极争取上级工会资金支持，并先后两次组织全市六个县（市、区）工会到长春市和辽宁省丹东市困难职工帮扶中心进行学习考察，经过上半年的精心运用，到2008年7月底，全市六个县（市、区）困难职工帮扶中心已全部建成并投入使用，市直困难职工帮扶中心迁址改造建设也已基本完成。困难职工帮扶中心建设共投入资金120万元，其中六个县（市、区）帮扶中心建设资金70万元，市困难职工帮扶中心建设资金50万元。新建后的困难职工帮扶中心均达到了帮扶、救济、培训、法律咨询、法律援助为一体的一站式综合性帮扶体系，将极大地提高和发挥工会组织维护职工合法权益的效能和作用。']</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A194" t="n">
+        <v>53</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
           <t>工商管理局</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="E194" t="inlineStr">
         <is>
           <t>2013-09-27</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
+      <c r="F194" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/szf/szfjg/zszdw/201805/t20180519_323998.html</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>['1、为推进白山市工商局机关政务工作的规范化、程序化、科学化、制度化，进一步提高机关工作效率和工作质量，制定本规则。', '2、坚持以“三个代表”重要思想为指导，全面贯彻落实科学发展观，认真落实省工商局和市委、市政府的工作部署，明确政务工作职责和重心，全面履行各项工商行政管理职能。', '3、坚持为基层服务、为市场主体服务、为消费者服务的宗旨，解放思想，实事求是，与时俱进，开拓创新，依法行政，科学行政，努力为白山经济社会大发展、快发展服务。', '4、坚持实行岗位责任制，按照精简、统一、效能的原则，逐步建立精干的工作机构和健全的工作网络，建立责权明确、简易高效的工作程序和管理制度。市工商局领导、科室（分局）及工作人员职责清楚，分工明确，各司其职，转变作风，提高效率，努力创造和谐、有序的工作氛围。', '5、工作人员要严格依照法律法规、职能职责和规章制度行使职权，忠于职守，服从命令，保守国家机密和工作秘密，勤政廉洁，行为规范，不断提高履行岗位职责的能力，不断提高工作质量。', '（1）党组书记、局长主持全面工作，负责召集党组会、局长办公会、局务会和重要专题会议等；负责审定签发市工商局重要文件和重大专项决议、决定；负责向省工商局和市委、市政府等上级领导机关报告全面工作；负责组织安排本局工作，协调安排检查各分管局长的工作；负责审定本系统及机关重大事务等。', '（2）副局长、纪检组长，按分工负责组织管理分管方面的工作；负责分管对口的上级部门的工作联络和工作汇报，参加相关会议，协调处理相关工作。', '8、实行工作结果报告制度。凡重大事项及其处理结果，必须由责任人和分管领导及时逐级上报，重要情况应及时上报局长，根据需要，也可同时向省工商局、市委、市政府报告。', '9、认真履行领导岗位职责。局领导在职责范围内积极创造性地开展工作，自觉履行职责，自主安排工作事项，对日常工作按工作程序，采取简便易行，有利于提高效率的处置办法；对规定和需要提请上级审定、提交局长办公会讨论和决定的事项，应准备相关材料，提出明确的建议和意见，供决策参考；对突发事件，可根据实际情况及时稳妥处理，并且根据事件发展情况随时报告。', '市工商局各科室、派出分局、协会（以下简称各单位）按照职能分工，负责相应业务工作和全市工商系统对口业务工作的指导。各单位主要负责人应及时向分管领导请示报告本单位的业务工作和重要事项，对工作中的问题要提出解决的建议；对涉及工商系统全局的重要工作和重大建议，科室负责人亦可直接向局长报告。', '10、市工商局实行社会参与、专家咨询和领导班子集体决策相结合的决策机制，分为党组会、局长办公会、局务会、全体干部会议，要严格控制会议的数量和规模，一般专业性会议通过视频会议形式召开。', '（1）党组会议。主要研究下列事项：传达学习和研究贯彻党中央、国务院、省委、省政府、国家工商总局、省工商局、市委、市政府的重要文件和重要会议精神；讨论确定机关的机构设置、人员编制、职称评定、工资调整和干部的任免、调配、奖惩；讨论决定机关党的建设和系统廉政勤政建设措施；党组成员民主生活会；讨论研究党组书记、党组成员提出需交由党组会议决定的其他事项。会议由党组书记主持，党组成员和有关科室主要负责人参加，会议由办公室主任作记录；', '（2）局长办公会议。主要研究下列事项：年度工作安排和年度工作总结；落实市委、市政府、省工商局交办的工作；审议拟召开的系统性和专业性工作会议；讨论起草的重要规范性文件；研究全局性福利事宜；处理突发性事件；讨论研究局长、副局长认为需提交局长办公会讨论的其它问题。会议议题由局分管领导协调或审核后提出，报局长确定。会议由局长主持，副局长、纪检组长、有关科室（分局）主要负责人参加，会议纪要、备忘录由局长签发；', '（3）局务会议。主要研究下列事项：讨论研究全市工商行政管理工作的长远规划及重大问题，制定各项工作计划的具体实施方案；听取各科室（分局）年、季或月份工作汇报，总结经验，研究下步工作；审议财务上的重大支出；局长、副局长认为需要提交局务会议讨论的其它问题。会议由局长或局长委托的副局长主持，副局长、纪检组长、各科室（分局）主要负责人参加，会议纪要、备忘录由会议主持人签发；', '（4）全体干部会议。主要事项为：传达和贯彻党的路线、方针、政策和上级会议精神、决议、指示及重要工作部署；决定和部署市工商局一个时期内的重要工作和重大措施；局长、副局长认为需要在全体干部会议上部署和落实的事宜。会议由局长或指定的副局长主持，副局长、纪检组长、市局机关全体干部和各县、市工商局，城区分局、派出分局的主要负责人，以及需要出席会议的人员参加会议。', '（1）贯彻落实市委、市政府、省工商局专项工作部署和市工商局党组、局长办公会决定事项的措施，以及专业性工作安排；', '12、市工商局各单位提请局长办公会或专题办公会讨论决定的事项，必须一事一报，要有分析、有依据、有建议。如涉及其他单位，主办单位主要负责人应主动与有关单位主要负责人充分协商；协商意见不一致的，应如实将分歧意见向分管局领导汇报，由分管局领导进行协调。提请局长办公会讨论决定的事项，应先报分管局领导同意，经局长批准后提交局长办公会审议。', '15、各县（市）区局和市局派出分局要指定专兼职政务信息员，负责组织、整理政务信息，向党委、政府、上级局报送，在内部刊物上发布；及时准确采集并更新白山红盾信息网站信息；对上级信息主管部门预约和催要的信息稿件，要如期报送。', '16、报送信息的内容要准确，反应快捷，主题鲜明，条理清楚，文字简练，重大突发事件、紧急灾情疫情、重大案件、重大事故、群体上访、工商干部在执法中伤亡等紧急信息，电话报告时限不得超过10分钟，书面报告时限最迟不得超过2小时。对发生涉及人事管理、财务管理、政行风和软环境建设等方面的突发事件，要在事件发生后10分钟内向市局局长报告。', '19、市工商局公文审批，按照制度化、规范化、程序化和局领导分工负责原则办理。重大问题提请局长办公会讨论决定。', '20、市局各科室拟制的公文，必须由局办公室统一核稿，符合规定的，送局领导审核签发，然后由办公室登记编号。所拟公文涉及其他单位的，应事先征求意见，相关单位如有分歧意见，拟稿单位要主动协商，不能取得一致意见的，应列明各方意见和依据，并提出意见，报由分管局领导审定。', '（1）凡以市工商局名义制发的公文，需送领导签发。向上级报送的文电，由局长签发，局长不在，可授权主持工作的副局长签发；对下行文，由局长或局长授权的其他副局长、纪检组长签发。凡拟以市局名义正式发布，对本局或全系统执法单位具有普遍约束力，对行政相对人的权利义务产生影响的规范性文件，经起草部门主要负责人签署意见、法制部门审核后，再由办公室审核。', '（2）以市工商局名义在媒体发布通知、文章等，经局办公室主任审核后，报分管局领导或局长审批；', '（4）经局领导签发后的公文，由办公室进行复核登记，按照规定格式组织编辑、排版，返回原拟稿部门校对；拟稿部门校对后交办公室用A4幅面纸张印刷并用印。公文由拟稿部门分装邮寄，重要文件由办公室统一邮寄。', '22、市工商局所收公文（含各科室直接接收的上级文件），由局办公室统一办理，对接收的文件分类登记，由办公室主任在阅办单上提出拟办意见；对上来文由办公室按照规定范围分送或传阅；对下来文，办公室主任直接批请有关科室（分局）承办，重要的来文由办公室主任提出拟办意见，呈分管局长审阅批办。各单位要明确专人负责本单位文件的登记、传递、保管、归档等工作，并按保密规定及时归档。', '23、市局各科室、分局以及各县（市）区局拟定的需要上报省局的有关机构、人事、财务、重要活动、重大执法行动以及能够对白山工商系统产生重要影响的事项等方面的重要文件、材料，必须经市局主管领导审核，市局局长同意后方可上报。', '24、文件归档，公文处理完毕后，应当按照《档案法》和有关规定要求，及时整理（立卷）、归档。对达到保管期限的，按照有关规定向档案部门移交。', '（1）党组会记录、局长办公会记录、人事等方面的档案不得外借，确需查阅、复印，须经主要领导签批，在借阅登记簿上登记；', '（3）外单位查阅机关档案材料，须持介绍信，经主管领导签批，在查阅登记簿上登记，在室内查阅；', '（4）查阅档案人员不准随意拆卷、涂改、划线等，也不准任意转借他人或复制、翻印，如需要复印或翻印，须经主管领导批准；', '27、使用印章，分用途由局领导按分工权限，经局长、副局长、纪检组长签批；其中属一般事务性事项的，可由办公室主任审批；涉及借款及信贷业务的（含公务员个人贷款）必须经主管财务副局长审批，数额较大的（3万元以上）必须经局长批准。', '（3）市局领导及工作人员赴上级机关请示、汇报工作或去其他部门或外地联系工作、参观学习、考察活动、参加会议等需要开具的市局介绍信；', '（4）相关业务科室依法履行登记备案手续发出的由国家工商总局制发的各种证照；按照有关规定并经局领导批准执法的证、照等；使用市局党组印章，须经党组书记批准。', '29、市工商系统实行“分级负责、分类管理、重点检查、重在落实”的政务督查工作制度。局长为政务督查第一责任人，分管局领导为直接责任人，指定负责专项督查的科室和人员为具体责任人。凡涉及全面工作的重大事项，由局长牵头组织督办；凡重要专题事项，由分管局长牵头督办。', '30、督办工作的重点是市局的重大决策、重要工作部署及会议决定的重大事项的落实情况；全年重要工作任务和工作目标责任制及阶段性任务目标的完成情况；领导批示交办事项的落实情况等。', '33、市工商局领导同志的公务活动，按照“谁主管、谁负责”的原则，尽量减少领导同志不必要的礼仪活动和应酬。', '34、省工商局、市领导机关、市直有关部门通知的会议或有关业务活动，需局领导或各单位负责人参加的，由局办公室统一协调安排。办公室于每周末列出下周的局领导公务活动计划，报局长并分送每位副局长。', '35、局领导和各单位负责同志下基层调研、检查工作，要轻车简从，不得接受超标准接待。', '37、新闻媒体来局采访，由局办公室统一协调安排，重大事项由分管局领导确定报道口径。', '（1）市局局长外出应向省工商局、市委、市政府报告，外出时指定一名领导主持市工商局工作，并通知办公室。', '（2）市局领导班子成员外出应向局长请示，其分管工作由局长指定其他局领导代管，并通知办公室备案。班子成员离开市中心区应告知办公室，以便联络；办公室向各位领导发出的通知应予回复。', '（3）市局机关科级以下干部在省内参加会议、学习、考察的应报经分管局领导同意，出省参加会议、学习、考察的必须经局长批准。', '（4）各县（市）区局组织的省内、外考察活动，须经市局主管领导同意后，请示市局局长批准。', '39、市局办公室负责全系统信息化规划和市局计算机网络及设备的安装、维护、配置和设置。', '40、必须严格执行国家有关安全保密制度的规定，不得利用国际互联网，危害国家安全，泄露国家秘密；不得侵犯国家、社会、集体的利益和公民的合法权益，不得从事违法犯罪活动。', '41、不得在计算机终端安装、测试、运行可能危害计算机信息网络安全，与工作无关的软件和程序。', '44、计算机软硬件的安装、维护、更改、设置、连接，由信息化工作人员实施，各科室不得擅自更改微机软硬件的设置及更改微机操作系统。严禁将电脑用于私人学习或玩游戏。禁止在计算机上使用来历不明的磁盘、光盘等存储介质或下载、安装、运行游戏软件。', '45、因工作需要安装软件，应经办公室同意后，由信息化工作人员实施，严格禁止随意调整和更改网络参数，严禁擅自更改微机系统设置。', '46、白山市红盾信息网站是市工商局在国际互联网上设立的信息发布、查询及网上办公的网站。', '47、网站的内容设置和安排，要在严格按省工商局、市委、市政府要求的基础上，围绕全局中心工作，突出特色、个性化的设置，做到界面好、内容全和更新及时，发挥红盾信息网站服务社会的作用。', '48、白山市红盾信息网站内容由白山市工商行政管理局机关各科室、派出分局和各县（市）区工商局负责提供，市局机关各科室应指定专人负责本科室信息及公开资料的收集报送。', '49、市局机关各科室的上网内容须在活动、会议等事项结束两日内提交办公室，办公室自收到上网内容后，应在二日内上网发布。', '（1）对红盾信息网站内容、技术的重大变更，由市局办公室承担网站管理的人员提出方案，经市局办公室负责人同意，报主管领导审批后实施。', '（2）市局办公室网站管理人员负责进行网站的维护工作，要保证网站正常运行，如发现问题，要及时处置并报告。', '52、全面落实《政府信息公开条例》，按照应当遵循公正、公平、便民的原则，对工商行政管理的事项全面进行公开。', '（1）行政审批事项：本单位职能范围内各类行政许可事项、权限及依据，办理的条件、程序、承诺办结期限和结果，收费依据及标准，申请材料目录和申请书格式文本等；市场主体登记的统计信息等；', '（2）行政执法事项：工商行政管理主要法律、法规及规范性文件；单位对公民、法人和其他组织开展执法检查的项目、依据、程序、享有的权限、处罚种类和个案执罚结果等；工商所监管辖区及食品监管责任管辖分布、监管市场主体基本情况、举报投诉知识等；', '（5）工作制度：工作规划和工作计划、服务经济发展的承诺等；本单位各类工作制度、党风廉政建设规定，信访、举报工作的方式、程序等；', '56、政务公开通过“板、牌、屏、网、图、卡、会”等政务公开形式实施，开展好“工商开放日”活动，加强红盾网站建设，努力实现政务公开渠道广，领域宽，便于受众，利于监督。', '57、明确政务公开工作责任，市局办公室为政务公开工作的牵头部门，各科室负责提供职责范围内的需要公开或更新的事项内容，监察室负责政务公开工作的监督检查。', '58、认真贯彻执行《信访条例》，坚持属地管理、分级管理，谁主管、谁负责，依法、及时、就地解决问题与疏导教育相结合的原则，做好群众来信来访处理工作。', '59、畅通信访渠道，公开单位的信访通信地址、电子邮箱、投诉电话、信访接待的时间、地点、查询信访事项处理进展及结果的方式等相关事项。', '60、办公室作为市工商局的信访接待部门，负责信访事件的接待、分处和答复工作；各科室主要负责人为本科室业务范围信访工作的第一责任人，要按规定认真处理群众来信来访，拟定信访答复意见，加强对基层信访办理工作指导、督促；办公室、人教、监察等部门要认真落实信访工作制度，及时发现和纠正违反信访规定的行为，维护机关信访秩序。', '61、实行局领导信访接待制度，按规定时间到接待场所接待信访人，接待时间应向社会公布，每月接待不少于1次。', '62、信访工作实行包保责任制，市局领导按分管或工作职责包保县市区局出现的信访事项，确保信访问题解决在基层。', '63、对重大信访事项，确因情况复杂，需要延长办理期限的，承办单位或部门应向单位负责人说明情况并书面提出延期申请，经领导批准后，可延长办理期限，但延长期限不得超过20日，同时应告知信访人延期理由。', '64、市局或各县市区局接到上级部门有越级上访、集体上访通知后，有关负责人应尽快赶到现场靠前指挥，并启动应急预案。', '65、对上级交办的信访事项，注明时限要求的，应当按要求及时办结。不能按时办结的，应当在办理期限内汇报办理情况。', '67、市工商局机关的办公用品由办公室统一管理。各科室需要办公用品时，到办公室填写购买申请表，由办公室购买。办公用品单件金额在200元以内的，由办公室负责人审批；单件金额在200元以上的须报主管财务领导审批；单件金额超过5000元的，须经局长批准；单件金额超过10000元以上的，须经局长办公会批准。', '68、办公室对办公用品的计划和采购分别安排专人负责，采购要按规定到市政府确定的采购单位购买；对属于固定资产的办公用品要进行领用登记。', '69、市工商局机关公务用车实行分管领导定车管理。领导分管科室公务用车，原则上不再另行安排车辆。', '71、驾驶员要按照交通法规要求做到安全文明行车， 要加强车辆维修管护，及时保养、检查车辆。', '72、市区内行车车辆燃油，实行市局办公室统一管理；公务外出需要加油的，根据备案情况，由办公室审核报销，每月驾驶员申报行驶里程，办公室每月通报用油情况。', '73、实行机关内部法制监督，认真落实规范性文件备案、行政复议、执法责任等制度，及时发现并纠正违法或不当的具体行政行为，追究有关人员责任。', '74、实行机关内部财务监督，市工商局要定期在一定范围内通报财务工作，自觉接受基层和群众的监督；认真落实财务管理、审计监督、非税收入管理等制度，及时发现和纠正违反财经纪律的行为，追究有关人员责任。', '75、实行机关内部政纪监督，加强政务、党务、廉政、勤政方面的检查督办，及时发现和纠正贻误工作、影响大局、纪律散漫等行为，并追究有关人员责任，确保政令畅通。', '76、自觉接受新闻监督，对新闻媒体报道和反映的问题，有关单位要积极主动地查处和整改，并将结果向分管局领导和局长报告。']</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A195" t="n">
+        <v>53</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
           <t>活力之源靖宇县农村基层组织三项工程建设纪实</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
+      <c r="E195" t="inlineStr">
         <is>
           <t>2011-01-28</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
+      <c r="F195" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_312884.html</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
+      <c r="G195" t="inlineStr">
         <is>
           <t>['农村基层组织建设“三项工程”开展以来，靖宇县委围绕“固本强基筑堡垒、素质提升强能力、创业带富谱新篇”这一目标，精心组织、建章建制、创新载体，全县111个农村基层党组织和2366名农村党员在“三项工程”这一强劲引擎下，唱响了一首首引领致富、带头创业之歌。“三项工程”已经成为靖宇农村基层组织建设活力之源。', '认识的高度，决定重视的程度、工作的力度。靖宇县委把抓好农村基层组织建设“三项工程”作为党建工作的头等大事，县委书记亲自带队深入基层，广泛调研，听民声、访民情、集民智，制定了《中共靖宇县委关于落实农村基层组织建设“三项工程”实施意见》等一系列文件，成立了组织领导机构，细化分解任务，层层动员部署，使“三项工程”在全县迅速展开，扎实推进。经费投入成为落实“三项工程”的难点和关键，县委为保证“三项工程”顺利开展、取得实效，加大投入力度，从2009年起，每年从财政预算中列支200万元作为“三项工程”专项资金，建立了稳定的经费保障渠道。到目前，县财政和包扶部门共计已经投入“三项工程”资金900余万元。', '为了让全县农村基层干部和党员群众知晓了解“三项工程”，并积极参与进来，靖宇县委投入20余万元用于“三项工程”宣传，在全县各主要出口及乡镇设立“三项工程”宣传牌8处，在村级组织活动场所及村屯醒目位置粉刷、粘贴、悬挂“三项工程”宣传标语2000余幅。通过宣传发动，在全县迅速掀起了实施“三项工程”的热潮。', '县委在推进农村基层组织建设“三项工程”中，把解决好正常离任村书记的生活补贴和现任无工资村党组织委员工作补贴作为一项重要工作抓实、抓好。对没有工资的村党组织委员，由财政每年给予500元的补贴。拿出40余万元对300余名正常离任村党组织书记，按照任职年限，给予了生活补贴。落实了“一定三有”政策，建立了村干部工资正常增长机制，实现了工资按月发放。同时为符合参保条件的村“两委”负责人购买了社会养老保险，激发了村干部工作热情。', '为了整体推进“三项工程”，县委制定了“三项工程”考评办法，县“三项工程”领导小组办公室采取月抽检、季调度、半年督查的方式进行指导，年末对各乡镇落实推进“三项工程”进行考核验收，并给予表彰奖励。2010年县委在全县农村基层党建工作专项述职会议上拿出15万元，对3个先进乡镇党委、10名优秀村党组织书记、10名党员创业先锋及9名“三项工程”先进个人进行了表彰奖励。', '实施“项目支书”计划打造“领头雁”。为及时掌握情况，通过强化措施，制定了“项目支书”培训规划，对换届后的村书记进行重新建档。建立“项目支书”档案，从“选、育、扶、推、带”五个方面入手，对村书记实行思想引导、项目扶持和技术培训，着力解决他们“不想干”、“不会干”和“干不好”的问题。在注重致富技能培训的同时，分期、分批组织村书记外出考察学习，县委先后组织90余名有发展潜力、“双带”能力比较强的村书记赴苏州、上海、青岛等地进行学习考察，引导他们学先进、找差距，进一步解放思想、开阔眼界、增长才干。目前，全县111名村书记全部掌握2门以上致富技能。', '实施学历培训计划打造“田秀才”。创造条件，鼓励、支持乡村干部参加本科、专科学历培训，接受系统教育，提高综合素质。依托吉林农业大学、长春工业大学，白山市农村成人中专和通化农校靖宇培训站狠抓了农民党员的学历教育和技能教育，目前已举办各类技能培训班近20余期，累计培训乡村干部、党员群众2000余人次，其中200余名乡村干部进行了学历培训。', '实施党员创业带富扶持打造“生力军”。县委制定了《靖宇县农村党员创业带富工程实施方案》，通过协调金融部门优先提供贴息贷款、扩大农村党员的信用额度等方式，积极鼓励基层党员干部领办创办项目。同时实施“党员中心户”带动工程。在农民党员中认真挑选政治素质好、致富能力强、群众威信高的党员作为中心户，带动群众共同致富。县委设立了1000万元的“项目支书”和党员创业贷款资金，给予50%的贷款贴息，为村书记上项目和农村党员创业带富提供政策保障，对村书记和农村党员新创办的年收入50万元以下的小企业，3年内免收和暂停收取管理类、登记类和证照类等有关行政事业性收费，并按照企业实缴地方税额的一定比例，由县财政给予最高限额2万元补贴。目前全县确立党员中心户350余户，建立党员创业示范区18个，党员干部领办创办农民专业合作经济组织89个，会员发展到近1万人，带动群众2万余人共同致富。', '“三项工程”开展以来，解决了许多群众关心关注的热点难点问题。“我在村里当书记30多年，今年已经68岁了，没想到离任后还能赶上这样的好事，县委组织部发给我10000多元的离任生活补贴，感谢党和政府，感谢省委实施的“三项工程”！”景山镇正常离任村书记邢学生高兴地说。', '通过实施“三项工程”使全县党员干部的致富本领、带富本领，特别是为群众服务的本领明显增加，涌现出一批农村基层干部致富带头人和党员创业示范户，带领村民共同致富。景山镇景山村党员杨安志通过参加技能培训后，在全村率先引进了元蘑和黑木耳种植，收到了良好的经济效益。杨安志种植元蘑和黑木耳成功后，主动把生产技术无偿提供给对此项目感兴趣的村民，并帮助联系菌种，义务上门指导。目前，景山村54户村民，已有32户发展起了食用菌种植业。蒙江乡靖宇村党支部在创建活动中落实了党员帮带责任制，村里的普通党员、养鸡大户常宝华在自己家里办起了养鸡技术培训班，主动将自己的成功经验传授给村民。在他的帮带下，全村有22户村民发展了养鸡业，养鸡年出栏达17万只以上，每户年可平均增收8000元以上。', '通过实施“三项工程”，基层党组织阵地建设实现了“全覆盖”、基层党组织自身建设进一步加强，发展意识、服务意识明显增强，党组织的号召力和在群众中的威信明显提高。今年，县委共投入238万元新建村部14个，维修村部28个，新建村部已全部投入使用。通过“两推一选”，圆满完成今年村“两委”换届选举，村党组织书记和村主任“一肩挑”人数78人，比例达到70.3%。那尔轰镇那尔轰村党总支根据本村产业发展比较迅猛这一实际，改变已往按行政区域设立党组织，采取“总支+支部+协会”党组织设置模式，在产业链上建立党支部。在抓整合和组建的同时，积极建章建制，明确总支及各支部的职责和任务，党员干部在各产业支部中发挥示范带头作用，深受广大百姓的欢迎。目前，那尔轰村在村干部和党员带领下，200余户农民发展了产业项目，种植食用菌70多万袋，发展中草药1100多亩，养殖獭兔2000余只，村民年人均收入由以前的2000元达到如今的5500元。']</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A196" t="n">
+        <v>53</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
           <t>靖宇县开展三百活动推动三项工程建设</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
+      <c r="E196" t="inlineStr">
         <is>
           <t>2010-06-12</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
+      <c r="F196" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/xq/201805/t20180519_311720.html</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
+      <c r="G196" t="inlineStr">
         <is>
           <t>['靖宇县对农村基层通过“实施百家机关单位结对强村、开展百名党员干部素质轮训、选数百名党员创业带富典型”为主要内容的“三百”活动，推动“三项工程”扎实开展。实施百家机关单位结对强村。靖宇县制定下发了《在县级领导干部和县直部门中开展“结对强村、帮扶兴业”三项工程包村工作实施方案》，组织近百个县直部门(单位)与全县111个行政村结对，组建包村服务队，由1名副局级领导带队驻村开展工作，选派“三项工程”包村联络员，实行一包三年，不见成效不收队。据统计，该县包村部门已经与所包村的贫困户结成“一对一”帮扶对子200余对；县农业、特产、科技等部门计划投入资金300万元用于农村实用技术培训、党员创业扶持，建立示范基地等；县水利、电力、交通、财政等部门计划争取扶持资金1682.44万元，新建改造基础设施项目42个，兴修公路566.1公里，架设输电线路23.8万米，修建村部和办公场所39处。开展百名党员干部素质轮训。计划村干部每年培训一遍，通过三年轮训使每名村干部都达到大专以上学历、掌握一项以上致富技能，有自己的致富项目；党员每年至少培训500名，通过三年轮训使全县每名党员至少掌握一门致富技能，90%以上农村党员都有自己的产业或带富项目。靖宇县投入80万元用于乡村干部、农村党员学历教育和技能培训，现已组织村书记域外考察培训班一期，30名村书记赴苏州、上海等地进行学习考察；举办“项目支书”、“党员创业带富”培训班5期，培训人数达500人。选数百名党员创业带富典型。提出全县111个村至少选树一名党员创业带富典型。据统计，专家组已为农村党员和群众提供技术服务7000余人次，发放技术资料6000多份，科技实用技术光碟2000张，投入70万元设立农村党员创业资金，用于扶持党员创业带富，投入25万元作为党内帮扶专项资金。 （靖宇县府办 闫文君）']</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A197" t="n">
+        <v>53</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
           <t>临江市三家企业将赴新加坡开展经贸交流活动</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>2006-11-07</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/xq/201805/t20180519_312292.html</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="G197" t="inlineStr">
         <is>
           <t>['为加强与新加坡及东盟各国的经贸交流与合作，积极引进资金、技术和人才，考察学习先进经验，促进临江经济快速发展，临江市决定派出利生源公司、美诗顿公司、长白山森奥公司随白山经贸代表团赴新加坡开展经贸交流活动。', '此次活动主要任务是参观考察新加坡、港澳地区知名企业，拜访当地知名商会和重要客商，同时举办白山市经济贸易发展推介会，推介白山市投资环境和重点招商项目，进行项目对接与洽谈，促进在谈项目升级。', '同时，将着力推介经济互补性强、市场前景好、科技含量高、投资规模大的矿产冶金、医药保健和绿色食品等产业的6个招商项目与新加坡企业广泛对接洽谈，力争促成并签约一批合资合作项目。']</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A198" t="n">
+        <v>53</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
           <t>深山里的文明村</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>2010-12-28</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_314321.html</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="G198" t="inlineStr">
         <is>
           <t>['在冬雪的映照下，抚松县东岗镇松山村的一排排农房远远看去就像一栋栋别墅。清一色的彩钢瓦、白墙、防盗门和塑钢窗，若不是还有牛哞犬吠，会让人产生到了旅游区的错觉。这个全县文明村怎么会规划得如此整齐、建设得这么美丽？', '今年60岁仍然当选为党支部书记和村主任的黄传义告诉我们，松山村是一个少数民族村，近年来他们努力发展集体经济、加强基础设施建设、加大对上争取力度，终于有了村美民富气象新的小村新景。', '发展壮大集体经济，解决没钱办事问题。松山村班子成员齐心协力，克服资金困难，创建了村办参场。他们又把村部租给小山电站松山引水工程施工单位使用，每年可增收1万多元。电站施工任务紧迫时，该村又组织村民承包修路，既增加了农民收入，又为村里创收10万多元。他们还从村集体林里间伐了部分落叶松出售，使村集体经济实力不断壮大。', '加强基础设施建设，提高农民幸福指数。“要想富、先修路。”该村带领群众修建了1000延长米沙石路和3座桥涵，通过对上争取资金又把沙石路建成了水泥路。村里还通过民政部门争取补助，投入12万元新打深井、更新井房和管网管道，解决了吃水难问题。松山村又从集体经济收入中拿出20万元安装程控电话和有线电视，彻底解决了群众看电视难和通讯不畅问题。他们多方筹措15万元资金建成700平方米的文化广场，在全县第一批次建起了农家书屋，向上争取了文化娱乐活动器材，极大地丰富了农民文化生活。今年，该村向国家民委申请到“老少边穷扶贫工程”项目，用245万元专项资金为全村所有房屋统一更换、粉刷了门窗瓦墙。', '加大帮扶脱贫力度，努力实现共同富裕。松山村动员富裕户凑集闲散资金，又从集体经济拿出一点，成立了生产资金互助会，近年来累计为困难户提供资金119万多元。每年，这个村都多次出资组织村民集中外出学习考察，对新上项目的农民报销外出考察费用，对养殖户在用地、用水等各方面给予照顾。这个村还拿出8万元购进30头西门达尔、夏洛来母牛，用“扶贫牛”帮助勤劳、忠厚的贫困户早日脱贫。今年，松山村又对上争取了30万元资金，加大了扶贫力度，扩大了养牛规模。', '加快产业结构调整，实现接续产业转型。人参业是松山村多年以来的支柱产业，国家实施天然林保护工程以来，参业用地十分紧缺，人参面积大幅减少，农民增收势头减缓。这个村充分发挥长白山区资源优势，引导农民发展长白山特色产业，确定发展北五味子、蜜汁葡萄、榛子等种植项目。2007年，松山村4名党员与群众共同投资50万元，建成了五味子基地124亩，今年取得了可观的经济效益。经过村民代表会议讨论，松山村又开发了南岗农田地多种经营项目，已建成300亩特色产业基地，包括北五味子200亩、蜜汁葡萄60亩、榛子40亩。']</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A199" t="n">
+        <v>53</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
           <t>抚松县实施农村中小学现代远程教育</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>2009-10-29</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="F199" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_307227.html</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>['日前，抚松县实验小学与其协作学校松江河小学在电教室联合开展了一次教研活动，两校各出两位教师，利用现代远程教育资源及多媒体课件，同备同上一节课，师生充分体验了新的教研模式，学生乐学善思，积极性空前高涨。', '抚松县14个乡镇、46所中小学校大部分处在深山之中，教学环境和条件相对艰苦。随着国务院关于进一步加强农村教育工作《决定》的落实，2004年，抚松县搭上了农村中小学现代远程教育的头班车，成为全省首批试点县。本着“一切为了教学，一切为了孩子，一切服务于学校”的理念， 5年来，省、县两级共投入704.7万元，在现代教育技术装备方面大胆尝试，目前，全县已建成1所全国现代教育技术实验A级校、两所吉林省电教示范B级校，承担着国家和省级《促进城乡教育均衡发展的实证研究》等课题，利用远教设备，结合“双教一课”开展系列教学活动。 A、B校直接服务“全国农远工程”，反哺农村教育，教师到协作校面对面培训、一对一指导，充分体现了教育公平，推进了城乡教育均衡发展。', '为提高技术装备人员业务素质，抚松县教育部门先后选派业务骨干到东北师大、吉林、农安、双阳等地学习、考察培训，把先进的教育管理理念和高超的业务技术及特色工作模式带回来，用汇报交流的形式传授给大家。教育局还专门给技术装备办公室配备车辆，落实专项经费，保证学校基础设施达标，设备及时到位，人员跟踪服务到位，按标准搞好初验。县财政拿出资金为学校电教室配备了调音台、音箱、视频转换等附属设备，投入20万元用于学校的电教设备防雷，装备一步到位，学校受益匪浅。', '实施农村中小学现代远程教育工程，使抚松县教育信息化建设水平上了新台阶，实现了中心校以上学校“校校通”的目标，教学改革进程实现了新跨越，提升了全县农村中小学教育教学水平。']</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A200" t="n">
+        <v>53</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
           <t>我市农村泥草房改造惠及民众</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>2011-03-24</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
+      <c r="F200" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_313488.html</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>['家住临江市七道沟村的王大妈多年居住在低矮潮湿的泥草房中，去年 9月，王大妈用泥草房改造政府补贴资金翻盖了新房。如今，王大妈见人就高兴地说：“真没想到这辈子还能住上这样的新房子，从住草房到砖房，感觉像做梦似的。”', '王大妈的这股高兴劲儿，可以说是我市2.95万户农民的真实感受。今年我市又有667户农民喜迁新居，过上了和城里人一样的生活，他们用笑脸再一次印证着我市农村泥草房改造安居工程取得的重大成果，以及给农民带来的实实在在实惠。', '我市农村泥草房改造安居工程从2007年开始，按照省政府的统一部署开展了试点工作，2008年全面推开。计划5年内让农民全部告别泥草房。经过4年的改造，截止到去年10月31日累计完成29528户，占总户数的105.8%。在泥草房实施工作中，我市从实际出发，把农村泥草房改造作为社会主义新农村建设的重要契机，提出了既要与 6个多功能服务区建设相结合、与村屯的基础设施建设相结合、与房屋改造重点规划相结合，也要与水电路和村容、村貌、绿化美化整治紧密结合、与沿鸭绿江旅游经济带建设紧密结合、与建设水上交通线紧密结合、与打造新型材料工业经济走廊相结合。同时借鉴经验，积极引导农户建设新式农居，对经济条件较好的行政村和省级新农村建设推进村的泥草房改造实施整村推进，建设高标准的新式农居。各地加大了建新式农居的宣传力度，住建部门把从扶余县考察学习带回的新式农居图集，结合本地实际，并根据山区农民的生活习俗和建房特点进行了调整，统一设计、统一标准，为农户设计了大、中、小三种适合东部山区特点的户型，积极进行推广，从而降低建设成本。', '针对泥草房改造农户资金不足的实际问题，我市积极向上争取资金的同时，通过一律免收行政事业性收费等办法，降低了建房成本，减轻了农户负担。并加大帮扶力度，领导带头帮扶特困户。', '今年，是实施泥草房改造安居工程最后一年，我市将投资4000万元，完成667户农村泥草房改造任务，这也意味着我市利用 5年时间农村泥草房改造这项民生工程全面完成。充满活力和生机的白山大地，一排排破旧的土房不见了，一栋栋整齐的砖瓦房楼，窗明几净，在阳光的映衬下，更显宽敞明亮，农民将彻底告别简陋茅草屋，住进亮堂新瓦房，圆他们期盼多年的安居梦。']</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A201" t="n">
+        <v>53</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
           <t>关于加强旅游山庄卫生基础设施管理</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>2013-08-13</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>http://www.hunjiang.gov.cn/zw/yata/zxya/201706/t20170615_110208.html</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>['农家乐旅游是以农村自然生态环境、人文历史和传统风俗、现代农业文明、纯朴乡土文化等乡村旅游资源为基础，以农家特色餐饮美食、乡村游览观光、农耕文化体验、乡村休闲娱乐、农业科普教育等为主要内容，以农民家庭为主体单位开发经营的旅游服务项目。农家乐旅游是浑江区打造大旅游格局的重要组成部分。', '截止目前，全区4个镇及部分街道都有不少农民依托景区景点、居民集中居住区和城郊发展的“农家乐”。全区共有“农家乐”40多家，现有规模较大，环境相对良好的农家乐经营户10余家，农家乐的客源主要来自市区人群，外地游客较少。 目前，经营者普遍存在的问题是：', '一是农家乐经营模式单一。“农家乐”主要经营方式就是用餐，体现在“吃”上，前来的客人在等待用餐的时间大多只能喝喝茶、打打麻将，周围没有可游玩的娱乐设施，失去了农家乐旅游的重要要素——体验农村的生产生活。', '二是农家乐规模档次低。农家乐均存在规章和设施不完善，规模不大的问题。在全区各镇街经营的农家乐中绝大多数只是小餐馆——家庭式“作坊”,以自己的住房作为经营场所，没有田园、果园、景园，员工也是自己家人，拉动农村就业的作用没有体现。', '三是缺乏农家乐经营理念、管理经验。大多数农家乐经营户没有参加任何服务技能培训，只是靠自己的特长或者是在一定区域的做菜“名声”进行经营，基本不具备必要卫生、防疫、业务技能等知识。 四是环境污染现象严重。大部分农家乐都建立交通主干道或者城乡结合部，有些甚至在风景区内。大多农家乐经营户环境保护意识淡薄，他们只顾眼前利益，不考虑长远发展。经营过程中无形中对周边的环境卫生带来极大的负担，在农家乐周围，随处可见残羹剩汤、纸袋酒瓶等生活垃圾，与周边优美的环境极为不协调。 针对上述问题：我们将会同相关部门积极争取有效措施，加强规范和管理。 一是出台相关政策，进行政策引导。我们将积极借鉴外地的相关经验，适时出台“农家乐经营规范”“农家乐星级评定与划分”等标准。对辖区内农家乐进行规范经营，使旅游者到农户的果园中观光、渔业养殖基地垂钓、购买本地特色食品（本地鸡蛋、手工鞋垫、山野菜、松花奇石）等。同时，我们将会提请区政府适时出台农家乐扶持政策，按照国家、省旅游局的要求和相关优惠政策，帮助达到一定层次的农家乐经营场所争取相关资金或政策支持，从而鼓励农家乐向规范化、规模化方向发展。 二是强化经营管理。由于农家乐经营户分散性强，缺乏正规的专业训练，旅游知识缺乏，经营管理水平低，因此要强化经营管理，提高综合服务效益。今后的一个阶段我们将会着重做好几个方面的工作：首先组织农家乐经营户进行服务技能、经营管理培训，提高农家乐经营户的综合素质。其次有计划地组织农家乐经营户到农家乐发展较好的地方考察学习。另外要经常性地举办农家乐技能比赛，引导农家乐经营户积极参与省、市、区举办的各类比赛。 三是搞好环境保护。伴随着农家乐的发展，环境污染也日渐严重。农家乐的发展与环境的保护是相辅相成的。农家乐的发展大都凭借的是优美的环境，而农家乐最吸引人的地方也一般是其周围美丽的自然或田园风光。但是现今很多经营者缺乏高瞻远瞩的眼光，只顾眼前蝇头小利，给环境带来了破坏。针对这种情况我们将进一步加大综合治理的力度，确保在促进农家乐发展的前提下，环境也得到保护。为此，2012年，市政府开展了全市旅游环境综合整治活动。在这次活动中，我区各相关部门联合执法，密切配合，共出动检查人员300余人次，车辆100余台次，检查中小餐饮单位80家次，坚决取缔各类无证、设施不完善等各类违法行为；对旅游沿线及村屯集中开展清理小广告及“三小五堆”综合整治活动，共出动人 员1650人次，清理垃圾2340吨，清理小广告1240处。清理边沟3890延长米，出动车辆470台次，增设垃圾点43处，有效的改善了旅游沿线周边卫生环境。', '在今后的工作中，我们会把旅游环境的常态管理当作中心工作，重点抓，长期抓，努力营造良好旅游环境，促进全社会齐抓共管，并针对工作中的薄弱环节和今后出现的新问题，不断完善措施，改进方法，提高旅游环境管理水平，确保我区旅游环境，处处都有新变化，年年都有新提高，为我市创建中国优秀旅游城做出应有的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A202" t="n">
+        <v>53</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
           <t>合力建设美好家园江源区新农村工作纪实</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>2010-09-16</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
+      <c r="F202" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_306353.html</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t>['开春以来，江源区按照市委、市政府提出的“百村示范、村村提升”工程的总体部署，大力实施社会主义新农村“强村示范、整体提升”工程，并把未来三年作为江源新农村建设的“攻坚年”，把环境综合整治和产业发展作为两大攻坚任务，通过重点提升带动全局突破。', '“走出去”学习借鉴、“沉下去”调研推进、“坐下来”调度研究，使江源新农村建设目标更加明确、重点更加突出、措施更加有力。', '区委书记挂帅，先后几次率领相关部门负责人到山东、山西、通化等地，就新农村建设工作进行考察，学习先进经验和做法。各区级领导分头带队深入基层村屯，进行实地调研，掌握实际情况。春节一过，就积极行动起来，在全区开展新农村建设环境综合整治和绿化美化江源大地工作。先后召开了全区春季环境综合整治、绿化美化工作动员大会，区几个班子领导带队包干，机关干部和广大农民群众纷纷走入村屯，对越冬垃圾、私搭私占、乱堆乱放、乱拉乱挂进行彻底清除、实施全面绿化美化，掀起了全区总动员、万民齐参战的环境综合整治和绿化美化活动高潮。', '新农村建设产业发展是根本。根据江源区的地理区位和气候特点，按照“一镇一业、一村一品”的发展模式，做优基础产业，做大优势产业，以产业发展带动农民增收致富。在种植业上，逐步改变传统的以玉米大豆为主的种植模式，大力发展“棚膜经济”，按照以“一江两线”、“一区、一带、一群、一中心”的布局，实现蔬菜生产规模化、专业化、产业化、集约化和市场化，打造东部山区蔬菜生产基地。同时，根据不同区域特点，大力发展食用菌、中药材等产业。在养殖业上，扩大特色养殖规模。探索跨区域的专业合作社发展模式，注商标、育品牌，增强竞争力。壮大农业产业化龙头企业项目，推进农业产业上档次、上水平、上规模。从今年开始，我区将大力实施“一、十、百、千”工程，即：通过三年的努力，实现建设万亩棚膜蔬果生产基地、万亩蓝莓基地；十万亩红松果林；三百万头(只)畜禽出栏；五千万袋食用菌。', '为突破农村产业发展的瓶颈，区委、区政府采取政府补助、部门帮扶、银行借贷、企业捐赠、农民自筹等多种渠道为新农村建设提供财力保障，出台了十分优惠的“三个三分之一”扶持政策，即每新建1栋标准温室，财政补贴3万元，标准大棚补贴5000元；政府协调信贷部门给予贷款3万元，财政全额贴息三年，其余部分由村集体和农户自筹；同时政府无偿提供配套设施建设。这些有力的措施，使全区棚膜经济总量迅速扩充。', '如今的江源新农村建设工作取得了质的飞跃，“林荫大道”和“绿色长廊”已构建成型；他们正在为另一个目标：全区60个行政村实现村庄园林化、村部花园化而奋力前行。']</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A203" t="n">
+        <v>53</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
           <t>养鸡大王大学生王淑花</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>2012-12-27</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
+      <c r="F203" t="inlineStr">
         <is>
           <t>http://www.hunjiang.gov.cn/zw/hjyw/201706/t20170622_126713.html</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
+      <c r="G203" t="inlineStr">
         <is>
           <t>['在浑江区七道江镇黑沟村，一说起全省“一村一名大学生项目”毕业学员王淑花，不少村民都高高地竖起大拇指，称赞这个大学生是一个年轻的女能人，她凭着一股青年人的干劲和闯劲，成功地在家乡唱响了一曲新时代大学生扎根基层、实践理想的凯歌。', '1977年7月，王淑花出生于一个普通的农民家庭，由于那里经济落后，知识匮乏，信息封闭，高中毕业后的王淑花就结束了学业，但上大学的梦想始终在心里萦绕。2005年3月，省委、省政府为了促进农村经济发展，改变农村人才相对匮乏的现状，培养农村实用人才，在全省实施“一村一名优秀青年素质提升”项目，选拔农村优秀青年到高校继续深造。对于王淑花，这可是个难得的圆梦机会。2008年9月，通过参加全省统一考试，王淑花被正式录取，成为吉林大学畜牧兽医专业的一名大学生。', '王淑花深知这次机会来之不易，在心底下定决心，一定要学有所成回报社会，回报她的父老乡亲。在学校里她努力学习专业知识，虚心请教，通过两年时间，系统学习了畜牧兽医专业知识并顺利完成了全部学业。2010年春天，她利用假期时间，先后到梅河口市、柳河县等多家肉食鸡养殖场考察学习，认为肉鸡养殖具有投资少、见效快、饲养时间短且经济效益高特点，是一个较好的致富项目。经过多方面考察，她认准了肉食鸡养殖这一项目。', '海阔凭鱼跃，天高任鸟飞！扎实的理论功底和别人的成功经验，让她鼓起了创业的勇气。2010年7月，王淑花毅然拿出自己四处筹集的11万元资金，承包租赁了村里的一块闲置荒地，利用短短的一个月时间建起了一个建筑面积600平方米的大棚鸡舍，购置了全自动拌料机、锅炉等相应设备，引进了第一批鸡雏。万事开头难，在刚开始筹建大棚鸡舍的时候，为了节省开支，整个养鸡场就她和丈夫两个人，她和丈夫几乎是每天每夜都在鸡舍里度过。肉食鸡养殖行业是个微利行业，每一个细节都决定着最后的利润。鸡舍的温度、鸡雏的防疫、饲料等因素都得跟上，每天他俩轮班守在锅炉旁，每隔一小时就要填煤，还要及时加工饲料。平时还好，要是遇上鸡雏生病那就更忙了，几天几夜不合眼是常事，不细心或者不果断，大量的鸡雏就会死掉。长时间超负荷的劳动，使小两口体力严重透支。一天，她丈夫在加工饲料时，疏忽之下右手的食指被机器绞断，隆冬时节，找到的断指也难以续接，这让她丈夫落下了终身残疾。然而积极乐观的男人此时没有给王淑花施加任何压力，反而用自己的幽默大度宽慰王淑花。此时的王淑花，除了内疚，能做的只有加倍的努力。', '几分耕耘，几分收获。为了掌握养殖技术和知识，她花钱购买了许多书籍，在她的书柜里摆放着《科学养鸡实用技术手册》、《肉食鸡养殖技术手册》、《畜禽常用药物手册》等系列科学肉食鸡养殖书籍。只要一有空闲时间，她就钻进书本中，学习养殖技术。防疫是件大事，有时为了了解有病鸡雏的情况，她每天都守在鸡雏旁，做记录，掌握第一手资料。功夫不负有心人，在他们精心的管理下，50多天后，5000只鸡雏成活率达90%以上，出栏4500只，获纯利润2万元。', '王淑花获得“第一桶金”后，她的肉食鸡养殖项目有了稳定的市场前景。有了这桶金的支持，养殖场很快走上了发展的快车道，于是她大胆扩大了养殖面积，增加了鸡雏数量，当年出栏3万只，纯利润10多万元。在发展养殖业过程中，她非常注重科学技术的投入，专门聘请了养鸡技术人才实地指导，交流养殖心得，寻找科学养殖方法。在防疫上，严格执行防疫、消毒制度，推行科学的免疫程序，杜绝传染病的发生。', '经过几年的奋力拼搏和艰辛努力，王淑花致富了，科学养鸡在七道江镇黑沟村树立了榜样，起到了很好的示范带头作用。她时刻把“一家富不算富，大家富才真富”挂在心里，附近的村民纷纷到她的养殖场学习取经，王淑花毫不保留地将自己掌握的技术传授给他们，并承诺帮助他们解决在养殖过程中遇到的困难。为了让更多的乡亲早日脱贫致富奔小康，对有意愿发展养鸡业的村民，主动上门为他们免费规划鸡舍。通过赊欠鸡雏、让利销售、无偿指导技术等办法帮助乡亲步入养殖行业。有些困难户有心养鸡却没钱买鸡雏，没钱买饲料，她总是乐意帮助，主动提出先给饲料，鸡出栏后再付款。黑沟村村民王凤香是王淑花第一个帮扶的对象，王淑花手把手教她肉食鸡养殖、防疫、鸡舍的构建等技术，在王淑花的帮助下，王凤香顺利建起了第一个大棚鸡舍，引进了第一批鸡雏，如今，王凤香家的肉食鸡也要马上出栏了。王凤香高兴地说：“根据目前市场行情，出栏后能获纯利润两万余元，是大学生王淑花帮了俺。”', '在王淑花的带动和帮助下，村里养殖肉食鸡的农户越来越多。2011年2月，她组织成立了黑沟村农民养殖专业合作社，把分散的养殖农户组织起来，逐步走上了规模化、标准化的生产经营之路。', '王淑花从起初的坎坎坷坷到掌握经验，精通此道，再到创造辉煌，获取成功，无不凝结着她辛勤的汗水与日夜的辛劳。创业的成功，让她心里有说不尽的喜悦。由于王淑花扎根基层，在带动当地肉鸡养殖业发展过程中贡献突出，她的创业精神，得到了有关部门的肯定，2010年底，市委组织部相关领导到村检查验收“三项工程”开展落实情况，亲临基地，给予好评。同时，她也被市区两级组织部门确定为“一村一名大学生项目”实践基地，成为远近闻名的“养鸡大王”。', '眼下，又一批活蹦乱跳的鸡雏在暖室内健康成长。望着一天天长大的毛茸茸的鸡雏，王淑花心里充满了对未来的美好憧憬。']</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A204" t="n">
+        <v>53</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
           <t>长白朝鲜族自治县人民政府关于印发长白朝鲜族自治县教育信息化发展规划年的通知</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>2018-01-11</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="F204" t="inlineStr">
         <is>
           <t>http://www.changbai.gov.cn/zwgk/zfwj/201805/t20180530_331201.html</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
+      <c r="G204" t="inlineStr">
         <is>
           <t>['长白朝鲜族自治县人民政府关于印发长白朝鲜族自治县教育信息化发展规划（2017—2020年）的通知', '县全面振兴发展的攻坚阶段，是全面建成小康社会的决胜时期，对教育改革发展提出了新的更高的要求。根据《国家中长期教育改革和发展规划纲要（2010', '县全面振兴发展的攻坚阶段，是全面建成小康社会的决胜时期，对教育改革发展提出了新的更高的要求。根据《国家中长期教育改革和发展规划纲要（', '通过教育信息化，逐步缩小区域、城乡数字差距，大力促进教育公平，让亿万孩子同在蓝天下共享优质教育、通过知识改变命运', '期间，全面提升教育质量、在更高层次上促进教育公平、加快推进教育现代化进程等重要任务对教育信息化提出了更高要求，也为教育信息化提供了更为广阔的发展空间', '交通不便，信息相对闭塞，师资水平普遍偏低，教育发展很不均衡。学生流失现象严重，教学点已经由开始的', '个。教育信息化建设方面，存在缺乏整体规划和顶层设计，网络和硬件设施建设投入欠缺，信息化在教育教学、管理中的有效应用亟待提升。在数字教育资源建设方面存在重复建设、同质建设、低质建设等问题，造成资金、设备、人力、时间和资源的极大浪费。', '通过推进教育信息化建设与应用，使教师能够更深入了解学生的心理需求、能力、经验、性格、意愿等主观条件，并加以配合来进行教学活动，培养出在心智及体魄等方面健全均衡发展的优秀人才。', '使教师素质和教学能力、学生素质和学习能力全面提升，促进县域内基础教育的优质均衡发展。整体提升', '通过推进教育信息化建设与应用，实现扶教、扶志、扶智的目标和要求，打通国内先进地区与', '县的信息渠道，开展广泛深入的网络研修和教学互动活动，通过教育质量的提升，阻断贫困的代际传递。', '县教育信息化整体发展水平进入全国前列。基本建成适应教育教学需要的信息化环境，实现信息技术在教育教学中的广泛、深入应用，全面提升师生信息素养，健全教育信息化政策体系，完善体制机制。教育管理信息化水平显著提高，信息技术与教育融合发展的水平显著提升。教育信息化对教育改革和发展的支撑与引领作用充分显现，使每一个教师都能自如运用信息技术上好课，使每个学生都能获取享受优质数字化学习资源。', '在全县各级各类学校和教育行政部门普及高速互联网络和信息化终端设施。完成公共服务平台的建设任务。建好县级数字教育资源服务平台，形成多方参与、共建共享的师资教育资源，开发、共享、应用和管理机制。为教师提供获取优质数字教育资源的途径，提供自制、共享，适合本县、本校、本班数字教育资源的优良环境、技术和机制保障。', '建立县级教育教学管理和应用的公共服务平台和管理数据中心，创新管理模式，提高管理效能和服务水平。推动各级各类学校管理信息系统的建设与应用，服务教师、学生、家长和社会公众，社会对全县教育信息化管理水平基本满意。', '以广泛应用为前提，以深度融合为核心，以教师信息技术应用能力和信息化教学能力提升为突破口，有序推进信息技术与教育教学的融合，建成一批教育信息化示范校、形成一批教育信息化应用先进教研组、培养一批教育信息化教学标兵。县域内教育均衡发展基本实现，全县的教育教学水平明显提升，与全国先进县级地区教育发展水平差距缩小。', '建立完善、科学的教育信息化评价指标体系，对教育信息化工作、教育投入和产出进行有效考核，为教育政策制定、教育信息化应用模式的推广提供合理依据。开展多方合作，从组织管理、经费投入、技术研发、队伍建设等多个环节保障全县教育信息化持续、快速发展，形成高校引领、政府主导、企业支持、学校实施的多方协同的教育信息化可持续发展保障体系。', '以满足县域内信息化教学与管理为核心建设内容，打造信息化时代下的智能化、智慧化的教学与管理生态体系，从实际出发，充分考虑广大师生的需求，以学生为主体，以教师为主导，坚持先进、安全、可靠、实用、经济、可扩展，方便日常应用、管理和维护的原则，研究制定各项建设任务，整体规划，分步实施。', '在原有校内局域网的网络基础上建设相对独立的教育城域网络专网，实现县级数据中心联接市级城域网络的上行万兆网络出口，下行骨干链路1000兆接入学校，实现学校无线网络全覆盖、中小学校（含教学点）校班均出口带宽≥（20Mbps）；实现市县互通、局校互通、校校互动、家校互通的基础网络', '在原有校内局域网的网络基础上建设相对独立的教育城域网络专网，实现县级数据中心联接市级城域网络的上行万兆网络出口，下行骨干链路', '建设方式可以通过与区域性电信或广电运营商合作的模式完成，即减少基础设施建设投入，又能增强日常网络维护的保障性。县级城域网具备防火墙、防病毒、行为管理、访问日志记录等功能。配备专职网络管理人员，具有应急处置和灾难恢复等能力，有效防范、控制和抵御网络安全风险。', '在原有校内局域网的网络基础上进行完善，建设内容包括有线、无线、核心网络、网络出口等基础设施，具备智能化特点，包括智能、稳定、高效的核心网络，智能安全的网络出口、智能便捷的接入端口等。校级局域网具备防火墙、防病毒、行为管理、访问日志记录等功能。配备专职网络管理人员，具有应急处置和灾难恢复能力，有效防范、控制和抵御网络安全风险。', '遵循数据中心建设的国家标准，建设具有县域特色的县级小型数据中心和校级微型数据中心，与省、市级数据中心联通。数据中心使用云计算技术，实现服务器虚拟化管理和应用，配备专业的网络管理人员进行管理维护，制定完善的管理制度。购置信息化教学所必备的数字化校园终端设备，满足教学、管理活动需要。学校计算机有效利用率超过95%。学校配备云计算机教室、多功能教室、电子图书阅览室、在线互动直播教室、数字化实验室等功能教室、全自动高清录播教室、创客教室。为教职员工和学生配备必要的各类终端设备，满足教学应用开展。功能相近的专用教室合建合用。学校主要公共服务区域（图书馆、活动室、行政楼等）每处配备1套公用终端，如大屏幕电视、触控一体计算机等。学校主要出入口配置户外LED显示屏。学校配备必要的辅助管理系统，健全校园安全监控系统、校园智能广播系统、校园电视台系统、智能学生卡系统等，满足校园管理和活动的开展。', '遵循数据中心建设的国家标准，建设具有县域特色的县级小型数据中心和校级微型数据中心，与省、市级数据中心联通。数据中心使用云计算技术，实现服务器虚拟化管理和应用，配备专业的网络管理人员进行管理维护，制定完善的管理制度。购置信息化教学所必备的数字化校园终端设备，满足教学、管理活动需要。学校计算机有效利用率超过', '。学校配备云计算机教室、多功能教室、电子图书阅览室、在线互动直播教室、数字化实验室等功能教室、全自动高清录播教室、创客教室。为教职员工和学生配备必要的各类终端设备，满足教学应用开展。功能相近的专用教室合建合用。学校主要公共服务区域（图书馆、活动室、行政楼等）每处配备', '显示屏。学校配备必要的辅助管理系统，健全校园安全监控系统、校园智能广播系统、校园电视台系统、智能学生卡系统等，满足校园管理和活动的开展。', '基于云计算技术、大数据分析技术建设具有地域特点的长白数字学校平台，营造各学科的信息化教学环境，促进各学科教学内容和教学模式的改革，探索全人教育的教育模式，推进信息技术在日常教学中的深入、广泛应用。为教师提供异地同步互动教学平台，教师利用视频、音频、演示内容同步传输、交互式电子白板演示、实时问答、协同浏览、小组讨论、文档共享、屏幕共享、录制回放等功能，开展网络同步课堂活动。为教师提供网络教研环境，教师利用在线交流、联网协作、在线社区、在线课堂等功能开展教研活动。与国家（省）教育资源公共服务平台互联互通，在国家（省）教育资源公共服务平台创建班级空间、教研组空间等，开展教育教学相关活动，参与各级公共教育资源建设，共享学习资源。学校在国家（省）教育资源公共服务平台创建全部班级空间、教研组空间，开展相关教育教学活动。与国家（省）教育管理公共服务平台互联互通，在国家（省）教育管理公共服务平台完成', '1﹒教务管理：应用软件平台，实施学校教务信息化管理。应具备教师、学生和班级信息管理、学籍管理、课程管理、教学评价管理、成绩管理、功能教室调度管理等功能。', '﹒教务管理：应用软件平台，实施学校教务信息化管理。应具备教师、学生和班级信息管理、学籍管理、课程管理、教学评价管理、成绩管理、功能教室调度管理等功能。', '﹒行政管理：应用软件平台，实施学校行政事务信息化管理。具备人事档案、公文管理、信息存档、会议管理、车辆管理、用印管理、访客管理、考勤管理和日程安排、通讯管理等功能。', '﹒设备资产管理：应用软件平台，实施对办学条件和教学设备进行管理。办学条件包括设备情况、达标情况、建筑物管理、房屋管理、用地管理、设施管理、实验室管理；设备管理包括设备类别维护、仪器设备管理、设备使用管理、设备附件', '，建立面向课堂教学应用的校本学科资源库和面向师生课外学习的学习资源库。学科资源库提供多媒体资源、试题试卷等，学习资源库提供网络课程、探究性主题资源、电子图书等资源。对资源进行分类、归纳存放。资源总量≥5T，满足教师备课、教研、学生自主学习、教学管理人员管理的需求。', '，建立面向课堂教学应用的校本学科资源库和面向师生课外学习的学习资源库。学科资源库提供多媒体资源、试题试卷等，学习资源库提供网络课程、探究性主题资源、电子图书等资源。对资源进行分类、归纳存放。资源总量', '2﹒建设机制：以主干学科为重点，以课程建设为依托，建立多个数字化课程建设与教学研究共同体，开发的资源共建共享。', '﹒建设机制：以主干学科为重点，以课程建设为依托，建立多个数字化课程建设与教学研究共同体，开发的资源共建共享。', '以学习为主的数字资源。建设县级教育资源库，覆盖各年级、各学科、全部教学内容，学科覆盖率100%', '以学习为主的数字资源。建设县级教育资源库，覆盖各年级、各学科、全部教学内容，学科覆盖率', '﹒技术运用：利用云计算技术，形成云端支持、动态更新、移动计算等新技术的新型数字教育资源，形成涵盖基础教育、继续教育和社区教育等内容的数字化教育教学资源。', '﹒数据类型。教师自制资源点击率，授课录像好评率和点击率，学生利用网络平台进行学习的行为数据，如在线学习频次、时长、周期；章节浏览频次、参与率；资源下载类型、数目；在线阅读书籍类型、数目等。', '﹒用途。针对教师专业发展和学生多元评价，用于教师教研、教学能力诊断，学生学习质量评估与问题诊断。', '的模式进行建设和运作。长白数字学校是由教育行政主管部门建立和管理的一所独立建制的虚实结合学校，学校由N（1', '的模式进行建设和运作。长白数字学校是由教育行政主管部门建立和管理的一所独立建制的虚实结合学校，学校由', '2）个教学点，由中心校和教学点共同负责具体的运行和管理工作。数字学校管理层直接管理各中心学校。理事会是数字学校的决策机构，咨询委员会是决策的支持机构，校长具体执行管理职能，设置办公室管理教务、教学、师资培训等相关事务。中心学校承担对教学点的直播与互动教学任务，并负责管理教育局指定的1', '）个教学点，由中心校和教学点共同负责具体的运行和管理工作。数字学校管理层直接管理各中心学校。理事会是数字学校的决策机构，咨询委员会是决策的支持机构，校长具体执行管理职能，设置办公室管理教务、教学、师资培训等相关事务。中心学校承担对教学点的直播与互动教学任务，并负责管理教育局指定的', '县教学实际，长白数字学校教与学的形式要追求多样化和有效性，要通过教学让教学点的教师积极参与，共同成长。主要采用', '1﹒实体课堂教学。遴选前期教师信息化教学能力培训中信息化教学能力较强的教师，采用基于信息技术环境支持的课堂教学模式进行实体课堂教学。实体课堂教学是数字学校的一种常态的教学方式，实现以点带面，进而全面提升', '﹒实体课堂教学。遴选前期教师信息化教学能力培训中信息化教学能力较强的教师，采用基于信息技术环境支持的课堂教学模式进行实体课堂教学。实体课堂教学是数字学校的一种常态的教学方式，实现以点带面，进而全面提升', '县教师的信息化教学能力。在实体课堂教学方式上，重点探讨利用信息技术优化传统课堂教学以及利用信息技术转变学生的学习方式。', '县各中心校通过网络给教学点直接提供优质的同步教学。多个课堂可以同步进行师生互动、生生互动，创造远程的常态课堂生态。同步课堂是一种重要的教学方式。在同步课堂上，教学点的教师需转换角色，与主讲教师密切配合，当好同步课堂教学的助教。', '﹒专递课堂教学。引入各类公开课和优质课程教学资源，依托云平台，充分利用移动学习设备，让孩子了解世界变化。主要为学生和教学点提供科学、自然、音乐、美术等学科内容。实现学生自主学习，基于移动终端开展课后学习。', '强化教师专业化成长和同伴合作，以加强教育教学改革为主线，以优势互补，资源共享为平台，带动全体教师共同发展，共同进步，全面提高全县教育教学质量和整体办学水平。', '﹒教学共同体——同步课堂中的教师围绕教学活动创建的共同体，或者教师按照兴趣爱好自发围绕教学活动创建的共同体。', '同步课堂中的教师围绕教学活动创建的共同体，或者教师按照兴趣爱好自发围绕教学活动创建的共同体。', '县素质教育的网上阵地。通过网上发布信息公告，引导、组织、督促素质教育活动有序开展；提供优质电子资源和服务，保障素质教育活动顺利进行。', '﹒数字书房。打造网络数字阅读空间，为组织县级范围或者校级的阅读活动提供资源支持、决策服务和行动指导。', '﹒校园文化建设。通过校园文化墙、电子班牌发布学校和班级特色信息，宣传社会主义核心价值，营造良好的校园文化氛围。', '积极推进教育政务信息化，依托长白教育公共服务平台，逐步扩大网上业务办理范围，向学生、教师、学校和社会公众提供便捷服务。以教育互联网为依托，通过对教育管理业务流程的再造和优化，提升教育监管与服务水平。利用覆盖全县的学生电子档案、教师职业发展电子档案及学校办学条件基础数据库，努力做好精准化管理和服务。', '为学校提供网上教务和教学管理服务。构建教师职业发展电子档案和班级学生电子学案，记录教师发展和学生成长轨迹，为学校对教师的科学管理和对学生发展的科学决策提供支持。利用教育云服务系统实现门户信息服务、家校互通服务、师生生活服务、社会开放服务，提高学校的管理信息化水平。', '﹒远程1对1或1对2的课堂视频互动。教育行政主管部门、学校、家长可直接通过网络平台和移动客户端观看直播课堂。', '的课堂视频互动。教育行政主管部门、学校、家长可直接通过网络平台和移动客户端观看直播课堂。', '﹒教学质量测评，记录班级单元测试、期中考试、期末考试、模拟考试、中考、高考、区域联考的成绩数据。', '﹒多样化的信息化教学：翻转课堂教学，STEAM教育、创客教育，推进信息技术在日常教学中的深入、广泛应用。', '以过程性评价、同侪评价相结合的方式，利用在线监测、在线评教和大数据等方式，对学生的学习过程和教师的教学过程进行评价。', '根据数据中心记录的教师和学生个人大数据，对教师和学生推送个性化的资源、提供个性化的学习指导和建议。', '加强对广大教师的宣传工作，引导教师树立对信息技术的正确认识，强化教师在信息时代必须进行角色和功能转变的意识。建立数字化教师工作的培训和考核制度。将信息化能力的考核纳入教师考核体系之中，与学校、教育行政主管部门考核相结合，将考核结果与教师的绩效考核挂钩。', '重点加强基础教育校长、骨干教师、班主任数字化教师业务能力培训。强化培训过程管理和结业考核双向评价。选择符合条件的县城学校建设骨干教师培养培训基地。力争到2020年，', '重点加强基础教育校长、骨干教师、班主任数字化教师业务能力培训。强化培训过程管理和结业考核双向评价。选择符合条件的县城学校建设骨干教师培养培训基地。力争到', '充分利用网络教师研修空间、QQ群、微信群、教师职业发展电子档案等信息化工具，打造实体和网络相结合的共同体，为教师发展营造良好的氛围，推动教师在信息化教学、教研等方面的提高。', '群、微信群、教师职业发展电子档案等信息化工具，打造实体和网络相结合的共同体，为教师发展营造良好的氛围，推动教师在信息化教学、教研等方面的提高。', '﹒考察学习。通过对信息技术在学校管理、教育教学中成功实施的亲身体验，开阔视野、开拓思路，了解信息技术的作用，增强其开展教育信息化建设的信心，提高其对教育信息化的认识和参与积极性。', '教育部门的互联互通共享。建设与省市相通的县校两级数据中心。教职工移动终端覆盖率达到100%', '教育部门的互联互通共享。建设与省市相通的县校两级数据中心。教职工移动终端覆盖率达到', '建设与国家（省）教育资源公共服务平台互联互通的教学平台。教学平台具备在线备课、在线视频直播、在线视频互动功能等基本网络教学平台的功能。教师空间开通率达到80%以上，学生空间使用率达到100%。建设教育行政管理平台，实现网络化教育管理。', '建设与国家（省）教育资源公共服务平台互联互通的教学平台。教学平台具备在线备课、在线视频直播、在线视频互动功能等基本网络教学平台的功能。教师空间开通率达到', '数字化教育教学资源涵盖基础教育、继续教育和社区教育等内容，教学资源覆盖各年级、各学科、各种教材版本全部教学内容，学科覆盖率100%。建立包括面向课堂教学应用的校本学科资源库和面向师生课外学习的课程资源库。学科资源库提供多媒体资源、试题试卷等，学习资源库提供网络课程、探究性主题资源、电子图书等资源', '数字化教育教学资源涵盖基础教育、继续教育和社区教育等内容，教学资源覆盖各年级、各学科、各种教材版本全部教学内容，学科覆盖率', '。建立包括面向课堂教学应用的校本学科资源库和面向师生课外学习的课程资源库。学科资源库提供多媒体资源、试题试卷等，学习资源库提供网络课程、探究性主题资源、电子图书等资源', '建设与省市相连通的县级数据中心，教育大数据服务教师覆盖率达到80%以上，学生覆盖率达到100%。到2020年，建成6所教育信息化建设示范校。', '以月或季度为单位，定期举行班风、校园文化建设活动，形成基于学校的有特色的数字化文化，由县', '信息化教学广泛开展，覆盖80%以上的课堂教学。教师利用在线交流、联网协作、在线社区、直录播教室等功能开展的教研活动占比50%以上。', '以上的课堂教学。教师利用在线交流、联网协作、在线社区、直录播教室等功能开展的教研活动占比', '创建电子学档，利用信息技术对100%的学生成长进行个性化分析与评价，利用大数据为100%的学生推送个性化资源和辅导。', '80%以上的专任教师能熟练使用计算机和网络进行电子备课，合理使用各种数字化教学资源，每节课有电子教案及相关资源包', '以上的专任教师能熟练使用计算机和网络进行电子备课，合理使用各种数字化教学资源，每节课有电子教案及相关资源包', '数字化课程学习与研究共同体覆盖80%以上的教师，涵盖100%的学科，分学段共同设计进行数字化课程建设，以名师带动教师队伍建设提升广大教师的教学能力和水平。', '的学科，分学段共同设计进行数字化课程建设，以名师带动教师队伍建设提升广大教师的教学能力和水平。', '利用网络平台和大数据开展对教师进行成长跟踪，提供多维评价，能够自动生成评价报告。跟踪教师覆盖率80%以上，以及中青年教师覆盖率达到100%。', '利用网络平台和大数据开展对教师进行成长跟踪，提供多维评价，能够自动生成评价报告。跟踪教师覆盖率', '2种搜索引擎，搜集资料、获取各种数字化学习资源；能够利用信息技术解决实际问题，应用工具创作多媒体作品；能正确使用各种智能移动终端。全县学生达成率达到100%。', '种搜索引擎，搜集资料、获取各种数字化学习资源；能够利用信息技术解决实际问题，应用工具创作多媒体作品；能正确使用各种智能移动终端。全县学生达成率达到', '学生（小学指4年级以上学生）能利用信息技术进行自主学习、协作学习与探究学习，改进学习方法，提高学习效率。移动分组学习常态化，至少有2个班级、3个学科，开展常态化的一对一数字化教学。全县学生达成率达到100%。', '年级以上学生）能利用信息技术进行自主学习、协作学习与探究学习，改进学习方法，提高学习效率。移动分组学习常态化，至少有', '跟踪学生的成长指标，利用学生多元评价功能的平台开展学生成长档案建设，提供多维评价，覆盖率达到100%。', '跟踪学生的成长指标，利用学生多元评价功能的平台开展学生成长档案建设，提供多维评价，覆盖率达到', '各类学校是实施主体，校长是学校教育信息化工作的第一责任人。学校领导班子对技术改变教育达成共识，建立以校长牵头的学校信息化工作领导小组。学校信息化工作领导小组定期召开会议，研究落实学校信息化工作', '制定学校信息化发展规划和年度工作计划，目标清晰、措施得力、步骤明确。学校设立专门的信息化管理内设机构，级别为学校中层。人员结构合理，有信息化专业人员、多学科教学骨干共同参与。在设备管理与维护、学科教学、技术应用与实践创新、教育技术培训等方面职责明晰。', '健全信息化设施、人员、经费等要素的各项规章制度，各项规章制度执行有检查，有记录，有评价。建设教育信息化设备管理与维护队伍和机制，保障学校软硬件系统正常使用。', '加大教育信息化基础设施建设和应用维护、信息技术应用能力培训等经费支持力度，并对农村教育信息化建设予以倾斜', '以缩小城乡差距，保障教育信息化平衡发展。提高公用经费中用于信息化建设的比例，学校公用经费新增部分主要用于信息化建设，教师培训经费优先用于教师信息技术应用能力提升。', '明确政府在教育信息化经费投入中的主体作用。加大与社会其他行业、企业、组织建立密切合作关系，探索多样化的合作方式，形成多渠道筹集教育信息化经费的投入保障机制，促进教育信息化可持续发展。', '注重教育信息化经费开支结构的科学性，实施教育信息化经费投入绩效评估，加强对教育信息化专项经费的使用监管，做到预算编制有目标，预算执行有监控，执行完毕有评价，评价结果有应用，切实提高资金的使用效益。', '建立信息化运行维护和技术服务机构，建立教育行政部门和各级学校的信息技术专业服务队伍，构建多层次运维服务机制。学校成立教育信息化业务部门，教育信息化业务工作岗位绩效水平不低于学校管理岗位。积极探索网络运行保障的集中服务模式，减少重复浪费，降低运维成本。', '根据网络信息安全相关法律法规，建立全方位安全保障体系，确保教育管理、教学和服务等信息系统安全。加强网络有害行为防范能力和不良信息监管力度，防止暴力色情等有害信息对校园文化的侵害。全面实行信息安全风险评估与等级保护制度，确保网络健康发展。', '各校要确保设备设施财产安全，建立健全信息设备财产管理制度，重点抓好日常管理和各项制度的落实，特别是要做好节假日的安全值班工作，不出现人为损坏和丢失设备现象。', '的信息化工作要求，帮助教师优化教学过程，推广交互学习模式，提高学生学习兴趣，鼓励学生利用信息手段主动学习、自主学习，增强运用信息技术分析解决问题能力，促进学生素质全面发展，努力把师生应用水平提高到一个新阶段，真正发挥信息化建设在提升教育教学质量中的巨大作用。', '本规划是开展《教育信息化支持实现县域内教育均衡发展模式与政策研究》项目的专项规划，涉及到', '职能部门要按照规划的发展目标建立必要的督导机制，制定出各个阶段的考核细则，培训效果测量及奖惩方案，促进各项活动保质保量按期落实。', '在开展信息化建设中要以课程为抓手，紧紧探索信息技术与疑探课堂深度融合、与德育教育融合、与教学研究融合、与学校管理相融合。']</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A205" t="n">
+        <v>53</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
           <t>白山市农村泥草房改造惠及两万农户</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>2010-11-29</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
+      <c r="F205" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_314051.html</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="G205" t="inlineStr">
         <is>
           <t>['家住临江市七道沟村、今年69岁的王大妈过去住的泥草房是20多年前盖的，由于年久失修，房子冬天漏风、夏天漏雨，连别人家的仓房都不如。今年9月，王大妈从原来破旧的泥草房里搬出来，搬进了过去做梦都想住的砖瓦房里，难怪村民都说，连我们村不会唱歌的王大妈也高兴地时常哼起歌来。', '王大妈的这股高兴劲儿，可以说是我市21657户农民的真实感受。他们用笑脸和喜悦一次又一次印证着我市农村泥草房改造安居工程取得的重大成果，一次又一次证实这项工程是实实在在的民生工程。', '白山市农村泥草房改造安居工程从2007年开始，按照省政府的统一部署开展了试点工作，2008年正式全面推开。根据省政府泥草房改造资金到县、任务到县、责任到县、权力到县的“四到县”原则，全市各级党委和政府认真组织，把这项工作纳入年度绩效考核，奖优罚劣，始终坚持“规划先行”的原则，将“科学规划、节约高效”的理念贯穿于工作全过程。从实际出发，把农村泥草房改造作为社会主义新农村建设的重要契机，又提出了“五个结合”。既要与6个多功能服务区建设相结合、与村屯的基础设施建设相结合，与房屋改造重点规划相结合，也要与水电路和村容、村貌、绿化美化整治紧密结合、与沿鸭绿江旅游经济带建设紧密结合、与建设水上交通线紧密结合、与打造新型材料工业经济走廊相结合。同时借鉴经验，积极引导农户建设新式农居，对经济条件较好的行政村和省级新农村建设推进村的泥草房改造实施整村推进，建设高标准的新式农居。各地加大了建新式农居的宣传力度，住建部门把从扶余县考察学习带回的新式农居图集，结合本地实际，并根据山区农民的生活习俗和建房特点进行了调整，统一设计、统一标准，为农户设计了大、中、小三种适合东部山区特点的户型，积极进行推广，从而降低建设成本。', '泥草房改造工程是否顺利实施，资金筹措问题是关键。我市针对泥草房改造农户资金不足的实际问题，积极向上争取资金的同时，通过一律免收行政事业性收费等办法，从而降低了建房成本，减轻了农户负担。并加大帮扶力度，领导带头帮扶特困户。帮扶的各部门按照全市的统一部署，有钱出钱、有力出力，采取各种方式，帮助农户建新房。', '截至10月31日，全市农村泥草房改造累计完成21657户，超额完成1610户。今年我市农村泥草房改造安居工程任务4932户，目前改造任务已全部完成。']</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A206" t="n">
+        <v>53</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
           <t>靖宇县增强农村党员致富能力</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>2010-10-14</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
+      <c r="F206" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_313645.html</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>['为促进农村党员创业带富能力，靖宇县适时启动了“百家机关单位结对强村、百名党员干部素质轮训、选树百名党员创业带富典型”为主要内容的“三百”活动，提高了农村党员素质，增强了致富本领。', '实施百家机关单位结对强村。该县组织近百个县直部门(单位)与全县111个行政村结对，组建包村服务队，选派“三项工程”包村联络员，负责传达省、市、县委关于“三项工程”的相关精神、指导村里开展工作、协调工作、解决实际困难。实行一包三年，不见成效不收队。包村部门领导还与所包村的贫困户结成“一对一”帮扶对子，每人联系1至2个帮扶对象。据统计，包村部门与所包村的贫困户结成“一对一”帮扶对子200余对；县农业、特产、科技等部门计划共投入资金300万元用于农村实用技术培训、党员创业扶持、建立示范基地等；县水利、电力、交通、财政等部门投入资金1682.44万元，新建改造基础设施项目42个，兴修公路566.1公里，架设输电线路23.8万米，修建村部和办公场所39处。', '开展百名党员干部素质轮训。制定了全县村干部和农村党员培训计划。计划村干部每年培训一遍，通过三年轮训使每名村干部都达到大专以上学历、都掌握一项以上致富技能，都有自己的致富项目；党员每年至少培训500名，通过三年轮训使全县每名党员至少掌握一门致富技能，90%以上农村党员都有自己的产业或带富项目。县委投入80万元用于乡村干部、农村党员学历教育和技能培训，现已组织村书记域外考察培训班一期，30名村书记赴苏州、上海等地进行学习考察；举办“项目支书”、“党员创业带富”培训班5期，培训人数达500人。', '选树百名党员创业带富典型。该县把培养和选树农村党员创业带富典型作为重点，提出全县111个村每个村至少选树一名党员创业带富典型。从农业、特产、新农村办公室等涉农部门抽调专家组建农村党员创业服务团队，制作了印有专家姓名、联系方式、服务内容的便民卡，发到村、屯，免费为农村党员和群众提供技术服务。县委通过县财政投入一点、党费补一点、帮扶单位资助一点的方法，启动党员创业资金和贫困党员创业资金，在资金、技术上给予倾斜，为那些有致富技能和愿望的党员协调启动资金，扶持发展项目引领创业。据统计，专家组已为农村党员和群众提供技术服务7000余人次，投入70万元设立农村党员创业资金，用于扶持党员创业带富，投入25万元作为党内帮扶专项资金。']</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A207" t="n">
+        <v>53</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
           <t>白山市三项工程建设扎实有效</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>2010-04-02</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
+      <c r="F207" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_308568.html</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
+      <c r="G207" t="inlineStr">
         <is>
           <t>['省委实施农村基层组织建设“三项工程”以来，白山市设立专项资金，加大投入，不断提高培训水平和范围，全市“三项工程”扎实开展，取得阶段性成果。', '实施农村基层党组织“固本强基工程”、农村基层干部“素质提升工程”、农村党员“创业带富工程”的农村基层组织建设“三项工程”，是省委加强农村基层组织建设的创新之举。市委充分认识“三项工程”的重大意义，严格按照省委要求，将“三项工程”作为重要任务来抓。逐级成立了组织领导机构，由主要领导牵头负责抓落实，深入基层调研，精心谋划设计，确立更高标准，制定了强有力的推进措施。通过层层动员部署，采取各种措施大力宣传，充分调动了各级党组织和农村党员群众参与的积极性，在全市掀起了实施“三项工程”的热潮。在受国际金融危机冲击和影响、财政压力较大的情况下，各级党委在落实“三项工程”资金上加大投入，想方设法提高保障标准，仅去年下半年，市、县两级财政和党费投入“三项工程”的资金就达到了 4085万元，为确保“三项工程”各项任务落实提供了财力保障。全市三年内投入资金 7000万元，保障该项工程不断推向深入。', '我市在全市推行了“基本报酬+奖励报酬”的村干部薪酬制度，提高了村干部待遇，并对未享受转移支付的村党组织委员、选聘到村任职的大学生和离任村党组织书记给予了生活补贴。为增加村干部工作积极性，我市为村“两委”负责人办理社会养老保险并给予了补贴，提高了村级组织运转经费和乡镇党建工作经费保障标准。同时，新建村级组织活动场所32个、维修46个，农村基层党组织得到进一步加强。', '提高村干部素质，培训有能力、有魄力、有头脑的农民带头人，是“三项工程”重中之重。全市各级党组织在原来农村党员“智能工程”的基础上，扩大培训范围，提 高 培 训 层次，建立农村党员创业培训中心，扎实开展农村基层干部和农村党员培训，通过聘请高校专家教授讲课、到创业培训基地实践、外出参观考察等方式，对500多名乡镇(街)干部进行了岗位能力培训，培训“项目支书”700多人次，组织1700名农村党员进行了创业技能培训。组织了乡镇(街)干部和村干部赴青岛、潍坊、苏州等地学习考察，让更多的基层干部有机会到发达地区参观学习，开阔了眼界，增长了见识，形成了大规模、全方位、多层次、宽领域的农村基层党员干部培训格局，使“三项工程”得到了农村基层干部和党员群众的认可。']</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A208" t="n">
+        <v>53</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
           <t>一切从群众利益出发</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>2012-01-10</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
+      <c r="F208" t="inlineStr">
         <is>
           <t>http://www.hunjiang.gov.cn/zw/hjyw/201706/t20170617_118277.html</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
+      <c r="G208" t="inlineStr">
         <is>
           <t>['室外寒风凛冽，室内玫瑰怒放。日前，七道江镇七道江村农民谭坤在自己的玫瑰花日光温室大棚里剪下成熟的花枝。从2009年末开始种玫瑰，如今，谭坤的玫瑰花事业红红火火，一年能挣20万元。他说，“多亏了区‘三项工程’办公室的同志鼓励我、帮助我，对我进行思想疏导和物质扶持，才有了这些美丽的玫瑰花，才有了我的今天！”', '农村基层组织建设“三项工程”开展三年来，我区一切从农民群众的利益出发，全力推进“三项工程”建设，使浑江大地焕发出勃勃生机。', '我区将村级组织活动场所功能提升作为一项“基础工程、民心工程”，在各包村部门的大力支持与配合下，2011年共投入资金1173.5万元，以“外部建设规范、内部布局合理、配套设施完善、文化广场整洁、管理严格有序、作用发挥充分”为升级目标，对36个村部进行了改扩建和维修，全面提升了村级组织活动场所综合服务能力，改善了村级组织办公环境和农民活动条件。目前，全区村部面积1000平方米以上的7个，500平方米以上的12个，300平方米以上的7个，200平方米以上的14个，其余村部面积均在160平方米以上。', '红土崖镇党委书记胥迎辉感慨地说，“没有‘三项工程’的各项好政策，没有区委、区政府的大力支持，红土崖镇根本不可能在一年时间里新建 6个村部，改扩建4个。现在我们镇13个村的村部全部达标。”如今，红土崖镇的13个村，村村都有宽敞的图书室、文体休闲中心、党员活动中心、村民议事中心、教育培训中心，农民群众终于有了自己的活动场地，丰富多彩的文化娱乐活动增强了村民的幸福感和满意度。', '固本强基，离不开人心稳定。为了让村干部工作起来没有后顾之忧，几年来，我区为连续任职15年以上的离岗村干部发放生活补贴，此举妥善解决了离岗村干部的生活安置问题，极大调动了村干部的积极性，使村干部在岗工作有干劲，离岗生活有保障，增强了村级组织的凝聚力。截至目前，全区共为200余名离岗村干部发放补贴100余万元。', '鼓励农民党员和种养殖大户成立合作社，帮助和带动周边农户共同发展致富项目，并将具有一定规模、示范效应好、辐射面大、带动能力强的合作社发展为农村党员创业示范基地。截至目前，全区共成立各类农民新型经济合作组织68个，拥有会员1404人，其中党员274名，共辐射带动2720户农户。', '七道江镇七道江村有温室130栋，大棚456栋，每建设一个温室，百姓只出资2万元，其余资金全由国家和村集体进行补贴，每建设一个大棚，村集体给予农户每亩地1万元的补贴，全村共有500余户农户参与其中。', '在这种模式的带动下，党员带头致富的作用不断增强。七道江村花卉种植大户谭坤，拥有占地6亩的玫瑰花卉和长白山野生花卉大棚6栋，仅种植玫瑰花一项一年就有20万元的收入。谭坤富了不忘乡亲，有村民想和他一起干，他没有二话，村里已有4户村民和他一起种玫瑰花，只管种，销售等一系列的事儿，谭坤一人全包了。谭坤种玫瑰花，还让 100多村民有了活儿干。', '为了带动更多的群众致富，六道江镇湖下村党支部书记刘树宝瞅准镁园区落户湖下村的有利契机，组织13户村民的15辆车成立运输队，每户年纯收入都在3万元以上。', '六道江镇江沿村的养鸡大王刘云香建设鸡舍 600平方米，放养面积200多亩，年收入7万元以上。每当有人想来参观，刘云香都热情接待，耐心介绍家鸡养殖的市场行情和发展前景。江沿村二社村民王金华、七社村民赵树芳、一社村民刘元珍参观后也想尝试养鸡，刘云香就主动帮助她们购进优质鸡雏，义务指导技术，免费注射疫苗。就这样，她成功带动周边多家农户养鸡，年收入均在5000元以上。', '浑江区结合农村基层组织建设“三项工程”的实施，充分发挥“四学”培训渠道作用，大力开展农业实用技术人才培训，为全区农村经济社会发展提供了较好的人才支撑和智力支持。', '外请专家“教学”。邀请吉林大学教授和省内知名农村合作社负责人，为全区285名农民党员和农业产业大户讲授农民专业合作社知识和有关农民合作社的法律政策，农产品质量与标准化生产、市场营销及合作社典型经验介绍等相关知识，并实地到大棚指导种植。', '外埠考察“促学”。组织21名村党组织书记赴广东省中山市委党校进行岗位技能、理想信念教育培训。利用农闲期，组织50余名农业种养殖大户赴丹东、桓仁、梨树等地参观考察，学习草莓、大榛子等种植技术，为骨干、实用人才提供一个学习和交流的平台。', '整合资源“讲学”。整合区内师资力量，举办“素质提升课堂”和各类农村干部、党员和产业大户培训班，围绕岗位能力、业务素质、经济知识、廉政建设、实用技术等内容开展培训工作。去年年初以来，全区共举办各类域内农业实用技术人才培训班6次，培训农业实用技术人才近1000人次。', '依托基地“践学”。发挥基地的培训、实践和带动功能，让广大农村党员和农民群众相互学习，面对面、手把手传授种植技能，影响了一大批农民创业致富。截至目前，全区12个党员创业示范基地共有党员144名，辐射带动1400多农户，解决剩余劳动力1840人，共开展创业培训和创业实践活动百余次，培训人数达5000余人次。', '参加培训的农村党员视野拓宽了，信息丰富了，致富技能和创业本领提高了。他们结合各自实际和本村资源，积极带头引进、创办致富项目，带领周边群众共同致富。', '“三项工程”实施三年来，浑江区农村党员干部带头致富、带领群众共同创业的本领明显提高，农民群众发展致富的热情空前高涨，农村经济社会发展呈现出喜人的变化，为加快浑江崛起振兴提供了坚强有力的组织保证。']</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A209" t="n">
+        <v>53</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
           <t>靖宇县扎实推进三项工程建设</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
+      <c r="E209" t="inlineStr">
         <is>
           <t>2010-04-12</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
+      <c r="F209" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_308854.html</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
+      <c r="G209" t="inlineStr">
         <is>
           <t>['靖宇县委把落实推进“三项工程”作为加强农村基层组织建设的重中之重，坚持在提高认识上高站位，在夯实基础上下功夫，在工作创新上出亮点，全力推进农村基层组织建设。', '明确职责，增强落实动力。靖宇县委明确县委书记是全县抓“三项工程”的第一责任人，乡镇党委书记是本乡镇抓“三项工程”的第一责任人，村党组织书记是本村抓“三项工程”的第一责任人。建立起一套完整的目标管理体系，形成从县委到乡镇党委、村党组织，从县委书记到乡镇党委书记、村书记的三级责任体系，增强各级党委落实好“三项工程”的动力。', '加大投入，壮大保障实力。为确保“三项工程”顺利实施，靖宇县委克服困难，加大投入力度，2009年共投入“三项工程”资金520.5万元，用于乡村干部培训和学历教育、党员技能培训和学历教育、村干部工作补贴和表彰奖励、村部建设等。制定了全县村干部和农村党员培训计划。计划村干部每年培训一遍，通过三年轮训使每名村干部都达到大专以上学历、都掌握一项以上致富技能，都有自己的致富项目；党员每年至少培训500名，通过三年轮训使全县每名党员至少掌握一门致富技能，30%以上农村党员都有自己的产业或带富项目。县委投入 80万元用于乡村干部、农村党员学历教育和技能培训，现已组织村书记域外考察培训班一期，30名村书记赴苏州、上海等地进行学习考察；举办“项目支书”、“党员创业带富”培训班5期，培训人数达500人。', '村级组织运转经费不足一直制约着基层党组织各类党建活动的开展。2009年靖宇县财政为全县111个行政村每个村补助村级组织运转经费5000元。为激发农村党员干部工作活力，对村干部工资实行“基本报酬+奖励报酬”制度，对未列入财政转移支付的村党组织委员，按照每人每年500元的标准给予补贴。投入32.775万元对219名正常离任村党组织书记，按照任职年限，给予生活补贴，增强农村党员干部内在动力。', '结对强村，形成落实合力。靖宇县委组织近百个县直部门(单位)与全县111个行政村结对，组建包村服务队，解决实际困难。实行一包三年，不见成效不收队。包村部门领导还与所包村的贫困户结成“一对一”帮扶对子，每人联系一至两个帮扶对象，据统计，包村部门与所包村的贫困户结成“一对一”帮扶对子200余对；县农业、特产、科技等部门计划共投入资金300万元用于农村实用技术培训、党员创业扶持，建立示范基地等；县水利、电力、交通、财政等部门计划争取扶持资金1682.44万元，新建改造基础设施项目42个，兴修公路566.1公里，架设输电线路23.8万米，修建村部和办公场所39处。', '服务群众，增强基层凝聚力。靖宇县委注重发挥党员创业示范基地的作用，以那尔轰镇食用菌种植示范基地、赤松乡青松村山葡萄种植加工示范基地、靖宇县天源绿色食品种植加工示范基地等3大党员创业实践基地为依托，辐射带动周边群众，真正达到了以点带面的效果。同时从农业、特产、新农村办公室等涉农部门抽调专家组建创业服务团队，制作了印有专家姓名、联系方式、服务内容的便民卡，发到村、屯，免费为农村党员和群众提供技术服务。据统计，专家组已为农村党员和群众提供技术服务 7000余人次，发放技术资料6000多份，科技实用技术光碟2000张，投入款物共计51.2万元，解决农村基层组织和群众急切盼望解决的难点问题400余件。']</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A210" t="n">
+        <v>53</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
           <t>打造人才金洼地长白县实施人才强县战略纪实</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>2012-02-09</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_310857.html</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="G210" t="inlineStr">
         <is>
           <t>['近年来，长白县大力实施“人才强县”战略，坚持人才优先发展，推动人才工作与经济社会发展同频共振、互相促进，为建设生态、文明、富裕的新长白提供人才保障和智力支持。目前，全县各类人才总数5654人，其中：党政管理人才786人，占总数的13.9%；企业管理人才283人，占总数的5%；专业技术人员总数3624人，占总数的64.1%；乡土人才961人，占总数的17%。', '长白县委、县政府在人才培训培养上舍得投入，每年拿出50万元表彰优秀人才和改善域外人才居住环境，拿出70万元用于人才培养。', '坚持以大规模培训为手段，以改善知识结构、增强创新能力为目标，每年有计划地组织五分之一左右的人才参加各类培训，在5年内使各类人才普遍轮训一遍。截至目前，共举办各类培训班145期，培训各类人才5670余人次。', '立足增强培训的针对性和实效性，建立适应当前人才工作形势的培训机制。近年来，共选送197名朝鲜族青年后备干部到省民族干部学校进行集中培训，选送23名朝鲜族干部赴中央民族干部学院培训，就民族理论和政策、加快民族经济发展等重大课题进行深入、系统学习。', '拓宽培训渠道，有目的、有计划地选送部分人才学习深造、参观考察、挂职锻炼。近年来，累计输送人才到省内外知名院校培训32人，外出考察学习147人，到省直部门、沿海发达地区挂职锻炼15人。宝泉山镇河底村支部书记张美春通过到山东潍坊等地参观学习后，对发展经济作物产生浓厚兴趣，邀请农业专家对村里土质进行化验，发现村里的土质好，很适合黄烟种植，于是，她自己试种黄烟成功后，号召农民大面积发展黄烟种植，并于2009年成立了黄烟种植合作社。', '几年来，长白县委坚持把引进人才作为突破人才瓶颈的重要措施，积极开辟具有地方特色的引才渠道。', '以乡土亲情凝聚人才。深入北京、长春等地，利用乡土亲情、以才引才等办法，先后与长白籍域外人才101人建立长期联系，定期向他们介绍长白的发展情况，征求他们对全县经济和社会各项事业发展的意见和建议，促动他们为家乡服务，为建设长白牵线搭桥。', '实施政府引才。制定党政机关和事业单位中长期人才发展规划，每年都通过公开招考、招聘等形式，选拔20名优秀毕业生有计划分梯次地补充更新人才，不断优化干部和专业技术人才队伍结构。', '实施柔性引才。对愿意调入长白县企业、事业单位工作的人才，不受单位性质、编制、增人指标、工资总额的限制；配偶、子女和共同居住的亲属可随调随迁，并帮助联系、推荐工作单位；子女入托、入学优先照顾。', '加快政产学研合作步伐，按照“一个产业对应一个高校”原则，深入推进政产学研紧密型合作，主动对接吉大、农大等省内专门性科研机构，打开高校“人才大门”，架设人才“流动天桥”。', '积极创造条件为毕业生提供经营场地、培训指导、项目支持和企业“孵化”等服务。八道沟镇葫芦套村主任助理刘国梅毕业返乡后，把创业项目锁定在林下经济综合开发和梅花鹿养殖上。县委组织部了解情况后，及时与当地政府取得联系，将由于管理不善而濒临破产的长兴鹿业有限责任公司承包给她，并帮助她搞市场调查、搜集资料，为了减少风险，还拿钱让她去省内规模较大的养鹿场参观考察，接受了短期培训。如今，刘国梅的梅花鹿养殖基地规模已经扩大到8000平方米，现有梅花鹿300多头，年收入20多万元。', '优化体制环境。加大对人才在研发、创业等方面的资金扶持，加强人才知识产权保护，确保人才有前方保障，无后顾之忧。运用法制手段解决人才流动、人才引进、人才使用等方面的问题，依法保护人才的合法权益。', '优化服务环境。为引进的人才在办理创业注册、户口登记和安排配偶工作、子女就学就业等方面提供“便捷通道”，并提高人才经济、政治和社会地位，为人才成长“松绑”。', '组织实施“双十、双百、双千”人才工程，到“十二五”期末引进研究生以上学历至少10名，高级人才至少10名，至少培养100名农村致富带头人，至少培养100名科技、卫生、教育领域学科带头人，至少培育1000名社会管理服务人才，至少培育1000名产业发展紧缺技能型人才和青年技能型人才。', '长白县有效发挥人才在县域经济突破中的支撑作用，对内积极盘活用好现有人才，对外努力增强对人才的吸纳力和凝聚力，实现了人才常规工作上水平，重点工作有突破的良好格局，形成了具有地方特色的人才网络体系。']</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A211" t="n">
+        <v>53</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
           <t>江源区石人镇他乡取经开阔视野</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
+      <c r="E211" t="inlineStr">
         <is>
           <t>2009-10-26</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr">
+      <c r="F211" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_307164.html</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t>['江源区石人镇政府为促进全镇新农村建设更好更快发展，镇政府于9月29日组织全镇11个村的书记、主任等20余人到邻区通化县，学习新农村建设工作，取得了较好的效果。', '通化县是全省新农村建设的楷模，石人镇紧紧抓住机遇，组织全镇各村书记、主任去考察学习。看到通化县新农村建设的成果都很震撼，从前的贫困村、埋汰村、脏、乱、差村，如今都变成了先进村、标兵村，那里环境优美、生态文明、村容整洁。去参加学习的村干部主动、认真地请教、总结发展经验。', '参观后，大家都很感慨，他们纷纷表示要用实际行动来减少差距，各村分别调整了规划，加大了新农村建设力度，如头道阳岔村，立即组织村民修建围墙500延长米，新建和改造大门13个，重新调整规划村落，村里环境有了很大改观；天桥村也正紧锣密鼓地建围墙、广场和河坝；其它村也正在筹备；同时镇政府全面实施了“1234”工程，即：实施“一条街道”、“两个入口”、“三条河流”、“四个区域”的环境综合整治工程，使镇区环境发生了巨大变化。', '“两个入口”绿化美化工程。一是在石三线镇区入口处建设绿地2处，规范平整废弃地，建文化广场1处；二是沈长公路白山至石人入口处建设绿地1处7000平方米，建设规范垃圾场1处，拓宽公路1100延长米，总投资363.5万元。', '“三条河流”综合整治工程。年初以来，政府投资3.5万元清理大石棚子、小石棚子、榆木桥子河河道垃圾3000余吨，投资180万元实施堤防工程2处，新修河堤1500延长米，种植绿化树3.7万株，绿化江河40多公里。', '“四个区域”环境整治工程。根据镇区居民居住分布情况，将镇区保洁区域合理划分为四个小区，每个区域安排一组保洁人员，实行分片包保，落实责任区和保洁车辆，实行全天候清扫，生活垃圾日产日清，投资10.27万元建垃圾箱80个，购买垃圾车1台，为保证清运质量，还在群众中聘请了卫生监督员，对卫生状况进行监督，过去大街有人扫、小巷无人管的状况得到了彻底改变。“1234”工程的实施，使石人镇的镇容镇貌得到了极大改观。']</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A212" t="n">
+        <v>53</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
           <t>石人镇年度政府信息公开工作报告</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>2011-03-01</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="F212" t="inlineStr">
         <is>
           <t>http://xxgk-jy.cbs.gov.cn/zszdw/tjjdcd/ndbg/201707/t20170705_202439.html</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
+      <c r="G212" t="inlineStr">
         <is>
           <t>['接续产业不断发展壮大，工业经济稳中有升。石人的传统产业页岩瓦，成立了产业商会，初步呈现了统一管理、价格上升的好势头。接续产业瓷质瓦、劈开砖、苯板、热能砖等产业都展示了新产业链条的优势，相应填补了冶金产业、工业硅和炼铁产业因金融危机停产的损失，保持了镇域整体经济的稳定发展，实现了经济增速进一步加快的发展态势。', '积极申报“百镇建设工程”镇项目，强化镇域经济社会发展后劲，在区委、区政府的大力支持下，石人镇按照吉林省“百镇建设工程”实施方案，申报了吉林省“百镇建设工程”镇项目。通过一年的努力工作，呈报了申报材料，编制了8项建设规划，捆绑设计了“道路及排水管网改造”、“供水工程改造”、“社会福利服务中心和石人镇中心医院建设”三大项目，并完成四项审批、项目评审。2009年7月份，石人镇进入第二批吉林省“百镇建设工程”镇行列，在完成项目设计、资金申报的基础上，将陆续到位资金1亿元，用于镇区基础设施建设。在加强基础设施建设的同时，还将在实施产业发展规划上继续投入资金，加快特色镇和区域中心城镇发展步伐。', '加大招商引资推进力度，实施招商引资目标责任制，把招商引资目标分解到村、社区、站所，并纳入村级组织“三诺一考”管理办法，使招商引资工作规范化、制度化，形成全社会招商的良好氛围。积极参加东北亚经济贸易博览会、第二届松花石文化节暨首届长白山奇石博览会等招商活动，全年引进资金16190万元，实施招商引资建设项目6个，到位资金14350万元，超额完成区下达招商引资指标。', '农村基础设施进一步完善。通过到山东、通化等地学习考察，在改善农村环境建设上，实施了“1234”工程，即“一条街道”、“二个入口”、“三条河流”、“四个区域”综合环境整治，使镇区环境发生了巨大变化。', '“一条街道”美化绿化工程。投资56.6万元，对镇区主街道铺设了油渣路面，新修建停车场1500平方米，新建路边美化墙420米，美化栅栏500米、绿地7处4193平方米，路旁植树300株，种植花草2000平方米，建卫生厕所20个，新铺人行步道700平方米，新上路灯10盏。“两个入口”美化绿化工程。一是在石三线入口建设绿地2处，安设景观石1个，规范夹带废弃地1处2700平方米，规范建设垃圾场1处；拓宽公路1100米，总投资363.5万元。“三条河流”综合整治工程。投资3.5万元，清理大石棚子、小石棚子、榆木桥子3条河道垃圾300余吨；投资16万元，实施堤防修筑3处，新修河堤1500米，种植绿化树1.7万株，绿化河堤40余公里。“四个区域”环境整治工程。按照居民分布情况，划分为四个保洁小区，组成四个保洁组，安排保洁人员，落实责任区和保洁车辆，分别实施保洁责任制，实行全天候清扫，生活垃圾日产日清。投资10.3万元，建垃圾箱100个，购买垃圾车1台，聘请卫生监督员8人，对卫生状况实施监督，全面提高了卫生环境质量。', '立足资源特色，围绕龙头企业效益，大力发展食用菌、特种养殖、棚膜蔬菜、温室大棚和中草药等特色产业，农业产业化进程逐步加快。2009年，石人镇紧紧抓住梅花鹿养殖公司、鹏宇鸭业、春宇养殖公司、地生宝酒业、特种野猪养殖等项目，大力培育龙头企业，目前，梅花鹿养殖、鹏宇鸭业、地生宝酒业已进入市级龙头企业。强化服务功能，大力促进专业合作组织，建成农民专业合作社6个，发展产业大户25户。按照“一村一品”的模式，巩固发展种类特色产业。林子头村、小河口村在发展无公害蔬菜基地的基础上，增加了葡萄、柚桃、山野菜等新品种。老岭村以户营为主种植的秋豆角已形成基地规模，年增收入80多万元；遥林村的中草药家参野植达到650亩。畜牧养殖和林业工作稳步发展，畜禽养殖业以15%的速度递增；积极推进林权制度改革、迹地更新造林和荒山荒地造林都取得新进展。', '科学规划镇区布局，镇区形象整体改善。认真编制“百镇建设”总体规划、特色镇发展规划，对镇区性质、规模、功能、布局等均做出战略性定位，委托吉林省中天公司高起点、高层次、高水平编制了石人镇百镇建设总体发展规划。着力改善镇区环境，总投资4816万元，实施了基础设施建设工程。', '路网工程、供排水工程、百镇建设工程进展顺利，石人大街北山路段竣工投入使用，林堡路段顺利通车，后堡子堤防工程、大石棚子、天桥堤防建设全部竣工；实施村路建设27.3公里，完成桥涵修筑等其他工程项目11项，镇村环境面貌进一步改善，小城镇功能显著增强。', '不断增强农村基层党组织的创造力、凝聚力、战斗力，提高农村基层干部的素质和能力，发挥农村党员先锋模范作用。投资55万元，新建了后堡子村村部、遥林村村部、老岭村村部，投资1万元，扩建了头道阳岔村村部，各村村部全部实现“六有”；重新核定了各村坐班村干部人数，达到大村5人、小村3人的标准，与上级要求接轨；储备村干部后备人才33人，依托“一村一名大学生”项目，将2名毕业返乡的优秀“一村一名大学生”安置到村任职并发挥骨干作用；大力推行村干部工作考勤制度，保证工作日内村部有坐班村干部，全面落实公出告知卡制度，在村干部遇到特殊情况确实不能保证坐班时填写张贴，方便党员群众办事；深入落实项目支书计划，各村党支部书记均已确定致富项目并积极带动党员致富；组织项目支书培训22人次，理想信念教育培训3人次，党员创业带富培训18人次，并协调相关部门，进行党员致富项目培训2次，培训40余人次；建立创业带富示范区（老岭村的秋豆角种植示范区、榆木桥子村养殖示范区）2个；党员创业带富示范户39户；成立经济合作组织6个。', '积极推进再就业政策，开辟就业领域，新安置下岗再就业和无业人员1407人，劳务输出3384人，实施创业促就业项目8个，为下岗失业人员办理小额贷款8人，总金额40万元，办理社保1035人，医保12473人，参保人数和各类保险均完成省下达计划。', '完善服务功能，稳步发展社会事业。继续加大教育投入，完善教育设施，着力推进远程教育和电化教育，教育水平显著提高。新成立文化大院2处、文化书屋5处、中老年活动站1处，组织秧歌队5个，进一步活跃了石人文化事业。江源区二医院改造工程全面完成，疾病防控能力进一步增强，甲型流感和手足口病得到有效控制。高度重视人口和计划生育工作，石人计生服务站建设主体封闭，全镇人口自然增长率控制在0.3‰，切实稳定了低生育水平。精神文明创建工作取得丰硕成果，深入开展以未成年人思想道德教育、核心价格体系教育为核心的关心下一代工作，依法治镇进程不断加快，扎实开展“平安石人”创建活动，加强社会治安综合治理，保持对邪教组织严打严控高压态势，社会治安形势稳定。认真接转群众上访，群众合理诉求得到有效解决。切实加强安全生产，持续实现全年“零死亡”。', '认真落实党风廉政建设责任制，扎实推进惩治和预防腐败体系建设，坚持源头防治，充分发挥纪检监察的监管职能，加大对重点事项的监督监察力度，确保阳光执政顺利进行。深入开展政行风民主评议、政行风听证活动，认真执行述职述廉和“三诺一考”制度，坚决纠正部门、站所、村和社区及行业不正之风，行政不作为、乱作为的现象得到纠正，群众利益得到进一步维护。', '此外，2009年政府工作报告中承诺的事项全部完成，团委、妇联、司法、国地税、法庭、民政等各项事业都取得了新的进步。', '各位代表，一年来，镇域经济快速发展，社会事业扎实推进，人民生活明显改善，呈现了各项事业蒸蒸日上、整体社会和谐稳定的喜人的景象。这些成绩的取得，是区委、区政府和镇委正确领导的结果，是全体人大代表支持的结果，这些成绩凝聚着全镇人民的智慧和汗水。在此，我代表石人镇政府向各位代表和奋斗在各条战线上的工人、农民、知识分子、干部群众，向支持政府工作的社会各界人士，向所有关心石人发展的同志们、朋友们表示衷心地感谢，并致以崇尚的敬意！', '在肯定成绩的同时，我们要清醒地认识到，全镇经济社会的发展还面临许多困难和问题，主要表现在经济总量小，产业结构不优，产品更新换代进程迟缓，深层次社会矛盾依然突出，财政支出压力大，民生保障能力有限，部分干部思想不够解放，经济工作能力不强，发展意识不强，转型步伐不快等，对此，我们将采取有效措施，认真加以解决。', '2010年是“十一五”规划的最后一年，也是百镇建设工程实质性启动的一年，各项工作任务十分繁重。一方面我们要圆满完成“十一五”规划预定的奋斗目标，向全镇人民交上一份满意的答卷；另一方面我们还要尽最大努力抓好“百镇建设工程”的启动工作，开好头、起好步，更为“十二五”规划的顺利实施打下坚实的基础。为此，必须继续保持迎难攻坚、开拓创新的精神和决心，牢牢把握发展机遇，夺取经济社会发展的新胜利。', '2010年政府工作的指导思想是：以区委六届八次会议为指导，深入贯彻落实党的十七届四中全会精神，以科学发展观为统领，以百镇建设工程为契机，加快经济调整步伐和发展方式，坚持生态立镇、工业强镇不动摇，强化投资拉动，加快改革创新和产业升级，提高经济质量和效益，加快百镇建设和建材产业特色镇建设进程；实施重点攻坚，推进新农村建设水平整体跃升；保障民生民利，保持社会和谐稳定，实现经济、社会、政治、文化和环境卫生建设全面推进，努力把石人镇建设成为经济繁荣、社会稳定、整体社会全面进步的区域中心城镇。', '要切实抓好项目建设这个增长点，外抓招商引资项目，内抓服务建设项目，确保固定资产投资任务全面完成。', '立足长远谋划项目。按照石人镇建材产业特色镇建设的要求，大力发展瓷质建材产业。重点开发瓷瓦和瓷质墙地砖项目，建设瓷工业园。规范和整顿矿产勘探和开发秩序，强化矿产资源管理。抓好非金属成瓷矿产资源的合理优化配置，把当地资源合理运用到建材产业特色镇建设上。', '凝聚合力建项目。实施镇抓大项目，村、社区、站所抓小项目的措施，加大项目建设力度。以江源工业经济开发区和白山工业经济开发区石人工业集中区为依托吸引聚集项目。2010年，初步安排5个项目，包括玻璃工艺制品项目、秸秆生物饲料项目、瓷质瓦项目、腐竹加工项目和盛鑫养牛项目，总投资24150万元。其中投资1000万元以上项目2个，2000万元以上项目1个，5000万元以上项目1个，亿元项目1个。', '扩大招商引资项目。继续保持对招商引资工作的高压紧迫态势，将招商引资作为各方面工作的第一任务，不断扩大招商引资成果。围绕瓷工业园、工业经济开发区建设和工业集中区、八宝工业园B区，特别是“百镇建设工程”镇建设，进一步解放思想，促进优质资源与省内外龙头企业、高新技术及知名品牌对接，引进一批战略投资者。积极参加各类招商引资活动，切实提高招商引资成功率。', '积极推进百镇建设工程，围绕百镇建设、特色镇建设，快速推进镇区环境建设升级，扩大工业增量，高质快速推动工业化进程。', '做大做强工业经济。培优育强骨干企业，加大服务和协调力度，促进企业集团化、规模化发展。加快现有企业技术改造步伐，淘汰落后产能，提高能源综合利用率。加大页岩瓦产业商会发展力度，促进页岩瓦产业实现集约发展和经济转型，通过整合，走向规范发展，实现合理竞争新态势。', '突出抓好园区建设。乘借工业经济开发区硅工业园、石人镇瓷工业园建设平台，加大资源开发和园区建设力度，推动特色镇建设快速发展。将项目建设重点、资源开发利用向瓷质建材产业倾斜，推动非金属成瓷资源开发，加快瓷质建材业发展。', '加快完善投融资平台。认真落实吉林省委《关于扶持百镇建设若干意见》，成立百镇建设投资管理公司，搞好银企对接，协调金融机构加大对企业扶持力度，积极争取开发银行贷款支持，盘活农村民间资本，鼓励更多社会资金进入投融资领域。', '继续加强基层组织阵地建设，重点突出“智能办公、文体娱乐、教育培训、商贸流通、医疗卫生”等五大服务功能，实现全镇各村办公自动化，优化办公效率。组织各村成立农民秧歌队，积极开展丰富多彩的文体活动，加强文化书屋建设，满足群众文化生活需要。推行“支部加合作社”、“合作社带农户”党建工作模式，形成支部抓产业，党员创实业，百姓富家业的发展格局。积极落实项目支书计划。重点抓好老岭村的秋豆角保鲜库建设，采取村书记自筹、党员集资、政府入股等方式落实资金，争取在今年秋豆角收获前建成。', '加强党员致富技能培训。利用党建专项资金，组织有愿望的党员外出考察学习，开阔视野、掌握技术，自主创业。同时，积极争取创业扶持资金，解决资金难题。加大党员创业服务团队建设。制作惠民服务卡，将服务团队的电话发放到群众手中，方便群众。在镇农业办设立“三项工程”服务电话，随时帮助群众解决在生产中遇到的难题。', '深入推进党员创业示范区、示范户建设。采取党委挂牌的方式，送牌上门，在群众中营造声势，使群众了解“三项工程”，增加了党员示范区、示范户的影响力。同时，积极开展党员创业评比，对创业成果显著的党员进行奖励，最终实现创业带富目的。', '把繁荣第三产业作为调整产业结构的重要手段，大力发展现代服务业，加快石人文化事业建设步伐，第三产业比重力争达到30%。', '积极收集石人人文资料。充分发挥石人文化底蕴，发展石人文化，弘扬企业文化，以黑陶、瓷质瓦为基础，创新石人文化风格，利用石人百年文化资源收集文史资料，纳入江源奇石文化一体发展。', '发挥区位优势，培育壮大服务业。整合工业、商业、运输仓储业等物流行业资源，启动物流中心建设，创建集仓储、配送、托运等功能于一体的物流发展平台。', '完善基础设施建设。抓好“强村示范、整体提升”工作，实施小河口村“村民居住新区建设工程”，将西煤山六社一带居民迁入村部东侧，安置居民60户，建筑面积26亩。新村规划统一使用秸秆燃气、太阳能、地炕取暖等设施，实现平房居住楼房化，并在全镇逐步推广。', '壮大特色产业，促进农村经济发展。继续完善企业、农民专业合作社、基地、农户“四位一体”的经营模式，加快引进社会资本和先进技术参与农业产业化经营，积极推进农业产业结构调整。继续坚持“一镇一业、一村一品”发展战略，加大棚膜经济发展力度，积极向上争取资金，实施蔬菜温室大棚种植基地建设100亩，提高棚膜蔬菜产量。', '推进民主法制建设，促进农民素质提高。以农家文化大院建设为载体，推进新型农民教育活动继续深入开展。实施“阳光工程”，大力推进农村政治文明建设，深入推行“三诺一考”管理办法，进一步完善村务公开和民主议事制度，实现民主管理，加强农村治安防控体系建设，创建平安村屯。', '全面启动百镇建设工程。认真实施百镇建设发展规划，加大镇区发展力度，提高石人镇城镇化水平。总投资15021.94万元，实施四个项目建设。', '同时，实施北山社区棚户区改造工程，一期工程224户，初算改造面积11200平方米。', '进一步加大社会发展力度，大力发展社会各项事业。加快医药卫生制度改革，完善新型农村合作医疗制度，确保参保率达到90%以上，提高突发性公共事件应急处理能力，有效防控甲型流感等传染疾病。加强人口和计划生育工作，提高人口素质，稳定低生育水平，完善广播电视设施建设。进一步完善社会保障体系，推进就业、再就业政策落实，以私营企业为重点，扩大社会保险参保覆盖面。深化平安石人建设，加强社会治安综合治理，严厉打击各类刑事犯罪及敌对势力渗透破坏活动。认真落实信访目标工作责任制，强化矛盾纠纷排查调处，加大安全教育培训，确保安全生产。积极转变政府职能，切实改变工作作风，全面提高科学行政、民主行政和依法行政水平。', '各位代表，蓝图绘就，正当扬帆破浪；任重道远，更须策马加鞭。让我们高举邓小平理论的伟大旗帜，以党的十七届四中全会精神为指导，以科学发展观为统领，在区委、区政府和镇委的领导下，坚定信心，凝神聚力，拼搏进取，勇往直前，为把石人建设成为繁荣昌盛、美丽富饶的区域性中心城镇而努力奋斗！']</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A213" t="n">
+        <v>53</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
           <t>关于白山市年财政预算执行情况和年预算草案的报告</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr">
+      <c r="E213" t="inlineStr">
         <is>
           <t>2013-09-17</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr">
+      <c r="F213" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/jcxxgk/czxx/czndyjs/201805/t20180519_318795.html</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
+      <c r="G213" t="inlineStr">
         <is>
           <t>['我受市政府委托，向大会作白山市2010年财政预算执行情况和2011年预算（草案）的报告，请予审议。', '2010年，是“十一五”的收官之年，我们在市委的坚强领导下，在市人大和市政协的有效监督和大力支持下，贯彻落实科学发展观，全力开源挖潜，努力增收节支，克服了百年不遇特大洪灾等诸多减收因素影响，较好地完成了六届人大三次会议确定的财政收支目标，超额完成了“十一五”的发展目标。', '2010年，是组织收入极其困难的一年，我市企业自年初以来逐步摆脱了国际金融危机的影响走出低谷。但是，7月部分企业又遭受了百年不遇特大洪灾的影响，税收收入减收明显。各级财税部门面对困难，认真研究稳定收入增长的征管措施，大力挖掘增收潜力，加大依法征收力度，做到应收尽收，确保财政收入稳定增长。一是各级政府与财税部门主要领导亲临企业，靠前指挥，帮助企业解决实际困难，逐月调度分析收入进度，及时做出科学决策，保证了财政收入及时足额缴库，为全面完成收入任务奠定了基础。二是对重点企业、重点税源和主要税种影响财政收入增减程度进行定量分析，密切跟踪收入走向，提高各级税务部门组织收入的能力。三是强化非税收入征管，不断拓宽征收范围。积极跟踪督查水灾捐赠收入到位情况，市本级共接收捐赠收入3200多万元。四是树立节支就是增收的思想，认真研究制定节支的有效措施。市委、市政府办公室联合印发了《关于党政机关厉行节约有关问题的通知》，要求全市各级党政机关内开展厉行节约、压缩经费支出活动，对出国(境)经费、车辆购置、会议费、招待费等一般性经费开支严格控制，杜绝铺张浪费，努力降低运行成本。严格预算的约束力，规范预算执行中追加的申报和审批程序，从严控制一般性经费开支的审批。', '面对项目建设、提高和改善人民生活水平、社会事业发展、新农村建设等诸多方面的资金需求，现有的财力水平远远满足不了这些刚性支出的需要。为了解决日益加大的收支矛盾，一是不断完善对市直各部门争取资金的考评办法，落实年初制定的争取资金计划指标，细化责任，层层落实，促进各方面向上争取资金的积极性。二是认真研究国家振兴东北老工业基地、扩大内需、技术改造和结构调整的支持政策，精心谋划项目，以项目争取资金。积极与国家、省相关部门衔接，最大程度地争取综合性资源枯竭城市转型和限制开发区的资金补助政策。积极向省财政部门争取财力性转移支付补助。三是自7月特大水灾发生后，为了争取更多的恢复重建资金，第一时间向省政府和相关部门作了汇报，并及时报送了水毁项目的资金请示，得到了省政府和相关部门的重视。全年市本级共争取资金222742万元，比上年增长了22.4%，其中争取水灾恢复重建资金28919万元。争取省开发银行抗洪救灾贷款2000万元。', '面对项目建设、提高和改善人民生活水平、社会事业发展、新农村建设等诸多方面的资金需求，现有的财力水平远远满足不了这些刚性支出的需要。为了解决日益加大的收支矛盾，一是不断完善对市直各部门争取资金的考评办法，落实年初制定的争取资金计划指标，细化责任，层层落实，促进各方面向上争取资金的积极性。二是认真研究国家振兴东北老工业基地、扩大内需、技术改造和结构调整的支持政策，精心谋划项目，以项目争取资金。积极与国家、省相关部门衔接，最大程度地争取综合性资源枯竭城市转型和限制开发区的资金补助政策。积极向省财政部门争取财力性转移支付补助。三是自', '发挥财政资金“四两拨千斤”的杠杆作用，市本级积极筹措资金，加大对招商引资和项目建设的支持力度，引导和推动区域经济快速发展。筹措拨付3673万元，支持修正药业、金刚水泥等企业的项目建设。筹措拨付4707万元，支持丽美坚、喜丰、星泰、东圣焦化等一批新建企业和骨干企业扩大生产规模、技术改造、结构调整和科技创新。筹措拨付15483万元，用于节能减排、环境保护和生态建设工程。筹措拨付648万元，用于国际市场开拓、民营经济发展、中小企业发展创新。筹措拨付1900万元，用于合兴大厦、方大集团的新农村现代流通服务网络建设。切实落实国家、省和市政府扶持企业发展的相关税费减免政策，减轻企业负担，煤炭沉陷区、城市棚户区等城市建设的相关行政事业性收费和政府性基金全部免收，全年减免金额达3177万元。2010年引进和使用政府承债33100万元，用于扶持中小企业发展7000万元，城市基础设施建设26100万元。完成国家扩大内需项目污水处理主干网和污水管网铺设工程，当年完成投资额11406万元。', '始终本着关注民生、保障民生、改善民生的原则，市本级积极筹措资金，重点加大百姓安居、社会保障、就业等民生领域的投入。一是大力改善百姓居住条件。筹措拨付保障性住房建设资金13319万元，支持城市、煤矿、林业棚户区改造以及城市廉租住房建设。为24149户居民发放廉租住房补贴3605万元。筹措拨付9927万元，用于城区“暖房子”工程建设。投入市区城市基础设施建设54086万元，提升了城市的整体功能和品位，改善了人居环境。二是加大社会保障的投入。积极落实提高城乡居民收入特别是低收入群体收入水平补助政策。筹措拨付9252万元，用于社会保险补贴、就业补贴、小额担保贷款补贴、重点支持农民工和就业困难群体就业。筹措拨付55700万元，用于提高企业退休人员养老金、城乡低保补助、城镇居民基本医疗保险和新型农村合作医疗保险财政补助标准等。筹措拨付5200万元，用于扶贫救灾、优抚救济、对口援建等。', '始终本着关注民生、保障民生、改善民生的原则，市本级积极筹措资金，重点加大百姓安居、社会保障、就业等民生领域的投入。一是大力改善百姓居住条件。筹措拨付保障性住房建设资金', '继续完善农村义务教育经费保障机制，全面落实免除城市义务教育阶段学生学杂费、低保家庭学生享受免教科书及住宿补助、国家助学金地方配套等，市本级共拨付各项配套资金1510万元。重点加强基础教育投入，大力发展职业教育。筹措拨付2546万元，用于农村中小学公用经费以及教育系统受灾学校校舍维修和设备购置。筹措拨付1580万元，用于长白山职业技术学院异地建设前期费用和医药培训基地建设。筹措拨付600万元，用于白山市职业技术学校职业教育实训基地建设。争取省级重大科技成果转化项目1040万元，用于施慧达药业集团项目成果转化。筹措拨付408万元，用于长白山满族文化博物馆向社会免费开放和文物征集，以及农家书屋建设，丰富城乡文化生活。筹措拨付2339万元，用于基本公共卫生服务建设。以建设“平安白山”为目标，筹措拨付22564万元，用于公共安全及政法部门办案经费和装备建设补助等支出。', '继续完善农村义务教育经费保障机制，全面落实免除城市义务教育阶段学生学杂费、低保家庭学生享受免教科书及住宿补助、国家助学金地方配套等，市本级共拨付各项配套资金', '市本级加大“三农”工作财政政策资金支持力度，健全农业投入保障机制。筹措拨付8444万元，重点用于农村基础设施建设、农业技术推广、退耕还林、小型农田水利工程建设、扶贫救灾等。积极开展涉农培训，提升农村人口素质，提高贫困乡镇的自我发展能力，落实好大中型水库移民后期扶持政策，有效促进农村政治、经济、文化各项事业的发展。筹措拨付3527万元，用于农村公益事业建设，建立健全“一事一议”财政奖补制度，充分发挥财政资金的引导作用，吸引和聚集民力，形成农村公益事业发展新机制。筹措拨付1698万元，用于中低产田改造、扶持550吨杏鲍菇种植、6000头特种野猪养殖、600亩刺五加种植等项目建设，促进了农业产业结构调整。认真落实家电下乡惠农政策，家电下乡销售27234台、汽车摩托车销售1806台，已发放补贴1343万元。为了鼓励农民多种粮、种好粮，保证粮食市场稳定，2010年完成粮食直接补贴发放729万元。', '市本级部门预算编制进一步细化，支出定额体系不断完善。深化国库集中支付制度改革，进一步完善预算执行动态监控机制，财税库银横向联网改革取得新进展。非税收入改革进一步深化，行政事业性收费已全部纳入预算管理。妥善解决了取消收费单位经费保障问题。市本级政府采购额不断增长，全年完成采购额32345万元，增长61%，节约资金2888万元，节资率8.9%。制定了政府性债务管理实施细则，本着消存量、控增量、建机制、广融资的原则，进一步加强政府债务管理，规范政府举债行为。完善了财政投资评审管理办法，加强财政资金使用的评审力度。市本级2010年评审建设项目246个，工程预（结）算提报值32227万元，审减额4043万元，审减率12.5%。完成了行政事业单位资产信息系统建设，实现了行政事业单位资产全面动态监管，加强行政事业单位资产收益管理。按照中央和省政府的统一部署，开展了社会团体、国有及国有控股企业“小金库”专项治理工作，开展了强农惠农专项资金和会计信息质量检查，保障了财政资金的安全和有效使用。', '市本级部门预算编制进一步细化，支出定额体系不断完善。深化国库集中支付制度改革，进一步完善预算执行动态监控机制，财税库银横向联网改革取得新进展。非税收入改革进一步深化，行政事业性收费已全部纳入预算管理。妥善解决了取消收费单位经费保障问题。市本级政府采购额不断增长，全年完成采购额', '各位代表，2010年我市预算执行情况良好，但也要清醒地看到，当前我市财政工作仍存在一些不容忽视的矛盾和问题：一是财政收入在“十一五”时期的高速增长，基数越来越高，在缺少新上大项目支撑的情况下，增速放缓；二是2010年又受特大水灾影响，使我市财政收入增幅低于前五年的平均水平；三是财政收入在结构上质量有待提高，非税收入比重偏大；四是扩内需、保增长、惠民生等政策集中出台，几年来的超财力安排及配套，财力及资金压力越来越大，收支矛盾突出；五是政府性债务逐步进入偿还高峰，财政还本付息的负担沉重，财政运行风险加剧；六是财政资金使用绩效有待进一步提高。对此，我们必须高度重视这些矛盾和问题，强化措施，积极应对，在今后的工作中认真研究解决。', '按照全国财政工作会议、市委五届十三次全会的总体要求，2011年我市财政预算编制总的原则是：全面贯彻落实科学发展观，紧紧围绕经济大提速主题和加快转变经济发展方式主线，继续发挥财政的职能作用，着力组织收入，进一步优化财政支出结构，加大对“三农”、教育、医疗卫生、社会保障和就业、保障性住房、资源和环境保护的支持力度，切实保障和改善民生，推动经济增长和结构调整。加强财政科学化精细化管理，从严控制一般性支出，切实提高财政资金使用效益。按照上述原则，编制了2011年预算草案。', '增收节支始终是财政工作的中心，越是困难的时期，加强收入征管越显重要，所以，必须在组织收入上下功夫、想办法，确保完成年初预算收入任务，同时注重提高收入质量。一是加强全市经济形势分析。做到对税源结构、税源走向、税收潜力了如指掌，与2010年对比找差距、找症结，明确增收的主攻点和努力方向。继续签订收入任务责任书，明确各部门目标任务，强化依法征收，应收尽收。二是加强收入入库情况调度。主要抓好国、地税和财政部门的调度，解决征管难题，扫清工作障碍。抓好重点税种的跟踪调度，对征收潜力较大的地方级收入税种要盯紧盯牢，促进和带动其他税收入库。三是规范非税收入单位的执收执罚行为，依法依规征收，坚持“以票控收”，保证非税收入及时足额缴库。四是继续贯彻落实党政机关厉行节约的有关规定，牢固树立过紧日子思想，勤俭办一切事情。大力调整优化财政支出结构，继续从严控制出国（境）、车辆购置及运行、公务接待、行政运行、学习考察等费用的支出。优先保障“三农”、教育、医疗卫生、社会保障和就业、保障性安居工程等重点支出需要。', '增收节支始终是财政工作的中心，越是困难的时期，加强收入征管越显重要，所以，必须在组织收入上下功夫、想办法，确保完成年初预算收入任务，同时注重提高收入质量。一是加强全市经济形势分析。做到对税源结构、税源走向、税收潜力了如指掌，与', '紧紧围绕市委五届十三次全会确定的全市经济发展战略目标，充分发挥财政职能作用，灵活运用财税政策工具，服务项目建设和招商引资工作，促进投资、扩大消费、增加出口，不断增强经济发展的活力和动力。一是认真抓好中央和省扩内需、保增长、调结构各项资金的落实到位，加快资金拨付进度，加强资金监管，确保资金专款专用。二是统筹安排预算内资金和政府性基金，综合运用各种财税杠杆，吸引民间、社会、域外等资本投入，大力支持“三五二”产业的培育和壮大。鼓励企业技术创新、结构调整和节能减排等。促进投资拉动、项目带动和创新驱动。三是加强各级政府投融资平台建设，增强投融资平台的融资能力，加强对财政担保银行贷款资金的跟踪管理，形成资金运转的良性循环。支持具备条件的企业上市融资。积极支持中小企业发展，引导企业争取上级财政扶持资金，提升企业融资能力。', '紧紧围绕市委五届十三次全会确定的全市经济发展战略目标，充分发挥财政职能作用，灵活运用财税政策工具，服务项目建设和招商引资工作，促进投资、扩大消费、增加出口，不断增强经济发展的活力和动力。一是认真抓好中央和省扩内需、保增长、调结构各项资金的落实到位，加快资金拨付进度，加强资金监管，确保资金专款专用。二是统筹安排预算内资金和政府性基金，综合运用各种财税杠杆，吸引民间、社会、域外等资本投入，大力支持', '认真研究及时掌握中央积极财政政策动向，把握国家“十二五”规划突出经济结构调整的主要任务，不断加大向上争取资金和政策的工作力度。要结合我市经济建设的实际，突出投资重点，选准选好项目，做好与上级投资计划的对接，积极争取国家和省结构调整、项目配套、政府贴息、安居工程、节能减排、环境保护和生态建设工程的项目资金支持。继续做好水灾恢复重建资金的到位工作。为缓解财力和资金“双缺”压力，进一步管好用好省财政各项财力性转移支付资金，以及社会保障和就业、教育、医疗卫生、农业、政法等专项转移支付资金。', '加大对民生领域的投入，逐步提高人民生活水平，推进社会各项事业发展。一是加大社会保障财政政策资金扶持，确保各项配套资金及时拨付。重视就业困难人员就业问题，建立健全政策扶持体系。保障企业退休人员养老金、城乡低保、城乡医疗财政补助水平。积极支持医药卫生体制改革，搞好新型农村养老保险试点。认真落实优抚政策，健全抚恤待遇自然增长机制。二是加大改善城乡百姓居住条件的资金投入力度，加快城市、煤炭、林业棚户区以及廉租房改造和建设步伐，做好廉租房补贴发放工作。三是进一步促进教育优先发展。继续完善农村义务教育经费保障机制和城乡义务教育免费政策，支持中小学校改善办学环境和条件，补助特困寄宿生生活费，支持教师继续教育培训和职业教育工作，积极落实助学金等各项地方配套资金。促进科技、文化、体育、广电、计生等社会事业协调发展。', '更加重视“三农”工作，健全农业投入保障机制，努力促进农业发展、农民增收、农村繁荣。一是进一步落实惠农补贴发放政策。继续加强粮食直补和退耕还林补贴发放管理，确保补贴不折不扣落实到农民手中。认真落实家电、汽车摩托车下乡等国家扩大内需政策，大力促进消费升级，进一步启动农村消费市场。加快推进集体林权制度改革。二是加强农村基础设施建设。支持农村公路建设，改善农村出行条件。支持农田水利设施建设、中低产耕地改造，改善农业生产条件。支持农村节约能源、安全饮水工程建设，改善农村人居环境。三是扎实推进农村扶贫开发。以基础设施建设、劳动力培训、产业发展为重点，加强政策和资金扶持力度，提高贫困乡镇的自我发展能力，继续落实好大中型水库移民后期扶持政策。四是进一步加强农村基层组织建设。完善村级组织运转经费财政保障机制，确保基层组织能正常运转。五是建立健全“一事一议”财政奖补制度。', '驾驭财政各项基础工作，切实提高财政资金使用效益，必须加强财政工作科学化精细化管理。一是加强财政基础管理工作。继续推进预算管理改革，认真执行零基预算各项定额标准，进一步完善管理体系，健全机制和流程，努力提高预算编制的科学性、准确性和精细化程度；进一步完善国库集中支付制度，拓宽国库集中支付范围，做到支付规范化、程序化、信息化，确保国库集中支付资金安全、高效运行；进一步深化非税收入管理改革，加大非税收入稽查力度，狠抓“以票控收”，切实增加政府可用财力；坚持以公开招标为主要采购方式，实行集中采购与分散采购相结合的形式，严格遵守政府采购程序，强化对政府采购的法律约束；强化财政投资评审，提升评审能力和水平，提高投资效益；健全和完善政府性债务风险预警机制，防范和化解财政风险。二是加强财政监督。进一步完善财政监督检查机制，对重点资金、重点行业、重点项目进行专项检查，促进监督与管理的有机融合。建立健全“小金库”治理长效机制，巩固“小金库”专项治理工作成果。强化行政事业单位资产及收益管理。三是按照市区经济一体化的战略要求，积极研究建立市与浑江区财政管理新体制，规范转移支付制度，建立区级基本财力保障机制，提高基层政府基本公共服务保障能力。建立招商引资项目异地落户产值分计、税收分享的办法。', '驾驭财政各项基础工作，切实提高财政资金使用效益，必须加强财政工作科学化精细化管理。一是加强财政基础管理工作。继续推进预算管理改革，认真执行零基预算各项定额标准，进一步完善管理体系，健全机制和流程，努力提高预算编制的科学性、准确性和精细化程度；进一步完善国库集中支付制度，拓宽国库集中支付范围，做到支付规范化、程序化、信息化，确保国库集中支付资金安全、高效运行；进一步深化非税收入管理改革，加大非税收入稽查力度，狠抓', '2011年，是“十二五”规划的开局之年，做好今年的财政工作意义十分重大，我们要在市委的领导下，在市人大和市政协的监督指导下，进一步增强责任感和紧迫感，细化工作任务，强化工作责任，创新工作方法，狠抓工作落实，确保完成全年的财政工作目标，为实现富民强市的宏伟目标做出新的更大的贡献！']</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A214" t="n">
+        <v>53</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
           <t>廉政触角至基层风清气正强根基我市推进农村党风廉政建设模式纪实</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
+      <c r="E214" t="inlineStr">
         <is>
           <t>2012-02-28</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr">
+      <c r="F214" t="inlineStr">
         <is>
           <t>http://www.cbs.gov.cn/zw/bsyw/201805/t20180519_311133.html</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
+      <c r="G214" t="inlineStr">
         <is>
           <t>['去年以来，我市在深入推进反腐倡廉过程中，牢牢抓住全省加强纪检监察组织建设暨加强村务监督推进党风廉政建设规范化工作会议在抚松县召开的有利契机，把推进“3+1”工作模式(“3”，是指推行村级重大事项民主决策、村集体“三资”代理服务、“勤廉双述”评议村干部“三项制度”；“1”，是指加强村务民主监督)作为当前农村党风廉政建设的重中之重，以解决基层棘手瓶颈问题为突破口，不断延伸廉政触角，进一步加强农村社会管理和基层民主政治建设，保证农村防腐治本措施发挥综合效应，实现了“3+1”&gt;4的总体效果。', '“干部清不清，说给群众听；村账乱不乱，交给群众看；村务行不行，留给群众评。”近年来，我市以推进便民服务中心建设为契机，从监督检查工作理念、工作内容、工作方式、工作机制上进行创新，强化权利运行的监督和制约，注重基层便民利民服务载体建设，积极推行阳光政务，在全市乡镇全力打造联系群众、服务群众的有效平台，筑牢反腐倡廉“防火墙”。', '根据省纪委、省农廉办的统一要求和部署，结合白山实际，各县(市）区积极投入力量，在全市56个辖村的乡镇(街)统一建立便民服务大厅，配齐电脑、显示屏、查询机、办公桌椅等现代化办公设备，倾力打造透明、快捷、优质、高效的服务平台。各县（市）区还将供水、供暖、供气及维护等日常运行经费纳入财政预算，为便民服务大厅健康运行提供了有力保障。在长白县果园村，一些村民将便民服务编成了顺口溜，“进几块，出几毛，动动手指就知晓；啥时花，花在哪，点点屏幕便明了。”在此基础上，市委出台了《关于推进乡镇(街)站办所改革、加强便民服务中心管理的实施意见》，对站办所重新定编定岗定员，进一步精简机构、规范职能、整合资源。在监管体制上，实行县直主管部门和乡镇(街)党委政府双重领导、双重考核、双重管理的领导体制工作机制；建立基层站办所公开承诺和“双听证双评议”制度，实行责任问效，奖优罚劣；对站办所服务职能、服务项目进行集中清理，将与群众生产生活密切相关的站办所及服务项目全部纳入大厅，并择优选派工作人员，实行窗口式公开服务和“一站式”办公，实现一个门儿进出，一条龙服务，一次性办结。目前，全市平均入驻大厅的站办所达到10个，基本实现了办公有场所、场所有设备、对外有牌子、监督有制度、监审有公章、工作有台账、经费有保障的“七有”建设标准，服务质量和效率得到明显提高。', '出台了《村级财务管理办法》，重点建立完善村级财务预决算、固定资产及财务物资管理、农民负担管理、民主理财及财务公开、现金收入及代管资金使用审批、审计监督及跟踪检查、财务管理与村干部报酬考核挂钩等7项制度，使村级财务管理工作走上了制度化、规范化轨道。以大厅显示屏、公示板等为载体，建立公开制度，及时公开窗口服务职责、办理事项、政策规定以及工作人员信息、县乡两级纪委监督举报方式等内容，方便群众监督。统一建立了乡镇领导带班制、首问负责制、一次性告知制、限时办结制、备案制、考勤制、上岗培训等30余项制度规定，规范办事流程，优化服务环境，及时化解群众信访矛盾以及办事过程中产生的纠纷，维护群众切身利益和基层秩序稳定。', '农民反映最强烈的问题是什么？农村最迫切需要解决的问题是什么？市纪委在调查中发现，首要便是农村“三资”管理问题。为规范农村“三资”管理，确保“三资”服务正常运行，从源头上预防农村腐败现象发生，壮大农村集体经济实力，增加农民收入，促进农村经济社会又好又快发展，通过搞好清查，建章立制，和强化监督服务等有效手段，确保基层权力阳光运行。', '清产核资算好“明白账”。针对资源权属确定难，杜绝个别地区农村集体林地与国有林业局林地相互交错，存在“你中有我、我中有你”现状，切实做到摸清家底，公开家底，管好家底，从源头上减少和避免农村基层干部违法违纪行为，成立以村“两委”、村民代表、包村干部组成的联合清查小组，以会计账目为依据，采取先账内、后账外，先资金、再资产、后资源的办法，逐项核实登记，建立台账，确保核准、核实村级“三资”家底。并及时召开村民代表大会，通报清理情况，公示核查结果，接受群众监督。开展“三资”清查以来，全市共清查村集体资金3．74亿元，资产3．92亿元，清回和盘活各类资产1．16亿元，清查农村集体资源32．3万公顷。', '健全制度办成“公开事”。为切实加强农村“三资”监管工作，推进农村集体“三资”管理的制度化、规范化建设，理顺农村集体“三资”监管体系，建立起农村“三资”规范运作的长效机制，进一步密切农村党群干群关系，促进农村经济持续健康发展，确保社会和谐稳定和村务健康运行。去年初，抚松县东泉村雇佣工人进行村里绿化和维修房屋，产生了1350元的费用，村委会主任想用退耕护岸林款进行支出。村监委会审核票据时指出退耕护岸林款属于专项资金，直接否决了这项支出。村监委会主任朱春林说，“他得感谢我们保护了他，使他没犯错误……”。如今，在白山各地农村，大事小事严格按照程序执行，由群众“民主定事”；乡镇代理服务中心规范“理村财”，防止暗箱操作；实行群众评“村官”，推进农村民主进程。事咋办、钱咋花、官咋当，村民都有了发言权，真正实现了当家作主。', '逐级问责绷紧“廉政弦”。建立农村基层干部问责制实施办法，在工作中，凡不认真履行职责，违反“三资”管理等有关党风廉政规定等造成集体资产损失等不良后果的，要逐级问责镇、村干部，追究有关责任。对全市“三资”现状进行集中清查，清查数据统一录入软件，实行现代化管理。在此基础上，将“三资”管理软件由单机版升级为网络信息系统，增设防改动功能，实现县、乡、村(社区)三级联网。在县一级设立管理、审批、查询等功能，在村一级安装电脑或查询机，增设政策查询、服务公开、农产品供求信息发布和投诉举报等功能，搭建起融服务、管理和监督于一体的网络工作平台。随着“3+1”模式的推行，有效规范了村干部行为，实现了村级事务村民知晓，村民协商，村民决策，有效避免了个别村干部“决策一言堂、用人一句话、花钱一支笔”现象，“三资”服务监管在基层“活血化淤”效果迅速显现。', '“现在村干部不按制度办，啥事办不成；不走流程，村上啥钱动不了；不合理的支出，数额再小也不行……”在抚松县仁义村，村监委主任马忠安翻开村里民主决策“账本”，打开了“话匣子”。', '权力是柄双刃剑，用得好，利国利民；用不好，祸国殃民。为从源头上加强对权利的监控，从构建农村和谐社会需要出发，紧紧围绕依法治村和村民自治目标，在全市广泛开展了“村务公开民主管理示范单位”创建活动，积极探索加强农村基层民主政治建设的有效途径，多渠道破解“钱怎么花、事怎么办、人怎么用”三方面难题，努力实现农村基层党组织“管理民主”目标，农村基层民主政治建设卓有成效。', '抚松现场会结束后，市纪委按照会议精神和要求，以督促、借鉴、交流、学习为出发点，以整体提升工作水平为落脚点，组织各县(市、区)党风室主要负责人，采取交叉互检、到其他市州学习考察、召开汇报交流会、制定工作推进时间表、定期调度进展情况等方式，深入总结、交流各地的成形经验和典型做法，全面查找存在的问题和不足，加大工作落实和推进力度，实现互通有无、取长补短、共同促进的目标。年末，市纪委还针对查出的问题进行回头看，使长期困扰基层的疑难问题得到解决，有力推动了“ 3+1”模式的全面深入落实。', '建立“四议两公开+村务监督委员会的全程记实监督”工作模式，着力解决监督难的问题。在全面总结4年来村务监督委员会建立和运行实践经验基础上，研究制定加强和改进村务监督委员会工作和推进农村党风廉政建设规范化具体意见，针对规范村务监督程序、监委会委员调整、监委会工作保障等问题制定相应制度，进一步健全和完善村务监督委员会运行机制，大力推动村务监督工作提升水平。认真执行“勤廉双述民主评议村干部”制度。年初，各村党组织书记和村委会主任分别就党组织建设、廉政建设、经济指标、公益事业等村民关心的热点难点问题，对全体村民作出公开承诺，并通过村(党)务公开栏张榜公布，接受党员和群众监督。每年底，全市各乡镇(街)党委(党工委)结合落实党风廉政建设责任制考核，认真组织各村召开会议组织村两委负责人述职述廉，并现场接受村民代表的质询询问，现场进行民主测评，当场公布测评结果，测评结果与村干部的报酬补贴和留任免职直接挂钩，真正把群众对干部的选择权和监督权落到了实处。村官们坦言：如今述职述廉，自己明显感觉身上有了压力，村民的眼睛都盯着我们几个看，干点儿事，和村民有的说；不干事，亮相时就很惭愧，不扎扎实实多为村里做点事，就难过村民评议这一关。']</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A215" t="n">
+        <v>53</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
           <t>年临江市财政重工作完成和年工作安排情况</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
+      <c r="E215" t="inlineStr">
         <is>
           <t>2012-04-24</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr">
+      <c r="F215" t="inlineStr">
         <is>
           <t>http://xxgk-lj.cbs.gov.cn/zcbm/fgw_97992/ndbg/201707/t20170706_202820.html</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
+      <c r="G215" t="inlineStr">
         <is>
           <t>['在市委市政府的领导下，财政部门按照“保工资、保稳定、保运转、保重点、促发展”的主要原则，发挥财政职能作用，着力促进加快发展方式转变，优先保障和改善民生，超额完成了全年预算收支任务。地方级财政收入完成4.17亿元，为白山市年初下达奋斗目标的117.9%，比上年增加1.29亿元，同比增长44.8%；全口径财政收入完成5.6亿元，为年初奋斗目标的116.7%，同比增加1.6亿元，增长40%；全年一般预算财政支出完成175850万元，同比增加24873万元，增长16.5%，其增幅位于白山市个县区第6位，支出额度排在第第三位；基金预算财政支出完成9540万元，加上结转下年支出11849万元，合计2.1亿元；全市财政预算总支出完成19.8亿元，同比增加3.8亿元，增长23.7%，人均财政支出位于全省各县（市）前列，支出规模较大，省专项支出和转移支付补助达到13.4亿元，占支出比重为76.1%，争取的专项资金对我市支出规模增加贡献较大。全年共争取转移支付和一次性专项资金16.3亿元，比上年增加4.1亿元，增长33.6%，完成年初计划的107.9%，比年初任务增加12000万元。较好地完成了省政府和白山市下达的预算收支目标任务，实现了预算收支平衡，各项财政工作取得了突出成绩，为我市经济平稳较快增长及社会和谐发展提供了有利的资金保障。', '2011年，是组织收入极其困难的一年，主要因基数较高以及宏观经济形势的复杂性，能源原材料、矿产品价格高位波动、煤电供求矛盾凸县,资金和劳动力短缺等问题。我市财税部门面对困难，认真研究征管措施，加大征收力度，确保财政收入稳定增长。', '一是政府领导与财税部门亲临企业，解决实际困难，逐月调度分析收入进度，保证了财政收入及时足额缴库。', '二是对重点企业、重点税源和主要税种影响财政收入增减程度进行定量分析，密切跟踪收入走向，提高财税部门组织收入的能力。', '三是投资300多万元，建立了综合治税计算机网络信息平台，强化了国土、房产、交通、供电、工商等22个部门配合，针对我市硅藻土、铁矿开采、木材加工、金属镁等资源优势行业，结合实际制定了相应的征管措施，严禁了“跑冒滴漏”，实现了应收尽收。如以用电量和用工量核定产量，以市场价格核定销售收入，以账面财务盈亏核定所得税；继续有计划、有步骤地分行业、分领域研究，逐一解决每个行业领域税收存在的问题。下半年通过综合治税增加税收1268万元。四是树立节支就是增收的思想，认真研究制定节支的有效措施，加强了财政资金管理与使用。对出国（境）经费、车辆购置及运行费、会议费、招待费等严格控制，努力降低运行成本。严格预算约束力，积极推进预算绩效评价管理，从严控制一般性支出的审批，有效地减少了本级预算的追加。', '面对项目建设、民生保障、事业发展等诸多任务，现有的财力水平满足不了刚性支出的需要，为解决收支矛盾，认真研究落实争取资金措施。', '一是完善各部门争取资金的考评办法，落实争取资金计划指标，调动各方面向上争取资金的积极性。', '二是研究国家振兴东北老工业基地、扩大内需、技术改造和结构调整的支持政策，精心谋划项目，以项目争取资金，争取了国家级兴边富民特色优势产业试点县（每年国家财政至少补助800万元）和国家级义务教育经费保障先进管理（预算编制）试点县。最大程度地争取了均衡性转移支付和生态功能区、边境事业建设等专项转移支付资金。全年我局争取转移支付和专项资金预计6.7亿元，完成年初任务的101%，同比增加0.9亿元，增长15.5％，为全市社会稳定、经济社会事业发展、重点项目建设、政府机关运转提供了强有力的资金保障。其中争取到位的专项资金：一般性转移支付资金28900万元，生态功能区转移支付4046万元，激励性转移支付1835万元，县级基本财力保障机制奖补1835万元，两税返还补助2500万元，地区性转移支付资金550万元，边境建设资金4446万元，国家级兴边富民特色优势产业试点县补助800万元，产量大县补助392万元，大湖破产企业补助1482万元，“一事一议”奖补资金2100万元，开发区以奖代补资金480万元，粮食直补、农资综合补贴753万元，财政扶贫补助资金550万元，农业产业化和农民专业合作经济组织补助资金600万元，计划生育财政扶助资金460万元，小城镇发展专项资金100万元，中小学校舍维修改造及设备购置财政补助600万元，公检法司办案和设备经费1100万元，文化事业建设财政补助100万元，抚恤救济等社会保障政策性财政补助2000万元，基本建设项目财政补助2500万元，水利基金项目财政补助600万元，中小企业发展财政补助200万元，小额担保贷款省级财政贴息补助170万元，土地出让金财政返还用于城市基础设施建设补助1200万元，其他等财政争取政策性专项资金1800万元。', '一是部门预算编制进一步细化，支出定额体系不断完善；国库集中支付制度改革开始正式运行，选择了教育、城建等10个预算单位进行试点，财政、人民银行、代理银行（农行）、预算单位实现横向联网，网络申请、拨付财政资金；非税收入改革进一步深化，下发了《进一步加强和规范全市非税收入管理》的通知，将行政事业单位的国有资产出租、出让收入，广告收入，捐赠收入，利息收入等收费项目纳入预算管理，增加了非税收入；政府采购额不断增长，全年完成采购额6840万元，增长19.8％，节约资金467万元，节资率6.39%。下发了《加强财政专项资金的申报及拨付和使用管理办法》的通知，加强了专项资金的监管；下发了《推进预算绩效管理的意见》和《预算绩效评价管理办法》的通知，提高了财政资金的使用效益。', '二是强化政府性债务管理，本着“消存量、控增量、建机制、广融资”的原则，严格审核债务用途，规范政府举债行为，抵御财政风险。', '三是完成了行政事业单位资产信息系统建设，实现了行政事业单位资产全面动态监管和资产收益管理。四是按照中央和省政府的统一部署，全面深入推进党政机关、事业单位、社会团体、国有及国有控股企业“小金库”专项治理工作，建立健全防止“小金库”长效机制；开展了强农惠农、社会保障和就业等民生专项资金和会计信息质量检查，保障了财政资金的安全和有效使用。', '一是财政收入在过去五年的高速增长，基数越来越高，在缺少新上大项目支撑的情况下，增速放缓，完成收入目标任务难度大；二是财政收入在结构上有待改善，非税收入所占比例较大（高达37%），收入质量有待提高；三是几年来的民生工程超财力安排及配套，财力和资金缺口越来越大，预算资金调度难，收支矛盾更加突出；四是政府性债务逐步进入偿还高峰，财政还本付息的负担沉重，财政运行风险加剧。', '市政府年初下达给我局的招商引资任务4500万元，到现在已到位5250万元，完成年初任务的116.7%，同比增加1150万元，增长69%。招商引资项目为临江市城西供热系统集中改造项目一期工程，出资人是广州商人—高磊。供热范围包括整个城西区域，项目计划投资6500万元，其中域外投资6000万元。项目主要建设内容：建热源场一座，换热站3处，铺地下官网10.5公里。建成后能够满足165万平方米的供热需求，年将增加经济效益200万元以上。', '财政收入安排，一般预算全口径财政收入计划为6.6亿元，增长18%。其中地方级财政收入计划为5亿元，增长20%。', '财政支出安排，一般预算支出计划为20.2亿元，增长15%（含执行中省财政追加的一次性专项补助）。在支出安排中，重点倾斜于教育、科技文化、社会保障和就业、医疗卫生、农林水、环境保护等方面支出，均比上年有所增长。', '1、以增收节支为中心，着力重点抓好以下工作。增收节支始终是财政工作的中心。一是全面推行综合治税。利用综合治税网络平台，强化部门的协调配合，共享涉税信息，形成合力，应收尽收。二是加强全市经济分析。掌握税源结构、税源走向，签订收入任务责任书，明确部门目标任务，强化依法征收，及时上缴。三是加强收入入库情况调度。国地税财政等部门协调配合，解决征管难题，抓好重点税种的跟踪调度，促进和带动其他税收入库。四是规范非税收入单位的执罚行为，坚持“以票控收”保证非税收入按时足额缴库。五是优化支出结构。严控一般性支出，尤其是预算执行中的追加；落实党政机关厉行节约的有关规定，牢固树立过紧日子思想，勤俭办一切事情；严格执行两个“零增长”，从严控制出国、车辆购置、公务接待、学习考察等费用。', '2、以促进经济提速发展为第一要务，着力服务好项目建设。围绕临江市第七次党代会确定的全市经济发展战略目标，灵活运用财税政策工具，一是抓好扩内需、保增长、调结构各项资金的落实到位，全力推进盼盼集团硅藻土功能性材料、健今药业固体制剂和针剂生产线等一批产业转型和结构调整项目，尽快投产达效。二是统筹安排预算内资金和政府性基金，综合运用各种财税杠杆，吸引民间、社会、城外等资本投入，鼓励企业技术创新、结构调整和节能减排，全力支持东大博联特公司“呆矿”处理、东锋镁业稀土镁合金应用、栗矿公司低温余热发电等技改项目加快建设。三是加强政府投融资平台建设，增强融资能力；加强对财政担保银行贷款资金的跟踪管理，形成资金运转的良性循环。四是支持积极支持中小企业和民营经济发展。', '3、以向上争取资金为主要任务，着力缓解财政资金压力。认真研究、掌握国家政策动向，不断加大向上争取资金和财策的工作力度。结合我市经济建设的实际，选准选好项目，做好与上级投资计划的对接，积极争取国家和省结构调整、项目配套、政府贴息等项目资金支持；大力争取生态功能区和边境事业建设等转移支付资金；强化部门配合，积极做好向上争取资金的任务，实现争取资金任务最大化。', '4、以改善和保障民生为目标，着力推进社会各项事业发展。以发展保民生，以民生促发展为导向，突出重点，全力而为，为全市的民生实事提供资金支持，推进民生及社会各项事业发展。一是加大社会保障资金扶持。落实下岗再就业纳税人税收优惠政策；免费培训下岗失业人员；城乡低保资金及时到位；筹措资金，保障新型农村社会养老保险试点和城镇居民社会养老保险试点的县级配套资金；提高参加新型农村合作医疗农民大病报销补偿比例；对国家、省出台的调资政策，财政努力筹措资金，保障兑现并足额发放。二是加大临城廉租房等安居工程及配套设施资金投入力度，加快“六路安居”工程建设，做好廉租房补贴发放工作。三是支持加快发展社会事业。以国家级义务教育经费保障先进管理试点县为契机，进一步完善农村义务教育经费保障机制和城乡义务教育免费政策，支持市一中异地建设，加快职业教育建设，新建综合实训基地，努力筹措财力和资金，落实国家要求财政性教育支出达到GDP总值4%的配套资金；支持加大水利建设投入，实现水利建设资金投入年均增幅达到5%；支持医疗卫生体制改革，做好公立医院改革试点；支持科技创新能力，提高科技成果转化能力；支持文化、体育、广电、计生等社会事业协调发展。四是支持城乡基础设施建设，优化城市生态环境。重点保证污水处理厂、文化艺术中心等工程项目；积极支持生态城镇化进程，保障苇沙河、六道沟等中心镇建设的资金需要。五是支持平安临江建设,加强社区和农村网络化治安巡逻防控体系建设。', '5、以增加农民收入为目的，着力加大对“三农”的资金支持。重视“三农”工作，努力促进农业发展、农民增收、农村繁荣。一是落实好惠农补贴发放政策。加强粮食直补和退耕还林补贴发放管理；认真落实家电、汽车摩托车下乡等国家扩大内需政策。二是加强农村基础设施建设。充分利用农村公益事业建设的“一事一议”财政奖补优惠政策，支持农村节约能源、安全饮水工程、整村推进、农村危房改造等，改善农村人居环境。三是借助兴边富民特色优势产业试点县（连续3年的财政扶持优惠政策），扎实推进农村扶贫开发；以大栗子南尖头、大湖街道葫芦套农业生态园区等农村基础设施建设、劳动力培训、产业发展为重点，加强政策和资金扶持力度；继续落实好大中型水库移民后期扶持政策。四是进一步加强农村基层组织建设，完善村级组织运转经费财政保障机制，确保基层组织能正常运转。', '6、深入推进预算管理制度改革。一是进一步推进部门预算改革，扩大部门预算编制范围，这也是推进预算绩效管理的前提条件和工作需要，选择部分部门和单位开展预算绩效评价试点。研究建立预算项目库，规范和细化预算编制，提高预算到位率。二是推进国库集中支付制度改革，所有预算单位和所有财政性资金全部实行国库集中收付，做到支付规范化、程序化、信息化。三是推进基金预算和国有资本经营预算编制改革，进一步细化预算编制，提高预算编制的规范性，建立基金及国有资本经营预算支出项目库，推动与公共预算的相互衔接。四是坚持以公开招标为主要采购方式，遵守政府采购程序，强化法律约束。五是加强财政投资评审，提升评审能力和水平。六是加强地方政府性债务管理，健全和完善债务风险预警机制，控制规模、逐年消化，防范和化解财政风险。七是进一步完善财政监督检查机制，对重点资金、重点行业、重点项目进行专项检查，建立健全“小金库”治理长效机制，强化行政事业单位资产及收益管理。']</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
+      <c r="A216" t="n">
+        <v>53</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
           <t>临江市财政局年政府信息公开年度报告</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr">
+      <c r="E216" t="inlineStr">
         <is>
           <t>2011-02-18</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr">
+      <c r="F216" t="inlineStr">
         <is>
           <t>http://xxgk-lj.cbs.gov.cn/zcbm/fgw_97992/ndbg/201707/t20170706_202815.html</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
+      <c r="G216" t="inlineStr">
         <is>
           <t>['临江财政在过去的五年跨上了一个新的台阶。全口径财政收入由2007年2.03亿元上升到2011年5.5亿元，5年平均递增26.9%，跨入了全省5亿元县（市、区）行列，并由2006年在全省41个县（市）中排位名第29位，上升到2011年的第24位。地方级财政收入由2007年1.2亿元上升到2011年4亿元，5年平均递增33.7%，由2006年全省第31位，上升到2011年的第23位。一般预算财政支出由2007年5.7亿元上升到 2011年18亿元，5年平均支出递增32%，人均财政支出位于全省县（市、区）前列。财政支出总量逐年攀升，支出规模日益扩大，支出结构得到明显优化和调整。5年来，争取财政专项资金和一般性财政转移支付资金46.6亿元，年均递增36%，争取到位的专项和一般性转移支付资金由2007年的4.8亿元增加到2011年的15亿元。其中，争取到均衡性转移支付资金5.3亿元，缓解县乡财政困难的“三奖一补”转移支付资金1.1亿元，生态功能区转移支付资金1.2亿元，临江口岸等边境事业建设转移支付资金1.5亿元。同时，还争取到国家级支农资金整合试点县、国家重点生态功能区转移支付试点补助、省级口岸边境事业建设转移支付试点补助、省级农村公益事业建设“一事一议”的覆盖所有乡镇试点县、国家级义务教育经费保障先进管理（预算编制）试点县、国家级兴边富民特色优势产业试点县等财政支持的优惠政策项目，到位的补助资金极大地缓解和弥补了我市的财力不足。实现了财政收支规模年年大幅增加，财政年年保持收支平衡并有结余，为全市经济社会事业发展提供了有利的资金保障。', '回顾过去的五年，财政部门认真践行“为国理财，为民服务”宗旨，克服了国际性金融危机和特大洪涝灾害的重重困难，按照“抓增收、促发展、保民生、建机制、强队伍”的工作思路，充分发挥部门职能作用，着力促进经济社会又好又快发展，财政实力不断壮大，财政改革不断深化，财政管理水平不断提升。', '二是发挥政策资金调节作用，促进经济发展成效显著。我市财政用于支持经济发展方面的资金累计达到33亿元，是上一个五年的1.6倍。为构建我市硅藻土、金属镁、冶金铸造、长白山生态产业园四个特色工业园区提供了资金保障。同时还大力支持中小企业发展，培植和涵养税源，落实增值税转型、所得税两法合并等结构性减税政策，取消、停征行政事业性收费项目，降低收费标准，累计减轻企业和社会负担1.8亿元。', '三是调整优化财政支出结构，保障改善民生成效显著。全部免除城乡义务教育阶段学生学杂费，我市每年有10,900多名学生受益。支持在全省率先建立城镇居民基本医疗保险制度，新型农村合作医疗实现全覆盖。支持“保障性”住房和“暖房子”工程建设，城乡近2万户困难群众居住条件得到改善。解决了 3.2万农村人口安全饮水问题。企业养老金标准、城乡低保补助水平分别是2006年的1.75倍、2.1倍和3.6倍。提高规范了财政供养人员津补贴，2007年-2010年分别3次提高财政供养人员津补贴标准，月人均达到1,560元，2011年又提高财政供养人员住房补贴和艰苦边远地区津贴，月人均分别增加355元和50元。', '四是加快财政管理改革步伐，健全公共财政体系成效显著。五年共向乡镇拨付均衡性转移支付1.6亿元，是上一个五年的2.9倍。利用现代化计算机平台，积极推行“乡财县管”，乡镇财政彻底摆脱了手工记账传统方式，强化了乡镇财政资金监督管理和安全使用。部门预算、国库集中支付、政府采购、综合治税、收支两条线等预算管理制度改革和“金财工程”建设取得重大进展。国库集中支付制度改革试点进展顺利，2012年，此项改革将在今年10个试点的基础上，在我市所有预算单位中全面铺开。“综合治税”工程成功推进。强化部门配合，由22个政府行政职能部门密切协作，实施社会综合治税，堵塞财税收入漏洞，有效地增加了收入。', '五是推进服务型机关建设，提升财政干部队伍素质成效显著。认真开展解放思想大讨论、深入学习实践科学发展观、转变经济发展方式、创先争优等主题教育实践活动，强化教育培训，财政干部的思想素质、业务能力和依法理财意识都得到明显提高。坚持开展调查研究，深入基层、主动服务。落实“一岗双责”党风廉政建设责任制，推进财政系统惩治和预防腐败体系建设成效显著。', '三是政府性债务逐步进入偿还高峰，财政还本付息的压力增大。对此，我们必须高度重视，需在今后的工作中进一步加以研究解决。', '2011年是“十二五”开局之年，也是我市财政收入规模最大、财政投入最多的一年，财政收支创临江史上新高。一年来，在市委、市政府的领导下，财政部门按照“保工资、保稳定、保运转、保重点、促发展”的原则，充分发挥财政职能作用，着力促进加快发展方式的转变，优先保障和改善民生，超额完成了全年预算收支任务。地方级财政收入预计完成4亿元，为年初预算的120%，比上年增加1.12亿元，同比增长40%；全口径财政收入预计完成5.5亿元，为年初预算的116%，同比增加1.55亿元，增长39%；财政支出预计完成18亿元，为年初预算的100%，同比增加3亿元，增长20%。较好地完成了省政府和白山市政府下达的收支目标任务。实现了预算收支平衡，其他各项财政工作也取得了突出成绩，为我市经济平稳较快增长及社会和谐发展提供了有利的资金保障。', '2011年，是组织收入较为困难的一年。主要原因是能源、原材料、矿产品价格高位波动、煤电供求矛盾凸显,资金和劳动力短缺等，同时也存在着基数较高以和宏观经济形势带来的负面影响。面对这些问题，财税部门认真研究征管措施，加大征收力度，确保财政收入稳定增长。', '一是政府领导与财税部门亲临企业，解决实际困难，逐月调度分析收入进度，保证了财政收入及时、足额缴库。', '二是对重点企业、重点税源进行定量分析，密切跟踪收入走向，提高财税部门组织收入的能力。', '三是建立了综合治税计算机网络信息平台，提供综合治税信息的原始资料，加强国土、房产、交通、供电、工商等22个部门配合，针对我市硅藻土、铁矿开采、木材加工、金属镁等行业，财税部门结合实际制定了相应的征管措施，严禁“跑冒滴漏”，实现了应收尽收。通过综合治税增加税收1,268万元。四是树立“节支就是增收”的思想，认真研究制定有效措施，加强了财政资金管理。对出国（境）经费、车辆购置及运行费、会议费、招待费等严格控制，努力降低政府部门运行成本。严格预算约束力，积极推进预算绩效评价管理，从严控制一般性支出的审批，有效地减少了本级预算的追加。', '一是完善各部门争取资金的考评办法，落实争取资金计划指标，调动各方面向上争取资金的积极性。', '二是研究国家振兴东北老工业基地、技术改造和结构调整的支持政策，精心谋划项目，以项目争取资金。先后争取到了“国家级兴边富民特色优势产业试点县”（每年国家财政至少补助800万元）和“国家级义务教育经费保障先进管理（预算编制）试点县”，最大程度地争取了均衡性转移支付和生态功能区、边境事业建设等专项转移支付资金。全年争取转移支付和专项资金15亿元，比上年增加2.8亿元，增长24.5％，为经济社会事业发展、重点项目建设提供了强有力的资金保障。', '积极通过各种渠道筹措资金，加大对招商引资和项目建设的支持力度，推动区域经济快速发展。', '一是筹措拨付8,403万元，支持禄林木业、宝健木业、健今药业、亚太节能保温材料等几十户企业，用于项目建设、技术改造、结构调整、科技创新和开拓国际市场。', '二是落实国家、省和市政府扶持企业发展的相关税费减免政策，减轻企业负担。对棚户区改造等城市建设的相关行政事业性收费和政府性基金全部免收，全年减免金额达1,650万元。', '三是引进和使用政府承债近亿元，用于推进生态城镇化建设，对村屯进行集中实施连片改造，收储土地，为产业园区新项目落地提供了充足的土地资源。', '本着“关注民生、保障民生、改善民生”的原则，市本级积极筹措资金，重点加大百姓安居、社会保障、就业等民生领域的投入。', '一是大力改善百姓居住条件。筹措拨付“保障性”住房建设资金9,785万元，支持了城市、工矿、林业棚户区改造以及城市廉租住房建设，为7,633户居民发放廉租住房补贴830万元。拨付3,924万元，用于城区“暖房子”建设。拨付9,404万元，对城区新市大街、森工大街、鸭绿江大街等街路改造以及临江口岸的国门和市文化艺术中心建设工程、水闸棚户区建设、临城廉租房建设等基础设施改造，改善了人居环境，提升了城市的整体功能和品位。', '二是加大了社会保障的投入。积极落实提高城乡居民收入特别是低收入群体收入水平补助政策。拨付24,535万元，用于社会保险补贴、就业补贴和小额担保；筹措本级资金1,418万元，用于提高企业离退休养老金、城乡低保、新型农村社会养老和城镇居民养老保险、城镇居民基本医疗保险、城乡医疗救助和新农合医疗保险财政补助标准。拨付890万元，用于扶贫救灾和优抚救济等。', '一是拨付资金1,434万元，继续完善农村义务教育经费保障机制，全面落实免除城市义务教育阶段学生杂费、低保家庭学生补助、国家助学金地方配套、特岗教师岗位补助等，拨付1,899万元，用于农村中小学公用经费、中小学校舍维修和设备购置。加强基础教育投入，大力发展职业教育.', '二是争取省级重大科技成果转化项目340万元，用于高品质镁合金精炼技术产业化生产等项目成果转化。', '三是拨付363万元，用于“四保临江”纪念馆向社会免费开放和文物征集，以及农家书屋建设，丰富了城乡文化生活。', '四是筹措拨付3,335万元，用于市医院新建、保健院和卫生监督设备购置等基本公共卫生服务建设。五是以建设“平安临江”为目标，拨付2,897万元，用于公共安全及政法部门办案经费和装备建设补助等支出。', '一是拨付7,230万元，重点用于农村基础设施建设、农业技术推广、退耕还林、农村安全饮水、江河和水库除险加固水利工程、农村扶贫、涉农培训等。', '二是拨付2,047万元，用于中低产田改造、特色种植、养殖等项目建设，促进了农业产业结构调整。', '三是拨付2,480万元，用于农村公益事业建设，建立健全“一事一议”财政奖补制度，形成农村公益事业发展新机制。拨付资金1,860万元，用于农村道路建设。四是认真落实家电下乡惠农政策，家电下乡销售7,262台、汽车摩托车销售492台，发放补贴399万元；完成粮食直接补贴发放753万元；拨付资金1,050万元，用于落实大中型水库移民后期扶持政策。拨付资金1,949万元，用于农林水、城乡工交等行业成品油价格改革财政补贴。拨付资金722万元，用于退耕还林和农作物良种补贴。', '一是部门预算编制进一步细化，支出定额体系不断完善；国库集中支付制度改革开始正式运行，选取了教育、城建等10个预算单位进行试点，财政、人民银行、代理银行（农行）和预算单位之间已完成横向联网，成功实现了网络申请和财政资金拨付；非税收入改革进一步深化，制定了《进一步加强和规范全市非税收入管理》，将行政事业单位的国有资产出租、出让收入，广告收入，捐赠收入，利息收入等收费项目纳入预算管理，增加了非税收入；政府采购额不断增长，全年完成采购额6,840万元，增长19.8％，节约资金467万元，节资率6.39%。', '二是强化政府性债务管理，本着“消存量、控增量、建机制、广融资”的原则，严格审核债务用途，规范政府举债行为，抵御财政风险。', '三是完成了行政事业单位资产信息系统建设，实现了行政事业单位资产全面动态监管和资产收益管理。', '四是按照中央和省政府的统一部署，全面深入推进党政机关、事业单位、社会团体、国有及国有控股企业“小金库”专项治理工作，建立健全防止“小金库”孳生的长效机制；四是开展了强农惠农、社会保障和就业等民生专项资金和会计信息质量检查，保障了财政资金的安全和有效使用。', '根据新的形势和面临的任务，未来五年我市财政发展改革的指导思想是：以邓小平理论和“三个代表”重要思想为指导，深入贯彻落实科学发展观，以“科学发展、加快振兴、完善职能、提升保障”为目标，培育壮大财源，为促进经济、社会全面发展，提高城乡居民生活水平提供财力保障。', '正确处理好支持经济发展与增加财政收入的关系。到2016年，支柱产业、特色产业和新兴产业实现增加值所占GDP比重要达到80%以上；财政用于经济发展和转型方面的资金继续保持合理增幅；重点支持我市硅藻土、矿产冶金、能源三大支柱产业，林产品加工、绿色生态和现代医药、旅游三大特色产业，新材料、物流两大新兴产业的持续发展；运用贴息、奖补和产业基金投入等市场化手段，鼓励企业自主创新、技术改造和节能减排，大力促进结构调整和发展方式转变；规范非税收入管理，强化政府综合治税，堵塞税收漏洞，应收尽收，促进和保证收入稳定增长；加大向上争取资金的力度，大力争取中央、省财政支持，以弥补地方级财政收入有限、财政保障能力不足的缺欠。', '在推进工业化进程中，扶持开发区、工业园区建设，全力加快辽宁盼盼集团环保功能硅藻土新材料、沈阳机床临江大型铸件、健今药业固体制剂和针剂生产线、东大博联特羚羊铁综合利用、长白山生态产业园区、东锋镁业稀土镁合金、北京大地远通硅藻土综合利用、宝健木业环保木质百叶窗、天元催化剂等一批新建、续建项目建设进度，尽快达产达效。在推进农业现代化进程中，以现代特色农业生态园、农产品集中加工和特色农业示范基地三个方面为主攻方向，支持发展生态效益特色农业，着力加快社会主义新农村建设；大力扶持资源节约型、环保型的具备龙头作用的企业和项目，充分发挥其带动作用，努力将我市建设成为经济发达、适合人居的环境友好型城市。', '强化财政对增加城乡居民收入的促进作用。千方百计支持扩大就业；调节收入分配格局；完善社会保障体系，扩大社会保险覆盖面，提高城乡最低生活保障、城镇职工基本养老金、基本医疗、失业、工伤、生育保险和新型农村养老保险待遇及社会救助水平；落实各项强农惠农政策，使城乡协调发展；改善城乡居民居住条件，推进“保障性”住房和“暖房子”工程建设，落实相关政策，支持棚户区改造和廉租房建设。', '充分发挥公共财政的职能作用，调整和优化财政支出结构，增强政府提供基本公共产品和公共服务的能力。在推进生态城镇化建设中，加快建设区域中心城市，加快培育特色小城镇，提高城镇化水平。继续支持城区道路、污水处理、陈云公园及卧虎山公园、文化艺术中心等重点项目建设。重点推进综合物流中心、中朝国际大桥、公路货运枢纽站的建设。加大水利建设基金资金投入，尽快完成南尖头和大栗子护岸工程，实施病险水库除险加固、江河堤防水毁修复工程和小流域综合治理，继续加大对水利建设投入；坚持教育优先发展，逐年提高教育支出占财政支出的比例；加快医疗卫生事业发展，公共卫生和基本医疗服务体系建设，稳步提高基本医疗保障水平；努力支持我市“两横两纵四个出口”公路网络建设，筹措临江至白山高速公路、临江至错草二级公路，临江至长白山机场高等级公路建设配套资金；积极筹措资金，推动文化事业大发展、大繁荣，加强社会主义精神文明和民主政治建设，保障信访经费，建设平安临江。', '深化各项改革，健全政府预算体系，增强政府财力资源的统筹调控能力，增加地方财政的保障能力。深化部门预算，国库集中支付、政府采购和非税收管理制度改革；强化地方债务风险预测和监管，完善有关地方债务管理的规章制度，防范和化解地方债务风险；扩大预算绩效评价实施范围；加强财政法制建设，推进预算信息公开，健全财政收支运行监督机制；进一步加强科学化、精细化管理，使财政资金的使用绩效有明显的提高。', '抓好财政干部队伍建设，不断创新干部教育培训机制，提高干部队伍政治素质、业务能力和职业道德水平；通过制度约束、警示教育等多种手段，引导干部职工树立正确的世界观、人生观、价值观和拒腐防变能力；扎实推进干部管理和廉政建设，完善干部管理制度，强化干部监督，建立干部教育、管理、监督、奖惩并重的监控体系。', '各位代表，2012年是落实“十二五”规划的关键一年，财政工作任务十分艰巨，财税系统的干部职工将会从发展的大局出发，把握机遇，苦干实干，确保完成全年的预算收支任务。', '2012年财政工作的总体要求：全面贯彻落实科学发展观，紧紧围绕经济大提速主题和加快转变经济发展方式主线，继续发挥财政的职能作用，大力组织收入，进一步优化财政支出结构，加大对“三农”、科技、教育、医疗卫生、社会保障和就业、保障性住房、资源和环境保护的支持力度，切实保障和改善民生，推动经济增长和结构调整。加强财政科学化、精细化管理，全面推行预算绩效评价试点，从严控制一般性支出，切实提高财政资金使用效益。', '财政支出安排，一般预算支出计划为20.7亿元，增长15%（含执行中央和省财政追加的一次性专项补助）。在支出安排中，重点倾斜于教育、科技文化、社会保障和就业、医疗卫生、农林水、环境保护等方面支出，均比上年有所增长。', '1、以增收节支为核心，多措并举，加强收支管理。一是全面推行综合治税。利用综合治税网络平台，强化部门的协调配合，共享涉税信息，形成合力，应收尽收。二是加强全市经济分析。掌握税源结构、税源走向。签订收入任务责任书，明确部门目标任务，强化依法征收，及时上缴。三是加强收入入库情况调度。国、地税财政等部门协调配合，解决征管难题，抓好重点税种的跟踪调度，促进和带动其他税收入库。四是规范非税收入单位的执罚行为，坚持“以票控收”保证非税收入按时足额缴库。五是优化支出结构，严控一般性支出。落实党政机关厉行节约的有关规定，牢固树立过紧日子思想，严格执行两个“零增长”，从严控制出国、车辆购置、公务接待、学习考察等费用。', '2、以促进经济发展为第一要务，着力服务好项目建设。一是抓好“扩内需、保增长、调结构”各项资金的落实到位，全力推进产业转型和结构调整项目，使之尽快投产达效。二是统筹安排预算内资金和政府性基金，综合运用各种财税杠杆，吸引民间、社会、城外等资本投入，鼓励企业技术创新、结构调整和节能减排。三是加强政府投融资平台建设，增强融资能力。加强对财政担保银行贷款资金的跟踪管理，形成资金运转的良性循环。四是积极支持中小企业和民营经济发展。', '3、以向上争取资金为突破口，着力缓解财政资金压力。认真研究、掌握国家政策动向，加大向上争取资金和财政政策的力度。结合我市经济建设的实际，选准、选好项目，做好与上级投资计划的对接。积极争取国家和省结构调整、项目配套、政府贴息等项目资金支持；大力争取生态功能区和边境事业建设等转移支付资金；强化部门配合，积极做好向上争取资金工作。', '4、以改善和保障民生为重点，着力推进社会各项事业发展。一是加大社会保障资金扶持。落实下岗再就业纳税人的税收优惠政策；免费培训下岗失业人员；城乡低保资金及时到位；筹措资金，保障新型农村社会养老保险试点和城镇居民社会养老保险试点的县级配套资金；提高参加新型农村合作医疗中农民大病报销的补偿比例；对国家、省出台的调资政策，财政努力筹措资金，保障兑现并足额发放。二是加大临城廉租房等安居工程及配套设施资金投入力度，加快“保障性”住房工程建设，做好廉租房补贴发放工作。三是支持加快发展社会事业。以国家级义务教育经费保障先进管理试点县为契机，进一步完善农村义务教育经费保障机制和城乡义务教育免费政策。努力筹措财力和资金，落实财政性教育支出的配套资金。支持市一中异地建设，加快职业教育建设，新建综合实训基地；支持加大水利建设投入，实现水利建设资金投入年均增幅达到5%；支持医疗卫生体制改革，做好公立医院改革试点；支持科技创新能力，提高科技成果转化能力；支持文化、体育、广电、计生等社会事业协调发展。四是支持城乡基础设施建设，优化城市生态环境。重点保证污水处理厂、文化艺术中心等工程项目；积极支持生态城镇化进程。五是支持平安临江建设,加强社区和农村网络化治安巡逻防控体系建设。', '5、以增加农民收入为目的，着力加大对“三农”的资金支持。重视“三农”工作，努力促进农业发展、农民增收、农村繁荣。一是落实好惠农补贴发放政策。加强粮食直补和退耕还林补贴发放管理；认真落实家电、汽车摩托车下乡等国家扩大内需政策。二是加强农村基础设施建设。充分利用农村公益事业建设的“一事一议”财政奖补优惠政策，支持农村节约能源、安全饮水工程、整村推进、农村危房改造等，不断改善农村人居环境。三是借助“兴边富民”特色优势产业试点县政策，以大栗子南尖头、大湖街道葫芦套农业生态园区等农村基础设施建设、劳动力培训、产业发展为重点，加大政策和资金扶持力度，扎实推进农村扶贫开发；继续落实好大中型水库移民后期扶持政策。四是进一步加强农村基层组织建设，完善村级组织运转经费财政保障机制，确保基层组织能正常运转。', '6、深入推进预算管理制度改革。一是进一步推进部门预算改革，扩大部门预算编制范围，制定下发《推进预算绩效管理的意见》和《预算绩效评价管理办法》。选择部分部门和单位开展预算绩效评价试点。研究建立预算项目库，规范和细化预算编制，提高预算到位率。二是继续推进国库集中支付制度改革，所有预算单位和所有财政性资金全部实行国库集中收付，做到支付规范化、程序化、信息化。三是加强专项资金的监管，提高财政资金的使用效益。研究制定下发《加强财政专项资金的申报及拨付和使用管理办法》。四是推进基金预算和国有资本经营预算编制改革，进一步细化预算编制，提高预算编制的规范性，建立基金及国有资本经营预算支出项目库，推动与公共预算的相互衔接。五是坚持以公开招标为主要采购方式，严格执行政府采购程序，强化法律约束。六是加强财政投资评审，提升评审能力和水平。七是加强地方政府性债务管理，健全和完善债务风险预警机制。通过控制规模，逐年消化等措施，防范和化解财政风险。八是进一步完善财政监督检查机制，对重点资金、重点行业、重点项目进行专项检查；强化行政事业单位资产及收益管理，建立健全“小金库”治理的长效机制。', '厉兵秣马筹千计，天戈直指破万难。各位代表，2012年将是我市贯彻落实科学发展观，推进经济、社会的全面、协调、可持续发展进程中，充满机遇与挑战的一年。我们将在市委的正确领导下，在市人大、政协的监督下，在各兄弟部门和社会各方面力量的大力支持下，凝心聚力、攻坚克难，为我市加快富民强市、持续推进经济大提速、发展大转型、民生大改善做出更大更突出的贡献！']</t>
         </is>
